--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573105</v>
+        <v>0.584622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.593391</v>
+        <v>0.57606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.586222</v>
+        <v>0.60934</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560958</v>
+        <v>0.571404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5755670000000001</v>
+        <v>0.5602470000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5686639999999999</v>
+        <v>0.593015</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.548961</v>
+        <v>0.5590309999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.558947</v>
+        <v>0.546147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.553579</v>
+        <v>0.576921</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.539052</v>
+        <v>0.54927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.544038</v>
+        <v>0.533743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5400199999999999</v>
+        <v>0.562835</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5306</v>
+        <v>0.540668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.530107</v>
+        <v>0.52201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.527843</v>
+        <v>0.549826</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.524107</v>
+        <v>0.533799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51712</v>
+        <v>0.512539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.517109</v>
+        <v>0.539308</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.520997</v>
+        <v>0.529004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507432</v>
+        <v>0.505847</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5100479999999999</v>
+        <v>0.531188</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.521046</v>
+        <v>0.5290010000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499521</v>
+        <v>0.753887</v>
       </c>
       <c r="D9" t="n">
-        <v>0.772516</v>
+        <v>0.800932</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.668564</v>
+        <v>0.6727340000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.730092</v>
+        <v>0.682887</v>
       </c>
       <c r="D10" t="n">
-        <v>0.746769</v>
+        <v>0.774813</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.64955</v>
+        <v>0.6530550000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.706047</v>
+        <v>0.661861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.72254</v>
+        <v>0.749966</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630787</v>
+        <v>0.634707</v>
       </c>
       <c r="C12" t="n">
-        <v>0.683358</v>
+        <v>0.642466</v>
       </c>
       <c r="D12" t="n">
-        <v>0.699453</v>
+        <v>0.72646</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.613318</v>
+        <v>0.617262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6610009999999999</v>
+        <v>0.624445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.677285</v>
+        <v>0.704255</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5976050000000001</v>
+        <v>0.601411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639899</v>
+        <v>0.606922</v>
       </c>
       <c r="D14" t="n">
-        <v>0.656393</v>
+        <v>0.6831159999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582564</v>
+        <v>0.586684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6205619999999999</v>
+        <v>0.590069</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6367429999999999</v>
+        <v>0.662948</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.568416</v>
+        <v>0.57338</v>
       </c>
       <c r="C16" t="n">
-        <v>0.601954</v>
+        <v>0.574303</v>
       </c>
       <c r="D16" t="n">
-        <v>0.618069</v>
+        <v>0.644161</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.555663</v>
+        <v>0.560026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.584298</v>
+        <v>0.560176</v>
       </c>
       <c r="D17" t="n">
-        <v>0.600456</v>
+        <v>0.627261</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5443170000000001</v>
+        <v>0.54808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.567931</v>
+        <v>0.546717</v>
       </c>
       <c r="D18" t="n">
-        <v>0.584226</v>
+        <v>0.610636</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533976</v>
+        <v>0.537653</v>
       </c>
       <c r="C19" t="n">
-        <v>0.552924</v>
+        <v>0.534658</v>
       </c>
       <c r="D19" t="n">
-        <v>0.569157</v>
+        <v>0.5958329999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5253060000000001</v>
+        <v>0.529073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.538554</v>
+        <v>0.523508</v>
       </c>
       <c r="D20" t="n">
-        <v>0.555542</v>
+        <v>0.582782</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.518275</v>
+        <v>0.523186</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525599</v>
+        <v>0.514247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.543788</v>
+        <v>0.571702</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.513925</v>
+        <v>0.517921</v>
       </c>
       <c r="C22" t="n">
-        <v>0.51545</v>
+        <v>0.507632</v>
       </c>
       <c r="D22" t="n">
-        <v>0.535276</v>
+        <v>0.56337</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.513483</v>
+        <v>0.516896</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5060210000000001</v>
+        <v>0.758591</v>
       </c>
       <c r="D23" t="n">
-        <v>0.808191</v>
+        <v>0.844015</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.716213</v>
+        <v>0.720503</v>
       </c>
       <c r="C24" t="n">
-        <v>0.785315</v>
+        <v>0.735846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.782805</v>
+        <v>0.817239</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.695211</v>
+        <v>0.699817</v>
       </c>
       <c r="C25" t="n">
-        <v>0.759383</v>
+        <v>0.713274</v>
       </c>
       <c r="D25" t="n">
-        <v>0.756499</v>
+        <v>0.79099</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675357</v>
+        <v>0.679283</v>
       </c>
       <c r="C26" t="n">
-        <v>0.734695</v>
+        <v>0.692203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.732816</v>
+        <v>0.765831</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655914</v>
+        <v>0.660241</v>
       </c>
       <c r="C27" t="n">
-        <v>0.711111</v>
+        <v>0.671521</v>
       </c>
       <c r="D27" t="n">
-        <v>0.709412</v>
+        <v>0.741769</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.637893</v>
+        <v>0.642236</v>
       </c>
       <c r="C28" t="n">
-        <v>0.688191</v>
+        <v>0.652003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.687173</v>
+        <v>0.7196129999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6212220000000001</v>
+        <v>0.625451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6665450000000001</v>
+        <v>0.6342410000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6661589999999999</v>
+        <v>0.698485</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60571</v>
+        <v>0.61005</v>
       </c>
       <c r="C30" t="n">
-        <v>0.646311</v>
+        <v>0.616585</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6461</v>
+        <v>0.678234</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.591353</v>
+        <v>0.595012</v>
       </c>
       <c r="C31" t="n">
-        <v>0.62692</v>
+        <v>0.600197</v>
       </c>
       <c r="D31" t="n">
-        <v>0.627537</v>
+        <v>0.659701</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578125</v>
+        <v>0.581865</v>
       </c>
       <c r="C32" t="n">
-        <v>0.608961</v>
+        <v>0.585043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.610058</v>
+        <v>0.642042</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566567</v>
+        <v>0.569851</v>
       </c>
       <c r="C33" t="n">
-        <v>0.591676</v>
+        <v>0.5716329999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.594295</v>
+        <v>0.6258550000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.556105</v>
+        <v>0.559661</v>
       </c>
       <c r="C34" t="n">
-        <v>0.576258</v>
+        <v>0.558783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.579251</v>
+        <v>0.61117</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.547083</v>
+        <v>0.55193</v>
       </c>
       <c r="C35" t="n">
-        <v>0.561832</v>
+        <v>0.547571</v>
       </c>
       <c r="D35" t="n">
-        <v>0.566805</v>
+        <v>0.598314</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.541103</v>
+        <v>0.545806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.54895</v>
+        <v>0.538577</v>
       </c>
       <c r="D36" t="n">
-        <v>0.556246</v>
+        <v>0.587161</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.53768</v>
+        <v>0.543028</v>
       </c>
       <c r="C37" t="n">
-        <v>0.53884</v>
+        <v>0.793004</v>
       </c>
       <c r="D37" t="n">
-        <v>0.834666</v>
+        <v>0.879852</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.74718</v>
+        <v>0.752125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.820329</v>
+        <v>0.769601</v>
       </c>
       <c r="D38" t="n">
-        <v>0.807514</v>
+        <v>0.8518790000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.726185</v>
+        <v>0.730712</v>
       </c>
       <c r="C39" t="n">
-        <v>0.794855</v>
+        <v>0.7455619999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.781929</v>
+        <v>0.824201</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.705196</v>
+        <v>0.709892</v>
       </c>
       <c r="C40" t="n">
-        <v>0.768679</v>
+        <v>0.723543</v>
       </c>
       <c r="D40" t="n">
-        <v>0.756677</v>
+        <v>0.798712</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.684801</v>
+        <v>0.690127</v>
       </c>
       <c r="C41" t="n">
-        <v>0.743069</v>
+        <v>0.702447</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7320990000000001</v>
+        <v>0.774414</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.666793</v>
+        <v>0.670524</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7204700000000001</v>
+        <v>0.68241</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7104279999999999</v>
+        <v>0.751145</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.648957</v>
+        <v>0.653405</v>
       </c>
       <c r="C43" t="n">
-        <v>0.698476</v>
+        <v>0.663182</v>
       </c>
       <c r="D43" t="n">
-        <v>0.689291</v>
+        <v>0.7287940000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.631746</v>
+        <v>0.637283</v>
       </c>
       <c r="C44" t="n">
-        <v>0.675914</v>
+        <v>0.644776</v>
       </c>
       <c r="D44" t="n">
-        <v>0.667388</v>
+        <v>0.707283</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.617181</v>
+        <v>0.6222259999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6560550000000001</v>
+        <v>0.627866</v>
       </c>
       <c r="D45" t="n">
-        <v>0.649338</v>
+        <v>0.687752</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.602218</v>
+        <v>0.607745</v>
       </c>
       <c r="C46" t="n">
-        <v>0.638556</v>
+        <v>0.612221</v>
       </c>
       <c r="D46" t="n">
-        <v>0.631514</v>
+        <v>0.669181</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.590804</v>
+        <v>0.59535</v>
       </c>
       <c r="C47" t="n">
-        <v>0.621709</v>
+        <v>0.597437</v>
       </c>
       <c r="D47" t="n">
-        <v>0.614248</v>
+        <v>0.651827</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.580116</v>
+        <v>0.5840919999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.604428</v>
+        <v>0.584297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.598807</v>
+        <v>0.636164</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.570493</v>
+        <v>0.575102</v>
       </c>
       <c r="C49" t="n">
-        <v>0.589759</v>
+        <v>0.572171</v>
       </c>
       <c r="D49" t="n">
-        <v>0.585543</v>
+        <v>0.622031</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.563339</v>
+        <v>0.567994</v>
       </c>
       <c r="C50" t="n">
-        <v>0.575431</v>
+        <v>0.562008</v>
       </c>
       <c r="D50" t="n">
-        <v>0.574597</v>
+        <v>0.609745</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.558151</v>
+        <v>0.563917</v>
       </c>
       <c r="C51" t="n">
-        <v>0.563715</v>
+        <v>0.820174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.861567</v>
+        <v>0.924042</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.558407</v>
+        <v>0.563068</v>
       </c>
       <c r="C52" t="n">
-        <v>0.555808</v>
+        <v>0.797086</v>
       </c>
       <c r="D52" t="n">
-        <v>0.835057</v>
+        <v>0.8951519999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.754702</v>
+        <v>0.756051</v>
       </c>
       <c r="C53" t="n">
-        <v>0.825172</v>
+        <v>0.772734</v>
       </c>
       <c r="D53" t="n">
-        <v>0.807218</v>
+        <v>0.867586</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.732786</v>
+        <v>0.7353690000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.80075</v>
+        <v>0.7505500000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.780855</v>
+        <v>0.840118</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.713128</v>
+        <v>0.714302</v>
       </c>
       <c r="C55" t="n">
-        <v>0.77441</v>
+        <v>0.727741</v>
       </c>
       <c r="D55" t="n">
-        <v>0.756616</v>
+        <v>0.815178</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.694083</v>
+        <v>0.695272</v>
       </c>
       <c r="C56" t="n">
-        <v>0.751208</v>
+        <v>0.70596</v>
       </c>
       <c r="D56" t="n">
-        <v>0.733294</v>
+        <v>0.79154</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.677336</v>
+        <v>0.677688</v>
       </c>
       <c r="C57" t="n">
-        <v>0.727588</v>
+        <v>0.687541</v>
       </c>
       <c r="D57" t="n">
-        <v>0.713089</v>
+        <v>0.767706</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.661285</v>
+        <v>0.661524</v>
       </c>
       <c r="C58" t="n">
-        <v>0.704942</v>
+        <v>0.669135</v>
       </c>
       <c r="D58" t="n">
-        <v>0.691889</v>
+        <v>0.748023</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64424</v>
+        <v>0.646034</v>
       </c>
       <c r="C59" t="n">
-        <v>0.688479</v>
+        <v>0.653767</v>
       </c>
       <c r="D59" t="n">
-        <v>0.673057</v>
+        <v>0.72883</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630915</v>
+        <v>0.632301</v>
       </c>
       <c r="C60" t="n">
-        <v>0.666655</v>
+        <v>0.636507</v>
       </c>
       <c r="D60" t="n">
-        <v>0.655904</v>
+        <v>0.709305</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.617939</v>
+        <v>0.619557</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648408</v>
+        <v>0.622018</v>
       </c>
       <c r="D61" t="n">
-        <v>0.63863</v>
+        <v>0.692093</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.60648</v>
+        <v>0.60862</v>
       </c>
       <c r="C62" t="n">
-        <v>0.631338</v>
+        <v>0.609476</v>
       </c>
       <c r="D62" t="n">
-        <v>0.622278</v>
+        <v>0.674602</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.596704</v>
+        <v>0.598939</v>
       </c>
       <c r="C63" t="n">
-        <v>0.614947</v>
+        <v>0.597397</v>
       </c>
       <c r="D63" t="n">
-        <v>0.608262</v>
+        <v>0.660342</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589578</v>
+        <v>0.591417</v>
       </c>
       <c r="C64" t="n">
-        <v>0.601125</v>
+        <v>0.58589</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5965780000000001</v>
+        <v>0.64825</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.584313</v>
+        <v>0.5873930000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.589595</v>
+        <v>0.577635</v>
       </c>
       <c r="D65" t="n">
-        <v>0.587611</v>
+        <v>0.637861</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5827059999999999</v>
+        <v>0.585293</v>
       </c>
       <c r="C66" t="n">
-        <v>0.579784</v>
+        <v>0.835198</v>
       </c>
       <c r="D66" t="n">
-        <v>0.881028</v>
+        <v>0.95543</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.811832</v>
+        <v>0.804078</v>
       </c>
       <c r="C67" t="n">
-        <v>0.891172</v>
+        <v>0.814649</v>
       </c>
       <c r="D67" t="n">
-        <v>0.856149</v>
+        <v>0.928961</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.794272</v>
+        <v>0.785017</v>
       </c>
       <c r="C68" t="n">
-        <v>0.864111</v>
+        <v>0.792969</v>
       </c>
       <c r="D68" t="n">
-        <v>0.829376</v>
+        <v>0.901545</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.776775</v>
+        <v>0.767339</v>
       </c>
       <c r="C69" t="n">
-        <v>0.850136</v>
+        <v>0.769486</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8070889999999999</v>
+        <v>0.874892</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7596810000000001</v>
+        <v>0.746127</v>
       </c>
       <c r="C70" t="n">
-        <v>0.813954</v>
+        <v>0.750599</v>
       </c>
       <c r="D70" t="n">
-        <v>0.780918</v>
+        <v>0.851869</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7421990000000001</v>
+        <v>0.730504</v>
       </c>
       <c r="C71" t="n">
-        <v>0.789106</v>
+        <v>0.728232</v>
       </c>
       <c r="D71" t="n">
-        <v>0.758243</v>
+        <v>0.827814</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.72443</v>
+        <v>0.714628</v>
       </c>
       <c r="C72" t="n">
-        <v>0.762902</v>
+        <v>0.709685</v>
       </c>
       <c r="D72" t="n">
-        <v>0.737307</v>
+        <v>0.807319</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7098</v>
+        <v>0.698551</v>
       </c>
       <c r="C73" t="n">
-        <v>0.752084</v>
+        <v>0.693528</v>
       </c>
       <c r="D73" t="n">
-        <v>0.718287</v>
+        <v>0.784296</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.696454</v>
+        <v>0.685211</v>
       </c>
       <c r="C74" t="n">
-        <v>0.721565</v>
+        <v>0.674972</v>
       </c>
       <c r="D74" t="n">
-        <v>0.697854</v>
+        <v>0.763448</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.683047</v>
+        <v>0.672532</v>
       </c>
       <c r="C75" t="n">
-        <v>0.704696</v>
+        <v>0.664198</v>
       </c>
       <c r="D75" t="n">
-        <v>0.680435</v>
+        <v>0.746686</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.673048</v>
+        <v>0.659425</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6921890000000001</v>
+        <v>0.647307</v>
       </c>
       <c r="D76" t="n">
-        <v>0.665942</v>
+        <v>0.728286</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662937</v>
+        <v>0.649358</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6712320000000001</v>
+        <v>0.63519</v>
       </c>
       <c r="D77" t="n">
-        <v>0.650309</v>
+        <v>0.714909</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6535029999999999</v>
+        <v>0.641226</v>
       </c>
       <c r="C78" t="n">
-        <v>0.657548</v>
+        <v>0.624452</v>
       </c>
       <c r="D78" t="n">
-        <v>0.638369</v>
+        <v>0.69973</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.648459</v>
+        <v>0.632943</v>
       </c>
       <c r="C79" t="n">
-        <v>0.64218</v>
+        <v>0.613015</v>
       </c>
       <c r="D79" t="n">
-        <v>0.627101</v>
+        <v>0.6896330000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.642676</v>
+        <v>0.633305</v>
       </c>
       <c r="C80" t="n">
-        <v>0.630625</v>
+        <v>0.9124</v>
       </c>
       <c r="D80" t="n">
-        <v>0.958508</v>
+        <v>1.04487</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.890811</v>
+        <v>0.881773</v>
       </c>
       <c r="C81" t="n">
-        <v>0.978935</v>
+        <v>0.9023</v>
       </c>
       <c r="D81" t="n">
-        <v>0.940178</v>
+        <v>1.02914</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.884198</v>
+        <v>0.876197</v>
       </c>
       <c r="C82" t="n">
-        <v>0.965558</v>
+        <v>0.886786</v>
       </c>
       <c r="D82" t="n">
-        <v>0.919368</v>
+        <v>1.00999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.873722</v>
+        <v>0.86887</v>
       </c>
       <c r="C83" t="n">
-        <v>0.943693</v>
+        <v>0.869327</v>
       </c>
       <c r="D83" t="n">
-        <v>0.899697</v>
+        <v>0.983575</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.864834</v>
+        <v>0.859334</v>
       </c>
       <c r="C84" t="n">
-        <v>0.924647</v>
+        <v>0.849956</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8784920000000001</v>
+        <v>0.963655</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.852596</v>
+        <v>0.847514</v>
       </c>
       <c r="C85" t="n">
-        <v>0.904219</v>
+        <v>0.831893</v>
       </c>
       <c r="D85" t="n">
-        <v>0.856779</v>
+        <v>0.936102</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.841325</v>
+        <v>0.837284</v>
       </c>
       <c r="C86" t="n">
-        <v>0.881184</v>
+        <v>0.812758</v>
       </c>
       <c r="D86" t="n">
-        <v>0.836233</v>
+        <v>0.918351</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.831668</v>
+        <v>0.826234</v>
       </c>
       <c r="C87" t="n">
-        <v>0.865465</v>
+        <v>0.792253</v>
       </c>
       <c r="D87" t="n">
-        <v>0.815484</v>
+        <v>0.895844</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.819593</v>
+        <v>0.815143</v>
       </c>
       <c r="C88" t="n">
-        <v>0.842095</v>
+        <v>0.774387</v>
       </c>
       <c r="D88" t="n">
-        <v>0.795407</v>
+        <v>0.872012</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.808437</v>
+        <v>0.802515</v>
       </c>
       <c r="C89" t="n">
-        <v>0.821045</v>
+        <v>0.755992</v>
       </c>
       <c r="D89" t="n">
-        <v>0.77641</v>
+        <v>0.848909</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.79779</v>
+        <v>0.792597</v>
       </c>
       <c r="C90" t="n">
-        <v>0.80515</v>
+        <v>0.741667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.758826</v>
+        <v>0.8204399999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.789519</v>
+        <v>0.783367</v>
       </c>
       <c r="C91" t="n">
-        <v>0.787829</v>
+        <v>0.7250799999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7430369999999999</v>
+        <v>0.8136949999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781517</v>
+        <v>0.778586</v>
       </c>
       <c r="C92" t="n">
-        <v>0.774064</v>
+        <v>0.713983</v>
       </c>
       <c r="D92" t="n">
-        <v>0.727961</v>
+        <v>0.789699</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.774498</v>
+        <v>0.771981</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756553</v>
+        <v>0.700138</v>
       </c>
       <c r="D93" t="n">
-        <v>0.715408</v>
+        <v>0.775524</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7716730000000001</v>
+        <v>0.769622</v>
       </c>
       <c r="C94" t="n">
-        <v>0.74236</v>
+        <v>1.0064</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05238</v>
+        <v>1.14626</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0247</v>
+        <v>1.01658</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08886</v>
+        <v>0.996584</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04394</v>
+        <v>1.12998</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02715</v>
+        <v>1.01506</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08709</v>
+        <v>0.976338</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02499</v>
+        <v>1.10759</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01511</v>
+        <v>1.00649</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06829</v>
+        <v>0.9622039999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00673</v>
+        <v>1.08257</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00358</v>
+        <v>0.9965810000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0467</v>
+        <v>0.943694</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9865429999999999</v>
+        <v>1.05938</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9936739999999999</v>
+        <v>0.985347</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03045</v>
+        <v>0.9254</v>
       </c>
       <c r="D99" t="n">
-        <v>0.969122</v>
+        <v>1.04023</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.983926</v>
+        <v>0.9754660000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0094</v>
+        <v>0.915666</v>
       </c>
       <c r="D100" t="n">
-        <v>0.951483</v>
+        <v>1.02293</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975037</v>
+        <v>0.967701</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991761</v>
+        <v>0.899817</v>
       </c>
       <c r="D101" t="n">
-        <v>0.93533</v>
+        <v>0.997012</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9659450000000001</v>
+        <v>0.959518</v>
       </c>
       <c r="C102" t="n">
-        <v>0.977784</v>
+        <v>0.8836889999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.919044</v>
+        <v>0.982731</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.958744</v>
+        <v>0.951884</v>
       </c>
       <c r="C103" t="n">
-        <v>0.961622</v>
+        <v>0.8670330000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.90379</v>
+        <v>0.966933</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.950301</v>
+        <v>0.946447</v>
       </c>
       <c r="C104" t="n">
-        <v>0.945235</v>
+        <v>0.856086</v>
       </c>
       <c r="D104" t="n">
-        <v>0.889287</v>
+        <v>0.944844</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.944707</v>
+        <v>0.941172</v>
       </c>
       <c r="C105" t="n">
-        <v>0.933601</v>
+        <v>0.844953</v>
       </c>
       <c r="D105" t="n">
-        <v>0.875445</v>
+        <v>0.929818</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.939667</v>
+        <v>0.938128</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922179</v>
+        <v>0.8381769999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.862907</v>
+        <v>0.916416</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93769</v>
+        <v>0.936514</v>
       </c>
       <c r="C107" t="n">
-        <v>0.92138</v>
+        <v>0.825434</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8526010000000001</v>
+        <v>0.9115259999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9374209999999999</v>
+        <v>0.936748</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9021130000000001</v>
+        <v>1.12608</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1894</v>
+        <v>1.26949</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9418260000000001</v>
+        <v>0.941325</v>
       </c>
       <c r="C109" t="n">
-        <v>0.895808</v>
+        <v>1.12066</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18044</v>
+        <v>1.25783</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18842</v>
+        <v>1.18963</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24195</v>
+        <v>1.10719</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16335</v>
+        <v>1.23529</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17576</v>
+        <v>1.17855</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2275</v>
+        <v>1.09239</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14671</v>
+        <v>1.21485</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16367</v>
+        <v>1.16618</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20657</v>
+        <v>1.07854</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13124</v>
+        <v>1.19571</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15195</v>
+        <v>1.15736</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18865</v>
+        <v>1.06793</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11558</v>
+        <v>1.18599</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14098</v>
+        <v>1.14741</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16988</v>
+        <v>1.05781</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10123</v>
+        <v>1.16476</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13128</v>
+        <v>1.1381</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15625</v>
+        <v>1.04124</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08707</v>
+        <v>1.14574</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12291</v>
+        <v>1.12901</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14013</v>
+        <v>1.0341</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07456</v>
+        <v>1.13038</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11471</v>
+        <v>1.12242</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13372</v>
+        <v>1.02814</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06226</v>
+        <v>1.12178</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10811</v>
+        <v>1.11536</v>
       </c>
       <c r="C118" t="n">
-        <v>1.1162</v>
+        <v>1.01904</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05214</v>
+        <v>1.10999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10278</v>
+        <v>1.11047</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10204</v>
+        <v>1.00264</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04103</v>
+        <v>1.0915</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09821</v>
+        <v>1.10725</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09164</v>
+        <v>1.00037</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03123</v>
+        <v>1.08497</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09703</v>
+        <v>1.10537</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08254</v>
+        <v>0.9879289999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02253</v>
+        <v>1.06899</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0974</v>
+        <v>1.10567</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07387</v>
+        <v>0.982916</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01504</v>
+        <v>1.06554</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10111</v>
+        <v>1.11142</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06771</v>
+        <v>1.28817</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34823</v>
+        <v>1.42322</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35011</v>
+        <v>1.35369</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41388</v>
+        <v>1.27833</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33491</v>
+        <v>1.40677</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33979</v>
+        <v>1.34449</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39851</v>
+        <v>1.26669</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32184</v>
+        <v>1.38108</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33129</v>
+        <v>1.33593</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38226</v>
+        <v>1.25824</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3112</v>
+        <v>1.3768</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32231</v>
+        <v>1.32836</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37611</v>
+        <v>1.25272</v>
       </c>
       <c r="D127" t="n">
-        <v>1.2999</v>
+        <v>1.36142</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31487</v>
+        <v>1.32101</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35416</v>
+        <v>1.24329</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29006</v>
+        <v>1.34856</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30742</v>
+        <v>1.31589</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34094</v>
+        <v>1.23625</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27867</v>
+        <v>1.33723</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30083</v>
+        <v>1.30966</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32789</v>
+        <v>1.22682</v>
       </c>
       <c r="D130" t="n">
-        <v>1.26822</v>
+        <v>1.32773</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29615</v>
+        <v>1.30499</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31773</v>
+        <v>1.22444</v>
       </c>
       <c r="D131" t="n">
-        <v>1.26116</v>
+        <v>1.31292</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29222</v>
+        <v>1.30179</v>
       </c>
       <c r="C132" t="n">
-        <v>1.3085</v>
+        <v>1.21801</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25357</v>
+        <v>1.30204</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.28913</v>
+        <v>1.29989</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29721</v>
+        <v>1.21437</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24559</v>
+        <v>1.297</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2881</v>
+        <v>1.29899</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28741</v>
+        <v>1.20723</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23832</v>
+        <v>1.28863</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28812</v>
+        <v>1.29832</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27996</v>
+        <v>1.20382</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23234</v>
+        <v>1.27859</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29053</v>
+        <v>1.30279</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27464</v>
+        <v>1.19751</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22518</v>
+        <v>1.26733</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2948</v>
+        <v>1.30701</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26877</v>
+        <v>1.49667</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55481</v>
+        <v>1.62935</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54366</v>
+        <v>1.55101</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61243</v>
+        <v>1.48997</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54335</v>
+        <v>1.61846</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.5365</v>
+        <v>1.54546</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59798</v>
+        <v>1.48271</v>
       </c>
       <c r="D139" t="n">
-        <v>1.53292</v>
+        <v>1.60356</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52831</v>
+        <v>1.53847</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58594</v>
+        <v>1.47581</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52401</v>
+        <v>1.59288</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52249</v>
+        <v>1.53234</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57332</v>
+        <v>1.47028</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51412</v>
+        <v>1.58095</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51659</v>
+        <v>1.5258</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56331</v>
+        <v>1.46413</v>
       </c>
       <c r="D142" t="n">
-        <v>1.50662</v>
+        <v>1.57091</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51159</v>
+        <v>1.52169</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55066</v>
+        <v>1.45954</v>
       </c>
       <c r="D143" t="n">
-        <v>1.49722</v>
+        <v>1.56119</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.584622</v>
+        <v>0.583036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.57606</v>
+        <v>0.581785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.60934</v>
+        <v>0.608789</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.571404</v>
+        <v>0.5683550000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5602470000000001</v>
+        <v>0.566244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.593015</v>
+        <v>0.592388</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5590309999999999</v>
+        <v>0.556042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.546147</v>
+        <v>0.5520969999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.576921</v>
+        <v>0.5762080000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.54927</v>
+        <v>0.546503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.533743</v>
+        <v>0.539261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.562835</v>
+        <v>0.5620889999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.540668</v>
+        <v>0.53801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.52201</v>
+        <v>0.527228</v>
       </c>
       <c r="D6" t="n">
-        <v>0.549826</v>
+        <v>0.549144</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.533799</v>
+        <v>0.531075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.512539</v>
+        <v>0.518283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.539308</v>
+        <v>0.539001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.529004</v>
+        <v>0.526017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.505847</v>
+        <v>0.510713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531188</v>
+        <v>0.530523</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5290010000000001</v>
+        <v>0.526455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.753887</v>
+        <v>0.7595499999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.800932</v>
+        <v>0.8002939999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6727340000000001</v>
+        <v>0.6704059999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.682887</v>
+        <v>0.687987</v>
       </c>
       <c r="D10" t="n">
-        <v>0.774813</v>
+        <v>0.774516</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6530550000000001</v>
+        <v>0.650536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.661861</v>
+        <v>0.667867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.749966</v>
+        <v>0.74935</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634707</v>
+        <v>0.6319360000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.642466</v>
+        <v>0.6479470000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.72646</v>
+        <v>0.725931</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617262</v>
+        <v>0.6148439999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.624445</v>
+        <v>0.629416</v>
       </c>
       <c r="D13" t="n">
-        <v>0.704255</v>
+        <v>0.703451</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.601411</v>
+        <v>0.599101</v>
       </c>
       <c r="C14" t="n">
-        <v>0.606922</v>
+        <v>0.6121220000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6831159999999999</v>
+        <v>0.682381</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.586684</v>
+        <v>0.583981</v>
       </c>
       <c r="C15" t="n">
-        <v>0.590069</v>
+        <v>0.5951880000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.662948</v>
+        <v>0.662454</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.57338</v>
+        <v>0.570312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.574303</v>
+        <v>0.57929</v>
       </c>
       <c r="D16" t="n">
-        <v>0.644161</v>
+        <v>0.643711</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560026</v>
+        <v>0.557218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.560176</v>
+        <v>0.565221</v>
       </c>
       <c r="D17" t="n">
-        <v>0.627261</v>
+        <v>0.626448</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54808</v>
+        <v>0.54592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.546717</v>
+        <v>0.551549</v>
       </c>
       <c r="D18" t="n">
-        <v>0.610636</v>
+        <v>0.609901</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.537653</v>
+        <v>0.535347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.534658</v>
+        <v>0.539315</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5958329999999999</v>
+        <v>0.595421</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529073</v>
+        <v>0.52698</v>
       </c>
       <c r="C20" t="n">
-        <v>0.523508</v>
+        <v>0.527562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.582782</v>
+        <v>0.582463</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523186</v>
+        <v>0.520519</v>
       </c>
       <c r="C21" t="n">
-        <v>0.514247</v>
+        <v>0.518057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.571702</v>
+        <v>0.571396</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.517921</v>
+        <v>0.516138</v>
       </c>
       <c r="C22" t="n">
-        <v>0.507632</v>
+        <v>0.511722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.56337</v>
+        <v>0.563121</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516896</v>
+        <v>0.514745</v>
       </c>
       <c r="C23" t="n">
-        <v>0.758591</v>
+        <v>0.763155</v>
       </c>
       <c r="D23" t="n">
-        <v>0.844015</v>
+        <v>0.842797</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720503</v>
+        <v>0.7183929999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.735846</v>
+        <v>0.740343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.817239</v>
+        <v>0.816323</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699817</v>
+        <v>0.697554</v>
       </c>
       <c r="C25" t="n">
-        <v>0.713274</v>
+        <v>0.71767</v>
       </c>
       <c r="D25" t="n">
-        <v>0.79099</v>
+        <v>0.7899</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.679283</v>
+        <v>0.67745</v>
       </c>
       <c r="C26" t="n">
-        <v>0.692203</v>
+        <v>0.696188</v>
       </c>
       <c r="D26" t="n">
-        <v>0.765831</v>
+        <v>0.765298</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660241</v>
+        <v>0.658041</v>
       </c>
       <c r="C27" t="n">
-        <v>0.671521</v>
+        <v>0.675674</v>
       </c>
       <c r="D27" t="n">
-        <v>0.741769</v>
+        <v>0.741304</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642236</v>
+        <v>0.639813</v>
       </c>
       <c r="C28" t="n">
-        <v>0.652003</v>
+        <v>0.656289</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7196129999999999</v>
+        <v>0.7195780000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.625451</v>
+        <v>0.6233070000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6342410000000001</v>
+        <v>0.637666</v>
       </c>
       <c r="D29" t="n">
-        <v>0.698485</v>
+        <v>0.697979</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.61005</v>
+        <v>0.607761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.616585</v>
+        <v>0.620427</v>
       </c>
       <c r="D30" t="n">
-        <v>0.678234</v>
+        <v>0.678071</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595012</v>
+        <v>0.593132</v>
       </c>
       <c r="C31" t="n">
-        <v>0.600197</v>
+        <v>0.604151</v>
       </c>
       <c r="D31" t="n">
-        <v>0.659701</v>
+        <v>0.659386</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581865</v>
+        <v>0.579831</v>
       </c>
       <c r="C32" t="n">
-        <v>0.585043</v>
+        <v>0.5890030000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.642042</v>
+        <v>0.641192</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569851</v>
+        <v>0.568022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5716329999999999</v>
+        <v>0.574665</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6258550000000001</v>
+        <v>0.625508</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.559661</v>
+        <v>0.557899</v>
       </c>
       <c r="C34" t="n">
-        <v>0.558783</v>
+        <v>0.562152</v>
       </c>
       <c r="D34" t="n">
-        <v>0.61117</v>
+        <v>0.610439</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.55193</v>
+        <v>0.550517</v>
       </c>
       <c r="C35" t="n">
-        <v>0.547571</v>
+        <v>0.550893</v>
       </c>
       <c r="D35" t="n">
-        <v>0.598314</v>
+        <v>0.598481</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.545806</v>
+        <v>0.544096</v>
       </c>
       <c r="C36" t="n">
-        <v>0.538577</v>
+        <v>0.541811</v>
       </c>
       <c r="D36" t="n">
-        <v>0.587161</v>
+        <v>0.5873</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.543028</v>
+        <v>0.540982</v>
       </c>
       <c r="C37" t="n">
-        <v>0.793004</v>
+        <v>0.796309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.879852</v>
+        <v>0.879552</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.752125</v>
+        <v>0.751379</v>
       </c>
       <c r="C38" t="n">
-        <v>0.769601</v>
+        <v>0.771815</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8518790000000001</v>
+        <v>0.850997</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.730712</v>
+        <v>0.73011</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7455619999999999</v>
+        <v>0.748517</v>
       </c>
       <c r="D39" t="n">
-        <v>0.824201</v>
+        <v>0.824039</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.709892</v>
+        <v>0.708612</v>
       </c>
       <c r="C40" t="n">
-        <v>0.723543</v>
+        <v>0.726472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.798712</v>
+        <v>0.7981279999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.690127</v>
+        <v>0.688042</v>
       </c>
       <c r="C41" t="n">
-        <v>0.702447</v>
+        <v>0.704896</v>
       </c>
       <c r="D41" t="n">
-        <v>0.774414</v>
+        <v>0.77484</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.670524</v>
+        <v>0.669468</v>
       </c>
       <c r="C42" t="n">
-        <v>0.68241</v>
+        <v>0.685141</v>
       </c>
       <c r="D42" t="n">
-        <v>0.751145</v>
+        <v>0.750254</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653405</v>
+        <v>0.651917</v>
       </c>
       <c r="C43" t="n">
-        <v>0.663182</v>
+        <v>0.666095</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7287940000000001</v>
+        <v>0.7283500000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.637283</v>
+        <v>0.635845</v>
       </c>
       <c r="C44" t="n">
-        <v>0.644776</v>
+        <v>0.647748</v>
       </c>
       <c r="D44" t="n">
-        <v>0.707283</v>
+        <v>0.707775</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6222259999999999</v>
+        <v>0.620838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.627866</v>
+        <v>0.6308550000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687752</v>
+        <v>0.6879110000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.607745</v>
+        <v>0.606305</v>
       </c>
       <c r="C46" t="n">
-        <v>0.612221</v>
+        <v>0.614995</v>
       </c>
       <c r="D46" t="n">
-        <v>0.669181</v>
+        <v>0.6692630000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.59535</v>
+        <v>0.593639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.597437</v>
+        <v>0.59988</v>
       </c>
       <c r="D47" t="n">
-        <v>0.651827</v>
+        <v>0.651688</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5840919999999999</v>
+        <v>0.5823970000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.584297</v>
+        <v>0.586432</v>
       </c>
       <c r="D48" t="n">
-        <v>0.636164</v>
+        <v>0.635693</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575102</v>
+        <v>0.573198</v>
       </c>
       <c r="C49" t="n">
-        <v>0.572171</v>
+        <v>0.574895</v>
       </c>
       <c r="D49" t="n">
-        <v>0.622031</v>
+        <v>0.621578</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.567994</v>
+        <v>0.5662</v>
       </c>
       <c r="C50" t="n">
-        <v>0.562008</v>
+        <v>0.564181</v>
       </c>
       <c r="D50" t="n">
-        <v>0.609745</v>
+        <v>0.609242</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.563917</v>
+        <v>0.561835</v>
       </c>
       <c r="C51" t="n">
-        <v>0.820174</v>
+        <v>0.823427</v>
       </c>
       <c r="D51" t="n">
-        <v>0.924042</v>
+        <v>0.924279</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.563068</v>
+        <v>0.561683</v>
       </c>
       <c r="C52" t="n">
-        <v>0.797086</v>
+        <v>0.7980930000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8951519999999999</v>
+        <v>0.8929009999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.756051</v>
+        <v>0.75468</v>
       </c>
       <c r="C53" t="n">
-        <v>0.772734</v>
+        <v>0.776072</v>
       </c>
       <c r="D53" t="n">
-        <v>0.867586</v>
+        <v>0.869568</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7353690000000001</v>
+        <v>0.735773</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7505500000000001</v>
+        <v>0.754346</v>
       </c>
       <c r="D54" t="n">
-        <v>0.840118</v>
+        <v>0.842512</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.714302</v>
+        <v>0.714625</v>
       </c>
       <c r="C55" t="n">
-        <v>0.727741</v>
+        <v>0.7315160000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.815178</v>
+        <v>0.814611</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.695272</v>
+        <v>0.695365</v>
       </c>
       <c r="C56" t="n">
-        <v>0.70596</v>
+        <v>0.714041</v>
       </c>
       <c r="D56" t="n">
-        <v>0.79154</v>
+        <v>0.795556</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.677688</v>
+        <v>0.680389</v>
       </c>
       <c r="C57" t="n">
-        <v>0.687541</v>
+        <v>0.695155</v>
       </c>
       <c r="D57" t="n">
-        <v>0.767706</v>
+        <v>0.773281</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.661524</v>
+        <v>0.663436</v>
       </c>
       <c r="C58" t="n">
-        <v>0.669135</v>
+        <v>0.6765600000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.748023</v>
+        <v>0.753821</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.646034</v>
+        <v>0.649571</v>
       </c>
       <c r="C59" t="n">
-        <v>0.653767</v>
+        <v>0.658265</v>
       </c>
       <c r="D59" t="n">
-        <v>0.72883</v>
+        <v>0.727735</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.632301</v>
+        <v>0.63297</v>
       </c>
       <c r="C60" t="n">
-        <v>0.636507</v>
+        <v>0.642965</v>
       </c>
       <c r="D60" t="n">
-        <v>0.709305</v>
+        <v>0.710678</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.619557</v>
+        <v>0.622654</v>
       </c>
       <c r="C61" t="n">
-        <v>0.622018</v>
+        <v>0.628487</v>
       </c>
       <c r="D61" t="n">
-        <v>0.692093</v>
+        <v>0.692353</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.60862</v>
+        <v>0.608808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.609476</v>
+        <v>0.612541</v>
       </c>
       <c r="D62" t="n">
-        <v>0.674602</v>
+        <v>0.676854</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.598939</v>
+        <v>0.600238</v>
       </c>
       <c r="C63" t="n">
-        <v>0.597397</v>
+        <v>0.60166</v>
       </c>
       <c r="D63" t="n">
-        <v>0.660342</v>
+        <v>0.662915</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.591417</v>
+        <v>0.592835</v>
       </c>
       <c r="C64" t="n">
-        <v>0.58589</v>
+        <v>0.591126</v>
       </c>
       <c r="D64" t="n">
-        <v>0.64825</v>
+        <v>0.648181</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5873930000000001</v>
+        <v>0.587098</v>
       </c>
       <c r="C65" t="n">
-        <v>0.577635</v>
+        <v>0.583502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.637861</v>
+        <v>0.637567</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585293</v>
+        <v>0.5847059999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.835198</v>
+        <v>0.846991</v>
       </c>
       <c r="D66" t="n">
-        <v>0.95543</v>
+        <v>0.961775</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.804078</v>
+        <v>0.809124</v>
       </c>
       <c r="C67" t="n">
-        <v>0.814649</v>
+        <v>0.822688</v>
       </c>
       <c r="D67" t="n">
-        <v>0.928961</v>
+        <v>0.935855</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.785017</v>
+        <v>0.7924949999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.792969</v>
+        <v>0.799973</v>
       </c>
       <c r="D68" t="n">
-        <v>0.901545</v>
+        <v>0.909236</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.767339</v>
+        <v>0.777002</v>
       </c>
       <c r="C69" t="n">
-        <v>0.769486</v>
+        <v>0.782923</v>
       </c>
       <c r="D69" t="n">
-        <v>0.874892</v>
+        <v>0.883709</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.746127</v>
+        <v>0.756821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.750599</v>
+        <v>0.760005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.851869</v>
+        <v>0.857903</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.730504</v>
+        <v>0.740157</v>
       </c>
       <c r="C71" t="n">
-        <v>0.728232</v>
+        <v>0.741597</v>
       </c>
       <c r="D71" t="n">
-        <v>0.827814</v>
+        <v>0.835708</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.714628</v>
+        <v>0.726368</v>
       </c>
       <c r="C72" t="n">
-        <v>0.709685</v>
+        <v>0.722307</v>
       </c>
       <c r="D72" t="n">
-        <v>0.807319</v>
+        <v>0.815227</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.698551</v>
+        <v>0.711215</v>
       </c>
       <c r="C73" t="n">
-        <v>0.693528</v>
+        <v>0.7072349999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.784296</v>
+        <v>0.792064</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.685211</v>
+        <v>0.694395</v>
       </c>
       <c r="C74" t="n">
-        <v>0.674972</v>
+        <v>0.69042</v>
       </c>
       <c r="D74" t="n">
-        <v>0.763448</v>
+        <v>0.772537</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.672532</v>
+        <v>0.681561</v>
       </c>
       <c r="C75" t="n">
-        <v>0.664198</v>
+        <v>0.675445</v>
       </c>
       <c r="D75" t="n">
-        <v>0.746686</v>
+        <v>0.753183</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.659425</v>
+        <v>0.672735</v>
       </c>
       <c r="C76" t="n">
-        <v>0.647307</v>
+        <v>0.661068</v>
       </c>
       <c r="D76" t="n">
-        <v>0.728286</v>
+        <v>0.736178</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.649358</v>
+        <v>0.663206</v>
       </c>
       <c r="C77" t="n">
-        <v>0.63519</v>
+        <v>0.6474259999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.714909</v>
+        <v>0.719581</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.641226</v>
+        <v>0.656125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.624452</v>
+        <v>0.636814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.69973</v>
+        <v>0.706274</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.632943</v>
+        <v>0.648655</v>
       </c>
       <c r="C79" t="n">
-        <v>0.613015</v>
+        <v>0.627248</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6896330000000001</v>
+        <v>0.692569</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.633305</v>
+        <v>0.64313</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9124</v>
+        <v>0.923087</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04487</v>
+        <v>1.05243</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.881773</v>
+        <v>0.8894919999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9023</v>
+        <v>0.909751</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02914</v>
+        <v>1.03299</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.876197</v>
+        <v>0.883661</v>
       </c>
       <c r="C82" t="n">
-        <v>0.886786</v>
+        <v>0.895725</v>
       </c>
       <c r="D82" t="n">
-        <v>1.00999</v>
+        <v>1.0112</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.86887</v>
+        <v>0.876006</v>
       </c>
       <c r="C83" t="n">
-        <v>0.869327</v>
+        <v>0.877298</v>
       </c>
       <c r="D83" t="n">
-        <v>0.983575</v>
+        <v>0.987906</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.859334</v>
+        <v>0.864482</v>
       </c>
       <c r="C84" t="n">
-        <v>0.849956</v>
+        <v>0.8566859999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.963655</v>
+        <v>0.963614</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.847514</v>
+        <v>0.852508</v>
       </c>
       <c r="C85" t="n">
-        <v>0.831893</v>
+        <v>0.838464</v>
       </c>
       <c r="D85" t="n">
-        <v>0.936102</v>
+        <v>0.930721</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.837284</v>
+        <v>0.837431</v>
       </c>
       <c r="C86" t="n">
-        <v>0.812758</v>
+        <v>0.817686</v>
       </c>
       <c r="D86" t="n">
-        <v>0.918351</v>
+        <v>0.91408</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.826234</v>
+        <v>0.827846</v>
       </c>
       <c r="C87" t="n">
-        <v>0.792253</v>
+        <v>0.799041</v>
       </c>
       <c r="D87" t="n">
-        <v>0.895844</v>
+        <v>0.891313</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.815143</v>
+        <v>0.815621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.774387</v>
+        <v>0.780713</v>
       </c>
       <c r="D88" t="n">
-        <v>0.872012</v>
+        <v>0.869969</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.802515</v>
+        <v>0.804854</v>
       </c>
       <c r="C89" t="n">
-        <v>0.755992</v>
+        <v>0.765356</v>
       </c>
       <c r="D89" t="n">
-        <v>0.848909</v>
+        <v>0.850348</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.792597</v>
+        <v>0.795103</v>
       </c>
       <c r="C90" t="n">
-        <v>0.741667</v>
+        <v>0.74835</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8204399999999999</v>
+        <v>0.830026</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.783367</v>
+        <v>0.7846070000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7250799999999999</v>
+        <v>0.733255</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8136949999999999</v>
+        <v>0.81069</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.778586</v>
+        <v>0.776308</v>
       </c>
       <c r="C92" t="n">
-        <v>0.713983</v>
+        <v>0.719767</v>
       </c>
       <c r="D92" t="n">
-        <v>0.789699</v>
+        <v>0.795505</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.771981</v>
+        <v>0.771531</v>
       </c>
       <c r="C93" t="n">
-        <v>0.700138</v>
+        <v>0.708813</v>
       </c>
       <c r="D93" t="n">
-        <v>0.775524</v>
+        <v>0.7834370000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.769622</v>
+        <v>0.767895</v>
       </c>
       <c r="C94" t="n">
-        <v>1.0064</v>
+        <v>1.01227</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14626</v>
+        <v>1.14523</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.01658</v>
+        <v>1.01921</v>
       </c>
       <c r="C95" t="n">
-        <v>0.996584</v>
+        <v>1.0065</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12998</v>
+        <v>1.12895</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.01506</v>
+        <v>1.01827</v>
       </c>
       <c r="C96" t="n">
-        <v>0.976338</v>
+        <v>0.9853499999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>1.10759</v>
+        <v>1.10888</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.00649</v>
+        <v>1.01105</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9622039999999999</v>
+        <v>0.971611</v>
       </c>
       <c r="D97" t="n">
-        <v>1.08257</v>
+        <v>1.08687</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9965810000000001</v>
+        <v>0.999022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.943694</v>
+        <v>0.956241</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05938</v>
+        <v>1.05904</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.985347</v>
+        <v>0.988988</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9254</v>
+        <v>0.9412160000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04023</v>
+        <v>1.04518</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9754660000000001</v>
+        <v>0.9796820000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.915666</v>
+        <v>0.922465</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02293</v>
+        <v>1.02197</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967701</v>
+        <v>0.968889</v>
       </c>
       <c r="C101" t="n">
-        <v>0.899817</v>
+        <v>0.909267</v>
       </c>
       <c r="D101" t="n">
-        <v>0.997012</v>
+        <v>1.00359</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.959518</v>
+        <v>0.965845</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8836889999999999</v>
+        <v>0.898728</v>
       </c>
       <c r="D102" t="n">
-        <v>0.982731</v>
+        <v>0.98363</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.951884</v>
+        <v>0.957712</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8670330000000001</v>
+        <v>0.882999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.966933</v>
+        <v>0.96583</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.946447</v>
+        <v>0.950744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.856086</v>
+        <v>0.87177</v>
       </c>
       <c r="D104" t="n">
-        <v>0.944844</v>
+        <v>0.950797</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.941172</v>
+        <v>0.943566</v>
       </c>
       <c r="C105" t="n">
-        <v>0.844953</v>
+        <v>0.858963</v>
       </c>
       <c r="D105" t="n">
-        <v>0.929818</v>
+        <v>0.936963</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.938128</v>
+        <v>0.940396</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8381769999999999</v>
+        <v>0.845899</v>
       </c>
       <c r="D106" t="n">
-        <v>0.916416</v>
+        <v>0.918704</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.936514</v>
+        <v>0.938029</v>
       </c>
       <c r="C107" t="n">
-        <v>0.825434</v>
+        <v>0.837858</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9115259999999999</v>
+        <v>0.911126</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.936748</v>
+        <v>0.938621</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12608</v>
+        <v>1.14065</v>
       </c>
       <c r="D108" t="n">
-        <v>1.26949</v>
+        <v>1.27516</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.941325</v>
+        <v>0.942675</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12066</v>
+        <v>1.13509</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25783</v>
+        <v>1.26277</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18963</v>
+        <v>1.19032</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10719</v>
+        <v>1.11889</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23529</v>
+        <v>1.23709</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17855</v>
+        <v>1.17931</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09239</v>
+        <v>1.10796</v>
       </c>
       <c r="D111" t="n">
-        <v>1.21485</v>
+        <v>1.22376</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16618</v>
+        <v>1.16818</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07854</v>
+        <v>1.09649</v>
       </c>
       <c r="D112" t="n">
-        <v>1.19571</v>
+        <v>1.20406</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15736</v>
+        <v>1.1576</v>
       </c>
       <c r="C113" t="n">
-        <v>1.06793</v>
+        <v>1.081</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18599</v>
+        <v>1.18259</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14741</v>
+        <v>1.14599</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05781</v>
+        <v>1.07253</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16476</v>
+        <v>1.17019</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1381</v>
+        <v>1.13695</v>
       </c>
       <c r="C115" t="n">
-        <v>1.04124</v>
+        <v>1.05726</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14574</v>
+        <v>1.15271</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12901</v>
+        <v>1.12797</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0341</v>
+        <v>1.04777</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13038</v>
+        <v>1.13214</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12242</v>
+        <v>1.12071</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02814</v>
+        <v>1.04001</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12178</v>
+        <v>1.11644</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11536</v>
+        <v>1.1139</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01904</v>
+        <v>1.02722</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10999</v>
+        <v>1.10574</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11047</v>
+        <v>1.10952</v>
       </c>
       <c r="C119" t="n">
-        <v>1.00264</v>
+        <v>1.01955</v>
       </c>
       <c r="D119" t="n">
-        <v>1.0915</v>
+        <v>1.09507</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10725</v>
+        <v>1.10679</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00037</v>
+        <v>1.01549</v>
       </c>
       <c r="D120" t="n">
-        <v>1.08497</v>
+        <v>1.08568</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10537</v>
+        <v>1.10541</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9879289999999999</v>
+        <v>1.0055</v>
       </c>
       <c r="D121" t="n">
-        <v>1.06899</v>
+        <v>1.07172</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10567</v>
+        <v>1.10648</v>
       </c>
       <c r="C122" t="n">
-        <v>0.982916</v>
+        <v>1.0022</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06554</v>
+        <v>1.06392</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11142</v>
+        <v>1.10963</v>
       </c>
       <c r="C123" t="n">
-        <v>1.28817</v>
+        <v>1.3026</v>
       </c>
       <c r="D123" t="n">
-        <v>1.42322</v>
+        <v>1.42298</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35369</v>
+        <v>1.3544</v>
       </c>
       <c r="C124" t="n">
-        <v>1.27833</v>
+        <v>1.293</v>
       </c>
       <c r="D124" t="n">
-        <v>1.40677</v>
+        <v>1.40466</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34449</v>
+        <v>1.34551</v>
       </c>
       <c r="C125" t="n">
-        <v>1.26669</v>
+        <v>1.28177</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38108</v>
+        <v>1.38843</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33593</v>
+        <v>1.33652</v>
       </c>
       <c r="C126" t="n">
-        <v>1.25824</v>
+        <v>1.27385</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3768</v>
+        <v>1.3785</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32836</v>
+        <v>1.32842</v>
       </c>
       <c r="C127" t="n">
-        <v>1.25272</v>
+        <v>1.26705</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36142</v>
+        <v>1.36199</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32101</v>
+        <v>1.32018</v>
       </c>
       <c r="C128" t="n">
-        <v>1.24329</v>
+        <v>1.25939</v>
       </c>
       <c r="D128" t="n">
-        <v>1.34856</v>
+        <v>1.35092</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31589</v>
+        <v>1.31413</v>
       </c>
       <c r="C129" t="n">
-        <v>1.23625</v>
+        <v>1.25161</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33723</v>
+        <v>1.33742</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30966</v>
+        <v>1.30816</v>
       </c>
       <c r="C130" t="n">
-        <v>1.22682</v>
+        <v>1.24358</v>
       </c>
       <c r="D130" t="n">
-        <v>1.32773</v>
+        <v>1.32393</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30499</v>
+        <v>1.30349</v>
       </c>
       <c r="C131" t="n">
-        <v>1.22444</v>
+        <v>1.23837</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31292</v>
+        <v>1.31728</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30179</v>
+        <v>1.30022</v>
       </c>
       <c r="C132" t="n">
-        <v>1.21801</v>
+        <v>1.23343</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30204</v>
+        <v>1.30813</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29989</v>
+        <v>1.29805</v>
       </c>
       <c r="C133" t="n">
-        <v>1.21437</v>
+        <v>1.22733</v>
       </c>
       <c r="D133" t="n">
-        <v>1.297</v>
+        <v>1.29314</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29899</v>
+        <v>1.29685</v>
       </c>
       <c r="C134" t="n">
-        <v>1.20723</v>
+        <v>1.22163</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28863</v>
+        <v>1.289</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29832</v>
+        <v>1.29814</v>
       </c>
       <c r="C135" t="n">
-        <v>1.20382</v>
+        <v>1.21867</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27859</v>
+        <v>1.28041</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.30279</v>
+        <v>1.29968</v>
       </c>
       <c r="C136" t="n">
-        <v>1.19751</v>
+        <v>1.21244</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26733</v>
+        <v>1.26979</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30701</v>
+        <v>1.30449</v>
       </c>
       <c r="C137" t="n">
-        <v>1.49667</v>
+        <v>1.51094</v>
       </c>
       <c r="D137" t="n">
-        <v>1.62935</v>
+        <v>1.62972</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.55101</v>
+        <v>1.54973</v>
       </c>
       <c r="C138" t="n">
-        <v>1.48997</v>
+        <v>1.50377</v>
       </c>
       <c r="D138" t="n">
-        <v>1.61846</v>
+        <v>1.61587</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54546</v>
+        <v>1.54249</v>
       </c>
       <c r="C139" t="n">
-        <v>1.48271</v>
+        <v>1.49716</v>
       </c>
       <c r="D139" t="n">
-        <v>1.60356</v>
+        <v>1.59957</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53847</v>
+        <v>1.5361</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47581</v>
+        <v>1.49158</v>
       </c>
       <c r="D140" t="n">
-        <v>1.59288</v>
+        <v>1.59232</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.53234</v>
+        <v>1.53096</v>
       </c>
       <c r="C141" t="n">
-        <v>1.47028</v>
+        <v>1.487</v>
       </c>
       <c r="D141" t="n">
-        <v>1.58095</v>
+        <v>1.58107</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5258</v>
+        <v>1.52574</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46413</v>
+        <v>1.48075</v>
       </c>
       <c r="D142" t="n">
-        <v>1.57091</v>
+        <v>1.57136</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.52169</v>
+        <v>1.52099</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45954</v>
+        <v>1.47523</v>
       </c>
       <c r="D143" t="n">
-        <v>1.56119</v>
+        <v>1.56196</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.583036</v>
+        <v>0.581861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.581785</v>
+        <v>0.581705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.608789</v>
+        <v>0.609776</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5683550000000001</v>
+        <v>0.567123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.566244</v>
+        <v>0.5669380000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.592388</v>
+        <v>0.593009</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.556042</v>
+        <v>0.555674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5520969999999999</v>
+        <v>0.55258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5762080000000001</v>
+        <v>0.577169</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.546503</v>
+        <v>0.545136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.539261</v>
+        <v>0.539404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5620889999999999</v>
+        <v>0.562771</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.53801</v>
+        <v>0.536846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.527228</v>
+        <v>0.527461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.549144</v>
+        <v>0.549941</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.531075</v>
+        <v>0.5295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.518283</v>
+        <v>0.517832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.539001</v>
+        <v>0.539548</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.526017</v>
+        <v>0.525481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.510713</v>
+        <v>0.51148</v>
       </c>
       <c r="D8" t="n">
-        <v>0.530523</v>
+        <v>0.5313</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.526455</v>
+        <v>0.526233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7595499999999999</v>
+        <v>0.759217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8002939999999999</v>
+        <v>0.79965</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6704059999999999</v>
+        <v>0.668299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.687987</v>
+        <v>0.688086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.774516</v>
+        <v>0.773891</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.650536</v>
+        <v>0.649353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.667867</v>
+        <v>0.667363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.74935</v>
+        <v>0.749089</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6319360000000001</v>
+        <v>0.631215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6479470000000001</v>
+        <v>0.647828</v>
       </c>
       <c r="D12" t="n">
-        <v>0.725931</v>
+        <v>0.725772</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6148439999999999</v>
+        <v>0.614343</v>
       </c>
       <c r="C13" t="n">
-        <v>0.629416</v>
+        <v>0.629432</v>
       </c>
       <c r="D13" t="n">
-        <v>0.703451</v>
+        <v>0.703281</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599101</v>
+        <v>0.598352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6121220000000001</v>
+        <v>0.611941</v>
       </c>
       <c r="D14" t="n">
-        <v>0.682381</v>
+        <v>0.682504</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.583981</v>
+        <v>0.583502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5951880000000001</v>
+        <v>0.595261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.662454</v>
+        <v>0.662546</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570312</v>
+        <v>0.570097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.57929</v>
+        <v>0.579671</v>
       </c>
       <c r="D16" t="n">
-        <v>0.643711</v>
+        <v>0.643558</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.557218</v>
+        <v>0.5570850000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.565221</v>
+        <v>0.564926</v>
       </c>
       <c r="D17" t="n">
-        <v>0.626448</v>
+        <v>0.626182</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54592</v>
+        <v>0.545395</v>
       </c>
       <c r="C18" t="n">
-        <v>0.551549</v>
+        <v>0.5517030000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.609901</v>
+        <v>0.609802</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535347</v>
+        <v>0.535037</v>
       </c>
       <c r="C19" t="n">
-        <v>0.539315</v>
+        <v>0.539153</v>
       </c>
       <c r="D19" t="n">
-        <v>0.595421</v>
+        <v>0.595222</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.52698</v>
+        <v>0.526324</v>
       </c>
       <c r="C20" t="n">
-        <v>0.527562</v>
+        <v>0.52772</v>
       </c>
       <c r="D20" t="n">
-        <v>0.582463</v>
+        <v>0.5823660000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520519</v>
+        <v>0.520007</v>
       </c>
       <c r="C21" t="n">
-        <v>0.518057</v>
+        <v>0.517985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.571396</v>
+        <v>0.570954</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516138</v>
+        <v>0.5147969999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.511722</v>
+        <v>0.511703</v>
       </c>
       <c r="D22" t="n">
-        <v>0.563121</v>
+        <v>0.562662</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514745</v>
+        <v>0.514505</v>
       </c>
       <c r="C23" t="n">
-        <v>0.763155</v>
+        <v>0.762424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.842797</v>
+        <v>0.842054</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7183929999999999</v>
+        <v>0.716955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.740343</v>
+        <v>0.739406</v>
       </c>
       <c r="D24" t="n">
-        <v>0.816323</v>
+        <v>0.815179</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697554</v>
+        <v>0.696117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.71767</v>
+        <v>0.717043</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7899</v>
+        <v>0.788814</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.67745</v>
+        <v>0.676103</v>
       </c>
       <c r="C26" t="n">
-        <v>0.696188</v>
+        <v>0.695565</v>
       </c>
       <c r="D26" t="n">
-        <v>0.765298</v>
+        <v>0.764218</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658041</v>
+        <v>0.6574719999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.675674</v>
+        <v>0.67494</v>
       </c>
       <c r="D27" t="n">
-        <v>0.741304</v>
+        <v>0.74078</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639813</v>
+        <v>0.639227</v>
       </c>
       <c r="C28" t="n">
-        <v>0.656289</v>
+        <v>0.655782</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7195780000000001</v>
+        <v>0.71797</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6233070000000001</v>
+        <v>0.622582</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637666</v>
+        <v>0.637887</v>
       </c>
       <c r="D29" t="n">
-        <v>0.697979</v>
+        <v>0.697221</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607761</v>
+        <v>0.607077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.620427</v>
+        <v>0.620039</v>
       </c>
       <c r="D30" t="n">
-        <v>0.678071</v>
+        <v>0.6770350000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593132</v>
+        <v>0.592454</v>
       </c>
       <c r="C31" t="n">
-        <v>0.604151</v>
+        <v>0.603863</v>
       </c>
       <c r="D31" t="n">
-        <v>0.659386</v>
+        <v>0.6581</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.579831</v>
+        <v>0.578928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5890030000000001</v>
+        <v>0.588547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.641192</v>
+        <v>0.640532</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568022</v>
+        <v>0.567564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.574665</v>
+        <v>0.574526</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625508</v>
+        <v>0.624449</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557899</v>
+        <v>0.557165</v>
       </c>
       <c r="C34" t="n">
-        <v>0.562152</v>
+        <v>0.561783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.610439</v>
+        <v>0.60929</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.550517</v>
+        <v>0.549732</v>
       </c>
       <c r="C35" t="n">
-        <v>0.550893</v>
+        <v>0.550949</v>
       </c>
       <c r="D35" t="n">
-        <v>0.598481</v>
+        <v>0.59738</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.544096</v>
+        <v>0.543468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.541811</v>
+        <v>0.541499</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5873</v>
+        <v>0.586525</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.540982</v>
+        <v>0.540699</v>
       </c>
       <c r="C37" t="n">
-        <v>0.796309</v>
+        <v>0.794697</v>
       </c>
       <c r="D37" t="n">
-        <v>0.879552</v>
+        <v>0.8843569999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.751379</v>
+        <v>0.748381</v>
       </c>
       <c r="C38" t="n">
-        <v>0.771815</v>
+        <v>0.770305</v>
       </c>
       <c r="D38" t="n">
-        <v>0.850997</v>
+        <v>0.855728</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.73011</v>
+        <v>0.727833</v>
       </c>
       <c r="C39" t="n">
-        <v>0.748517</v>
+        <v>0.747663</v>
       </c>
       <c r="D39" t="n">
-        <v>0.824039</v>
+        <v>0.8285940000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708612</v>
+        <v>0.706686</v>
       </c>
       <c r="C40" t="n">
-        <v>0.726472</v>
+        <v>0.725067</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7981279999999999</v>
+        <v>0.802971</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.688042</v>
+        <v>0.686292</v>
       </c>
       <c r="C41" t="n">
-        <v>0.704896</v>
+        <v>0.703735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.77484</v>
+        <v>0.777872</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669468</v>
+        <v>0.667976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.685141</v>
+        <v>0.684053</v>
       </c>
       <c r="D42" t="n">
-        <v>0.750254</v>
+        <v>0.755511</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.651917</v>
+        <v>0.650668</v>
       </c>
       <c r="C43" t="n">
-        <v>0.666095</v>
+        <v>0.6651</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7283500000000001</v>
+        <v>0.7330100000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635845</v>
+        <v>0.634571</v>
       </c>
       <c r="C44" t="n">
-        <v>0.647748</v>
+        <v>0.6465689999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.707775</v>
+        <v>0.711576</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.620838</v>
+        <v>0.618639</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6308550000000001</v>
+        <v>0.6298899999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6879110000000001</v>
+        <v>0.69236</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.606305</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.614995</v>
+        <v>0.613306</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6692630000000001</v>
+        <v>0.673023</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.593639</v>
+        <v>0.592287</v>
       </c>
       <c r="C47" t="n">
-        <v>0.59988</v>
+        <v>0.598628</v>
       </c>
       <c r="D47" t="n">
-        <v>0.651688</v>
+        <v>0.65587</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5823970000000001</v>
+        <v>0.581881</v>
       </c>
       <c r="C48" t="n">
-        <v>0.586432</v>
+        <v>0.586203</v>
       </c>
       <c r="D48" t="n">
-        <v>0.635693</v>
+        <v>0.640558</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.573198</v>
+        <v>0.571719</v>
       </c>
       <c r="C49" t="n">
-        <v>0.574895</v>
+        <v>0.574546</v>
       </c>
       <c r="D49" t="n">
-        <v>0.621578</v>
+        <v>0.626075</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5662</v>
+        <v>0.564493</v>
       </c>
       <c r="C50" t="n">
-        <v>0.564181</v>
+        <v>0.562453</v>
       </c>
       <c r="D50" t="n">
-        <v>0.609242</v>
+        <v>0.614554</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.561835</v>
+        <v>0.560262</v>
       </c>
       <c r="C51" t="n">
-        <v>0.823427</v>
+        <v>0.821147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.924279</v>
+        <v>0.939643</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.561683</v>
+        <v>0.561687</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7980930000000001</v>
+        <v>0.797633</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8929009999999999</v>
+        <v>0.911053</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.75468</v>
+        <v>0.752144</v>
       </c>
       <c r="C53" t="n">
-        <v>0.776072</v>
+        <v>0.7739200000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.869568</v>
+        <v>0.88376</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735773</v>
+        <v>0.733096</v>
       </c>
       <c r="C54" t="n">
-        <v>0.754346</v>
+        <v>0.7514960000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.842512</v>
+        <v>0.856351</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.714625</v>
+        <v>0.712107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7315160000000001</v>
+        <v>0.727593</v>
       </c>
       <c r="D55" t="n">
-        <v>0.814611</v>
+        <v>0.82926</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.695365</v>
+        <v>0.692592</v>
       </c>
       <c r="C56" t="n">
-        <v>0.714041</v>
+        <v>0.709664</v>
       </c>
       <c r="D56" t="n">
-        <v>0.795556</v>
+        <v>0.805444</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.680389</v>
+        <v>0.674705</v>
       </c>
       <c r="C57" t="n">
-        <v>0.695155</v>
+        <v>0.689705</v>
       </c>
       <c r="D57" t="n">
-        <v>0.773281</v>
+        <v>0.783811</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.663436</v>
+        <v>0.659857</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6765600000000001</v>
+        <v>0.671865</v>
       </c>
       <c r="D58" t="n">
-        <v>0.753821</v>
+        <v>0.766837</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.649571</v>
+        <v>0.644235</v>
       </c>
       <c r="C59" t="n">
-        <v>0.658265</v>
+        <v>0.654793</v>
       </c>
       <c r="D59" t="n">
-        <v>0.727735</v>
+        <v>0.739662</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63297</v>
+        <v>0.630197</v>
       </c>
       <c r="C60" t="n">
-        <v>0.642965</v>
+        <v>0.638675</v>
       </c>
       <c r="D60" t="n">
-        <v>0.710678</v>
+        <v>0.726138</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622654</v>
+        <v>0.617357</v>
       </c>
       <c r="C61" t="n">
-        <v>0.628487</v>
+        <v>0.622957</v>
       </c>
       <c r="D61" t="n">
-        <v>0.692353</v>
+        <v>0.702136</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608808</v>
+        <v>0.604841</v>
       </c>
       <c r="C62" t="n">
-        <v>0.612541</v>
+        <v>0.607465</v>
       </c>
       <c r="D62" t="n">
-        <v>0.676854</v>
+        <v>0.686488</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600238</v>
+        <v>0.59602</v>
       </c>
       <c r="C63" t="n">
-        <v>0.60166</v>
+        <v>0.593035</v>
       </c>
       <c r="D63" t="n">
-        <v>0.662915</v>
+        <v>0.672964</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592835</v>
+        <v>0.588363</v>
       </c>
       <c r="C64" t="n">
-        <v>0.591126</v>
+        <v>0.585912</v>
       </c>
       <c r="D64" t="n">
-        <v>0.648181</v>
+        <v>0.657736</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587098</v>
+        <v>0.582414</v>
       </c>
       <c r="C65" t="n">
-        <v>0.583502</v>
+        <v>0.577646</v>
       </c>
       <c r="D65" t="n">
-        <v>0.637567</v>
+        <v>0.648309</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5847059999999999</v>
+        <v>0.580252</v>
       </c>
       <c r="C66" t="n">
-        <v>0.846991</v>
+        <v>0.849464</v>
       </c>
       <c r="D66" t="n">
-        <v>0.961775</v>
+        <v>0.990187</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.809124</v>
+        <v>0.808857</v>
       </c>
       <c r="C67" t="n">
-        <v>0.822688</v>
+        <v>0.825499</v>
       </c>
       <c r="D67" t="n">
-        <v>0.935855</v>
+        <v>0.964551</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7924949999999999</v>
+        <v>0.791507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.799973</v>
+        <v>0.8047569999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.909236</v>
+        <v>0.934231</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.777002</v>
+        <v>0.7725610000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.782923</v>
+        <v>0.783589</v>
       </c>
       <c r="D69" t="n">
-        <v>0.883709</v>
+        <v>0.908582</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.756821</v>
+        <v>0.754951</v>
       </c>
       <c r="C70" t="n">
-        <v>0.760005</v>
+        <v>0.762647</v>
       </c>
       <c r="D70" t="n">
-        <v>0.857903</v>
+        <v>0.883549</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.740157</v>
+        <v>0.743212</v>
       </c>
       <c r="C71" t="n">
-        <v>0.741597</v>
+        <v>0.745573</v>
       </c>
       <c r="D71" t="n">
-        <v>0.835708</v>
+        <v>0.860017</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.726368</v>
+        <v>0.724618</v>
       </c>
       <c r="C72" t="n">
-        <v>0.722307</v>
+        <v>0.725894</v>
       </c>
       <c r="D72" t="n">
-        <v>0.815227</v>
+        <v>0.834677</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.711215</v>
+        <v>0.712221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7072349999999999</v>
+        <v>0.711572</v>
       </c>
       <c r="D73" t="n">
-        <v>0.792064</v>
+        <v>0.814012</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.694395</v>
+        <v>0.697528</v>
       </c>
       <c r="C74" t="n">
-        <v>0.69042</v>
+        <v>0.694823</v>
       </c>
       <c r="D74" t="n">
-        <v>0.772537</v>
+        <v>0.794915</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.681561</v>
+        <v>0.686241</v>
       </c>
       <c r="C75" t="n">
-        <v>0.675445</v>
+        <v>0.676019</v>
       </c>
       <c r="D75" t="n">
-        <v>0.753183</v>
+        <v>0.772904</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.672735</v>
+        <v>0.676411</v>
       </c>
       <c r="C76" t="n">
-        <v>0.661068</v>
+        <v>0.662449</v>
       </c>
       <c r="D76" t="n">
-        <v>0.736178</v>
+        <v>0.755977</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.663206</v>
+        <v>0.665619</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6474259999999999</v>
+        <v>0.6495880000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.719581</v>
+        <v>0.739198</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.656125</v>
+        <v>0.656011</v>
       </c>
       <c r="C78" t="n">
-        <v>0.636814</v>
+        <v>0.639529</v>
       </c>
       <c r="D78" t="n">
-        <v>0.706274</v>
+        <v>0.720384</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.648655</v>
+        <v>0.647651</v>
       </c>
       <c r="C79" t="n">
-        <v>0.627248</v>
+        <v>0.627702</v>
       </c>
       <c r="D79" t="n">
-        <v>0.692569</v>
+        <v>0.708925</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.64313</v>
+        <v>0.642668</v>
       </c>
       <c r="C80" t="n">
-        <v>0.923087</v>
+        <v>0.933621</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05243</v>
+        <v>1.09318</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8894919999999999</v>
+        <v>0.896394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.909751</v>
+        <v>0.918909</v>
       </c>
       <c r="D81" t="n">
-        <v>1.03299</v>
+        <v>1.06986</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.883661</v>
+        <v>0.891409</v>
       </c>
       <c r="C82" t="n">
-        <v>0.895725</v>
+        <v>0.905447</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0112</v>
+        <v>1.04888</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876006</v>
+        <v>0.885642</v>
       </c>
       <c r="C83" t="n">
-        <v>0.877298</v>
+        <v>0.887661</v>
       </c>
       <c r="D83" t="n">
-        <v>0.987906</v>
+        <v>1.02528</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.864482</v>
+        <v>0.876503</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8566859999999999</v>
+        <v>0.871402</v>
       </c>
       <c r="D84" t="n">
-        <v>0.963614</v>
+        <v>1.00228</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.852508</v>
+        <v>0.867318</v>
       </c>
       <c r="C85" t="n">
-        <v>0.838464</v>
+        <v>0.849778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.930721</v>
+        <v>0.977926</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.837431</v>
+        <v>0.857936</v>
       </c>
       <c r="C86" t="n">
-        <v>0.817686</v>
+        <v>0.835462</v>
       </c>
       <c r="D86" t="n">
-        <v>0.91408</v>
+        <v>0.954324</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.827846</v>
+        <v>0.848</v>
       </c>
       <c r="C87" t="n">
-        <v>0.799041</v>
+        <v>0.814248</v>
       </c>
       <c r="D87" t="n">
-        <v>0.891313</v>
+        <v>0.9283</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.815621</v>
+        <v>0.8358</v>
       </c>
       <c r="C88" t="n">
-        <v>0.780713</v>
+        <v>0.7955759999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.869969</v>
+        <v>0.902853</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.804854</v>
+        <v>0.830447</v>
       </c>
       <c r="C89" t="n">
-        <v>0.765356</v>
+        <v>0.7820240000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.850348</v>
+        <v>0.885839</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.795103</v>
+        <v>0.81767</v>
       </c>
       <c r="C90" t="n">
-        <v>0.74835</v>
+        <v>0.763135</v>
       </c>
       <c r="D90" t="n">
-        <v>0.830026</v>
+        <v>0.863334</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7846070000000001</v>
+        <v>0.807825</v>
       </c>
       <c r="C91" t="n">
-        <v>0.733255</v>
+        <v>0.746599</v>
       </c>
       <c r="D91" t="n">
-        <v>0.81069</v>
+        <v>0.842745</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.776308</v>
+        <v>0.800632</v>
       </c>
       <c r="C92" t="n">
-        <v>0.719767</v>
+        <v>0.733142</v>
       </c>
       <c r="D92" t="n">
-        <v>0.795505</v>
+        <v>0.826975</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.771531</v>
+        <v>0.794879</v>
       </c>
       <c r="C93" t="n">
-        <v>0.708813</v>
+        <v>0.722081</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7834370000000001</v>
+        <v>0.81228</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.767895</v>
+        <v>0.790829</v>
       </c>
       <c r="C94" t="n">
-        <v>1.01227</v>
+        <v>1.03253</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14523</v>
+        <v>1.19653</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.01921</v>
+        <v>1.04439</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0065</v>
+        <v>1.02727</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12895</v>
+        <v>1.18199</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.01827</v>
+        <v>1.04941</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9853499999999999</v>
+        <v>1.01517</v>
       </c>
       <c r="D96" t="n">
-        <v>1.10888</v>
+        <v>1.16078</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01105</v>
+        <v>1.04147</v>
       </c>
       <c r="C97" t="n">
-        <v>0.971611</v>
+        <v>0.993629</v>
       </c>
       <c r="D97" t="n">
-        <v>1.08687</v>
+        <v>1.13788</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.999022</v>
+        <v>1.03488</v>
       </c>
       <c r="C98" t="n">
-        <v>0.956241</v>
+        <v>0.984955</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05904</v>
+        <v>1.11909</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.988988</v>
+        <v>1.02651</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9412160000000001</v>
+        <v>0.9701340000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04518</v>
+        <v>1.09376</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9796820000000001</v>
+        <v>1.01851</v>
       </c>
       <c r="C100" t="n">
-        <v>0.922465</v>
+        <v>0.9515130000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02197</v>
+        <v>1.06859</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.968889</v>
+        <v>1.00913</v>
       </c>
       <c r="C101" t="n">
-        <v>0.909267</v>
+        <v>0.939797</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00359</v>
+        <v>1.0557</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.965845</v>
+        <v>1.00333</v>
       </c>
       <c r="C102" t="n">
-        <v>0.898728</v>
+        <v>0.925983</v>
       </c>
       <c r="D102" t="n">
-        <v>0.98363</v>
+        <v>1.03533</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.957712</v>
+        <v>0.997919</v>
       </c>
       <c r="C103" t="n">
-        <v>0.882999</v>
+        <v>0.911498</v>
       </c>
       <c r="D103" t="n">
-        <v>0.96583</v>
+        <v>1.01553</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.950744</v>
+        <v>0.992792</v>
       </c>
       <c r="C104" t="n">
-        <v>0.87177</v>
+        <v>0.900936</v>
       </c>
       <c r="D104" t="n">
-        <v>0.950797</v>
+        <v>1.00092</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.943566</v>
+        <v>0.986382</v>
       </c>
       <c r="C105" t="n">
-        <v>0.858963</v>
+        <v>0.889585</v>
       </c>
       <c r="D105" t="n">
-        <v>0.936963</v>
+        <v>0.981443</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.940396</v>
+        <v>0.9831569999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.845899</v>
+        <v>0.873951</v>
       </c>
       <c r="D106" t="n">
-        <v>0.918704</v>
+        <v>0.964488</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.938029</v>
+        <v>0.981623</v>
       </c>
       <c r="C107" t="n">
-        <v>0.837858</v>
+        <v>0.866347</v>
       </c>
       <c r="D107" t="n">
-        <v>0.911126</v>
+        <v>0.955056</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.938621</v>
+        <v>0.983254</v>
       </c>
       <c r="C108" t="n">
-        <v>1.14065</v>
+        <v>1.17702</v>
       </c>
       <c r="D108" t="n">
-        <v>1.27516</v>
+        <v>1.33752</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.942675</v>
+        <v>0.989222</v>
       </c>
       <c r="C109" t="n">
-        <v>1.13509</v>
+        <v>1.17247</v>
       </c>
       <c r="D109" t="n">
-        <v>1.26277</v>
+        <v>1.33164</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19032</v>
+        <v>1.25061</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11889</v>
+        <v>1.16539</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23709</v>
+        <v>1.30863</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17931</v>
+        <v>1.23937</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10796</v>
+        <v>1.14681</v>
       </c>
       <c r="D111" t="n">
-        <v>1.22376</v>
+        <v>1.28701</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16818</v>
+        <v>1.22837</v>
       </c>
       <c r="C112" t="n">
-        <v>1.09649</v>
+        <v>1.1397</v>
       </c>
       <c r="D112" t="n">
-        <v>1.20406</v>
+        <v>1.27173</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1576</v>
+        <v>1.21936</v>
       </c>
       <c r="C113" t="n">
-        <v>1.081</v>
+        <v>1.12296</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18259</v>
+        <v>1.25061</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14599</v>
+        <v>1.2088</v>
       </c>
       <c r="C114" t="n">
-        <v>1.07253</v>
+        <v>1.11926</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17019</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13695</v>
+        <v>1.20093</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05726</v>
+        <v>1.10221</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15271</v>
+        <v>1.22186</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12797</v>
+        <v>1.1931</v>
       </c>
       <c r="C116" t="n">
-        <v>1.04777</v>
+        <v>1.09523</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13214</v>
+        <v>1.20348</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12071</v>
+        <v>1.18515</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04001</v>
+        <v>1.09078</v>
       </c>
       <c r="D117" t="n">
-        <v>1.11644</v>
+        <v>1.19183</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1139</v>
+        <v>1.18048</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02722</v>
+        <v>1.07559</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10574</v>
+        <v>1.1734</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10952</v>
+        <v>1.17578</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01955</v>
+        <v>1.07424</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09507</v>
+        <v>1.16648</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10679</v>
+        <v>1.17433</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01549</v>
+        <v>1.06188</v>
       </c>
       <c r="D120" t="n">
-        <v>1.08568</v>
+        <v>1.15179</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10541</v>
+        <v>1.1759</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0055</v>
+        <v>1.06175</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07172</v>
+        <v>1.14367</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10648</v>
+        <v>1.17652</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0022</v>
+        <v>1.05251</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06392</v>
+        <v>1.12747</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10963</v>
+        <v>1.18368</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3026</v>
+        <v>1.35991</v>
       </c>
       <c r="D123" t="n">
-        <v>1.42298</v>
+        <v>1.51998</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3544</v>
+        <v>1.43201</v>
       </c>
       <c r="C124" t="n">
-        <v>1.293</v>
+        <v>1.35762</v>
       </c>
       <c r="D124" t="n">
-        <v>1.40466</v>
+        <v>1.49513</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34551</v>
+        <v>1.42428</v>
       </c>
       <c r="C125" t="n">
-        <v>1.28177</v>
+        <v>1.35142</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38843</v>
+        <v>1.48635</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33652</v>
+        <v>1.41719</v>
       </c>
       <c r="C126" t="n">
-        <v>1.27385</v>
+        <v>1.34533</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3785</v>
+        <v>1.47576</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32842</v>
+        <v>1.40957</v>
       </c>
       <c r="C127" t="n">
-        <v>1.26705</v>
+        <v>1.33644</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36199</v>
+        <v>1.45334</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32018</v>
+        <v>1.40477</v>
       </c>
       <c r="C128" t="n">
-        <v>1.25939</v>
+        <v>1.32959</v>
       </c>
       <c r="D128" t="n">
-        <v>1.35092</v>
+        <v>1.44716</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31413</v>
+        <v>1.40075</v>
       </c>
       <c r="C129" t="n">
-        <v>1.25161</v>
+        <v>1.3244</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33742</v>
+        <v>1.43572</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30816</v>
+        <v>1.39593</v>
       </c>
       <c r="C130" t="n">
-        <v>1.24358</v>
+        <v>1.31843</v>
       </c>
       <c r="D130" t="n">
-        <v>1.32393</v>
+        <v>1.42502</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30349</v>
+        <v>1.39232</v>
       </c>
       <c r="C131" t="n">
-        <v>1.23837</v>
+        <v>1.31697</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31728</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30022</v>
+        <v>1.39053</v>
       </c>
       <c r="C132" t="n">
-        <v>1.23343</v>
+        <v>1.31289</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30813</v>
+        <v>1.40928</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29805</v>
+        <v>1.3879</v>
       </c>
       <c r="C133" t="n">
-        <v>1.22733</v>
+        <v>1.30801</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29314</v>
+        <v>1.39592</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29685</v>
+        <v>1.38778</v>
       </c>
       <c r="C134" t="n">
-        <v>1.22163</v>
+        <v>1.30255</v>
       </c>
       <c r="D134" t="n">
-        <v>1.289</v>
+        <v>1.38819</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29814</v>
+        <v>1.39061</v>
       </c>
       <c r="C135" t="n">
-        <v>1.21867</v>
+        <v>1.30088</v>
       </c>
       <c r="D135" t="n">
-        <v>1.28041</v>
+        <v>1.38404</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29968</v>
+        <v>1.39443</v>
       </c>
       <c r="C136" t="n">
-        <v>1.21244</v>
+        <v>1.29769</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26979</v>
+        <v>1.37465</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30449</v>
+        <v>1.40206</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51094</v>
+        <v>1.60485</v>
       </c>
       <c r="D137" t="n">
-        <v>1.62972</v>
+        <v>1.75384</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54973</v>
+        <v>1.65272</v>
       </c>
       <c r="C138" t="n">
-        <v>1.50377</v>
+        <v>1.59951</v>
       </c>
       <c r="D138" t="n">
-        <v>1.61587</v>
+        <v>1.74279</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54249</v>
+        <v>1.64707</v>
       </c>
       <c r="C139" t="n">
-        <v>1.49716</v>
+        <v>1.59514</v>
       </c>
       <c r="D139" t="n">
-        <v>1.59957</v>
+        <v>1.73185</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5361</v>
+        <v>1.64254</v>
       </c>
       <c r="C140" t="n">
-        <v>1.49158</v>
+        <v>1.5914</v>
       </c>
       <c r="D140" t="n">
-        <v>1.59232</v>
+        <v>1.72274</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.53096</v>
+        <v>1.63804</v>
       </c>
       <c r="C141" t="n">
-        <v>1.487</v>
+        <v>1.58586</v>
       </c>
       <c r="D141" t="n">
-        <v>1.58107</v>
+        <v>1.70997</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52574</v>
+        <v>1.63523</v>
       </c>
       <c r="C142" t="n">
-        <v>1.48075</v>
+        <v>1.58403</v>
       </c>
       <c r="D142" t="n">
-        <v>1.57136</v>
+        <v>1.70122</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.52099</v>
+        <v>1.63119</v>
       </c>
       <c r="C143" t="n">
-        <v>1.47523</v>
+        <v>1.58149</v>
       </c>
       <c r="D143" t="n">
-        <v>1.56196</v>
+        <v>1.69007</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.581861</v>
+        <v>0.57664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.581705</v>
+        <v>0.581003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.609776</v>
+        <v>0.7907650000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.567123</v>
+        <v>0.505287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5669380000000001</v>
+        <v>0.509641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.593009</v>
+        <v>0.782578</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.555674</v>
+        <v>0.497586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.55258</v>
+        <v>0.498024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.577169</v>
+        <v>0.77316</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.545136</v>
+        <v>0.486988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.539404</v>
+        <v>0.487874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.562771</v>
+        <v>0.767479</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.536846</v>
+        <v>0.478388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.527461</v>
+        <v>0.479095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.549941</v>
+        <v>0.761661</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5295</v>
+        <v>0.472534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517832</v>
+        <v>0.470398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.539548</v>
+        <v>0.8695850000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.525481</v>
+        <v>0.473792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51148</v>
+        <v>0.465501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5313</v>
+        <v>0.852773</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.526233</v>
+        <v>0.5202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.759217</v>
+        <v>0.753033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.79965</v>
+        <v>0.836526</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.668299</v>
+        <v>0.722729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.688086</v>
+        <v>0.729858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.773891</v>
+        <v>0.820317</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.649353</v>
+        <v>0.647262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.667363</v>
+        <v>0.667582</v>
       </c>
       <c r="D11" t="n">
-        <v>0.749089</v>
+        <v>0.808243</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.631215</v>
+        <v>0.628198</v>
       </c>
       <c r="C12" t="n">
-        <v>0.647828</v>
+        <v>0.647782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.725772</v>
+        <v>0.79533</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614343</v>
+        <v>0.619219</v>
       </c>
       <c r="C13" t="n">
-        <v>0.629432</v>
+        <v>0.629467</v>
       </c>
       <c r="D13" t="n">
-        <v>0.703281</v>
+        <v>0.781003</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.598352</v>
+        <v>0.602172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.611941</v>
+        <v>0.612259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.682504</v>
+        <v>0.769759</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.583502</v>
+        <v>0.588985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.595261</v>
+        <v>0.596141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.662546</v>
+        <v>0.759884</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570097</v>
+        <v>0.570086</v>
       </c>
       <c r="C16" t="n">
-        <v>0.579671</v>
+        <v>0.579769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.643558</v>
+        <v>0.749328</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5570850000000001</v>
+        <v>0.5618</v>
       </c>
       <c r="C17" t="n">
-        <v>0.564926</v>
+        <v>0.565347</v>
       </c>
       <c r="D17" t="n">
-        <v>0.626182</v>
+        <v>0.7395890000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545395</v>
+        <v>0.543451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5517030000000001</v>
+        <v>0.552435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.609802</v>
+        <v>0.731042</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535037</v>
+        <v>0.533142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.539153</v>
+        <v>0.539895</v>
       </c>
       <c r="D19" t="n">
-        <v>0.595222</v>
+        <v>0.723254</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526324</v>
+        <v>0.524616</v>
       </c>
       <c r="C20" t="n">
-        <v>0.52772</v>
+        <v>0.5284140000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5823660000000001</v>
+        <v>0.716269</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520007</v>
+        <v>0.523733</v>
       </c>
       <c r="C21" t="n">
-        <v>0.517985</v>
+        <v>0.518919</v>
       </c>
       <c r="D21" t="n">
-        <v>0.570954</v>
+        <v>0.935562</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5147969999999999</v>
+        <v>0.517181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.511703</v>
+        <v>0.512527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.562662</v>
+        <v>0.917117</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514505</v>
+        <v>0.5135960000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.762424</v>
+        <v>0.7651019999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.842054</v>
+        <v>0.900638</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.716955</v>
+        <v>0.718071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.739406</v>
+        <v>0.740943</v>
       </c>
       <c r="D24" t="n">
-        <v>0.815179</v>
+        <v>0.885583</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.696117</v>
+        <v>0.6992119999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.717043</v>
+        <v>0.718278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.788814</v>
+        <v>0.870196</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.676103</v>
+        <v>0.676888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.695565</v>
+        <v>0.6963279999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.764218</v>
+        <v>0.851411</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6574719999999999</v>
+        <v>0.660358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.67494</v>
+        <v>0.676801</v>
       </c>
       <c r="D27" t="n">
-        <v>0.74078</v>
+        <v>0.8370379999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639227</v>
+        <v>0.640897</v>
       </c>
       <c r="C28" t="n">
-        <v>0.655782</v>
+        <v>0.656581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.71797</v>
+        <v>0.823672</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622582</v>
+        <v>0.624075</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637887</v>
+        <v>0.638329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.697221</v>
+        <v>0.812522</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607077</v>
+        <v>0.609088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.620039</v>
+        <v>0.621444</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6770350000000001</v>
+        <v>0.802944</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592454</v>
+        <v>0.594287</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603863</v>
+        <v>0.604501</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6581</v>
+        <v>0.793635</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578928</v>
+        <v>0.579972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.588547</v>
+        <v>0.589239</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640532</v>
+        <v>0.7868230000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567564</v>
+        <v>0.567133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.574526</v>
+        <v>0.574976</v>
       </c>
       <c r="D33" t="n">
-        <v>0.624449</v>
+        <v>0.780438</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557165</v>
+        <v>0.539482</v>
       </c>
       <c r="C34" t="n">
-        <v>0.561783</v>
+        <v>0.541714</v>
       </c>
       <c r="D34" t="n">
-        <v>0.60929</v>
+        <v>0.772238</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549732</v>
+        <v>0.550887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.550949</v>
+        <v>0.552121</v>
       </c>
       <c r="D35" t="n">
-        <v>0.59738</v>
+        <v>1.01091</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543468</v>
+        <v>0.5246</v>
       </c>
       <c r="C36" t="n">
-        <v>0.541499</v>
+        <v>0.523757</v>
       </c>
       <c r="D36" t="n">
-        <v>0.586525</v>
+        <v>0.988196</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.540699</v>
+        <v>0.520884</v>
       </c>
       <c r="C37" t="n">
-        <v>0.794697</v>
+        <v>0.7798040000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8843569999999999</v>
+        <v>0.966343</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748381</v>
+        <v>0.731914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.770305</v>
+        <v>0.75608</v>
       </c>
       <c r="D38" t="n">
-        <v>0.855728</v>
+        <v>0.948998</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727833</v>
+        <v>0.7082619999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.747663</v>
+        <v>0.733596</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8285940000000001</v>
+        <v>0.929274</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706686</v>
+        <v>0.69158</v>
       </c>
       <c r="C40" t="n">
-        <v>0.725067</v>
+        <v>0.711408</v>
       </c>
       <c r="D40" t="n">
-        <v>0.802971</v>
+        <v>0.912623</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686292</v>
+        <v>0.670179</v>
       </c>
       <c r="C41" t="n">
-        <v>0.703735</v>
+        <v>0.691311</v>
       </c>
       <c r="D41" t="n">
-        <v>0.777872</v>
+        <v>0.900409</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667976</v>
+        <v>0.651486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.684053</v>
+        <v>0.671531</v>
       </c>
       <c r="D42" t="n">
-        <v>0.755511</v>
+        <v>0.88684</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.650668</v>
+        <v>0.636135</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6651</v>
+        <v>0.653299</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7330100000000001</v>
+        <v>0.874153</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.634571</v>
+        <v>0.6204730000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.636028</v>
       </c>
       <c r="D44" t="n">
-        <v>0.711576</v>
+        <v>0.862818</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618639</v>
+        <v>0.6072689999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6298899999999999</v>
+        <v>0.619173</v>
       </c>
       <c r="D45" t="n">
-        <v>0.69236</v>
+        <v>0.8542149999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.59244</v>
       </c>
       <c r="C46" t="n">
-        <v>0.613306</v>
+        <v>0.581348</v>
       </c>
       <c r="D46" t="n">
-        <v>0.673023</v>
+        <v>0.846213</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592287</v>
+        <v>0.5805090000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.598628</v>
+        <v>0.590539</v>
       </c>
       <c r="D47" t="n">
-        <v>0.65587</v>
+        <v>0.836874</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581881</v>
+        <v>0.570075</v>
       </c>
       <c r="C48" t="n">
-        <v>0.586203</v>
+        <v>0.577086</v>
       </c>
       <c r="D48" t="n">
-        <v>0.640558</v>
+        <v>0.833117</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.571719</v>
+        <v>0.561897</v>
       </c>
       <c r="C49" t="n">
-        <v>0.574546</v>
+        <v>0.565756</v>
       </c>
       <c r="D49" t="n">
-        <v>0.626075</v>
+        <v>0.827215</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.564493</v>
+        <v>0.554875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.562453</v>
+        <v>0.555912</v>
       </c>
       <c r="D50" t="n">
-        <v>0.614554</v>
+        <v>1.05949</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.560262</v>
+        <v>0.53244</v>
       </c>
       <c r="C51" t="n">
-        <v>0.821147</v>
+        <v>0.804493</v>
       </c>
       <c r="D51" t="n">
-        <v>0.939643</v>
+        <v>1.03629</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.561687</v>
+        <v>0.532241</v>
       </c>
       <c r="C52" t="n">
-        <v>0.797633</v>
+        <v>0.782335</v>
       </c>
       <c r="D52" t="n">
-        <v>0.911053</v>
+        <v>1.01879</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.752144</v>
+        <v>0.752816</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7739200000000001</v>
+        <v>0.772288</v>
       </c>
       <c r="D53" t="n">
-        <v>0.88376</v>
+        <v>0.997557</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.733096</v>
+        <v>0.7313229999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7514960000000001</v>
+        <v>0.737949</v>
       </c>
       <c r="D54" t="n">
-        <v>0.856351</v>
+        <v>0.9775740000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.712107</v>
+        <v>0.711095</v>
       </c>
       <c r="C55" t="n">
-        <v>0.727593</v>
+        <v>0.718068</v>
       </c>
       <c r="D55" t="n">
-        <v>0.82926</v>
+        <v>0.960985</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692592</v>
+        <v>0.683665</v>
       </c>
       <c r="C56" t="n">
-        <v>0.709664</v>
+        <v>0.699504</v>
       </c>
       <c r="D56" t="n">
-        <v>0.805444</v>
+        <v>0.946276</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674705</v>
+        <v>0.661508</v>
       </c>
       <c r="C57" t="n">
-        <v>0.689705</v>
+        <v>0.67941</v>
       </c>
       <c r="D57" t="n">
-        <v>0.783811</v>
+        <v>0.936295</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.659857</v>
+        <v>0.646389</v>
       </c>
       <c r="C58" t="n">
-        <v>0.671865</v>
+        <v>0.662673</v>
       </c>
       <c r="D58" t="n">
-        <v>0.766837</v>
+        <v>0.909301</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.644235</v>
+        <v>0.632328</v>
       </c>
       <c r="C59" t="n">
-        <v>0.654793</v>
+        <v>0.645522</v>
       </c>
       <c r="D59" t="n">
-        <v>0.739662</v>
+        <v>0.898441</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630197</v>
+        <v>0.620375</v>
       </c>
       <c r="C60" t="n">
-        <v>0.638675</v>
+        <v>0.629718</v>
       </c>
       <c r="D60" t="n">
-        <v>0.726138</v>
+        <v>0.88795</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.617357</v>
+        <v>0.617305</v>
       </c>
       <c r="C61" t="n">
-        <v>0.622957</v>
+        <v>0.615935</v>
       </c>
       <c r="D61" t="n">
-        <v>0.702136</v>
+        <v>0.878615</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.604841</v>
+        <v>0.570796</v>
       </c>
       <c r="C62" t="n">
-        <v>0.607465</v>
+        <v>0.57977</v>
       </c>
       <c r="D62" t="n">
-        <v>0.686488</v>
+        <v>0.870653</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.59602</v>
+        <v>0.5866130000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.593035</v>
+        <v>0.590152</v>
       </c>
       <c r="D63" t="n">
-        <v>0.672964</v>
+        <v>0.863056</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588363</v>
+        <v>0.578833</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585912</v>
+        <v>0.58096</v>
       </c>
       <c r="D64" t="n">
-        <v>0.657736</v>
+        <v>1.12117</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.582414</v>
+        <v>0.5754899999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.577646</v>
+        <v>0.574972</v>
       </c>
       <c r="D65" t="n">
-        <v>0.648309</v>
+        <v>1.09516</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580252</v>
+        <v>0.573429</v>
       </c>
       <c r="C66" t="n">
-        <v>0.849464</v>
+        <v>0.849796</v>
       </c>
       <c r="D66" t="n">
-        <v>0.990187</v>
+        <v>1.07199</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.808857</v>
+        <v>0.8123050000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.825499</v>
+        <v>0.815725</v>
       </c>
       <c r="D67" t="n">
-        <v>0.964551</v>
+        <v>1.04963</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.791507</v>
+        <v>0.795735</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8047569999999999</v>
+        <v>0.805129</v>
       </c>
       <c r="D68" t="n">
-        <v>0.934231</v>
+        <v>1.03051</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7725610000000001</v>
+        <v>0.774795</v>
       </c>
       <c r="C69" t="n">
-        <v>0.783589</v>
+        <v>0.782345</v>
       </c>
       <c r="D69" t="n">
-        <v>0.908582</v>
+        <v>1.01296</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.754951</v>
+        <v>0.771402</v>
       </c>
       <c r="C70" t="n">
-        <v>0.762647</v>
+        <v>0.753239</v>
       </c>
       <c r="D70" t="n">
-        <v>0.883549</v>
+        <v>0.995793</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.743212</v>
+        <v>0.747293</v>
       </c>
       <c r="C71" t="n">
-        <v>0.745573</v>
+        <v>0.733976</v>
       </c>
       <c r="D71" t="n">
-        <v>0.860017</v>
+        <v>0.983493</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.724618</v>
+        <v>0.7291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.725894</v>
+        <v>0.7179489999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.834677</v>
+        <v>0.973062</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.712221</v>
+        <v>0.707555</v>
       </c>
       <c r="C73" t="n">
-        <v>0.711572</v>
+        <v>0.699377</v>
       </c>
       <c r="D73" t="n">
-        <v>0.814012</v>
+        <v>0.9488259999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.697528</v>
+        <v>0.701584</v>
       </c>
       <c r="C74" t="n">
-        <v>0.694823</v>
+        <v>0.683099</v>
       </c>
       <c r="D74" t="n">
-        <v>0.794915</v>
+        <v>0.941415</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.686241</v>
+        <v>0.679525</v>
       </c>
       <c r="C75" t="n">
-        <v>0.676019</v>
+        <v>0.668296</v>
       </c>
       <c r="D75" t="n">
-        <v>0.772904</v>
+        <v>0.9342510000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.676411</v>
+        <v>0.671655</v>
       </c>
       <c r="C76" t="n">
-        <v>0.662449</v>
+        <v>0.650801</v>
       </c>
       <c r="D76" t="n">
-        <v>0.755977</v>
+        <v>0.931508</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.665619</v>
+        <v>0.663612</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6495880000000001</v>
+        <v>0.641556</v>
       </c>
       <c r="D77" t="n">
-        <v>0.739198</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.656011</v>
+        <v>0.6661049999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.639529</v>
+        <v>0.62983</v>
       </c>
       <c r="D78" t="n">
-        <v>0.720384</v>
+        <v>1.36306</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.647651</v>
+        <v>0.64788</v>
       </c>
       <c r="C79" t="n">
-        <v>0.627702</v>
+        <v>0.596925</v>
       </c>
       <c r="D79" t="n">
-        <v>0.708925</v>
+        <v>1.33225</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.642668</v>
+        <v>0.643122</v>
       </c>
       <c r="C80" t="n">
-        <v>0.933621</v>
+        <v>0.921515</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09318</v>
+        <v>1.30509</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.896394</v>
+        <v>0.8951249999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.918909</v>
+        <v>0.892344</v>
       </c>
       <c r="D81" t="n">
-        <v>1.06986</v>
+        <v>1.2838</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.891409</v>
+        <v>0.883696</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905447</v>
+        <v>0.875426</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04888</v>
+        <v>1.26623</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.885642</v>
+        <v>0.877703</v>
       </c>
       <c r="C83" t="n">
-        <v>0.887661</v>
+        <v>0.857695</v>
       </c>
       <c r="D83" t="n">
-        <v>1.02528</v>
+        <v>1.24812</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.876503</v>
+        <v>0.87099</v>
       </c>
       <c r="C84" t="n">
-        <v>0.871402</v>
+        <v>0.857355</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00228</v>
+        <v>1.20093</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.867318</v>
+        <v>0.855669</v>
       </c>
       <c r="C85" t="n">
-        <v>0.849778</v>
+        <v>0.781438</v>
       </c>
       <c r="D85" t="n">
-        <v>0.977926</v>
+        <v>1.19173</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.857936</v>
+        <v>0.842814</v>
       </c>
       <c r="C86" t="n">
-        <v>0.835462</v>
+        <v>0.806663</v>
       </c>
       <c r="D86" t="n">
-        <v>0.954324</v>
+        <v>1.18421</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.848</v>
+        <v>0.835948</v>
       </c>
       <c r="C87" t="n">
-        <v>0.814248</v>
+        <v>0.785326</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9283</v>
+        <v>1.18567</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8358</v>
+        <v>0.81252</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7955759999999999</v>
+        <v>0.768251</v>
       </c>
       <c r="D88" t="n">
-        <v>0.902853</v>
+        <v>1.18972</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.830447</v>
+        <v>0.8107760000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7820240000000001</v>
+        <v>0.7546</v>
       </c>
       <c r="D89" t="n">
-        <v>0.885839</v>
+        <v>1.18864</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.81767</v>
+        <v>0.802957</v>
       </c>
       <c r="C90" t="n">
-        <v>0.763135</v>
+        <v>0.737295</v>
       </c>
       <c r="D90" t="n">
-        <v>0.863334</v>
+        <v>1.19406</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.807825</v>
+        <v>0.801698</v>
       </c>
       <c r="C91" t="n">
-        <v>0.746599</v>
+        <v>0.725534</v>
       </c>
       <c r="D91" t="n">
-        <v>0.842745</v>
+        <v>1.19356</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.800632</v>
+        <v>0.769805</v>
       </c>
       <c r="C92" t="n">
-        <v>0.733142</v>
+        <v>0.683253</v>
       </c>
       <c r="D92" t="n">
-        <v>0.826975</v>
+        <v>2.16615</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.794879</v>
+        <v>0.781927</v>
       </c>
       <c r="C93" t="n">
-        <v>0.722081</v>
+        <v>0.7020380000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.81228</v>
+        <v>2.15799</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.790829</v>
+        <v>0.771389</v>
       </c>
       <c r="C94" t="n">
-        <v>1.03253</v>
+        <v>1.00355</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19653</v>
+        <v>2.15414</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04439</v>
+        <v>1.01821</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02727</v>
+        <v>0.967346</v>
       </c>
       <c r="D95" t="n">
-        <v>1.18199</v>
+        <v>2.15389</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04941</v>
+        <v>1.00357</v>
       </c>
       <c r="C96" t="n">
-        <v>1.01517</v>
+        <v>0.961075</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16078</v>
+        <v>2.14553</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04147</v>
+        <v>1.01761</v>
       </c>
       <c r="C97" t="n">
-        <v>0.993629</v>
+        <v>0.968967</v>
       </c>
       <c r="D97" t="n">
-        <v>1.13788</v>
+        <v>2.13892</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03488</v>
+        <v>0.981084</v>
       </c>
       <c r="C98" t="n">
-        <v>0.984955</v>
+        <v>0.92694</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11909</v>
+        <v>2.05696</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02651</v>
+        <v>0.996427</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9701340000000001</v>
+        <v>0.933038</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09376</v>
+        <v>1.66545</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01851</v>
+        <v>0.968387</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9515130000000001</v>
+        <v>0.8989279999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>1.06859</v>
+        <v>1.65492</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00913</v>
+        <v>0.966827</v>
       </c>
       <c r="C101" t="n">
-        <v>0.939797</v>
+        <v>0.850366</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0557</v>
+        <v>1.65402</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00333</v>
+        <v>0.952318</v>
       </c>
       <c r="C102" t="n">
-        <v>0.925983</v>
+        <v>0.874221</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03533</v>
+        <v>1.65835</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.997919</v>
+        <v>0.948188</v>
       </c>
       <c r="C103" t="n">
-        <v>0.911498</v>
+        <v>0.86173</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01553</v>
+        <v>1.63748</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.992792</v>
+        <v>0.941605</v>
       </c>
       <c r="C104" t="n">
-        <v>0.900936</v>
+        <v>0.849973</v>
       </c>
       <c r="D104" t="n">
-        <v>1.00092</v>
+        <v>1.63708</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.986382</v>
+        <v>0.933852</v>
       </c>
       <c r="C105" t="n">
-        <v>0.889585</v>
+        <v>0.837315</v>
       </c>
       <c r="D105" t="n">
-        <v>0.981443</v>
+        <v>1.65491</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9831569999999999</v>
+        <v>0.936804</v>
       </c>
       <c r="C106" t="n">
-        <v>0.873951</v>
+        <v>0.828356</v>
       </c>
       <c r="D106" t="n">
-        <v>0.964488</v>
+        <v>1.6717</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.981623</v>
+        <v>0.93199</v>
       </c>
       <c r="C107" t="n">
-        <v>0.866347</v>
+        <v>0.795238</v>
       </c>
       <c r="D107" t="n">
-        <v>0.955056</v>
+        <v>2.91476</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.983254</v>
+        <v>0.931969</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17702</v>
+        <v>1.09921</v>
       </c>
       <c r="D108" t="n">
-        <v>1.33752</v>
+        <v>2.89557</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.989222</v>
+        <v>0.929665</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17247</v>
+        <v>1.09219</v>
       </c>
       <c r="D109" t="n">
-        <v>1.33164</v>
+        <v>2.88357</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25061</v>
+        <v>1.18053</v>
       </c>
       <c r="C110" t="n">
-        <v>1.16539</v>
+        <v>1.08513</v>
       </c>
       <c r="D110" t="n">
-        <v>1.30863</v>
+        <v>2.49526</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23937</v>
+        <v>1.13955</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14681</v>
+        <v>1.06969</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28701</v>
+        <v>2.65964</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22837</v>
+        <v>1.16266</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1397</v>
+        <v>1.0795</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27173</v>
+        <v>2.44845</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21936</v>
+        <v>1.13589</v>
       </c>
       <c r="C113" t="n">
-        <v>1.12296</v>
+        <v>1.04609</v>
       </c>
       <c r="D113" t="n">
-        <v>1.25061</v>
+        <v>2.23919</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2088</v>
+        <v>1.14214</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11926</v>
+        <v>1.05554</v>
       </c>
       <c r="D114" t="n">
-        <v>1.241</v>
+        <v>2.20699</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.20093</v>
+        <v>1.10223</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10221</v>
+        <v>0.989771</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22186</v>
+        <v>2.20197</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1931</v>
+        <v>1.10752</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09523</v>
+        <v>1.01791</v>
       </c>
       <c r="D116" t="n">
-        <v>1.20348</v>
+        <v>2.19409</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18515</v>
+        <v>1.10811</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09078</v>
+        <v>1.00805</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19183</v>
+        <v>2.18608</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.18048</v>
+        <v>1.11379</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07559</v>
+        <v>1.00226</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1734</v>
+        <v>2.18551</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.17578</v>
+        <v>1.09708</v>
       </c>
       <c r="C119" t="n">
-        <v>1.07424</v>
+        <v>0.992815</v>
       </c>
       <c r="D119" t="n">
-        <v>1.16648</v>
+        <v>2.20154</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.17433</v>
+        <v>1.09428</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06188</v>
+        <v>0.983645</v>
       </c>
       <c r="D120" t="n">
-        <v>1.15179</v>
+        <v>2.21028</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1759</v>
+        <v>1.08718</v>
       </c>
       <c r="C121" t="n">
-        <v>1.06175</v>
+        <v>0.98362</v>
       </c>
       <c r="D121" t="n">
-        <v>1.14367</v>
+        <v>3.59119</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.17652</v>
+        <v>1.09382</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05251</v>
+        <v>0.952113</v>
       </c>
       <c r="D122" t="n">
-        <v>1.12747</v>
+        <v>3.55192</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.18368</v>
+        <v>1.09377</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35991</v>
+        <v>1.2591</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51998</v>
+        <v>3.93999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43201</v>
+        <v>1.34424</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35762</v>
+        <v>1.27709</v>
       </c>
       <c r="D124" t="n">
-        <v>1.49513</v>
+        <v>3.91787</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42428</v>
+        <v>1.31866</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35142</v>
+        <v>1.24458</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48635</v>
+        <v>3.46492</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41719</v>
+        <v>1.32566</v>
       </c>
       <c r="C126" t="n">
-        <v>1.34533</v>
+        <v>1.23399</v>
       </c>
       <c r="D126" t="n">
-        <v>1.47576</v>
+        <v>3.22428</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40957</v>
+        <v>1.31837</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33644</v>
+        <v>1.22762</v>
       </c>
       <c r="D127" t="n">
-        <v>1.45334</v>
+        <v>3.41187</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40477</v>
+        <v>1.29619</v>
       </c>
       <c r="C128" t="n">
-        <v>1.32959</v>
+        <v>1.22404</v>
       </c>
       <c r="D128" t="n">
-        <v>1.44716</v>
+        <v>2.72302</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40075</v>
+        <v>1.30723</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3244</v>
+        <v>1.2176</v>
       </c>
       <c r="D129" t="n">
-        <v>1.43572</v>
+        <v>2.70175</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39593</v>
+        <v>1.29648</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31843</v>
+        <v>1.20886</v>
       </c>
       <c r="D130" t="n">
-        <v>1.42502</v>
+        <v>2.68575</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39232</v>
+        <v>1.29527</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31697</v>
+        <v>1.17561</v>
       </c>
       <c r="D131" t="n">
-        <v>1.42</v>
+        <v>2.67127</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39053</v>
+        <v>1.28039</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31289</v>
+        <v>1.17476</v>
       </c>
       <c r="D132" t="n">
-        <v>1.40928</v>
+        <v>2.66499</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3879</v>
+        <v>1.26235</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30801</v>
+        <v>1.16781</v>
       </c>
       <c r="D133" t="n">
-        <v>1.39592</v>
+        <v>2.66619</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38778</v>
+        <v>1.29464</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30255</v>
+        <v>1.20071</v>
       </c>
       <c r="D134" t="n">
-        <v>1.38819</v>
+        <v>2.66546</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39061</v>
+        <v>1.29555</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30088</v>
+        <v>1.18098</v>
       </c>
       <c r="D135" t="n">
-        <v>1.38404</v>
+        <v>4.11179</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39443</v>
+        <v>1.28402</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29769</v>
+        <v>1.16273</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37465</v>
+        <v>4.06195</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40206</v>
+        <v>1.29068</v>
       </c>
       <c r="C137" t="n">
-        <v>1.60485</v>
+        <v>1.46681</v>
       </c>
       <c r="D137" t="n">
-        <v>1.75384</v>
+        <v>4.25602</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.65272</v>
+        <v>1.52655</v>
       </c>
       <c r="C138" t="n">
-        <v>1.59951</v>
+        <v>1.45917</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74279</v>
+        <v>4.43653</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64707</v>
+        <v>1.52472</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59514</v>
+        <v>1.47466</v>
       </c>
       <c r="D139" t="n">
-        <v>1.73185</v>
+        <v>3.6958</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64254</v>
+        <v>1.52159</v>
       </c>
       <c r="C140" t="n">
-        <v>1.5914</v>
+        <v>1.47517</v>
       </c>
       <c r="D140" t="n">
-        <v>1.72274</v>
+        <v>3.41957</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63804</v>
+        <v>1.51582</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58586</v>
+        <v>1.46652</v>
       </c>
       <c r="D141" t="n">
-        <v>1.70997</v>
+        <v>3.15617</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.63523</v>
+        <v>1.51343</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58403</v>
+        <v>1.44876</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70122</v>
+        <v>3.09905</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63119</v>
+        <v>1.49076</v>
       </c>
       <c r="C143" t="n">
-        <v>1.58149</v>
+        <v>1.44156</v>
       </c>
       <c r="D143" t="n">
-        <v>1.69007</v>
+        <v>3.07554</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.581861</v>
+        <v>0.582561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.581705</v>
+        <v>0.628949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.609776</v>
+        <v>0.64672</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.567123</v>
+        <v>0.569176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5669380000000001</v>
+        <v>0.611852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.593009</v>
+        <v>0.628602</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.555674</v>
+        <v>0.557205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.55258</v>
+        <v>0.596639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.577169</v>
+        <v>0.612017</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.545136</v>
+        <v>0.547146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.539404</v>
+        <v>0.581739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.562771</v>
+        <v>0.596435</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.536846</v>
+        <v>0.539144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.527461</v>
+        <v>0.569334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.549941</v>
+        <v>0.582744</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5295</v>
+        <v>0.531668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517832</v>
+        <v>0.558262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.539548</v>
+        <v>0.57228</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.525481</v>
+        <v>0.526907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51148</v>
+        <v>0.549471</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5313</v>
+        <v>0.561666</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.526233</v>
+        <v>0.526724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.759217</v>
+        <v>0.814324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.79965</v>
+        <v>0.843525</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.668299</v>
+        <v>0.670011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.688086</v>
+        <v>0.742148</v>
       </c>
       <c r="D10" t="n">
-        <v>0.773891</v>
+        <v>0.816561</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.649353</v>
+        <v>0.650606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.667363</v>
+        <v>0.720288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.749089</v>
+        <v>0.790264</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.631215</v>
+        <v>0.632582</v>
       </c>
       <c r="C12" t="n">
-        <v>0.647828</v>
+        <v>0.6992930000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.725772</v>
+        <v>0.765926</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614343</v>
+        <v>0.615623</v>
       </c>
       <c r="C13" t="n">
-        <v>0.629432</v>
+        <v>0.679576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.703281</v>
+        <v>0.74212</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.598352</v>
+        <v>0.599287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.611941</v>
+        <v>0.6613</v>
       </c>
       <c r="D14" t="n">
-        <v>0.682504</v>
+        <v>0.720328</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.583502</v>
+        <v>0.584522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.595261</v>
+        <v>0.643536</v>
       </c>
       <c r="D15" t="n">
-        <v>0.662546</v>
+        <v>0.699479</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570097</v>
+        <v>0.571321</v>
       </c>
       <c r="C16" t="n">
-        <v>0.579671</v>
+        <v>0.627041</v>
       </c>
       <c r="D16" t="n">
-        <v>0.643558</v>
+        <v>0.679685</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5570850000000001</v>
+        <v>0.558293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.564926</v>
+        <v>0.611183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.626182</v>
+        <v>0.661544</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545395</v>
+        <v>0.546131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5517030000000001</v>
+        <v>0.5969139999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.609802</v>
+        <v>0.644472</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535037</v>
+        <v>0.535639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.539153</v>
+        <v>0.583735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.595222</v>
+        <v>0.628179</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526324</v>
+        <v>0.526853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.52772</v>
+        <v>0.572231</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5823660000000001</v>
+        <v>0.613662</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520007</v>
+        <v>0.520419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.517985</v>
+        <v>0.562712</v>
       </c>
       <c r="D21" t="n">
-        <v>0.570954</v>
+        <v>0.602131</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5147969999999999</v>
+        <v>0.516103</v>
       </c>
       <c r="C22" t="n">
-        <v>0.511703</v>
+        <v>0.555662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.562662</v>
+        <v>0.592921</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514505</v>
+        <v>0.514952</v>
       </c>
       <c r="C23" t="n">
-        <v>0.762424</v>
+        <v>0.824099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.842054</v>
+        <v>0.886134</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.716955</v>
+        <v>0.718669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.739406</v>
+        <v>0.7990119999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.815179</v>
+        <v>0.857285</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.696117</v>
+        <v>0.697512</v>
       </c>
       <c r="C25" t="n">
-        <v>0.717043</v>
+        <v>0.77504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.788814</v>
+        <v>0.830215</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.676103</v>
+        <v>0.677642</v>
       </c>
       <c r="C26" t="n">
-        <v>0.695565</v>
+        <v>0.752045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.764218</v>
+        <v>0.804369</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6574719999999999</v>
+        <v>0.658273</v>
       </c>
       <c r="C27" t="n">
-        <v>0.67494</v>
+        <v>0.73016</v>
       </c>
       <c r="D27" t="n">
-        <v>0.74078</v>
+        <v>0.780222</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639227</v>
+        <v>0.640599</v>
       </c>
       <c r="C28" t="n">
-        <v>0.655782</v>
+        <v>0.709749</v>
       </c>
       <c r="D28" t="n">
-        <v>0.71797</v>
+        <v>0.75657</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622582</v>
+        <v>0.623354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.637887</v>
+        <v>0.690267</v>
       </c>
       <c r="D29" t="n">
-        <v>0.697221</v>
+        <v>0.734444</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607077</v>
+        <v>0.608214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.620039</v>
+        <v>0.671727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6770350000000001</v>
+        <v>0.713229</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592454</v>
+        <v>0.593011</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603863</v>
+        <v>0.654629</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6581</v>
+        <v>0.693147</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578928</v>
+        <v>0.57985</v>
       </c>
       <c r="C32" t="n">
-        <v>0.588547</v>
+        <v>0.6382910000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640532</v>
+        <v>0.674408</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567564</v>
+        <v>0.568026</v>
       </c>
       <c r="C33" t="n">
-        <v>0.574526</v>
+        <v>0.623294</v>
       </c>
       <c r="D33" t="n">
-        <v>0.624449</v>
+        <v>0.657655</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557165</v>
+        <v>0.5578109999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.561783</v>
+        <v>0.609513</v>
       </c>
       <c r="D34" t="n">
-        <v>0.60929</v>
+        <v>0.642141</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549732</v>
+        <v>0.549814</v>
       </c>
       <c r="C35" t="n">
-        <v>0.550949</v>
+        <v>0.597681</v>
       </c>
       <c r="D35" t="n">
-        <v>0.59738</v>
+        <v>0.628225</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543468</v>
+        <v>0.543591</v>
       </c>
       <c r="C36" t="n">
-        <v>0.541499</v>
+        <v>0.588717</v>
       </c>
       <c r="D36" t="n">
-        <v>0.586525</v>
+        <v>0.618017</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.540699</v>
+        <v>0.540969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.794697</v>
+        <v>0.859248</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8843569999999999</v>
+        <v>0.922645</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748381</v>
+        <v>0.750194</v>
       </c>
       <c r="C38" t="n">
-        <v>0.770305</v>
+        <v>0.833518</v>
       </c>
       <c r="D38" t="n">
-        <v>0.855728</v>
+        <v>0.892518</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727833</v>
+        <v>0.729032</v>
       </c>
       <c r="C39" t="n">
-        <v>0.747663</v>
+        <v>0.808024</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8285940000000001</v>
+        <v>0.8641760000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706686</v>
+        <v>0.707683</v>
       </c>
       <c r="C40" t="n">
-        <v>0.725067</v>
+        <v>0.784102</v>
       </c>
       <c r="D40" t="n">
-        <v>0.802971</v>
+        <v>0.837029</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686292</v>
+        <v>0.687509</v>
       </c>
       <c r="C41" t="n">
-        <v>0.703735</v>
+        <v>0.761175</v>
       </c>
       <c r="D41" t="n">
-        <v>0.777872</v>
+        <v>0.811999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667976</v>
+        <v>0.669131</v>
       </c>
       <c r="C42" t="n">
-        <v>0.684053</v>
+        <v>0.7405040000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.755511</v>
+        <v>0.787615</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.650668</v>
+        <v>0.651672</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6651</v>
+        <v>0.720145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7330100000000001</v>
+        <v>0.764526</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.634571</v>
+        <v>0.635294</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.700584</v>
       </c>
       <c r="D44" t="n">
-        <v>0.711576</v>
+        <v>0.742583</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618639</v>
+        <v>0.620738</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6298899999999999</v>
+        <v>0.682041</v>
       </c>
       <c r="D45" t="n">
-        <v>0.69236</v>
+        <v>0.721763</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.606082</v>
       </c>
       <c r="C46" t="n">
-        <v>0.613306</v>
+        <v>0.665494</v>
       </c>
       <c r="D46" t="n">
-        <v>0.673023</v>
+        <v>0.702303</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592287</v>
+        <v>0.5939680000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.598628</v>
+        <v>0.64916</v>
       </c>
       <c r="D47" t="n">
-        <v>0.65587</v>
+        <v>0.684489</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581881</v>
+        <v>0.5820610000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.586203</v>
+        <v>0.634031</v>
       </c>
       <c r="D48" t="n">
-        <v>0.640558</v>
+        <v>0.667364</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.571719</v>
+        <v>0.573156</v>
       </c>
       <c r="C49" t="n">
-        <v>0.574546</v>
+        <v>0.621808</v>
       </c>
       <c r="D49" t="n">
-        <v>0.626075</v>
+        <v>0.6535339999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.564493</v>
+        <v>0.566167</v>
       </c>
       <c r="C50" t="n">
-        <v>0.562453</v>
+        <v>0.611304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.614554</v>
+        <v>0.641042</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.560262</v>
+        <v>0.561447</v>
       </c>
       <c r="C51" t="n">
-        <v>0.821147</v>
+        <v>0.888041</v>
       </c>
       <c r="D51" t="n">
-        <v>0.939643</v>
+        <v>0.969009</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.561687</v>
+        <v>0.561103</v>
       </c>
       <c r="C52" t="n">
-        <v>0.797633</v>
+        <v>0.861491</v>
       </c>
       <c r="D52" t="n">
-        <v>0.911053</v>
+        <v>0.936908</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.752144</v>
+        <v>0.75606</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7739200000000001</v>
+        <v>0.836707</v>
       </c>
       <c r="D53" t="n">
-        <v>0.88376</v>
+        <v>0.909134</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.733096</v>
+        <v>0.735524</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7514960000000001</v>
+        <v>0.8126949999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.856351</v>
+        <v>0.881074</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.712107</v>
+        <v>0.714879</v>
       </c>
       <c r="C55" t="n">
-        <v>0.727593</v>
+        <v>0.788043</v>
       </c>
       <c r="D55" t="n">
-        <v>0.82926</v>
+        <v>0.85281</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692592</v>
+        <v>0.696281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.709664</v>
+        <v>0.768293</v>
       </c>
       <c r="D56" t="n">
-        <v>0.805444</v>
+        <v>0.829334</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674705</v>
+        <v>0.678163</v>
       </c>
       <c r="C57" t="n">
-        <v>0.689705</v>
+        <v>0.746908</v>
       </c>
       <c r="D57" t="n">
-        <v>0.783811</v>
+        <v>0.804525</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.659857</v>
+        <v>0.661806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.671865</v>
+        <v>0.727976</v>
       </c>
       <c r="D58" t="n">
-        <v>0.766837</v>
+        <v>0.78223</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.644235</v>
+        <v>0.646028</v>
       </c>
       <c r="C59" t="n">
-        <v>0.654793</v>
+        <v>0.708057</v>
       </c>
       <c r="D59" t="n">
-        <v>0.739662</v>
+        <v>0.762505</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630197</v>
+        <v>0.631753</v>
       </c>
       <c r="C60" t="n">
-        <v>0.638675</v>
+        <v>0.690371</v>
       </c>
       <c r="D60" t="n">
-        <v>0.726138</v>
+        <v>0.742097</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.617357</v>
+        <v>0.620372</v>
       </c>
       <c r="C61" t="n">
-        <v>0.622957</v>
+        <v>0.675941</v>
       </c>
       <c r="D61" t="n">
-        <v>0.702136</v>
+        <v>0.7239</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.604841</v>
+        <v>0.607665</v>
       </c>
       <c r="C62" t="n">
-        <v>0.607465</v>
+        <v>0.660364</v>
       </c>
       <c r="D62" t="n">
-        <v>0.686488</v>
+        <v>0.7034010000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.59602</v>
+        <v>0.5982730000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.593035</v>
+        <v>0.6471479999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.672964</v>
+        <v>0.689441</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.588363</v>
+        <v>0.591813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585912</v>
+        <v>0.636472</v>
       </c>
       <c r="D64" t="n">
-        <v>0.657736</v>
+        <v>0.676767</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.582414</v>
+        <v>0.586493</v>
       </c>
       <c r="C65" t="n">
-        <v>0.577646</v>
+        <v>0.628367</v>
       </c>
       <c r="D65" t="n">
-        <v>0.648309</v>
+        <v>0.665242</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580252</v>
+        <v>0.584635</v>
       </c>
       <c r="C66" t="n">
-        <v>0.849464</v>
+        <v>0.909518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.990187</v>
+        <v>1.00268</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.808857</v>
+        <v>0.809844</v>
       </c>
       <c r="C67" t="n">
-        <v>0.825499</v>
+        <v>0.882764</v>
       </c>
       <c r="D67" t="n">
-        <v>0.964551</v>
+        <v>0.971598</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.791507</v>
+        <v>0.790967</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8047569999999999</v>
+        <v>0.861262</v>
       </c>
       <c r="D68" t="n">
-        <v>0.934231</v>
+        <v>0.946041</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7725610000000001</v>
+        <v>0.772922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.783589</v>
+        <v>0.8401149999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.908582</v>
+        <v>0.919995</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.754951</v>
+        <v>0.756839</v>
       </c>
       <c r="C70" t="n">
-        <v>0.762647</v>
+        <v>0.82003</v>
       </c>
       <c r="D70" t="n">
-        <v>0.883549</v>
+        <v>0.894514</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.743212</v>
+        <v>0.7403920000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.745573</v>
+        <v>0.799157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.860017</v>
+        <v>0.870185</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.724618</v>
+        <v>0.724227</v>
       </c>
       <c r="C72" t="n">
-        <v>0.725894</v>
+        <v>0.778044</v>
       </c>
       <c r="D72" t="n">
-        <v>0.834677</v>
+        <v>0.845562</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.712221</v>
+        <v>0.708768</v>
       </c>
       <c r="C73" t="n">
-        <v>0.711572</v>
+        <v>0.75518</v>
       </c>
       <c r="D73" t="n">
-        <v>0.814012</v>
+        <v>0.823418</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.697528</v>
+        <v>0.6945210000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.694823</v>
+        <v>0.739726</v>
       </c>
       <c r="D74" t="n">
-        <v>0.794915</v>
+        <v>0.801884</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.686241</v>
+        <v>0.679606</v>
       </c>
       <c r="C75" t="n">
-        <v>0.676019</v>
+        <v>0.721755</v>
       </c>
       <c r="D75" t="n">
-        <v>0.772904</v>
+        <v>0.779369</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.676411</v>
+        <v>0.66757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.662449</v>
+        <v>0.7072580000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.755977</v>
+        <v>0.763626</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.665619</v>
+        <v>0.660614</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6495880000000001</v>
+        <v>0.692117</v>
       </c>
       <c r="D77" t="n">
-        <v>0.739198</v>
+        <v>0.746225</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.656011</v>
+        <v>0.648939</v>
       </c>
       <c r="C78" t="n">
-        <v>0.639529</v>
+        <v>0.676146</v>
       </c>
       <c r="D78" t="n">
-        <v>0.720384</v>
+        <v>0.729695</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.647651</v>
+        <v>0.64101</v>
       </c>
       <c r="C79" t="n">
-        <v>0.627702</v>
+        <v>0.671006</v>
       </c>
       <c r="D79" t="n">
-        <v>0.708925</v>
+        <v>0.718452</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.642668</v>
+        <v>0.638716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.933621</v>
+        <v>0.989896</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09318</v>
+        <v>1.08964</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.896394</v>
+        <v>0.888866</v>
       </c>
       <c r="C81" t="n">
-        <v>0.918909</v>
+        <v>0.9719410000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.06986</v>
+        <v>1.06673</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.891409</v>
+        <v>0.8811560000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905447</v>
+        <v>0.952897</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04888</v>
+        <v>1.04327</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.885642</v>
+        <v>0.87182</v>
       </c>
       <c r="C83" t="n">
-        <v>0.887661</v>
+        <v>0.935217</v>
       </c>
       <c r="D83" t="n">
-        <v>1.02528</v>
+        <v>1.01996</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.876503</v>
+        <v>0.862505</v>
       </c>
       <c r="C84" t="n">
-        <v>0.871402</v>
+        <v>0.913058</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00228</v>
+        <v>0.993465</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.867318</v>
+        <v>0.849886</v>
       </c>
       <c r="C85" t="n">
-        <v>0.849778</v>
+        <v>0.891531</v>
       </c>
       <c r="D85" t="n">
-        <v>0.977926</v>
+        <v>0.970869</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.857936</v>
+        <v>0.84054</v>
       </c>
       <c r="C86" t="n">
-        <v>0.835462</v>
+        <v>0.871379</v>
       </c>
       <c r="D86" t="n">
-        <v>0.954324</v>
+        <v>0.942511</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.848</v>
+        <v>0.82708</v>
       </c>
       <c r="C87" t="n">
-        <v>0.814248</v>
+        <v>0.848715</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9283</v>
+        <v>0.916968</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8358</v>
+        <v>0.817737</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7955759999999999</v>
+        <v>0.82807</v>
       </c>
       <c r="D88" t="n">
-        <v>0.902853</v>
+        <v>0.895482</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.830447</v>
+        <v>0.808153</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7820240000000001</v>
+        <v>0.8133</v>
       </c>
       <c r="D89" t="n">
-        <v>0.885839</v>
+        <v>0.8767160000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.81767</v>
+        <v>0.794727</v>
       </c>
       <c r="C90" t="n">
-        <v>0.763135</v>
+        <v>0.792469</v>
       </c>
       <c r="D90" t="n">
-        <v>0.863334</v>
+        <v>0.8562419999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.807825</v>
+        <v>0.7884100000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.746599</v>
+        <v>0.781339</v>
       </c>
       <c r="D91" t="n">
-        <v>0.842745</v>
+        <v>0.837638</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.800632</v>
+        <v>0.781597</v>
       </c>
       <c r="C92" t="n">
-        <v>0.733142</v>
+        <v>0.768302</v>
       </c>
       <c r="D92" t="n">
-        <v>0.826975</v>
+        <v>0.8173589999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.794879</v>
+        <v>0.775943</v>
       </c>
       <c r="C93" t="n">
-        <v>0.722081</v>
+        <v>0.756315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.81228</v>
+        <v>0.809344</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.790829</v>
+        <v>0.772702</v>
       </c>
       <c r="C94" t="n">
-        <v>1.03253</v>
+        <v>1.08008</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19653</v>
+        <v>1.18549</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04439</v>
+        <v>1.02376</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02727</v>
+        <v>1.06604</v>
       </c>
       <c r="D95" t="n">
-        <v>1.18199</v>
+        <v>1.16944</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04941</v>
+        <v>1.02477</v>
       </c>
       <c r="C96" t="n">
-        <v>1.01517</v>
+        <v>1.05227</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16078</v>
+        <v>1.14714</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04147</v>
+        <v>1.016</v>
       </c>
       <c r="C97" t="n">
-        <v>0.993629</v>
+        <v>1.03383</v>
       </c>
       <c r="D97" t="n">
-        <v>1.13788</v>
+        <v>1.1227</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03488</v>
+        <v>1.00481</v>
       </c>
       <c r="C98" t="n">
-        <v>0.984955</v>
+        <v>1.01546</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11909</v>
+        <v>1.1016</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02651</v>
+        <v>0.995287</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9701340000000001</v>
+        <v>0.998143</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09376</v>
+        <v>1.0786</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.01851</v>
+        <v>0.985273</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9515130000000001</v>
+        <v>0.9802959999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>1.06859</v>
+        <v>1.05695</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00913</v>
+        <v>0.976372</v>
       </c>
       <c r="C101" t="n">
-        <v>0.939797</v>
+        <v>0.964592</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0557</v>
+        <v>1.03541</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00333</v>
+        <v>0.967911</v>
       </c>
       <c r="C102" t="n">
-        <v>0.925983</v>
+        <v>0.949229</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03533</v>
+        <v>1.01708</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.997919</v>
+        <v>0.960869</v>
       </c>
       <c r="C103" t="n">
-        <v>0.911498</v>
+        <v>0.934144</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01553</v>
+        <v>0.992873</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.992792</v>
+        <v>0.953911</v>
       </c>
       <c r="C104" t="n">
-        <v>0.900936</v>
+        <v>0.920264</v>
       </c>
       <c r="D104" t="n">
-        <v>1.00092</v>
+        <v>0.981274</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.986382</v>
+        <v>0.948607</v>
       </c>
       <c r="C105" t="n">
-        <v>0.889585</v>
+        <v>0.905551</v>
       </c>
       <c r="D105" t="n">
-        <v>0.981443</v>
+        <v>0.962728</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9831569999999999</v>
+        <v>0.943683</v>
       </c>
       <c r="C106" t="n">
-        <v>0.873951</v>
+        <v>0.893425</v>
       </c>
       <c r="D106" t="n">
-        <v>0.964488</v>
+        <v>0.947926</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.981623</v>
+        <v>0.94088</v>
       </c>
       <c r="C107" t="n">
-        <v>0.866347</v>
+        <v>0.885208</v>
       </c>
       <c r="D107" t="n">
-        <v>0.955056</v>
+        <v>0.938041</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.983254</v>
+        <v>0.941999</v>
       </c>
       <c r="C108" t="n">
-        <v>1.17702</v>
+        <v>1.20434</v>
       </c>
       <c r="D108" t="n">
-        <v>1.33752</v>
+        <v>1.31479</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.989222</v>
+        <v>0.944956</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17247</v>
+        <v>1.19714</v>
       </c>
       <c r="D109" t="n">
-        <v>1.33164</v>
+        <v>1.29622</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25061</v>
+        <v>1.19562</v>
       </c>
       <c r="C110" t="n">
-        <v>1.16539</v>
+        <v>1.18253</v>
       </c>
       <c r="D110" t="n">
-        <v>1.30863</v>
+        <v>1.27932</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23937</v>
+        <v>1.18473</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14681</v>
+        <v>1.16479</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28701</v>
+        <v>1.25765</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22837</v>
+        <v>1.17154</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1397</v>
+        <v>1.15024</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27173</v>
+        <v>1.23472</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21936</v>
+        <v>1.16043</v>
       </c>
       <c r="C113" t="n">
-        <v>1.12296</v>
+        <v>1.13838</v>
       </c>
       <c r="D113" t="n">
-        <v>1.25061</v>
+        <v>1.21446</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2088</v>
+        <v>1.14994</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11926</v>
+        <v>1.12276</v>
       </c>
       <c r="D114" t="n">
-        <v>1.241</v>
+        <v>1.20034</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.20093</v>
+        <v>1.14062</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10221</v>
+        <v>1.11035</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22186</v>
+        <v>1.18011</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1931</v>
+        <v>1.13249</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09523</v>
+        <v>1.09963</v>
       </c>
       <c r="D116" t="n">
-        <v>1.20348</v>
+        <v>1.16982</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18515</v>
+        <v>1.12425</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09078</v>
+        <v>1.08567</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19183</v>
+        <v>1.1518</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.18048</v>
+        <v>1.11844</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07559</v>
+        <v>1.0766</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1734</v>
+        <v>1.13834</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.17578</v>
+        <v>1.11319</v>
       </c>
       <c r="C119" t="n">
-        <v>1.07424</v>
+        <v>1.06787</v>
       </c>
       <c r="D119" t="n">
-        <v>1.16648</v>
+        <v>1.12567</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.17433</v>
+        <v>1.10903</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06188</v>
+        <v>1.05852</v>
       </c>
       <c r="D120" t="n">
-        <v>1.15179</v>
+        <v>1.11201</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1759</v>
+        <v>1.10815</v>
       </c>
       <c r="C121" t="n">
-        <v>1.06175</v>
+        <v>1.05021</v>
       </c>
       <c r="D121" t="n">
-        <v>1.14367</v>
+        <v>1.10215</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.17652</v>
+        <v>1.10949</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05251</v>
+        <v>1.04444</v>
       </c>
       <c r="D122" t="n">
-        <v>1.12747</v>
+        <v>1.09247</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.18368</v>
+        <v>1.11332</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35991</v>
+        <v>1.36377</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51998</v>
+        <v>1.46415</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43201</v>
+        <v>1.3591</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35762</v>
+        <v>1.35139</v>
       </c>
       <c r="D124" t="n">
-        <v>1.49513</v>
+        <v>1.44742</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42428</v>
+        <v>1.3508</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35142</v>
+        <v>1.34099</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48635</v>
+        <v>1.43221</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.41719</v>
+        <v>1.34211</v>
       </c>
       <c r="C126" t="n">
-        <v>1.34533</v>
+        <v>1.33126</v>
       </c>
       <c r="D126" t="n">
-        <v>1.47576</v>
+        <v>1.41426</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40957</v>
+        <v>1.33424</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33644</v>
+        <v>1.3207</v>
       </c>
       <c r="D127" t="n">
-        <v>1.45334</v>
+        <v>1.39734</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40477</v>
+        <v>1.32652</v>
       </c>
       <c r="C128" t="n">
-        <v>1.32959</v>
+        <v>1.31013</v>
       </c>
       <c r="D128" t="n">
-        <v>1.44716</v>
+        <v>1.38111</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40075</v>
+        <v>1.32</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3244</v>
+        <v>1.3027</v>
       </c>
       <c r="D129" t="n">
-        <v>1.43572</v>
+        <v>1.37411</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39593</v>
+        <v>1.31403</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31843</v>
+        <v>1.29541</v>
       </c>
       <c r="D130" t="n">
-        <v>1.42502</v>
+        <v>1.35895</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39232</v>
+        <v>1.30817</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31697</v>
+        <v>1.28463</v>
       </c>
       <c r="D131" t="n">
-        <v>1.42</v>
+        <v>1.34699</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39053</v>
+        <v>1.30494</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31289</v>
+        <v>1.27742</v>
       </c>
       <c r="D132" t="n">
-        <v>1.40928</v>
+        <v>1.32948</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3879</v>
+        <v>1.30087</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30801</v>
+        <v>1.27071</v>
       </c>
       <c r="D133" t="n">
-        <v>1.39592</v>
+        <v>1.32642</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38778</v>
+        <v>1.29984</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30255</v>
+        <v>1.26477</v>
       </c>
       <c r="D134" t="n">
-        <v>1.38819</v>
+        <v>1.3168</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.39061</v>
+        <v>1.30052</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30088</v>
+        <v>1.26023</v>
       </c>
       <c r="D135" t="n">
-        <v>1.38404</v>
+        <v>1.30788</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.39443</v>
+        <v>1.30346</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29769</v>
+        <v>1.25243</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37465</v>
+        <v>1.29818</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.40206</v>
+        <v>1.30662</v>
       </c>
       <c r="C137" t="n">
-        <v>1.60485</v>
+        <v>1.57026</v>
       </c>
       <c r="D137" t="n">
-        <v>1.75384</v>
+        <v>1.66875</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.65272</v>
+        <v>1.55582</v>
       </c>
       <c r="C138" t="n">
-        <v>1.59951</v>
+        <v>1.56267</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74279</v>
+        <v>1.65448</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64707</v>
+        <v>1.5495</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59514</v>
+        <v>1.55339</v>
       </c>
       <c r="D139" t="n">
-        <v>1.73185</v>
+        <v>1.63998</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64254</v>
+        <v>1.54164</v>
       </c>
       <c r="C140" t="n">
-        <v>1.5914</v>
+        <v>1.54464</v>
       </c>
       <c r="D140" t="n">
-        <v>1.72274</v>
+        <v>1.62317</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63804</v>
+        <v>1.535</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58586</v>
+        <v>1.53597</v>
       </c>
       <c r="D141" t="n">
-        <v>1.70997</v>
+        <v>1.61602</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.63523</v>
+        <v>1.52838</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58403</v>
+        <v>1.53145</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70122</v>
+        <v>1.60366</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63119</v>
+        <v>1.52513</v>
       </c>
       <c r="C143" t="n">
-        <v>1.58149</v>
+        <v>1.52242</v>
       </c>
       <c r="D143" t="n">
-        <v>1.69007</v>
+        <v>1.59155</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.582561</v>
+        <v>0.584503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.628949</v>
+        <v>0.628389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64672</v>
+        <v>0.647627</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.569176</v>
+        <v>0.570869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.611852</v>
+        <v>0.61186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.628602</v>
+        <v>0.62868</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557205</v>
+        <v>0.558578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.596639</v>
+        <v>0.596009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.612017</v>
+        <v>0.6115350000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.547146</v>
+        <v>0.548459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.581739</v>
+        <v>0.581848</v>
       </c>
       <c r="D5" t="n">
-        <v>0.596435</v>
+        <v>0.5956630000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.539144</v>
+        <v>0.540039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.569334</v>
+        <v>0.569241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.582744</v>
+        <v>0.5828449999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.531668</v>
+        <v>0.532666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.558262</v>
+        <v>0.558432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.57228</v>
+        <v>0.571347</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.526907</v>
+        <v>0.528002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.549471</v>
+        <v>0.549578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.561666</v>
+        <v>0.561133</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.526724</v>
+        <v>0.528037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.814324</v>
+        <v>0.814379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.843525</v>
+        <v>0.843926</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.670011</v>
+        <v>0.672759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.742148</v>
+        <v>0.741251</v>
       </c>
       <c r="D10" t="n">
-        <v>0.816561</v>
+        <v>0.816663</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.650606</v>
+        <v>0.653195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.720288</v>
+        <v>0.7195589999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.790264</v>
+        <v>0.790698</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.632582</v>
+        <v>0.6344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6992930000000001</v>
+        <v>0.6987640000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.765926</v>
+        <v>0.765411</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615623</v>
+        <v>0.6169249999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.679576</v>
+        <v>0.679512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.74212</v>
+        <v>0.74226</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599287</v>
+        <v>0.601283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6613</v>
+        <v>0.660768</v>
       </c>
       <c r="D14" t="n">
-        <v>0.720328</v>
+        <v>0.720338</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584522</v>
+        <v>0.586116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.643536</v>
+        <v>0.643043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.699479</v>
+        <v>0.699242</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.571321</v>
+        <v>0.572246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.627041</v>
+        <v>0.626678</v>
       </c>
       <c r="D16" t="n">
-        <v>0.679685</v>
+        <v>0.679349</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558293</v>
+        <v>0.559324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.611183</v>
+        <v>0.611069</v>
       </c>
       <c r="D17" t="n">
-        <v>0.661544</v>
+        <v>0.660657</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.546131</v>
+        <v>0.547111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5969139999999999</v>
+        <v>0.596415</v>
       </c>
       <c r="D18" t="n">
-        <v>0.644472</v>
+        <v>0.643428</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535639</v>
+        <v>0.537002</v>
       </c>
       <c r="C19" t="n">
-        <v>0.583735</v>
+        <v>0.583249</v>
       </c>
       <c r="D19" t="n">
-        <v>0.628179</v>
+        <v>0.627637</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526853</v>
+        <v>0.5284180000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.572231</v>
+        <v>0.571421</v>
       </c>
       <c r="D20" t="n">
-        <v>0.613662</v>
+        <v>0.613208</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520419</v>
+        <v>0.52183</v>
       </c>
       <c r="C21" t="n">
-        <v>0.562712</v>
+        <v>0.562075</v>
       </c>
       <c r="D21" t="n">
-        <v>0.602131</v>
+        <v>0.6013039999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516103</v>
+        <v>0.517601</v>
       </c>
       <c r="C22" t="n">
-        <v>0.555662</v>
+        <v>0.555377</v>
       </c>
       <c r="D22" t="n">
-        <v>0.592921</v>
+        <v>0.592243</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514952</v>
+        <v>0.516387</v>
       </c>
       <c r="C23" t="n">
-        <v>0.824099</v>
+        <v>0.823817</v>
       </c>
       <c r="D23" t="n">
-        <v>0.886134</v>
+        <v>0.8852179999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.718669</v>
+        <v>0.720595</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7990119999999999</v>
+        <v>0.799159</v>
       </c>
       <c r="D24" t="n">
-        <v>0.857285</v>
+        <v>0.857148</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697512</v>
+        <v>0.699927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.77504</v>
+        <v>0.775672</v>
       </c>
       <c r="D25" t="n">
-        <v>0.830215</v>
+        <v>0.829551</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.677642</v>
+        <v>0.679876</v>
       </c>
       <c r="C26" t="n">
-        <v>0.752045</v>
+        <v>0.752335</v>
       </c>
       <c r="D26" t="n">
-        <v>0.804369</v>
+        <v>0.803736</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658273</v>
+        <v>0.660227</v>
       </c>
       <c r="C27" t="n">
-        <v>0.73016</v>
+        <v>0.730566</v>
       </c>
       <c r="D27" t="n">
-        <v>0.780222</v>
+        <v>0.779044</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640599</v>
+        <v>0.64246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.709749</v>
+        <v>0.709607</v>
       </c>
       <c r="D28" t="n">
-        <v>0.75657</v>
+        <v>0.7559709999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623354</v>
+        <v>0.625094</v>
       </c>
       <c r="C29" t="n">
-        <v>0.690267</v>
+        <v>0.690103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.734444</v>
+        <v>0.7339830000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608214</v>
+        <v>0.60959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.671727</v>
+        <v>0.671444</v>
       </c>
       <c r="D30" t="n">
-        <v>0.713229</v>
+        <v>0.713208</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593011</v>
+        <v>0.594761</v>
       </c>
       <c r="C31" t="n">
-        <v>0.654629</v>
+        <v>0.654376</v>
       </c>
       <c r="D31" t="n">
-        <v>0.693147</v>
+        <v>0.6931</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.57985</v>
+        <v>0.581521</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6382910000000001</v>
+        <v>0.637802</v>
       </c>
       <c r="D32" t="n">
-        <v>0.674408</v>
+        <v>0.674386</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568026</v>
+        <v>0.569997</v>
       </c>
       <c r="C33" t="n">
-        <v>0.623294</v>
+        <v>0.622946</v>
       </c>
       <c r="D33" t="n">
-        <v>0.657655</v>
+        <v>0.657265</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5578109999999999</v>
+        <v>0.559603</v>
       </c>
       <c r="C34" t="n">
-        <v>0.609513</v>
+        <v>0.609144</v>
       </c>
       <c r="D34" t="n">
-        <v>0.642141</v>
+        <v>0.641879</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549814</v>
+        <v>0.552077</v>
       </c>
       <c r="C35" t="n">
-        <v>0.597681</v>
+        <v>0.597266</v>
       </c>
       <c r="D35" t="n">
-        <v>0.628225</v>
+        <v>0.628007</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543591</v>
+        <v>0.545789</v>
       </c>
       <c r="C36" t="n">
-        <v>0.588717</v>
+        <v>0.5880570000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.618017</v>
+        <v>0.617192</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.540969</v>
+        <v>0.543007</v>
       </c>
       <c r="C37" t="n">
-        <v>0.859248</v>
+        <v>0.85973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.922645</v>
+        <v>0.922532</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.750194</v>
+        <v>0.753248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.833518</v>
+        <v>0.834047</v>
       </c>
       <c r="D38" t="n">
-        <v>0.892518</v>
+        <v>0.893579</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.729032</v>
+        <v>0.731878</v>
       </c>
       <c r="C39" t="n">
-        <v>0.808024</v>
+        <v>0.808822</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8641760000000001</v>
+        <v>0.8651489999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.707683</v>
+        <v>0.711414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.784102</v>
+        <v>0.785059</v>
       </c>
       <c r="D40" t="n">
-        <v>0.837029</v>
+        <v>0.8382039999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.687509</v>
+        <v>0.690629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.761175</v>
+        <v>0.762419</v>
       </c>
       <c r="D41" t="n">
-        <v>0.811999</v>
+        <v>0.812526</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669131</v>
+        <v>0.671745</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7405040000000001</v>
+        <v>0.7404579999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.787615</v>
+        <v>0.787764</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.651672</v>
+        <v>0.654216</v>
       </c>
       <c r="C43" t="n">
-        <v>0.720145</v>
+        <v>0.720205</v>
       </c>
       <c r="D43" t="n">
-        <v>0.764526</v>
+        <v>0.765099</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635294</v>
+        <v>0.637395</v>
       </c>
       <c r="C44" t="n">
-        <v>0.700584</v>
+        <v>0.700836</v>
       </c>
       <c r="D44" t="n">
-        <v>0.742583</v>
+        <v>0.743105</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.620738</v>
+        <v>0.622526</v>
       </c>
       <c r="C45" t="n">
-        <v>0.682041</v>
+        <v>0.682685</v>
       </c>
       <c r="D45" t="n">
-        <v>0.721763</v>
+        <v>0.7229719999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.606082</v>
+        <v>0.608172</v>
       </c>
       <c r="C46" t="n">
-        <v>0.665494</v>
+        <v>0.665772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.702303</v>
+        <v>0.703526</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5939680000000001</v>
+        <v>0.596136</v>
       </c>
       <c r="C47" t="n">
-        <v>0.64916</v>
+        <v>0.64975</v>
       </c>
       <c r="D47" t="n">
-        <v>0.684489</v>
+        <v>0.685048</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5820610000000001</v>
+        <v>0.584548</v>
       </c>
       <c r="C48" t="n">
-        <v>0.634031</v>
+        <v>0.635188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.667364</v>
+        <v>0.668215</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.573156</v>
+        <v>0.575586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.621808</v>
+        <v>0.621933</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6535339999999999</v>
+        <v>0.653641</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.566167</v>
+        <v>0.568781</v>
       </c>
       <c r="C50" t="n">
-        <v>0.611304</v>
+        <v>0.611557</v>
       </c>
       <c r="D50" t="n">
-        <v>0.641042</v>
+        <v>0.641087</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.561447</v>
+        <v>0.563388</v>
       </c>
       <c r="C51" t="n">
-        <v>0.888041</v>
+        <v>0.892734</v>
       </c>
       <c r="D51" t="n">
-        <v>0.969009</v>
+        <v>0.978391</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.561103</v>
+        <v>0.563826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.861491</v>
+        <v>0.865717</v>
       </c>
       <c r="D52" t="n">
-        <v>0.936908</v>
+        <v>0.946576</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.75606</v>
+        <v>0.765998</v>
       </c>
       <c r="C53" t="n">
-        <v>0.836707</v>
+        <v>0.841054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.909134</v>
+        <v>0.916995</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735524</v>
+        <v>0.7436</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8126949999999999</v>
+        <v>0.816595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.881074</v>
+        <v>0.88878</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.714879</v>
+        <v>0.7230760000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.788043</v>
+        <v>0.792889</v>
       </c>
       <c r="D55" t="n">
-        <v>0.85281</v>
+        <v>0.8625930000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.696281</v>
+        <v>0.703252</v>
       </c>
       <c r="C56" t="n">
-        <v>0.768293</v>
+        <v>0.770532</v>
       </c>
       <c r="D56" t="n">
-        <v>0.829334</v>
+        <v>0.837043</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.678163</v>
+        <v>0.684778</v>
       </c>
       <c r="C57" t="n">
-        <v>0.746908</v>
+        <v>0.74988</v>
       </c>
       <c r="D57" t="n">
-        <v>0.804525</v>
+        <v>0.813422</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.661806</v>
+        <v>0.668669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.727976</v>
+        <v>0.7309870000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.78223</v>
+        <v>0.790913</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.646028</v>
+        <v>0.652332</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708057</v>
+        <v>0.712716</v>
       </c>
       <c r="D59" t="n">
-        <v>0.762505</v>
+        <v>0.770501</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.631753</v>
+        <v>0.638538</v>
       </c>
       <c r="C60" t="n">
-        <v>0.690371</v>
+        <v>0.695188</v>
       </c>
       <c r="D60" t="n">
-        <v>0.742097</v>
+        <v>0.749605</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.620372</v>
+        <v>0.62554</v>
       </c>
       <c r="C61" t="n">
-        <v>0.675941</v>
+        <v>0.678608</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7239</v>
+        <v>0.728707</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607665</v>
+        <v>0.612886</v>
       </c>
       <c r="C62" t="n">
-        <v>0.660364</v>
+        <v>0.663048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7034010000000001</v>
+        <v>0.712691</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5982730000000001</v>
+        <v>0.60372</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6471479999999999</v>
+        <v>0.650353</v>
       </c>
       <c r="D63" t="n">
-        <v>0.689441</v>
+        <v>0.696643</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.591813</v>
+        <v>0.595392</v>
       </c>
       <c r="C64" t="n">
-        <v>0.636472</v>
+        <v>0.6386039999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.676767</v>
+        <v>0.683318</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586493</v>
+        <v>0.590813</v>
       </c>
       <c r="C65" t="n">
-        <v>0.628367</v>
+        <v>0.62986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.665242</v>
+        <v>0.671771</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.584635</v>
+        <v>0.5888910000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.909518</v>
+        <v>0.9310389999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>1.00268</v>
+        <v>1.02365</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.809844</v>
+        <v>0.834526</v>
       </c>
       <c r="C67" t="n">
-        <v>0.882764</v>
+        <v>0.906629</v>
       </c>
       <c r="D67" t="n">
-        <v>0.971598</v>
+        <v>0.9923380000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.790967</v>
+        <v>0.817445</v>
       </c>
       <c r="C68" t="n">
-        <v>0.861262</v>
+        <v>0.883815</v>
       </c>
       <c r="D68" t="n">
-        <v>0.946041</v>
+        <v>0.96429</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.772922</v>
+        <v>0.800152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8401149999999999</v>
+        <v>0.860939</v>
       </c>
       <c r="D69" t="n">
-        <v>0.919995</v>
+        <v>0.935896</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.756839</v>
+        <v>0.7816149999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.82003</v>
+        <v>0.838357</v>
       </c>
       <c r="D70" t="n">
-        <v>0.894514</v>
+        <v>0.909564</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7403920000000001</v>
+        <v>0.766066</v>
       </c>
       <c r="C71" t="n">
-        <v>0.799157</v>
+        <v>0.817249</v>
       </c>
       <c r="D71" t="n">
-        <v>0.870185</v>
+        <v>0.883839</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.724227</v>
+        <v>0.749416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.778044</v>
+        <v>0.795614</v>
       </c>
       <c r="D72" t="n">
-        <v>0.845562</v>
+        <v>0.859294</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.708768</v>
+        <v>0.733847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75518</v>
+        <v>0.775942</v>
       </c>
       <c r="D73" t="n">
-        <v>0.823418</v>
+        <v>0.8363660000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6945210000000001</v>
+        <v>0.717527</v>
       </c>
       <c r="C74" t="n">
-        <v>0.739726</v>
+        <v>0.75714</v>
       </c>
       <c r="D74" t="n">
-        <v>0.801884</v>
+        <v>0.813418</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679606</v>
+        <v>0.704511</v>
       </c>
       <c r="C75" t="n">
-        <v>0.721755</v>
+        <v>0.738878</v>
       </c>
       <c r="D75" t="n">
-        <v>0.779369</v>
+        <v>0.792436</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.66757</v>
+        <v>0.690843</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7072580000000001</v>
+        <v>0.722262</v>
       </c>
       <c r="D76" t="n">
-        <v>0.763626</v>
+        <v>0.772847</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.660614</v>
+        <v>0.677834</v>
       </c>
       <c r="C77" t="n">
-        <v>0.692117</v>
+        <v>0.706751</v>
       </c>
       <c r="D77" t="n">
-        <v>0.746225</v>
+        <v>0.754544</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.648939</v>
+        <v>0.667912</v>
       </c>
       <c r="C78" t="n">
-        <v>0.676146</v>
+        <v>0.69331</v>
       </c>
       <c r="D78" t="n">
-        <v>0.729695</v>
+        <v>0.739094</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.64101</v>
+        <v>0.660847</v>
       </c>
       <c r="C79" t="n">
-        <v>0.671006</v>
+        <v>0.6818920000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.718452</v>
+        <v>0.7274969999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.638716</v>
+        <v>0.655616</v>
       </c>
       <c r="C80" t="n">
-        <v>0.989896</v>
+        <v>0.99816</v>
       </c>
       <c r="D80" t="n">
-        <v>1.08964</v>
+        <v>1.09859</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.888866</v>
+        <v>0.910301</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9719410000000001</v>
+        <v>0.9828</v>
       </c>
       <c r="D81" t="n">
-        <v>1.06673</v>
+        <v>1.07655</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8811560000000001</v>
+        <v>0.90499</v>
       </c>
       <c r="C82" t="n">
-        <v>0.952897</v>
+        <v>0.964931</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04327</v>
+        <v>1.05241</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.87182</v>
+        <v>0.895249</v>
       </c>
       <c r="C83" t="n">
-        <v>0.935217</v>
+        <v>0.945947</v>
       </c>
       <c r="D83" t="n">
-        <v>1.01996</v>
+        <v>1.02813</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.862505</v>
+        <v>0.883819</v>
       </c>
       <c r="C84" t="n">
-        <v>0.913058</v>
+        <v>0.925929</v>
       </c>
       <c r="D84" t="n">
-        <v>0.993465</v>
+        <v>1.00282</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.849886</v>
+        <v>0.8718630000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.891531</v>
+        <v>0.905265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.970869</v>
+        <v>0.977875</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.84054</v>
+        <v>0.860653</v>
       </c>
       <c r="C86" t="n">
-        <v>0.871379</v>
+        <v>0.883972</v>
       </c>
       <c r="D86" t="n">
-        <v>0.942511</v>
+        <v>0.953025</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.82708</v>
+        <v>0.847535</v>
       </c>
       <c r="C87" t="n">
-        <v>0.848715</v>
+        <v>0.864634</v>
       </c>
       <c r="D87" t="n">
-        <v>0.916968</v>
+        <v>0.929964</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.817737</v>
+        <v>0.835958</v>
       </c>
       <c r="C88" t="n">
-        <v>0.82807</v>
+        <v>0.844371</v>
       </c>
       <c r="D88" t="n">
-        <v>0.895482</v>
+        <v>0.906399</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.808153</v>
+        <v>0.823984</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8133</v>
+        <v>0.825395</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8767160000000001</v>
+        <v>0.88439</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794727</v>
+        <v>0.813828</v>
       </c>
       <c r="C90" t="n">
-        <v>0.792469</v>
+        <v>0.808161</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8562419999999999</v>
+        <v>0.863552</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7884100000000001</v>
+        <v>0.803558</v>
       </c>
       <c r="C91" t="n">
-        <v>0.781339</v>
+        <v>0.790859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.837638</v>
+        <v>0.843808</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781597</v>
+        <v>0.795041</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768302</v>
+        <v>0.776755</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8173589999999999</v>
+        <v>0.826754</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.775943</v>
+        <v>0.787953</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756315</v>
+        <v>0.763595</v>
       </c>
       <c r="D93" t="n">
-        <v>0.809344</v>
+        <v>0.811351</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.772702</v>
+        <v>0.783063</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08008</v>
+        <v>1.08674</v>
       </c>
       <c r="D94" t="n">
-        <v>1.18549</v>
+        <v>1.19405</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02376</v>
+        <v>1.04153</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06604</v>
+        <v>1.07638</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16944</v>
+        <v>1.17657</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02477</v>
+        <v>1.04047</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05227</v>
+        <v>1.05981</v>
       </c>
       <c r="D96" t="n">
-        <v>1.14714</v>
+        <v>1.15504</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.016</v>
+        <v>1.03116</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03383</v>
+        <v>1.04224</v>
       </c>
       <c r="D97" t="n">
-        <v>1.1227</v>
+        <v>1.1315</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00481</v>
+        <v>1.01873</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01546</v>
+        <v>1.02253</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1016</v>
+        <v>1.10764</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995287</v>
+        <v>1.007</v>
       </c>
       <c r="C99" t="n">
-        <v>0.998143</v>
+        <v>1.0044</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0786</v>
+        <v>1.0839</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.985273</v>
+        <v>0.996543</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9802959999999999</v>
+        <v>0.986541</v>
       </c>
       <c r="D100" t="n">
-        <v>1.05695</v>
+        <v>1.06203</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.976372</v>
+        <v>0.98667</v>
       </c>
       <c r="C101" t="n">
-        <v>0.964592</v>
+        <v>0.969526</v>
       </c>
       <c r="D101" t="n">
-        <v>1.03541</v>
+        <v>1.04191</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.967911</v>
+        <v>0.976924</v>
       </c>
       <c r="C102" t="n">
-        <v>0.949229</v>
+        <v>0.953199</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01708</v>
+        <v>1.02127</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.960869</v>
+        <v>0.968643</v>
       </c>
       <c r="C103" t="n">
-        <v>0.934144</v>
+        <v>0.937935</v>
       </c>
       <c r="D103" t="n">
-        <v>0.992873</v>
+        <v>1.00235</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.953911</v>
+        <v>0.961</v>
       </c>
       <c r="C104" t="n">
-        <v>0.920264</v>
+        <v>0.923699</v>
       </c>
       <c r="D104" t="n">
-        <v>0.981274</v>
+        <v>0.984698</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.948607</v>
+        <v>0.953952</v>
       </c>
       <c r="C105" t="n">
-        <v>0.905551</v>
+        <v>0.9099739999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.962728</v>
+        <v>0.967819</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.943683</v>
+        <v>0.949045</v>
       </c>
       <c r="C106" t="n">
-        <v>0.893425</v>
+        <v>0.898137</v>
       </c>
       <c r="D106" t="n">
-        <v>0.947926</v>
+        <v>0.952761</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.94088</v>
+        <v>0.946036</v>
       </c>
       <c r="C107" t="n">
-        <v>0.885208</v>
+        <v>0.887818</v>
       </c>
       <c r="D107" t="n">
-        <v>0.938041</v>
+        <v>0.939763</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.941999</v>
+        <v>0.945811</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20434</v>
+        <v>1.20765</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31479</v>
+        <v>1.31992</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.944956</v>
+        <v>0.949188</v>
       </c>
       <c r="C109" t="n">
-        <v>1.19714</v>
+        <v>1.2008</v>
       </c>
       <c r="D109" t="n">
-        <v>1.29622</v>
+        <v>1.30642</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19562</v>
+        <v>1.19695</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18253</v>
+        <v>1.18416</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27932</v>
+        <v>1.28464</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18473</v>
+        <v>1.18467</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16479</v>
+        <v>1.16805</v>
       </c>
       <c r="D111" t="n">
-        <v>1.25765</v>
+        <v>1.26291</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17154</v>
+        <v>1.1732</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15024</v>
+        <v>1.1531</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23472</v>
+        <v>1.2416</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16043</v>
+        <v>1.16138</v>
       </c>
       <c r="C113" t="n">
-        <v>1.13838</v>
+        <v>1.13845</v>
       </c>
       <c r="D113" t="n">
-        <v>1.21446</v>
+        <v>1.22157</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14994</v>
+        <v>1.15053</v>
       </c>
       <c r="C114" t="n">
-        <v>1.12276</v>
+        <v>1.12454</v>
       </c>
       <c r="D114" t="n">
-        <v>1.20034</v>
+        <v>1.20427</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14062</v>
+        <v>1.14081</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11035</v>
+        <v>1.11197</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18011</v>
+        <v>1.18688</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13249</v>
+        <v>1.13155</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09963</v>
+        <v>1.09952</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16982</v>
+        <v>1.16996</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12425</v>
+        <v>1.12306</v>
       </c>
       <c r="C117" t="n">
-        <v>1.08567</v>
+        <v>1.08788</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1518</v>
+        <v>1.15467</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11844</v>
+        <v>1.11649</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0766</v>
+        <v>1.0779</v>
       </c>
       <c r="D118" t="n">
-        <v>1.13834</v>
+        <v>1.13823</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11319</v>
+        <v>1.11183</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06787</v>
+        <v>1.06821</v>
       </c>
       <c r="D119" t="n">
-        <v>1.12567</v>
+        <v>1.12427</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10903</v>
+        <v>1.10786</v>
       </c>
       <c r="C120" t="n">
-        <v>1.05852</v>
+        <v>1.0584</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11201</v>
+        <v>1.11363</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10815</v>
+        <v>1.10594</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05021</v>
+        <v>1.05025</v>
       </c>
       <c r="D121" t="n">
-        <v>1.10215</v>
+        <v>1.10066</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10949</v>
+        <v>1.10668</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04444</v>
+        <v>1.04387</v>
       </c>
       <c r="D122" t="n">
-        <v>1.09247</v>
+        <v>1.09289</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11332</v>
+        <v>1.11128</v>
       </c>
       <c r="C123" t="n">
-        <v>1.36377</v>
+        <v>1.36268</v>
       </c>
       <c r="D123" t="n">
-        <v>1.46415</v>
+        <v>1.46785</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3591</v>
+        <v>1.3608</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35139</v>
+        <v>1.35057</v>
       </c>
       <c r="D124" t="n">
-        <v>1.44742</v>
+        <v>1.44991</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3508</v>
+        <v>1.3514</v>
       </c>
       <c r="C125" t="n">
-        <v>1.34099</v>
+        <v>1.33858</v>
       </c>
       <c r="D125" t="n">
-        <v>1.43221</v>
+        <v>1.43273</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34211</v>
+        <v>1.34186</v>
       </c>
       <c r="C126" t="n">
-        <v>1.33126</v>
+        <v>1.32789</v>
       </c>
       <c r="D126" t="n">
-        <v>1.41426</v>
+        <v>1.41665</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33424</v>
+        <v>1.33297</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3207</v>
+        <v>1.31823</v>
       </c>
       <c r="D127" t="n">
-        <v>1.39734</v>
+        <v>1.39997</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32652</v>
+        <v>1.32529</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31013</v>
+        <v>1.3074</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38111</v>
+        <v>1.38601</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32</v>
+        <v>1.3178</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3027</v>
+        <v>1.29905</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37411</v>
+        <v>1.37048</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31403</v>
+        <v>1.31106</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29541</v>
+        <v>1.29065</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35895</v>
+        <v>1.35949</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30817</v>
+        <v>1.30534</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28463</v>
+        <v>1.28287</v>
       </c>
       <c r="D131" t="n">
-        <v>1.34699</v>
+        <v>1.34693</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30494</v>
+        <v>1.30149</v>
       </c>
       <c r="C132" t="n">
-        <v>1.27742</v>
+        <v>1.27522</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32948</v>
+        <v>1.33528</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.30087</v>
+        <v>1.29879</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27071</v>
+        <v>1.26757</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32642</v>
+        <v>1.32505</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29984</v>
+        <v>1.29725</v>
       </c>
       <c r="C134" t="n">
-        <v>1.26477</v>
+        <v>1.26251</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3168</v>
+        <v>1.31608</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.30052</v>
+        <v>1.29769</v>
       </c>
       <c r="C135" t="n">
-        <v>1.26023</v>
+        <v>1.2562</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30788</v>
+        <v>1.3066</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.30346</v>
+        <v>1.30076</v>
       </c>
       <c r="C136" t="n">
-        <v>1.25243</v>
+        <v>1.25056</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29818</v>
+        <v>1.29695</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30662</v>
+        <v>1.30371</v>
       </c>
       <c r="C137" t="n">
-        <v>1.57026</v>
+        <v>1.56669</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66875</v>
+        <v>1.66963</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.55582</v>
+        <v>1.55445</v>
       </c>
       <c r="C138" t="n">
-        <v>1.56267</v>
+        <v>1.55789</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65448</v>
+        <v>1.65295</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.5495</v>
+        <v>1.54694</v>
       </c>
       <c r="C139" t="n">
-        <v>1.55339</v>
+        <v>1.54697</v>
       </c>
       <c r="D139" t="n">
-        <v>1.63998</v>
+        <v>1.63772</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.54164</v>
+        <v>1.53816</v>
       </c>
       <c r="C140" t="n">
-        <v>1.54464</v>
+        <v>1.53892</v>
       </c>
       <c r="D140" t="n">
-        <v>1.62317</v>
+        <v>1.62434</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.535</v>
+        <v>1.53143</v>
       </c>
       <c r="C141" t="n">
-        <v>1.53597</v>
+        <v>1.53064</v>
       </c>
       <c r="D141" t="n">
-        <v>1.61602</v>
+        <v>1.61173</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52838</v>
+        <v>1.52543</v>
       </c>
       <c r="C142" t="n">
-        <v>1.53145</v>
+        <v>1.52361</v>
       </c>
       <c r="D142" t="n">
-        <v>1.60366</v>
+        <v>1.59971</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.52513</v>
+        <v>1.51974</v>
       </c>
       <c r="C143" t="n">
-        <v>1.52242</v>
+        <v>1.51663</v>
       </c>
       <c r="D143" t="n">
-        <v>1.59155</v>
+        <v>1.5874</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.584503</v>
+        <v>0.583921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.628389</v>
+        <v>0.628268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.647627</v>
+        <v>0.646559</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.570869</v>
+        <v>0.571296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.61186</v>
+        <v>0.611311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62868</v>
+        <v>0.628289</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.558578</v>
+        <v>0.558172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.596009</v>
+        <v>0.595527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6115350000000001</v>
+        <v>0.612169</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.548459</v>
+        <v>0.54809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.581848</v>
+        <v>0.581104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5956630000000001</v>
+        <v>0.596265</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.540039</v>
+        <v>0.539625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.569241</v>
+        <v>0.568488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5828449999999999</v>
+        <v>0.583188</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.532666</v>
+        <v>0.532552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.558432</v>
+        <v>0.5573090000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.571347</v>
+        <v>0.571294</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.528002</v>
+        <v>0.528188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.549578</v>
+        <v>0.549488</v>
       </c>
       <c r="D8" t="n">
-        <v>0.561133</v>
+        <v>0.562455</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.528037</v>
+        <v>0.527878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.814379</v>
+        <v>0.813597</v>
       </c>
       <c r="D9" t="n">
-        <v>0.843926</v>
+        <v>0.84385</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.672759</v>
+        <v>0.6725680000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.741251</v>
+        <v>0.741078</v>
       </c>
       <c r="D10" t="n">
-        <v>0.816663</v>
+        <v>0.817365</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653195</v>
+        <v>0.6534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7195589999999999</v>
+        <v>0.719826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.790698</v>
+        <v>0.790332</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6344</v>
+        <v>0.635164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6987640000000001</v>
+        <v>0.698937</v>
       </c>
       <c r="D12" t="n">
-        <v>0.765411</v>
+        <v>0.766335</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6169249999999999</v>
+        <v>0.617154</v>
       </c>
       <c r="C13" t="n">
-        <v>0.679512</v>
+        <v>0.678937</v>
       </c>
       <c r="D13" t="n">
-        <v>0.74226</v>
+        <v>0.742133</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.601283</v>
+        <v>0.601286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.660768</v>
+        <v>0.660091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.720338</v>
+        <v>0.720288</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.586116</v>
+        <v>0.586073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.643043</v>
+        <v>0.642979</v>
       </c>
       <c r="D15" t="n">
-        <v>0.699242</v>
+        <v>0.6993740000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.572246</v>
+        <v>0.572469</v>
       </c>
       <c r="C16" t="n">
-        <v>0.626678</v>
+        <v>0.626265</v>
       </c>
       <c r="D16" t="n">
-        <v>0.679349</v>
+        <v>0.679627</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.559324</v>
+        <v>0.559025</v>
       </c>
       <c r="C17" t="n">
-        <v>0.611069</v>
+        <v>0.610784</v>
       </c>
       <c r="D17" t="n">
-        <v>0.660657</v>
+        <v>0.660883</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.547111</v>
+        <v>0.547345</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596415</v>
+        <v>0.596583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.643428</v>
+        <v>0.643274</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.537002</v>
+        <v>0.536921</v>
       </c>
       <c r="C19" t="n">
-        <v>0.583249</v>
+        <v>0.583003</v>
       </c>
       <c r="D19" t="n">
-        <v>0.627637</v>
+        <v>0.627371</v>
       </c>
     </row>
     <row r="20">
@@ -3498,10 +3498,10 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5284180000000001</v>
+        <v>0.528513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.571421</v>
+        <v>0.571601</v>
       </c>
       <c r="D20" t="n">
         <v>0.613208</v>
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.52183</v>
+        <v>0.521787</v>
       </c>
       <c r="C21" t="n">
-        <v>0.562075</v>
+        <v>0.562131</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6013039999999999</v>
+        <v>0.6012110000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.517601</v>
+        <v>0.517274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.555377</v>
+        <v>0.555146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.592243</v>
+        <v>0.592242</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516387</v>
+        <v>0.516498</v>
       </c>
       <c r="C23" t="n">
-        <v>0.823817</v>
+        <v>0.823231</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8852179999999999</v>
+        <v>0.8844379999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720595</v>
+        <v>0.720073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.799159</v>
+        <v>0.798416</v>
       </c>
       <c r="D24" t="n">
-        <v>0.857148</v>
+        <v>0.85661</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699927</v>
+        <v>0.697279</v>
       </c>
       <c r="C25" t="n">
-        <v>0.775672</v>
+        <v>0.774773</v>
       </c>
       <c r="D25" t="n">
-        <v>0.829551</v>
+        <v>0.829774</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.679876</v>
+        <v>0.678505</v>
       </c>
       <c r="C26" t="n">
-        <v>0.752335</v>
+        <v>0.7506389999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.803736</v>
+        <v>0.8033400000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660227</v>
+        <v>0.658255</v>
       </c>
       <c r="C27" t="n">
-        <v>0.730566</v>
+        <v>0.728178</v>
       </c>
       <c r="D27" t="n">
-        <v>0.779044</v>
+        <v>0.77804</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.64246</v>
+        <v>0.641665</v>
       </c>
       <c r="C28" t="n">
-        <v>0.709607</v>
+        <v>0.708335</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7559709999999999</v>
+        <v>0.755962</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.625094</v>
+        <v>0.625046</v>
       </c>
       <c r="C29" t="n">
-        <v>0.690103</v>
+        <v>0.689903</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7339830000000001</v>
+        <v>0.733215</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60959</v>
+        <v>0.609351</v>
       </c>
       <c r="C30" t="n">
-        <v>0.671444</v>
+        <v>0.67101</v>
       </c>
       <c r="D30" t="n">
-        <v>0.713208</v>
+        <v>0.711919</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594761</v>
+        <v>0.593823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.654376</v>
+        <v>0.652599</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6931</v>
+        <v>0.692044</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581521</v>
+        <v>0.5810689999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.637802</v>
+        <v>0.637723</v>
       </c>
       <c r="D32" t="n">
-        <v>0.674386</v>
+        <v>0.674069</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569997</v>
+        <v>0.569388</v>
       </c>
       <c r="C33" t="n">
-        <v>0.622946</v>
+        <v>0.621062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.657265</v>
+        <v>0.657297</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.559603</v>
+        <v>0.559396</v>
       </c>
       <c r="C34" t="n">
-        <v>0.609144</v>
+        <v>0.607594</v>
       </c>
       <c r="D34" t="n">
-        <v>0.641879</v>
+        <v>0.640331</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.552077</v>
+        <v>0.549408</v>
       </c>
       <c r="C35" t="n">
-        <v>0.597266</v>
+        <v>0.595691</v>
       </c>
       <c r="D35" t="n">
-        <v>0.628007</v>
+        <v>0.627833</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.545789</v>
+        <v>0.54498</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5880570000000001</v>
+        <v>0.587784</v>
       </c>
       <c r="D36" t="n">
-        <v>0.617192</v>
+        <v>0.617124</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.543007</v>
+        <v>0.542577</v>
       </c>
       <c r="C37" t="n">
-        <v>0.85973</v>
+        <v>0.857511</v>
       </c>
       <c r="D37" t="n">
-        <v>0.922532</v>
+        <v>0.919625</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.753248</v>
+        <v>0.750725</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834047</v>
+        <v>0.832565</v>
       </c>
       <c r="D38" t="n">
-        <v>0.893579</v>
+        <v>0.891594</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.731878</v>
+        <v>0.7293190000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.808822</v>
+        <v>0.807496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8651489999999999</v>
+        <v>0.864163</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.711414</v>
+        <v>0.709634</v>
       </c>
       <c r="C40" t="n">
-        <v>0.785059</v>
+        <v>0.783636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8382039999999999</v>
+        <v>0.836477</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.690629</v>
+        <v>0.687059</v>
       </c>
       <c r="C41" t="n">
-        <v>0.762419</v>
+        <v>0.761907</v>
       </c>
       <c r="D41" t="n">
-        <v>0.812526</v>
+        <v>0.812652</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.671745</v>
+        <v>0.671624</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7404579999999999</v>
+        <v>0.740628</v>
       </c>
       <c r="D42" t="n">
-        <v>0.787764</v>
+        <v>0.78799</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.654216</v>
+        <v>0.653914</v>
       </c>
       <c r="C43" t="n">
-        <v>0.720205</v>
+        <v>0.71776</v>
       </c>
       <c r="D43" t="n">
-        <v>0.765099</v>
+        <v>0.764436</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.637395</v>
+        <v>0.637453</v>
       </c>
       <c r="C44" t="n">
-        <v>0.700836</v>
+        <v>0.698696</v>
       </c>
       <c r="D44" t="n">
-        <v>0.743105</v>
+        <v>0.742772</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.622526</v>
+        <v>0.622107</v>
       </c>
       <c r="C45" t="n">
-        <v>0.682685</v>
+        <v>0.681141</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7229719999999999</v>
+        <v>0.72221</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.608172</v>
+        <v>0.605746</v>
       </c>
       <c r="C46" t="n">
-        <v>0.665772</v>
+        <v>0.665584</v>
       </c>
       <c r="D46" t="n">
-        <v>0.703526</v>
+        <v>0.702931</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.596136</v>
+        <v>0.594207</v>
       </c>
       <c r="C47" t="n">
-        <v>0.64975</v>
+        <v>0.649421</v>
       </c>
       <c r="D47" t="n">
-        <v>0.685048</v>
+        <v>0.6842279999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.584548</v>
+        <v>0.583494</v>
       </c>
       <c r="C48" t="n">
-        <v>0.635188</v>
+        <v>0.6337390000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.668215</v>
+        <v>0.667882</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575586</v>
+        <v>0.574496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.621933</v>
+        <v>0.619413</v>
       </c>
       <c r="D49" t="n">
-        <v>0.653641</v>
+        <v>0.653224</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.568781</v>
+        <v>0.56582</v>
       </c>
       <c r="C50" t="n">
-        <v>0.611557</v>
+        <v>0.610138</v>
       </c>
       <c r="D50" t="n">
-        <v>0.641087</v>
+        <v>0.64018</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.563388</v>
+        <v>0.562138</v>
       </c>
       <c r="C51" t="n">
-        <v>0.892734</v>
+        <v>0.885317</v>
       </c>
       <c r="D51" t="n">
-        <v>0.978391</v>
+        <v>0.967625</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.563826</v>
+        <v>0.561866</v>
       </c>
       <c r="C52" t="n">
-        <v>0.865717</v>
+        <v>0.8602300000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.946576</v>
+        <v>0.938311</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.765998</v>
+        <v>0.757885</v>
       </c>
       <c r="C53" t="n">
-        <v>0.841054</v>
+        <v>0.834561</v>
       </c>
       <c r="D53" t="n">
-        <v>0.916995</v>
+        <v>0.907685</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7436</v>
+        <v>0.73631</v>
       </c>
       <c r="C54" t="n">
-        <v>0.816595</v>
+        <v>0.809793</v>
       </c>
       <c r="D54" t="n">
-        <v>0.88878</v>
+        <v>0.879385</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7230760000000001</v>
+        <v>0.715509</v>
       </c>
       <c r="C55" t="n">
-        <v>0.792889</v>
+        <v>0.786413</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8625930000000001</v>
+        <v>0.855155</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.703252</v>
+        <v>0.6970769999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.770532</v>
+        <v>0.7654260000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.837043</v>
+        <v>0.829991</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.684778</v>
+        <v>0.679003</v>
       </c>
       <c r="C57" t="n">
-        <v>0.74988</v>
+        <v>0.745722</v>
       </c>
       <c r="D57" t="n">
-        <v>0.813422</v>
+        <v>0.810167</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668669</v>
+        <v>0.662458</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7309870000000001</v>
+        <v>0.725898</v>
       </c>
       <c r="D58" t="n">
-        <v>0.790913</v>
+        <v>0.787191</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.652332</v>
+        <v>0.647129</v>
       </c>
       <c r="C59" t="n">
-        <v>0.712716</v>
+        <v>0.708248</v>
       </c>
       <c r="D59" t="n">
-        <v>0.770501</v>
+        <v>0.764961</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.638538</v>
+        <v>0.63265</v>
       </c>
       <c r="C60" t="n">
-        <v>0.695188</v>
+        <v>0.690306</v>
       </c>
       <c r="D60" t="n">
-        <v>0.749605</v>
+        <v>0.745731</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.62554</v>
+        <v>0.61929</v>
       </c>
       <c r="C61" t="n">
-        <v>0.678608</v>
+        <v>0.6740119999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.728707</v>
+        <v>0.724714</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.612886</v>
+        <v>0.606801</v>
       </c>
       <c r="C62" t="n">
-        <v>0.663048</v>
+        <v>0.657913</v>
       </c>
       <c r="D62" t="n">
-        <v>0.712691</v>
+        <v>0.707892</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.60372</v>
+        <v>0.5969640000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.650353</v>
+        <v>0.64467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.696643</v>
+        <v>0.692211</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.595392</v>
+        <v>0.589247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6386039999999999</v>
+        <v>0.632535</v>
       </c>
       <c r="D64" t="n">
-        <v>0.683318</v>
+        <v>0.678235</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.590813</v>
+        <v>0.584861</v>
       </c>
       <c r="C65" t="n">
-        <v>0.62986</v>
+        <v>0.623341</v>
       </c>
       <c r="D65" t="n">
-        <v>0.671771</v>
+        <v>0.6668770000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5888910000000001</v>
+        <v>0.5829839999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9310389999999999</v>
+        <v>0.908776</v>
       </c>
       <c r="D66" t="n">
-        <v>1.02365</v>
+        <v>0.999919</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.834526</v>
+        <v>0.807508</v>
       </c>
       <c r="C67" t="n">
-        <v>0.906629</v>
+        <v>0.878963</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9923380000000001</v>
+        <v>0.969567</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.817445</v>
+        <v>0.788826</v>
       </c>
       <c r="C68" t="n">
-        <v>0.883815</v>
+        <v>0.860127</v>
       </c>
       <c r="D68" t="n">
-        <v>0.96429</v>
+        <v>0.941682</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.800152</v>
+        <v>0.7704220000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.860939</v>
+        <v>0.836157</v>
       </c>
       <c r="D69" t="n">
-        <v>0.935896</v>
+        <v>0.912484</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7816149999999999</v>
+        <v>0.75224</v>
       </c>
       <c r="C70" t="n">
-        <v>0.838357</v>
+        <v>0.8112470000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.909564</v>
+        <v>0.8889280000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.766066</v>
+        <v>0.736734</v>
       </c>
       <c r="C71" t="n">
-        <v>0.817249</v>
+        <v>0.793754</v>
       </c>
       <c r="D71" t="n">
-        <v>0.883839</v>
+        <v>0.864232</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.749416</v>
+        <v>0.719943</v>
       </c>
       <c r="C72" t="n">
-        <v>0.795614</v>
+        <v>0.774266</v>
       </c>
       <c r="D72" t="n">
-        <v>0.859294</v>
+        <v>0.841022</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.733847</v>
+        <v>0.704484</v>
       </c>
       <c r="C73" t="n">
-        <v>0.775942</v>
+        <v>0.7538010000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8363660000000001</v>
+        <v>0.817083</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.717527</v>
+        <v>0.690908</v>
       </c>
       <c r="C74" t="n">
-        <v>0.75714</v>
+        <v>0.731142</v>
       </c>
       <c r="D74" t="n">
-        <v>0.813418</v>
+        <v>0.796778</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.704511</v>
+        <v>0.67727</v>
       </c>
       <c r="C75" t="n">
-        <v>0.738878</v>
+        <v>0.719263</v>
       </c>
       <c r="D75" t="n">
-        <v>0.792436</v>
+        <v>0.778939</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.690843</v>
+        <v>0.667264</v>
       </c>
       <c r="C76" t="n">
-        <v>0.722262</v>
+        <v>0.704461</v>
       </c>
       <c r="D76" t="n">
-        <v>0.772847</v>
+        <v>0.760416</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.677834</v>
+        <v>0.656143</v>
       </c>
       <c r="C77" t="n">
-        <v>0.706751</v>
+        <v>0.691138</v>
       </c>
       <c r="D77" t="n">
-        <v>0.754544</v>
+        <v>0.74386</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.667912</v>
+        <v>0.6479279999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.69331</v>
+        <v>0.678337</v>
       </c>
       <c r="D78" t="n">
-        <v>0.739094</v>
+        <v>0.727909</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.660847</v>
+        <v>0.638296</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6818920000000001</v>
+        <v>0.665691</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7274969999999999</v>
+        <v>0.715361</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.655616</v>
+        <v>0.634781</v>
       </c>
       <c r="C80" t="n">
-        <v>0.99816</v>
+        <v>0.976859</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09859</v>
+        <v>1.07566</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.910301</v>
+        <v>0.887302</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9828</v>
+        <v>0.963865</v>
       </c>
       <c r="D81" t="n">
-        <v>1.07655</v>
+        <v>1.05581</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.90499</v>
+        <v>0.879132</v>
       </c>
       <c r="C82" t="n">
-        <v>0.964931</v>
+        <v>0.946339</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05241</v>
+        <v>1.03571</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.895249</v>
+        <v>0.869333</v>
       </c>
       <c r="C83" t="n">
-        <v>0.945947</v>
+        <v>0.925983</v>
       </c>
       <c r="D83" t="n">
-        <v>1.02813</v>
+        <v>1.01077</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.883819</v>
+        <v>0.859903</v>
       </c>
       <c r="C84" t="n">
-        <v>0.925929</v>
+        <v>0.909629</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00282</v>
+        <v>0.990514</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8718630000000001</v>
+        <v>0.849348</v>
       </c>
       <c r="C85" t="n">
-        <v>0.905265</v>
+        <v>0.887468</v>
       </c>
       <c r="D85" t="n">
-        <v>0.977875</v>
+        <v>0.965306</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.860653</v>
+        <v>0.838827</v>
       </c>
       <c r="C86" t="n">
-        <v>0.883972</v>
+        <v>0.869314</v>
       </c>
       <c r="D86" t="n">
-        <v>0.953025</v>
+        <v>0.941792</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847535</v>
+        <v>0.827344</v>
       </c>
       <c r="C87" t="n">
-        <v>0.864634</v>
+        <v>0.849628</v>
       </c>
       <c r="D87" t="n">
-        <v>0.929964</v>
+        <v>0.919203</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.835958</v>
+        <v>0.816661</v>
       </c>
       <c r="C88" t="n">
-        <v>0.844371</v>
+        <v>0.826163</v>
       </c>
       <c r="D88" t="n">
-        <v>0.906399</v>
+        <v>0.892222</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.823984</v>
+        <v>0.8093089999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.825395</v>
+        <v>0.812105</v>
       </c>
       <c r="D89" t="n">
-        <v>0.88439</v>
+        <v>0.87875</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813828</v>
+        <v>0.7982860000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.808161</v>
+        <v>0.796619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.863552</v>
+        <v>0.858064</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.803558</v>
+        <v>0.789417</v>
       </c>
       <c r="C91" t="n">
-        <v>0.790859</v>
+        <v>0.783716</v>
       </c>
       <c r="D91" t="n">
-        <v>0.843808</v>
+        <v>0.8387790000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.795041</v>
+        <v>0.7824140000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.776755</v>
+        <v>0.769167</v>
       </c>
       <c r="D92" t="n">
-        <v>0.826754</v>
+        <v>0.823008</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.787953</v>
+        <v>0.776772</v>
       </c>
       <c r="C93" t="n">
-        <v>0.763595</v>
+        <v>0.756954</v>
       </c>
       <c r="D93" t="n">
-        <v>0.811351</v>
+        <v>0.808572</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.783063</v>
+        <v>0.773245</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08674</v>
+        <v>1.07715</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19405</v>
+        <v>1.1825</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04153</v>
+        <v>1.02269</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07638</v>
+        <v>1.06434</v>
       </c>
       <c r="D95" t="n">
-        <v>1.17657</v>
+        <v>1.16653</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04047</v>
+        <v>1.02672</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05981</v>
+        <v>1.0478</v>
       </c>
       <c r="D96" t="n">
-        <v>1.15504</v>
+        <v>1.14103</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03116</v>
+        <v>1.01616</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04224</v>
+        <v>1.03396</v>
       </c>
       <c r="D97" t="n">
-        <v>1.1315</v>
+        <v>1.11802</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01873</v>
+        <v>1.00518</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02253</v>
+        <v>1.01092</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10764</v>
+        <v>1.09402</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.007</v>
+        <v>0.9947549999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0044</v>
+        <v>0.998491</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0839</v>
+        <v>1.07698</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.996543</v>
+        <v>0.985124</v>
       </c>
       <c r="C100" t="n">
-        <v>0.986541</v>
+        <v>0.976257</v>
       </c>
       <c r="D100" t="n">
-        <v>1.06203</v>
+        <v>1.0508</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.98667</v>
+        <v>0.975476</v>
       </c>
       <c r="C101" t="n">
-        <v>0.969526</v>
+        <v>0.9629180000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04191</v>
+        <v>1.03562</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.976924</v>
+        <v>0.96694</v>
       </c>
       <c r="C102" t="n">
-        <v>0.953199</v>
+        <v>0.944392</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02127</v>
+        <v>1.01015</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.968643</v>
+        <v>0.95969</v>
       </c>
       <c r="C103" t="n">
-        <v>0.937935</v>
+        <v>0.9312589999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>1.00235</v>
+        <v>0.992303</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.961</v>
+        <v>0.952823</v>
       </c>
       <c r="C104" t="n">
-        <v>0.923699</v>
+        <v>0.9190199999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.984698</v>
+        <v>0.973989</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.953952</v>
+        <v>0.947418</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9099739999999999</v>
+        <v>0.90468</v>
       </c>
       <c r="D105" t="n">
-        <v>0.967819</v>
+        <v>0.958554</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.949045</v>
+        <v>0.943773</v>
       </c>
       <c r="C106" t="n">
-        <v>0.898137</v>
+        <v>0.893456</v>
       </c>
       <c r="D106" t="n">
-        <v>0.952761</v>
+        <v>0.943672</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.946036</v>
+        <v>0.940609</v>
       </c>
       <c r="C107" t="n">
-        <v>0.887818</v>
+        <v>0.883477</v>
       </c>
       <c r="D107" t="n">
-        <v>0.939763</v>
+        <v>0.934076</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.945811</v>
+        <v>0.941543</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20765</v>
+        <v>1.1999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31992</v>
+        <v>1.30933</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.949188</v>
+        <v>0.945268</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2008</v>
+        <v>1.19354</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30642</v>
+        <v>1.29563</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19695</v>
+        <v>1.19403</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18416</v>
+        <v>1.17857</v>
       </c>
       <c r="D110" t="n">
-        <v>1.28464</v>
+        <v>1.27556</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18467</v>
+        <v>1.18182</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16805</v>
+        <v>1.16329</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26291</v>
+        <v>1.25398</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1732</v>
+        <v>1.17086</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1531</v>
+        <v>1.14865</v>
       </c>
       <c r="D112" t="n">
-        <v>1.2416</v>
+        <v>1.2333</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16138</v>
+        <v>1.16002</v>
       </c>
       <c r="C113" t="n">
-        <v>1.13845</v>
+        <v>1.13509</v>
       </c>
       <c r="D113" t="n">
-        <v>1.22157</v>
+        <v>1.21364</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15053</v>
+        <v>1.1495</v>
       </c>
       <c r="C114" t="n">
-        <v>1.12454</v>
+        <v>1.12265</v>
       </c>
       <c r="D114" t="n">
-        <v>1.20427</v>
+        <v>1.19273</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14081</v>
+        <v>1.13975</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11197</v>
+        <v>1.108</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18688</v>
+        <v>1.17927</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13155</v>
+        <v>1.13134</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09952</v>
+        <v>1.09711</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16996</v>
+        <v>1.16653</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12306</v>
+        <v>1.12289</v>
       </c>
       <c r="C117" t="n">
-        <v>1.08788</v>
+        <v>1.08617</v>
       </c>
       <c r="D117" t="n">
-        <v>1.15467</v>
+        <v>1.14556</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11649</v>
+        <v>1.11631</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0779</v>
+        <v>1.07599</v>
       </c>
       <c r="D118" t="n">
-        <v>1.13823</v>
+        <v>1.13265</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11183</v>
+        <v>1.11051</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06821</v>
+        <v>1.06606</v>
       </c>
       <c r="D119" t="n">
-        <v>1.12427</v>
+        <v>1.12017</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10786</v>
+        <v>1.10695</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0584</v>
+        <v>1.05712</v>
       </c>
       <c r="D120" t="n">
-        <v>1.11363</v>
+        <v>1.11135</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10594</v>
+        <v>1.10553</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05025</v>
+        <v>1.04858</v>
       </c>
       <c r="D121" t="n">
-        <v>1.10066</v>
+        <v>1.09909</v>
       </c>
     </row>
     <row r="122">
@@ -4929,10 +4929,10 @@
         <v>1.10668</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04387</v>
+        <v>1.04185</v>
       </c>
       <c r="D122" t="n">
-        <v>1.09289</v>
+        <v>1.08109</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11128</v>
+        <v>1.11085</v>
       </c>
       <c r="C123" t="n">
-        <v>1.36268</v>
+        <v>1.36154</v>
       </c>
       <c r="D123" t="n">
-        <v>1.46785</v>
+        <v>1.46281</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3608</v>
+        <v>1.35814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35057</v>
+        <v>1.3486</v>
       </c>
       <c r="D124" t="n">
-        <v>1.44991</v>
+        <v>1.44581</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3514</v>
+        <v>1.34931</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33858</v>
+        <v>1.33839</v>
       </c>
       <c r="D125" t="n">
-        <v>1.43273</v>
+        <v>1.42973</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34186</v>
+        <v>1.34084</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32789</v>
+        <v>1.32848</v>
       </c>
       <c r="D126" t="n">
-        <v>1.41665</v>
+        <v>1.41226</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33297</v>
+        <v>1.33332</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31823</v>
+        <v>1.31878</v>
       </c>
       <c r="D127" t="n">
-        <v>1.39997</v>
+        <v>1.39874</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32529</v>
+        <v>1.32474</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3074</v>
+        <v>1.30825</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38601</v>
+        <v>1.38075</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.3178</v>
+        <v>1.31899</v>
       </c>
       <c r="C129" t="n">
-        <v>1.29905</v>
+        <v>1.30029</v>
       </c>
       <c r="D129" t="n">
-        <v>1.37048</v>
+        <v>1.36803</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31106</v>
+        <v>1.31258</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29065</v>
+        <v>1.29268</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35949</v>
+        <v>1.35835</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30534</v>
+        <v>1.30723</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28287</v>
+        <v>1.28433</v>
       </c>
       <c r="D131" t="n">
-        <v>1.34693</v>
+        <v>1.34649</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30149</v>
+        <v>1.30455</v>
       </c>
       <c r="C132" t="n">
-        <v>1.27522</v>
+        <v>1.2787</v>
       </c>
       <c r="D132" t="n">
-        <v>1.33528</v>
+        <v>1.33523</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29879</v>
+        <v>1.30116</v>
       </c>
       <c r="C133" t="n">
-        <v>1.26757</v>
+        <v>1.27137</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32505</v>
+        <v>1.32579</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29725</v>
+        <v>1.30038</v>
       </c>
       <c r="C134" t="n">
-        <v>1.26251</v>
+        <v>1.26525</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31608</v>
+        <v>1.31499</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29769</v>
+        <v>1.30062</v>
       </c>
       <c r="C135" t="n">
-        <v>1.2562</v>
+        <v>1.25982</v>
       </c>
       <c r="D135" t="n">
-        <v>1.3066</v>
+        <v>1.30705</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.30076</v>
+        <v>1.30343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.25056</v>
+        <v>1.25281</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29695</v>
+        <v>1.29866</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30371</v>
+        <v>1.30819</v>
       </c>
       <c r="C137" t="n">
-        <v>1.56669</v>
+        <v>1.57172</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66963</v>
+        <v>1.66946</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.55445</v>
+        <v>1.55732</v>
       </c>
       <c r="C138" t="n">
-        <v>1.55789</v>
+        <v>1.56289</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65295</v>
+        <v>1.65468</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54694</v>
+        <v>1.5487</v>
       </c>
       <c r="C139" t="n">
-        <v>1.54697</v>
+        <v>1.55397</v>
       </c>
       <c r="D139" t="n">
-        <v>1.63772</v>
+        <v>1.63689</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53816</v>
+        <v>1.54363</v>
       </c>
       <c r="C140" t="n">
-        <v>1.53892</v>
+        <v>1.54646</v>
       </c>
       <c r="D140" t="n">
-        <v>1.62434</v>
+        <v>1.62735</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.53143</v>
+        <v>1.53605</v>
       </c>
       <c r="C141" t="n">
-        <v>1.53064</v>
+        <v>1.53897</v>
       </c>
       <c r="D141" t="n">
-        <v>1.61173</v>
+        <v>1.61595</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52543</v>
+        <v>1.53138</v>
       </c>
       <c r="C142" t="n">
-        <v>1.52361</v>
+        <v>1.53184</v>
       </c>
       <c r="D142" t="n">
-        <v>1.59971</v>
+        <v>1.60437</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51974</v>
+        <v>1.52511</v>
       </c>
       <c r="C143" t="n">
-        <v>1.51663</v>
+        <v>1.52687</v>
       </c>
       <c r="D143" t="n">
-        <v>1.5874</v>
+        <v>1.59327</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.57664</v>
+        <v>0.574558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.581003</v>
+        <v>0.629497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7907650000000001</v>
+        <v>0.82742</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.505287</v>
+        <v>0.499941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.509641</v>
+        <v>0.5564480000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.782578</v>
+        <v>0.816532</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.497586</v>
+        <v>0.491471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.498024</v>
+        <v>0.543655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77316</v>
+        <v>0.808256</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.486988</v>
+        <v>0.483587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.487874</v>
+        <v>0.532012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.767479</v>
+        <v>0.800959</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.478388</v>
+        <v>0.481301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.479095</v>
+        <v>0.521211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.761661</v>
+        <v>0.793598</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.472534</v>
+        <v>0.475678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.470398</v>
+        <v>0.51379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8695850000000001</v>
+        <v>0.905273</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.473792</v>
+        <v>0.475023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.465501</v>
+        <v>0.5068550000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.852773</v>
+        <v>0.886799</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5202</v>
+        <v>0.477824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.753033</v>
+        <v>0.766663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.836526</v>
+        <v>0.870381</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.722729</v>
+        <v>0.67036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.729858</v>
+        <v>0.744008</v>
       </c>
       <c r="D10" t="n">
-        <v>0.820317</v>
+        <v>0.8563</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.647262</v>
+        <v>0.6531439999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.667582</v>
+        <v>0.721538</v>
       </c>
       <c r="D11" t="n">
-        <v>0.808243</v>
+        <v>0.840291</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.628198</v>
+        <v>0.634778</v>
       </c>
       <c r="C12" t="n">
-        <v>0.647782</v>
+        <v>0.701227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.79533</v>
+        <v>0.824978</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619219</v>
+        <v>0.61699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.629467</v>
+        <v>0.681698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.781003</v>
+        <v>0.810847</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.602172</v>
+        <v>0.590913</v>
       </c>
       <c r="C14" t="n">
-        <v>0.612259</v>
+        <v>0.662538</v>
       </c>
       <c r="D14" t="n">
-        <v>0.769759</v>
+        <v>0.8049230000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.588985</v>
+        <v>0.582893</v>
       </c>
       <c r="C15" t="n">
-        <v>0.596141</v>
+        <v>0.645672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.759884</v>
+        <v>0.793017</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570086</v>
+        <v>0.568869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.579769</v>
+        <v>0.628878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.749328</v>
+        <v>0.781405</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5618</v>
+        <v>0.557526</v>
       </c>
       <c r="C17" t="n">
-        <v>0.565347</v>
+        <v>0.613517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7395890000000001</v>
+        <v>0.771289</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.543451</v>
+        <v>0.545863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.552435</v>
+        <v>0.598925</v>
       </c>
       <c r="D18" t="n">
-        <v>0.731042</v>
+        <v>0.762746</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533142</v>
+        <v>0.5318659999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.539895</v>
+        <v>0.585295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.723254</v>
+        <v>0.752284</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524616</v>
+        <v>0.524339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.574049</v>
       </c>
       <c r="D20" t="n">
-        <v>0.716269</v>
+        <v>0.746912</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523733</v>
+        <v>0.5175920000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.518919</v>
+        <v>0.564689</v>
       </c>
       <c r="D21" t="n">
-        <v>0.935562</v>
+        <v>0.984882</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.517181</v>
+        <v>0.516002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.512527</v>
+        <v>0.558134</v>
       </c>
       <c r="D22" t="n">
-        <v>0.917117</v>
+        <v>0.962932</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5135960000000001</v>
+        <v>0.514533</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7651019999999999</v>
+        <v>0.826102</v>
       </c>
       <c r="D23" t="n">
-        <v>0.900638</v>
+        <v>0.935436</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.718071</v>
+        <v>0.720906</v>
       </c>
       <c r="C24" t="n">
-        <v>0.740943</v>
+        <v>0.80111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.885583</v>
+        <v>0.918028</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6992119999999999</v>
+        <v>0.699773</v>
       </c>
       <c r="C25" t="n">
-        <v>0.718278</v>
+        <v>0.77698</v>
       </c>
       <c r="D25" t="n">
-        <v>0.870196</v>
+        <v>0.903627</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.676888</v>
+        <v>0.675238</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6963279999999999</v>
+        <v>0.754288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.851411</v>
+        <v>0.886913</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660358</v>
+        <v>0.655626</v>
       </c>
       <c r="C27" t="n">
-        <v>0.676801</v>
+        <v>0.7319909999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8370379999999999</v>
+        <v>0.871122</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640897</v>
+        <v>0.639682</v>
       </c>
       <c r="C28" t="n">
-        <v>0.656581</v>
+        <v>0.711244</v>
       </c>
       <c r="D28" t="n">
-        <v>0.823672</v>
+        <v>0.8556550000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624075</v>
+        <v>0.622403</v>
       </c>
       <c r="C29" t="n">
-        <v>0.638329</v>
+        <v>0.691819</v>
       </c>
       <c r="D29" t="n">
-        <v>0.812522</v>
+        <v>0.846132</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.609088</v>
+        <v>0.608572</v>
       </c>
       <c r="C30" t="n">
-        <v>0.621444</v>
+        <v>0.673249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.802944</v>
+        <v>0.835757</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594287</v>
+        <v>0.592932</v>
       </c>
       <c r="C31" t="n">
-        <v>0.604501</v>
+        <v>0.655855</v>
       </c>
       <c r="D31" t="n">
-        <v>0.793635</v>
+        <v>0.82512</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.579972</v>
+        <v>0.578273</v>
       </c>
       <c r="C32" t="n">
-        <v>0.589239</v>
+        <v>0.617371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7868230000000001</v>
+        <v>0.817307</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567133</v>
+        <v>0.566194</v>
       </c>
       <c r="C33" t="n">
-        <v>0.574976</v>
+        <v>0.624591</v>
       </c>
       <c r="D33" t="n">
-        <v>0.780438</v>
+        <v>0.808962</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.539482</v>
+        <v>0.5554559999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.541714</v>
+        <v>0.610746</v>
       </c>
       <c r="D34" t="n">
-        <v>0.772238</v>
+        <v>0.800246</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.550887</v>
+        <v>0.525647</v>
       </c>
       <c r="C35" t="n">
-        <v>0.552121</v>
+        <v>0.5797099999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>1.01091</v>
+        <v>1.05195</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5246</v>
+        <v>0.542254</v>
       </c>
       <c r="C36" t="n">
-        <v>0.523757</v>
+        <v>0.589377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.988196</v>
+        <v>1.02844</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.520884</v>
+        <v>0.517849</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7798040000000001</v>
+        <v>0.842533</v>
       </c>
       <c r="D37" t="n">
-        <v>0.966343</v>
+        <v>1.00515</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.731914</v>
+        <v>0.72998</v>
       </c>
       <c r="C38" t="n">
-        <v>0.75608</v>
+        <v>0.817528</v>
       </c>
       <c r="D38" t="n">
-        <v>0.948998</v>
+        <v>0.985438</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7082619999999999</v>
+        <v>0.710627</v>
       </c>
       <c r="C39" t="n">
-        <v>0.733596</v>
+        <v>0.793577</v>
       </c>
       <c r="D39" t="n">
-        <v>0.929274</v>
+        <v>0.975349</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69158</v>
+        <v>0.68668</v>
       </c>
       <c r="C40" t="n">
-        <v>0.711408</v>
+        <v>0.769545</v>
       </c>
       <c r="D40" t="n">
-        <v>0.912623</v>
+        <v>0.956619</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.670179</v>
+        <v>0.6713980000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.691311</v>
+        <v>0.748573</v>
       </c>
       <c r="D41" t="n">
-        <v>0.900409</v>
+        <v>0.939701</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.651486</v>
+        <v>0.649686</v>
       </c>
       <c r="C42" t="n">
-        <v>0.671531</v>
+        <v>0.727056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.88684</v>
+        <v>0.923583</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.636135</v>
+        <v>0.633584</v>
       </c>
       <c r="C43" t="n">
-        <v>0.653299</v>
+        <v>0.7076440000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.874153</v>
+        <v>0.910605</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6204730000000001</v>
+        <v>0.617819</v>
       </c>
       <c r="C44" t="n">
-        <v>0.636028</v>
+        <v>0.688725</v>
       </c>
       <c r="D44" t="n">
-        <v>0.862818</v>
+        <v>0.898174</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6072689999999999</v>
+        <v>0.605602</v>
       </c>
       <c r="C45" t="n">
-        <v>0.619173</v>
+        <v>0.671504</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8542149999999999</v>
+        <v>0.889377</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.59244</v>
+        <v>0.590652</v>
       </c>
       <c r="C46" t="n">
-        <v>0.581348</v>
+        <v>0.654878</v>
       </c>
       <c r="D46" t="n">
-        <v>0.846213</v>
+        <v>0.877614</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5805090000000001</v>
+        <v>0.577946</v>
       </c>
       <c r="C47" t="n">
-        <v>0.590539</v>
+        <v>0.639305</v>
       </c>
       <c r="D47" t="n">
-        <v>0.836874</v>
+        <v>0.869857</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.570075</v>
+        <v>0.5707140000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.577086</v>
+        <v>0.62527</v>
       </c>
       <c r="D48" t="n">
-        <v>0.833117</v>
+        <v>0.860634</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.561897</v>
+        <v>0.5404409999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.565756</v>
+        <v>0.594607</v>
       </c>
       <c r="D49" t="n">
-        <v>0.827215</v>
+        <v>0.85845</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.554875</v>
+        <v>0.5535910000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.555912</v>
+        <v>0.602695</v>
       </c>
       <c r="D50" t="n">
-        <v>1.05949</v>
+        <v>1.10339</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.53244</v>
+        <v>0.549264</v>
       </c>
       <c r="C51" t="n">
-        <v>0.804493</v>
+        <v>0.878969</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03629</v>
+        <v>1.07919</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.532241</v>
+        <v>0.529864</v>
       </c>
       <c r="C52" t="n">
-        <v>0.782335</v>
+        <v>0.839607</v>
       </c>
       <c r="D52" t="n">
-        <v>1.01879</v>
+        <v>1.05852</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.752816</v>
+        <v>0.7459519999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.772288</v>
+        <v>0.827024</v>
       </c>
       <c r="D53" t="n">
-        <v>0.997557</v>
+        <v>1.03646</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7313229999999999</v>
+        <v>0.72561</v>
       </c>
       <c r="C54" t="n">
-        <v>0.737949</v>
+        <v>0.792956</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9775740000000001</v>
+        <v>1.01854</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.711095</v>
+        <v>0.693998</v>
       </c>
       <c r="C55" t="n">
-        <v>0.718068</v>
+        <v>0.769606</v>
       </c>
       <c r="D55" t="n">
-        <v>0.960985</v>
+        <v>1.00056</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.683665</v>
+        <v>0.681851</v>
       </c>
       <c r="C56" t="n">
-        <v>0.699504</v>
+        <v>0.755033</v>
       </c>
       <c r="D56" t="n">
-        <v>0.946276</v>
+        <v>0.982536</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.661508</v>
+        <v>0.661386</v>
       </c>
       <c r="C57" t="n">
-        <v>0.67941</v>
+        <v>0.734281</v>
       </c>
       <c r="D57" t="n">
-        <v>0.936295</v>
+        <v>0.9677559999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.646389</v>
+        <v>0.64844</v>
       </c>
       <c r="C58" t="n">
-        <v>0.662673</v>
+        <v>0.716845</v>
       </c>
       <c r="D58" t="n">
-        <v>0.909301</v>
+        <v>0.9551230000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.632328</v>
+        <v>0.630571</v>
       </c>
       <c r="C59" t="n">
-        <v>0.645522</v>
+        <v>0.697277</v>
       </c>
       <c r="D59" t="n">
-        <v>0.898441</v>
+        <v>0.936686</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.620375</v>
+        <v>0.617113</v>
       </c>
       <c r="C60" t="n">
-        <v>0.629718</v>
+        <v>0.680754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.88795</v>
+        <v>0.926515</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.617305</v>
+        <v>0.578912</v>
       </c>
       <c r="C61" t="n">
-        <v>0.615935</v>
+        <v>0.641383</v>
       </c>
       <c r="D61" t="n">
-        <v>0.878615</v>
+        <v>0.9156300000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.570796</v>
+        <v>0.591531</v>
       </c>
       <c r="C62" t="n">
-        <v>0.57977</v>
+        <v>0.647079</v>
       </c>
       <c r="D62" t="n">
-        <v>0.870653</v>
+        <v>0.9053</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5866130000000001</v>
+        <v>0.580475</v>
       </c>
       <c r="C63" t="n">
-        <v>0.590152</v>
+        <v>0.636751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.863056</v>
+        <v>0.896446</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.578833</v>
+        <v>0.553999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.58096</v>
+        <v>0.604372</v>
       </c>
       <c r="D64" t="n">
-        <v>1.12117</v>
+        <v>1.17864</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5754899999999999</v>
+        <v>0.570634</v>
       </c>
       <c r="C65" t="n">
-        <v>0.574972</v>
+        <v>0.617016</v>
       </c>
       <c r="D65" t="n">
-        <v>1.09516</v>
+        <v>1.1492</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.573429</v>
+        <v>0.5706059999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.849796</v>
+        <v>0.908936</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07199</v>
+        <v>1.12437</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8123050000000001</v>
+        <v>0.806343</v>
       </c>
       <c r="C67" t="n">
-        <v>0.815725</v>
+        <v>0.886097</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04963</v>
+        <v>1.09287</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.795735</v>
+        <v>0.78827</v>
       </c>
       <c r="C68" t="n">
-        <v>0.805129</v>
+        <v>0.847677</v>
       </c>
       <c r="D68" t="n">
-        <v>1.03051</v>
+        <v>1.07482</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.774795</v>
+        <v>0.777968</v>
       </c>
       <c r="C69" t="n">
-        <v>0.782345</v>
+        <v>0.828281</v>
       </c>
       <c r="D69" t="n">
-        <v>1.01296</v>
+        <v>1.05594</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.771402</v>
+        <v>0.76175</v>
       </c>
       <c r="C70" t="n">
-        <v>0.753239</v>
+        <v>0.805848</v>
       </c>
       <c r="D70" t="n">
-        <v>0.995793</v>
+        <v>1.04018</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.747293</v>
+        <v>0.74412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.733976</v>
+        <v>0.783135</v>
       </c>
       <c r="D71" t="n">
-        <v>0.983493</v>
+        <v>1.01051</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7291</v>
+        <v>0.721432</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7179489999999999</v>
+        <v>0.762306</v>
       </c>
       <c r="D72" t="n">
-        <v>0.973062</v>
+        <v>1.00045</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.707555</v>
+        <v>0.704631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.699377</v>
+        <v>0.744341</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9488259999999999</v>
+        <v>0.990794</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.701584</v>
+        <v>0.671496</v>
       </c>
       <c r="C74" t="n">
-        <v>0.683099</v>
+        <v>0.70113</v>
       </c>
       <c r="D74" t="n">
-        <v>0.941415</v>
+        <v>0.97766</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679525</v>
+        <v>0.682883</v>
       </c>
       <c r="C75" t="n">
-        <v>0.668296</v>
+        <v>0.712256</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9342510000000001</v>
+        <v>0.9712730000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.671655</v>
+        <v>0.672879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.650801</v>
+        <v>0.697646</v>
       </c>
       <c r="D76" t="n">
-        <v>0.931508</v>
+        <v>0.966715</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.663612</v>
+        <v>0.662652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.641556</v>
+        <v>0.659102</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9275</v>
+        <v>0.957827</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6661049999999999</v>
+        <v>0.649776</v>
       </c>
       <c r="C78" t="n">
-        <v>0.62983</v>
+        <v>0.668179</v>
       </c>
       <c r="D78" t="n">
-        <v>1.36306</v>
+        <v>1.42382</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.64788</v>
+        <v>0.639659</v>
       </c>
       <c r="C79" t="n">
-        <v>0.596925</v>
+        <v>0.66277</v>
       </c>
       <c r="D79" t="n">
-        <v>1.33225</v>
+        <v>1.39285</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.643122</v>
+        <v>0.644797</v>
       </c>
       <c r="C80" t="n">
-        <v>0.921515</v>
+        <v>0.959828</v>
       </c>
       <c r="D80" t="n">
-        <v>1.30509</v>
+        <v>1.3675</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8951249999999999</v>
+        <v>0.880485</v>
       </c>
       <c r="C81" t="n">
-        <v>0.892344</v>
+        <v>0.947964</v>
       </c>
       <c r="D81" t="n">
-        <v>1.2838</v>
+        <v>1.34001</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.883696</v>
+        <v>0.874864</v>
       </c>
       <c r="C82" t="n">
-        <v>0.875426</v>
+        <v>0.942153</v>
       </c>
       <c r="D82" t="n">
-        <v>1.26623</v>
+        <v>1.31223</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.877703</v>
+        <v>0.86586</v>
       </c>
       <c r="C83" t="n">
-        <v>0.857695</v>
+        <v>0.923582</v>
       </c>
       <c r="D83" t="n">
-        <v>1.24812</v>
+        <v>1.29515</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.87099</v>
+        <v>0.8638670000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.857355</v>
+        <v>0.89242</v>
       </c>
       <c r="D84" t="n">
-        <v>1.20093</v>
+        <v>1.27295</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.855669</v>
+        <v>0.857526</v>
       </c>
       <c r="C85" t="n">
-        <v>0.781438</v>
+        <v>0.886984</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19173</v>
+        <v>1.24389</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.842814</v>
+        <v>0.841903</v>
       </c>
       <c r="C86" t="n">
-        <v>0.806663</v>
+        <v>0.851446</v>
       </c>
       <c r="D86" t="n">
-        <v>1.18421</v>
+        <v>1.23455</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.835948</v>
+        <v>0.8240420000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.785326</v>
+        <v>0.830823</v>
       </c>
       <c r="D87" t="n">
-        <v>1.18567</v>
+        <v>1.23026</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.81252</v>
+        <v>0.816838</v>
       </c>
       <c r="C88" t="n">
-        <v>0.768251</v>
+        <v>0.810935</v>
       </c>
       <c r="D88" t="n">
-        <v>1.18972</v>
+        <v>1.21998</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8107760000000001</v>
+        <v>0.805111</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7546</v>
+        <v>0.767407</v>
       </c>
       <c r="D89" t="n">
-        <v>1.18864</v>
+        <v>1.21686</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.802957</v>
+        <v>0.793345</v>
       </c>
       <c r="C90" t="n">
-        <v>0.737295</v>
+        <v>0.786602</v>
       </c>
       <c r="D90" t="n">
-        <v>1.19406</v>
+        <v>1.22398</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.801698</v>
+        <v>0.790231</v>
       </c>
       <c r="C91" t="n">
-        <v>0.725534</v>
+        <v>0.770205</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19356</v>
+        <v>1.22916</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.769805</v>
+        <v>0.776219</v>
       </c>
       <c r="C92" t="n">
-        <v>0.683253</v>
+        <v>0.751059</v>
       </c>
       <c r="D92" t="n">
-        <v>2.16615</v>
+        <v>2.24968</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.781927</v>
+        <v>0.7725880000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7020380000000001</v>
+        <v>0.742808</v>
       </c>
       <c r="D93" t="n">
-        <v>2.15799</v>
+        <v>2.2453</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771389</v>
+        <v>0.774095</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00355</v>
+        <v>1.07784</v>
       </c>
       <c r="D94" t="n">
-        <v>2.15414</v>
+        <v>2.24391</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.01821</v>
+        <v>1.02794</v>
       </c>
       <c r="C95" t="n">
-        <v>0.967346</v>
+        <v>1.05783</v>
       </c>
       <c r="D95" t="n">
-        <v>2.15389</v>
+        <v>2.29545</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00357</v>
+        <v>1.02544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.961075</v>
+        <v>1.04046</v>
       </c>
       <c r="D96" t="n">
-        <v>2.14553</v>
+        <v>2.21548</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01761</v>
+        <v>1.01174</v>
       </c>
       <c r="C97" t="n">
-        <v>0.968967</v>
+        <v>1.02138</v>
       </c>
       <c r="D97" t="n">
-        <v>2.13892</v>
+        <v>2.27887</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.981084</v>
+        <v>0.99525</v>
       </c>
       <c r="C98" t="n">
-        <v>0.92694</v>
+        <v>0.985217</v>
       </c>
       <c r="D98" t="n">
-        <v>2.05696</v>
+        <v>2.12965</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.996427</v>
+        <v>0.984921</v>
       </c>
       <c r="C99" t="n">
-        <v>0.933038</v>
+        <v>0.965755</v>
       </c>
       <c r="D99" t="n">
-        <v>1.66545</v>
+        <v>1.97267</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.968387</v>
+        <v>0.96737</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8989279999999999</v>
+        <v>0.950807</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65492</v>
+        <v>1.72324</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.966827</v>
+        <v>0.966032</v>
       </c>
       <c r="C101" t="n">
-        <v>0.850366</v>
+        <v>0.936832</v>
       </c>
       <c r="D101" t="n">
-        <v>1.65402</v>
+        <v>1.71701</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.952318</v>
+        <v>0.963631</v>
       </c>
       <c r="C102" t="n">
-        <v>0.874221</v>
+        <v>0.921602</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65835</v>
+        <v>1.71619</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.948188</v>
+        <v>0.95502</v>
       </c>
       <c r="C103" t="n">
-        <v>0.86173</v>
+        <v>0.905534</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63748</v>
+        <v>1.71573</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.941605</v>
+        <v>0.947004</v>
       </c>
       <c r="C104" t="n">
-        <v>0.849973</v>
+        <v>0.896356</v>
       </c>
       <c r="D104" t="n">
-        <v>1.63708</v>
+        <v>1.72041</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.933852</v>
+        <v>0.94722</v>
       </c>
       <c r="C105" t="n">
-        <v>0.837315</v>
+        <v>0.882756</v>
       </c>
       <c r="D105" t="n">
-        <v>1.65491</v>
+        <v>1.72211</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.936804</v>
+        <v>0.933696</v>
       </c>
       <c r="C106" t="n">
-        <v>0.828356</v>
+        <v>0.873387</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6717</v>
+        <v>1.72589</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93199</v>
+        <v>0.922768</v>
       </c>
       <c r="C107" t="n">
-        <v>0.795238</v>
+        <v>0.831651</v>
       </c>
       <c r="D107" t="n">
-        <v>2.91476</v>
+        <v>3.02457</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.931969</v>
+        <v>0.910152</v>
       </c>
       <c r="C108" t="n">
-        <v>1.09921</v>
+        <v>1.15512</v>
       </c>
       <c r="D108" t="n">
-        <v>2.89557</v>
+        <v>2.98303</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.929665</v>
+        <v>0.940419</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09219</v>
+        <v>1.17176</v>
       </c>
       <c r="D109" t="n">
-        <v>2.88357</v>
+        <v>3.16458</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18053</v>
+        <v>1.16335</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08513</v>
+        <v>1.13305</v>
       </c>
       <c r="D110" t="n">
-        <v>2.49526</v>
+        <v>2.93511</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.13955</v>
+        <v>1.17935</v>
       </c>
       <c r="C111" t="n">
-        <v>1.06969</v>
+        <v>1.14528</v>
       </c>
       <c r="D111" t="n">
-        <v>2.65964</v>
+        <v>2.73493</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16266</v>
+        <v>1.16073</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0795</v>
+        <v>1.11069</v>
       </c>
       <c r="D112" t="n">
-        <v>2.44845</v>
+        <v>2.33244</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13589</v>
+        <v>1.13617</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04609</v>
+        <v>1.10144</v>
       </c>
       <c r="D113" t="n">
-        <v>2.23919</v>
+        <v>2.31384</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14214</v>
+        <v>1.12983</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05554</v>
+        <v>1.08586</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20699</v>
+        <v>2.29979</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.10223</v>
+        <v>1.11983</v>
       </c>
       <c r="C115" t="n">
-        <v>0.989771</v>
+        <v>1.07599</v>
       </c>
       <c r="D115" t="n">
-        <v>2.20197</v>
+        <v>2.28121</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.10752</v>
+        <v>1.11867</v>
       </c>
       <c r="C116" t="n">
-        <v>1.01791</v>
+        <v>1.05962</v>
       </c>
       <c r="D116" t="n">
-        <v>2.19409</v>
+        <v>2.26283</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10811</v>
+        <v>1.10698</v>
       </c>
       <c r="C117" t="n">
-        <v>1.00805</v>
+        <v>1.05659</v>
       </c>
       <c r="D117" t="n">
-        <v>2.18608</v>
+        <v>2.27114</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11379</v>
+        <v>1.10771</v>
       </c>
       <c r="C118" t="n">
-        <v>1.00226</v>
+        <v>1.04693</v>
       </c>
       <c r="D118" t="n">
-        <v>2.18551</v>
+        <v>2.25552</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09708</v>
+        <v>1.09896</v>
       </c>
       <c r="C119" t="n">
-        <v>0.992815</v>
+        <v>1.03852</v>
       </c>
       <c r="D119" t="n">
-        <v>2.20154</v>
+        <v>2.26732</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09428</v>
+        <v>1.08453</v>
       </c>
       <c r="C120" t="n">
-        <v>0.983645</v>
+        <v>1.02936</v>
       </c>
       <c r="D120" t="n">
-        <v>2.21028</v>
+        <v>2.25669</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08718</v>
+        <v>1.06349</v>
       </c>
       <c r="C121" t="n">
-        <v>0.98362</v>
+        <v>0.99625</v>
       </c>
       <c r="D121" t="n">
-        <v>3.59119</v>
+        <v>3.7263</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09382</v>
+        <v>1.09378</v>
       </c>
       <c r="C122" t="n">
-        <v>0.952113</v>
+        <v>1.02007</v>
       </c>
       <c r="D122" t="n">
-        <v>3.55192</v>
+        <v>3.67636</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09377</v>
+        <v>1.09391</v>
       </c>
       <c r="C123" t="n">
-        <v>1.2591</v>
+        <v>1.3356</v>
       </c>
       <c r="D123" t="n">
-        <v>3.93999</v>
+        <v>4.05505</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34424</v>
+        <v>1.33003</v>
       </c>
       <c r="C124" t="n">
-        <v>1.27709</v>
+        <v>1.30324</v>
       </c>
       <c r="D124" t="n">
-        <v>3.91787</v>
+        <v>2.94125</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31866</v>
+        <v>1.35337</v>
       </c>
       <c r="C125" t="n">
-        <v>1.24458</v>
+        <v>1.29466</v>
       </c>
       <c r="D125" t="n">
-        <v>3.46492</v>
+        <v>3.76164</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32566</v>
+        <v>1.33912</v>
       </c>
       <c r="C126" t="n">
-        <v>1.23399</v>
+        <v>1.30661</v>
       </c>
       <c r="D126" t="n">
-        <v>3.22428</v>
+        <v>3.53353</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31837</v>
+        <v>1.31505</v>
       </c>
       <c r="C127" t="n">
-        <v>1.22762</v>
+        <v>1.27581</v>
       </c>
       <c r="D127" t="n">
-        <v>3.41187</v>
+        <v>3.0763</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29619</v>
+        <v>1.30202</v>
       </c>
       <c r="C128" t="n">
-        <v>1.22404</v>
+        <v>1.27018</v>
       </c>
       <c r="D128" t="n">
-        <v>2.72302</v>
+        <v>2.8272</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30723</v>
+        <v>1.30456</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2176</v>
+        <v>1.2654</v>
       </c>
       <c r="D129" t="n">
-        <v>2.70175</v>
+        <v>2.77281</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29648</v>
+        <v>1.28917</v>
       </c>
       <c r="C130" t="n">
-        <v>1.20886</v>
+        <v>1.25564</v>
       </c>
       <c r="D130" t="n">
-        <v>2.68575</v>
+        <v>2.74636</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29527</v>
+        <v>1.29623</v>
       </c>
       <c r="C131" t="n">
-        <v>1.17561</v>
+        <v>1.25237</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67127</v>
+        <v>2.73499</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.28039</v>
+        <v>1.27835</v>
       </c>
       <c r="C132" t="n">
-        <v>1.17476</v>
+        <v>1.24745</v>
       </c>
       <c r="D132" t="n">
-        <v>2.66499</v>
+        <v>2.73991</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.26235</v>
+        <v>1.29204</v>
       </c>
       <c r="C133" t="n">
-        <v>1.16781</v>
+        <v>1.23965</v>
       </c>
       <c r="D133" t="n">
-        <v>2.66619</v>
+        <v>2.72802</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29464</v>
+        <v>1.26606</v>
       </c>
       <c r="C134" t="n">
-        <v>1.20071</v>
+        <v>1.20601</v>
       </c>
       <c r="D134" t="n">
-        <v>2.66546</v>
+        <v>2.7151</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29555</v>
+        <v>1.27082</v>
       </c>
       <c r="C135" t="n">
-        <v>1.18098</v>
+        <v>1.19734</v>
       </c>
       <c r="D135" t="n">
-        <v>4.11179</v>
+        <v>4.27864</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28402</v>
+        <v>1.28202</v>
       </c>
       <c r="C136" t="n">
-        <v>1.16273</v>
+        <v>1.22718</v>
       </c>
       <c r="D136" t="n">
-        <v>4.06195</v>
+        <v>4.20992</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29068</v>
+        <v>1.28208</v>
       </c>
       <c r="C137" t="n">
-        <v>1.46681</v>
+        <v>1.51631</v>
       </c>
       <c r="D137" t="n">
-        <v>4.25602</v>
+        <v>4.16538</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52655</v>
+        <v>1.53534</v>
       </c>
       <c r="C138" t="n">
-        <v>1.45917</v>
+        <v>1.53168</v>
       </c>
       <c r="D138" t="n">
-        <v>4.43653</v>
+        <v>4.34838</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.52472</v>
+        <v>1.53867</v>
       </c>
       <c r="C139" t="n">
-        <v>1.47466</v>
+        <v>1.52173</v>
       </c>
       <c r="D139" t="n">
-        <v>3.6958</v>
+        <v>4.29921</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52159</v>
+        <v>1.51019</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47517</v>
+        <v>1.50772</v>
       </c>
       <c r="D140" t="n">
-        <v>3.41957</v>
+        <v>3.7817</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.51582</v>
+        <v>1.52033</v>
       </c>
       <c r="C141" t="n">
-        <v>1.46652</v>
+        <v>1.51675</v>
       </c>
       <c r="D141" t="n">
-        <v>3.15617</v>
+        <v>3.27406</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51343</v>
+        <v>1.5032</v>
       </c>
       <c r="C142" t="n">
-        <v>1.44876</v>
+        <v>1.49394</v>
       </c>
       <c r="D142" t="n">
-        <v>3.09905</v>
+        <v>3.22171</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49076</v>
+        <v>1.51038</v>
       </c>
       <c r="C143" t="n">
-        <v>1.44156</v>
+        <v>1.48965</v>
       </c>
       <c r="D143" t="n">
-        <v>3.07554</v>
+        <v>3.18718</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574558</v>
+        <v>0.575797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629497</v>
+        <v>0.638612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82742</v>
+        <v>0.837066</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.499941</v>
+        <v>0.497589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5564480000000001</v>
+        <v>0.563458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.816532</v>
+        <v>0.82681</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.491471</v>
+        <v>0.48752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.543655</v>
+        <v>0.550527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.808256</v>
+        <v>0.81929</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.483587</v>
+        <v>0.483997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.532012</v>
+        <v>0.539266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.800959</v>
+        <v>0.811623</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.481301</v>
+        <v>0.480037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.521211</v>
+        <v>0.52847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.793598</v>
+        <v>0.805599</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.475678</v>
+        <v>0.472225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51379</v>
+        <v>0.520583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905273</v>
+        <v>0.918153</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.475023</v>
+        <v>0.471414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5068550000000001</v>
+        <v>0.514673</v>
       </c>
       <c r="D8" t="n">
-        <v>0.886799</v>
+        <v>0.89927</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.477824</v>
+        <v>0.47464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.766663</v>
+        <v>0.77901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.870381</v>
+        <v>0.88097</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67036</v>
+        <v>0.6712630000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.744008</v>
+        <v>0.755274</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8563</v>
+        <v>0.866502</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6531439999999999</v>
+        <v>0.6445070000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.721538</v>
+        <v>0.733557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.840291</v>
+        <v>0.851904</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634778</v>
+        <v>0.625084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.701227</v>
+        <v>0.7119259999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.824978</v>
+        <v>0.83695</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61699</v>
+        <v>0.611905</v>
       </c>
       <c r="C13" t="n">
-        <v>0.681698</v>
+        <v>0.691468</v>
       </c>
       <c r="D13" t="n">
-        <v>0.810847</v>
+        <v>0.822119</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.590913</v>
+        <v>0.591442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.662538</v>
+        <v>0.672762</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8049230000000001</v>
+        <v>0.811007</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582893</v>
+        <v>0.581098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.645672</v>
+        <v>0.654532</v>
       </c>
       <c r="D15" t="n">
-        <v>0.793017</v>
+        <v>0.80213</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.568869</v>
+        <v>0.569551</v>
       </c>
       <c r="C16" t="n">
-        <v>0.628878</v>
+        <v>0.637668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781405</v>
+        <v>0.7916800000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.557526</v>
+        <v>0.556126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.613517</v>
+        <v>0.621313</v>
       </c>
       <c r="D17" t="n">
-        <v>0.771289</v>
+        <v>0.782102</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545863</v>
+        <v>0.5447340000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.598925</v>
+        <v>0.606177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.762746</v>
+        <v>0.774324</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5318659999999999</v>
+        <v>0.535071</v>
       </c>
       <c r="C19" t="n">
-        <v>0.585295</v>
+        <v>0.592649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.752284</v>
+        <v>0.765374</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524339</v>
+        <v>0.524352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.574049</v>
+        <v>0.58119</v>
       </c>
       <c r="D20" t="n">
-        <v>0.746912</v>
+        <v>0.758132</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5175920000000001</v>
+        <v>0.517575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.564689</v>
+        <v>0.570952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.984882</v>
+        <v>0.99497</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516002</v>
+        <v>0.512113</v>
       </c>
       <c r="C22" t="n">
-        <v>0.558134</v>
+        <v>0.564566</v>
       </c>
       <c r="D22" t="n">
-        <v>0.962932</v>
+        <v>0.973293</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514533</v>
+        <v>0.511639</v>
       </c>
       <c r="C23" t="n">
-        <v>0.826102</v>
+        <v>0.839472</v>
       </c>
       <c r="D23" t="n">
-        <v>0.935436</v>
+        <v>0.950739</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720906</v>
+        <v>0.722055</v>
       </c>
       <c r="C24" t="n">
-        <v>0.80111</v>
+        <v>0.813211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.918028</v>
+        <v>0.930839</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699773</v>
+        <v>0.699873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.77698</v>
+        <v>0.7857189999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903627</v>
+        <v>0.912148</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675238</v>
+        <v>0.6778729999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.754288</v>
+        <v>0.763545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.886913</v>
+        <v>0.8975030000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655626</v>
+        <v>0.656192</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7319909999999999</v>
+        <v>0.739488</v>
       </c>
       <c r="D27" t="n">
-        <v>0.871122</v>
+        <v>0.88312</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639682</v>
+        <v>0.6367930000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.711244</v>
+        <v>0.717167</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8556550000000001</v>
+        <v>0.870192</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622403</v>
+        <v>0.622835</v>
       </c>
       <c r="C29" t="n">
-        <v>0.691819</v>
+        <v>0.699761</v>
       </c>
       <c r="D29" t="n">
-        <v>0.846132</v>
+        <v>0.8619560000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608572</v>
+        <v>0.607174</v>
       </c>
       <c r="C30" t="n">
-        <v>0.673249</v>
+        <v>0.680748</v>
       </c>
       <c r="D30" t="n">
-        <v>0.835757</v>
+        <v>0.848739</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592932</v>
+        <v>0.592147</v>
       </c>
       <c r="C31" t="n">
-        <v>0.655855</v>
+        <v>0.660843</v>
       </c>
       <c r="D31" t="n">
-        <v>0.82512</v>
+        <v>0.837734</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578273</v>
+        <v>0.578441</v>
       </c>
       <c r="C32" t="n">
-        <v>0.617371</v>
+        <v>0.624796</v>
       </c>
       <c r="D32" t="n">
-        <v>0.817307</v>
+        <v>0.830507</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566194</v>
+        <v>0.566663</v>
       </c>
       <c r="C33" t="n">
-        <v>0.624591</v>
+        <v>0.628952</v>
       </c>
       <c r="D33" t="n">
-        <v>0.808962</v>
+        <v>0.822025</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.5573669999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.610746</v>
+        <v>0.616062</v>
       </c>
       <c r="D34" t="n">
-        <v>0.800246</v>
+        <v>0.814797</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525647</v>
+        <v>0.54683</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5797099999999999</v>
+        <v>0.60442</v>
       </c>
       <c r="D35" t="n">
-        <v>1.05195</v>
+        <v>1.06863</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.542254</v>
+        <v>0.542206</v>
       </c>
       <c r="C36" t="n">
-        <v>0.589377</v>
+        <v>0.594762</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02844</v>
+        <v>1.04192</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.517849</v>
+        <v>0.520525</v>
       </c>
       <c r="C37" t="n">
-        <v>0.842533</v>
+        <v>0.854952</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00515</v>
+        <v>1.02071</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.72998</v>
+        <v>0.732156</v>
       </c>
       <c r="C38" t="n">
-        <v>0.817528</v>
+        <v>0.829161</v>
       </c>
       <c r="D38" t="n">
-        <v>0.985438</v>
+        <v>1.00066</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.710627</v>
+        <v>0.710985</v>
       </c>
       <c r="C39" t="n">
-        <v>0.793577</v>
+        <v>0.80516</v>
       </c>
       <c r="D39" t="n">
-        <v>0.975349</v>
+        <v>0.98819</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.68668</v>
+        <v>0.690072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.769545</v>
+        <v>0.7793330000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.956619</v>
+        <v>0.968418</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6713980000000001</v>
+        <v>0.671967</v>
       </c>
       <c r="C41" t="n">
-        <v>0.748573</v>
+        <v>0.757059</v>
       </c>
       <c r="D41" t="n">
-        <v>0.939701</v>
+        <v>0.954244</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.649686</v>
+        <v>0.655191</v>
       </c>
       <c r="C42" t="n">
-        <v>0.727056</v>
+        <v>0.737408</v>
       </c>
       <c r="D42" t="n">
-        <v>0.923583</v>
+        <v>0.9389459999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.633584</v>
+        <v>0.636308</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7076440000000001</v>
+        <v>0.715449</v>
       </c>
       <c r="D43" t="n">
-        <v>0.910605</v>
+        <v>0.925241</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.617819</v>
+        <v>0.617875</v>
       </c>
       <c r="C44" t="n">
-        <v>0.688725</v>
+        <v>0.696731</v>
       </c>
       <c r="D44" t="n">
-        <v>0.898174</v>
+        <v>0.91122</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.605602</v>
+        <v>0.6028559999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.671504</v>
+        <v>0.675412</v>
       </c>
       <c r="D45" t="n">
-        <v>0.889377</v>
+        <v>0.900305</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590652</v>
+        <v>0.590519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.654878</v>
+        <v>0.661284</v>
       </c>
       <c r="D46" t="n">
-        <v>0.877614</v>
+        <v>0.892778</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.577946</v>
+        <v>0.57919</v>
       </c>
       <c r="C47" t="n">
-        <v>0.639305</v>
+        <v>0.645582</v>
       </c>
       <c r="D47" t="n">
-        <v>0.869857</v>
+        <v>0.888628</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5707140000000001</v>
+        <v>0.568794</v>
       </c>
       <c r="C48" t="n">
-        <v>0.62527</v>
+        <v>0.630168</v>
       </c>
       <c r="D48" t="n">
-        <v>0.860634</v>
+        <v>0.8813260000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5404409999999999</v>
+        <v>0.56036</v>
       </c>
       <c r="C49" t="n">
-        <v>0.594607</v>
+        <v>0.616576</v>
       </c>
       <c r="D49" t="n">
-        <v>0.85845</v>
+        <v>0.872754</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5535910000000001</v>
+        <v>0.552447</v>
       </c>
       <c r="C50" t="n">
-        <v>0.602695</v>
+        <v>0.606316</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10339</v>
+        <v>1.11747</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.549264</v>
+        <v>0.528795</v>
       </c>
       <c r="C51" t="n">
-        <v>0.878969</v>
+        <v>0.88053</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07919</v>
+        <v>1.09263</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.529864</v>
+        <v>0.550081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.839607</v>
+        <v>0.8739749999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05852</v>
+        <v>1.07122</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7459519999999999</v>
+        <v>0.74093</v>
       </c>
       <c r="C53" t="n">
-        <v>0.827024</v>
+        <v>0.82926</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03646</v>
+        <v>1.0499</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.72561</v>
+        <v>0.721183</v>
       </c>
       <c r="C54" t="n">
-        <v>0.792956</v>
+        <v>0.805623</v>
       </c>
       <c r="D54" t="n">
-        <v>1.01854</v>
+        <v>1.0326</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.693998</v>
+        <v>0.701856</v>
       </c>
       <c r="C55" t="n">
-        <v>0.769606</v>
+        <v>0.7823099999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00056</v>
+        <v>1.01362</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.681851</v>
+        <v>0.683447</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755033</v>
+        <v>0.762258</v>
       </c>
       <c r="D56" t="n">
-        <v>0.982536</v>
+        <v>0.9976429999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.661386</v>
+        <v>0.665673</v>
       </c>
       <c r="C57" t="n">
-        <v>0.734281</v>
+        <v>0.741902</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9677559999999999</v>
+        <v>0.981715</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.64844</v>
+        <v>0.647678</v>
       </c>
       <c r="C58" t="n">
-        <v>0.716845</v>
+        <v>0.724792</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9551230000000001</v>
+        <v>0.967771</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.630571</v>
+        <v>0.634917</v>
       </c>
       <c r="C59" t="n">
-        <v>0.697277</v>
+        <v>0.705199</v>
       </c>
       <c r="D59" t="n">
-        <v>0.936686</v>
+        <v>0.950499</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.617113</v>
+        <v>0.620262</v>
       </c>
       <c r="C60" t="n">
-        <v>0.680754</v>
+        <v>0.68828</v>
       </c>
       <c r="D60" t="n">
-        <v>0.926515</v>
+        <v>0.940061</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.578912</v>
+        <v>0.606923</v>
       </c>
       <c r="C61" t="n">
-        <v>0.641383</v>
+        <v>0.67159</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9156300000000001</v>
+        <v>0.9293979999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.591531</v>
+        <v>0.600479</v>
       </c>
       <c r="C62" t="n">
-        <v>0.647079</v>
+        <v>0.657872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9053</v>
+        <v>0.919864</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.580475</v>
+        <v>0.56316</v>
       </c>
       <c r="C63" t="n">
-        <v>0.636751</v>
+        <v>0.62162</v>
       </c>
       <c r="D63" t="n">
-        <v>0.896446</v>
+        <v>0.910907</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.553999</v>
+        <v>0.579585</v>
       </c>
       <c r="C64" t="n">
-        <v>0.604372</v>
+        <v>0.631219</v>
       </c>
       <c r="D64" t="n">
-        <v>1.17864</v>
+        <v>1.19429</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.570634</v>
+        <v>0.577215</v>
       </c>
       <c r="C65" t="n">
-        <v>0.617016</v>
+        <v>0.62586</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1492</v>
+        <v>1.16505</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5706059999999999</v>
+        <v>0.575626</v>
       </c>
       <c r="C66" t="n">
-        <v>0.908936</v>
+        <v>1.01903</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12437</v>
+        <v>1.13709</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.806343</v>
+        <v>0.812145</v>
       </c>
       <c r="C67" t="n">
-        <v>0.886097</v>
+        <v>0.993924</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09287</v>
+        <v>1.1085</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.78827</v>
+        <v>0.7941319999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.847677</v>
+        <v>0.966141</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07482</v>
+        <v>1.08878</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.777968</v>
+        <v>0.785077</v>
       </c>
       <c r="C69" t="n">
-        <v>0.828281</v>
+        <v>0.92908</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05594</v>
+        <v>1.06824</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.76175</v>
+        <v>0.767808</v>
       </c>
       <c r="C70" t="n">
-        <v>0.805848</v>
+        <v>0.901919</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04018</v>
+        <v>1.05704</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.74412</v>
+        <v>0.749358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.783135</v>
+        <v>0.887741</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01051</v>
+        <v>1.0247</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.721432</v>
+        <v>0.722472</v>
       </c>
       <c r="C72" t="n">
-        <v>0.762306</v>
+        <v>0.8541840000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00045</v>
+        <v>1.01518</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.704631</v>
+        <v>0.717309</v>
       </c>
       <c r="C73" t="n">
-        <v>0.744341</v>
+        <v>0.828461</v>
       </c>
       <c r="D73" t="n">
-        <v>0.990794</v>
+        <v>1.00519</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.671496</v>
+        <v>0.703835</v>
       </c>
       <c r="C74" t="n">
-        <v>0.70113</v>
+        <v>0.807245</v>
       </c>
       <c r="D74" t="n">
-        <v>0.97766</v>
+        <v>0.990016</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.682883</v>
+        <v>0.647694</v>
       </c>
       <c r="C75" t="n">
-        <v>0.712256</v>
+        <v>0.757285</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.983923</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.672879</v>
+        <v>0.6570859999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697646</v>
+        <v>0.737765</v>
       </c>
       <c r="D76" t="n">
-        <v>0.966715</v>
+        <v>0.979504</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662652</v>
+        <v>0.671476</v>
       </c>
       <c r="C77" t="n">
-        <v>0.659102</v>
+        <v>0.751294</v>
       </c>
       <c r="D77" t="n">
-        <v>0.957827</v>
+        <v>0.969666</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.649776</v>
+        <v>0.654168</v>
       </c>
       <c r="C78" t="n">
-        <v>0.668179</v>
+        <v>0.737919</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42382</v>
+        <v>1.44115</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.639659</v>
+        <v>0.660924</v>
       </c>
       <c r="C79" t="n">
-        <v>0.66277</v>
+        <v>0.72679</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39285</v>
+        <v>1.41308</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644797</v>
+        <v>0.6484839999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.959828</v>
+        <v>1.04889</v>
       </c>
       <c r="D80" t="n">
-        <v>1.3675</v>
+        <v>1.38441</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.880485</v>
+        <v>0.900788</v>
       </c>
       <c r="C81" t="n">
-        <v>0.947964</v>
+        <v>1.01258</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34001</v>
+        <v>1.35004</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874864</v>
+        <v>0.882458</v>
       </c>
       <c r="C82" t="n">
-        <v>0.942153</v>
+        <v>0.992116</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31223</v>
+        <v>1.32907</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.86586</v>
+        <v>0.87586</v>
       </c>
       <c r="C83" t="n">
-        <v>0.923582</v>
+        <v>0.969463</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29515</v>
+        <v>1.30665</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8638670000000001</v>
+        <v>0.8659829999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.89242</v>
+        <v>0.965524</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27295</v>
+        <v>1.29366</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.857526</v>
+        <v>0.859447</v>
       </c>
       <c r="C85" t="n">
-        <v>0.886984</v>
+        <v>0.928431</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24389</v>
+        <v>1.25545</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.841903</v>
+        <v>0.8260420000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.851446</v>
+        <v>0.903697</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23455</v>
+        <v>1.24779</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8240420000000001</v>
+        <v>0.832668</v>
       </c>
       <c r="C87" t="n">
-        <v>0.830823</v>
+        <v>0.883898</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23026</v>
+        <v>1.24803</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.816838</v>
+        <v>0.828608</v>
       </c>
       <c r="C88" t="n">
-        <v>0.810935</v>
+        <v>0.863729</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21998</v>
+        <v>1.24232</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.805111</v>
+        <v>0.793023</v>
       </c>
       <c r="C89" t="n">
-        <v>0.767407</v>
+        <v>0.8162239999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21686</v>
+        <v>1.23997</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.793345</v>
+        <v>0.80718</v>
       </c>
       <c r="C90" t="n">
-        <v>0.786602</v>
+        <v>0.798024</v>
       </c>
       <c r="D90" t="n">
-        <v>1.22398</v>
+        <v>1.24866</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790231</v>
+        <v>0.791865</v>
       </c>
       <c r="C91" t="n">
-        <v>0.770205</v>
+        <v>0.807397</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22916</v>
+        <v>1.2481</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.776219</v>
+        <v>0.788351</v>
       </c>
       <c r="C92" t="n">
-        <v>0.751059</v>
+        <v>0.792696</v>
       </c>
       <c r="D92" t="n">
-        <v>2.24968</v>
+        <v>2.28317</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7725880000000001</v>
+        <v>0.785296</v>
       </c>
       <c r="C93" t="n">
-        <v>0.742808</v>
+        <v>0.776842</v>
       </c>
       <c r="D93" t="n">
-        <v>2.2453</v>
+        <v>2.27954</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.774095</v>
+        <v>0.769092</v>
       </c>
       <c r="C94" t="n">
-        <v>1.07784</v>
+        <v>1.10339</v>
       </c>
       <c r="D94" t="n">
-        <v>2.24391</v>
+        <v>2.26724</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02794</v>
+        <v>1.02621</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05783</v>
+        <v>1.09297</v>
       </c>
       <c r="D95" t="n">
-        <v>2.29545</v>
+        <v>2.26335</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02544</v>
+        <v>1.02886</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04046</v>
+        <v>1.07478</v>
       </c>
       <c r="D96" t="n">
-        <v>2.21548</v>
+        <v>2.30968</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01174</v>
+        <v>1.01885</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02138</v>
+        <v>1.03867</v>
       </c>
       <c r="D97" t="n">
-        <v>2.27887</v>
+        <v>2.44677</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.99525</v>
+        <v>1.00231</v>
       </c>
       <c r="C98" t="n">
-        <v>0.985217</v>
+        <v>1.01946</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12965</v>
+        <v>2.00746</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.984921</v>
+        <v>0.984304</v>
       </c>
       <c r="C99" t="n">
-        <v>0.965755</v>
+        <v>1.00219</v>
       </c>
       <c r="D99" t="n">
-        <v>1.97267</v>
+        <v>1.92143</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.96737</v>
+        <v>0.9769600000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.950807</v>
+        <v>0.983111</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72324</v>
+        <v>1.74143</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.966032</v>
+        <v>0.970575</v>
       </c>
       <c r="C101" t="n">
-        <v>0.936832</v>
+        <v>0.964514</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71701</v>
+        <v>1.74011</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.963631</v>
+        <v>0.928879</v>
       </c>
       <c r="C102" t="n">
-        <v>0.921602</v>
+        <v>0.911516</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71619</v>
+        <v>1.73676</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95502</v>
+        <v>0.956364</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905534</v>
+        <v>0.937358</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71573</v>
+        <v>1.73729</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.947004</v>
+        <v>0.952057</v>
       </c>
       <c r="C104" t="n">
-        <v>0.896356</v>
+        <v>0.921439</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72041</v>
+        <v>1.74079</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.94722</v>
+        <v>0.933271</v>
       </c>
       <c r="C105" t="n">
-        <v>0.882756</v>
+        <v>0.910141</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72211</v>
+        <v>1.73949</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.933696</v>
+        <v>0.942191</v>
       </c>
       <c r="C106" t="n">
-        <v>0.873387</v>
+        <v>0.896153</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72589</v>
+        <v>1.74511</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.922768</v>
+        <v>0.924249</v>
       </c>
       <c r="C107" t="n">
-        <v>0.831651</v>
+        <v>0.886246</v>
       </c>
       <c r="D107" t="n">
-        <v>3.02457</v>
+        <v>3.05568</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.910152</v>
+        <v>0.914358</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15512</v>
+        <v>1.18319</v>
       </c>
       <c r="D108" t="n">
-        <v>2.98303</v>
+        <v>3.0308</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.940419</v>
+        <v>0.934484</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17176</v>
+        <v>1.2065</v>
       </c>
       <c r="D109" t="n">
-        <v>3.16458</v>
+        <v>3.18165</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.16335</v>
+        <v>1.17492</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13305</v>
+        <v>1.16226</v>
       </c>
       <c r="D110" t="n">
-        <v>2.93511</v>
+        <v>2.79581</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17935</v>
+        <v>1.17641</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14528</v>
+        <v>1.1749</v>
       </c>
       <c r="D111" t="n">
-        <v>2.73493</v>
+        <v>2.38222</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16073</v>
+        <v>1.16523</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11069</v>
+        <v>1.1586</v>
       </c>
       <c r="D112" t="n">
-        <v>2.33244</v>
+        <v>2.54896</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13617</v>
+        <v>1.13227</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10144</v>
+        <v>1.12061</v>
       </c>
       <c r="D113" t="n">
-        <v>2.31384</v>
+        <v>2.34197</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12983</v>
+        <v>1.14385</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08586</v>
+        <v>1.10772</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29979</v>
+        <v>2.72775</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11983</v>
+        <v>1.11769</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07599</v>
+        <v>1.09139</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28121</v>
+        <v>2.51519</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11867</v>
+        <v>1.12482</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05962</v>
+        <v>1.08301</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26283</v>
+        <v>2.29415</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10698</v>
+        <v>1.11034</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05659</v>
+        <v>1.07286</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27114</v>
+        <v>2.28156</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10771</v>
+        <v>1.09842</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04693</v>
+        <v>1.06308</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25552</v>
+        <v>2.28237</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09896</v>
+        <v>1.09954</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03852</v>
+        <v>1.05475</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26732</v>
+        <v>2.28188</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08453</v>
+        <v>1.09301</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02936</v>
+        <v>1.01522</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25669</v>
+        <v>2.2863</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06349</v>
+        <v>1.09171</v>
       </c>
       <c r="C121" t="n">
-        <v>0.99625</v>
+        <v>1.03857</v>
       </c>
       <c r="D121" t="n">
-        <v>3.7263</v>
+        <v>3.74974</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09378</v>
+        <v>1.09136</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02007</v>
+        <v>1.00521</v>
       </c>
       <c r="D122" t="n">
-        <v>3.67636</v>
+        <v>3.709</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09391</v>
+        <v>1.10662</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3356</v>
+        <v>1.35468</v>
       </c>
       <c r="D123" t="n">
-        <v>4.05505</v>
+        <v>4.29308</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33003</v>
+        <v>1.35969</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30324</v>
+        <v>1.34335</v>
       </c>
       <c r="D124" t="n">
-        <v>2.94125</v>
+        <v>3.84371</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.35337</v>
+        <v>1.34897</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29466</v>
+        <v>1.33117</v>
       </c>
       <c r="D125" t="n">
-        <v>3.76164</v>
+        <v>3.37952</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33912</v>
+        <v>1.34065</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30661</v>
+        <v>1.30069</v>
       </c>
       <c r="D126" t="n">
-        <v>3.53353</v>
+        <v>3.34221</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31505</v>
+        <v>1.33594</v>
       </c>
       <c r="C127" t="n">
-        <v>1.27581</v>
+        <v>1.31793</v>
       </c>
       <c r="D127" t="n">
-        <v>3.0763</v>
+        <v>2.869</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.30202</v>
+        <v>1.29711</v>
       </c>
       <c r="C128" t="n">
-        <v>1.27018</v>
+        <v>1.28412</v>
       </c>
       <c r="D128" t="n">
-        <v>2.8272</v>
+        <v>2.85413</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30456</v>
+        <v>1.31428</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2654</v>
+        <v>1.30055</v>
       </c>
       <c r="D129" t="n">
-        <v>2.77281</v>
+        <v>2.81388</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28917</v>
+        <v>1.29691</v>
       </c>
       <c r="C130" t="n">
-        <v>1.25564</v>
+        <v>1.23368</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74636</v>
+        <v>2.79815</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29623</v>
+        <v>1.28145</v>
       </c>
       <c r="C131" t="n">
-        <v>1.25237</v>
+        <v>1.26009</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73499</v>
+        <v>2.77923</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.27835</v>
+        <v>1.29107</v>
       </c>
       <c r="C132" t="n">
-        <v>1.24745</v>
+        <v>1.25572</v>
       </c>
       <c r="D132" t="n">
-        <v>2.73991</v>
+        <v>2.76681</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29204</v>
+        <v>1.28817</v>
       </c>
       <c r="C133" t="n">
-        <v>1.23965</v>
+        <v>1.24883</v>
       </c>
       <c r="D133" t="n">
-        <v>2.72802</v>
+        <v>2.7643</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.26606</v>
+        <v>1.26313</v>
       </c>
       <c r="C134" t="n">
-        <v>1.20601</v>
+        <v>1.21806</v>
       </c>
       <c r="D134" t="n">
-        <v>2.7151</v>
+        <v>2.76619</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.27082</v>
+        <v>1.28011</v>
       </c>
       <c r="C135" t="n">
-        <v>1.19734</v>
+        <v>1.20673</v>
       </c>
       <c r="D135" t="n">
-        <v>4.27864</v>
+        <v>4.31719</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28202</v>
+        <v>1.27407</v>
       </c>
       <c r="C136" t="n">
-        <v>1.22718</v>
+        <v>1.21067</v>
       </c>
       <c r="D136" t="n">
-        <v>4.20992</v>
+        <v>4.26812</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.28208</v>
+        <v>1.28297</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51631</v>
+        <v>1.53388</v>
       </c>
       <c r="D137" t="n">
-        <v>4.16538</v>
+        <v>4.20614</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53534</v>
+        <v>1.543</v>
       </c>
       <c r="C138" t="n">
-        <v>1.53168</v>
+        <v>1.54778</v>
       </c>
       <c r="D138" t="n">
-        <v>4.34838</v>
+        <v>4.38766</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53867</v>
+        <v>1.52006</v>
       </c>
       <c r="C139" t="n">
-        <v>1.52173</v>
+        <v>1.53814</v>
       </c>
       <c r="D139" t="n">
-        <v>4.29921</v>
+        <v>4.10919</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51019</v>
+        <v>1.52523</v>
       </c>
       <c r="C140" t="n">
-        <v>1.50772</v>
+        <v>1.50627</v>
       </c>
       <c r="D140" t="n">
-        <v>3.7817</v>
+        <v>3.81712</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52033</v>
+        <v>1.51098</v>
       </c>
       <c r="C141" t="n">
-        <v>1.51675</v>
+        <v>1.49656</v>
       </c>
       <c r="D141" t="n">
-        <v>3.27406</v>
+        <v>3.30066</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5032</v>
+        <v>1.52338</v>
       </c>
       <c r="C142" t="n">
-        <v>1.49394</v>
+        <v>1.49995</v>
       </c>
       <c r="D142" t="n">
-        <v>3.22171</v>
+        <v>3.25536</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51038</v>
+        <v>1.49191</v>
       </c>
       <c r="C143" t="n">
-        <v>1.48965</v>
+        <v>1.48911</v>
       </c>
       <c r="D143" t="n">
-        <v>3.18718</v>
+        <v>3.22357</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574558</v>
+        <v>0.575612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629497</v>
+        <v>0.6294459999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82742</v>
+        <v>0.837564</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.499941</v>
+        <v>0.503253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5564480000000001</v>
+        <v>0.557064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.816532</v>
+        <v>0.829109</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.491471</v>
+        <v>0.490812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.543655</v>
+        <v>0.544112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.808256</v>
+        <v>0.819774</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.483587</v>
+        <v>0.484256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.532012</v>
+        <v>0.5328850000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.800959</v>
+        <v>0.811144</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.481301</v>
+        <v>0.483245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.521211</v>
+        <v>0.522442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.793598</v>
+        <v>0.80499</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.475678</v>
+        <v>0.475458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51379</v>
+        <v>0.514378</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905273</v>
+        <v>0.922544</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.475023</v>
+        <v>0.472974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5068550000000001</v>
+        <v>0.50728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.886799</v>
+        <v>0.904178</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.477824</v>
+        <v>0.475639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.766663</v>
+        <v>0.767761</v>
       </c>
       <c r="D9" t="n">
-        <v>0.870381</v>
+        <v>0.8873220000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67036</v>
+        <v>0.669143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.744008</v>
+        <v>0.744858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8563</v>
+        <v>0.872039</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6531439999999999</v>
+        <v>0.652879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.721538</v>
+        <v>0.722784</v>
       </c>
       <c r="D11" t="n">
-        <v>0.840291</v>
+        <v>0.854936</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634778</v>
+        <v>0.623981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.701227</v>
+        <v>0.7023740000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.824978</v>
+        <v>0.839845</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61699</v>
+        <v>0.60629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.681698</v>
+        <v>0.682182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.810847</v>
+        <v>0.826191</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.590913</v>
+        <v>0.5997169999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.662538</v>
+        <v>0.663477</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8049230000000001</v>
+        <v>0.816871</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582893</v>
+        <v>0.581105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.645672</v>
+        <v>0.646064</v>
       </c>
       <c r="D15" t="n">
-        <v>0.793017</v>
+        <v>0.805029</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.568869</v>
+        <v>0.570391</v>
       </c>
       <c r="C16" t="n">
-        <v>0.628878</v>
+        <v>0.629629</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781405</v>
+        <v>0.795778</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.557526</v>
+        <v>0.554607</v>
       </c>
       <c r="C17" t="n">
-        <v>0.613517</v>
+        <v>0.613793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.771289</v>
+        <v>0.786934</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545863</v>
+        <v>0.5432630000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.598925</v>
+        <v>0.598951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.762746</v>
+        <v>0.780704</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5318659999999999</v>
+        <v>0.537533</v>
       </c>
       <c r="C19" t="n">
-        <v>0.585295</v>
+        <v>0.5860379999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.752284</v>
+        <v>0.768236</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524339</v>
+        <v>0.524505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.574049</v>
+        <v>0.574026</v>
       </c>
       <c r="D20" t="n">
-        <v>0.746912</v>
+        <v>0.7629320000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5175920000000001</v>
+        <v>0.517255</v>
       </c>
       <c r="C21" t="n">
-        <v>0.564689</v>
+        <v>0.5647</v>
       </c>
       <c r="D21" t="n">
-        <v>0.984882</v>
+        <v>0.998273</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516002</v>
+        <v>0.516008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.558134</v>
+        <v>0.558538</v>
       </c>
       <c r="D22" t="n">
-        <v>0.962932</v>
+        <v>0.975557</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514533</v>
+        <v>0.514887</v>
       </c>
       <c r="C23" t="n">
-        <v>0.826102</v>
+        <v>0.826916</v>
       </c>
       <c r="D23" t="n">
-        <v>0.935436</v>
+        <v>0.951182</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720906</v>
+        <v>0.716581</v>
       </c>
       <c r="C24" t="n">
-        <v>0.80111</v>
+        <v>0.8016720000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.918028</v>
+        <v>0.933989</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699773</v>
+        <v>0.697356</v>
       </c>
       <c r="C25" t="n">
-        <v>0.77698</v>
+        <v>0.777708</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903627</v>
+        <v>0.916768</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675238</v>
+        <v>0.676776</v>
       </c>
       <c r="C26" t="n">
-        <v>0.754288</v>
+        <v>0.754451</v>
       </c>
       <c r="D26" t="n">
-        <v>0.886913</v>
+        <v>0.899181</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655626</v>
+        <v>0.65487</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7319909999999999</v>
+        <v>0.732883</v>
       </c>
       <c r="D27" t="n">
-        <v>0.871122</v>
+        <v>0.8850209999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639682</v>
+        <v>0.640674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.711244</v>
+        <v>0.712137</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8556550000000001</v>
+        <v>0.870998</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622403</v>
+        <v>0.62175</v>
       </c>
       <c r="C29" t="n">
-        <v>0.691819</v>
+        <v>0.692641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.846132</v>
+        <v>0.860313</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608572</v>
+        <v>0.576718</v>
       </c>
       <c r="C30" t="n">
-        <v>0.673249</v>
+        <v>0.649427</v>
       </c>
       <c r="D30" t="n">
-        <v>0.835757</v>
+        <v>0.851637</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592932</v>
+        <v>0.588778</v>
       </c>
       <c r="C31" t="n">
-        <v>0.655855</v>
+        <v>0.656575</v>
       </c>
       <c r="D31" t="n">
-        <v>0.82512</v>
+        <v>0.8432730000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578273</v>
+        <v>0.574939</v>
       </c>
       <c r="C32" t="n">
-        <v>0.617371</v>
+        <v>0.640161</v>
       </c>
       <c r="D32" t="n">
-        <v>0.817307</v>
+        <v>0.832104</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566194</v>
+        <v>0.565352</v>
       </c>
       <c r="C33" t="n">
-        <v>0.624591</v>
+        <v>0.62404</v>
       </c>
       <c r="D33" t="n">
-        <v>0.808962</v>
+        <v>0.823072</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.532512</v>
       </c>
       <c r="C34" t="n">
-        <v>0.610746</v>
+        <v>0.590599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.800246</v>
+        <v>0.816762</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525647</v>
+        <v>0.547127</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5797099999999999</v>
+        <v>0.598824</v>
       </c>
       <c r="D35" t="n">
-        <v>1.05195</v>
+        <v>1.06627</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.542254</v>
+        <v>0.523733</v>
       </c>
       <c r="C36" t="n">
-        <v>0.589377</v>
+        <v>0.571061</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02844</v>
+        <v>1.04737</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.517849</v>
+        <v>0.519477</v>
       </c>
       <c r="C37" t="n">
-        <v>0.842533</v>
+        <v>0.8448600000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00515</v>
+        <v>1.02713</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.72998</v>
+        <v>0.748602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.817528</v>
+        <v>0.836345</v>
       </c>
       <c r="D38" t="n">
-        <v>0.985438</v>
+        <v>1.00707</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.710627</v>
+        <v>0.70619</v>
       </c>
       <c r="C39" t="n">
-        <v>0.793577</v>
+        <v>0.795162</v>
       </c>
       <c r="D39" t="n">
-        <v>0.975349</v>
+        <v>0.987108</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.68668</v>
+        <v>0.705496</v>
       </c>
       <c r="C40" t="n">
-        <v>0.769545</v>
+        <v>0.787155</v>
       </c>
       <c r="D40" t="n">
-        <v>0.956619</v>
+        <v>0.968536</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6713980000000001</v>
+        <v>0.667218</v>
       </c>
       <c r="C41" t="n">
-        <v>0.748573</v>
+        <v>0.749966</v>
       </c>
       <c r="D41" t="n">
-        <v>0.939701</v>
+        <v>0.951877</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.649686</v>
+        <v>0.650065</v>
       </c>
       <c r="C42" t="n">
-        <v>0.727056</v>
+        <v>0.728386</v>
       </c>
       <c r="D42" t="n">
-        <v>0.923583</v>
+        <v>0.9365329999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.633584</v>
+        <v>0.634262</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7076440000000001</v>
+        <v>0.709497</v>
       </c>
       <c r="D43" t="n">
-        <v>0.910605</v>
+        <v>0.922091</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.617819</v>
+        <v>0.619705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.688725</v>
+        <v>0.688837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.898174</v>
+        <v>0.91174</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.605602</v>
+        <v>0.604783</v>
       </c>
       <c r="C45" t="n">
-        <v>0.671504</v>
+        <v>0.6476</v>
       </c>
       <c r="D45" t="n">
-        <v>0.889377</v>
+        <v>0.9022520000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590652</v>
+        <v>0.589486</v>
       </c>
       <c r="C46" t="n">
-        <v>0.654878</v>
+        <v>0.653948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.877614</v>
+        <v>0.890981</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.577946</v>
+        <v>0.578946</v>
       </c>
       <c r="C47" t="n">
-        <v>0.639305</v>
+        <v>0.639107</v>
       </c>
       <c r="D47" t="n">
-        <v>0.869857</v>
+        <v>0.888397</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5707140000000001</v>
+        <v>0.547134</v>
       </c>
       <c r="C48" t="n">
-        <v>0.62527</v>
+        <v>0.604608</v>
       </c>
       <c r="D48" t="n">
-        <v>0.860634</v>
+        <v>0.8805730000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5404409999999999</v>
+        <v>0.559698</v>
       </c>
       <c r="C49" t="n">
-        <v>0.594607</v>
+        <v>0.613976</v>
       </c>
       <c r="D49" t="n">
-        <v>0.85845</v>
+        <v>0.869445</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5535910000000001</v>
+        <v>0.551499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.602695</v>
+        <v>0.601193</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10339</v>
+        <v>1.11485</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.549264</v>
+        <v>0.550463</v>
       </c>
       <c r="C51" t="n">
-        <v>0.878969</v>
+        <v>0.889973</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07919</v>
+        <v>1.09138</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.529864</v>
+        <v>0.549557</v>
       </c>
       <c r="C52" t="n">
-        <v>0.839607</v>
+        <v>0.864161</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05852</v>
+        <v>1.06981</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7459519999999999</v>
+        <v>0.745756</v>
       </c>
       <c r="C53" t="n">
-        <v>0.827024</v>
+        <v>0.827593</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03646</v>
+        <v>1.04828</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.72561</v>
+        <v>0.723641</v>
       </c>
       <c r="C54" t="n">
-        <v>0.792956</v>
+        <v>0.804772</v>
       </c>
       <c r="D54" t="n">
-        <v>1.01854</v>
+        <v>1.03041</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.693998</v>
+        <v>0.702427</v>
       </c>
       <c r="C55" t="n">
-        <v>0.769606</v>
+        <v>0.780699</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00056</v>
+        <v>1.01212</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.681851</v>
+        <v>0.697078</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755033</v>
+        <v>0.760404</v>
       </c>
       <c r="D56" t="n">
-        <v>0.982536</v>
+        <v>0.995575</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.661386</v>
+        <v>0.672502</v>
       </c>
       <c r="C57" t="n">
-        <v>0.734281</v>
+        <v>0.740669</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9677559999999999</v>
+        <v>0.9796820000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.64844</v>
+        <v>0.651541</v>
       </c>
       <c r="C58" t="n">
-        <v>0.716845</v>
+        <v>0.721184</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9551230000000001</v>
+        <v>0.96622</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.630571</v>
+        <v>0.637123</v>
       </c>
       <c r="C59" t="n">
-        <v>0.697277</v>
+        <v>0.703149</v>
       </c>
       <c r="D59" t="n">
-        <v>0.936686</v>
+        <v>0.9479070000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.617113</v>
+        <v>0.623919</v>
       </c>
       <c r="C60" t="n">
-        <v>0.680754</v>
+        <v>0.685867</v>
       </c>
       <c r="D60" t="n">
-        <v>0.926515</v>
+        <v>0.937876</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.578912</v>
+        <v>0.610187</v>
       </c>
       <c r="C61" t="n">
-        <v>0.641383</v>
+        <v>0.671265</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9156300000000001</v>
+        <v>0.927518</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.591531</v>
+        <v>0.602495</v>
       </c>
       <c r="C62" t="n">
-        <v>0.647079</v>
+        <v>0.655527</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9053</v>
+        <v>0.918142</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.580475</v>
+        <v>0.565865</v>
       </c>
       <c r="C63" t="n">
-        <v>0.636751</v>
+        <v>0.617525</v>
       </c>
       <c r="D63" t="n">
-        <v>0.896446</v>
+        <v>0.9090859999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.553999</v>
+        <v>0.583892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.604372</v>
+        <v>0.631253</v>
       </c>
       <c r="D64" t="n">
-        <v>1.17864</v>
+        <v>1.19341</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.570634</v>
+        <v>0.576916</v>
       </c>
       <c r="C65" t="n">
-        <v>0.617016</v>
+        <v>0.6243030000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1492</v>
+        <v>1.16668</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5706059999999999</v>
+        <v>0.578282</v>
       </c>
       <c r="C66" t="n">
-        <v>0.908936</v>
+        <v>0.9132980000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12437</v>
+        <v>1.13946</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.806343</v>
+        <v>0.827617</v>
       </c>
       <c r="C67" t="n">
-        <v>0.886097</v>
+        <v>0.9015919999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09287</v>
+        <v>1.10666</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.78827</v>
+        <v>0.805707</v>
       </c>
       <c r="C68" t="n">
-        <v>0.847677</v>
+        <v>0.878261</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07482</v>
+        <v>1.09112</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.777968</v>
+        <v>0.801046</v>
       </c>
       <c r="C69" t="n">
-        <v>0.828281</v>
+        <v>0.846823</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05594</v>
+        <v>1.06978</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.76175</v>
+        <v>0.78515</v>
       </c>
       <c r="C70" t="n">
-        <v>0.805848</v>
+        <v>0.826715</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04018</v>
+        <v>1.05892</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.74412</v>
+        <v>0.758808</v>
       </c>
       <c r="C71" t="n">
-        <v>0.783135</v>
+        <v>0.812669</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01051</v>
+        <v>1.02338</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.721432</v>
+        <v>0.73769</v>
       </c>
       <c r="C72" t="n">
-        <v>0.762306</v>
+        <v>0.784368</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00045</v>
+        <v>1.01371</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.704631</v>
+        <v>0.732947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.744341</v>
+        <v>0.764306</v>
       </c>
       <c r="D73" t="n">
-        <v>0.990794</v>
+        <v>1.00405</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.671496</v>
+        <v>0.719901</v>
       </c>
       <c r="C74" t="n">
-        <v>0.70113</v>
+        <v>0.747999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.97766</v>
+        <v>0.989197</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.682883</v>
+        <v>0.659999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.712256</v>
+        <v>0.698663</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.982262</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.672879</v>
+        <v>0.6725950000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697646</v>
+        <v>0.684075</v>
       </c>
       <c r="D76" t="n">
-        <v>0.966715</v>
+        <v>0.978824</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662652</v>
+        <v>0.684108</v>
       </c>
       <c r="C77" t="n">
-        <v>0.659102</v>
+        <v>0.700012</v>
       </c>
       <c r="D77" t="n">
-        <v>0.957827</v>
+        <v>0.971575</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.649776</v>
+        <v>0.668475</v>
       </c>
       <c r="C78" t="n">
-        <v>0.668179</v>
+        <v>0.687438</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42382</v>
+        <v>1.44964</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.639659</v>
+        <v>0.670629</v>
       </c>
       <c r="C79" t="n">
-        <v>0.66277</v>
+        <v>0.6757030000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39285</v>
+        <v>1.4268</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644797</v>
+        <v>0.655644</v>
       </c>
       <c r="C80" t="n">
-        <v>0.959828</v>
+        <v>0.996839</v>
       </c>
       <c r="D80" t="n">
-        <v>1.3675</v>
+        <v>1.39717</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.880485</v>
+        <v>0.917991</v>
       </c>
       <c r="C81" t="n">
-        <v>0.947964</v>
+        <v>0.964466</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34001</v>
+        <v>1.35676</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874864</v>
+        <v>0.896103</v>
       </c>
       <c r="C82" t="n">
-        <v>0.942153</v>
+        <v>0.948416</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31223</v>
+        <v>1.33567</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.86586</v>
+        <v>0.89231</v>
       </c>
       <c r="C83" t="n">
-        <v>0.923582</v>
+        <v>0.930819</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29515</v>
+        <v>1.3172</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8638670000000001</v>
+        <v>0.884559</v>
       </c>
       <c r="C84" t="n">
-        <v>0.89242</v>
+        <v>0.926266</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27295</v>
+        <v>1.30765</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.857526</v>
+        <v>0.874245</v>
       </c>
       <c r="C85" t="n">
-        <v>0.886984</v>
+        <v>0.8926770000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24389</v>
+        <v>1.26692</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.841903</v>
+        <v>0.845151</v>
       </c>
       <c r="C86" t="n">
-        <v>0.851446</v>
+        <v>0.872738</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23455</v>
+        <v>1.25431</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8240420000000001</v>
+        <v>0.850554</v>
       </c>
       <c r="C87" t="n">
-        <v>0.830823</v>
+        <v>0.85242</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23026</v>
+        <v>1.25452</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.816838</v>
+        <v>0.843461</v>
       </c>
       <c r="C88" t="n">
-        <v>0.810935</v>
+        <v>0.833252</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21998</v>
+        <v>1.24564</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.805111</v>
+        <v>0.800823</v>
       </c>
       <c r="C89" t="n">
-        <v>0.767407</v>
+        <v>0.776979</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21686</v>
+        <v>1.24505</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.793345</v>
+        <v>0.820766</v>
       </c>
       <c r="C90" t="n">
-        <v>0.786602</v>
+        <v>0.7620749999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>1.22398</v>
+        <v>1.25683</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790231</v>
+        <v>0.805188</v>
       </c>
       <c r="C91" t="n">
-        <v>0.770205</v>
+        <v>0.781212</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22916</v>
+        <v>1.25162</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.776219</v>
+        <v>0.799326</v>
       </c>
       <c r="C92" t="n">
-        <v>0.751059</v>
+        <v>0.7665419999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>2.24968</v>
+        <v>2.32055</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7725880000000001</v>
+        <v>0.800617</v>
       </c>
       <c r="C93" t="n">
-        <v>0.742808</v>
+        <v>0.75513</v>
       </c>
       <c r="D93" t="n">
-        <v>2.2453</v>
+        <v>2.31435</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.774095</v>
+        <v>0.783013</v>
       </c>
       <c r="C94" t="n">
-        <v>1.07784</v>
+        <v>1.08454</v>
       </c>
       <c r="D94" t="n">
-        <v>2.24391</v>
+        <v>2.30294</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02794</v>
+        <v>1.04903</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05783</v>
+        <v>1.07564</v>
       </c>
       <c r="D95" t="n">
-        <v>2.29545</v>
+        <v>2.29856</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02544</v>
+        <v>1.05154</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04046</v>
+        <v>1.06077</v>
       </c>
       <c r="D96" t="n">
-        <v>2.21548</v>
+        <v>2.34779</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01174</v>
+        <v>1.04244</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02138</v>
+        <v>1.01796</v>
       </c>
       <c r="D97" t="n">
-        <v>2.27887</v>
+        <v>2.49208</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.99525</v>
+        <v>1.02054</v>
       </c>
       <c r="C98" t="n">
-        <v>0.985217</v>
+        <v>1.00222</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12965</v>
+        <v>2.03408</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.984921</v>
+        <v>1.00294</v>
       </c>
       <c r="C99" t="n">
-        <v>0.965755</v>
+        <v>0.984981</v>
       </c>
       <c r="D99" t="n">
-        <v>1.97267</v>
+        <v>1.94356</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.96737</v>
+        <v>1.0116</v>
       </c>
       <c r="C100" t="n">
-        <v>0.950807</v>
+        <v>0.989865</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72324</v>
+        <v>1.93639</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.966032</v>
+        <v>0.98827</v>
       </c>
       <c r="C101" t="n">
-        <v>0.936832</v>
+        <v>0.953217</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71701</v>
+        <v>1.75362</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.963631</v>
+        <v>0.988891</v>
       </c>
       <c r="C102" t="n">
-        <v>0.921602</v>
+        <v>0.939107</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71619</v>
+        <v>1.74917</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95502</v>
+        <v>0.97814</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905534</v>
+        <v>0.924906</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71573</v>
+        <v>1.74665</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.947004</v>
+        <v>0.97516</v>
       </c>
       <c r="C104" t="n">
-        <v>0.896356</v>
+        <v>0.912288</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72041</v>
+        <v>1.75455</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.94722</v>
+        <v>0.964499</v>
       </c>
       <c r="C105" t="n">
-        <v>0.882756</v>
+        <v>0.899671</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72211</v>
+        <v>1.74803</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.933696</v>
+        <v>0.964038</v>
       </c>
       <c r="C106" t="n">
-        <v>0.873387</v>
+        <v>0.888288</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72589</v>
+        <v>1.75721</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.922768</v>
+        <v>0.947038</v>
       </c>
       <c r="C107" t="n">
-        <v>0.831651</v>
+        <v>0.847465</v>
       </c>
       <c r="D107" t="n">
-        <v>3.02457</v>
+        <v>3.45676</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.910152</v>
+        <v>0.958944</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15512</v>
+        <v>1.20905</v>
       </c>
       <c r="D108" t="n">
-        <v>2.98303</v>
+        <v>3.05943</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.940419</v>
+        <v>0.961087</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17176</v>
+        <v>1.20268</v>
       </c>
       <c r="D109" t="n">
-        <v>3.16458</v>
+        <v>3.418</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.16335</v>
+        <v>1.20603</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13305</v>
+        <v>1.16022</v>
       </c>
       <c r="D110" t="n">
-        <v>2.93511</v>
+        <v>2.62237</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17935</v>
+        <v>1.21458</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14528</v>
+        <v>1.14759</v>
       </c>
       <c r="D111" t="n">
-        <v>2.73493</v>
+        <v>2.39143</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16073</v>
+        <v>1.1995</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11069</v>
+        <v>1.13481</v>
       </c>
       <c r="D112" t="n">
-        <v>2.33244</v>
+        <v>2.76912</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13617</v>
+        <v>1.17414</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10144</v>
+        <v>1.12252</v>
       </c>
       <c r="D113" t="n">
-        <v>2.31384</v>
+        <v>2.35274</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12983</v>
+        <v>1.18034</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08586</v>
+        <v>1.13428</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29979</v>
+        <v>2.32234</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11983</v>
+        <v>1.16151</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07599</v>
+        <v>1.09899</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28121</v>
+        <v>2.32567</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11867</v>
+        <v>1.15049</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05962</v>
+        <v>1.08921</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26283</v>
+        <v>2.31609</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10698</v>
+        <v>1.14664</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05659</v>
+        <v>1.08015</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27114</v>
+        <v>2.29347</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10771</v>
+        <v>1.13079</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04693</v>
+        <v>1.03416</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25552</v>
+        <v>2.29222</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09896</v>
+        <v>1.13192</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03852</v>
+        <v>1.06439</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26732</v>
+        <v>2.29845</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08453</v>
+        <v>1.12815</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02936</v>
+        <v>1.02282</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25669</v>
+        <v>2.29714</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06349</v>
+        <v>1.08649</v>
       </c>
       <c r="C121" t="n">
-        <v>0.99625</v>
+        <v>1.0176</v>
       </c>
       <c r="D121" t="n">
-        <v>3.7263</v>
+        <v>3.78862</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09378</v>
+        <v>1.1077</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02007</v>
+        <v>1.01271</v>
       </c>
       <c r="D122" t="n">
-        <v>3.67636</v>
+        <v>3.74954</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09391</v>
+        <v>1.11446</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3356</v>
+        <v>1.34466</v>
       </c>
       <c r="D123" t="n">
-        <v>4.05505</v>
+        <v>3.93263</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33003</v>
+        <v>1.40634</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30324</v>
+        <v>1.36422</v>
       </c>
       <c r="D124" t="n">
-        <v>2.94125</v>
+        <v>3.44236</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.35337</v>
+        <v>1.36568</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29466</v>
+        <v>1.32647</v>
       </c>
       <c r="D125" t="n">
-        <v>3.76164</v>
+        <v>3.41085</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33912</v>
+        <v>1.36055</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30661</v>
+        <v>1.31831</v>
       </c>
       <c r="D126" t="n">
-        <v>3.53353</v>
+        <v>2.92541</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31505</v>
+        <v>1.36075</v>
       </c>
       <c r="C127" t="n">
-        <v>1.27581</v>
+        <v>1.31171</v>
       </c>
       <c r="D127" t="n">
-        <v>3.0763</v>
+        <v>2.89864</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.30202</v>
+        <v>1.33938</v>
       </c>
       <c r="C128" t="n">
-        <v>1.27018</v>
+        <v>1.30352</v>
       </c>
       <c r="D128" t="n">
-        <v>2.8272</v>
+        <v>2.87291</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30456</v>
+        <v>1.34099</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2654</v>
+        <v>1.2977</v>
       </c>
       <c r="D129" t="n">
-        <v>2.77281</v>
+        <v>2.837</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28917</v>
+        <v>1.32354</v>
       </c>
       <c r="C130" t="n">
-        <v>1.25564</v>
+        <v>1.29355</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74636</v>
+        <v>2.82048</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29623</v>
+        <v>1.33293</v>
       </c>
       <c r="C131" t="n">
-        <v>1.25237</v>
+        <v>1.24953</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73499</v>
+        <v>2.81254</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.27835</v>
+        <v>1.32392</v>
       </c>
       <c r="C132" t="n">
-        <v>1.24745</v>
+        <v>1.28256</v>
       </c>
       <c r="D132" t="n">
-        <v>2.73991</v>
+        <v>2.8035</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29204</v>
+        <v>1.32785</v>
       </c>
       <c r="C133" t="n">
-        <v>1.23965</v>
+        <v>1.27776</v>
       </c>
       <c r="D133" t="n">
-        <v>2.72802</v>
+        <v>2.79148</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.26606</v>
+        <v>1.31009</v>
       </c>
       <c r="C134" t="n">
-        <v>1.20601</v>
+        <v>1.24135</v>
       </c>
       <c r="D134" t="n">
-        <v>2.7151</v>
+        <v>2.79141</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.27082</v>
+        <v>1.31904</v>
       </c>
       <c r="C135" t="n">
-        <v>1.19734</v>
+        <v>1.23685</v>
       </c>
       <c r="D135" t="n">
-        <v>4.27864</v>
+        <v>4.62339</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28202</v>
+        <v>1.31685</v>
       </c>
       <c r="C136" t="n">
-        <v>1.22718</v>
+        <v>1.26569</v>
       </c>
       <c r="D136" t="n">
-        <v>4.20992</v>
+        <v>4.32683</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.28208</v>
+        <v>1.32159</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51631</v>
+        <v>1.55855</v>
       </c>
       <c r="D137" t="n">
-        <v>4.16538</v>
+        <v>4.52206</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53534</v>
+        <v>1.59241</v>
       </c>
       <c r="C138" t="n">
-        <v>1.53168</v>
+        <v>1.58149</v>
       </c>
       <c r="D138" t="n">
-        <v>4.34838</v>
+        <v>4.46917</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53867</v>
+        <v>1.55506</v>
       </c>
       <c r="C139" t="n">
-        <v>1.52173</v>
+        <v>1.54396</v>
       </c>
       <c r="D139" t="n">
-        <v>4.29921</v>
+        <v>4.11376</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51019</v>
+        <v>1.51168</v>
       </c>
       <c r="C140" t="n">
-        <v>1.50772</v>
+        <v>1.4882</v>
       </c>
       <c r="D140" t="n">
-        <v>3.7817</v>
+        <v>4.00094</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52033</v>
+        <v>1.50345</v>
       </c>
       <c r="C141" t="n">
-        <v>1.51675</v>
+        <v>1.48044</v>
       </c>
       <c r="D141" t="n">
-        <v>3.27406</v>
+        <v>3.26488</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5032</v>
+        <v>1.49747</v>
       </c>
       <c r="C142" t="n">
-        <v>1.49394</v>
+        <v>1.47342</v>
       </c>
       <c r="D142" t="n">
-        <v>3.22171</v>
+        <v>3.22025</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51038</v>
+        <v>1.48345</v>
       </c>
       <c r="C143" t="n">
-        <v>1.48965</v>
+        <v>1.4655</v>
       </c>
       <c r="D143" t="n">
-        <v>3.18718</v>
+        <v>3.17175</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574558</v>
+        <v>0.574942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629497</v>
+        <v>0.624613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82742</v>
+        <v>0.838139</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.499941</v>
+        <v>0.500812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5564480000000001</v>
+        <v>0.551878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.816532</v>
+        <v>0.829519</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.491471</v>
+        <v>0.491995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.543655</v>
+        <v>0.538763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.808256</v>
+        <v>0.820678</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.483587</v>
+        <v>0.484188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.532012</v>
+        <v>0.527786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.800959</v>
+        <v>0.812516</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.481301</v>
+        <v>0.476964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.521211</v>
+        <v>0.517803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.793598</v>
+        <v>0.806469</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.475678</v>
+        <v>0.474611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51379</v>
+        <v>0.509966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905273</v>
+        <v>0.919768</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.475023</v>
+        <v>0.476269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5068550000000001</v>
+        <v>0.505189</v>
       </c>
       <c r="D8" t="n">
-        <v>0.886799</v>
+        <v>0.904562</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.477824</v>
+        <v>0.476898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.766663</v>
+        <v>0.760625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.870381</v>
+        <v>0.887266</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67036</v>
+        <v>0.668431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.744008</v>
+        <v>0.737863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8563</v>
+        <v>0.872444</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6531439999999999</v>
+        <v>0.651831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.721538</v>
+        <v>0.71595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.840291</v>
+        <v>0.856503</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634778</v>
+        <v>0.63362</v>
       </c>
       <c r="C12" t="n">
-        <v>0.701227</v>
+        <v>0.695196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.824978</v>
+        <v>0.841664</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61699</v>
+        <v>0.616104</v>
       </c>
       <c r="C13" t="n">
-        <v>0.681698</v>
+        <v>0.675608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.810847</v>
+        <v>0.830025</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.590913</v>
+        <v>0.599621</v>
       </c>
       <c r="C14" t="n">
-        <v>0.662538</v>
+        <v>0.657521</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8049230000000001</v>
+        <v>0.818277</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582893</v>
+        <v>0.5808489999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.645672</v>
+        <v>0.640517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.793017</v>
+        <v>0.80787</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.568869</v>
+        <v>0.570246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.628878</v>
+        <v>0.623668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781405</v>
+        <v>0.796919</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.557526</v>
+        <v>0.556637</v>
       </c>
       <c r="C17" t="n">
-        <v>0.613517</v>
+        <v>0.608777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.771289</v>
+        <v>0.785767</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545863</v>
+        <v>0.543822</v>
       </c>
       <c r="C18" t="n">
-        <v>0.598925</v>
+        <v>0.594514</v>
       </c>
       <c r="D18" t="n">
-        <v>0.762746</v>
+        <v>0.777859</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5318659999999999</v>
+        <v>0.533534</v>
       </c>
       <c r="C19" t="n">
-        <v>0.585295</v>
+        <v>0.581576</v>
       </c>
       <c r="D19" t="n">
-        <v>0.752284</v>
+        <v>0.768188</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524339</v>
+        <v>0.524346</v>
       </c>
       <c r="C20" t="n">
-        <v>0.574049</v>
+        <v>0.56973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.746912</v>
+        <v>0.761124</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5175920000000001</v>
+        <v>0.517579</v>
       </c>
       <c r="C21" t="n">
-        <v>0.564689</v>
+        <v>0.560341</v>
       </c>
       <c r="D21" t="n">
-        <v>0.984882</v>
+        <v>0.999293</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516002</v>
+        <v>0.515589</v>
       </c>
       <c r="C22" t="n">
-        <v>0.558134</v>
+        <v>0.553297</v>
       </c>
       <c r="D22" t="n">
-        <v>0.962932</v>
+        <v>0.977978</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514533</v>
+        <v>0.5144030000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.826102</v>
+        <v>0.817188</v>
       </c>
       <c r="D23" t="n">
-        <v>0.935436</v>
+        <v>0.953183</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720906</v>
+        <v>0.715554</v>
       </c>
       <c r="C24" t="n">
-        <v>0.80111</v>
+        <v>0.792305</v>
       </c>
       <c r="D24" t="n">
-        <v>0.918028</v>
+        <v>0.935006</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699773</v>
+        <v>0.697418</v>
       </c>
       <c r="C25" t="n">
-        <v>0.77698</v>
+        <v>0.768774</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903627</v>
+        <v>0.918199</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675238</v>
+        <v>0.675754</v>
       </c>
       <c r="C26" t="n">
-        <v>0.754288</v>
+        <v>0.746288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.886913</v>
+        <v>0.899855</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655626</v>
+        <v>0.655307</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7319909999999999</v>
+        <v>0.724438</v>
       </c>
       <c r="D27" t="n">
-        <v>0.871122</v>
+        <v>0.884926</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639682</v>
+        <v>0.639957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.711244</v>
+        <v>0.703603</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8556550000000001</v>
+        <v>0.871899</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622403</v>
+        <v>0.6229980000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.691819</v>
+        <v>0.683876</v>
       </c>
       <c r="D29" t="n">
-        <v>0.846132</v>
+        <v>0.863307</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608572</v>
+        <v>0.604694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.673249</v>
+        <v>0.665934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.835757</v>
+        <v>0.8528289999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592932</v>
+        <v>0.591481</v>
       </c>
       <c r="C31" t="n">
-        <v>0.655855</v>
+        <v>0.64859</v>
       </c>
       <c r="D31" t="n">
-        <v>0.82512</v>
+        <v>0.841763</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578273</v>
+        <v>0.57912</v>
       </c>
       <c r="C32" t="n">
-        <v>0.617371</v>
+        <v>0.6324650000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.817307</v>
+        <v>0.834502</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566194</v>
+        <v>0.543798</v>
       </c>
       <c r="C33" t="n">
-        <v>0.624591</v>
+        <v>0.59559</v>
       </c>
       <c r="D33" t="n">
-        <v>0.808962</v>
+        <v>0.825027</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.555874</v>
       </c>
       <c r="C34" t="n">
-        <v>0.610746</v>
+        <v>0.604058</v>
       </c>
       <c r="D34" t="n">
-        <v>0.800246</v>
+        <v>0.818369</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525647</v>
+        <v>0.5483479999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5797099999999999</v>
+        <v>0.591955</v>
       </c>
       <c r="D35" t="n">
-        <v>1.05195</v>
+        <v>1.0695</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.542254</v>
+        <v>0.524102</v>
       </c>
       <c r="C36" t="n">
-        <v>0.589377</v>
+        <v>0.5639729999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02844</v>
+        <v>1.0503</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.517849</v>
+        <v>0.519972</v>
       </c>
       <c r="C37" t="n">
-        <v>0.842533</v>
+        <v>0.83203</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00515</v>
+        <v>1.02895</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.72998</v>
+        <v>0.7485270000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.817528</v>
+        <v>0.824518</v>
       </c>
       <c r="D38" t="n">
-        <v>0.985438</v>
+        <v>1.01006</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.710627</v>
+        <v>0.707695</v>
       </c>
       <c r="C39" t="n">
-        <v>0.793577</v>
+        <v>0.783687</v>
       </c>
       <c r="D39" t="n">
-        <v>0.975349</v>
+        <v>0.987625</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.68668</v>
+        <v>0.705871</v>
       </c>
       <c r="C40" t="n">
-        <v>0.769545</v>
+        <v>0.775518</v>
       </c>
       <c r="D40" t="n">
-        <v>0.956619</v>
+        <v>0.970329</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6713980000000001</v>
+        <v>0.669423</v>
       </c>
       <c r="C41" t="n">
-        <v>0.748573</v>
+        <v>0.73873</v>
       </c>
       <c r="D41" t="n">
-        <v>0.939701</v>
+        <v>0.953448</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.649686</v>
+        <v>0.650841</v>
       </c>
       <c r="C42" t="n">
-        <v>0.727056</v>
+        <v>0.718376</v>
       </c>
       <c r="D42" t="n">
-        <v>0.923583</v>
+        <v>0.938103</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.633584</v>
+        <v>0.632881</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7076440000000001</v>
+        <v>0.69802</v>
       </c>
       <c r="D43" t="n">
-        <v>0.910605</v>
+        <v>0.924173</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.617819</v>
+        <v>0.618246</v>
       </c>
       <c r="C44" t="n">
-        <v>0.688725</v>
+        <v>0.679332</v>
       </c>
       <c r="D44" t="n">
-        <v>0.898174</v>
+        <v>0.913059</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.605602</v>
+        <v>0.603458</v>
       </c>
       <c r="C45" t="n">
-        <v>0.671504</v>
+        <v>0.638625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.889377</v>
+        <v>0.902766</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590652</v>
+        <v>0.589622</v>
       </c>
       <c r="C46" t="n">
-        <v>0.654878</v>
+        <v>0.6459279999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.877614</v>
+        <v>0.8923720000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.577946</v>
+        <v>0.579233</v>
       </c>
       <c r="C47" t="n">
-        <v>0.639305</v>
+        <v>0.630339</v>
       </c>
       <c r="D47" t="n">
-        <v>0.869857</v>
+        <v>0.889644</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5707140000000001</v>
+        <v>0.548987</v>
       </c>
       <c r="C48" t="n">
-        <v>0.62527</v>
+        <v>0.595923</v>
       </c>
       <c r="D48" t="n">
-        <v>0.860634</v>
+        <v>0.881402</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5404409999999999</v>
+        <v>0.55905</v>
       </c>
       <c r="C49" t="n">
-        <v>0.594607</v>
+        <v>0.603935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.85845</v>
+        <v>0.871184</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5535910000000001</v>
+        <v>0.5523940000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.602695</v>
+        <v>0.5951880000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10339</v>
+        <v>1.1169</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.549264</v>
+        <v>0.549082</v>
       </c>
       <c r="C51" t="n">
-        <v>0.878969</v>
+        <v>0.874228</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07919</v>
+        <v>1.09406</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.529864</v>
+        <v>0.548369</v>
       </c>
       <c r="C52" t="n">
-        <v>0.839607</v>
+        <v>0.848286</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05852</v>
+        <v>1.07183</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7459519999999999</v>
+        <v>0.753966</v>
       </c>
       <c r="C53" t="n">
-        <v>0.827024</v>
+        <v>0.811771</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03646</v>
+        <v>1.04954</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.72561</v>
+        <v>0.7230760000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.792956</v>
+        <v>0.789073</v>
       </c>
       <c r="D54" t="n">
-        <v>1.01854</v>
+        <v>1.03255</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.693998</v>
+        <v>0.7014590000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.769606</v>
+        <v>0.766263</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00056</v>
+        <v>1.01346</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.681851</v>
+        <v>0.6832009999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755033</v>
+        <v>0.7453149999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.982536</v>
+        <v>0.9967819999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.661386</v>
+        <v>0.6647110000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.734281</v>
+        <v>0.725876</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9677559999999999</v>
+        <v>0.981202</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.64844</v>
+        <v>0.653792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.716845</v>
+        <v>0.7078</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9551230000000001</v>
+        <v>0.9686669999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.630571</v>
+        <v>0.638496</v>
       </c>
       <c r="C59" t="n">
-        <v>0.697277</v>
+        <v>0.68991</v>
       </c>
       <c r="D59" t="n">
-        <v>0.936686</v>
+        <v>0.947677</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.617113</v>
+        <v>0.592777</v>
       </c>
       <c r="C60" t="n">
-        <v>0.680754</v>
+        <v>0.647486</v>
       </c>
       <c r="D60" t="n">
-        <v>0.926515</v>
+        <v>0.938368</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.578912</v>
+        <v>0.577194</v>
       </c>
       <c r="C61" t="n">
-        <v>0.641383</v>
+        <v>0.632256</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9156300000000001</v>
+        <v>0.9280040000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.591531</v>
+        <v>0.600202</v>
       </c>
       <c r="C62" t="n">
-        <v>0.647079</v>
+        <v>0.64378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9053</v>
+        <v>0.918651</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.580475</v>
+        <v>0.563534</v>
       </c>
       <c r="C63" t="n">
-        <v>0.636751</v>
+        <v>0.607652</v>
       </c>
       <c r="D63" t="n">
-        <v>0.896446</v>
+        <v>0.909766</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.553999</v>
+        <v>0.558275</v>
       </c>
       <c r="C64" t="n">
-        <v>0.604372</v>
+        <v>0.597973</v>
       </c>
       <c r="D64" t="n">
-        <v>1.17864</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.570634</v>
+        <v>0.57758</v>
       </c>
       <c r="C65" t="n">
-        <v>0.617016</v>
+        <v>0.611746</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1492</v>
+        <v>1.16905</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5706059999999999</v>
+        <v>0.57724</v>
       </c>
       <c r="C66" t="n">
-        <v>0.908936</v>
+        <v>0.92187</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12437</v>
+        <v>1.13943</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.806343</v>
+        <v>0.842517</v>
       </c>
       <c r="C67" t="n">
-        <v>0.886097</v>
+        <v>0.891658</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09287</v>
+        <v>1.10957</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.78827</v>
+        <v>0.811055</v>
       </c>
       <c r="C68" t="n">
-        <v>0.847677</v>
+        <v>0.869967</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07482</v>
+        <v>1.09037</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.777968</v>
+        <v>0.8069539999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.828281</v>
+        <v>0.847048</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05594</v>
+        <v>1.07213</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.76175</v>
+        <v>0.791347</v>
       </c>
       <c r="C70" t="n">
-        <v>0.805848</v>
+        <v>0.82583</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04018</v>
+        <v>1.05774</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.74412</v>
+        <v>0.763609</v>
       </c>
       <c r="C71" t="n">
-        <v>0.783135</v>
+        <v>0.807289</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01051</v>
+        <v>1.02342</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.721432</v>
+        <v>0.744668</v>
       </c>
       <c r="C72" t="n">
-        <v>0.762306</v>
+        <v>0.785659</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00045</v>
+        <v>1.01375</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.704631</v>
+        <v>0.742252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.744341</v>
+        <v>0.765077</v>
       </c>
       <c r="D73" t="n">
-        <v>0.990794</v>
+        <v>1.00565</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.671496</v>
+        <v>0.728029</v>
       </c>
       <c r="C74" t="n">
-        <v>0.70113</v>
+        <v>0.746991</v>
       </c>
       <c r="D74" t="n">
-        <v>0.97766</v>
+        <v>0.990265</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.682883</v>
+        <v>0.667167</v>
       </c>
       <c r="C75" t="n">
-        <v>0.712256</v>
+        <v>0.699114</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.983461</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.672879</v>
+        <v>0.679996</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697646</v>
+        <v>0.685275</v>
       </c>
       <c r="D76" t="n">
-        <v>0.966715</v>
+        <v>0.979882</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662652</v>
+        <v>0.694582</v>
       </c>
       <c r="C77" t="n">
-        <v>0.659102</v>
+        <v>0.700152</v>
       </c>
       <c r="D77" t="n">
-        <v>0.957827</v>
+        <v>0.971981</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.649776</v>
+        <v>0.676393</v>
       </c>
       <c r="C78" t="n">
-        <v>0.668179</v>
+        <v>0.687319</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42382</v>
+        <v>1.4766</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.639659</v>
+        <v>0.678886</v>
       </c>
       <c r="C79" t="n">
-        <v>0.66277</v>
+        <v>0.676677</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39285</v>
+        <v>1.43689</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644797</v>
+        <v>0.661442</v>
       </c>
       <c r="C80" t="n">
-        <v>0.959828</v>
+        <v>0.9977510000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>1.3675</v>
+        <v>1.41453</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.880485</v>
+        <v>0.926357</v>
       </c>
       <c r="C81" t="n">
-        <v>0.947964</v>
+        <v>0.971001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34001</v>
+        <v>1.37478</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874864</v>
+        <v>0.909036</v>
       </c>
       <c r="C82" t="n">
-        <v>0.942153</v>
+        <v>0.956116</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31223</v>
+        <v>1.35576</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.86586</v>
+        <v>0.907112</v>
       </c>
       <c r="C83" t="n">
-        <v>0.923582</v>
+        <v>0.937519</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29515</v>
+        <v>1.33555</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8638670000000001</v>
+        <v>0.896786</v>
       </c>
       <c r="C84" t="n">
-        <v>0.89242</v>
+        <v>0.930273</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27295</v>
+        <v>1.32138</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.857526</v>
+        <v>0.888799</v>
       </c>
       <c r="C85" t="n">
-        <v>0.886984</v>
+        <v>0.899522</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24389</v>
+        <v>1.28245</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.841903</v>
+        <v>0.858641</v>
       </c>
       <c r="C86" t="n">
-        <v>0.851446</v>
+        <v>0.879537</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23455</v>
+        <v>1.27235</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8240420000000001</v>
+        <v>0.865807</v>
       </c>
       <c r="C87" t="n">
-        <v>0.830823</v>
+        <v>0.860555</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23026</v>
+        <v>1.2709</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.816838</v>
+        <v>0.857004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.810935</v>
+        <v>0.840482</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21998</v>
+        <v>1.266</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.805111</v>
+        <v>0.817651</v>
       </c>
       <c r="C89" t="n">
-        <v>0.767407</v>
+        <v>0.788162</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21686</v>
+        <v>1.26592</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.793345</v>
+        <v>0.838462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.786602</v>
+        <v>0.771438</v>
       </c>
       <c r="D90" t="n">
-        <v>1.22398</v>
+        <v>1.27641</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790231</v>
+        <v>0.821241</v>
       </c>
       <c r="C91" t="n">
-        <v>0.770205</v>
+        <v>0.7882130000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22916</v>
+        <v>1.27217</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.776219</v>
+        <v>0.816784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.751059</v>
+        <v>0.774017</v>
       </c>
       <c r="D92" t="n">
-        <v>2.24968</v>
+        <v>2.38425</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7725880000000001</v>
+        <v>0.8176099999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.742808</v>
+        <v>0.760856</v>
       </c>
       <c r="D93" t="n">
-        <v>2.2453</v>
+        <v>2.37618</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.774095</v>
+        <v>0.798691</v>
       </c>
       <c r="C94" t="n">
-        <v>1.07784</v>
+        <v>1.0929</v>
       </c>
       <c r="D94" t="n">
-        <v>2.24391</v>
+        <v>2.3656</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02794</v>
+        <v>1.06705</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05783</v>
+        <v>1.08512</v>
       </c>
       <c r="D95" t="n">
-        <v>2.29545</v>
+        <v>2.36336</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02544</v>
+        <v>1.07344</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04046</v>
+        <v>1.07129</v>
       </c>
       <c r="D96" t="n">
-        <v>2.21548</v>
+        <v>2.41624</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01174</v>
+        <v>1.06528</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02138</v>
+        <v>1.03149</v>
       </c>
       <c r="D97" t="n">
-        <v>2.27887</v>
+        <v>2.56352</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.99525</v>
+        <v>1.04415</v>
       </c>
       <c r="C98" t="n">
-        <v>0.985217</v>
+        <v>1.01541</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12965</v>
+        <v>2.09715</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.984921</v>
+        <v>1.02916</v>
       </c>
       <c r="C99" t="n">
-        <v>0.965755</v>
+        <v>0.997941</v>
       </c>
       <c r="D99" t="n">
-        <v>1.97267</v>
+        <v>1.84446</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.96737</v>
+        <v>1.00909</v>
       </c>
       <c r="C100" t="n">
-        <v>0.950807</v>
+        <v>0.982113</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72324</v>
+        <v>1.81733</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.966032</v>
+        <v>1.02039</v>
       </c>
       <c r="C101" t="n">
-        <v>0.936832</v>
+        <v>0.92616</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71701</v>
+        <v>1.81132</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.963631</v>
+        <v>1.00141</v>
       </c>
       <c r="C102" t="n">
-        <v>0.921602</v>
+        <v>0.9530110000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71619</v>
+        <v>1.81092</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95502</v>
+        <v>1.0022</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905534</v>
+        <v>0.940379</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71573</v>
+        <v>1.81527</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.947004</v>
+        <v>0.987321</v>
       </c>
       <c r="C104" t="n">
-        <v>0.896356</v>
+        <v>0.927234</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72041</v>
+        <v>1.82302</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.94722</v>
+        <v>0.997063</v>
       </c>
       <c r="C105" t="n">
-        <v>0.882756</v>
+        <v>0.915924</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72211</v>
+        <v>1.8211</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.933696</v>
+        <v>0.976163</v>
       </c>
       <c r="C106" t="n">
-        <v>0.873387</v>
+        <v>0.904846</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72589</v>
+        <v>1.82775</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.922768</v>
+        <v>0.955116</v>
       </c>
       <c r="C107" t="n">
-        <v>0.831651</v>
+        <v>0.863914</v>
       </c>
       <c r="D107" t="n">
-        <v>3.02457</v>
+        <v>3.22995</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.910152</v>
+        <v>0.978756</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15512</v>
+        <v>1.22494</v>
       </c>
       <c r="D108" t="n">
-        <v>2.98303</v>
+        <v>3.19456</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.940419</v>
+        <v>0.9806820000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17176</v>
+        <v>1.22216</v>
       </c>
       <c r="D109" t="n">
-        <v>3.16458</v>
+        <v>3.37096</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.16335</v>
+        <v>1.24107</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13305</v>
+        <v>1.18058</v>
       </c>
       <c r="D110" t="n">
-        <v>2.93511</v>
+        <v>3.14818</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17935</v>
+        <v>1.23815</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14528</v>
+        <v>1.16868</v>
       </c>
       <c r="D111" t="n">
-        <v>2.73493</v>
+        <v>2.92012</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16073</v>
+        <v>1.23321</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11069</v>
+        <v>1.15512</v>
       </c>
       <c r="D112" t="n">
-        <v>2.33244</v>
+        <v>3.10948</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13617</v>
+        <v>1.21744</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10144</v>
+        <v>1.16721</v>
       </c>
       <c r="D113" t="n">
-        <v>2.31384</v>
+        <v>2.47779</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12983</v>
+        <v>1.20132</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08586</v>
+        <v>1.15522</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29979</v>
+        <v>2.67338</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11983</v>
+        <v>1.17214</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07599</v>
+        <v>1.12395</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28121</v>
+        <v>2.44997</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11867</v>
+        <v>1.17654</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05962</v>
+        <v>1.11236</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26283</v>
+        <v>2.43036</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10698</v>
+        <v>1.17261</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05659</v>
+        <v>1.10554</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27114</v>
+        <v>2.40589</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10771</v>
+        <v>1.16487</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04693</v>
+        <v>1.09466</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25552</v>
+        <v>2.41072</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09896</v>
+        <v>1.11621</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03852</v>
+        <v>1.05615</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26732</v>
+        <v>2.41483</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08453</v>
+        <v>1.15686</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02936</v>
+        <v>1.08006</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25669</v>
+        <v>2.41815</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06349</v>
+        <v>1.15603</v>
       </c>
       <c r="C121" t="n">
-        <v>0.99625</v>
+        <v>1.07458</v>
       </c>
       <c r="D121" t="n">
-        <v>3.7263</v>
+        <v>3.98999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09378</v>
+        <v>1.15017</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02007</v>
+        <v>1.03966</v>
       </c>
       <c r="D122" t="n">
-        <v>3.67636</v>
+        <v>3.94088</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09391</v>
+        <v>1.16329</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3356</v>
+        <v>1.37123</v>
       </c>
       <c r="D123" t="n">
-        <v>4.05505</v>
+        <v>4.3651</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33003</v>
+        <v>1.42713</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30324</v>
+        <v>1.38772</v>
       </c>
       <c r="D124" t="n">
-        <v>2.94125</v>
+        <v>3.8709</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.35337</v>
+        <v>1.42459</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29466</v>
+        <v>1.37948</v>
       </c>
       <c r="D125" t="n">
-        <v>3.76164</v>
+        <v>3.82584</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33912</v>
+        <v>1.38884</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30661</v>
+        <v>1.3458</v>
       </c>
       <c r="D126" t="n">
-        <v>3.53353</v>
+        <v>3.55292</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31505</v>
+        <v>1.40456</v>
       </c>
       <c r="C127" t="n">
-        <v>1.27581</v>
+        <v>1.33921</v>
       </c>
       <c r="D127" t="n">
-        <v>3.0763</v>
+        <v>3.06086</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.30202</v>
+        <v>1.37088</v>
       </c>
       <c r="C128" t="n">
-        <v>1.27018</v>
+        <v>1.33346</v>
       </c>
       <c r="D128" t="n">
-        <v>2.8272</v>
+        <v>3.02469</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30456</v>
+        <v>1.38929</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2654</v>
+        <v>1.34604</v>
       </c>
       <c r="D129" t="n">
-        <v>2.77281</v>
+        <v>2.99723</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28917</v>
+        <v>1.36725</v>
       </c>
       <c r="C130" t="n">
-        <v>1.25564</v>
+        <v>1.32053</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74636</v>
+        <v>2.97141</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29623</v>
+        <v>1.36249</v>
       </c>
       <c r="C131" t="n">
-        <v>1.25237</v>
+        <v>1.31498</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73499</v>
+        <v>2.96785</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.27835</v>
+        <v>1.36529</v>
       </c>
       <c r="C132" t="n">
-        <v>1.24745</v>
+        <v>1.27901</v>
       </c>
       <c r="D132" t="n">
-        <v>2.73991</v>
+        <v>2.95515</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29204</v>
+        <v>1.35788</v>
       </c>
       <c r="C133" t="n">
-        <v>1.23965</v>
+        <v>1.30693</v>
       </c>
       <c r="D133" t="n">
-        <v>2.72802</v>
+        <v>2.9415</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.26606</v>
+        <v>1.35483</v>
       </c>
       <c r="C134" t="n">
-        <v>1.20601</v>
+        <v>1.30336</v>
       </c>
       <c r="D134" t="n">
-        <v>2.7151</v>
+        <v>2.94612</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.27082</v>
+        <v>1.36819</v>
       </c>
       <c r="C135" t="n">
-        <v>1.19734</v>
+        <v>1.29925</v>
       </c>
       <c r="D135" t="n">
-        <v>4.27864</v>
+        <v>4.59438</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28202</v>
+        <v>1.36519</v>
       </c>
       <c r="C136" t="n">
-        <v>1.22718</v>
+        <v>1.29363</v>
       </c>
       <c r="D136" t="n">
-        <v>4.20992</v>
+        <v>4.5308</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.28208</v>
+        <v>1.36428</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51631</v>
+        <v>1.59442</v>
       </c>
       <c r="D137" t="n">
-        <v>4.16538</v>
+        <v>4.47787</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53534</v>
+        <v>1.61254</v>
       </c>
       <c r="C138" t="n">
-        <v>1.53168</v>
+        <v>1.58914</v>
       </c>
       <c r="D138" t="n">
-        <v>4.34838</v>
+        <v>4.6701</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53867</v>
+        <v>1.61032</v>
       </c>
       <c r="C139" t="n">
-        <v>1.52173</v>
+        <v>1.60649</v>
       </c>
       <c r="D139" t="n">
-        <v>4.29921</v>
+        <v>4.11721</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51019</v>
+        <v>1.60147</v>
       </c>
       <c r="C140" t="n">
-        <v>1.50772</v>
+        <v>1.57933</v>
       </c>
       <c r="D140" t="n">
-        <v>3.7817</v>
+        <v>4.32121</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52033</v>
+        <v>1.58207</v>
       </c>
       <c r="C141" t="n">
-        <v>1.51675</v>
+        <v>1.5759</v>
       </c>
       <c r="D141" t="n">
-        <v>3.27406</v>
+        <v>3.52579</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5032</v>
+        <v>1.59343</v>
       </c>
       <c r="C142" t="n">
-        <v>1.49394</v>
+        <v>1.56937</v>
       </c>
       <c r="D142" t="n">
-        <v>3.22171</v>
+        <v>3.46836</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51038</v>
+        <v>1.60312</v>
       </c>
       <c r="C143" t="n">
-        <v>1.48965</v>
+        <v>1.53204</v>
       </c>
       <c r="D143" t="n">
-        <v>3.18718</v>
+        <v>3.42691</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574942</v>
+        <v>0.574391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.624613</v>
+        <v>0.625701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.838139</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.500812</v>
+        <v>0.500023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.551878</v>
+        <v>0.551315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.829519</v>
+        <v>0.827638</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.491995</v>
+        <v>0.490175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.538763</v>
+        <v>0.5385450000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.820678</v>
+        <v>0.818676</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.484188</v>
+        <v>0.485054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.527786</v>
+        <v>0.527579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.812516</v>
+        <v>0.811609</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.476964</v>
+        <v>0.477801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517803</v>
+        <v>0.5172949999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.806469</v>
+        <v>0.81011</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.474611</v>
+        <v>0.474957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.509966</v>
+        <v>0.509683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.919768</v>
+        <v>0.925993</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.476269</v>
+        <v>0.471837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.505189</v>
+        <v>0.5048899999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.904562</v>
+        <v>0.907706</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.476898</v>
+        <v>0.474337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.760625</v>
+        <v>0.759961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.887266</v>
+        <v>0.88994</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.668431</v>
+        <v>0.668457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.737863</v>
+        <v>0.7372379999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.872444</v>
+        <v>0.876748</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651831</v>
+        <v>0.640867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71595</v>
+        <v>0.714657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856503</v>
+        <v>0.858751</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.63362</v>
+        <v>0.623577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.695196</v>
+        <v>0.694771</v>
       </c>
       <c r="D12" t="n">
-        <v>0.841664</v>
+        <v>0.842309</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.616104</v>
+        <v>0.606759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.675608</v>
+        <v>0.675755</v>
       </c>
       <c r="D13" t="n">
-        <v>0.830025</v>
+        <v>0.827694</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599621</v>
+        <v>0.599793</v>
       </c>
       <c r="C14" t="n">
-        <v>0.657521</v>
+        <v>0.657311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.818277</v>
+        <v>0.817244</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5808489999999999</v>
+        <v>0.580551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.640517</v>
+        <v>0.639088</v>
       </c>
       <c r="D15" t="n">
-        <v>0.80787</v>
+        <v>0.808505</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570246</v>
+        <v>0.570284</v>
       </c>
       <c r="C16" t="n">
-        <v>0.623668</v>
+        <v>0.622937</v>
       </c>
       <c r="D16" t="n">
-        <v>0.796919</v>
+        <v>0.798226</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.556637</v>
+        <v>0.554269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.608777</v>
+        <v>0.606943</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785767</v>
+        <v>0.787915</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.543822</v>
+        <v>0.543484</v>
       </c>
       <c r="C18" t="n">
-        <v>0.594514</v>
+        <v>0.592695</v>
       </c>
       <c r="D18" t="n">
-        <v>0.777859</v>
+        <v>0.780653</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533534</v>
+        <v>0.532207</v>
       </c>
       <c r="C19" t="n">
-        <v>0.581576</v>
+        <v>0.579668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.768188</v>
+        <v>0.769937</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524346</v>
+        <v>0.523903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.56973</v>
+        <v>0.569465</v>
       </c>
       <c r="D20" t="n">
-        <v>0.761124</v>
+        <v>0.767037</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.517579</v>
+        <v>0.517475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.560341</v>
+        <v>0.55915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999293</v>
+        <v>0.999854</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.515589</v>
+        <v>0.511938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.553297</v>
+        <v>0.552253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.977978</v>
+        <v>0.978627</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5144030000000001</v>
+        <v>0.511517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.817188</v>
+        <v>0.817069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.953183</v>
+        <v>0.953972</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.715554</v>
+        <v>0.718627</v>
       </c>
       <c r="C24" t="n">
-        <v>0.792305</v>
+        <v>0.792201</v>
       </c>
       <c r="D24" t="n">
-        <v>0.935006</v>
+        <v>0.937208</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697418</v>
+        <v>0.697728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.768774</v>
+        <v>0.768836</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918199</v>
+        <v>0.919529</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675754</v>
+        <v>0.6763130000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.746288</v>
+        <v>0.746187</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899855</v>
+        <v>0.903877</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655307</v>
+        <v>0.655769</v>
       </c>
       <c r="C27" t="n">
-        <v>0.724438</v>
+        <v>0.724132</v>
       </c>
       <c r="D27" t="n">
-        <v>0.884926</v>
+        <v>0.88807</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639957</v>
+        <v>0.639039</v>
       </c>
       <c r="C28" t="n">
-        <v>0.703603</v>
+        <v>0.702263</v>
       </c>
       <c r="D28" t="n">
-        <v>0.871899</v>
+        <v>0.8731719999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6229980000000001</v>
+        <v>0.61892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.683876</v>
+        <v>0.683759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.863307</v>
+        <v>0.863607</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.604694</v>
+        <v>0.607067</v>
       </c>
       <c r="C30" t="n">
-        <v>0.665934</v>
+        <v>0.6654</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8528289999999999</v>
+        <v>0.854649</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.591481</v>
+        <v>0.590861</v>
       </c>
       <c r="C31" t="n">
-        <v>0.64859</v>
+        <v>0.6482329999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.841763</v>
+        <v>0.843132</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.57912</v>
+        <v>0.5763509999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6324650000000001</v>
+        <v>0.632311</v>
       </c>
       <c r="D32" t="n">
-        <v>0.834502</v>
+        <v>0.83516</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.543798</v>
+        <v>0.566953</v>
       </c>
       <c r="C33" t="n">
-        <v>0.59559</v>
+        <v>0.616858</v>
       </c>
       <c r="D33" t="n">
-        <v>0.825027</v>
+        <v>0.826277</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.555874</v>
+        <v>0.556244</v>
       </c>
       <c r="C34" t="n">
-        <v>0.604058</v>
+        <v>0.603907</v>
       </c>
       <c r="D34" t="n">
-        <v>0.818369</v>
+        <v>0.817964</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5483479999999999</v>
+        <v>0.548084</v>
       </c>
       <c r="C35" t="n">
-        <v>0.591955</v>
+        <v>0.5920069999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0695</v>
+        <v>1.07022</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.524102</v>
+        <v>0.52386</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5639729999999999</v>
+        <v>0.563125</v>
       </c>
       <c r="D36" t="n">
-        <v>1.0503</v>
+        <v>1.05222</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.519972</v>
+        <v>0.518974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.83203</v>
+        <v>0.831684</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02895</v>
+        <v>1.03323</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7485270000000001</v>
+        <v>0.748396</v>
       </c>
       <c r="C38" t="n">
-        <v>0.824518</v>
+        <v>0.82394</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01006</v>
+        <v>1.01099</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.707695</v>
+        <v>0.7076</v>
       </c>
       <c r="C39" t="n">
-        <v>0.783687</v>
+        <v>0.7836340000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.987625</v>
+        <v>0.989461</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.705871</v>
+        <v>0.7065669999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.775518</v>
+        <v>0.775482</v>
       </c>
       <c r="D40" t="n">
-        <v>0.970329</v>
+        <v>0.9708639999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.669423</v>
+        <v>0.669845</v>
       </c>
       <c r="C41" t="n">
-        <v>0.73873</v>
+        <v>0.738945</v>
       </c>
       <c r="D41" t="n">
-        <v>0.953448</v>
+        <v>0.956233</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.650841</v>
+        <v>0.649294</v>
       </c>
       <c r="C42" t="n">
-        <v>0.718376</v>
+        <v>0.718648</v>
       </c>
       <c r="D42" t="n">
-        <v>0.938103</v>
+        <v>0.939869</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.632881</v>
+        <v>0.63182</v>
       </c>
       <c r="C43" t="n">
-        <v>0.69802</v>
+        <v>0.697727</v>
       </c>
       <c r="D43" t="n">
-        <v>0.924173</v>
+        <v>0.92567</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.618246</v>
+        <v>0.6173380000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.679332</v>
+        <v>0.6798959999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.913059</v>
+        <v>0.916077</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.603458</v>
+        <v>0.60241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.638625</v>
+        <v>0.63767</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902766</v>
+        <v>0.905125</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.589622</v>
+        <v>0.590303</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6459279999999999</v>
+        <v>0.645942</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8923720000000001</v>
+        <v>0.894172</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.579233</v>
+        <v>0.579705</v>
       </c>
       <c r="C47" t="n">
-        <v>0.630339</v>
+        <v>0.630847</v>
       </c>
       <c r="D47" t="n">
-        <v>0.889644</v>
+        <v>0.891952</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.548987</v>
+        <v>0.550682</v>
       </c>
       <c r="C48" t="n">
-        <v>0.595923</v>
+        <v>0.595691</v>
       </c>
       <c r="D48" t="n">
-        <v>0.881402</v>
+        <v>0.8837</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.55905</v>
+        <v>0.558818</v>
       </c>
       <c r="C49" t="n">
-        <v>0.603935</v>
+        <v>0.605407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.871184</v>
+        <v>0.87429</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5523940000000001</v>
+        <v>0.553633</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5951880000000001</v>
+        <v>0.595461</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1169</v>
+        <v>1.11742</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.549082</v>
+        <v>0.550451</v>
       </c>
       <c r="C51" t="n">
-        <v>0.874228</v>
+        <v>0.8747549999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09406</v>
+        <v>1.09426</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.548369</v>
+        <v>0.549631</v>
       </c>
       <c r="C52" t="n">
-        <v>0.848286</v>
+        <v>0.8494119999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>1.07183</v>
+        <v>1.07259</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.753966</v>
+        <v>0.754263</v>
       </c>
       <c r="C53" t="n">
-        <v>0.811771</v>
+        <v>0.81179</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04954</v>
+        <v>1.05216</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7230760000000001</v>
+        <v>0.733654</v>
       </c>
       <c r="C54" t="n">
-        <v>0.789073</v>
+        <v>0.80048</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03255</v>
+        <v>1.03526</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7014590000000001</v>
+        <v>0.701797</v>
       </c>
       <c r="C55" t="n">
-        <v>0.766263</v>
+        <v>0.766534</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01346</v>
+        <v>1.01484</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6832009999999999</v>
+        <v>0.686141</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7453149999999999</v>
+        <v>0.747517</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9967819999999999</v>
+        <v>0.999171</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6647110000000001</v>
+        <v>0.666906</v>
       </c>
       <c r="C57" t="n">
-        <v>0.725876</v>
+        <v>0.728446</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981202</v>
+        <v>0.9835660000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.653792</v>
+        <v>0.649834</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7078</v>
+        <v>0.708947</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9686669999999999</v>
+        <v>0.970182</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.638496</v>
+        <v>0.637078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.68991</v>
+        <v>0.69099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.947677</v>
+        <v>0.949704</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.592777</v>
+        <v>0.591338</v>
       </c>
       <c r="C60" t="n">
-        <v>0.647486</v>
+        <v>0.649313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.938368</v>
+        <v>0.941402</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.577194</v>
+        <v>0.612474</v>
       </c>
       <c r="C61" t="n">
-        <v>0.632256</v>
+        <v>0.659172</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9280040000000001</v>
+        <v>0.930847</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.600202</v>
+        <v>0.601698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.64378</v>
+        <v>0.6442290000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.918651</v>
+        <v>0.920951</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.563534</v>
+        <v>0.590177</v>
       </c>
       <c r="C63" t="n">
-        <v>0.607652</v>
+        <v>0.63214</v>
       </c>
       <c r="D63" t="n">
-        <v>0.909766</v>
+        <v>0.912636</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.558275</v>
+        <v>0.556628</v>
       </c>
       <c r="C64" t="n">
-        <v>0.597973</v>
+        <v>0.599915</v>
       </c>
       <c r="D64" t="n">
-        <v>1.192</v>
+        <v>1.1961</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.57758</v>
+        <v>0.58117</v>
       </c>
       <c r="C65" t="n">
-        <v>0.611746</v>
+        <v>0.615672</v>
       </c>
       <c r="D65" t="n">
-        <v>1.16905</v>
+        <v>1.17028</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.57724</v>
+        <v>0.579687</v>
       </c>
       <c r="C66" t="n">
-        <v>0.92187</v>
+        <v>0.911265</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13943</v>
+        <v>1.14318</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.842517</v>
+        <v>0.825821</v>
       </c>
       <c r="C67" t="n">
-        <v>0.891658</v>
+        <v>0.87382</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10957</v>
+        <v>1.11253</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.811055</v>
+        <v>0.797999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.869967</v>
+        <v>0.851424</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09037</v>
+        <v>1.09155</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8069539999999999</v>
+        <v>0.7955950000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.847048</v>
+        <v>0.830362</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07213</v>
+        <v>1.07244</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.791347</v>
+        <v>0.778952</v>
       </c>
       <c r="C70" t="n">
-        <v>0.82583</v>
+        <v>0.809843</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05774</v>
+        <v>1.06047</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.763609</v>
+        <v>0.754864</v>
       </c>
       <c r="C71" t="n">
-        <v>0.807289</v>
+        <v>0.799698</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02342</v>
+        <v>1.0288</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744668</v>
+        <v>0.732128</v>
       </c>
       <c r="C72" t="n">
-        <v>0.785659</v>
+        <v>0.770132</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01375</v>
+        <v>1.01794</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.742252</v>
+        <v>0.727796</v>
       </c>
       <c r="C73" t="n">
-        <v>0.765077</v>
+        <v>0.752055</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00565</v>
+        <v>1.00922</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.728029</v>
+        <v>0.71383</v>
       </c>
       <c r="C74" t="n">
-        <v>0.746991</v>
+        <v>0.733492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.990265</v>
+        <v>0.993626</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.667167</v>
+        <v>0.658123</v>
       </c>
       <c r="C75" t="n">
-        <v>0.699114</v>
+        <v>0.687177</v>
       </c>
       <c r="D75" t="n">
-        <v>0.983461</v>
+        <v>0.986724</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.679996</v>
+        <v>0.668126</v>
       </c>
       <c r="C76" t="n">
-        <v>0.685275</v>
+        <v>0.672493</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979882</v>
+        <v>0.984785</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.694582</v>
+        <v>0.6788459999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.700152</v>
+        <v>0.687202</v>
       </c>
       <c r="D77" t="n">
-        <v>0.971981</v>
+        <v>0.973926</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.676393</v>
+        <v>0.663378</v>
       </c>
       <c r="C78" t="n">
-        <v>0.687319</v>
+        <v>0.675393</v>
       </c>
       <c r="D78" t="n">
-        <v>1.4766</v>
+        <v>1.44362</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.678886</v>
+        <v>0.665649</v>
       </c>
       <c r="C79" t="n">
-        <v>0.676677</v>
+        <v>0.664955</v>
       </c>
       <c r="D79" t="n">
-        <v>1.43689</v>
+        <v>1.41449</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.661442</v>
+        <v>0.651079</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9977510000000001</v>
+        <v>0.974213</v>
       </c>
       <c r="D80" t="n">
-        <v>1.41453</v>
+        <v>1.38734</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.926357</v>
+        <v>0.906111</v>
       </c>
       <c r="C81" t="n">
-        <v>0.971001</v>
+        <v>0.94241</v>
       </c>
       <c r="D81" t="n">
-        <v>1.37478</v>
+        <v>1.33826</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.909036</v>
+        <v>0.885328</v>
       </c>
       <c r="C82" t="n">
-        <v>0.956116</v>
+        <v>0.925272</v>
       </c>
       <c r="D82" t="n">
-        <v>1.35576</v>
+        <v>1.32339</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.907112</v>
+        <v>0.879711</v>
       </c>
       <c r="C83" t="n">
-        <v>0.937519</v>
+        <v>0.908508</v>
       </c>
       <c r="D83" t="n">
-        <v>1.33555</v>
+        <v>1.30863</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.896786</v>
+        <v>0.873269</v>
       </c>
       <c r="C84" t="n">
-        <v>0.930273</v>
+        <v>0.905336</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32138</v>
+        <v>1.29484</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.888799</v>
+        <v>0.860553</v>
       </c>
       <c r="C85" t="n">
-        <v>0.899522</v>
+        <v>0.871698</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28245</v>
+        <v>1.25988</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.858641</v>
+        <v>0.83184</v>
       </c>
       <c r="C86" t="n">
-        <v>0.879537</v>
+        <v>0.852355</v>
       </c>
       <c r="D86" t="n">
-        <v>1.27235</v>
+        <v>1.24838</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.865807</v>
+        <v>0.837784</v>
       </c>
       <c r="C87" t="n">
-        <v>0.860555</v>
+        <v>0.832732</v>
       </c>
       <c r="D87" t="n">
-        <v>1.2709</v>
+        <v>1.24576</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.857004</v>
+        <v>0.830939</v>
       </c>
       <c r="C88" t="n">
-        <v>0.840482</v>
+        <v>0.813773</v>
       </c>
       <c r="D88" t="n">
-        <v>1.266</v>
+        <v>1.23728</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.817651</v>
+        <v>0.786844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.788162</v>
+        <v>0.759265</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26592</v>
+        <v>1.23397</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.838462</v>
+        <v>0.806878</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771438</v>
+        <v>0.74448</v>
       </c>
       <c r="D90" t="n">
-        <v>1.27641</v>
+        <v>1.24626</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.821241</v>
+        <v>0.791682</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7882130000000001</v>
+        <v>0.763578</v>
       </c>
       <c r="D91" t="n">
-        <v>1.27217</v>
+        <v>1.2427</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.816784</v>
+        <v>0.787848</v>
       </c>
       <c r="C92" t="n">
-        <v>0.774017</v>
+        <v>0.750861</v>
       </c>
       <c r="D92" t="n">
-        <v>2.38425</v>
+        <v>2.25893</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8176099999999999</v>
+        <v>0.7872670000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.760856</v>
+        <v>0.738908</v>
       </c>
       <c r="D93" t="n">
-        <v>2.37618</v>
+        <v>2.25133</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.798691</v>
+        <v>0.770934</v>
       </c>
       <c r="C94" t="n">
-        <v>1.0929</v>
+        <v>1.0586</v>
       </c>
       <c r="D94" t="n">
-        <v>2.3656</v>
+        <v>2.23933</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.06705</v>
+        <v>1.03252</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08512</v>
+        <v>1.05049</v>
       </c>
       <c r="D95" t="n">
-        <v>2.36336</v>
+        <v>2.23309</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07344</v>
+        <v>1.03415</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07129</v>
+        <v>1.03562</v>
       </c>
       <c r="D96" t="n">
-        <v>2.41624</v>
+        <v>2.27761</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06528</v>
+        <v>1.02506</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03149</v>
+        <v>0.9931759999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>2.56352</v>
+        <v>2.41133</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.04415</v>
+        <v>1.00089</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01541</v>
+        <v>0.9780180000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09715</v>
+        <v>1.98456</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02916</v>
+        <v>0.983233</v>
       </c>
       <c r="C99" t="n">
-        <v>0.997941</v>
+        <v>0.9608950000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>1.84446</v>
+        <v>1.90008</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00909</v>
+        <v>0.978961</v>
       </c>
       <c r="C100" t="n">
-        <v>0.982113</v>
+        <v>0.945458</v>
       </c>
       <c r="D100" t="n">
-        <v>1.81733</v>
+        <v>1.72391</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02039</v>
+        <v>0.971487</v>
       </c>
       <c r="C101" t="n">
-        <v>0.92616</v>
+        <v>0.929706</v>
       </c>
       <c r="D101" t="n">
-        <v>1.81132</v>
+        <v>1.72209</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00141</v>
+        <v>0.919887</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9530110000000001</v>
+        <v>0.8770250000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.81092</v>
+        <v>1.72004</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.0022</v>
+        <v>0.955116</v>
       </c>
       <c r="C103" t="n">
-        <v>0.940379</v>
+        <v>0.903358</v>
       </c>
       <c r="D103" t="n">
-        <v>1.81527</v>
+        <v>1.72261</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.987321</v>
+        <v>0.951049</v>
       </c>
       <c r="C104" t="n">
-        <v>0.927234</v>
+        <v>0.8896309999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.82302</v>
+        <v>1.72723</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.997063</v>
+        <v>0.933488</v>
       </c>
       <c r="C105" t="n">
-        <v>0.915924</v>
+        <v>0.8785770000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1.8211</v>
+        <v>1.72226</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.976163</v>
+        <v>0.943618</v>
       </c>
       <c r="C106" t="n">
-        <v>0.904846</v>
+        <v>0.868685</v>
       </c>
       <c r="D106" t="n">
-        <v>1.82775</v>
+        <v>1.73232</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.955116</v>
+        <v>0.925137</v>
       </c>
       <c r="C107" t="n">
-        <v>0.863914</v>
+        <v>0.858999</v>
       </c>
       <c r="D107" t="n">
-        <v>3.22995</v>
+        <v>3.00091</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.978756</v>
+        <v>0.904361</v>
       </c>
       <c r="C108" t="n">
-        <v>1.22494</v>
+        <v>1.15003</v>
       </c>
       <c r="D108" t="n">
-        <v>3.19456</v>
+        <v>2.97013</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9806820000000001</v>
+        <v>0.931629</v>
       </c>
       <c r="C109" t="n">
-        <v>1.22216</v>
+        <v>1.17391</v>
       </c>
       <c r="D109" t="n">
-        <v>3.37096</v>
+        <v>3.11532</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24107</v>
+        <v>1.17507</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18058</v>
+        <v>1.13283</v>
       </c>
       <c r="D110" t="n">
-        <v>3.14818</v>
+        <v>2.74299</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23815</v>
+        <v>1.18008</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16868</v>
+        <v>1.1454</v>
       </c>
       <c r="D111" t="n">
-        <v>2.92012</v>
+        <v>2.34712</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.23321</v>
+        <v>1.16794</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15512</v>
+        <v>1.12981</v>
       </c>
       <c r="D112" t="n">
-        <v>3.10948</v>
+        <v>2.51216</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21744</v>
+        <v>1.13128</v>
       </c>
       <c r="C113" t="n">
-        <v>1.16721</v>
+        <v>1.09304</v>
       </c>
       <c r="D113" t="n">
-        <v>2.47779</v>
+        <v>2.3101</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20132</v>
+        <v>1.1406</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15522</v>
+        <v>1.08196</v>
       </c>
       <c r="D114" t="n">
-        <v>2.67338</v>
+        <v>2.68282</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17214</v>
+        <v>1.11618</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12395</v>
+        <v>1.07069</v>
       </c>
       <c r="D115" t="n">
-        <v>2.44997</v>
+        <v>2.47894</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17654</v>
+        <v>1.12249</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11236</v>
+        <v>1.059</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43036</v>
+        <v>2.26658</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17261</v>
+        <v>1.10616</v>
       </c>
       <c r="C117" t="n">
-        <v>1.10554</v>
+        <v>1.04921</v>
       </c>
       <c r="D117" t="n">
-        <v>2.40589</v>
+        <v>2.25439</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16487</v>
+        <v>1.09243</v>
       </c>
       <c r="C118" t="n">
-        <v>1.09466</v>
+        <v>1.03881</v>
       </c>
       <c r="D118" t="n">
-        <v>2.41072</v>
+        <v>2.24771</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11621</v>
+        <v>1.09699</v>
       </c>
       <c r="C119" t="n">
-        <v>1.05615</v>
+        <v>1.03125</v>
       </c>
       <c r="D119" t="n">
-        <v>2.41483</v>
+        <v>2.24888</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15686</v>
+        <v>1.0822</v>
       </c>
       <c r="C120" t="n">
-        <v>1.08006</v>
+        <v>0.993406</v>
       </c>
       <c r="D120" t="n">
-        <v>2.41815</v>
+        <v>2.25041</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15603</v>
+        <v>1.08475</v>
       </c>
       <c r="C121" t="n">
-        <v>1.07458</v>
+        <v>1.01617</v>
       </c>
       <c r="D121" t="n">
-        <v>3.98999</v>
+        <v>3.67068</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15017</v>
+        <v>1.08018</v>
       </c>
       <c r="C122" t="n">
-        <v>1.03966</v>
+        <v>0.981942</v>
       </c>
       <c r="D122" t="n">
-        <v>3.94088</v>
+        <v>3.62745</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16329</v>
+        <v>1.09864</v>
       </c>
       <c r="C123" t="n">
-        <v>1.37123</v>
+        <v>1.32586</v>
       </c>
       <c r="D123" t="n">
-        <v>4.3651</v>
+        <v>4.1953</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42713</v>
+        <v>1.35406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38772</v>
+        <v>1.31638</v>
       </c>
       <c r="D124" t="n">
-        <v>3.8709</v>
+        <v>3.75554</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42459</v>
+        <v>1.3491</v>
       </c>
       <c r="C125" t="n">
-        <v>1.37948</v>
+        <v>1.30557</v>
       </c>
       <c r="D125" t="n">
-        <v>3.82584</v>
+        <v>3.30341</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38884</v>
+        <v>1.33103</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3458</v>
+        <v>1.2713</v>
       </c>
       <c r="D126" t="n">
-        <v>3.55292</v>
+        <v>3.27723</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40456</v>
+        <v>1.32546</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33921</v>
+        <v>1.28862</v>
       </c>
       <c r="D127" t="n">
-        <v>3.06086</v>
+        <v>2.82956</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37088</v>
+        <v>1.28458</v>
       </c>
       <c r="C128" t="n">
-        <v>1.33346</v>
+        <v>1.25602</v>
       </c>
       <c r="D128" t="n">
-        <v>3.02469</v>
+        <v>2.80523</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38929</v>
+        <v>1.30195</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34604</v>
+        <v>1.26919</v>
       </c>
       <c r="D129" t="n">
-        <v>2.99723</v>
+        <v>2.76017</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36725</v>
+        <v>1.28185</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32053</v>
+        <v>1.20651</v>
       </c>
       <c r="D130" t="n">
-        <v>2.97141</v>
+        <v>2.74173</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.36249</v>
+        <v>1.27453</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31498</v>
+        <v>1.237</v>
       </c>
       <c r="D131" t="n">
-        <v>2.96785</v>
+        <v>2.73825</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.36529</v>
+        <v>1.27826</v>
       </c>
       <c r="C132" t="n">
-        <v>1.27901</v>
+        <v>1.23131</v>
       </c>
       <c r="D132" t="n">
-        <v>2.95515</v>
+        <v>2.7272</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35788</v>
+        <v>1.27801</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30693</v>
+        <v>1.2268</v>
       </c>
       <c r="D133" t="n">
-        <v>2.9415</v>
+        <v>2.71355</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35483</v>
+        <v>1.24618</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30336</v>
+        <v>1.19095</v>
       </c>
       <c r="D134" t="n">
-        <v>2.94612</v>
+        <v>2.71046</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.36819</v>
+        <v>1.26627</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29925</v>
+        <v>1.18982</v>
       </c>
       <c r="D135" t="n">
-        <v>4.59438</v>
+        <v>4.21513</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.36519</v>
+        <v>1.25452</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29363</v>
+        <v>1.18394</v>
       </c>
       <c r="D136" t="n">
-        <v>4.5308</v>
+        <v>4.15285</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36428</v>
+        <v>1.26865</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59442</v>
+        <v>1.49825</v>
       </c>
       <c r="D137" t="n">
-        <v>4.47787</v>
+        <v>4.10428</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.61254</v>
+        <v>1.53248</v>
       </c>
       <c r="C138" t="n">
-        <v>1.58914</v>
+        <v>1.51606</v>
       </c>
       <c r="D138" t="n">
-        <v>4.6701</v>
+        <v>4.27681</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.61032</v>
+        <v>1.51394</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60649</v>
+        <v>1.50963</v>
       </c>
       <c r="D139" t="n">
-        <v>4.11721</v>
+        <v>4.009</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.60147</v>
+        <v>1.51174</v>
       </c>
       <c r="C140" t="n">
-        <v>1.57933</v>
+        <v>1.47969</v>
       </c>
       <c r="D140" t="n">
-        <v>4.32121</v>
+        <v>3.7342</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.58207</v>
+        <v>1.50384</v>
       </c>
       <c r="C141" t="n">
-        <v>1.5759</v>
+        <v>1.47443</v>
       </c>
       <c r="D141" t="n">
-        <v>3.52579</v>
+        <v>3.23884</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.59343</v>
+        <v>1.50841</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56937</v>
+        <v>1.46972</v>
       </c>
       <c r="D142" t="n">
-        <v>3.46836</v>
+        <v>3.18706</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.60312</v>
+        <v>1.48526</v>
       </c>
       <c r="C143" t="n">
-        <v>1.53204</v>
+        <v>1.4657</v>
       </c>
       <c r="D143" t="n">
-        <v>3.42691</v>
+        <v>3.15593</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574391</v>
+        <v>0.576684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.625701</v>
+        <v>0.834182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.837</v>
+        <v>0.56546</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.80785</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.500023</v>
+        <v>0.564798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.551315</v>
+        <v>0.82323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827638</v>
+        <v>0.551393</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.787785</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.490175</v>
+        <v>0.554576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5385450000000001</v>
+        <v>0.815362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.818676</v>
+        <v>0.539637</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7732250000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.485054</v>
+        <v>0.540485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.527579</v>
+        <v>0.806904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.811609</v>
+        <v>0.528454</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.758386</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.477801</v>
+        <v>0.530115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5172949999999999</v>
+        <v>0.800242</v>
       </c>
       <c r="D6" t="n">
-        <v>0.81011</v>
+        <v>0.5184029999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.746072</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.474957</v>
+        <v>0.527372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.509683</v>
+        <v>0.913508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.925993</v>
+        <v>0.508818</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.733885</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.471837</v>
+        <v>0.5232059999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5048899999999999</v>
+        <v>0.895791</v>
       </c>
       <c r="D8" t="n">
-        <v>0.907706</v>
+        <v>0.503174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.726841</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474337</v>
+        <v>0.524749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.759961</v>
+        <v>0.876465</v>
       </c>
       <c r="D9" t="n">
-        <v>0.88994</v>
+        <v>0.760584</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.01011</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.668457</v>
+        <v>0.67226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7372379999999999</v>
+        <v>0.86419</v>
       </c>
       <c r="D10" t="n">
-        <v>0.876748</v>
+        <v>0.738235</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.985634</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.640867</v>
+        <v>0.6553290000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.714657</v>
+        <v>0.848072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858751</v>
+        <v>0.716009</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.967468</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.623577</v>
+        <v>0.637401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.694771</v>
+        <v>0.832448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.842309</v>
+        <v>0.695715</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.941415</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.606759</v>
+        <v>0.620189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.675755</v>
+        <v>0.819533</v>
       </c>
       <c r="D13" t="n">
-        <v>0.827694</v>
+        <v>0.676007</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.914813</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599793</v>
+        <v>0.599004</v>
       </c>
       <c r="C14" t="n">
-        <v>0.657311</v>
+        <v>0.808183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.817244</v>
+        <v>0.657983</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.89344</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.580551</v>
+        <v>0.588764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.639088</v>
+        <v>0.7999849999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.808505</v>
+        <v>0.640136</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.871011</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570284</v>
+        <v>0.569564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.622937</v>
+        <v>0.78929</v>
       </c>
       <c r="D16" t="n">
-        <v>0.798226</v>
+        <v>0.623999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.853352</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.554269</v>
+        <v>0.560576</v>
       </c>
       <c r="C17" t="n">
-        <v>0.606943</v>
+        <v>0.781092</v>
       </c>
       <c r="D17" t="n">
-        <v>0.787915</v>
+        <v>0.608277</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8672530000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.543484</v>
+        <v>0.5503479999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.592695</v>
+        <v>0.774405</v>
       </c>
       <c r="D18" t="n">
-        <v>0.780653</v>
+        <v>0.594544</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.850002</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.532207</v>
+        <v>0.539343</v>
       </c>
       <c r="C19" t="n">
-        <v>0.579668</v>
+        <v>0.76342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.769937</v>
+        <v>0.581678</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.833097</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.523903</v>
+        <v>0.53039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.569465</v>
+        <v>0.75745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.767037</v>
+        <v>0.570217</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.818971</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.517475</v>
+        <v>0.522362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.55915</v>
+        <v>0.987464</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999854</v>
+        <v>0.560972</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.813204</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.511938</v>
+        <v>0.516161</v>
       </c>
       <c r="C22" t="n">
-        <v>0.552253</v>
+        <v>0.966122</v>
       </c>
       <c r="D22" t="n">
-        <v>0.978627</v>
+        <v>0.553714</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.800142</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.511517</v>
+        <v>0.516994</v>
       </c>
       <c r="C23" t="n">
-        <v>0.817069</v>
+        <v>0.954057</v>
       </c>
       <c r="D23" t="n">
-        <v>0.953972</v>
+        <v>0.817777</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.08682</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.718627</v>
+        <v>0.687416</v>
       </c>
       <c r="C24" t="n">
-        <v>0.792201</v>
+        <v>0.9368109999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.937208</v>
+        <v>0.793341</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.06508</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697728</v>
+        <v>0.665855</v>
       </c>
       <c r="C25" t="n">
-        <v>0.768836</v>
+        <v>0.911915</v>
       </c>
       <c r="D25" t="n">
-        <v>0.919529</v>
+        <v>0.7698469999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.02993</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6763130000000001</v>
+        <v>0.651709</v>
       </c>
       <c r="C26" t="n">
-        <v>0.746187</v>
+        <v>0.895934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.903877</v>
+        <v>0.746742</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.01548</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655769</v>
+        <v>0.626671</v>
       </c>
       <c r="C27" t="n">
-        <v>0.724132</v>
+        <v>0.880827</v>
       </c>
       <c r="D27" t="n">
-        <v>0.88807</v>
+        <v>0.7250259999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.991134</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639039</v>
+        <v>0.641827</v>
       </c>
       <c r="C28" t="n">
-        <v>0.702263</v>
+        <v>0.865565</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8731719999999999</v>
+        <v>0.704247</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9655010000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.61892</v>
+        <v>0.623051</v>
       </c>
       <c r="C29" t="n">
-        <v>0.683759</v>
+        <v>0.854155</v>
       </c>
       <c r="D29" t="n">
-        <v>0.863607</v>
+        <v>0.684822</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9444399999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607067</v>
+        <v>0.607399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6654</v>
+        <v>0.84609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.854649</v>
+        <v>0.666674</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.922249</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.590861</v>
+        <v>0.5923929999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6482329999999999</v>
+        <v>0.833163</v>
       </c>
       <c r="D31" t="n">
-        <v>0.843132</v>
+        <v>0.649221</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.903967</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5763509999999999</v>
+        <v>0.561636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.632311</v>
+        <v>0.830282</v>
       </c>
       <c r="D32" t="n">
-        <v>0.83516</v>
+        <v>0.633003</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.877564</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566953</v>
+        <v>0.568103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.616858</v>
+        <v>0.820334</v>
       </c>
       <c r="D33" t="n">
-        <v>0.826277</v>
+        <v>0.618057</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.86111</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.556244</v>
+        <v>0.56045</v>
       </c>
       <c r="C34" t="n">
-        <v>0.603907</v>
+        <v>0.811828</v>
       </c>
       <c r="D34" t="n">
-        <v>0.817964</v>
+        <v>0.583905</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.843838</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.548084</v>
+        <v>0.531744</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5920069999999999</v>
+        <v>1.06127</v>
       </c>
       <c r="D35" t="n">
-        <v>1.07022</v>
+        <v>0.573124</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.826966</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.52386</v>
+        <v>0.523528</v>
       </c>
       <c r="C36" t="n">
-        <v>0.563125</v>
+        <v>1.04138</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05222</v>
+        <v>0.564124</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.817156</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.518974</v>
+        <v>0.523385</v>
       </c>
       <c r="C37" t="n">
-        <v>0.831684</v>
+        <v>1.02038</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03323</v>
+        <v>0.833664</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.3792</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748396</v>
+        <v>0.7515309999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.82394</v>
+        <v>0.998376</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01099</v>
+        <v>0.8089229999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.34799</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7076</v>
+        <v>0.7311</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7836340000000001</v>
+        <v>0.978392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.989461</v>
+        <v>0.784502</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.31898</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7065669999999999</v>
+        <v>0.708856</v>
       </c>
       <c r="C40" t="n">
-        <v>0.775482</v>
+        <v>0.96219</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9708639999999999</v>
+        <v>0.761458</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.2905</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.669845</v>
+        <v>0.674575</v>
       </c>
       <c r="C41" t="n">
-        <v>0.738945</v>
+        <v>0.94712</v>
       </c>
       <c r="D41" t="n">
-        <v>0.956233</v>
+        <v>0.739489</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.26302</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.649294</v>
+        <v>0.669748</v>
       </c>
       <c r="C42" t="n">
-        <v>0.718648</v>
+        <v>0.931879</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939869</v>
+        <v>0.719229</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.23838</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.63182</v>
+        <v>0.638314</v>
       </c>
       <c r="C43" t="n">
-        <v>0.697727</v>
+        <v>0.917842</v>
       </c>
       <c r="D43" t="n">
-        <v>0.92567</v>
+        <v>0.699533</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.21413</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6173380000000001</v>
+        <v>0.622704</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6798959999999999</v>
+        <v>0.905294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.916077</v>
+        <v>0.680609</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.19077</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.60241</v>
+        <v>0.6093499999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.63767</v>
+        <v>0.896535</v>
       </c>
       <c r="D45" t="n">
-        <v>0.905125</v>
+        <v>0.663386</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.16945</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590303</v>
+        <v>0.59215</v>
       </c>
       <c r="C46" t="n">
-        <v>0.645942</v>
+        <v>0.885951</v>
       </c>
       <c r="D46" t="n">
-        <v>0.894172</v>
+        <v>0.6475070000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.14948</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.579705</v>
+        <v>0.5824</v>
       </c>
       <c r="C47" t="n">
-        <v>0.630847</v>
+        <v>0.883518</v>
       </c>
       <c r="D47" t="n">
-        <v>0.891952</v>
+        <v>0.632121</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.13155</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.550682</v>
+        <v>0.570753</v>
       </c>
       <c r="C48" t="n">
-        <v>0.595691</v>
+        <v>0.875834</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8837</v>
+        <v>0.617775</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.11089</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.558818</v>
+        <v>0.573086</v>
       </c>
       <c r="C49" t="n">
-        <v>0.605407</v>
+        <v>0.865394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.87429</v>
+        <v>0.605474</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.09691</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.553633</v>
+        <v>0.555166</v>
       </c>
       <c r="C50" t="n">
-        <v>0.595461</v>
+        <v>1.10815</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11742</v>
+        <v>0.576937</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.08359</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.550451</v>
+        <v>0.532432</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8747549999999999</v>
+        <v>1.08475</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09426</v>
+        <v>0.875929</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.45245</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.549631</v>
+        <v>0.550827</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8494119999999999</v>
+        <v>1.06324</v>
       </c>
       <c r="D52" t="n">
-        <v>1.07259</v>
+        <v>0.838812</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.4247</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.754263</v>
+        <v>0.758755</v>
       </c>
       <c r="C53" t="n">
-        <v>0.81179</v>
+        <v>1.04167</v>
       </c>
       <c r="D53" t="n">
-        <v>1.05216</v>
+        <v>0.815838</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.39428</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.733654</v>
+        <v>0.735934</v>
       </c>
       <c r="C54" t="n">
-        <v>0.80048</v>
+        <v>1.02372</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03526</v>
+        <v>0.792658</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.36545</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.701797</v>
+        <v>0.717208</v>
       </c>
       <c r="C55" t="n">
-        <v>0.766534</v>
+        <v>1.00545</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01484</v>
+        <v>0.779468</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.33009</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.686141</v>
+        <v>0.69171</v>
       </c>
       <c r="C56" t="n">
-        <v>0.747517</v>
+        <v>0.988296</v>
       </c>
       <c r="D56" t="n">
-        <v>0.999171</v>
+        <v>0.7463959999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.30254</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.666906</v>
+        <v>0.68098</v>
       </c>
       <c r="C57" t="n">
-        <v>0.728446</v>
+        <v>0.973351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9835660000000001</v>
+        <v>0.729955</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.27812</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.649834</v>
+        <v>0.6583599999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.708947</v>
+        <v>0.960653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.970182</v>
+        <v>0.718674</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.25816</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.637078</v>
+        <v>0.645359</v>
       </c>
       <c r="C59" t="n">
-        <v>0.69099</v>
+        <v>0.942069</v>
       </c>
       <c r="D59" t="n">
-        <v>0.949704</v>
+        <v>0.664022</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.23375</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.591338</v>
+        <v>0.632701</v>
       </c>
       <c r="C60" t="n">
-        <v>0.649313</v>
+        <v>0.932585</v>
       </c>
       <c r="D60" t="n">
-        <v>0.941402</v>
+        <v>0.647309</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.21238</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.612474</v>
+        <v>0.616695</v>
       </c>
       <c r="C61" t="n">
-        <v>0.659172</v>
+        <v>0.922069</v>
       </c>
       <c r="D61" t="n">
-        <v>0.930847</v>
+        <v>0.6584680000000001</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.1911</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.601698</v>
+        <v>0.602629</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6442290000000001</v>
+        <v>0.91378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.920951</v>
+        <v>0.644554</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.17304</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.590177</v>
+        <v>0.593401</v>
       </c>
       <c r="C63" t="n">
-        <v>0.63214</v>
+        <v>0.903932</v>
       </c>
       <c r="D63" t="n">
-        <v>0.912636</v>
+        <v>0.632595</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.15647</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.556628</v>
+        <v>0.589414</v>
       </c>
       <c r="C64" t="n">
-        <v>0.599915</v>
+        <v>1.19456</v>
       </c>
       <c r="D64" t="n">
-        <v>1.1961</v>
+        <v>0.622124</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.14056</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.58117</v>
+        <v>0.557554</v>
       </c>
       <c r="C65" t="n">
-        <v>0.615672</v>
+        <v>1.16043</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17028</v>
+        <v>0.6133110000000001</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.13003</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.579687</v>
+        <v>0.578425</v>
       </c>
       <c r="C66" t="n">
-        <v>0.911265</v>
+        <v>1.13325</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14318</v>
+        <v>0.923709</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.51439</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.825821</v>
+        <v>0.848424</v>
       </c>
       <c r="C67" t="n">
-        <v>0.87382</v>
+        <v>1.1036</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11253</v>
+        <v>0.894493</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.47699</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.797999</v>
+        <v>0.813754</v>
       </c>
       <c r="C68" t="n">
-        <v>0.851424</v>
+        <v>1.07451</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09155</v>
+        <v>0.8718360000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.45377</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7955950000000001</v>
+        <v>0.800465</v>
       </c>
       <c r="C69" t="n">
-        <v>0.830362</v>
+        <v>1.05734</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07244</v>
+        <v>0.850542</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.42045</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.778952</v>
+        <v>0.793639</v>
       </c>
       <c r="C70" t="n">
-        <v>0.809843</v>
+        <v>1.04669</v>
       </c>
       <c r="D70" t="n">
-        <v>1.06047</v>
+        <v>0.82775</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.40121</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.754864</v>
+        <v>0.772129</v>
       </c>
       <c r="C71" t="n">
-        <v>0.799698</v>
+        <v>1.0214</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0288</v>
+        <v>0.807107</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.38543</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.732128</v>
+        <v>0.756253</v>
       </c>
       <c r="C72" t="n">
-        <v>0.770132</v>
+        <v>1.01533</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01794</v>
+        <v>0.787626</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.3615</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.727796</v>
+        <v>0.73447</v>
       </c>
       <c r="C73" t="n">
-        <v>0.752055</v>
+        <v>1.00905</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00922</v>
+        <v>0.767839</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.35129</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.71383</v>
+        <v>0.727318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.733492</v>
+        <v>0.989291</v>
       </c>
       <c r="D74" t="n">
-        <v>0.993626</v>
+        <v>0.7161960000000001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.32319</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.658123</v>
+        <v>0.7246899999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.687177</v>
+        <v>0.982092</v>
       </c>
       <c r="D75" t="n">
-        <v>0.986724</v>
+        <v>0.732096</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.30913</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.668126</v>
+        <v>0.697783</v>
       </c>
       <c r="C76" t="n">
-        <v>0.672493</v>
+        <v>0.979413</v>
       </c>
       <c r="D76" t="n">
-        <v>0.984785</v>
+        <v>0.686514</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.29963</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6788459999999999</v>
+        <v>0.695616</v>
       </c>
       <c r="C77" t="n">
-        <v>0.687202</v>
+        <v>0.972926</v>
       </c>
       <c r="D77" t="n">
-        <v>0.973926</v>
+        <v>0.701933</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.30033</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663378</v>
+        <v>0.682487</v>
       </c>
       <c r="C78" t="n">
-        <v>0.675393</v>
+        <v>1.48849</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44362</v>
+        <v>0.662882</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.29556</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.665649</v>
+        <v>0.668818</v>
       </c>
       <c r="C79" t="n">
-        <v>0.664955</v>
+        <v>1.44555</v>
       </c>
       <c r="D79" t="n">
-        <v>1.41449</v>
+        <v>0.677647</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.30272</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.651079</v>
+        <v>0.671237</v>
       </c>
       <c r="C80" t="n">
-        <v>0.974213</v>
+        <v>1.41959</v>
       </c>
       <c r="D80" t="n">
-        <v>1.38734</v>
+        <v>1.00074</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.02098</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.906111</v>
+        <v>0.925177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.94241</v>
+        <v>1.36947</v>
       </c>
       <c r="D81" t="n">
-        <v>1.33826</v>
+        <v>0.986998</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.01682</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.885328</v>
+        <v>0.920693</v>
       </c>
       <c r="C82" t="n">
-        <v>0.925272</v>
+        <v>1.34972</v>
       </c>
       <c r="D82" t="n">
-        <v>1.32339</v>
+        <v>0.969678</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.998</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.879711</v>
+        <v>0.905595</v>
       </c>
       <c r="C83" t="n">
-        <v>0.908508</v>
+        <v>1.33504</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30863</v>
+        <v>0.939296</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.98628</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.873269</v>
+        <v>0.90633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.905336</v>
+        <v>1.32688</v>
       </c>
       <c r="D84" t="n">
-        <v>1.29484</v>
+        <v>0.931213</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.9631</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.860553</v>
+        <v>0.872727</v>
       </c>
       <c r="C85" t="n">
-        <v>0.871698</v>
+        <v>1.28333</v>
       </c>
       <c r="D85" t="n">
-        <v>1.25988</v>
+        <v>0.900885</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.97217</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.83184</v>
+        <v>0.890414</v>
       </c>
       <c r="C86" t="n">
-        <v>0.852355</v>
+        <v>1.27428</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24838</v>
+        <v>0.88051</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.9459</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.837784</v>
+        <v>0.8741370000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.832732</v>
+        <v>1.27457</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24576</v>
+        <v>0.870738</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.94481</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.830939</v>
+        <v>0.855196</v>
       </c>
       <c r="C88" t="n">
-        <v>0.813773</v>
+        <v>1.27114</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23728</v>
+        <v>0.8414239999999999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.94721</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.786844</v>
+        <v>0.8381999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.759265</v>
+        <v>1.2753</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23397</v>
+        <v>0.7884989999999999</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.94047</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.806878</v>
+        <v>0.831364</v>
       </c>
       <c r="C90" t="n">
-        <v>0.74448</v>
+        <v>1.29015</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24626</v>
+        <v>0.7711479999999999</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.96679</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.791682</v>
+        <v>0.822943</v>
       </c>
       <c r="C91" t="n">
-        <v>0.763578</v>
+        <v>1.27786</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2427</v>
+        <v>0.756364</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.94683</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.787848</v>
+        <v>0.810754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.750861</v>
+        <v>2.38423</v>
       </c>
       <c r="D92" t="n">
-        <v>2.25893</v>
+        <v>0.7748350000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.97363</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7872670000000001</v>
+        <v>0.814716</v>
       </c>
       <c r="C93" t="n">
-        <v>0.738908</v>
+        <v>2.36588</v>
       </c>
       <c r="D93" t="n">
-        <v>2.25133</v>
+        <v>0.76257</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.96281</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.770934</v>
+        <v>0.801822</v>
       </c>
       <c r="C94" t="n">
-        <v>1.0586</v>
+        <v>2.75754</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23933</v>
+        <v>1.09294</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.13526</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03252</v>
+        <v>1.05251</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05049</v>
+        <v>2.49122</v>
       </c>
       <c r="D95" t="n">
-        <v>2.23309</v>
+        <v>1.08499</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.12875</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03415</v>
+        <v>1.0737</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03562</v>
+        <v>2.57384</v>
       </c>
       <c r="D96" t="n">
-        <v>2.27761</v>
+        <v>1.04748</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.0937</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02506</v>
+        <v>1.07135</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9931759999999999</v>
+        <v>2.48305</v>
       </c>
       <c r="D97" t="n">
-        <v>2.41133</v>
+        <v>1.05552</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.06253</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00089</v>
+        <v>1.05578</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9780180000000001</v>
+        <v>2.25383</v>
       </c>
       <c r="D98" t="n">
-        <v>1.98456</v>
+        <v>1.0381</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.01031</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.983233</v>
+        <v>1.02241</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9608950000000001</v>
+        <v>2.18004</v>
       </c>
       <c r="D99" t="n">
-        <v>1.90008</v>
+        <v>0.998806</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.96798</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.978961</v>
+        <v>1.03564</v>
       </c>
       <c r="C100" t="n">
-        <v>0.945458</v>
+        <v>1.82433</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72391</v>
+        <v>0.982599</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.93564</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971487</v>
+        <v>1.01387</v>
       </c>
       <c r="C101" t="n">
-        <v>0.929706</v>
+        <v>1.82358</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72209</v>
+        <v>0.927253</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.89701</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.919887</v>
+        <v>0.99627</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8770250000000001</v>
+        <v>1.82669</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72004</v>
+        <v>0.953689</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.88369</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.955116</v>
+        <v>0.990949</v>
       </c>
       <c r="C103" t="n">
-        <v>0.903358</v>
+        <v>1.82876</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72261</v>
+        <v>0.939181</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.73619</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.951049</v>
+        <v>0.945393</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8896309999999999</v>
+        <v>1.83258</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72723</v>
+        <v>0.891617</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.69363</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.933488</v>
+        <v>0.946653</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8785770000000001</v>
+        <v>1.82509</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72226</v>
+        <v>0.881642</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.65089</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.943618</v>
+        <v>0.953668</v>
       </c>
       <c r="C106" t="n">
-        <v>0.868685</v>
+        <v>1.82866</v>
       </c>
       <c r="D106" t="n">
-        <v>1.73232</v>
+        <v>0.871469</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.61436</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.925137</v>
+        <v>0.984432</v>
       </c>
       <c r="C107" t="n">
-        <v>0.858999</v>
+        <v>3.2143</v>
       </c>
       <c r="D107" t="n">
-        <v>3.00091</v>
+        <v>0.895319</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.58464</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.904361</v>
+        <v>0.948569</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15003</v>
+        <v>3.19912</v>
       </c>
       <c r="D108" t="n">
-        <v>2.97013</v>
+        <v>1.22465</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.13715</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.931629</v>
+        <v>0.987194</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17391</v>
+        <v>3.37114</v>
       </c>
       <c r="D109" t="n">
-        <v>3.11532</v>
+        <v>1.1933</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.05972</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17507</v>
+        <v>1.25084</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13283</v>
+        <v>3.14728</v>
       </c>
       <c r="D110" t="n">
-        <v>2.74299</v>
+        <v>1.18109</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.99792</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18008</v>
+        <v>1.23598</v>
       </c>
       <c r="C111" t="n">
-        <v>1.1454</v>
+        <v>2.51663</v>
       </c>
       <c r="D111" t="n">
-        <v>2.34712</v>
+        <v>1.16735</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.93632</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16794</v>
+        <v>1.21359</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12981</v>
+        <v>2.69781</v>
       </c>
       <c r="D112" t="n">
-        <v>2.51216</v>
+        <v>1.15405</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.87306</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13128</v>
+        <v>1.21565</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09304</v>
+        <v>2.48196</v>
       </c>
       <c r="D113" t="n">
-        <v>2.3101</v>
+        <v>1.14294</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.82507</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1406</v>
+        <v>1.17062</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08196</v>
+        <v>2.45214</v>
       </c>
       <c r="D114" t="n">
-        <v>2.68282</v>
+        <v>1.13249</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.78635</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11618</v>
+        <v>1.19385</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07069</v>
+        <v>2.43891</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47894</v>
+        <v>1.12123</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.71176</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12249</v>
+        <v>1.17281</v>
       </c>
       <c r="C116" t="n">
-        <v>1.059</v>
+        <v>2.44581</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26658</v>
+        <v>1.1321</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.67287</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10616</v>
+        <v>1.16813</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04921</v>
+        <v>2.41013</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25439</v>
+        <v>1.10076</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.18235</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09243</v>
+        <v>1.16106</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03881</v>
+        <v>2.40876</v>
       </c>
       <c r="D118" t="n">
-        <v>2.24771</v>
+        <v>1.06092</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.9093</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09699</v>
+        <v>1.13556</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03125</v>
+        <v>2.41868</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24888</v>
+        <v>1.05392</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.86635</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.0822</v>
+        <v>1.14902</v>
       </c>
       <c r="C120" t="n">
-        <v>0.993406</v>
+        <v>2.41502</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25041</v>
+        <v>1.07768</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.26875</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08475</v>
+        <v>1.15976</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01617</v>
+        <v>4.64745</v>
       </c>
       <c r="D121" t="n">
-        <v>3.67068</v>
+        <v>1.07231</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.46927</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.08018</v>
+        <v>1.12556</v>
       </c>
       <c r="C122" t="n">
-        <v>0.981942</v>
+        <v>3.92379</v>
       </c>
       <c r="D122" t="n">
-        <v>3.62745</v>
+        <v>1.06603</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.41096</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09864</v>
+        <v>1.15803</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32586</v>
+        <v>4.5468</v>
       </c>
       <c r="D123" t="n">
-        <v>4.1953</v>
+        <v>1.36746</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.88293</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35406</v>
+        <v>1.40949</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31638</v>
+        <v>3.37908</v>
       </c>
       <c r="D124" t="n">
-        <v>3.75554</v>
+        <v>1.3584</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.80551</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3491</v>
+        <v>1.39589</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30557</v>
+        <v>3.10787</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30341</v>
+        <v>1.37758</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.74397</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33103</v>
+        <v>1.38951</v>
       </c>
       <c r="C126" t="n">
-        <v>1.2713</v>
+        <v>3.31214</v>
       </c>
       <c r="D126" t="n">
-        <v>3.27723</v>
+        <v>1.3457</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.65504</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32546</v>
+        <v>1.40068</v>
       </c>
       <c r="C127" t="n">
-        <v>1.28862</v>
+        <v>3.05268</v>
       </c>
       <c r="D127" t="n">
-        <v>2.82956</v>
+        <v>1.35881</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.5911</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28458</v>
+        <v>1.36088</v>
       </c>
       <c r="C128" t="n">
-        <v>1.25602</v>
+        <v>3.50824</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80523</v>
+        <v>1.33013</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.50707</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30195</v>
+        <v>1.36587</v>
       </c>
       <c r="C129" t="n">
-        <v>1.26919</v>
+        <v>2.99099</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76017</v>
+        <v>1.32323</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.44649</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28185</v>
+        <v>1.3793</v>
       </c>
       <c r="C130" t="n">
-        <v>1.20651</v>
+        <v>2.96397</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74173</v>
+        <v>1.31771</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.15141</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.27453</v>
+        <v>1.37046</v>
       </c>
       <c r="C131" t="n">
-        <v>1.237</v>
+        <v>2.96195</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73825</v>
+        <v>1.28019</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.33032</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.27826</v>
+        <v>1.37554</v>
       </c>
       <c r="C132" t="n">
-        <v>1.23131</v>
+        <v>2.95759</v>
       </c>
       <c r="D132" t="n">
-        <v>2.7272</v>
+        <v>1.30966</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.28089</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27801</v>
+        <v>1.36165</v>
       </c>
       <c r="C133" t="n">
-        <v>1.2268</v>
+        <v>2.93586</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71355</v>
+        <v>1.27364</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.20495</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.24618</v>
+        <v>1.35062</v>
       </c>
       <c r="C134" t="n">
-        <v>1.19095</v>
+        <v>2.93226</v>
       </c>
       <c r="D134" t="n">
-        <v>2.71046</v>
+        <v>1.27438</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.69481</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.26627</v>
+        <v>1.35178</v>
       </c>
       <c r="C135" t="n">
-        <v>1.18982</v>
+        <v>4.57312</v>
       </c>
       <c r="D135" t="n">
-        <v>4.21513</v>
+        <v>1.27282</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.89209</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.25452</v>
+        <v>1.35625</v>
       </c>
       <c r="C136" t="n">
-        <v>1.18394</v>
+        <v>4.5249</v>
       </c>
       <c r="D136" t="n">
-        <v>4.15285</v>
+        <v>1.26722</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.08532</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.26865</v>
+        <v>1.343</v>
       </c>
       <c r="C137" t="n">
-        <v>1.49825</v>
+        <v>5.19664</v>
       </c>
       <c r="D137" t="n">
-        <v>4.10428</v>
+        <v>1.59425</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.59536</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53248</v>
+        <v>1.60134</v>
       </c>
       <c r="C138" t="n">
-        <v>1.51606</v>
+        <v>4.41571</v>
       </c>
       <c r="D138" t="n">
-        <v>4.27681</v>
+        <v>1.58753</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.50543</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51394</v>
+        <v>1.58891</v>
       </c>
       <c r="C139" t="n">
-        <v>1.50963</v>
+        <v>3.85442</v>
       </c>
       <c r="D139" t="n">
-        <v>4.009</v>
+        <v>1.58368</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.4027</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51174</v>
+        <v>1.61041</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47969</v>
+        <v>3.81851</v>
       </c>
       <c r="D140" t="n">
-        <v>3.7342</v>
+        <v>1.6011</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.32383</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.50384</v>
+        <v>1.60177</v>
       </c>
       <c r="C141" t="n">
-        <v>1.47443</v>
+        <v>3.51384</v>
       </c>
       <c r="D141" t="n">
-        <v>3.23884</v>
+        <v>1.57555</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.23234</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.50841</v>
+        <v>1.59499</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46972</v>
+        <v>3.47311</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18706</v>
+        <v>1.57222</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.13778</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.48526</v>
+        <v>1.5946</v>
       </c>
       <c r="C143" t="n">
-        <v>1.4657</v>
+        <v>3.42904</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15593</v>
+        <v>1.56814</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.04926</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576684</v>
+        <v>0.58427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.834182</v>
+        <v>0.769498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.56546</v>
+        <v>0.565443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.80785</v>
+        <v>0.807929</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564798</v>
+        <v>0.566958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.82323</v>
+        <v>0.758691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.551393</v>
+        <v>0.552528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.787785</v>
+        <v>0.792831</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.554576</v>
+        <v>0.554665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.815362</v>
+        <v>0.745738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539637</v>
+        <v>0.539905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7732250000000001</v>
+        <v>0.77787</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540485</v>
+        <v>0.544818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.806904</v>
+        <v>0.737845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.528454</v>
+        <v>0.572513</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758386</v>
+        <v>0.763019</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.530115</v>
+        <v>0.535655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.800242</v>
+        <v>0.741944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5184029999999999</v>
+        <v>0.516606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746072</v>
+        <v>0.750115</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527372</v>
+        <v>0.530828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.913508</v>
+        <v>0.736621</v>
       </c>
       <c r="D7" t="n">
-        <v>0.508818</v>
+        <v>0.508992</v>
       </c>
       <c r="E7" t="n">
-        <v>0.733885</v>
+        <v>0.739683</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5232059999999999</v>
+        <v>0.52846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.895791</v>
+        <v>0.733385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.503174</v>
+        <v>0.504316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.726841</v>
+        <v>0.730463</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.524749</v>
+        <v>0.5280550000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.876465</v>
+        <v>0.732694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.760584</v>
+        <v>0.762134</v>
       </c>
       <c r="E9" t="n">
-        <v>1.01011</v>
+        <v>1.01327</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67226</v>
+        <v>0.673909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.86419</v>
+        <v>0.894599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.738235</v>
+        <v>0.739917</v>
       </c>
       <c r="E10" t="n">
-        <v>0.985634</v>
+        <v>0.987504</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6553290000000001</v>
+        <v>0.655346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.848072</v>
+        <v>0.874658</v>
       </c>
       <c r="D11" t="n">
-        <v>0.716009</v>
+        <v>0.717284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.967468</v>
+        <v>0.96397</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.637401</v>
+        <v>0.640292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.832448</v>
+        <v>0.857178</v>
       </c>
       <c r="D12" t="n">
-        <v>0.695715</v>
+        <v>0.697187</v>
       </c>
       <c r="E12" t="n">
-        <v>0.941415</v>
+        <v>0.940866</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.620189</v>
+        <v>0.623208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.819533</v>
+        <v>0.840603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.676007</v>
+        <v>0.676681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.914813</v>
+        <v>0.917099</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599004</v>
+        <v>0.607218</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808183</v>
+        <v>0.823841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.657983</v>
+        <v>0.659195</v>
       </c>
       <c r="E14" t="n">
-        <v>0.89344</v>
+        <v>0.891839</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.588764</v>
+        <v>0.593294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7999849999999999</v>
+        <v>0.807382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.640136</v>
+        <v>0.642176</v>
       </c>
       <c r="E15" t="n">
-        <v>0.871011</v>
+        <v>0.872044</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569564</v>
+        <v>0.575846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.78929</v>
+        <v>0.794083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.623999</v>
+        <v>0.625668</v>
       </c>
       <c r="E16" t="n">
-        <v>0.853352</v>
+        <v>0.851824</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560576</v>
+        <v>0.561887</v>
       </c>
       <c r="C17" t="n">
-        <v>0.781092</v>
+        <v>0.780199</v>
       </c>
       <c r="D17" t="n">
-        <v>0.608277</v>
+        <v>0.609402</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8672530000000001</v>
+        <v>0.864776</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5503479999999999</v>
+        <v>0.551547</v>
       </c>
       <c r="C18" t="n">
-        <v>0.774405</v>
+        <v>0.7695419999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594544</v>
+        <v>0.59526</v>
       </c>
       <c r="E18" t="n">
-        <v>0.850002</v>
+        <v>0.847669</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.539343</v>
+        <v>0.541507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.76342</v>
+        <v>0.764289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.581678</v>
+        <v>0.5827870000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.833097</v>
+        <v>0.832815</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.53039</v>
+        <v>0.52939</v>
       </c>
       <c r="C20" t="n">
-        <v>0.75745</v>
+        <v>0.760945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.570217</v>
+        <v>0.570994</v>
       </c>
       <c r="E20" t="n">
-        <v>0.818971</v>
+        <v>0.819241</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.522362</v>
+        <v>0.5246150000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.987464</v>
+        <v>0.7542720000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.560972</v>
+        <v>0.5613089999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.813204</v>
+        <v>0.811918</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516161</v>
+        <v>0.5197310000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.966122</v>
+        <v>0.748529</v>
       </c>
       <c r="D22" t="n">
-        <v>0.553714</v>
+        <v>0.554511</v>
       </c>
       <c r="E22" t="n">
-        <v>0.800142</v>
+        <v>0.802765</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516994</v>
+        <v>0.519467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.954057</v>
+        <v>0.746039</v>
       </c>
       <c r="D23" t="n">
-        <v>0.817777</v>
+        <v>0.818304</v>
       </c>
       <c r="E23" t="n">
-        <v>1.08682</v>
+        <v>1.08871</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.687416</v>
+        <v>0.683185</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9368109999999999</v>
+        <v>0.932097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.793341</v>
+        <v>0.760139</v>
       </c>
       <c r="E24" t="n">
-        <v>1.06508</v>
+        <v>1.06043</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.665855</v>
+        <v>0.667558</v>
       </c>
       <c r="C25" t="n">
-        <v>0.911915</v>
+        <v>0.911598</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7698469999999999</v>
+        <v>0.770115</v>
       </c>
       <c r="E25" t="n">
-        <v>1.02993</v>
+        <v>1.03211</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.651709</v>
+        <v>0.6480590000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.895934</v>
+        <v>0.892948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.746742</v>
+        <v>0.7475540000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>1.01548</v>
+        <v>1.01165</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.626671</v>
+        <v>0.635448</v>
       </c>
       <c r="C27" t="n">
-        <v>0.880827</v>
+        <v>0.874692</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7250259999999999</v>
+        <v>0.696736</v>
       </c>
       <c r="E27" t="n">
-        <v>0.991134</v>
+        <v>0.98583</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641827</v>
+        <v>0.647101</v>
       </c>
       <c r="C28" t="n">
-        <v>0.865565</v>
+        <v>0.853411</v>
       </c>
       <c r="D28" t="n">
-        <v>0.704247</v>
+        <v>0.676604</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9655010000000001</v>
+        <v>0.96127</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623051</v>
+        <v>0.628274</v>
       </c>
       <c r="C29" t="n">
-        <v>0.854155</v>
+        <v>0.841131</v>
       </c>
       <c r="D29" t="n">
-        <v>0.684822</v>
+        <v>0.684928</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9444399999999999</v>
+        <v>0.943975</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607399</v>
+        <v>0.612399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.84609</v>
+        <v>0.843523</v>
       </c>
       <c r="D30" t="n">
-        <v>0.666674</v>
+        <v>0.666505</v>
       </c>
       <c r="E30" t="n">
-        <v>0.922249</v>
+        <v>0.9216220000000001</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5923929999999999</v>
+        <v>0.597117</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833163</v>
+        <v>0.829797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.649221</v>
+        <v>0.649267</v>
       </c>
       <c r="E31" t="n">
-        <v>0.903967</v>
+        <v>0.900728</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.561636</v>
+        <v>0.5832349999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.830282</v>
+        <v>0.818573</v>
       </c>
       <c r="D32" t="n">
-        <v>0.633003</v>
+        <v>0.6336850000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.877564</v>
+        <v>0.881169</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568103</v>
+        <v>0.571823</v>
       </c>
       <c r="C33" t="n">
-        <v>0.820334</v>
+        <v>0.808682</v>
       </c>
       <c r="D33" t="n">
-        <v>0.618057</v>
+        <v>0.6189480000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.86111</v>
+        <v>0.8635659999999999</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56045</v>
+        <v>0.561935</v>
       </c>
       <c r="C34" t="n">
-        <v>0.811828</v>
+        <v>0.8001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.583905</v>
+        <v>0.605411</v>
       </c>
       <c r="E34" t="n">
-        <v>0.843838</v>
+        <v>0.849094</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.531744</v>
+        <v>0.552848</v>
       </c>
       <c r="C35" t="n">
-        <v>1.06127</v>
+        <v>0.7931280000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.573124</v>
+        <v>0.593329</v>
       </c>
       <c r="E35" t="n">
-        <v>0.826966</v>
+        <v>0.8356</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.523528</v>
+        <v>0.527616</v>
       </c>
       <c r="C36" t="n">
-        <v>1.04138</v>
+        <v>0.7882710000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.564124</v>
+        <v>0.583476</v>
       </c>
       <c r="E36" t="n">
-        <v>0.817156</v>
+        <v>0.823918</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523385</v>
+        <v>0.542361</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02038</v>
+        <v>0.787027</v>
       </c>
       <c r="D37" t="n">
-        <v>0.833664</v>
+        <v>0.851185</v>
       </c>
       <c r="E37" t="n">
-        <v>1.3792</v>
+        <v>1.37652</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7515309999999999</v>
+        <v>0.7532990000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.998376</v>
+        <v>1.18041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8089229999999999</v>
+        <v>0.809547</v>
       </c>
       <c r="E38" t="n">
-        <v>1.34799</v>
+        <v>1.34743</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7311</v>
+        <v>0.732029</v>
       </c>
       <c r="C39" t="n">
-        <v>0.978392</v>
+        <v>1.15918</v>
       </c>
       <c r="D39" t="n">
-        <v>0.784502</v>
+        <v>0.80069</v>
       </c>
       <c r="E39" t="n">
-        <v>1.31898</v>
+        <v>1.31631</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708856</v>
+        <v>0.693526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.96219</v>
+        <v>1.14017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.761458</v>
+        <v>0.777414</v>
       </c>
       <c r="E40" t="n">
-        <v>1.2905</v>
+        <v>1.28625</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.674575</v>
+        <v>0.671919</v>
       </c>
       <c r="C41" t="n">
-        <v>0.94712</v>
+        <v>1.12483</v>
       </c>
       <c r="D41" t="n">
-        <v>0.739489</v>
+        <v>0.740021</v>
       </c>
       <c r="E41" t="n">
-        <v>1.26302</v>
+        <v>1.26146</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669748</v>
+        <v>0.655967</v>
       </c>
       <c r="C42" t="n">
-        <v>0.931879</v>
+        <v>1.107</v>
       </c>
       <c r="D42" t="n">
-        <v>0.719229</v>
+        <v>0.732731</v>
       </c>
       <c r="E42" t="n">
-        <v>1.23838</v>
+        <v>1.23632</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.638314</v>
+        <v>0.639211</v>
       </c>
       <c r="C43" t="n">
-        <v>0.917842</v>
+        <v>1.08889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.699533</v>
+        <v>0.700275</v>
       </c>
       <c r="E43" t="n">
-        <v>1.21413</v>
+        <v>1.21144</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622704</v>
+        <v>0.621529</v>
       </c>
       <c r="C44" t="n">
-        <v>0.905294</v>
+        <v>1.07406</v>
       </c>
       <c r="D44" t="n">
-        <v>0.680609</v>
+        <v>0.682208</v>
       </c>
       <c r="E44" t="n">
-        <v>1.19077</v>
+        <v>1.18755</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6093499999999999</v>
+        <v>0.606583</v>
       </c>
       <c r="C45" t="n">
-        <v>0.896535</v>
+        <v>1.05965</v>
       </c>
       <c r="D45" t="n">
-        <v>0.663386</v>
+        <v>0.664117</v>
       </c>
       <c r="E45" t="n">
-        <v>1.16945</v>
+        <v>1.1672</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.59215</v>
+        <v>0.595108</v>
       </c>
       <c r="C46" t="n">
-        <v>0.885951</v>
+        <v>1.0472</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6475070000000001</v>
+        <v>0.6478120000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>1.14948</v>
+        <v>1.14598</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5824</v>
+        <v>0.5804589999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.883518</v>
+        <v>1.0362</v>
       </c>
       <c r="D47" t="n">
-        <v>0.632121</v>
+        <v>0.632753</v>
       </c>
       <c r="E47" t="n">
-        <v>1.13155</v>
+        <v>1.12732</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.570753</v>
+        <v>0.571665</v>
       </c>
       <c r="C48" t="n">
-        <v>0.875834</v>
+        <v>1.02702</v>
       </c>
       <c r="D48" t="n">
-        <v>0.617775</v>
+        <v>0.618753</v>
       </c>
       <c r="E48" t="n">
-        <v>1.11089</v>
+        <v>1.11112</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.573086</v>
+        <v>0.566034</v>
       </c>
       <c r="C49" t="n">
-        <v>0.865394</v>
+        <v>1.01694</v>
       </c>
       <c r="D49" t="n">
-        <v>0.605474</v>
+        <v>0.586506</v>
       </c>
       <c r="E49" t="n">
-        <v>1.09691</v>
+        <v>1.09553</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.555166</v>
+        <v>0.556612</v>
       </c>
       <c r="C50" t="n">
-        <v>1.10815</v>
+        <v>1.01197</v>
       </c>
       <c r="D50" t="n">
-        <v>0.576937</v>
+        <v>0.595434</v>
       </c>
       <c r="E50" t="n">
-        <v>1.08359</v>
+        <v>1.08248</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.532432</v>
+        <v>0.551297</v>
       </c>
       <c r="C51" t="n">
-        <v>1.08475</v>
+        <v>1.01117</v>
       </c>
       <c r="D51" t="n">
-        <v>0.875929</v>
+        <v>0.876095</v>
       </c>
       <c r="E51" t="n">
-        <v>1.45245</v>
+        <v>1.45736</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.550827</v>
+        <v>0.551525</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06324</v>
+        <v>1.01177</v>
       </c>
       <c r="D52" t="n">
-        <v>0.838812</v>
+        <v>0.838144</v>
       </c>
       <c r="E52" t="n">
-        <v>1.4247</v>
+        <v>1.42326</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.758755</v>
+        <v>0.756006</v>
       </c>
       <c r="C53" t="n">
-        <v>1.04167</v>
+        <v>1.21214</v>
       </c>
       <c r="D53" t="n">
-        <v>0.815838</v>
+        <v>0.826445</v>
       </c>
       <c r="E53" t="n">
-        <v>1.39428</v>
+        <v>1.38925</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735934</v>
+        <v>0.7596000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>1.02372</v>
+        <v>1.19117</v>
       </c>
       <c r="D54" t="n">
-        <v>0.792658</v>
+        <v>0.803327</v>
       </c>
       <c r="E54" t="n">
-        <v>1.36545</v>
+        <v>1.36098</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.717208</v>
+        <v>0.71883</v>
       </c>
       <c r="C55" t="n">
-        <v>1.00545</v>
+        <v>1.1715</v>
       </c>
       <c r="D55" t="n">
-        <v>0.779468</v>
+        <v>0.768216</v>
       </c>
       <c r="E55" t="n">
-        <v>1.33009</v>
+        <v>1.3311</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.69171</v>
+        <v>0.690547</v>
       </c>
       <c r="C56" t="n">
-        <v>0.988296</v>
+        <v>1.15318</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7463959999999999</v>
+        <v>0.748981</v>
       </c>
       <c r="E56" t="n">
-        <v>1.30254</v>
+        <v>1.30383</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.68098</v>
+        <v>0.673621</v>
       </c>
       <c r="C57" t="n">
-        <v>0.973351</v>
+        <v>1.13733</v>
       </c>
       <c r="D57" t="n">
-        <v>0.729955</v>
+        <v>0.729365</v>
       </c>
       <c r="E57" t="n">
-        <v>1.27812</v>
+        <v>1.27801</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6583599999999999</v>
+        <v>0.655884</v>
       </c>
       <c r="C58" t="n">
-        <v>0.960653</v>
+        <v>1.12108</v>
       </c>
       <c r="D58" t="n">
-        <v>0.718674</v>
+        <v>0.711084</v>
       </c>
       <c r="E58" t="n">
-        <v>1.25816</v>
+        <v>1.2529</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.645359</v>
+        <v>0.643859</v>
       </c>
       <c r="C59" t="n">
-        <v>0.942069</v>
+        <v>1.10505</v>
       </c>
       <c r="D59" t="n">
-        <v>0.664022</v>
+        <v>0.692539</v>
       </c>
       <c r="E59" t="n">
-        <v>1.23375</v>
+        <v>1.23105</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.632701</v>
+        <v>0.629699</v>
       </c>
       <c r="C60" t="n">
-        <v>0.932585</v>
+        <v>1.09313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.647309</v>
+        <v>0.676215</v>
       </c>
       <c r="E60" t="n">
-        <v>1.21238</v>
+        <v>1.2079</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.616695</v>
+        <v>0.6146239999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.922069</v>
+        <v>1.07966</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6584680000000001</v>
+        <v>0.666085</v>
       </c>
       <c r="E61" t="n">
-        <v>1.1911</v>
+        <v>1.18744</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.602629</v>
+        <v>0.603579</v>
       </c>
       <c r="C62" t="n">
-        <v>0.91378</v>
+        <v>1.06989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.644554</v>
+        <v>0.645605</v>
       </c>
       <c r="E62" t="n">
-        <v>1.17304</v>
+        <v>1.16869</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.593401</v>
+        <v>0.594482</v>
       </c>
       <c r="C63" t="n">
-        <v>0.903932</v>
+        <v>1.06117</v>
       </c>
       <c r="D63" t="n">
-        <v>0.632595</v>
+        <v>0.631992</v>
       </c>
       <c r="E63" t="n">
-        <v>1.15647</v>
+        <v>1.15239</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589414</v>
+        <v>0.557601</v>
       </c>
       <c r="C64" t="n">
-        <v>1.19456</v>
+        <v>1.05461</v>
       </c>
       <c r="D64" t="n">
-        <v>0.622124</v>
+        <v>0.622704</v>
       </c>
       <c r="E64" t="n">
-        <v>1.14056</v>
+        <v>1.13794</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.557554</v>
+        <v>0.5792389999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>1.16043</v>
+        <v>1.05115</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6133110000000001</v>
+        <v>0.614498</v>
       </c>
       <c r="E65" t="n">
-        <v>1.13003</v>
+        <v>1.12838</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578425</v>
+        <v>0.557674</v>
       </c>
       <c r="C66" t="n">
-        <v>1.13325</v>
+        <v>1.04995</v>
       </c>
       <c r="D66" t="n">
-        <v>0.923709</v>
+        <v>0.899367</v>
       </c>
       <c r="E66" t="n">
-        <v>1.51439</v>
+        <v>1.50458</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.848424</v>
+        <v>0.833159</v>
       </c>
       <c r="C67" t="n">
-        <v>1.1036</v>
+        <v>1.27781</v>
       </c>
       <c r="D67" t="n">
-        <v>0.894493</v>
+        <v>0.8760599999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>1.47699</v>
+        <v>1.4717</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.813754</v>
+        <v>0.808428</v>
       </c>
       <c r="C68" t="n">
-        <v>1.07451</v>
+        <v>1.25167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8718360000000001</v>
+        <v>0.867084</v>
       </c>
       <c r="E68" t="n">
-        <v>1.45377</v>
+        <v>1.44413</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.800465</v>
+        <v>0.790011</v>
       </c>
       <c r="C69" t="n">
-        <v>1.05734</v>
+        <v>1.23729</v>
       </c>
       <c r="D69" t="n">
-        <v>0.850542</v>
+        <v>0.844621</v>
       </c>
       <c r="E69" t="n">
-        <v>1.42045</v>
+        <v>1.4122</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.793639</v>
+        <v>0.77955</v>
       </c>
       <c r="C70" t="n">
-        <v>1.04669</v>
+        <v>1.22047</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82775</v>
+        <v>0.8141890000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>1.40121</v>
+        <v>1.3847</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.772129</v>
+        <v>0.751053</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0214</v>
+        <v>1.21082</v>
       </c>
       <c r="D71" t="n">
-        <v>0.807107</v>
+        <v>0.793523</v>
       </c>
       <c r="E71" t="n">
-        <v>1.38543</v>
+        <v>1.36463</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.756253</v>
+        <v>0.746641</v>
       </c>
       <c r="C72" t="n">
-        <v>1.01533</v>
+        <v>1.20723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.787626</v>
+        <v>0.772587</v>
       </c>
       <c r="E72" t="n">
-        <v>1.3615</v>
+        <v>1.34503</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.73447</v>
+        <v>0.7311839999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>1.00905</v>
+        <v>1.19124</v>
       </c>
       <c r="D73" t="n">
-        <v>0.767839</v>
+        <v>0.754573</v>
       </c>
       <c r="E73" t="n">
-        <v>1.35129</v>
+        <v>1.32606</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.727318</v>
+        <v>0.7125010000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.989291</v>
+        <v>1.184</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7161960000000001</v>
+        <v>0.737136</v>
       </c>
       <c r="E74" t="n">
-        <v>1.32319</v>
+        <v>1.3089</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7246899999999999</v>
+        <v>0.706105</v>
       </c>
       <c r="C75" t="n">
-        <v>0.982092</v>
+        <v>1.18322</v>
       </c>
       <c r="D75" t="n">
-        <v>0.732096</v>
+        <v>0.689049</v>
       </c>
       <c r="E75" t="n">
-        <v>1.30913</v>
+        <v>1.29601</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.697783</v>
+        <v>0.684808</v>
       </c>
       <c r="C76" t="n">
-        <v>0.979413</v>
+        <v>1.17959</v>
       </c>
       <c r="D76" t="n">
-        <v>0.686514</v>
+        <v>0.702969</v>
       </c>
       <c r="E76" t="n">
-        <v>1.29963</v>
+        <v>1.28023</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.695616</v>
+        <v>0.67169</v>
       </c>
       <c r="C77" t="n">
-        <v>0.972926</v>
+        <v>1.18055</v>
       </c>
       <c r="D77" t="n">
-        <v>0.701933</v>
+        <v>0.66138</v>
       </c>
       <c r="E77" t="n">
-        <v>1.30033</v>
+        <v>1.27768</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.682487</v>
+        <v>0.65973</v>
       </c>
       <c r="C78" t="n">
-        <v>1.48849</v>
+        <v>1.18334</v>
       </c>
       <c r="D78" t="n">
-        <v>0.662882</v>
+        <v>0.677222</v>
       </c>
       <c r="E78" t="n">
-        <v>1.29556</v>
+        <v>1.27346</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.668818</v>
+        <v>0.634911</v>
       </c>
       <c r="C79" t="n">
-        <v>1.44555</v>
+        <v>1.19149</v>
       </c>
       <c r="D79" t="n">
-        <v>0.677647</v>
+        <v>0.66616</v>
       </c>
       <c r="E79" t="n">
-        <v>1.30272</v>
+        <v>1.27878</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.671237</v>
+        <v>0.657457</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41959</v>
+        <v>1.21343</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00074</v>
+        <v>0.979233</v>
       </c>
       <c r="E80" t="n">
-        <v>2.02098</v>
+        <v>1.94845</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.925177</v>
+        <v>0.912371</v>
       </c>
       <c r="C81" t="n">
-        <v>1.36947</v>
+        <v>1.70385</v>
       </c>
       <c r="D81" t="n">
-        <v>0.986998</v>
+        <v>0.963597</v>
       </c>
       <c r="E81" t="n">
-        <v>2.01682</v>
+        <v>1.93745</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.920693</v>
+        <v>0.897292</v>
       </c>
       <c r="C82" t="n">
-        <v>1.34972</v>
+        <v>1.71517</v>
       </c>
       <c r="D82" t="n">
-        <v>0.969678</v>
+        <v>0.928904</v>
       </c>
       <c r="E82" t="n">
-        <v>1.998</v>
+        <v>1.92258</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.905595</v>
+        <v>0.887217</v>
       </c>
       <c r="C83" t="n">
-        <v>1.33504</v>
+        <v>1.71328</v>
       </c>
       <c r="D83" t="n">
-        <v>0.939296</v>
+        <v>0.927885</v>
       </c>
       <c r="E83" t="n">
-        <v>1.98628</v>
+        <v>1.90063</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.90633</v>
+        <v>0.883316</v>
       </c>
       <c r="C84" t="n">
-        <v>1.32688</v>
+        <v>1.70347</v>
       </c>
       <c r="D84" t="n">
-        <v>0.931213</v>
+        <v>0.893208</v>
       </c>
       <c r="E84" t="n">
-        <v>1.9631</v>
+        <v>1.88955</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.872727</v>
+        <v>0.869902</v>
       </c>
       <c r="C85" t="n">
-        <v>1.28333</v>
+        <v>1.69695</v>
       </c>
       <c r="D85" t="n">
-        <v>0.900885</v>
+        <v>0.872842</v>
       </c>
       <c r="E85" t="n">
-        <v>1.97217</v>
+        <v>1.86899</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.890414</v>
+        <v>0.843821</v>
       </c>
       <c r="C86" t="n">
-        <v>1.27428</v>
+        <v>1.70931</v>
       </c>
       <c r="D86" t="n">
-        <v>0.88051</v>
+        <v>0.854307</v>
       </c>
       <c r="E86" t="n">
-        <v>1.9459</v>
+        <v>1.8737</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8741370000000001</v>
+        <v>0.830766</v>
       </c>
       <c r="C87" t="n">
-        <v>1.27457</v>
+        <v>1.71475</v>
       </c>
       <c r="D87" t="n">
-        <v>0.870738</v>
+        <v>0.847722</v>
       </c>
       <c r="E87" t="n">
-        <v>1.94481</v>
+        <v>1.85176</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.855196</v>
+        <v>0.832161</v>
       </c>
       <c r="C88" t="n">
-        <v>1.27114</v>
+        <v>1.72058</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8414239999999999</v>
+        <v>0.828442</v>
       </c>
       <c r="E88" t="n">
-        <v>1.94721</v>
+        <v>1.84977</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8381999999999999</v>
+        <v>0.808025</v>
       </c>
       <c r="C89" t="n">
-        <v>1.2753</v>
+        <v>1.7231</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7884989999999999</v>
+        <v>0.7985</v>
       </c>
       <c r="E89" t="n">
-        <v>1.94047</v>
+        <v>1.85739</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.831364</v>
+        <v>0.800584</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29015</v>
+        <v>1.73342</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7711479999999999</v>
+        <v>0.781979</v>
       </c>
       <c r="E90" t="n">
-        <v>1.96679</v>
+        <v>1.85128</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.822943</v>
+        <v>0.784755</v>
       </c>
       <c r="C91" t="n">
-        <v>1.27786</v>
+        <v>1.74038</v>
       </c>
       <c r="D91" t="n">
-        <v>0.756364</v>
+        <v>0.733332</v>
       </c>
       <c r="E91" t="n">
-        <v>1.94683</v>
+        <v>1.84698</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.810754</v>
+        <v>0.783324</v>
       </c>
       <c r="C92" t="n">
-        <v>2.38423</v>
+        <v>1.75463</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7748350000000001</v>
+        <v>0.751813</v>
       </c>
       <c r="E92" t="n">
-        <v>1.97363</v>
+        <v>1.86214</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.814716</v>
+        <v>0.784124</v>
       </c>
       <c r="C93" t="n">
-        <v>2.36588</v>
+        <v>1.11635</v>
       </c>
       <c r="D93" t="n">
-        <v>0.76257</v>
+        <v>0.740291</v>
       </c>
       <c r="E93" t="n">
-        <v>1.96281</v>
+        <v>1.86103</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.801822</v>
+        <v>0.776107</v>
       </c>
       <c r="C94" t="n">
-        <v>2.75754</v>
+        <v>1.80083</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09294</v>
+        <v>1.0606</v>
       </c>
       <c r="E94" t="n">
-        <v>3.13526</v>
+        <v>2.9409</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05251</v>
+        <v>1.01279</v>
       </c>
       <c r="C95" t="n">
-        <v>2.49122</v>
+        <v>2.49238</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08499</v>
+        <v>1.02491</v>
       </c>
       <c r="E95" t="n">
-        <v>3.12875</v>
+        <v>2.91135</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0737</v>
+        <v>1.00985</v>
       </c>
       <c r="C96" t="n">
-        <v>2.57384</v>
+        <v>2.49795</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04748</v>
+        <v>1.01113</v>
       </c>
       <c r="E96" t="n">
-        <v>3.0937</v>
+        <v>2.88722</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07135</v>
+        <v>1.03084</v>
       </c>
       <c r="C97" t="n">
-        <v>2.48305</v>
+        <v>2.50059</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05552</v>
+        <v>1.01868</v>
       </c>
       <c r="E97" t="n">
-        <v>3.06253</v>
+        <v>2.84016</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05578</v>
+        <v>0.993503</v>
       </c>
       <c r="C98" t="n">
-        <v>2.25383</v>
+        <v>2.47823</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0381</v>
+        <v>0.979481</v>
       </c>
       <c r="E98" t="n">
-        <v>3.01031</v>
+        <v>2.80831</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02241</v>
+        <v>0.975414</v>
       </c>
       <c r="C99" t="n">
-        <v>2.18004</v>
+        <v>2.44992</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998806</v>
+        <v>0.984276</v>
       </c>
       <c r="E99" t="n">
-        <v>2.96798</v>
+        <v>2.7539</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03564</v>
+        <v>0.963599</v>
       </c>
       <c r="C100" t="n">
-        <v>1.82433</v>
+        <v>2.43238</v>
       </c>
       <c r="D100" t="n">
-        <v>0.982599</v>
+        <v>0.904232</v>
       </c>
       <c r="E100" t="n">
-        <v>2.93564</v>
+        <v>2.72798</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01387</v>
+        <v>0.960336</v>
       </c>
       <c r="C101" t="n">
-        <v>1.82358</v>
+        <v>2.41546</v>
       </c>
       <c r="D101" t="n">
-        <v>0.927253</v>
+        <v>0.9317260000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>2.89701</v>
+        <v>2.70081</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.99627</v>
+        <v>0.976969</v>
       </c>
       <c r="C102" t="n">
-        <v>1.82669</v>
+        <v>2.41511</v>
       </c>
       <c r="D102" t="n">
-        <v>0.953689</v>
+        <v>0.917115</v>
       </c>
       <c r="E102" t="n">
-        <v>2.88369</v>
+        <v>2.67404</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.990949</v>
+        <v>0.950282</v>
       </c>
       <c r="C103" t="n">
-        <v>1.82876</v>
+        <v>2.40381</v>
       </c>
       <c r="D103" t="n">
-        <v>0.939181</v>
+        <v>0.903563</v>
       </c>
       <c r="E103" t="n">
-        <v>1.73619</v>
+        <v>2.62852</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.945393</v>
+        <v>0.937935</v>
       </c>
       <c r="C104" t="n">
-        <v>1.83258</v>
+        <v>2.38151</v>
       </c>
       <c r="D104" t="n">
-        <v>0.891617</v>
+        <v>0.891613</v>
       </c>
       <c r="E104" t="n">
-        <v>1.69363</v>
+        <v>1.59603</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.946653</v>
+        <v>0.944481</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82509</v>
+        <v>2.36037</v>
       </c>
       <c r="D105" t="n">
-        <v>0.881642</v>
+        <v>0.88056</v>
       </c>
       <c r="E105" t="n">
-        <v>1.65089</v>
+        <v>1.5553</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.953668</v>
+        <v>0.910525</v>
       </c>
       <c r="C106" t="n">
-        <v>1.82866</v>
+        <v>2.35326</v>
       </c>
       <c r="D106" t="n">
-        <v>0.871469</v>
+        <v>0.869012</v>
       </c>
       <c r="E106" t="n">
-        <v>1.61436</v>
+        <v>1.52354</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.984432</v>
+        <v>0.905534</v>
       </c>
       <c r="C107" t="n">
-        <v>3.2143</v>
+        <v>1.67404</v>
       </c>
       <c r="D107" t="n">
-        <v>0.895319</v>
+        <v>0.828637</v>
       </c>
       <c r="E107" t="n">
-        <v>1.58464</v>
+        <v>1.49311</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.948569</v>
+        <v>0.9028119999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>3.19912</v>
+        <v>2.36338</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22465</v>
+        <v>1.17642</v>
       </c>
       <c r="E108" t="n">
-        <v>4.13715</v>
+        <v>3.81418</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.987194</v>
+        <v>0.936756</v>
       </c>
       <c r="C109" t="n">
-        <v>3.37114</v>
+        <v>2.37131</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1933</v>
+        <v>1.14094</v>
       </c>
       <c r="E109" t="n">
-        <v>4.05972</v>
+        <v>3.73502</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25084</v>
+        <v>1.16631</v>
       </c>
       <c r="C110" t="n">
-        <v>3.14728</v>
+        <v>3.10862</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18109</v>
+        <v>1.1289</v>
       </c>
       <c r="E110" t="n">
-        <v>3.99792</v>
+        <v>3.68865</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23598</v>
+        <v>1.16752</v>
       </c>
       <c r="C111" t="n">
-        <v>2.51663</v>
+        <v>3.07345</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16735</v>
+        <v>1.14033</v>
       </c>
       <c r="E111" t="n">
-        <v>3.93632</v>
+        <v>3.6403</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21359</v>
+        <v>1.16098</v>
       </c>
       <c r="C112" t="n">
-        <v>2.69781</v>
+        <v>3.04815</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15405</v>
+        <v>1.10085</v>
       </c>
       <c r="E112" t="n">
-        <v>3.87306</v>
+        <v>3.57376</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21565</v>
+        <v>1.12933</v>
       </c>
       <c r="C113" t="n">
-        <v>2.48196</v>
+        <v>3.02988</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14294</v>
+        <v>1.08923</v>
       </c>
       <c r="E113" t="n">
-        <v>3.82507</v>
+        <v>3.52355</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17062</v>
+        <v>1.1283</v>
       </c>
       <c r="C114" t="n">
-        <v>2.45214</v>
+        <v>3.01941</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13249</v>
+        <v>1.07687</v>
       </c>
       <c r="E114" t="n">
-        <v>3.78635</v>
+        <v>3.48967</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.19385</v>
+        <v>1.12837</v>
       </c>
       <c r="C115" t="n">
-        <v>2.43891</v>
+        <v>2.98385</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12123</v>
+        <v>1.06621</v>
       </c>
       <c r="E115" t="n">
-        <v>3.71176</v>
+        <v>3.42998</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17281</v>
+        <v>1.10198</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44581</v>
+        <v>2.96611</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1321</v>
+        <v>1.05558</v>
       </c>
       <c r="E116" t="n">
-        <v>3.67287</v>
+        <v>3.37742</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16813</v>
+        <v>1.08928</v>
       </c>
       <c r="C117" t="n">
-        <v>2.41013</v>
+        <v>2.94024</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10076</v>
+        <v>1.04619</v>
       </c>
       <c r="E117" t="n">
-        <v>3.18235</v>
+        <v>3.34753</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16106</v>
+        <v>1.0836</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40876</v>
+        <v>2.92931</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06092</v>
+        <v>1.03746</v>
       </c>
       <c r="E118" t="n">
-        <v>2.9093</v>
+        <v>3.2917</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13556</v>
+        <v>1.08384</v>
       </c>
       <c r="C119" t="n">
-        <v>2.41868</v>
+        <v>2.90172</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05392</v>
+        <v>1.02994</v>
       </c>
       <c r="E119" t="n">
-        <v>2.86635</v>
+        <v>3.25601</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14902</v>
+        <v>1.0796</v>
       </c>
       <c r="C120" t="n">
-        <v>2.41502</v>
+        <v>2.902</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07768</v>
+        <v>1.02044</v>
       </c>
       <c r="E120" t="n">
-        <v>3.26875</v>
+        <v>3.2163</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15976</v>
+        <v>1.08076</v>
       </c>
       <c r="C121" t="n">
-        <v>4.64745</v>
+        <v>2.88442</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07231</v>
+        <v>1.01417</v>
       </c>
       <c r="E121" t="n">
-        <v>3.46927</v>
+        <v>2.98752</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12556</v>
+        <v>1.06875</v>
       </c>
       <c r="C122" t="n">
-        <v>3.92379</v>
+        <v>2.87366</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06603</v>
+        <v>1.00903</v>
       </c>
       <c r="E122" t="n">
-        <v>3.41096</v>
+        <v>2.94466</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15803</v>
+        <v>1.08955</v>
       </c>
       <c r="C123" t="n">
-        <v>4.5468</v>
+        <v>1.64551</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36746</v>
+        <v>1.29612</v>
       </c>
       <c r="E123" t="n">
-        <v>4.88293</v>
+        <v>4.4706</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.40949</v>
+        <v>1.32707</v>
       </c>
       <c r="C124" t="n">
-        <v>3.37908</v>
+        <v>3.65252</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3584</v>
+        <v>1.28704</v>
       </c>
       <c r="E124" t="n">
-        <v>4.80551</v>
+        <v>4.3994</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.39589</v>
+        <v>1.29787</v>
       </c>
       <c r="C125" t="n">
-        <v>3.10787</v>
+        <v>3.60798</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37758</v>
+        <v>1.27872</v>
       </c>
       <c r="E125" t="n">
-        <v>4.74397</v>
+        <v>4.32768</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38951</v>
+        <v>1.3336</v>
       </c>
       <c r="C126" t="n">
-        <v>3.31214</v>
+        <v>3.57436</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3457</v>
+        <v>1.29164</v>
       </c>
       <c r="E126" t="n">
-        <v>4.65504</v>
+        <v>4.25731</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40068</v>
+        <v>1.30312</v>
       </c>
       <c r="C127" t="n">
-        <v>3.05268</v>
+        <v>3.54329</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35881</v>
+        <v>1.26123</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5911</v>
+        <v>4.20214</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.36088</v>
+        <v>1.29684</v>
       </c>
       <c r="C128" t="n">
-        <v>3.50824</v>
+        <v>3.51501</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33013</v>
+        <v>1.25585</v>
       </c>
       <c r="E128" t="n">
-        <v>4.50707</v>
+        <v>4.13026</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.36587</v>
+        <v>1.27977</v>
       </c>
       <c r="C129" t="n">
-        <v>2.99099</v>
+        <v>3.48368</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32323</v>
+        <v>1.24839</v>
       </c>
       <c r="E129" t="n">
-        <v>4.44649</v>
+        <v>4.08334</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3793</v>
+        <v>1.26736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.96397</v>
+        <v>3.45879</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31771</v>
+        <v>1.24149</v>
       </c>
       <c r="E130" t="n">
-        <v>4.15141</v>
+        <v>4.02101</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.37046</v>
+        <v>1.26605</v>
       </c>
       <c r="C131" t="n">
-        <v>2.96195</v>
+        <v>3.43351</v>
       </c>
       <c r="D131" t="n">
-        <v>1.28019</v>
+        <v>1.2358</v>
       </c>
       <c r="E131" t="n">
-        <v>4.33032</v>
+        <v>3.97065</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37554</v>
+        <v>1.27245</v>
       </c>
       <c r="C132" t="n">
-        <v>2.95759</v>
+        <v>3.41523</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30966</v>
+        <v>1.23152</v>
       </c>
       <c r="E132" t="n">
-        <v>4.28089</v>
+        <v>3.92152</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.36165</v>
+        <v>1.27443</v>
       </c>
       <c r="C133" t="n">
-        <v>2.93586</v>
+        <v>3.40644</v>
       </c>
       <c r="D133" t="n">
-        <v>1.27364</v>
+        <v>1.22578</v>
       </c>
       <c r="E133" t="n">
-        <v>4.20495</v>
+        <v>3.86242</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35062</v>
+        <v>1.26493</v>
       </c>
       <c r="C134" t="n">
-        <v>2.93226</v>
+        <v>3.37378</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27438</v>
+        <v>1.22178</v>
       </c>
       <c r="E134" t="n">
-        <v>3.69481</v>
+        <v>3.83263</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.35178</v>
+        <v>1.27091</v>
       </c>
       <c r="C135" t="n">
-        <v>4.57312</v>
+        <v>2.03468</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27282</v>
+        <v>1.18949</v>
       </c>
       <c r="E135" t="n">
-        <v>3.89209</v>
+        <v>3.55975</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.35625</v>
+        <v>1.27023</v>
       </c>
       <c r="C136" t="n">
-        <v>4.5249</v>
+        <v>3.34238</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26722</v>
+        <v>1.21145</v>
       </c>
       <c r="E136" t="n">
-        <v>4.08532</v>
+        <v>3.07896</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.343</v>
+        <v>1.26772</v>
       </c>
       <c r="C137" t="n">
-        <v>5.19664</v>
+        <v>3.33148</v>
       </c>
       <c r="D137" t="n">
-        <v>1.59425</v>
+        <v>1.49982</v>
       </c>
       <c r="E137" t="n">
-        <v>5.59536</v>
+        <v>5.12217</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.60134</v>
+        <v>1.53414</v>
       </c>
       <c r="C138" t="n">
-        <v>4.41571</v>
+        <v>4.13881</v>
       </c>
       <c r="D138" t="n">
-        <v>1.58753</v>
+        <v>1.49375</v>
       </c>
       <c r="E138" t="n">
-        <v>5.50543</v>
+        <v>5.04015</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58891</v>
+        <v>1.51259</v>
       </c>
       <c r="C139" t="n">
-        <v>3.85442</v>
+        <v>4.09982</v>
       </c>
       <c r="D139" t="n">
-        <v>1.58368</v>
+        <v>1.487</v>
       </c>
       <c r="E139" t="n">
-        <v>5.4027</v>
+        <v>4.94523</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.61041</v>
+        <v>1.48652</v>
       </c>
       <c r="C140" t="n">
-        <v>3.81851</v>
+        <v>4.04746</v>
       </c>
       <c r="D140" t="n">
-        <v>1.6011</v>
+        <v>1.48088</v>
       </c>
       <c r="E140" t="n">
-        <v>5.32383</v>
+        <v>4.8552</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60177</v>
+        <v>1.48173</v>
       </c>
       <c r="C141" t="n">
-        <v>3.51384</v>
+        <v>4.01485</v>
       </c>
       <c r="D141" t="n">
-        <v>1.57555</v>
+        <v>1.47553</v>
       </c>
       <c r="E141" t="n">
-        <v>5.23234</v>
+        <v>4.7744</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.59499</v>
+        <v>1.49638</v>
       </c>
       <c r="C142" t="n">
-        <v>3.47311</v>
+        <v>3.96205</v>
       </c>
       <c r="D142" t="n">
-        <v>1.57222</v>
+        <v>1.49051</v>
       </c>
       <c r="E142" t="n">
-        <v>5.13778</v>
+        <v>4.68403</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5946</v>
+        <v>1.47938</v>
       </c>
       <c r="C143" t="n">
-        <v>3.42904</v>
+        <v>3.92769</v>
       </c>
       <c r="D143" t="n">
-        <v>1.56814</v>
+        <v>1.4656</v>
       </c>
       <c r="E143" t="n">
-        <v>5.04926</v>
+        <v>4.61519</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576684</v>
+        <v>0.578728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.834182</v>
+        <v>0.836672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.56546</v>
+        <v>0.565608</v>
       </c>
       <c r="E2" t="n">
-        <v>0.80785</v>
+        <v>0.80863</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564798</v>
+        <v>0.558936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.82323</v>
+        <v>0.825451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.551393</v>
+        <v>0.551715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.787785</v>
+        <v>0.7922439999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.554576</v>
+        <v>0.554606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.815362</v>
+        <v>0.817946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539637</v>
+        <v>0.5397149999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7732250000000001</v>
+        <v>0.773329</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540485</v>
+        <v>0.542003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.806904</v>
+        <v>0.811602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.528454</v>
+        <v>0.527636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758386</v>
+        <v>0.759846</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.530115</v>
+        <v>0.532963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.800242</v>
+        <v>0.807152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5184029999999999</v>
+        <v>0.517302</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746072</v>
+        <v>0.748556</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527372</v>
+        <v>0.47944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.913508</v>
+        <v>0.916492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.508818</v>
+        <v>0.509043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.733885</v>
+        <v>0.736904</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5232059999999999</v>
+        <v>0.523647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.895791</v>
+        <v>0.899111</v>
       </c>
       <c r="D8" t="n">
-        <v>0.503174</v>
+        <v>0.503378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.726841</v>
+        <v>0.7289369999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.524749</v>
+        <v>0.523524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.876465</v>
+        <v>0.883209</v>
       </c>
       <c r="D9" t="n">
-        <v>0.760584</v>
+        <v>0.761052</v>
       </c>
       <c r="E9" t="n">
-        <v>1.01011</v>
+        <v>1.01299</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67226</v>
+        <v>0.678433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.86419</v>
+        <v>0.868687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.738235</v>
+        <v>0.739131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.985634</v>
+        <v>0.98892</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6553290000000001</v>
+        <v>0.653172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.848072</v>
+        <v>0.851707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.716009</v>
+        <v>0.717553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.967468</v>
+        <v>0.962815</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.637401</v>
+        <v>0.640002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.832448</v>
+        <v>0.837637</v>
       </c>
       <c r="D12" t="n">
-        <v>0.695715</v>
+        <v>0.696791</v>
       </c>
       <c r="E12" t="n">
-        <v>0.941415</v>
+        <v>0.939006</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.620189</v>
+        <v>0.617673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.819533</v>
+        <v>0.822213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.676007</v>
+        <v>0.67693</v>
       </c>
       <c r="E13" t="n">
-        <v>0.914813</v>
+        <v>0.9156</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599004</v>
+        <v>0.60214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808183</v>
+        <v>0.816172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.657983</v>
+        <v>0.658316</v>
       </c>
       <c r="E14" t="n">
-        <v>0.89344</v>
+        <v>0.891342</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.588764</v>
+        <v>0.588849</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7999849999999999</v>
+        <v>0.806256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.640136</v>
+        <v>0.640607</v>
       </c>
       <c r="E15" t="n">
-        <v>0.871011</v>
+        <v>0.8723</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569564</v>
+        <v>0.575578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.78929</v>
+        <v>0.79675</v>
       </c>
       <c r="D16" t="n">
-        <v>0.623999</v>
+        <v>0.624413</v>
       </c>
       <c r="E16" t="n">
-        <v>0.853352</v>
+        <v>0.851375</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560576</v>
+        <v>0.562415</v>
       </c>
       <c r="C17" t="n">
-        <v>0.781092</v>
+        <v>0.785311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.608277</v>
+        <v>0.60897</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8672530000000001</v>
+        <v>0.864513</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5503479999999999</v>
+        <v>0.548794</v>
       </c>
       <c r="C18" t="n">
-        <v>0.774405</v>
+        <v>0.780572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594544</v>
+        <v>0.594692</v>
       </c>
       <c r="E18" t="n">
-        <v>0.850002</v>
+        <v>0.847025</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.539343</v>
+        <v>0.538647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.76342</v>
+        <v>0.772423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.581678</v>
+        <v>0.5820689999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.833097</v>
+        <v>0.832338</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.53039</v>
+        <v>0.529494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.75745</v>
+        <v>0.766356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.570217</v>
+        <v>0.570209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.818971</v>
+        <v>0.818315</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.522362</v>
+        <v>0.523824</v>
       </c>
       <c r="C21" t="n">
-        <v>0.987464</v>
+        <v>0.993209</v>
       </c>
       <c r="D21" t="n">
-        <v>0.560972</v>
+        <v>0.561418</v>
       </c>
       <c r="E21" t="n">
-        <v>0.813204</v>
+        <v>0.8121930000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516161</v>
+        <v>0.519575</v>
       </c>
       <c r="C22" t="n">
-        <v>0.966122</v>
+        <v>0.971646</v>
       </c>
       <c r="D22" t="n">
-        <v>0.553714</v>
+        <v>0.554019</v>
       </c>
       <c r="E22" t="n">
-        <v>0.800142</v>
+        <v>0.802996</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516994</v>
+        <v>0.51772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.954057</v>
+        <v>0.953153</v>
       </c>
       <c r="D23" t="n">
-        <v>0.817777</v>
+        <v>0.818974</v>
       </c>
       <c r="E23" t="n">
-        <v>1.08682</v>
+        <v>1.08779</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.687416</v>
+        <v>0.685955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9368109999999999</v>
+        <v>0.933065</v>
       </c>
       <c r="D24" t="n">
-        <v>0.793341</v>
+        <v>0.795095</v>
       </c>
       <c r="E24" t="n">
-        <v>1.06508</v>
+        <v>1.06066</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.665855</v>
+        <v>0.667238</v>
       </c>
       <c r="C25" t="n">
-        <v>0.911915</v>
+        <v>0.91812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7698469999999999</v>
+        <v>0.771113</v>
       </c>
       <c r="E25" t="n">
-        <v>1.02993</v>
+        <v>1.02864</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.651709</v>
+        <v>0.652255</v>
       </c>
       <c r="C26" t="n">
-        <v>0.895934</v>
+        <v>0.900674</v>
       </c>
       <c r="D26" t="n">
-        <v>0.746742</v>
+        <v>0.747752</v>
       </c>
       <c r="E26" t="n">
-        <v>1.01548</v>
+        <v>1.01159</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.626671</v>
+        <v>0.627483</v>
       </c>
       <c r="C27" t="n">
-        <v>0.880827</v>
+        <v>0.8857429999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7250259999999999</v>
+        <v>0.726063</v>
       </c>
       <c r="E27" t="n">
-        <v>0.991134</v>
+        <v>0.989788</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641827</v>
+        <v>0.641498</v>
       </c>
       <c r="C28" t="n">
-        <v>0.865565</v>
+        <v>0.870497</v>
       </c>
       <c r="D28" t="n">
-        <v>0.704247</v>
+        <v>0.705198</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9655010000000001</v>
+        <v>0.95962</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623051</v>
+        <v>0.624596</v>
       </c>
       <c r="C29" t="n">
-        <v>0.854155</v>
+        <v>0.8598789999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.684822</v>
+        <v>0.685766</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9444399999999999</v>
+        <v>0.942573</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607399</v>
+        <v>0.608341</v>
       </c>
       <c r="C30" t="n">
-        <v>0.84609</v>
+        <v>0.853587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.666674</v>
+        <v>0.667812</v>
       </c>
       <c r="E30" t="n">
-        <v>0.922249</v>
+        <v>0.919847</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5923929999999999</v>
+        <v>0.594587</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833163</v>
+        <v>0.840746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.649221</v>
+        <v>0.6498660000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.903967</v>
+        <v>0.8986150000000001</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.561636</v>
+        <v>0.581144</v>
       </c>
       <c r="C32" t="n">
-        <v>0.830282</v>
+        <v>0.833678</v>
       </c>
       <c r="D32" t="n">
-        <v>0.633003</v>
+        <v>0.63366</v>
       </c>
       <c r="E32" t="n">
-        <v>0.877564</v>
+        <v>0.8797970000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568103</v>
+        <v>0.568727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.820334</v>
+        <v>0.825659</v>
       </c>
       <c r="D33" t="n">
-        <v>0.618057</v>
+        <v>0.6190059999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.86111</v>
+        <v>0.862507</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56045</v>
+        <v>0.557835</v>
       </c>
       <c r="C34" t="n">
-        <v>0.811828</v>
+        <v>0.816088</v>
       </c>
       <c r="D34" t="n">
-        <v>0.583905</v>
+        <v>0.5843159999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.843838</v>
+        <v>0.845263</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.531744</v>
+        <v>0.53228</v>
       </c>
       <c r="C35" t="n">
-        <v>1.06127</v>
+        <v>1.06413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.573124</v>
+        <v>0.5931110000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.826966</v>
+        <v>0.8287910000000001</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.523528</v>
+        <v>0.525586</v>
       </c>
       <c r="C36" t="n">
-        <v>1.04138</v>
+        <v>1.04549</v>
       </c>
       <c r="D36" t="n">
-        <v>0.564124</v>
+        <v>0.584051</v>
       </c>
       <c r="E36" t="n">
-        <v>0.817156</v>
+        <v>0.8201889999999999</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523385</v>
+        <v>0.5222909999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02038</v>
+        <v>1.02324</v>
       </c>
       <c r="D37" t="n">
-        <v>0.833664</v>
+        <v>0.834742</v>
       </c>
       <c r="E37" t="n">
-        <v>1.3792</v>
+        <v>1.37933</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7515309999999999</v>
+        <v>0.754583</v>
       </c>
       <c r="C38" t="n">
-        <v>0.998376</v>
+        <v>1.00405</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8089229999999999</v>
+        <v>0.809686</v>
       </c>
       <c r="E38" t="n">
-        <v>1.34799</v>
+        <v>1.35009</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7311</v>
+        <v>0.731557</v>
       </c>
       <c r="C39" t="n">
-        <v>0.978392</v>
+        <v>0.983916</v>
       </c>
       <c r="D39" t="n">
-        <v>0.784502</v>
+        <v>0.785289</v>
       </c>
       <c r="E39" t="n">
-        <v>1.31898</v>
+        <v>1.31755</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708856</v>
+        <v>0.692804</v>
       </c>
       <c r="C40" t="n">
-        <v>0.96219</v>
+        <v>0.9667559999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.761458</v>
+        <v>0.762764</v>
       </c>
       <c r="E40" t="n">
-        <v>1.2905</v>
+        <v>1.29038</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.674575</v>
+        <v>0.675253</v>
       </c>
       <c r="C41" t="n">
-        <v>0.94712</v>
+        <v>0.950851</v>
       </c>
       <c r="D41" t="n">
-        <v>0.739489</v>
+        <v>0.740982</v>
       </c>
       <c r="E41" t="n">
-        <v>1.26302</v>
+        <v>1.26368</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669748</v>
+        <v>0.6587</v>
       </c>
       <c r="C42" t="n">
-        <v>0.931879</v>
+        <v>0.9378649999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.719229</v>
+        <v>0.7202460000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>1.23838</v>
+        <v>1.23806</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.638314</v>
+        <v>0.6552</v>
       </c>
       <c r="C43" t="n">
-        <v>0.917842</v>
+        <v>0.922369</v>
       </c>
       <c r="D43" t="n">
-        <v>0.699533</v>
+        <v>0.700839</v>
       </c>
       <c r="E43" t="n">
-        <v>1.21413</v>
+        <v>1.21429</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.622704</v>
+        <v>0.623938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.905294</v>
+        <v>0.910073</v>
       </c>
       <c r="D44" t="n">
-        <v>0.680609</v>
+        <v>0.681755</v>
       </c>
       <c r="E44" t="n">
-        <v>1.19077</v>
+        <v>1.18985</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6093499999999999</v>
+        <v>0.607903</v>
       </c>
       <c r="C45" t="n">
-        <v>0.896535</v>
+        <v>0.899975</v>
       </c>
       <c r="D45" t="n">
-        <v>0.663386</v>
+        <v>0.6647189999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>1.16945</v>
+        <v>1.16894</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.59215</v>
+        <v>0.596621</v>
       </c>
       <c r="C46" t="n">
-        <v>0.885951</v>
+        <v>0.889848</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6475070000000001</v>
+        <v>0.648078</v>
       </c>
       <c r="E46" t="n">
-        <v>1.14948</v>
+        <v>1.14984</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5824</v>
+        <v>0.595724</v>
       </c>
       <c r="C47" t="n">
-        <v>0.883518</v>
+        <v>0.886893</v>
       </c>
       <c r="D47" t="n">
-        <v>0.632121</v>
+        <v>0.632671</v>
       </c>
       <c r="E47" t="n">
-        <v>1.13155</v>
+        <v>1.13098</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.570753</v>
+        <v>0.572946</v>
       </c>
       <c r="C48" t="n">
-        <v>0.875834</v>
+        <v>0.879575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.617775</v>
+        <v>0.619323</v>
       </c>
       <c r="E48" t="n">
-        <v>1.11089</v>
+        <v>1.11396</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.573086</v>
+        <v>0.561663</v>
       </c>
       <c r="C49" t="n">
-        <v>0.865394</v>
+        <v>0.869376</v>
       </c>
       <c r="D49" t="n">
-        <v>0.605474</v>
+        <v>0.587</v>
       </c>
       <c r="E49" t="n">
-        <v>1.09691</v>
+        <v>1.09633</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.555166</v>
+        <v>0.5560580000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>1.10815</v>
+        <v>1.11285</v>
       </c>
       <c r="D50" t="n">
-        <v>0.576937</v>
+        <v>0.596785</v>
       </c>
       <c r="E50" t="n">
-        <v>1.08359</v>
+        <v>1.08364</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.532432</v>
+        <v>0.535103</v>
       </c>
       <c r="C51" t="n">
-        <v>1.08475</v>
+        <v>1.08912</v>
       </c>
       <c r="D51" t="n">
-        <v>0.875929</v>
+        <v>0.878698</v>
       </c>
       <c r="E51" t="n">
-        <v>1.45245</v>
+        <v>1.4567</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.550827</v>
+        <v>0.551432</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06324</v>
+        <v>1.06779</v>
       </c>
       <c r="D52" t="n">
-        <v>0.838812</v>
+        <v>0.853373</v>
       </c>
       <c r="E52" t="n">
-        <v>1.4247</v>
+        <v>1.42366</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.758755</v>
+        <v>0.757503</v>
       </c>
       <c r="C53" t="n">
-        <v>1.04167</v>
+        <v>1.04528</v>
       </c>
       <c r="D53" t="n">
-        <v>0.815838</v>
+        <v>0.828014</v>
       </c>
       <c r="E53" t="n">
-        <v>1.39428</v>
+        <v>1.3894</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735934</v>
+        <v>0.731315</v>
       </c>
       <c r="C54" t="n">
-        <v>1.02372</v>
+        <v>1.02808</v>
       </c>
       <c r="D54" t="n">
-        <v>0.792658</v>
+        <v>0.793409</v>
       </c>
       <c r="E54" t="n">
-        <v>1.36545</v>
+        <v>1.36069</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.717208</v>
+        <v>0.709143</v>
       </c>
       <c r="C55" t="n">
-        <v>1.00545</v>
+        <v>1.01019</v>
       </c>
       <c r="D55" t="n">
-        <v>0.779468</v>
+        <v>0.772244</v>
       </c>
       <c r="E55" t="n">
-        <v>1.33009</v>
+        <v>1.33191</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.69171</v>
+        <v>0.693001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.988296</v>
+        <v>0.9937049999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7463959999999999</v>
+        <v>0.750907</v>
       </c>
       <c r="E56" t="n">
-        <v>1.30254</v>
+        <v>1.3044</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.68098</v>
+        <v>0.681836</v>
       </c>
       <c r="C57" t="n">
-        <v>0.973351</v>
+        <v>0.9783539999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.729955</v>
+        <v>0.731204</v>
       </c>
       <c r="E57" t="n">
-        <v>1.27812</v>
+        <v>1.27873</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6583599999999999</v>
+        <v>0.658964</v>
       </c>
       <c r="C58" t="n">
-        <v>0.960653</v>
+        <v>0.965159</v>
       </c>
       <c r="D58" t="n">
-        <v>0.718674</v>
+        <v>0.718974</v>
       </c>
       <c r="E58" t="n">
-        <v>1.25816</v>
+        <v>1.25361</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.645359</v>
+        <v>0.6431559999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.942069</v>
+        <v>0.946076</v>
       </c>
       <c r="D59" t="n">
-        <v>0.664022</v>
+        <v>0.666266</v>
       </c>
       <c r="E59" t="n">
-        <v>1.23375</v>
+        <v>1.22928</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.632701</v>
+        <v>0.6338859999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.932585</v>
+        <v>0.936511</v>
       </c>
       <c r="D60" t="n">
-        <v>0.647309</v>
+        <v>0.648684</v>
       </c>
       <c r="E60" t="n">
-        <v>1.21238</v>
+        <v>1.20763</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.616695</v>
+        <v>0.615389</v>
       </c>
       <c r="C61" t="n">
-        <v>0.922069</v>
+        <v>0.926307</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6584680000000001</v>
+        <v>0.661198</v>
       </c>
       <c r="E61" t="n">
-        <v>1.1911</v>
+        <v>1.18798</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.602629</v>
+        <v>0.602932</v>
       </c>
       <c r="C62" t="n">
-        <v>0.91378</v>
+        <v>0.917279</v>
       </c>
       <c r="D62" t="n">
-        <v>0.644554</v>
+        <v>0.648527</v>
       </c>
       <c r="E62" t="n">
-        <v>1.17304</v>
+        <v>1.17019</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.593401</v>
+        <v>0.593771</v>
       </c>
       <c r="C63" t="n">
-        <v>0.903932</v>
+        <v>0.907554</v>
       </c>
       <c r="D63" t="n">
-        <v>0.632595</v>
+        <v>0.6338279999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>1.15647</v>
+        <v>1.15261</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589414</v>
+        <v>0.589425</v>
       </c>
       <c r="C64" t="n">
-        <v>1.19456</v>
+        <v>1.19569</v>
       </c>
       <c r="D64" t="n">
-        <v>0.622124</v>
+        <v>0.623369</v>
       </c>
       <c r="E64" t="n">
-        <v>1.14056</v>
+        <v>1.13843</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.557554</v>
+        <v>0.559146</v>
       </c>
       <c r="C65" t="n">
-        <v>1.16043</v>
+        <v>1.16602</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6133110000000001</v>
+        <v>0.616227</v>
       </c>
       <c r="E65" t="n">
-        <v>1.13003</v>
+        <v>1.12806</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578425</v>
+        <v>0.578769</v>
       </c>
       <c r="C66" t="n">
-        <v>1.13325</v>
+        <v>1.13572</v>
       </c>
       <c r="D66" t="n">
-        <v>0.923709</v>
+        <v>0.912119</v>
       </c>
       <c r="E66" t="n">
-        <v>1.51439</v>
+        <v>1.50603</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.848424</v>
+        <v>0.833747</v>
       </c>
       <c r="C67" t="n">
-        <v>1.1036</v>
+        <v>1.10246</v>
       </c>
       <c r="D67" t="n">
-        <v>0.894493</v>
+        <v>0.875725</v>
       </c>
       <c r="E67" t="n">
-        <v>1.47699</v>
+        <v>1.47257</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.813754</v>
+        <v>0.799964</v>
       </c>
       <c r="C68" t="n">
-        <v>1.07451</v>
+        <v>1.07714</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8718360000000001</v>
+        <v>0.855829</v>
       </c>
       <c r="E68" t="n">
-        <v>1.45377</v>
+        <v>1.43992</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.800465</v>
+        <v>0.787864</v>
       </c>
       <c r="C69" t="n">
-        <v>1.05734</v>
+        <v>1.05749</v>
       </c>
       <c r="D69" t="n">
-        <v>0.850542</v>
+        <v>0.8326750000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>1.42045</v>
+        <v>1.40861</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.793639</v>
+        <v>0.778191</v>
       </c>
       <c r="C70" t="n">
-        <v>1.04669</v>
+        <v>1.04616</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82775</v>
+        <v>0.811852</v>
       </c>
       <c r="E70" t="n">
-        <v>1.40121</v>
+        <v>1.38746</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.772129</v>
+        <v>0.756368</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0214</v>
+        <v>1.01831</v>
       </c>
       <c r="D71" t="n">
-        <v>0.807107</v>
+        <v>0.791403</v>
       </c>
       <c r="E71" t="n">
-        <v>1.38543</v>
+        <v>1.3624</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.756253</v>
+        <v>0.741847</v>
       </c>
       <c r="C72" t="n">
-        <v>1.01533</v>
+        <v>1.00995</v>
       </c>
       <c r="D72" t="n">
-        <v>0.787626</v>
+        <v>0.7731749999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>1.3615</v>
+        <v>1.34648</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.73447</v>
+        <v>0.719875</v>
       </c>
       <c r="C73" t="n">
-        <v>1.00905</v>
+        <v>1.00156</v>
       </c>
       <c r="D73" t="n">
-        <v>0.767839</v>
+        <v>0.752627</v>
       </c>
       <c r="E73" t="n">
-        <v>1.35129</v>
+        <v>1.32785</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.727318</v>
+        <v>0.711817</v>
       </c>
       <c r="C74" t="n">
-        <v>0.989291</v>
+        <v>0.985414</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7161960000000001</v>
+        <v>0.701639</v>
       </c>
       <c r="E74" t="n">
-        <v>1.32319</v>
+        <v>1.31135</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7246899999999999</v>
+        <v>0.70928</v>
       </c>
       <c r="C75" t="n">
-        <v>0.982092</v>
+        <v>0.978792</v>
       </c>
       <c r="D75" t="n">
-        <v>0.732096</v>
+        <v>0.726144</v>
       </c>
       <c r="E75" t="n">
-        <v>1.30913</v>
+        <v>1.29211</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.697783</v>
+        <v>0.689003</v>
       </c>
       <c r="C76" t="n">
-        <v>0.979413</v>
+        <v>0.976105</v>
       </c>
       <c r="D76" t="n">
-        <v>0.686514</v>
+        <v>0.673848</v>
       </c>
       <c r="E76" t="n">
-        <v>1.29963</v>
+        <v>1.27858</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.695616</v>
+        <v>0.688795</v>
       </c>
       <c r="C77" t="n">
-        <v>0.972926</v>
+        <v>0.968237</v>
       </c>
       <c r="D77" t="n">
-        <v>0.701933</v>
+        <v>0.693276</v>
       </c>
       <c r="E77" t="n">
-        <v>1.30033</v>
+        <v>1.27669</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.682487</v>
+        <v>0.674682</v>
       </c>
       <c r="C78" t="n">
-        <v>1.48849</v>
+        <v>1.43748</v>
       </c>
       <c r="D78" t="n">
-        <v>0.662882</v>
+        <v>0.649237</v>
       </c>
       <c r="E78" t="n">
-        <v>1.29556</v>
+        <v>1.27177</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.668818</v>
+        <v>0.66415</v>
       </c>
       <c r="C79" t="n">
-        <v>1.44555</v>
+        <v>1.40492</v>
       </c>
       <c r="D79" t="n">
-        <v>0.677647</v>
+        <v>0.6706569999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>1.30272</v>
+        <v>1.27121</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.671237</v>
+        <v>0.6636609999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41959</v>
+        <v>1.37616</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00074</v>
+        <v>0.977476</v>
       </c>
       <c r="E80" t="n">
-        <v>2.02098</v>
+        <v>1.93787</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.925177</v>
+        <v>0.900979</v>
       </c>
       <c r="C81" t="n">
-        <v>1.36947</v>
+        <v>1.33496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.986998</v>
+        <v>0.963642</v>
       </c>
       <c r="E81" t="n">
-        <v>2.01682</v>
+        <v>1.93308</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.920693</v>
+        <v>0.898907</v>
       </c>
       <c r="C82" t="n">
-        <v>1.34972</v>
+        <v>1.31272</v>
       </c>
       <c r="D82" t="n">
-        <v>0.969678</v>
+        <v>0.946358</v>
       </c>
       <c r="E82" t="n">
-        <v>1.998</v>
+        <v>1.90671</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.905595</v>
+        <v>0.875176</v>
       </c>
       <c r="C83" t="n">
-        <v>1.33504</v>
+        <v>1.29781</v>
       </c>
       <c r="D83" t="n">
-        <v>0.939296</v>
+        <v>0.90812</v>
       </c>
       <c r="E83" t="n">
-        <v>1.98628</v>
+        <v>1.89558</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.90633</v>
+        <v>0.880931</v>
       </c>
       <c r="C84" t="n">
-        <v>1.32688</v>
+        <v>1.28696</v>
       </c>
       <c r="D84" t="n">
-        <v>0.931213</v>
+        <v>0.889655</v>
       </c>
       <c r="E84" t="n">
-        <v>1.9631</v>
+        <v>1.88097</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.872727</v>
+        <v>0.859777</v>
       </c>
       <c r="C85" t="n">
-        <v>1.28333</v>
+        <v>1.24645</v>
       </c>
       <c r="D85" t="n">
-        <v>0.900885</v>
+        <v>0.868386</v>
       </c>
       <c r="E85" t="n">
-        <v>1.97217</v>
+        <v>1.86972</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.890414</v>
+        <v>0.853598</v>
       </c>
       <c r="C86" t="n">
-        <v>1.27428</v>
+        <v>1.23531</v>
       </c>
       <c r="D86" t="n">
-        <v>0.88051</v>
+        <v>0.848679</v>
       </c>
       <c r="E86" t="n">
-        <v>1.9459</v>
+        <v>1.85478</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8741370000000001</v>
+        <v>0.827197</v>
       </c>
       <c r="C87" t="n">
-        <v>1.27457</v>
+        <v>1.2397</v>
       </c>
       <c r="D87" t="n">
-        <v>0.870738</v>
+        <v>0.794265</v>
       </c>
       <c r="E87" t="n">
-        <v>1.94481</v>
+        <v>1.86114</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.855196</v>
+        <v>0.81823</v>
       </c>
       <c r="C88" t="n">
-        <v>1.27114</v>
+        <v>1.2271</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8414239999999999</v>
+        <v>0.774128</v>
       </c>
       <c r="E88" t="n">
-        <v>1.94721</v>
+        <v>1.84791</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8381999999999999</v>
+        <v>0.804027</v>
       </c>
       <c r="C89" t="n">
-        <v>1.2753</v>
+        <v>1.23002</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7884989999999999</v>
+        <v>0.794288</v>
       </c>
       <c r="E89" t="n">
-        <v>1.94047</v>
+        <v>1.86044</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.831364</v>
+        <v>0.774495</v>
       </c>
       <c r="C90" t="n">
-        <v>1.29015</v>
+        <v>1.24001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7711479999999999</v>
+        <v>0.777718</v>
       </c>
       <c r="E90" t="n">
-        <v>1.96679</v>
+        <v>1.85941</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.822943</v>
+        <v>0.797238</v>
       </c>
       <c r="C91" t="n">
-        <v>1.27786</v>
+        <v>1.23518</v>
       </c>
       <c r="D91" t="n">
-        <v>0.756364</v>
+        <v>0.730304</v>
       </c>
       <c r="E91" t="n">
-        <v>1.94683</v>
+        <v>1.80321</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.810754</v>
+        <v>0.781042</v>
       </c>
       <c r="C92" t="n">
-        <v>2.38423</v>
+        <v>2.25581</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7748350000000001</v>
+        <v>0.718809</v>
       </c>
       <c r="E92" t="n">
-        <v>1.97363</v>
+        <v>1.8738</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.814716</v>
+        <v>0.780535</v>
       </c>
       <c r="C93" t="n">
-        <v>2.36588</v>
+        <v>2.25102</v>
       </c>
       <c r="D93" t="n">
-        <v>0.76257</v>
+        <v>0.708332</v>
       </c>
       <c r="E93" t="n">
-        <v>1.96281</v>
+        <v>1.87471</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.801822</v>
+        <v>0.780864</v>
       </c>
       <c r="C94" t="n">
-        <v>2.75754</v>
+        <v>2.22949</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09294</v>
+        <v>1.02284</v>
       </c>
       <c r="E94" t="n">
-        <v>3.13526</v>
+        <v>2.93602</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05251</v>
+        <v>1.02698</v>
       </c>
       <c r="C95" t="n">
-        <v>2.49122</v>
+        <v>2.48315</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08499</v>
+        <v>1.0155</v>
       </c>
       <c r="E95" t="n">
-        <v>3.12875</v>
+        <v>2.92188</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0737</v>
+        <v>1.00581</v>
       </c>
       <c r="C96" t="n">
-        <v>2.57384</v>
+        <v>2.20738</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04748</v>
+        <v>1.03178</v>
       </c>
       <c r="E96" t="n">
-        <v>3.0937</v>
+        <v>2.88306</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07135</v>
+        <v>1.01991</v>
       </c>
       <c r="C97" t="n">
-        <v>2.48305</v>
+        <v>2.40526</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05552</v>
+        <v>0.986449</v>
       </c>
       <c r="E97" t="n">
-        <v>3.06253</v>
+        <v>2.85792</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05578</v>
+        <v>1.00498</v>
       </c>
       <c r="C98" t="n">
-        <v>2.25383</v>
+        <v>2.1956</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0381</v>
+        <v>0.974066</v>
       </c>
       <c r="E98" t="n">
-        <v>3.01031</v>
+        <v>2.81717</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02241</v>
+        <v>0.992699</v>
       </c>
       <c r="C99" t="n">
-        <v>2.18004</v>
+        <v>1.82403</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998806</v>
+        <v>0.953919</v>
       </c>
       <c r="E99" t="n">
-        <v>2.96798</v>
+        <v>2.77068</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03564</v>
+        <v>0.977593</v>
       </c>
       <c r="C100" t="n">
-        <v>1.82433</v>
+        <v>1.73787</v>
       </c>
       <c r="D100" t="n">
-        <v>0.982599</v>
+        <v>0.897684</v>
       </c>
       <c r="E100" t="n">
-        <v>2.93564</v>
+        <v>2.57947</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01387</v>
+        <v>0.979758</v>
       </c>
       <c r="C101" t="n">
-        <v>1.82358</v>
+        <v>1.7276</v>
       </c>
       <c r="D101" t="n">
-        <v>0.927253</v>
+        <v>0.923467</v>
       </c>
       <c r="E101" t="n">
-        <v>2.89701</v>
+        <v>2.7106</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.99627</v>
+        <v>0.953173</v>
       </c>
       <c r="C102" t="n">
-        <v>1.82669</v>
+        <v>1.72765</v>
       </c>
       <c r="D102" t="n">
-        <v>0.953689</v>
+        <v>0.874215</v>
       </c>
       <c r="E102" t="n">
-        <v>2.88369</v>
+        <v>2.51296</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.990949</v>
+        <v>0.929772</v>
       </c>
       <c r="C103" t="n">
-        <v>1.82876</v>
+        <v>1.72007</v>
       </c>
       <c r="D103" t="n">
-        <v>0.939181</v>
+        <v>0.86239</v>
       </c>
       <c r="E103" t="n">
-        <v>1.73619</v>
+        <v>2.64134</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.945393</v>
+        <v>0.931145</v>
       </c>
       <c r="C104" t="n">
-        <v>1.83258</v>
+        <v>1.7286</v>
       </c>
       <c r="D104" t="n">
-        <v>0.891617</v>
+        <v>0.883373</v>
       </c>
       <c r="E104" t="n">
-        <v>1.69363</v>
+        <v>2.61552</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.946653</v>
+        <v>0.9302</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82509</v>
+        <v>1.71864</v>
       </c>
       <c r="D105" t="n">
-        <v>0.881642</v>
+        <v>0.843054</v>
       </c>
       <c r="E105" t="n">
-        <v>1.65089</v>
+        <v>2.59897</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.953668</v>
+        <v>0.90043</v>
       </c>
       <c r="C106" t="n">
-        <v>1.82866</v>
+        <v>1.72705</v>
       </c>
       <c r="D106" t="n">
-        <v>0.871469</v>
+        <v>0.831798</v>
       </c>
       <c r="E106" t="n">
-        <v>1.61436</v>
+        <v>2.40809</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.984432</v>
+        <v>0.921686</v>
       </c>
       <c r="C107" t="n">
-        <v>3.2143</v>
+        <v>2.99659</v>
       </c>
       <c r="D107" t="n">
-        <v>0.895319</v>
+        <v>0.825083</v>
       </c>
       <c r="E107" t="n">
-        <v>1.58464</v>
+        <v>2.5318</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.948569</v>
+        <v>0.917616</v>
       </c>
       <c r="C108" t="n">
-        <v>3.19912</v>
+        <v>3.14133</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22465</v>
+        <v>1.13749</v>
       </c>
       <c r="E108" t="n">
-        <v>4.13715</v>
+        <v>3.79798</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.987194</v>
+        <v>0.893353</v>
       </c>
       <c r="C109" t="n">
-        <v>3.37114</v>
+        <v>3.12661</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1933</v>
+        <v>1.15897</v>
       </c>
       <c r="E109" t="n">
-        <v>4.05972</v>
+        <v>3.74909</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25084</v>
+        <v>1.16237</v>
       </c>
       <c r="C110" t="n">
-        <v>3.14728</v>
+        <v>2.92042</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18109</v>
+        <v>1.14756</v>
       </c>
       <c r="E110" t="n">
-        <v>3.99792</v>
+        <v>3.70302</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23598</v>
+        <v>1.16863</v>
       </c>
       <c r="C111" t="n">
-        <v>2.51663</v>
+        <v>2.3428</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16735</v>
+        <v>1.10338</v>
       </c>
       <c r="E111" t="n">
-        <v>3.93632</v>
+        <v>3.65556</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21359</v>
+        <v>1.1574</v>
       </c>
       <c r="C112" t="n">
-        <v>2.69781</v>
+        <v>2.32496</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15405</v>
+        <v>1.09231</v>
       </c>
       <c r="E112" t="n">
-        <v>3.87306</v>
+        <v>3.57738</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21565</v>
+        <v>1.14698</v>
       </c>
       <c r="C113" t="n">
-        <v>2.48196</v>
+        <v>2.69929</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14294</v>
+        <v>1.0825</v>
       </c>
       <c r="E113" t="n">
-        <v>3.82507</v>
+        <v>3.53302</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17062</v>
+        <v>1.11357</v>
       </c>
       <c r="C114" t="n">
-        <v>2.45214</v>
+        <v>2.2959</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13249</v>
+        <v>1.06984</v>
       </c>
       <c r="E114" t="n">
-        <v>3.78635</v>
+        <v>3.4744</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.19385</v>
+        <v>1.13147</v>
       </c>
       <c r="C115" t="n">
-        <v>2.43891</v>
+        <v>2.48168</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12123</v>
+        <v>1.0615</v>
       </c>
       <c r="E115" t="n">
-        <v>3.71176</v>
+        <v>3.42691</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17281</v>
+        <v>1.09705</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44581</v>
+        <v>2.27456</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1321</v>
+        <v>1.04576</v>
       </c>
       <c r="E116" t="n">
-        <v>3.67287</v>
+        <v>3.39864</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16813</v>
+        <v>1.09844</v>
       </c>
       <c r="C117" t="n">
-        <v>2.41013</v>
+        <v>2.25068</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10076</v>
+        <v>1.04027</v>
       </c>
       <c r="E117" t="n">
-        <v>3.18235</v>
+        <v>3.1365</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16106</v>
+        <v>1.09899</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40876</v>
+        <v>2.2547</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06092</v>
+        <v>1.01908</v>
       </c>
       <c r="E118" t="n">
-        <v>2.9093</v>
+        <v>3.2875</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13556</v>
+        <v>1.07906</v>
       </c>
       <c r="C119" t="n">
-        <v>2.41868</v>
+        <v>2.25001</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05392</v>
+        <v>0.9933070000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>2.86635</v>
+        <v>3.05657</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14902</v>
+        <v>1.08204</v>
       </c>
       <c r="C120" t="n">
-        <v>2.41502</v>
+        <v>2.24851</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07768</v>
+        <v>1.00823</v>
       </c>
       <c r="E120" t="n">
-        <v>3.26875</v>
+        <v>3.01528</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15976</v>
+        <v>1.0708</v>
       </c>
       <c r="C121" t="n">
-        <v>4.64745</v>
+        <v>3.68029</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07231</v>
+        <v>1.003</v>
       </c>
       <c r="E121" t="n">
-        <v>3.46927</v>
+        <v>3.17944</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12556</v>
+        <v>1.07943</v>
       </c>
       <c r="C122" t="n">
-        <v>3.92379</v>
+        <v>3.60896</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06603</v>
+        <v>0.976427</v>
       </c>
       <c r="E122" t="n">
-        <v>3.41096</v>
+        <v>2.93677</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15803</v>
+        <v>1.08043</v>
       </c>
       <c r="C123" t="n">
-        <v>4.5468</v>
+        <v>3.97721</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36746</v>
+        <v>1.29081</v>
       </c>
       <c r="E123" t="n">
-        <v>4.88293</v>
+        <v>4.4494</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.40949</v>
+        <v>1.32388</v>
       </c>
       <c r="C124" t="n">
-        <v>3.37908</v>
+        <v>3.54369</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3584</v>
+        <v>1.27823</v>
       </c>
       <c r="E124" t="n">
-        <v>4.80551</v>
+        <v>4.39245</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.39589</v>
+        <v>1.31276</v>
       </c>
       <c r="C125" t="n">
-        <v>3.10787</v>
+        <v>3.51435</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37758</v>
+        <v>1.26949</v>
       </c>
       <c r="E125" t="n">
-        <v>4.74397</v>
+        <v>4.32004</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38951</v>
+        <v>1.31325</v>
       </c>
       <c r="C126" t="n">
-        <v>3.31214</v>
+        <v>2.85705</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3457</v>
+        <v>1.25951</v>
       </c>
       <c r="E126" t="n">
-        <v>4.65504</v>
+        <v>4.24537</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40068</v>
+        <v>1.30639</v>
       </c>
       <c r="C127" t="n">
-        <v>3.05268</v>
+        <v>2.82923</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35881</v>
+        <v>1.25623</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5911</v>
+        <v>4.18985</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.36088</v>
+        <v>1.30591</v>
       </c>
       <c r="C128" t="n">
-        <v>3.50824</v>
+        <v>2.80015</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33013</v>
+        <v>1.24404</v>
       </c>
       <c r="E128" t="n">
-        <v>4.50707</v>
+        <v>4.13545</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.36587</v>
+        <v>1.27958</v>
       </c>
       <c r="C129" t="n">
-        <v>2.99099</v>
+        <v>2.76206</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32323</v>
+        <v>1.24201</v>
       </c>
       <c r="E129" t="n">
-        <v>4.44649</v>
+        <v>4.06258</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3793</v>
+        <v>1.2711</v>
       </c>
       <c r="C130" t="n">
-        <v>2.96397</v>
+        <v>2.74646</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31771</v>
+        <v>1.23253</v>
       </c>
       <c r="E130" t="n">
-        <v>4.15141</v>
+        <v>4.01088</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.37046</v>
+        <v>1.27543</v>
       </c>
       <c r="C131" t="n">
-        <v>2.96195</v>
+        <v>2.73206</v>
       </c>
       <c r="D131" t="n">
-        <v>1.28019</v>
+        <v>1.23362</v>
       </c>
       <c r="E131" t="n">
-        <v>4.33032</v>
+        <v>3.9579</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37554</v>
+        <v>1.2652</v>
       </c>
       <c r="C132" t="n">
-        <v>2.95759</v>
+        <v>2.73368</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30966</v>
+        <v>1.19347</v>
       </c>
       <c r="E132" t="n">
-        <v>4.28089</v>
+        <v>3.69062</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.36165</v>
+        <v>1.26408</v>
       </c>
       <c r="C133" t="n">
-        <v>2.93586</v>
+        <v>2.71665</v>
       </c>
       <c r="D133" t="n">
-        <v>1.27364</v>
+        <v>1.22384</v>
       </c>
       <c r="E133" t="n">
-        <v>4.20495</v>
+        <v>2.98639</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35062</v>
+        <v>1.26534</v>
       </c>
       <c r="C134" t="n">
-        <v>2.93226</v>
+        <v>2.71449</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27438</v>
+        <v>1.21792</v>
       </c>
       <c r="E134" t="n">
-        <v>3.69481</v>
+        <v>3.83329</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.35178</v>
+        <v>1.26065</v>
       </c>
       <c r="C135" t="n">
-        <v>4.57312</v>
+        <v>4.21396</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27282</v>
+        <v>1.18477</v>
       </c>
       <c r="E135" t="n">
-        <v>3.89209</v>
+        <v>2.67815</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.35625</v>
+        <v>1.26893</v>
       </c>
       <c r="C136" t="n">
-        <v>4.5249</v>
+        <v>4.15438</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26722</v>
+        <v>1.20167</v>
       </c>
       <c r="E136" t="n">
-        <v>4.08532</v>
+        <v>2.84755</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.343</v>
+        <v>1.25616</v>
       </c>
       <c r="C137" t="n">
-        <v>5.19664</v>
+        <v>4.31126</v>
       </c>
       <c r="D137" t="n">
-        <v>1.59425</v>
+        <v>1.51193</v>
       </c>
       <c r="E137" t="n">
-        <v>5.59536</v>
+        <v>5.11153</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.60134</v>
+        <v>1.51927</v>
       </c>
       <c r="C138" t="n">
-        <v>4.41571</v>
+        <v>4.04516</v>
       </c>
       <c r="D138" t="n">
-        <v>1.58753</v>
+        <v>1.48534</v>
       </c>
       <c r="E138" t="n">
-        <v>5.50543</v>
+        <v>5.02314</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58891</v>
+        <v>1.51994</v>
       </c>
       <c r="C139" t="n">
-        <v>3.85442</v>
+        <v>4.00135</v>
       </c>
       <c r="D139" t="n">
-        <v>1.58368</v>
+        <v>1.49672</v>
       </c>
       <c r="E139" t="n">
-        <v>5.4027</v>
+        <v>4.93374</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.61041</v>
+        <v>1.49308</v>
       </c>
       <c r="C140" t="n">
-        <v>3.81851</v>
+        <v>3.49915</v>
       </c>
       <c r="D140" t="n">
-        <v>1.6011</v>
+        <v>1.49726</v>
       </c>
       <c r="E140" t="n">
-        <v>5.32383</v>
+        <v>4.85276</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60177</v>
+        <v>1.49358</v>
       </c>
       <c r="C141" t="n">
-        <v>3.51384</v>
+        <v>3.23605</v>
       </c>
       <c r="D141" t="n">
-        <v>1.57555</v>
+        <v>1.46488</v>
       </c>
       <c r="E141" t="n">
-        <v>5.23234</v>
+        <v>4.77136</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.59499</v>
+        <v>1.48411</v>
       </c>
       <c r="C142" t="n">
-        <v>3.47311</v>
+        <v>3.18509</v>
       </c>
       <c r="D142" t="n">
-        <v>1.57222</v>
+        <v>1.46565</v>
       </c>
       <c r="E142" t="n">
-        <v>5.13778</v>
+        <v>4.67864</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5946</v>
+        <v>1.49332</v>
       </c>
       <c r="C143" t="n">
-        <v>3.42904</v>
+        <v>3.1584</v>
       </c>
       <c r="D143" t="n">
-        <v>1.56814</v>
+        <v>1.46196</v>
       </c>
       <c r="E143" t="n">
-        <v>5.04926</v>
+        <v>4.15302</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578728</v>
+        <v>0.579966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.836672</v>
+        <v>0.773069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.565608</v>
+        <v>0.840753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.80863</v>
+        <v>0.564866</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.813827</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.558936</v>
+        <v>0.560993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.825451</v>
+        <v>0.77036</v>
       </c>
       <c r="D3" t="n">
-        <v>0.551715</v>
+        <v>0.830169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7922439999999999</v>
+        <v>0.552302</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.796438</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.554606</v>
+        <v>0.550443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.817946</v>
+        <v>0.760687</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5397149999999999</v>
+        <v>0.821489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.773329</v>
+        <v>0.538915</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.780486</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542003</v>
+        <v>0.542394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.811602</v>
+        <v>0.7518590000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.527636</v>
+        <v>0.867222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.759846</v>
+        <v>0.527486</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.765943</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532963</v>
+        <v>0.534061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.807152</v>
+        <v>0.743495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.517302</v>
+        <v>0.805585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.748556</v>
+        <v>0.517086</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.75319</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.47944</v>
+        <v>0.5277230000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.916492</v>
+        <v>0.7391180000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.509043</v>
+        <v>0.928096</v>
       </c>
       <c r="E7" t="n">
-        <v>0.736904</v>
+        <v>0.508933</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7433650000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523647</v>
+        <v>0.524119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.899111</v>
+        <v>0.736853</v>
       </c>
       <c r="D8" t="n">
-        <v>0.503378</v>
+        <v>0.908621</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7289369999999999</v>
+        <v>0.503657</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.736911</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.523524</v>
+        <v>0.525532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.883209</v>
+        <v>0.737838</v>
       </c>
       <c r="D9" t="n">
-        <v>0.761052</v>
+        <v>0.890211</v>
       </c>
       <c r="E9" t="n">
-        <v>1.01299</v>
+        <v>0.760842</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.01448</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.678433</v>
+        <v>0.672752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.868687</v>
+        <v>0.900319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.739131</v>
+        <v>0.874301</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98892</v>
+        <v>0.737883</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.989915</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653172</v>
+        <v>0.650268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.851707</v>
+        <v>0.88115</v>
       </c>
       <c r="D11" t="n">
-        <v>0.717553</v>
+        <v>0.857515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.962815</v>
+        <v>0.715928</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.965032</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.640002</v>
+        <v>0.634128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.837637</v>
+        <v>0.864327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.696791</v>
+        <v>0.842156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.939006</v>
+        <v>0.6949</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.940024</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617673</v>
+        <v>0.616744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.822213</v>
+        <v>0.846812</v>
       </c>
       <c r="D13" t="n">
-        <v>0.67693</v>
+        <v>0.826539</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9156</v>
+        <v>0.6756760000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.913319</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.60214</v>
+        <v>0.603097</v>
       </c>
       <c r="C14" t="n">
-        <v>0.816172</v>
+        <v>0.830063</v>
       </c>
       <c r="D14" t="n">
-        <v>0.658316</v>
+        <v>0.812676</v>
       </c>
       <c r="E14" t="n">
-        <v>0.891342</v>
+        <v>0.6571399999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.893716</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.588849</v>
+        <v>0.584597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.806256</v>
+        <v>0.815538</v>
       </c>
       <c r="D15" t="n">
-        <v>0.640607</v>
+        <v>0.8042049999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8723</v>
+        <v>0.640168</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.872187</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.575578</v>
+        <v>0.571076</v>
       </c>
       <c r="C16" t="n">
-        <v>0.79675</v>
+        <v>0.799489</v>
       </c>
       <c r="D16" t="n">
-        <v>0.624413</v>
+        <v>0.794797</v>
       </c>
       <c r="E16" t="n">
-        <v>0.851375</v>
+        <v>0.623431</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.851555</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.562415</v>
+        <v>0.558799</v>
       </c>
       <c r="C17" t="n">
-        <v>0.785311</v>
+        <v>0.789183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.60897</v>
+        <v>0.785477</v>
       </c>
       <c r="E17" t="n">
-        <v>0.864513</v>
+        <v>0.608645</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.86432</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.548794</v>
+        <v>0.5495640000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780572</v>
+        <v>0.781643</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594692</v>
+        <v>0.77876</v>
       </c>
       <c r="E18" t="n">
-        <v>0.847025</v>
+        <v>0.594339</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.847486</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538647</v>
+        <v>0.535482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.772423</v>
+        <v>0.769095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5820689999999999</v>
+        <v>0.7685419999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.832338</v>
+        <v>0.581609</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.832329</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529494</v>
+        <v>0.529772</v>
       </c>
       <c r="C20" t="n">
-        <v>0.766356</v>
+        <v>0.762306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.570209</v>
+        <v>0.7627080000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.818315</v>
+        <v>0.569448</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.818838</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523824</v>
+        <v>0.520907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.993209</v>
+        <v>0.757196</v>
       </c>
       <c r="D21" t="n">
-        <v>0.561418</v>
+        <v>0.993706</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8121930000000001</v>
+        <v>0.5611080000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.812387</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.519575</v>
+        <v>0.51788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.971646</v>
+        <v>0.753764</v>
       </c>
       <c r="D22" t="n">
-        <v>0.554019</v>
+        <v>0.968767</v>
       </c>
       <c r="E22" t="n">
-        <v>0.802996</v>
+        <v>0.55392</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.804251</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.51772</v>
+        <v>0.516534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.953153</v>
+        <v>0.751109</v>
       </c>
       <c r="D23" t="n">
-        <v>0.818974</v>
+        <v>0.948909</v>
       </c>
       <c r="E23" t="n">
-        <v>1.08779</v>
+        <v>0.818561</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.08942</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.685955</v>
+        <v>0.6842009999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.933065</v>
+        <v>0.937862</v>
       </c>
       <c r="D24" t="n">
-        <v>0.795095</v>
+        <v>0.931481</v>
       </c>
       <c r="E24" t="n">
-        <v>1.06066</v>
+        <v>0.793538</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.0598</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.667238</v>
+        <v>0.66482</v>
       </c>
       <c r="C25" t="n">
-        <v>0.91812</v>
+        <v>0.9170970000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.771113</v>
+        <v>0.917749</v>
       </c>
       <c r="E25" t="n">
-        <v>1.02864</v>
+        <v>0.769219</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.03005</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.652255</v>
+        <v>0.644093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.900674</v>
+        <v>0.896344</v>
       </c>
       <c r="D26" t="n">
-        <v>0.747752</v>
+        <v>0.898756</v>
       </c>
       <c r="E26" t="n">
-        <v>1.01159</v>
+        <v>0.746889</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.01065</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.627483</v>
+        <v>0.661032</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8857429999999999</v>
+        <v>0.8766969999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.726063</v>
+        <v>0.8845460000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.989788</v>
+        <v>0.725301</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.986703</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641498</v>
+        <v>0.614881</v>
       </c>
       <c r="C28" t="n">
-        <v>0.870497</v>
+        <v>0.859729</v>
       </c>
       <c r="D28" t="n">
-        <v>0.705198</v>
+        <v>0.873687</v>
       </c>
       <c r="E28" t="n">
-        <v>0.95962</v>
+        <v>0.704569</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.960863</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624596</v>
+        <v>0.624111</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8598789999999999</v>
+        <v>0.841463</v>
       </c>
       <c r="D29" t="n">
-        <v>0.685766</v>
+        <v>0.863637</v>
       </c>
       <c r="E29" t="n">
-        <v>0.942573</v>
+        <v>0.684974</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.941227</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608341</v>
+        <v>0.609787</v>
       </c>
       <c r="C30" t="n">
-        <v>0.853587</v>
+        <v>0.846905</v>
       </c>
       <c r="D30" t="n">
-        <v>0.667812</v>
+        <v>0.854457</v>
       </c>
       <c r="E30" t="n">
-        <v>0.919847</v>
+        <v>0.666067</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.920322</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594587</v>
+        <v>0.5952769999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.840746</v>
+        <v>0.834625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6498660000000001</v>
+        <v>0.839122</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8986150000000001</v>
+        <v>0.649093</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.900856</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581144</v>
+        <v>0.5820109999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.833678</v>
+        <v>0.824055</v>
       </c>
       <c r="D32" t="n">
-        <v>0.63366</v>
+        <v>0.834501</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8797970000000001</v>
+        <v>0.633232</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.881099</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568727</v>
+        <v>0.570586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.825659</v>
+        <v>0.81412</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6190059999999999</v>
+        <v>0.825819</v>
       </c>
       <c r="E33" t="n">
-        <v>0.862507</v>
+        <v>0.61839</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.86294</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557835</v>
+        <v>0.558551</v>
       </c>
       <c r="C34" t="n">
-        <v>0.816088</v>
+        <v>0.782817</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5843159999999999</v>
+        <v>0.8162430000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.845263</v>
+        <v>0.604401</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.846208</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.53228</v>
+        <v>0.551126</v>
       </c>
       <c r="C35" t="n">
-        <v>1.06413</v>
+        <v>0.7761479999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5931110000000001</v>
+        <v>1.07417</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8287910000000001</v>
+        <v>0.573188</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.830667</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.525586</v>
+        <v>0.543912</v>
       </c>
       <c r="C36" t="n">
-        <v>1.04549</v>
+        <v>0.772699</v>
       </c>
       <c r="D36" t="n">
-        <v>0.584051</v>
+        <v>1.04347</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8201889999999999</v>
+        <v>0.564461</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.821056</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5222909999999999</v>
+        <v>0.522636</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02324</v>
+        <v>0.767761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.834742</v>
+        <v>1.03244</v>
       </c>
       <c r="E37" t="n">
-        <v>1.37933</v>
+        <v>0.834104</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.37841</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.754583</v>
+        <v>0.730867</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00405</v>
+        <v>1.1851</v>
       </c>
       <c r="D38" t="n">
-        <v>0.809686</v>
+        <v>1.01089</v>
       </c>
       <c r="E38" t="n">
-        <v>1.35009</v>
+        <v>0.825148</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.3466</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.731557</v>
+        <v>0.73053</v>
       </c>
       <c r="C39" t="n">
-        <v>0.983916</v>
+        <v>1.16497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.785289</v>
+        <v>0.990063</v>
       </c>
       <c r="E39" t="n">
-        <v>1.31755</v>
+        <v>0.785088</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.31654</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.692804</v>
+        <v>0.692703</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9667559999999999</v>
+        <v>1.1438</v>
       </c>
       <c r="D40" t="n">
-        <v>0.762764</v>
+        <v>0.971244</v>
       </c>
       <c r="E40" t="n">
-        <v>1.29038</v>
+        <v>0.762073</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.28829</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.675253</v>
+        <v>0.672908</v>
       </c>
       <c r="C41" t="n">
-        <v>0.950851</v>
+        <v>1.12734</v>
       </c>
       <c r="D41" t="n">
-        <v>0.740982</v>
+        <v>0.955657</v>
       </c>
       <c r="E41" t="n">
-        <v>1.26368</v>
+        <v>0.739775</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.2599</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6587</v>
+        <v>0.654087</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9378649999999999</v>
+        <v>1.10908</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7202460000000001</v>
+        <v>0.937381</v>
       </c>
       <c r="E42" t="n">
-        <v>1.23806</v>
+        <v>0.719604</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.23441</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6552</v>
+        <v>0.636679</v>
       </c>
       <c r="C43" t="n">
-        <v>0.922369</v>
+        <v>1.09209</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700839</v>
+        <v>0.926101</v>
       </c>
       <c r="E43" t="n">
-        <v>1.21429</v>
+        <v>0.6997409999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.21024</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.623938</v>
+        <v>0.637035</v>
       </c>
       <c r="C44" t="n">
-        <v>0.910073</v>
+        <v>1.07711</v>
       </c>
       <c r="D44" t="n">
-        <v>0.681755</v>
+        <v>0.910199</v>
       </c>
       <c r="E44" t="n">
-        <v>1.18985</v>
+        <v>0.681391</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.18806</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.607903</v>
+        <v>0.606672</v>
       </c>
       <c r="C45" t="n">
-        <v>0.899975</v>
+        <v>1.06434</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6647189999999999</v>
+        <v>0.901983</v>
       </c>
       <c r="E45" t="n">
-        <v>1.16894</v>
+        <v>0.663931</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.16745</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.596621</v>
+        <v>0.607774</v>
       </c>
       <c r="C46" t="n">
-        <v>0.889848</v>
+        <v>1.05146</v>
       </c>
       <c r="D46" t="n">
-        <v>0.648078</v>
+        <v>0.89257</v>
       </c>
       <c r="E46" t="n">
-        <v>1.14984</v>
+        <v>0.6470359999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.14718</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.595724</v>
+        <v>0.58033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.886893</v>
+        <v>1.03963</v>
       </c>
       <c r="D47" t="n">
-        <v>0.632671</v>
+        <v>0.8815730000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>1.13098</v>
+        <v>0.631899</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.12834</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572946</v>
+        <v>0.569937</v>
       </c>
       <c r="C48" t="n">
-        <v>0.879575</v>
+        <v>1.02957</v>
       </c>
       <c r="D48" t="n">
-        <v>0.619323</v>
+        <v>0.875176</v>
       </c>
       <c r="E48" t="n">
-        <v>1.11396</v>
+        <v>0.598225</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.11092</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.561663</v>
+        <v>0.561079</v>
       </c>
       <c r="C49" t="n">
-        <v>0.869376</v>
+        <v>1.02169</v>
       </c>
       <c r="D49" t="n">
-        <v>0.587</v>
+        <v>0.868843</v>
       </c>
       <c r="E49" t="n">
-        <v>1.09633</v>
+        <v>0.605618</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.09448</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5560580000000001</v>
+        <v>0.5558110000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>1.11285</v>
+        <v>1.01641</v>
       </c>
       <c r="D50" t="n">
-        <v>0.596785</v>
+        <v>1.11668</v>
       </c>
       <c r="E50" t="n">
-        <v>1.08364</v>
+        <v>0.577415</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.08227</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.535103</v>
+        <v>0.550319</v>
       </c>
       <c r="C51" t="n">
-        <v>1.08912</v>
+        <v>1.01342</v>
       </c>
       <c r="D51" t="n">
-        <v>0.878698</v>
+        <v>1.09207</v>
       </c>
       <c r="E51" t="n">
-        <v>1.4567</v>
+        <v>0.865404</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.45423</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551432</v>
+        <v>0.533999</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06779</v>
+        <v>1.01344</v>
       </c>
       <c r="D52" t="n">
-        <v>0.853373</v>
+        <v>1.06872</v>
       </c>
       <c r="E52" t="n">
-        <v>1.42366</v>
+        <v>0.837599</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.42063</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757503</v>
+        <v>0.7555269999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>1.04528</v>
+        <v>1.21365</v>
       </c>
       <c r="D53" t="n">
-        <v>0.828014</v>
+        <v>1.04758</v>
       </c>
       <c r="E53" t="n">
-        <v>1.3894</v>
+        <v>0.815587</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.38675</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.731315</v>
+        <v>0.729461</v>
       </c>
       <c r="C54" t="n">
-        <v>1.02808</v>
+        <v>1.19261</v>
       </c>
       <c r="D54" t="n">
-        <v>0.793409</v>
+        <v>1.03017</v>
       </c>
       <c r="E54" t="n">
-        <v>1.36069</v>
+        <v>0.791469</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.3577</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.709143</v>
+        <v>0.715921</v>
       </c>
       <c r="C55" t="n">
-        <v>1.01019</v>
+        <v>1.17369</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772244</v>
+        <v>1.01263</v>
       </c>
       <c r="E55" t="n">
-        <v>1.33191</v>
+        <v>0.769048</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.32885</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.693001</v>
+        <v>0.697275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9937049999999999</v>
+        <v>1.15612</v>
       </c>
       <c r="D56" t="n">
-        <v>0.750907</v>
+        <v>0.995119</v>
       </c>
       <c r="E56" t="n">
-        <v>1.3044</v>
+        <v>0.747013</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.30217</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.681836</v>
+        <v>0.6679890000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9783539999999999</v>
+        <v>1.13736</v>
       </c>
       <c r="D57" t="n">
-        <v>0.731204</v>
+        <v>0.975899</v>
       </c>
       <c r="E57" t="n">
-        <v>1.27873</v>
+        <v>0.726727</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.27638</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.658964</v>
+        <v>0.656446</v>
       </c>
       <c r="C58" t="n">
-        <v>0.965159</v>
+        <v>1.1214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.718974</v>
+        <v>0.966471</v>
       </c>
       <c r="E58" t="n">
-        <v>1.25361</v>
+        <v>0.708801</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.25155</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6431559999999999</v>
+        <v>0.640964</v>
       </c>
       <c r="C59" t="n">
-        <v>0.946076</v>
+        <v>1.1068</v>
       </c>
       <c r="D59" t="n">
-        <v>0.666266</v>
+        <v>0.948933</v>
       </c>
       <c r="E59" t="n">
-        <v>1.22928</v>
+        <v>0.663208</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.22742</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6338859999999999</v>
+        <v>0.625317</v>
       </c>
       <c r="C60" t="n">
-        <v>0.936511</v>
+        <v>1.09425</v>
       </c>
       <c r="D60" t="n">
-        <v>0.648684</v>
+        <v>0.937939</v>
       </c>
       <c r="E60" t="n">
-        <v>1.20763</v>
+        <v>0.676248</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.20498</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.615389</v>
+        <v>0.615034</v>
       </c>
       <c r="C61" t="n">
-        <v>0.926307</v>
+        <v>1.0825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.661198</v>
+        <v>0.927291</v>
       </c>
       <c r="E61" t="n">
-        <v>1.18798</v>
+        <v>0.660353</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.18481</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.602932</v>
+        <v>0.603034</v>
       </c>
       <c r="C62" t="n">
-        <v>0.917279</v>
+        <v>1.07189</v>
       </c>
       <c r="D62" t="n">
-        <v>0.648527</v>
+        <v>0.918651</v>
       </c>
       <c r="E62" t="n">
-        <v>1.17019</v>
+        <v>0.621012</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.16849</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.593771</v>
+        <v>0.593101</v>
       </c>
       <c r="C63" t="n">
-        <v>0.907554</v>
+        <v>1.06387</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6338279999999999</v>
+        <v>0.9094640000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>1.15261</v>
+        <v>0.610534</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.14996</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589425</v>
+        <v>0.557524</v>
       </c>
       <c r="C64" t="n">
-        <v>1.19569</v>
+        <v>1.05705</v>
       </c>
       <c r="D64" t="n">
-        <v>0.623369</v>
+        <v>1.19554</v>
       </c>
       <c r="E64" t="n">
-        <v>1.13843</v>
+        <v>0.622892</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.13578</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.559146</v>
+        <v>0.580497</v>
       </c>
       <c r="C65" t="n">
-        <v>1.16602</v>
+        <v>1.05361</v>
       </c>
       <c r="D65" t="n">
-        <v>0.616227</v>
+        <v>1.1688</v>
       </c>
       <c r="E65" t="n">
-        <v>1.12806</v>
+        <v>0.615326</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.12552</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578769</v>
+        <v>0.557565</v>
       </c>
       <c r="C66" t="n">
-        <v>1.13572</v>
+        <v>1.05424</v>
       </c>
       <c r="D66" t="n">
-        <v>0.912119</v>
+        <v>1.13608</v>
       </c>
       <c r="E66" t="n">
-        <v>1.50603</v>
+        <v>0.914968</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.5045</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.833747</v>
+        <v>0.824677</v>
       </c>
       <c r="C67" t="n">
-        <v>1.10246</v>
+        <v>1.27973</v>
       </c>
       <c r="D67" t="n">
-        <v>0.875725</v>
+        <v>1.10667</v>
       </c>
       <c r="E67" t="n">
-        <v>1.47257</v>
+        <v>0.878323</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.46716</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.799964</v>
+        <v>0.819044</v>
       </c>
       <c r="C68" t="n">
-        <v>1.07714</v>
+        <v>1.25678</v>
       </c>
       <c r="D68" t="n">
-        <v>0.855829</v>
+        <v>1.08545</v>
       </c>
       <c r="E68" t="n">
-        <v>1.43992</v>
+        <v>0.867323</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.43844</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.787864</v>
+        <v>0.795564</v>
       </c>
       <c r="C69" t="n">
-        <v>1.05749</v>
+        <v>1.24257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8326750000000001</v>
+        <v>1.0671</v>
       </c>
       <c r="E69" t="n">
-        <v>1.40861</v>
+        <v>0.833458</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.40883</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.778191</v>
+        <v>0.7799779999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>1.04616</v>
+        <v>1.23275</v>
       </c>
       <c r="D70" t="n">
-        <v>0.811852</v>
+        <v>1.05509</v>
       </c>
       <c r="E70" t="n">
-        <v>1.38746</v>
+        <v>0.823765</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.38484</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.756368</v>
+        <v>0.753815</v>
       </c>
       <c r="C71" t="n">
-        <v>1.01831</v>
+        <v>1.21322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.791403</v>
+        <v>1.02335</v>
       </c>
       <c r="E71" t="n">
-        <v>1.3624</v>
+        <v>0.795038</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.36301</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.741847</v>
+        <v>0.747354</v>
       </c>
       <c r="C72" t="n">
-        <v>1.00995</v>
+        <v>1.206</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7731749999999999</v>
+        <v>1.01372</v>
       </c>
       <c r="E72" t="n">
-        <v>1.34648</v>
+        <v>0.7758930000000001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.34702</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.719875</v>
+        <v>0.735756</v>
       </c>
       <c r="C73" t="n">
-        <v>1.00156</v>
+        <v>1.19459</v>
       </c>
       <c r="D73" t="n">
-        <v>0.752627</v>
+        <v>1.00148</v>
       </c>
       <c r="E73" t="n">
-        <v>1.32785</v>
+        <v>0.720649</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.32442</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.711817</v>
+        <v>0.711265</v>
       </c>
       <c r="C74" t="n">
-        <v>0.985414</v>
+        <v>1.1824</v>
       </c>
       <c r="D74" t="n">
-        <v>0.701639</v>
+        <v>0.988965</v>
       </c>
       <c r="E74" t="n">
-        <v>1.31135</v>
+        <v>0.7392339999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.30227</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.70928</v>
+        <v>0.70073</v>
       </c>
       <c r="C75" t="n">
-        <v>0.978792</v>
+        <v>1.1848</v>
       </c>
       <c r="D75" t="n">
-        <v>0.726144</v>
+        <v>0.983002</v>
       </c>
       <c r="E75" t="n">
-        <v>1.29211</v>
+        <v>0.687169</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.29541</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.689003</v>
+        <v>0.689018</v>
       </c>
       <c r="C76" t="n">
-        <v>0.976105</v>
+        <v>1.18079</v>
       </c>
       <c r="D76" t="n">
-        <v>0.673848</v>
+        <v>0.979438</v>
       </c>
       <c r="E76" t="n">
-        <v>1.27858</v>
+        <v>0.703485</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.28062</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.688795</v>
+        <v>0.6781</v>
       </c>
       <c r="C77" t="n">
-        <v>0.968237</v>
+        <v>1.17672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.693276</v>
+        <v>0.96935</v>
       </c>
       <c r="E77" t="n">
-        <v>1.27669</v>
+        <v>0.660367</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.26985</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.674682</v>
+        <v>0.664488</v>
       </c>
       <c r="C78" t="n">
-        <v>1.43748</v>
+        <v>1.18271</v>
       </c>
       <c r="D78" t="n">
-        <v>0.649237</v>
+        <v>1.43988</v>
       </c>
       <c r="E78" t="n">
-        <v>1.27177</v>
+        <v>0.649061</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.26421</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.66415</v>
+        <v>0.64195</v>
       </c>
       <c r="C79" t="n">
-        <v>1.40492</v>
+        <v>1.1847</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6706569999999999</v>
+        <v>1.40703</v>
       </c>
       <c r="E79" t="n">
-        <v>1.27121</v>
+        <v>0.639962</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.26523</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6636609999999999</v>
+        <v>0.658388</v>
       </c>
       <c r="C80" t="n">
-        <v>1.37616</v>
+        <v>1.20825</v>
       </c>
       <c r="D80" t="n">
-        <v>0.977476</v>
+        <v>1.38009</v>
       </c>
       <c r="E80" t="n">
-        <v>1.93787</v>
+        <v>0.98224</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.94732</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.900979</v>
+        <v>0.904061</v>
       </c>
       <c r="C81" t="n">
-        <v>1.33496</v>
+        <v>1.69597</v>
       </c>
       <c r="D81" t="n">
-        <v>0.963642</v>
+        <v>1.34205</v>
       </c>
       <c r="E81" t="n">
-        <v>1.93308</v>
+        <v>0.96868</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.9217</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.898907</v>
+        <v>0.9028389999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.31272</v>
+        <v>1.70555</v>
       </c>
       <c r="D82" t="n">
-        <v>0.946358</v>
+        <v>1.32325</v>
       </c>
       <c r="E82" t="n">
-        <v>1.90671</v>
+        <v>0.931756</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.91415</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.875176</v>
+        <v>0.885966</v>
       </c>
       <c r="C83" t="n">
-        <v>1.29781</v>
+        <v>1.70625</v>
       </c>
       <c r="D83" t="n">
-        <v>0.90812</v>
+        <v>1.30631</v>
       </c>
       <c r="E83" t="n">
-        <v>1.89558</v>
+        <v>0.9305600000000001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.90558</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.880931</v>
+        <v>0.868525</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28696</v>
+        <v>1.71056</v>
       </c>
       <c r="D84" t="n">
-        <v>0.889655</v>
+        <v>1.29366</v>
       </c>
       <c r="E84" t="n">
-        <v>1.88097</v>
+        <v>0.910884</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.90112</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.859777</v>
+        <v>0.867597</v>
       </c>
       <c r="C85" t="n">
-        <v>1.24645</v>
+        <v>1.71922</v>
       </c>
       <c r="D85" t="n">
-        <v>0.868386</v>
+        <v>1.26074</v>
       </c>
       <c r="E85" t="n">
-        <v>1.86972</v>
+        <v>0.874093</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.88172</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.853598</v>
+        <v>0.840875</v>
       </c>
       <c r="C86" t="n">
-        <v>1.23531</v>
+        <v>1.71835</v>
       </c>
       <c r="D86" t="n">
-        <v>0.848679</v>
+        <v>1.24894</v>
       </c>
       <c r="E86" t="n">
-        <v>1.85478</v>
+        <v>0.852337</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.88252</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.827197</v>
+        <v>0.830756</v>
       </c>
       <c r="C87" t="n">
-        <v>1.2397</v>
+        <v>1.71739</v>
       </c>
       <c r="D87" t="n">
-        <v>0.794265</v>
+        <v>1.24753</v>
       </c>
       <c r="E87" t="n">
-        <v>1.86114</v>
+        <v>0.833144</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.87262</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.81823</v>
+        <v>0.828583</v>
       </c>
       <c r="C88" t="n">
-        <v>1.2271</v>
+        <v>1.71701</v>
       </c>
       <c r="D88" t="n">
-        <v>0.774128</v>
+        <v>1.24156</v>
       </c>
       <c r="E88" t="n">
-        <v>1.84791</v>
+        <v>0.813521</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.86706</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.804027</v>
+        <v>0.821325</v>
       </c>
       <c r="C89" t="n">
-        <v>1.23002</v>
+        <v>1.74275</v>
       </c>
       <c r="D89" t="n">
-        <v>0.794288</v>
+        <v>1.23959</v>
       </c>
       <c r="E89" t="n">
-        <v>1.86044</v>
+        <v>0.761841</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.86609</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.774495</v>
+        <v>0.806709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.24001</v>
+        <v>1.75302</v>
       </c>
       <c r="D90" t="n">
-        <v>0.777718</v>
+        <v>1.24787</v>
       </c>
       <c r="E90" t="n">
-        <v>1.85941</v>
+        <v>0.7463109999999999</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.86817</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.797238</v>
+        <v>0.7899929999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>1.23518</v>
+        <v>1.75769</v>
       </c>
       <c r="D91" t="n">
-        <v>0.730304</v>
+        <v>1.24771</v>
       </c>
       <c r="E91" t="n">
-        <v>1.80321</v>
+        <v>0.730393</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.86304</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781042</v>
+        <v>0.770679</v>
       </c>
       <c r="C92" t="n">
-        <v>2.25581</v>
+        <v>1.76709</v>
       </c>
       <c r="D92" t="n">
-        <v>0.718809</v>
+        <v>2.61538</v>
       </c>
       <c r="E92" t="n">
-        <v>1.8738</v>
+        <v>0.748672</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.86556</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.780535</v>
+        <v>0.771513</v>
       </c>
       <c r="C93" t="n">
-        <v>2.25102</v>
+        <v>1.7889</v>
       </c>
       <c r="D93" t="n">
-        <v>0.708332</v>
+        <v>2.62856</v>
       </c>
       <c r="E93" t="n">
-        <v>1.87471</v>
+        <v>0.738975</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.89088</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.780864</v>
+        <v>0.772452</v>
       </c>
       <c r="C94" t="n">
-        <v>2.22949</v>
+        <v>1.35455</v>
       </c>
       <c r="D94" t="n">
-        <v>1.02284</v>
+        <v>2.50381</v>
       </c>
       <c r="E94" t="n">
-        <v>2.93602</v>
+        <v>1.02374</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.93662</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02698</v>
+        <v>1.03155</v>
       </c>
       <c r="C95" t="n">
-        <v>2.48315</v>
+        <v>2.50258</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0155</v>
+        <v>2.55317</v>
       </c>
       <c r="E95" t="n">
-        <v>2.92188</v>
+        <v>1.02043</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.92667</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00581</v>
+        <v>1.03395</v>
       </c>
       <c r="C96" t="n">
-        <v>2.20738</v>
+        <v>2.52787</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03178</v>
+        <v>2.22264</v>
       </c>
       <c r="E96" t="n">
-        <v>2.88306</v>
+        <v>1.00762</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.89842</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01991</v>
+        <v>0.994658</v>
       </c>
       <c r="C97" t="n">
-        <v>2.40526</v>
+        <v>2.51459</v>
       </c>
       <c r="D97" t="n">
-        <v>0.986449</v>
+        <v>2.35944</v>
       </c>
       <c r="E97" t="n">
-        <v>2.85792</v>
+        <v>0.9888479999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.85848</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00498</v>
+        <v>0.98237</v>
       </c>
       <c r="C98" t="n">
-        <v>2.1956</v>
+        <v>2.50437</v>
       </c>
       <c r="D98" t="n">
-        <v>0.974066</v>
+        <v>2.35764</v>
       </c>
       <c r="E98" t="n">
-        <v>2.81717</v>
+        <v>0.970901</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.83177</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.992699</v>
+        <v>0.982442</v>
       </c>
       <c r="C99" t="n">
-        <v>1.82403</v>
+        <v>2.48684</v>
       </c>
       <c r="D99" t="n">
-        <v>0.953919</v>
+        <v>1.90813</v>
       </c>
       <c r="E99" t="n">
-        <v>2.77068</v>
+        <v>0.979117</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.77663</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.977593</v>
+        <v>0.978904</v>
       </c>
       <c r="C100" t="n">
-        <v>1.73787</v>
+        <v>2.46419</v>
       </c>
       <c r="D100" t="n">
-        <v>0.897684</v>
+        <v>1.7407</v>
       </c>
       <c r="E100" t="n">
-        <v>2.57947</v>
+        <v>0.897488</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.76059</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.979758</v>
+        <v>0.975619</v>
       </c>
       <c r="C101" t="n">
-        <v>1.7276</v>
+        <v>2.45556</v>
       </c>
       <c r="D101" t="n">
-        <v>0.923467</v>
+        <v>1.72816</v>
       </c>
       <c r="E101" t="n">
-        <v>2.7106</v>
+        <v>0.924746</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.55241</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.953173</v>
+        <v>0.970697</v>
       </c>
       <c r="C102" t="n">
-        <v>1.72765</v>
+        <v>2.41844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.874215</v>
+        <v>1.73168</v>
       </c>
       <c r="E102" t="n">
-        <v>2.51296</v>
+        <v>0.91006</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.69311</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.929772</v>
+        <v>0.910139</v>
       </c>
       <c r="C103" t="n">
-        <v>1.72007</v>
+        <v>2.40721</v>
       </c>
       <c r="D103" t="n">
-        <v>0.86239</v>
+        <v>1.73628</v>
       </c>
       <c r="E103" t="n">
-        <v>2.64134</v>
+        <v>0.896418</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.50344</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.931145</v>
+        <v>0.942682</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7286</v>
+        <v>2.3945</v>
       </c>
       <c r="D104" t="n">
-        <v>0.883373</v>
+        <v>1.73232</v>
       </c>
       <c r="E104" t="n">
-        <v>2.61552</v>
+        <v>0.8846540000000001</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.64932</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9302</v>
+        <v>0.932867</v>
       </c>
       <c r="C105" t="n">
-        <v>1.71864</v>
+        <v>2.40277</v>
       </c>
       <c r="D105" t="n">
-        <v>0.843054</v>
+        <v>1.72869</v>
       </c>
       <c r="E105" t="n">
-        <v>2.59897</v>
+        <v>0.8414199999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.57208</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90043</v>
+        <v>0.900254</v>
       </c>
       <c r="C106" t="n">
-        <v>1.72705</v>
+        <v>2.39117</v>
       </c>
       <c r="D106" t="n">
-        <v>0.831798</v>
+        <v>1.73293</v>
       </c>
       <c r="E106" t="n">
-        <v>2.40809</v>
+        <v>0.861975</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.06516</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.921686</v>
+        <v>0.94659</v>
       </c>
       <c r="C107" t="n">
-        <v>2.99659</v>
+        <v>2.39106</v>
       </c>
       <c r="D107" t="n">
-        <v>0.825083</v>
+        <v>3.55356</v>
       </c>
       <c r="E107" t="n">
-        <v>2.5318</v>
+        <v>0.826491</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.56249</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.917616</v>
+        <v>0.9247</v>
       </c>
       <c r="C108" t="n">
-        <v>3.14133</v>
+        <v>2.3833</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13749</v>
+        <v>3.17057</v>
       </c>
       <c r="E108" t="n">
-        <v>3.79798</v>
+        <v>1.16746</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.83065</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.893353</v>
+        <v>0.924309</v>
       </c>
       <c r="C109" t="n">
-        <v>3.12661</v>
+        <v>1.68414</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15897</v>
+        <v>3.33323</v>
       </c>
       <c r="E109" t="n">
-        <v>3.74909</v>
+        <v>1.16439</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.79212</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.16237</v>
+        <v>1.18861</v>
       </c>
       <c r="C110" t="n">
-        <v>2.92042</v>
+        <v>3.12318</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14756</v>
+        <v>2.7511</v>
       </c>
       <c r="E110" t="n">
-        <v>3.70302</v>
+        <v>1.15102</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.74343</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16863</v>
+        <v>1.15654</v>
       </c>
       <c r="C111" t="n">
-        <v>2.3428</v>
+        <v>3.10457</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10338</v>
+        <v>2.91321</v>
       </c>
       <c r="E111" t="n">
-        <v>3.65556</v>
+        <v>1.11015</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.65863</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1574</v>
+        <v>1.14948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.32496</v>
+        <v>3.06614</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09231</v>
+        <v>2.72011</v>
       </c>
       <c r="E112" t="n">
-        <v>3.57738</v>
+        <v>1.09808</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.62551</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14698</v>
+        <v>1.15357</v>
       </c>
       <c r="C113" t="n">
-        <v>2.69929</v>
+        <v>3.05548</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0825</v>
+        <v>2.90468</v>
       </c>
       <c r="E113" t="n">
-        <v>3.53302</v>
+        <v>1.08629</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.56688</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.11357</v>
+        <v>1.14076</v>
       </c>
       <c r="C114" t="n">
-        <v>2.2959</v>
+        <v>3.04396</v>
       </c>
       <c r="D114" t="n">
-        <v>1.06984</v>
+        <v>2.29515</v>
       </c>
       <c r="E114" t="n">
-        <v>3.4744</v>
+        <v>1.07641</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.50509</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13147</v>
+        <v>1.12039</v>
       </c>
       <c r="C115" t="n">
-        <v>2.48168</v>
+        <v>2.99979</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0615</v>
+        <v>2.68808</v>
       </c>
       <c r="E115" t="n">
-        <v>3.42691</v>
+        <v>1.06528</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.44626</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.09705</v>
+        <v>1.10848</v>
       </c>
       <c r="C116" t="n">
-        <v>2.27456</v>
+        <v>2.98765</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04576</v>
+        <v>2.28371</v>
       </c>
       <c r="E116" t="n">
-        <v>3.39864</v>
+        <v>1.05501</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.41556</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.09844</v>
+        <v>1.08936</v>
       </c>
       <c r="C117" t="n">
-        <v>2.25068</v>
+        <v>2.97921</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04027</v>
+        <v>2.26564</v>
       </c>
       <c r="E117" t="n">
-        <v>3.1365</v>
+        <v>1.04549</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3.16328</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09899</v>
+        <v>1.09836</v>
       </c>
       <c r="C118" t="n">
-        <v>2.2547</v>
+        <v>2.95337</v>
       </c>
       <c r="D118" t="n">
-        <v>1.01908</v>
+        <v>2.26894</v>
       </c>
       <c r="E118" t="n">
-        <v>3.2875</v>
+        <v>1.00662</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.11038</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.07906</v>
+        <v>1.0853</v>
       </c>
       <c r="C119" t="n">
-        <v>2.25001</v>
+        <v>2.9424</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9933070000000001</v>
+        <v>2.27214</v>
       </c>
       <c r="E119" t="n">
-        <v>3.05657</v>
+        <v>1.02917</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.26966</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08204</v>
+        <v>1.0886</v>
       </c>
       <c r="C120" t="n">
-        <v>2.24851</v>
+        <v>2.90898</v>
       </c>
       <c r="D120" t="n">
-        <v>1.00823</v>
+        <v>2.26753</v>
       </c>
       <c r="E120" t="n">
-        <v>3.01528</v>
+        <v>0.992362</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.23637</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.0708</v>
+        <v>1.08343</v>
       </c>
       <c r="C121" t="n">
-        <v>3.68029</v>
+        <v>1.68221</v>
       </c>
       <c r="D121" t="n">
-        <v>1.003</v>
+        <v>3.70152</v>
       </c>
       <c r="E121" t="n">
-        <v>3.17944</v>
+        <v>1.01445</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.21997</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07943</v>
+        <v>1.07538</v>
       </c>
       <c r="C122" t="n">
-        <v>3.60896</v>
+        <v>2.50172</v>
       </c>
       <c r="D122" t="n">
-        <v>0.976427</v>
+        <v>4.075</v>
       </c>
       <c r="E122" t="n">
-        <v>2.93677</v>
+        <v>0.9833</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.97791</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08043</v>
+        <v>1.09498</v>
       </c>
       <c r="C123" t="n">
-        <v>3.97721</v>
+        <v>2.48529</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29081</v>
+        <v>4.21865</v>
       </c>
       <c r="E123" t="n">
-        <v>4.4494</v>
+        <v>1.2962</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.51301</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32388</v>
+        <v>1.34133</v>
       </c>
       <c r="C124" t="n">
-        <v>3.54369</v>
+        <v>3.66926</v>
       </c>
       <c r="D124" t="n">
-        <v>1.27823</v>
+        <v>3.99861</v>
       </c>
       <c r="E124" t="n">
-        <v>4.39245</v>
+        <v>1.28921</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.44068</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31276</v>
+        <v>1.33308</v>
       </c>
       <c r="C125" t="n">
-        <v>3.51435</v>
+        <v>3.63434</v>
       </c>
       <c r="D125" t="n">
-        <v>1.26949</v>
+        <v>3.52907</v>
       </c>
       <c r="E125" t="n">
-        <v>4.32004</v>
+        <v>1.30026</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.37209</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31325</v>
+        <v>1.30476</v>
       </c>
       <c r="C126" t="n">
-        <v>2.85705</v>
+        <v>3.60533</v>
       </c>
       <c r="D126" t="n">
-        <v>1.25951</v>
+        <v>2.87752</v>
       </c>
       <c r="E126" t="n">
-        <v>4.24537</v>
+        <v>1.27018</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.30468</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.30639</v>
+        <v>1.31893</v>
       </c>
       <c r="C127" t="n">
-        <v>2.82923</v>
+        <v>3.57426</v>
       </c>
       <c r="D127" t="n">
-        <v>1.25623</v>
+        <v>3.07011</v>
       </c>
       <c r="E127" t="n">
-        <v>4.18985</v>
+        <v>1.2609</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.2455</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.30591</v>
+        <v>1.29367</v>
       </c>
       <c r="C128" t="n">
-        <v>2.80015</v>
+        <v>3.54237</v>
       </c>
       <c r="D128" t="n">
-        <v>1.24404</v>
+        <v>3.04374</v>
       </c>
       <c r="E128" t="n">
-        <v>4.13545</v>
+        <v>1.25436</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.17101</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27958</v>
+        <v>1.27975</v>
       </c>
       <c r="C129" t="n">
-        <v>2.76206</v>
+        <v>3.51909</v>
       </c>
       <c r="D129" t="n">
-        <v>1.24201</v>
+        <v>2.7842</v>
       </c>
       <c r="E129" t="n">
-        <v>4.06258</v>
+        <v>1.24885</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4.1171</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.2711</v>
+        <v>1.28482</v>
       </c>
       <c r="C130" t="n">
-        <v>2.74646</v>
+        <v>3.48517</v>
       </c>
       <c r="D130" t="n">
-        <v>1.23253</v>
+        <v>2.77455</v>
       </c>
       <c r="E130" t="n">
-        <v>4.01088</v>
+        <v>1.23678</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.83756</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.27543</v>
+        <v>1.26702</v>
       </c>
       <c r="C131" t="n">
-        <v>2.73206</v>
+        <v>3.4694</v>
       </c>
       <c r="D131" t="n">
-        <v>1.23362</v>
+        <v>2.77005</v>
       </c>
       <c r="E131" t="n">
-        <v>3.9579</v>
+        <v>1.20435</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3.56243</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.2652</v>
+        <v>1.2695</v>
       </c>
       <c r="C132" t="n">
-        <v>2.73368</v>
+        <v>3.44498</v>
       </c>
       <c r="D132" t="n">
-        <v>1.19347</v>
+        <v>2.74549</v>
       </c>
       <c r="E132" t="n">
-        <v>3.69062</v>
+        <v>1.23283</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.95262</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.26408</v>
+        <v>1.27495</v>
       </c>
       <c r="C133" t="n">
-        <v>2.71665</v>
+        <v>3.4216</v>
       </c>
       <c r="D133" t="n">
-        <v>1.22384</v>
+        <v>2.73825</v>
       </c>
       <c r="E133" t="n">
-        <v>2.98639</v>
+        <v>1.19354</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.89423</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.26534</v>
+        <v>1.27022</v>
       </c>
       <c r="C134" t="n">
-        <v>2.71449</v>
+        <v>3.40663</v>
       </c>
       <c r="D134" t="n">
-        <v>1.21792</v>
+        <v>2.7349</v>
       </c>
       <c r="E134" t="n">
-        <v>3.83329</v>
+        <v>1.19236</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3.4253</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.26065</v>
+        <v>1.27037</v>
       </c>
       <c r="C135" t="n">
-        <v>4.21396</v>
+        <v>3.39301</v>
       </c>
       <c r="D135" t="n">
-        <v>1.18477</v>
+        <v>4.93707</v>
       </c>
       <c r="E135" t="n">
-        <v>2.67815</v>
+        <v>1.21852</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.80247</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.26893</v>
+        <v>1.2777</v>
       </c>
       <c r="C136" t="n">
-        <v>4.15438</v>
+        <v>3.37416</v>
       </c>
       <c r="D136" t="n">
-        <v>1.20167</v>
+        <v>4.18905</v>
       </c>
       <c r="E136" t="n">
-        <v>2.84755</v>
+        <v>1.21472</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3.76197</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.25616</v>
+        <v>1.27879</v>
       </c>
       <c r="C137" t="n">
-        <v>4.31126</v>
+        <v>3.36101</v>
       </c>
       <c r="D137" t="n">
-        <v>1.51193</v>
+        <v>4.13292</v>
       </c>
       <c r="E137" t="n">
-        <v>5.11153</v>
+        <v>1.49577</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5.14603</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.51927</v>
+        <v>1.51696</v>
       </c>
       <c r="C138" t="n">
-        <v>4.04516</v>
+        <v>4.16911</v>
       </c>
       <c r="D138" t="n">
-        <v>1.48534</v>
+        <v>4.08526</v>
       </c>
       <c r="E138" t="n">
-        <v>5.02314</v>
+        <v>1.51576</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5.08117</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51994</v>
+        <v>1.51219</v>
       </c>
       <c r="C139" t="n">
-        <v>4.00135</v>
+        <v>4.12223</v>
       </c>
       <c r="D139" t="n">
-        <v>1.49672</v>
+        <v>4.03166</v>
       </c>
       <c r="E139" t="n">
-        <v>4.93374</v>
+        <v>1.50897</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4.9944</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.49308</v>
+        <v>1.50249</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49915</v>
+        <v>4.07687</v>
       </c>
       <c r="D140" t="n">
-        <v>1.49726</v>
+        <v>3.98418</v>
       </c>
       <c r="E140" t="n">
-        <v>4.85276</v>
+        <v>1.4781</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.8791</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.49358</v>
+        <v>1.49022</v>
       </c>
       <c r="C141" t="n">
-        <v>3.23605</v>
+        <v>4.03293</v>
       </c>
       <c r="D141" t="n">
-        <v>1.46488</v>
+        <v>3.49234</v>
       </c>
       <c r="E141" t="n">
-        <v>4.77136</v>
+        <v>1.47549</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.80264</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48411</v>
+        <v>1.47071</v>
       </c>
       <c r="C142" t="n">
-        <v>3.18509</v>
+        <v>3.99024</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46565</v>
+        <v>3.20756</v>
       </c>
       <c r="E142" t="n">
-        <v>4.67864</v>
+        <v>1.46161</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4.70901</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49332</v>
+        <v>1.49977</v>
       </c>
       <c r="C143" t="n">
-        <v>3.1584</v>
+        <v>3.95895</v>
       </c>
       <c r="D143" t="n">
-        <v>1.46196</v>
+        <v>3.17874</v>
       </c>
       <c r="E143" t="n">
-        <v>4.15302</v>
+        <v>1.42457</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4.18195</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.579966</v>
+        <v>0.578945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.773069</v>
+        <v>0.777955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.840753</v>
+        <v>0.839577</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564866</v>
+        <v>0.564972</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813827</v>
+        <v>0.810456</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560993</v>
+        <v>0.561191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.77036</v>
+        <v>0.768906</v>
       </c>
       <c r="D3" t="n">
-        <v>0.830169</v>
+        <v>0.831166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552302</v>
+        <v>0.552146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.796438</v>
+        <v>0.793724</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.550443</v>
+        <v>0.551453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.760687</v>
+        <v>0.761301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.821489</v>
+        <v>0.823762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538915</v>
+        <v>0.538936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.780486</v>
+        <v>0.7790589999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542394</v>
+        <v>0.541463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7518590000000001</v>
+        <v>0.7505810000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.867222</v>
+        <v>0.867102</v>
       </c>
       <c r="E5" t="n">
-        <v>0.527486</v>
+        <v>0.52728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.765943</v>
+        <v>0.762497</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534061</v>
+        <v>0.534957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.743495</v>
+        <v>0.742733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.805585</v>
+        <v>0.807443</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517086</v>
+        <v>0.517355</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75319</v>
+        <v>0.75015</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5277230000000001</v>
+        <v>0.527718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7391180000000001</v>
+        <v>0.738226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.928096</v>
+        <v>0.926841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.508933</v>
+        <v>0.509372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7433650000000001</v>
+        <v>0.741707</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.524119</v>
+        <v>0.523765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.736853</v>
+        <v>0.738002</v>
       </c>
       <c r="D8" t="n">
-        <v>0.908621</v>
+        <v>0.905394</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503657</v>
+        <v>0.503012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.736911</v>
+        <v>0.734347</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525532</v>
+        <v>0.5255609999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737838</v>
+        <v>0.737313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.890211</v>
+        <v>0.888393</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760842</v>
+        <v>0.760336</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01448</v>
+        <v>1.01089</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.672752</v>
+        <v>0.6762860000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.900319</v>
+        <v>0.899665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.874301</v>
+        <v>0.873133</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737883</v>
+        <v>0.737093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.989915</v>
+        <v>0.985406</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.650268</v>
+        <v>0.653654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.88115</v>
+        <v>0.880667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.857515</v>
+        <v>0.858518</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715928</v>
+        <v>0.715889</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965032</v>
+        <v>0.965355</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634128</v>
+        <v>0.635395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.864327</v>
+        <v>0.863168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.842156</v>
+        <v>0.843932</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6949</v>
+        <v>0.695515</v>
       </c>
       <c r="F12" t="n">
-        <v>0.940024</v>
+        <v>0.939678</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.616744</v>
+        <v>0.619827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.846812</v>
+        <v>0.848094</v>
       </c>
       <c r="D13" t="n">
-        <v>0.826539</v>
+        <v>0.831947</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6756760000000001</v>
+        <v>0.676133</v>
       </c>
       <c r="F13" t="n">
-        <v>0.913319</v>
+        <v>0.916334</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.603097</v>
+        <v>0.600864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830063</v>
+        <v>0.831952</v>
       </c>
       <c r="D14" t="n">
-        <v>0.812676</v>
+        <v>0.81735</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6571399999999999</v>
+        <v>0.657255</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893716</v>
+        <v>0.893344</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584597</v>
+        <v>0.591224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.815538</v>
+        <v>0.816922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8042049999999999</v>
+        <v>0.8068380000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.640168</v>
+        <v>0.6400749999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.872187</v>
+        <v>0.871509</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.571076</v>
+        <v>0.569161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.799489</v>
+        <v>0.801168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.794797</v>
+        <v>0.797423</v>
       </c>
       <c r="E16" t="n">
-        <v>0.623431</v>
+        <v>0.62368</v>
       </c>
       <c r="F16" t="n">
-        <v>0.851555</v>
+        <v>0.851644</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558799</v>
+        <v>0.560173</v>
       </c>
       <c r="C17" t="n">
-        <v>0.789183</v>
+        <v>0.7876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785477</v>
+        <v>0.785624</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608645</v>
+        <v>0.608329</v>
       </c>
       <c r="F17" t="n">
-        <v>0.86432</v>
+        <v>0.8642069999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5495640000000001</v>
+        <v>0.54938</v>
       </c>
       <c r="C18" t="n">
-        <v>0.781643</v>
+        <v>0.780049</v>
       </c>
       <c r="D18" t="n">
-        <v>0.77876</v>
+        <v>0.779042</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594339</v>
+        <v>0.594433</v>
       </c>
       <c r="F18" t="n">
-        <v>0.847486</v>
+        <v>0.847065</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535482</v>
+        <v>0.538171</v>
       </c>
       <c r="C19" t="n">
-        <v>0.769095</v>
+        <v>0.768107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7685419999999999</v>
+        <v>0.7701210000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581609</v>
+        <v>0.581197</v>
       </c>
       <c r="F19" t="n">
-        <v>0.832329</v>
+        <v>0.831359</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529772</v>
+        <v>0.529539</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762306</v>
+        <v>0.762468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7627080000000001</v>
+        <v>0.762538</v>
       </c>
       <c r="E20" t="n">
-        <v>0.569448</v>
+        <v>0.57</v>
       </c>
       <c r="F20" t="n">
-        <v>0.818838</v>
+        <v>0.817972</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520907</v>
+        <v>0.523358</v>
       </c>
       <c r="C21" t="n">
-        <v>0.757196</v>
+        <v>0.756655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.993706</v>
+        <v>0.989892</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5611080000000001</v>
+        <v>0.560911</v>
       </c>
       <c r="F21" t="n">
-        <v>0.812387</v>
+        <v>0.811808</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51788</v>
+        <v>0.543504</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753764</v>
+        <v>0.753754</v>
       </c>
       <c r="D22" t="n">
-        <v>0.968767</v>
+        <v>0.969093</v>
       </c>
       <c r="E22" t="n">
-        <v>0.55392</v>
+        <v>0.554107</v>
       </c>
       <c r="F22" t="n">
-        <v>0.804251</v>
+        <v>0.802963</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516534</v>
+        <v>0.517083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.751109</v>
+        <v>0.75027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.948909</v>
+        <v>0.952606</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818561</v>
+        <v>0.818675</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08942</v>
+        <v>1.08801</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6842009999999999</v>
+        <v>0.681482</v>
       </c>
       <c r="C24" t="n">
-        <v>0.937862</v>
+        <v>0.93862</v>
       </c>
       <c r="D24" t="n">
-        <v>0.931481</v>
+        <v>0.933874</v>
       </c>
       <c r="E24" t="n">
-        <v>0.793538</v>
+        <v>0.792855</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0598</v>
+        <v>1.05914</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.66482</v>
+        <v>0.666611</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9170970000000001</v>
+        <v>0.916972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.917749</v>
+        <v>0.9185219999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769219</v>
+        <v>0.769389</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03005</v>
+        <v>1.03112</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.644093</v>
+        <v>0.6473179999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896344</v>
+        <v>0.896556</v>
       </c>
       <c r="D26" t="n">
-        <v>0.898756</v>
+        <v>0.899648</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746889</v>
+        <v>0.746775</v>
       </c>
       <c r="F26" t="n">
-        <v>1.01065</v>
+        <v>1.00949</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.661032</v>
+        <v>0.663507</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8766969999999999</v>
+        <v>0.878578</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8845460000000001</v>
+        <v>0.8847390000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725301</v>
+        <v>0.725227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.986703</v>
+        <v>0.983803</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.614881</v>
+        <v>0.642266</v>
       </c>
       <c r="C28" t="n">
-        <v>0.859729</v>
+        <v>0.860191</v>
       </c>
       <c r="D28" t="n">
-        <v>0.873687</v>
+        <v>0.869023</v>
       </c>
       <c r="E28" t="n">
-        <v>0.704569</v>
+        <v>0.7040999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.960863</v>
+        <v>0.96217</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624111</v>
+        <v>0.624883</v>
       </c>
       <c r="C29" t="n">
-        <v>0.841463</v>
+        <v>0.84295</v>
       </c>
       <c r="D29" t="n">
-        <v>0.863637</v>
+        <v>0.866395</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684974</v>
+        <v>0.684581</v>
       </c>
       <c r="F29" t="n">
-        <v>0.941227</v>
+        <v>0.944242</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.609787</v>
+        <v>0.60904</v>
       </c>
       <c r="C30" t="n">
-        <v>0.846905</v>
+        <v>0.847733</v>
       </c>
       <c r="D30" t="n">
-        <v>0.854457</v>
+        <v>0.853972</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666067</v>
+        <v>0.666131</v>
       </c>
       <c r="F30" t="n">
-        <v>0.920322</v>
+        <v>0.920611</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5952769999999999</v>
+        <v>0.595611</v>
       </c>
       <c r="C31" t="n">
-        <v>0.834625</v>
+        <v>0.833983</v>
       </c>
       <c r="D31" t="n">
-        <v>0.839122</v>
+        <v>0.841808</v>
       </c>
       <c r="E31" t="n">
-        <v>0.649093</v>
+        <v>0.648764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.900856</v>
+        <v>0.899454</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5820109999999999</v>
+        <v>0.5811269999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824055</v>
+        <v>0.824192</v>
       </c>
       <c r="D32" t="n">
-        <v>0.834501</v>
+        <v>0.8358950000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.633232</v>
+        <v>0.632809</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881099</v>
+        <v>0.881498</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570586</v>
+        <v>0.570567</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81412</v>
+        <v>0.814344</v>
       </c>
       <c r="D33" t="n">
-        <v>0.825819</v>
+        <v>0.827259</v>
       </c>
       <c r="E33" t="n">
-        <v>0.61839</v>
+        <v>0.618401</v>
       </c>
       <c r="F33" t="n">
-        <v>0.86294</v>
+        <v>0.862242</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558551</v>
+        <v>0.56001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.782817</v>
+        <v>0.780455</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8162430000000001</v>
+        <v>0.816309</v>
       </c>
       <c r="E34" t="n">
-        <v>0.604401</v>
+        <v>0.6050990000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.846208</v>
+        <v>0.8461610000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551126</v>
+        <v>0.551972</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7761479999999999</v>
+        <v>0.778699</v>
       </c>
       <c r="D35" t="n">
-        <v>1.07417</v>
+        <v>1.06944</v>
       </c>
       <c r="E35" t="n">
-        <v>0.573188</v>
+        <v>0.5730499999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.830667</v>
+        <v>0.832548</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543912</v>
+        <v>0.543432</v>
       </c>
       <c r="C36" t="n">
-        <v>0.772699</v>
+        <v>0.771825</v>
       </c>
       <c r="D36" t="n">
-        <v>1.04347</v>
+        <v>1.05229</v>
       </c>
       <c r="E36" t="n">
-        <v>0.564461</v>
+        <v>0.583402</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821056</v>
+        <v>0.821764</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.522636</v>
+        <v>0.523994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.767761</v>
+        <v>0.766075</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03244</v>
+        <v>1.02137</v>
       </c>
       <c r="E37" t="n">
-        <v>0.834104</v>
+        <v>0.833634</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37841</v>
+        <v>1.37803</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.730867</v>
+        <v>0.736918</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1851</v>
+        <v>1.18611</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01089</v>
+        <v>1.00584</v>
       </c>
       <c r="E38" t="n">
-        <v>0.825148</v>
+        <v>0.8088</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3466</v>
+        <v>1.3475</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.73053</v>
+        <v>0.712777</v>
       </c>
       <c r="C39" t="n">
-        <v>1.16497</v>
+        <v>1.1655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.990063</v>
+        <v>0.98872</v>
       </c>
       <c r="E39" t="n">
-        <v>0.785088</v>
+        <v>0.784267</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31654</v>
+        <v>1.31647</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.692703</v>
+        <v>0.710164</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1438</v>
+        <v>1.14561</v>
       </c>
       <c r="D40" t="n">
-        <v>0.971244</v>
+        <v>0.971569</v>
       </c>
       <c r="E40" t="n">
-        <v>0.762073</v>
+        <v>0.761387</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28829</v>
+        <v>1.28896</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.672908</v>
+        <v>0.67462</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12734</v>
+        <v>1.12844</v>
       </c>
       <c r="D41" t="n">
-        <v>0.955657</v>
+        <v>0.9561539999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.739775</v>
+        <v>0.740115</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2599</v>
+        <v>1.26112</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.654087</v>
+        <v>0.653282</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10908</v>
+        <v>1.10987</v>
       </c>
       <c r="D42" t="n">
-        <v>0.937381</v>
+        <v>0.939369</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719604</v>
+        <v>0.719585</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23441</v>
+        <v>1.23684</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.636679</v>
+        <v>0.653292</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09209</v>
+        <v>1.0937</v>
       </c>
       <c r="D43" t="n">
-        <v>0.926101</v>
+        <v>0.925658</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6997409999999999</v>
+        <v>0.699701</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21024</v>
+        <v>1.21258</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.637035</v>
+        <v>0.619232</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07711</v>
+        <v>1.07876</v>
       </c>
       <c r="D44" t="n">
-        <v>0.910199</v>
+        <v>0.912257</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681391</v>
+        <v>0.681382</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18806</v>
+        <v>1.18934</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.606672</v>
+        <v>0.6216660000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06434</v>
+        <v>1.06613</v>
       </c>
       <c r="D45" t="n">
-        <v>0.901983</v>
+        <v>0.902527</v>
       </c>
       <c r="E45" t="n">
-        <v>0.663931</v>
+        <v>0.640358</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16745</v>
+        <v>1.16823</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.607774</v>
+        <v>0.592971</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05146</v>
+        <v>1.05255</v>
       </c>
       <c r="D46" t="n">
-        <v>0.89257</v>
+        <v>0.890896</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6470359999999999</v>
+        <v>0.647135</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14718</v>
+        <v>1.14824</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.58033</v>
+        <v>0.580769</v>
       </c>
       <c r="C47" t="n">
-        <v>1.03963</v>
+        <v>1.04026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8815730000000001</v>
+        <v>0.885104</v>
       </c>
       <c r="E47" t="n">
-        <v>0.631899</v>
+        <v>0.63196</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12834</v>
+        <v>1.12904</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.569937</v>
+        <v>0.572925</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02957</v>
+        <v>1.02949</v>
       </c>
       <c r="D48" t="n">
-        <v>0.875176</v>
+        <v>0.8758320000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.598225</v>
+        <v>0.618397</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11092</v>
+        <v>1.11215</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.561079</v>
+        <v>0.575179</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02169</v>
+        <v>1.02301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.868843</v>
+        <v>0.87074</v>
       </c>
       <c r="E49" t="n">
-        <v>0.605618</v>
+        <v>0.586457</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09448</v>
+        <v>1.09699</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5558110000000001</v>
+        <v>0.556882</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01641</v>
+        <v>1.01767</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11668</v>
+        <v>1.11552</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577415</v>
+        <v>0.577457</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08227</v>
+        <v>1.08197</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.550319</v>
+        <v>0.5517649999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01342</v>
+        <v>1.01346</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09207</v>
+        <v>1.09269</v>
       </c>
       <c r="E51" t="n">
-        <v>0.865404</v>
+        <v>0.863727</v>
       </c>
       <c r="F51" t="n">
-        <v>1.45423</v>
+        <v>1.4549</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.533999</v>
+        <v>0.551859</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01344</v>
+        <v>1.01523</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06872</v>
+        <v>1.0712</v>
       </c>
       <c r="E52" t="n">
-        <v>0.837599</v>
+        <v>0.838862</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42063</v>
+        <v>1.42159</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7555269999999999</v>
+        <v>0.7504189999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>1.21365</v>
+        <v>1.2153</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04758</v>
+        <v>1.04855</v>
       </c>
       <c r="E53" t="n">
-        <v>0.815587</v>
+        <v>0.8274550000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38675</v>
+        <v>1.38829</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.729461</v>
+        <v>0.735606</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19261</v>
+        <v>1.19383</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03017</v>
+        <v>1.03278</v>
       </c>
       <c r="E54" t="n">
-        <v>0.791469</v>
+        <v>0.803524</v>
       </c>
       <c r="F54" t="n">
-        <v>1.3577</v>
+        <v>1.35994</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.715921</v>
+        <v>0.710759</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17369</v>
+        <v>1.17504</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01263</v>
+        <v>1.01246</v>
       </c>
       <c r="E55" t="n">
-        <v>0.769048</v>
+        <v>0.770278</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32885</v>
+        <v>1.32944</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.697275</v>
+        <v>0.692178</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15612</v>
+        <v>1.15581</v>
       </c>
       <c r="D56" t="n">
-        <v>0.995119</v>
+        <v>0.9968050000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.747013</v>
+        <v>0.749043</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30217</v>
+        <v>1.30299</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6679890000000001</v>
+        <v>0.674092</v>
       </c>
       <c r="C57" t="n">
-        <v>1.13736</v>
+        <v>1.1399</v>
       </c>
       <c r="D57" t="n">
-        <v>0.975899</v>
+        <v>0.981193</v>
       </c>
       <c r="E57" t="n">
-        <v>0.726727</v>
+        <v>0.7310140000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27638</v>
+        <v>1.27815</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.656446</v>
+        <v>0.664422</v>
       </c>
       <c r="C58" t="n">
-        <v>1.1214</v>
+        <v>1.12269</v>
       </c>
       <c r="D58" t="n">
-        <v>0.966471</v>
+        <v>0.969372</v>
       </c>
       <c r="E58" t="n">
-        <v>0.708801</v>
+        <v>0.711004</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25155</v>
+        <v>1.25073</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.640964</v>
+        <v>0.64124</v>
       </c>
       <c r="C59" t="n">
-        <v>1.1068</v>
+        <v>1.10858</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948933</v>
+        <v>0.948706</v>
       </c>
       <c r="E59" t="n">
-        <v>0.663208</v>
+        <v>0.666104</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22742</v>
+        <v>1.22967</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.625317</v>
+        <v>0.627595</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09425</v>
+        <v>1.09491</v>
       </c>
       <c r="D60" t="n">
-        <v>0.937939</v>
+        <v>0.93933</v>
       </c>
       <c r="E60" t="n">
-        <v>0.676248</v>
+        <v>0.675085</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20498</v>
+        <v>1.20621</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.615034</v>
+        <v>0.614029</v>
       </c>
       <c r="C61" t="n">
-        <v>1.0825</v>
+        <v>1.08407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.927291</v>
+        <v>0.929284</v>
       </c>
       <c r="E61" t="n">
-        <v>0.660353</v>
+        <v>0.63654</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18481</v>
+        <v>1.18527</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.603034</v>
+        <v>0.607531</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07189</v>
+        <v>1.07455</v>
       </c>
       <c r="D62" t="n">
-        <v>0.918651</v>
+        <v>0.919617</v>
       </c>
       <c r="E62" t="n">
-        <v>0.621012</v>
+        <v>0.645849</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16849</v>
+        <v>1.16768</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.593101</v>
+        <v>0.600247</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06387</v>
+        <v>1.06484</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9094640000000001</v>
+        <v>0.9084370000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610534</v>
+        <v>0.610885</v>
       </c>
       <c r="F63" t="n">
-        <v>1.14996</v>
+        <v>1.15126</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.557524</v>
+        <v>0.586382</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05705</v>
+        <v>1.05884</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19554</v>
+        <v>1.19335</v>
       </c>
       <c r="E64" t="n">
-        <v>0.622892</v>
+        <v>0.623261</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13578</v>
+        <v>1.13627</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.580497</v>
+        <v>0.581714</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05361</v>
+        <v>1.05516</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1688</v>
+        <v>1.17073</v>
       </c>
       <c r="E65" t="n">
-        <v>0.615326</v>
+        <v>0.615559</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12552</v>
+        <v>1.12607</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.557565</v>
+        <v>0.580363</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05424</v>
+        <v>1.05505</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13608</v>
+        <v>1.13766</v>
       </c>
       <c r="E66" t="n">
-        <v>0.914968</v>
+        <v>0.909761</v>
       </c>
       <c r="F66" t="n">
-        <v>1.5045</v>
+        <v>1.50085</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.824677</v>
+        <v>0.828461</v>
       </c>
       <c r="C67" t="n">
-        <v>1.27973</v>
+        <v>1.2815</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10667</v>
+        <v>1.10789</v>
       </c>
       <c r="E67" t="n">
-        <v>0.878323</v>
+        <v>0.874743</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46716</v>
+        <v>1.46805</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.819044</v>
+        <v>0.806863</v>
       </c>
       <c r="C68" t="n">
-        <v>1.25678</v>
+        <v>1.26156</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08545</v>
+        <v>1.08707</v>
       </c>
       <c r="E68" t="n">
-        <v>0.867323</v>
+        <v>0.853703</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43844</v>
+        <v>1.43868</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.795564</v>
+        <v>0.7880819999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24257</v>
+        <v>1.24224</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0671</v>
+        <v>1.06951</v>
       </c>
       <c r="E69" t="n">
-        <v>0.833458</v>
+        <v>0.843563</v>
       </c>
       <c r="F69" t="n">
-        <v>1.40883</v>
+        <v>1.41695</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7799779999999999</v>
+        <v>0.776046</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23275</v>
+        <v>1.23481</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05509</v>
+        <v>1.05315</v>
       </c>
       <c r="E70" t="n">
-        <v>0.823765</v>
+        <v>0.81177</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38484</v>
+        <v>1.38741</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753815</v>
+        <v>0.76677</v>
       </c>
       <c r="C71" t="n">
-        <v>1.21322</v>
+        <v>1.22024</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02335</v>
+        <v>1.02362</v>
       </c>
       <c r="E71" t="n">
-        <v>0.795038</v>
+        <v>0.79226</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36301</v>
+        <v>1.36539</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.747354</v>
+        <v>0.744466</v>
       </c>
       <c r="C72" t="n">
-        <v>1.206</v>
+        <v>1.20471</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01372</v>
+        <v>1.01309</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7758930000000001</v>
+        <v>0.771702</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34702</v>
+        <v>1.34323</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.735756</v>
+        <v>0.730315</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19459</v>
+        <v>1.19652</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00148</v>
+        <v>1.00466</v>
       </c>
       <c r="E73" t="n">
-        <v>0.720649</v>
+        <v>0.752695</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32442</v>
+        <v>1.32944</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.711265</v>
+        <v>0.712638</v>
       </c>
       <c r="C74" t="n">
-        <v>1.1824</v>
+        <v>1.1925</v>
       </c>
       <c r="D74" t="n">
-        <v>0.988965</v>
+        <v>0.990823</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7392339999999999</v>
+        <v>0.7348209999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.30227</v>
+        <v>1.31111</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.70073</v>
+        <v>0.692535</v>
       </c>
       <c r="C75" t="n">
-        <v>1.1848</v>
+        <v>1.18726</v>
       </c>
       <c r="D75" t="n">
-        <v>0.983002</v>
+        <v>0.985135</v>
       </c>
       <c r="E75" t="n">
-        <v>0.687169</v>
+        <v>0.717469</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29541</v>
+        <v>1.29574</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.689018</v>
+        <v>0.690912</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18079</v>
+        <v>1.18038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979438</v>
+        <v>0.979475</v>
       </c>
       <c r="E76" t="n">
-        <v>0.703485</v>
+        <v>0.671296</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28062</v>
+        <v>1.28393</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6781</v>
+        <v>0.679749</v>
       </c>
       <c r="C77" t="n">
-        <v>1.17672</v>
+        <v>1.18405</v>
       </c>
       <c r="D77" t="n">
-        <v>0.96935</v>
+        <v>0.971542</v>
       </c>
       <c r="E77" t="n">
-        <v>0.660367</v>
+        <v>0.687662</v>
       </c>
       <c r="F77" t="n">
-        <v>1.26985</v>
+        <v>1.27394</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.664488</v>
+        <v>0.663251</v>
       </c>
       <c r="C78" t="n">
-        <v>1.18271</v>
+        <v>0.915733</v>
       </c>
       <c r="D78" t="n">
-        <v>1.43988</v>
+        <v>1.44172</v>
       </c>
       <c r="E78" t="n">
-        <v>0.649061</v>
+        <v>0.648093</v>
       </c>
       <c r="F78" t="n">
-        <v>1.26421</v>
+        <v>1.27133</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.64195</v>
+        <v>0.659977</v>
       </c>
       <c r="C79" t="n">
-        <v>1.1847</v>
+        <v>1.18123</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40703</v>
+        <v>1.40853</v>
       </c>
       <c r="E79" t="n">
-        <v>0.639962</v>
+        <v>0.640089</v>
       </c>
       <c r="F79" t="n">
-        <v>1.26523</v>
+        <v>1.262</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.658388</v>
+        <v>0.646414</v>
       </c>
       <c r="C80" t="n">
-        <v>1.20825</v>
+        <v>1.18678</v>
       </c>
       <c r="D80" t="n">
-        <v>1.38009</v>
+        <v>1.37663</v>
       </c>
       <c r="E80" t="n">
-        <v>0.98224</v>
+        <v>0.977612</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94732</v>
+        <v>1.94413</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.904061</v>
+        <v>0.902752</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69597</v>
+        <v>1.69256</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34205</v>
+        <v>1.34091</v>
       </c>
       <c r="E81" t="n">
-        <v>0.96868</v>
+        <v>0.944515</v>
       </c>
       <c r="F81" t="n">
-        <v>1.9217</v>
+        <v>1.92971</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9028389999999999</v>
+        <v>0.9017269999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70555</v>
+        <v>1.70832</v>
       </c>
       <c r="D82" t="n">
-        <v>1.32325</v>
+        <v>1.31956</v>
       </c>
       <c r="E82" t="n">
-        <v>0.931756</v>
+        <v>0.945915</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91415</v>
+        <v>1.91378</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.885966</v>
+        <v>0.888181</v>
       </c>
       <c r="C83" t="n">
-        <v>1.70625</v>
+        <v>1.69766</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30631</v>
+        <v>1.29945</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9305600000000001</v>
+        <v>0.910839</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90558</v>
+        <v>1.90201</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.868525</v>
+        <v>0.882795</v>
       </c>
       <c r="C84" t="n">
-        <v>1.71056</v>
+        <v>1.70276</v>
       </c>
       <c r="D84" t="n">
-        <v>1.29366</v>
+        <v>1.2862</v>
       </c>
       <c r="E84" t="n">
-        <v>0.910884</v>
+        <v>0.891394</v>
       </c>
       <c r="F84" t="n">
-        <v>1.90112</v>
+        <v>1.87741</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.867597</v>
+        <v>0.873467</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71922</v>
+        <v>1.70249</v>
       </c>
       <c r="D85" t="n">
-        <v>1.26074</v>
+        <v>1.24737</v>
       </c>
       <c r="E85" t="n">
-        <v>0.874093</v>
+        <v>0.871479</v>
       </c>
       <c r="F85" t="n">
-        <v>1.88172</v>
+        <v>1.87663</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.840875</v>
+        <v>0.851044</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71835</v>
+        <v>1.71091</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24894</v>
+        <v>1.24128</v>
       </c>
       <c r="E86" t="n">
-        <v>0.852337</v>
+        <v>0.854048</v>
       </c>
       <c r="F86" t="n">
-        <v>1.88252</v>
+        <v>1.84882</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.830756</v>
+        <v>0.842668</v>
       </c>
       <c r="C87" t="n">
-        <v>1.71739</v>
+        <v>1.70851</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24753</v>
+        <v>1.23604</v>
       </c>
       <c r="E87" t="n">
-        <v>0.833144</v>
+        <v>0.793293</v>
       </c>
       <c r="F87" t="n">
-        <v>1.87262</v>
+        <v>1.86212</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.828583</v>
+        <v>0.83203</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71701</v>
+        <v>1.7154</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24156</v>
+        <v>1.23036</v>
       </c>
       <c r="E88" t="n">
-        <v>0.813521</v>
+        <v>0.815468</v>
       </c>
       <c r="F88" t="n">
-        <v>1.86706</v>
+        <v>1.85231</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.821325</v>
+        <v>0.809331</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74275</v>
+        <v>1.72687</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23959</v>
+        <v>1.23492</v>
       </c>
       <c r="E89" t="n">
-        <v>0.761841</v>
+        <v>0.798683</v>
       </c>
       <c r="F89" t="n">
-        <v>1.86609</v>
+        <v>1.85601</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.806709</v>
+        <v>0.794862</v>
       </c>
       <c r="C90" t="n">
-        <v>1.75302</v>
+        <v>1.73738</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24787</v>
+        <v>1.23943</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7463109999999999</v>
+        <v>0.780344</v>
       </c>
       <c r="F90" t="n">
-        <v>1.86817</v>
+        <v>1.85873</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7899929999999999</v>
+        <v>0.79195</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75769</v>
+        <v>1.75186</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24771</v>
+        <v>1.24009</v>
       </c>
       <c r="E91" t="n">
-        <v>0.730393</v>
+        <v>0.730885</v>
       </c>
       <c r="F91" t="n">
-        <v>1.86304</v>
+        <v>1.87179</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.770679</v>
+        <v>0.78806</v>
       </c>
       <c r="C92" t="n">
-        <v>1.76709</v>
+        <v>1.57397</v>
       </c>
       <c r="D92" t="n">
-        <v>2.61538</v>
+        <v>2.59804</v>
       </c>
       <c r="E92" t="n">
-        <v>0.748672</v>
+        <v>0.751381</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86556</v>
+        <v>1.86149</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.771513</v>
+        <v>0.756065</v>
       </c>
       <c r="C93" t="n">
-        <v>1.7889</v>
+        <v>1.19126</v>
       </c>
       <c r="D93" t="n">
-        <v>2.62856</v>
+        <v>2.25703</v>
       </c>
       <c r="E93" t="n">
-        <v>0.738975</v>
+        <v>0.709817</v>
       </c>
       <c r="F93" t="n">
-        <v>1.89088</v>
+        <v>1.87588</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.772452</v>
+        <v>0.7819739999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>1.35455</v>
+        <v>1.82163</v>
       </c>
       <c r="D94" t="n">
-        <v>2.50381</v>
+        <v>2.23865</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02374</v>
+        <v>1.06236</v>
       </c>
       <c r="F94" t="n">
-        <v>2.93662</v>
+        <v>2.94124</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03155</v>
+        <v>1.04597</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50258</v>
+        <v>2.50674</v>
       </c>
       <c r="D95" t="n">
-        <v>2.55317</v>
+        <v>2.35046</v>
       </c>
       <c r="E95" t="n">
-        <v>1.02043</v>
+        <v>1.0252</v>
       </c>
       <c r="F95" t="n">
-        <v>2.92667</v>
+        <v>2.9196</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03395</v>
+        <v>1.02645</v>
       </c>
       <c r="C96" t="n">
-        <v>2.52787</v>
+        <v>2.50693</v>
       </c>
       <c r="D96" t="n">
-        <v>2.22264</v>
+        <v>2.47816</v>
       </c>
       <c r="E96" t="n">
-        <v>1.00762</v>
+        <v>1.0375</v>
       </c>
       <c r="F96" t="n">
-        <v>2.89842</v>
+        <v>2.87694</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.994658</v>
+        <v>1.02291</v>
       </c>
       <c r="C97" t="n">
-        <v>2.51459</v>
+        <v>2.49533</v>
       </c>
       <c r="D97" t="n">
-        <v>2.35944</v>
+        <v>2.33804</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9888479999999999</v>
+        <v>1.01874</v>
       </c>
       <c r="F97" t="n">
-        <v>2.85848</v>
+        <v>2.84224</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.98237</v>
+        <v>1.01467</v>
       </c>
       <c r="C98" t="n">
-        <v>2.50437</v>
+        <v>2.48121</v>
       </c>
       <c r="D98" t="n">
-        <v>2.35764</v>
+        <v>2.12482</v>
       </c>
       <c r="E98" t="n">
-        <v>0.970901</v>
+        <v>0.977468</v>
       </c>
       <c r="F98" t="n">
-        <v>2.83177</v>
+        <v>2.81805</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.982442</v>
+        <v>0.9658949999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>2.48684</v>
+        <v>2.46789</v>
       </c>
       <c r="D99" t="n">
-        <v>1.90813</v>
+        <v>1.74476</v>
       </c>
       <c r="E99" t="n">
-        <v>0.979117</v>
+        <v>0.961076</v>
       </c>
       <c r="F99" t="n">
-        <v>2.77663</v>
+        <v>2.76768</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.978904</v>
+        <v>0.972756</v>
       </c>
       <c r="C100" t="n">
-        <v>2.46419</v>
+        <v>2.44529</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7407</v>
+        <v>1.72652</v>
       </c>
       <c r="E100" t="n">
-        <v>0.897488</v>
+        <v>0.9464669999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>2.76059</v>
+        <v>2.74154</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975619</v>
+        <v>0.967247</v>
       </c>
       <c r="C101" t="n">
-        <v>2.45556</v>
+        <v>2.43288</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72816</v>
+        <v>1.71766</v>
       </c>
       <c r="E101" t="n">
-        <v>0.924746</v>
+        <v>0.888662</v>
       </c>
       <c r="F101" t="n">
-        <v>2.55241</v>
+        <v>2.70845</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.970697</v>
+        <v>0.958162</v>
       </c>
       <c r="C102" t="n">
-        <v>2.41844</v>
+        <v>2.4177</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73168</v>
+        <v>1.71562</v>
       </c>
       <c r="E102" t="n">
-        <v>0.91006</v>
+        <v>0.876199</v>
       </c>
       <c r="F102" t="n">
-        <v>1.69311</v>
+        <v>1.6875</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.910139</v>
+        <v>0.925603</v>
       </c>
       <c r="C103" t="n">
-        <v>2.40721</v>
+        <v>2.39044</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73628</v>
+        <v>1.72266</v>
       </c>
       <c r="E103" t="n">
-        <v>0.896418</v>
+        <v>0.9030280000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>2.50344</v>
+        <v>1.64207</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.942682</v>
+        <v>0.899645</v>
       </c>
       <c r="C104" t="n">
-        <v>2.3945</v>
+        <v>2.06345</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73232</v>
+        <v>1.72749</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8846540000000001</v>
+        <v>0.852386</v>
       </c>
       <c r="F104" t="n">
-        <v>2.64932</v>
+        <v>1.59879</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.932867</v>
+        <v>0.898475</v>
       </c>
       <c r="C105" t="n">
-        <v>2.40277</v>
+        <v>1.5552</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72869</v>
+        <v>1.72478</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8414199999999999</v>
+        <v>0.843021</v>
       </c>
       <c r="F105" t="n">
-        <v>1.57208</v>
+        <v>1.56107</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.900254</v>
+        <v>0.9007540000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.39117</v>
+        <v>2.37157</v>
       </c>
       <c r="D106" t="n">
-        <v>1.73293</v>
+        <v>1.72959</v>
       </c>
       <c r="E106" t="n">
-        <v>0.861975</v>
+        <v>0.833892</v>
       </c>
       <c r="F106" t="n">
-        <v>2.06516</v>
+        <v>1.53719</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.94659</v>
+        <v>0.943306</v>
       </c>
       <c r="C107" t="n">
-        <v>2.39106</v>
+        <v>2.35872</v>
       </c>
       <c r="D107" t="n">
-        <v>3.55356</v>
+        <v>3.52198</v>
       </c>
       <c r="E107" t="n">
-        <v>0.826491</v>
+        <v>0.858177</v>
       </c>
       <c r="F107" t="n">
-        <v>2.56249</v>
+        <v>1.50021</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9247</v>
+        <v>0.897498</v>
       </c>
       <c r="C108" t="n">
-        <v>2.3833</v>
+        <v>2.37914</v>
       </c>
       <c r="D108" t="n">
-        <v>3.17057</v>
+        <v>3.33197</v>
       </c>
       <c r="E108" t="n">
-        <v>1.16746</v>
+        <v>1.15028</v>
       </c>
       <c r="F108" t="n">
-        <v>3.83065</v>
+        <v>3.78878</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.924309</v>
+        <v>0.909695</v>
       </c>
       <c r="C109" t="n">
-        <v>1.68414</v>
+        <v>1.49619</v>
       </c>
       <c r="D109" t="n">
-        <v>3.33323</v>
+        <v>3.47584</v>
       </c>
       <c r="E109" t="n">
-        <v>1.16439</v>
+        <v>1.17423</v>
       </c>
       <c r="F109" t="n">
-        <v>3.79212</v>
+        <v>3.75683</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18861</v>
+        <v>1.17957</v>
       </c>
       <c r="C110" t="n">
-        <v>3.12318</v>
+        <v>3.11847</v>
       </c>
       <c r="D110" t="n">
-        <v>2.7511</v>
+        <v>2.73031</v>
       </c>
       <c r="E110" t="n">
-        <v>1.15102</v>
+        <v>1.16019</v>
       </c>
       <c r="F110" t="n">
-        <v>3.74343</v>
+        <v>3.68574</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.15654</v>
+        <v>1.1777</v>
       </c>
       <c r="C111" t="n">
-        <v>3.10457</v>
+        <v>3.0766</v>
       </c>
       <c r="D111" t="n">
-        <v>2.91321</v>
+        <v>2.8993</v>
       </c>
       <c r="E111" t="n">
-        <v>1.11015</v>
+        <v>1.12037</v>
       </c>
       <c r="F111" t="n">
-        <v>3.65863</v>
+        <v>3.64655</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14948</v>
+        <v>1.17225</v>
       </c>
       <c r="C112" t="n">
-        <v>3.06614</v>
+        <v>3.07165</v>
       </c>
       <c r="D112" t="n">
-        <v>2.72011</v>
+        <v>2.52207</v>
       </c>
       <c r="E112" t="n">
-        <v>1.09808</v>
+        <v>1.13023</v>
       </c>
       <c r="F112" t="n">
-        <v>3.62551</v>
+        <v>3.58407</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15357</v>
+        <v>1.14524</v>
       </c>
       <c r="C113" t="n">
-        <v>3.05548</v>
+        <v>3.03778</v>
       </c>
       <c r="D113" t="n">
-        <v>2.90468</v>
+        <v>2.29429</v>
       </c>
       <c r="E113" t="n">
-        <v>1.08629</v>
+        <v>1.09319</v>
       </c>
       <c r="F113" t="n">
-        <v>3.56688</v>
+        <v>3.52641</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14076</v>
+        <v>1.12364</v>
       </c>
       <c r="C114" t="n">
-        <v>3.04396</v>
+        <v>3.01141</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29515</v>
+        <v>2.47728</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07641</v>
+        <v>1.10338</v>
       </c>
       <c r="F114" t="n">
-        <v>3.50509</v>
+        <v>3.47611</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12039</v>
+        <v>1.12807</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99979</v>
+        <v>3.00056</v>
       </c>
       <c r="D115" t="n">
-        <v>2.68808</v>
+        <v>2.47817</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06528</v>
+        <v>1.06957</v>
       </c>
       <c r="F115" t="n">
-        <v>3.44626</v>
+        <v>3.42783</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.10848</v>
+        <v>1.11637</v>
       </c>
       <c r="C116" t="n">
-        <v>2.98765</v>
+        <v>2.96175</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28371</v>
+        <v>2.46635</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05501</v>
+        <v>1.05955</v>
       </c>
       <c r="F116" t="n">
-        <v>3.41556</v>
+        <v>3.36508</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.08936</v>
+        <v>1.10606</v>
       </c>
       <c r="C117" t="n">
-        <v>2.97921</v>
+        <v>2.94734</v>
       </c>
       <c r="D117" t="n">
-        <v>2.26564</v>
+        <v>2.25639</v>
       </c>
       <c r="E117" t="n">
-        <v>1.04549</v>
+        <v>1.01194</v>
       </c>
       <c r="F117" t="n">
-        <v>3.16328</v>
+        <v>3.13665</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09836</v>
+        <v>1.09748</v>
       </c>
       <c r="C118" t="n">
-        <v>2.95337</v>
+        <v>2.92198</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26894</v>
+        <v>2.25601</v>
       </c>
       <c r="E118" t="n">
-        <v>1.00662</v>
+        <v>1.04057</v>
       </c>
       <c r="F118" t="n">
-        <v>3.11038</v>
+        <v>3.29461</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0853</v>
+        <v>1.09279</v>
       </c>
       <c r="C119" t="n">
-        <v>2.9424</v>
+        <v>2.91153</v>
       </c>
       <c r="D119" t="n">
-        <v>2.27214</v>
+        <v>2.25158</v>
       </c>
       <c r="E119" t="n">
-        <v>1.02917</v>
+        <v>0.9984769999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>3.26966</v>
+        <v>3.25361</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.0886</v>
+        <v>1.08284</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90898</v>
+        <v>2.90405</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26753</v>
+        <v>2.25159</v>
       </c>
       <c r="E120" t="n">
-        <v>0.992362</v>
+        <v>1.02447</v>
       </c>
       <c r="F120" t="n">
-        <v>3.23637</v>
+        <v>2.81385</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08343</v>
+        <v>1.09384</v>
       </c>
       <c r="C121" t="n">
-        <v>1.68221</v>
+        <v>2.8854</v>
       </c>
       <c r="D121" t="n">
-        <v>3.70152</v>
+        <v>4.28566</v>
       </c>
       <c r="E121" t="n">
-        <v>1.01445</v>
+        <v>0.986803</v>
       </c>
       <c r="F121" t="n">
-        <v>3.21997</v>
+        <v>2.98845</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07538</v>
+        <v>1.04463</v>
       </c>
       <c r="C122" t="n">
-        <v>2.50172</v>
+        <v>2.88915</v>
       </c>
       <c r="D122" t="n">
-        <v>4.075</v>
+        <v>3.83575</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9833</v>
+        <v>0.982499</v>
       </c>
       <c r="F122" t="n">
-        <v>2.97791</v>
+        <v>2.54162</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09498</v>
+        <v>1.08658</v>
       </c>
       <c r="C123" t="n">
-        <v>2.48529</v>
+        <v>2.6632</v>
       </c>
       <c r="D123" t="n">
-        <v>4.21865</v>
+        <v>4.19002</v>
       </c>
       <c r="E123" t="n">
-        <v>1.2962</v>
+        <v>1.33</v>
       </c>
       <c r="F123" t="n">
-        <v>4.51301</v>
+        <v>4.46281</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34133</v>
+        <v>1.34986</v>
       </c>
       <c r="C124" t="n">
-        <v>3.66926</v>
+        <v>3.64295</v>
       </c>
       <c r="D124" t="n">
-        <v>3.99861</v>
+        <v>3.94945</v>
       </c>
       <c r="E124" t="n">
-        <v>1.28921</v>
+        <v>1.29233</v>
       </c>
       <c r="F124" t="n">
-        <v>4.44068</v>
+        <v>4.39732</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33308</v>
+        <v>1.33568</v>
       </c>
       <c r="C125" t="n">
-        <v>3.63434</v>
+        <v>3.61675</v>
       </c>
       <c r="D125" t="n">
-        <v>3.52907</v>
+        <v>3.30026</v>
       </c>
       <c r="E125" t="n">
-        <v>1.30026</v>
+        <v>1.28112</v>
       </c>
       <c r="F125" t="n">
-        <v>4.37209</v>
+        <v>4.33468</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.30476</v>
+        <v>1.32098</v>
       </c>
       <c r="C126" t="n">
-        <v>3.60533</v>
+        <v>3.57909</v>
       </c>
       <c r="D126" t="n">
-        <v>2.87752</v>
+        <v>3.0606</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27018</v>
+        <v>1.27317</v>
       </c>
       <c r="F126" t="n">
-        <v>4.30468</v>
+        <v>4.25192</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31893</v>
+        <v>1.31392</v>
       </c>
       <c r="C127" t="n">
-        <v>3.57426</v>
+        <v>3.54017</v>
       </c>
       <c r="D127" t="n">
-        <v>3.07011</v>
+        <v>2.81846</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2609</v>
+        <v>1.26417</v>
       </c>
       <c r="F127" t="n">
-        <v>4.2455</v>
+        <v>4.18228</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29367</v>
+        <v>1.29634</v>
       </c>
       <c r="C128" t="n">
-        <v>3.54237</v>
+        <v>3.51571</v>
       </c>
       <c r="D128" t="n">
-        <v>3.04374</v>
+        <v>2.80197</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25436</v>
+        <v>1.2565</v>
       </c>
       <c r="F128" t="n">
-        <v>4.17101</v>
+        <v>4.13447</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27975</v>
+        <v>1.27651</v>
       </c>
       <c r="C129" t="n">
-        <v>3.51909</v>
+        <v>3.49106</v>
       </c>
       <c r="D129" t="n">
-        <v>2.7842</v>
+        <v>2.76079</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24885</v>
+        <v>1.24714</v>
       </c>
       <c r="F129" t="n">
-        <v>4.1171</v>
+        <v>4.0634</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28482</v>
+        <v>1.27859</v>
       </c>
       <c r="C130" t="n">
-        <v>3.48517</v>
+        <v>3.45324</v>
       </c>
       <c r="D130" t="n">
-        <v>2.77455</v>
+        <v>2.75182</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23678</v>
+        <v>1.24175</v>
       </c>
       <c r="F130" t="n">
-        <v>3.83756</v>
+        <v>4.01223</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.26702</v>
+        <v>1.26472</v>
       </c>
       <c r="C131" t="n">
-        <v>3.4694</v>
+        <v>3.42207</v>
       </c>
       <c r="D131" t="n">
-        <v>2.77005</v>
+        <v>2.73814</v>
       </c>
       <c r="E131" t="n">
-        <v>1.20435</v>
+        <v>1.23529</v>
       </c>
       <c r="F131" t="n">
-        <v>3.56243</v>
+        <v>3.96145</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.2695</v>
+        <v>1.26537</v>
       </c>
       <c r="C132" t="n">
-        <v>3.44498</v>
+        <v>3.40555</v>
       </c>
       <c r="D132" t="n">
-        <v>2.74549</v>
+        <v>2.72633</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23283</v>
+        <v>1.23045</v>
       </c>
       <c r="F132" t="n">
-        <v>3.95262</v>
+        <v>3.90638</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27495</v>
+        <v>1.27396</v>
       </c>
       <c r="C133" t="n">
-        <v>3.4216</v>
+        <v>3.39156</v>
       </c>
       <c r="D133" t="n">
-        <v>2.73825</v>
+        <v>2.71328</v>
       </c>
       <c r="E133" t="n">
-        <v>1.19354</v>
+        <v>1.22408</v>
       </c>
       <c r="F133" t="n">
-        <v>3.89423</v>
+        <v>3.41184</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.27022</v>
+        <v>1.2481</v>
       </c>
       <c r="C134" t="n">
-        <v>3.40663</v>
+        <v>3.36343</v>
       </c>
       <c r="D134" t="n">
-        <v>2.7349</v>
+        <v>2.70865</v>
       </c>
       <c r="E134" t="n">
-        <v>1.19236</v>
+        <v>1.18832</v>
       </c>
       <c r="F134" t="n">
-        <v>3.4253</v>
+        <v>3.59762</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.27037</v>
+        <v>1.24989</v>
       </c>
       <c r="C135" t="n">
-        <v>3.39301</v>
+        <v>3.35742</v>
       </c>
       <c r="D135" t="n">
-        <v>4.93707</v>
+        <v>4.87888</v>
       </c>
       <c r="E135" t="n">
-        <v>1.21852</v>
+        <v>1.18642</v>
       </c>
       <c r="F135" t="n">
-        <v>3.80247</v>
+        <v>3.55809</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.2777</v>
+        <v>1.24888</v>
       </c>
       <c r="C136" t="n">
-        <v>3.37416</v>
+        <v>2.02843</v>
       </c>
       <c r="D136" t="n">
-        <v>4.18905</v>
+        <v>4.80572</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21472</v>
+        <v>1.21125</v>
       </c>
       <c r="F136" t="n">
-        <v>3.76197</v>
+        <v>2.40685</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27879</v>
+        <v>1.27759</v>
       </c>
       <c r="C137" t="n">
-        <v>3.36101</v>
+        <v>2.00784</v>
       </c>
       <c r="D137" t="n">
-        <v>4.13292</v>
+        <v>4.53685</v>
       </c>
       <c r="E137" t="n">
-        <v>1.49577</v>
+        <v>1.52763</v>
       </c>
       <c r="F137" t="n">
-        <v>5.14603</v>
+        <v>5.12942</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.51696</v>
+        <v>1.53292</v>
       </c>
       <c r="C138" t="n">
-        <v>4.16911</v>
+        <v>4.13841</v>
       </c>
       <c r="D138" t="n">
-        <v>4.08526</v>
+        <v>4.26489</v>
       </c>
       <c r="E138" t="n">
-        <v>1.51576</v>
+        <v>1.51766</v>
       </c>
       <c r="F138" t="n">
-        <v>5.08117</v>
+        <v>5.02497</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51219</v>
+        <v>1.50768</v>
       </c>
       <c r="C139" t="n">
-        <v>4.12223</v>
+        <v>4.09777</v>
       </c>
       <c r="D139" t="n">
-        <v>4.03166</v>
+        <v>3.99516</v>
       </c>
       <c r="E139" t="n">
-        <v>1.50897</v>
+        <v>1.4862</v>
       </c>
       <c r="F139" t="n">
-        <v>4.9944</v>
+        <v>4.92544</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50249</v>
+        <v>1.50335</v>
       </c>
       <c r="C140" t="n">
-        <v>4.07687</v>
+        <v>4.037</v>
       </c>
       <c r="D140" t="n">
-        <v>3.98418</v>
+        <v>3.73107</v>
       </c>
       <c r="E140" t="n">
-        <v>1.4781</v>
+        <v>1.50449</v>
       </c>
       <c r="F140" t="n">
-        <v>4.8791</v>
+        <v>4.84162</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.49022</v>
+        <v>1.5057</v>
       </c>
       <c r="C141" t="n">
-        <v>4.03293</v>
+        <v>4.00232</v>
       </c>
       <c r="D141" t="n">
-        <v>3.49234</v>
+        <v>3.91429</v>
       </c>
       <c r="E141" t="n">
-        <v>1.47549</v>
+        <v>1.49866</v>
       </c>
       <c r="F141" t="n">
-        <v>4.80264</v>
+        <v>4.74545</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.47071</v>
+        <v>1.48536</v>
       </c>
       <c r="C142" t="n">
-        <v>3.99024</v>
+        <v>3.94933</v>
       </c>
       <c r="D142" t="n">
-        <v>3.20756</v>
+        <v>3.18822</v>
       </c>
       <c r="E142" t="n">
-        <v>1.46161</v>
+        <v>1.46805</v>
       </c>
       <c r="F142" t="n">
-        <v>4.70901</v>
+        <v>4.67149</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49977</v>
+        <v>1.49018</v>
       </c>
       <c r="C143" t="n">
-        <v>3.95895</v>
+        <v>3.92362</v>
       </c>
       <c r="D143" t="n">
-        <v>3.17874</v>
+        <v>3.15339</v>
       </c>
       <c r="E143" t="n">
-        <v>1.42457</v>
+        <v>1.46316</v>
       </c>
       <c r="F143" t="n">
-        <v>4.18195</v>
+        <v>4.58989</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578945</v>
+        <v>0.580148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.777955</v>
+        <v>0.781469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.839577</v>
+        <v>0.845672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564972</v>
+        <v>0.564843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.810456</v>
+        <v>0.813519</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561191</v>
+        <v>0.562657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768906</v>
+        <v>0.77203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.831166</v>
+        <v>0.836116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552146</v>
+        <v>0.551613</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793724</v>
+        <v>0.793745</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551453</v>
+        <v>0.551689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761301</v>
+        <v>0.761869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.823762</v>
+        <v>0.828503</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538936</v>
+        <v>0.539299</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7790589999999999</v>
+        <v>0.778344</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541463</v>
+        <v>0.490284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7505810000000001</v>
+        <v>0.75313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.867102</v>
+        <v>0.821139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.52728</v>
+        <v>0.527484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.762497</v>
+        <v>0.764402</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534957</v>
+        <v>0.5331900000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.742733</v>
+        <v>0.745976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.807443</v>
+        <v>0.810815</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517355</v>
+        <v>0.516923</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75015</v>
+        <v>0.750425</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527718</v>
+        <v>0.52751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738226</v>
+        <v>0.741517</v>
       </c>
       <c r="D7" t="n">
-        <v>0.926841</v>
+        <v>0.929322</v>
       </c>
       <c r="E7" t="n">
-        <v>0.509372</v>
+        <v>0.5082410000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.741707</v>
+        <v>0.740497</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523765</v>
+        <v>0.525291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.738002</v>
+        <v>0.739658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.905394</v>
+        <v>0.911402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503012</v>
+        <v>0.502976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.734347</v>
+        <v>0.733247</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255609999999999</v>
+        <v>0.525294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737313</v>
+        <v>0.740652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888393</v>
+        <v>0.892401</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760336</v>
+        <v>0.760516</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01089</v>
+        <v>1.00846</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6762860000000001</v>
+        <v>0.671852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899665</v>
+        <v>0.899755</v>
       </c>
       <c r="D10" t="n">
-        <v>0.873133</v>
+        <v>0.878197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737093</v>
+        <v>0.738727</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985406</v>
+        <v>0.982111</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653654</v>
+        <v>0.653044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.880667</v>
+        <v>0.880262</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858518</v>
+        <v>0.862567</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715889</v>
+        <v>0.71646</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965355</v>
+        <v>0.959351</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635395</v>
+        <v>0.634765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.863168</v>
+        <v>0.8640409999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843932</v>
+        <v>0.847678</v>
       </c>
       <c r="E12" t="n">
-        <v>0.695515</v>
+        <v>0.695</v>
       </c>
       <c r="F12" t="n">
-        <v>0.939678</v>
+        <v>0.936772</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619827</v>
+        <v>0.617541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848094</v>
+        <v>0.848791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831947</v>
+        <v>0.834951</v>
       </c>
       <c r="E13" t="n">
-        <v>0.676133</v>
+        <v>0.6754599999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916334</v>
+        <v>0.9121089999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600864</v>
+        <v>0.608814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.831952</v>
+        <v>0.830979</v>
       </c>
       <c r="D14" t="n">
-        <v>0.81735</v>
+        <v>0.820708</v>
       </c>
       <c r="E14" t="n">
-        <v>0.657255</v>
+        <v>0.6571630000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893344</v>
+        <v>0.888993</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.591224</v>
+        <v>0.5851189999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.816922</v>
+        <v>0.816315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8068380000000001</v>
+        <v>0.811704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6400749999999999</v>
+        <v>0.640491</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871509</v>
+        <v>0.867227</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569161</v>
+        <v>0.581083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801168</v>
+        <v>0.801323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.797423</v>
+        <v>0.802085</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62368</v>
+        <v>0.622856</v>
       </c>
       <c r="F16" t="n">
-        <v>0.851644</v>
+        <v>0.85216</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560173</v>
+        <v>0.558566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7876</v>
+        <v>0.79074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785624</v>
+        <v>0.790121</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608329</v>
+        <v>0.607541</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8642069999999999</v>
+        <v>0.859838</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54938</v>
+        <v>0.555899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780049</v>
+        <v>0.781142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.779042</v>
+        <v>0.782628</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594433</v>
+        <v>0.594214</v>
       </c>
       <c r="F18" t="n">
-        <v>0.847065</v>
+        <v>0.841348</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538171</v>
+        <v>0.538308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.768107</v>
+        <v>0.769432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7701210000000001</v>
+        <v>0.773841</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581197</v>
+        <v>0.580669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.831359</v>
+        <v>0.828413</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529539</v>
+        <v>0.530454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762468</v>
+        <v>0.762037</v>
       </c>
       <c r="D20" t="n">
-        <v>0.762538</v>
+        <v>0.766556</v>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>0.569164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.817972</v>
+        <v>0.812666</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523358</v>
+        <v>0.522517</v>
       </c>
       <c r="C21" t="n">
-        <v>0.756655</v>
+        <v>0.757508</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989892</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.560911</v>
+        <v>0.559877</v>
       </c>
       <c r="F21" t="n">
-        <v>0.811808</v>
+        <v>0.8094479999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543504</v>
+        <v>0.519184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753754</v>
+        <v>0.756902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.969093</v>
+        <v>0.974826</v>
       </c>
       <c r="E22" t="n">
-        <v>0.554107</v>
+        <v>0.5537570000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.802963</v>
+        <v>0.804428</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517083</v>
+        <v>0.518608</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75027</v>
+        <v>0.752894</v>
       </c>
       <c r="D23" t="n">
-        <v>0.952606</v>
+        <v>0.95286</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818675</v>
+        <v>0.818895</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08801</v>
+        <v>1.08369</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.681482</v>
+        <v>0.6824480000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.93862</v>
+        <v>0.93646</v>
       </c>
       <c r="D24" t="n">
-        <v>0.933874</v>
+        <v>0.934125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.792855</v>
+        <v>0.794201</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05914</v>
+        <v>1.05469</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.666611</v>
+        <v>0.667423</v>
       </c>
       <c r="C25" t="n">
-        <v>0.916972</v>
+        <v>0.917708</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9185219999999999</v>
+        <v>0.919338</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769389</v>
+        <v>0.769023</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03112</v>
+        <v>1.02775</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6473179999999999</v>
+        <v>0.64773</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896556</v>
+        <v>0.895649</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899648</v>
+        <v>0.903641</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746775</v>
+        <v>0.747175</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00949</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.663507</v>
+        <v>0.6621050000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.878578</v>
+        <v>0.879239</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8847390000000001</v>
+        <v>0.888858</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725227</v>
+        <v>0.725261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.983803</v>
+        <v>0.976772</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642266</v>
+        <v>0.643524</v>
       </c>
       <c r="C28" t="n">
-        <v>0.860191</v>
+        <v>0.860703</v>
       </c>
       <c r="D28" t="n">
-        <v>0.869023</v>
+        <v>0.877505</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.703722</v>
       </c>
       <c r="F28" t="n">
-        <v>0.96217</v>
+        <v>0.956801</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624883</v>
+        <v>0.628096</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84295</v>
+        <v>0.84635</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866395</v>
+        <v>0.866926</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684581</v>
+        <v>0.685181</v>
       </c>
       <c r="F29" t="n">
-        <v>0.944242</v>
+        <v>0.9381969999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60904</v>
+        <v>0.6089020000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847733</v>
+        <v>0.849052</v>
       </c>
       <c r="D30" t="n">
-        <v>0.853972</v>
+        <v>0.854555</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666131</v>
+        <v>0.666264</v>
       </c>
       <c r="F30" t="n">
-        <v>0.920611</v>
+        <v>0.913456</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595611</v>
+        <v>0.567285</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833983</v>
+        <v>0.836777</v>
       </c>
       <c r="D31" t="n">
-        <v>0.841808</v>
+        <v>0.844183</v>
       </c>
       <c r="E31" t="n">
-        <v>0.648764</v>
+        <v>0.64866</v>
       </c>
       <c r="F31" t="n">
-        <v>0.899454</v>
+        <v>0.893455</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811269999999999</v>
+        <v>0.58105</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824192</v>
+        <v>0.827746</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8358950000000001</v>
+        <v>0.8373390000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.632809</v>
+        <v>0.632982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881498</v>
+        <v>0.874241</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570567</v>
+        <v>0.570676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.814344</v>
+        <v>0.818435</v>
       </c>
       <c r="D33" t="n">
-        <v>0.827259</v>
+        <v>0.827993</v>
       </c>
       <c r="E33" t="n">
-        <v>0.618401</v>
+        <v>0.6175079999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.862242</v>
+        <v>0.859233</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56001</v>
+        <v>0.558926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.780455</v>
+        <v>0.782729</v>
       </c>
       <c r="D34" t="n">
-        <v>0.816309</v>
+        <v>0.819258</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6050990000000001</v>
+        <v>0.605042</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8461610000000001</v>
+        <v>0.838282</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551972</v>
+        <v>0.549458</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778699</v>
+        <v>0.778096</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06944</v>
+        <v>1.0745</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5730499999999999</v>
+        <v>0.593079</v>
       </c>
       <c r="F35" t="n">
-        <v>0.832548</v>
+        <v>0.828445</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543432</v>
+        <v>0.542736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.771825</v>
+        <v>0.774597</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05229</v>
+        <v>1.04653</v>
       </c>
       <c r="E36" t="n">
-        <v>0.583402</v>
+        <v>0.563913</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821764</v>
+        <v>0.815991</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523994</v>
+        <v>0.541372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.766075</v>
+        <v>0.768135</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02137</v>
+        <v>1.02532</v>
       </c>
       <c r="E37" t="n">
-        <v>0.833634</v>
+        <v>0.83441</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37803</v>
+        <v>1.3739</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736918</v>
+        <v>0.733966</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18611</v>
+        <v>1.1863</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00584</v>
+        <v>1.00921</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8088</v>
+        <v>0.8087029999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3475</v>
+        <v>1.34352</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712777</v>
+        <v>0.711925</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1655</v>
+        <v>1.16474</v>
       </c>
       <c r="D39" t="n">
-        <v>0.98872</v>
+        <v>0.989515</v>
       </c>
       <c r="E39" t="n">
-        <v>0.784267</v>
+        <v>0.784776</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31647</v>
+        <v>1.31438</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710164</v>
+        <v>0.691314</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14561</v>
+        <v>1.14385</v>
       </c>
       <c r="D40" t="n">
-        <v>0.971569</v>
+        <v>0.972844</v>
       </c>
       <c r="E40" t="n">
-        <v>0.761387</v>
+        <v>0.760809</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28896</v>
+        <v>1.28535</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.67462</v>
+        <v>0.691391</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12844</v>
+        <v>1.12812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9561539999999999</v>
+        <v>0.957389</v>
       </c>
       <c r="E41" t="n">
-        <v>0.740115</v>
+        <v>0.7407859999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26112</v>
+        <v>1.26067</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653282</v>
+        <v>0.671565</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10987</v>
+        <v>1.11122</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939369</v>
+        <v>0.940572</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719585</v>
+        <v>0.719621</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23684</v>
+        <v>1.23401</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653292</v>
+        <v>0.635217</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0937</v>
+        <v>1.09415</v>
       </c>
       <c r="D43" t="n">
-        <v>0.925658</v>
+        <v>0.928003</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699701</v>
+        <v>0.712808</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21258</v>
+        <v>1.20979</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.619232</v>
+        <v>0.623004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07876</v>
+        <v>1.07889</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912257</v>
+        <v>0.913867</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681382</v>
+        <v>0.681663</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18934</v>
+        <v>1.18665</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6216660000000001</v>
+        <v>0.605356</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06613</v>
+        <v>1.06521</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902527</v>
+        <v>0.9044410000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.640358</v>
+        <v>0.664202</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16823</v>
+        <v>1.16559</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592971</v>
+        <v>0.595291</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05255</v>
+        <v>1.05224</v>
       </c>
       <c r="D46" t="n">
-        <v>0.890896</v>
+        <v>0.893954</v>
       </c>
       <c r="E46" t="n">
-        <v>0.647135</v>
+        <v>0.647176</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14824</v>
+        <v>1.14561</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.580769</v>
+        <v>0.584244</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04026</v>
+        <v>1.04107</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885104</v>
+        <v>0.887194</v>
       </c>
       <c r="E47" t="n">
-        <v>0.63196</v>
+        <v>0.632759</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12904</v>
+        <v>1.12683</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572925</v>
+        <v>0.573198</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02949</v>
+        <v>1.03071</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8758320000000001</v>
+        <v>0.877687</v>
       </c>
       <c r="E48" t="n">
-        <v>0.618397</v>
+        <v>0.598114</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11215</v>
+        <v>1.11034</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575179</v>
+        <v>0.5611</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02301</v>
+        <v>1.02266</v>
       </c>
       <c r="D49" t="n">
-        <v>0.87074</v>
+        <v>0.872513</v>
       </c>
       <c r="E49" t="n">
-        <v>0.586457</v>
+        <v>0.607033</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09699</v>
+        <v>1.09529</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.556882</v>
+        <v>0.5550040000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01767</v>
+        <v>1.01804</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11552</v>
+        <v>1.11807</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577457</v>
+        <v>0.596915</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08197</v>
+        <v>1.0837</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5517649999999999</v>
+        <v>0.553019</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01346</v>
+        <v>1.015</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09269</v>
+        <v>1.09399</v>
       </c>
       <c r="E51" t="n">
-        <v>0.863727</v>
+        <v>0.879352</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4549</v>
+        <v>1.4556</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551859</v>
+        <v>0.532119</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01523</v>
+        <v>1.01642</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0712</v>
+        <v>1.07397</v>
       </c>
       <c r="E52" t="n">
-        <v>0.838862</v>
+        <v>0.853397</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42159</v>
+        <v>1.42218</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7504189999999999</v>
+        <v>0.7612910000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>1.2153</v>
+        <v>1.21597</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04855</v>
+        <v>1.05035</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8274550000000001</v>
+        <v>0.828837</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38829</v>
+        <v>1.38747</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735606</v>
+        <v>0.7291</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19383</v>
+        <v>1.19664</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03278</v>
+        <v>1.03314</v>
       </c>
       <c r="E54" t="n">
-        <v>0.803524</v>
+        <v>0.804372</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35994</v>
+        <v>1.35874</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.710759</v>
+        <v>0.720415</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17504</v>
+        <v>1.17786</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01246</v>
+        <v>1.01499</v>
       </c>
       <c r="E55" t="n">
-        <v>0.770278</v>
+        <v>0.772195</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32944</v>
+        <v>1.33034</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692178</v>
+        <v>0.693957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15581</v>
+        <v>1.15772</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9968050000000001</v>
+        <v>0.998139</v>
       </c>
       <c r="E56" t="n">
-        <v>0.749043</v>
+        <v>0.751142</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30299</v>
+        <v>1.30258</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674092</v>
+        <v>0.6745679999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1399</v>
+        <v>1.14132</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981193</v>
+        <v>0.982474</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7310140000000001</v>
+        <v>0.731333</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27815</v>
+        <v>1.27768</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664422</v>
+        <v>0.656706</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12269</v>
+        <v>1.12602</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969372</v>
+        <v>0.969278</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711004</v>
+        <v>0.711898</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25073</v>
+        <v>1.25272</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64124</v>
+        <v>0.641365</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10858</v>
+        <v>1.11067</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948706</v>
+        <v>0.950846</v>
       </c>
       <c r="E59" t="n">
-        <v>0.666104</v>
+        <v>0.695415</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22967</v>
+        <v>1.22959</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.627595</v>
+        <v>0.630262</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09491</v>
+        <v>1.09878</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93933</v>
+        <v>0.941017</v>
       </c>
       <c r="E60" t="n">
-        <v>0.675085</v>
+        <v>0.6498429999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20621</v>
+        <v>1.20616</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614029</v>
+        <v>0.614487</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08407</v>
+        <v>1.08657</v>
       </c>
       <c r="D61" t="n">
-        <v>0.929284</v>
+        <v>0.93076</v>
       </c>
       <c r="E61" t="n">
-        <v>0.63654</v>
+        <v>0.635443</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18527</v>
+        <v>1.18719</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607531</v>
+        <v>0.603787</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07455</v>
+        <v>1.07599</v>
       </c>
       <c r="D62" t="n">
-        <v>0.919617</v>
+        <v>0.921299</v>
       </c>
       <c r="E62" t="n">
-        <v>0.645849</v>
+        <v>0.623418</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16768</v>
+        <v>1.16751</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600247</v>
+        <v>0.5694360000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06484</v>
+        <v>1.06674</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9084370000000001</v>
+        <v>0.913589</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610885</v>
+        <v>0.633713</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15126</v>
+        <v>1.15112</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.586382</v>
+        <v>0.5855320000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05884</v>
+        <v>1.06062</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19335</v>
+        <v>1.19593</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623261</v>
+        <v>0.623492</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13627</v>
+        <v>1.13777</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.581714</v>
+        <v>0.5806829999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05516</v>
+        <v>1.05571</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17073</v>
+        <v>1.16998</v>
       </c>
       <c r="E65" t="n">
-        <v>0.615559</v>
+        <v>0.616375</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12607</v>
+        <v>1.12616</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580363</v>
+        <v>0.581551</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05505</v>
+        <v>1.05663</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13766</v>
+        <v>1.14055</v>
       </c>
       <c r="E66" t="n">
-        <v>0.909761</v>
+        <v>0.896657</v>
       </c>
       <c r="F66" t="n">
-        <v>1.50085</v>
+        <v>1.50077</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.828461</v>
+        <v>0.822177</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2815</v>
+        <v>1.28091</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10789</v>
+        <v>1.11078</v>
       </c>
       <c r="E67" t="n">
-        <v>0.874743</v>
+        <v>0.875773</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46805</v>
+        <v>1.4709</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.806863</v>
+        <v>0.813743</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26156</v>
+        <v>1.26203</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08707</v>
+        <v>1.08927</v>
       </c>
       <c r="E68" t="n">
-        <v>0.853703</v>
+        <v>0.85373</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43868</v>
+        <v>1.44062</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7880819999999999</v>
+        <v>0.785697</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24224</v>
+        <v>1.2451</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06951</v>
+        <v>1.07062</v>
       </c>
       <c r="E69" t="n">
-        <v>0.843563</v>
+        <v>0.841683</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41695</v>
+        <v>1.41015</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.776046</v>
+        <v>0.7719780000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23481</v>
+        <v>1.23252</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05315</v>
+        <v>1.05891</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81177</v>
+        <v>0.81072</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38741</v>
+        <v>1.38804</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76677</v>
+        <v>0.758849</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22024</v>
+        <v>1.22218</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02362</v>
+        <v>1.02881</v>
       </c>
       <c r="E71" t="n">
-        <v>0.79226</v>
+        <v>0.789636</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36539</v>
+        <v>1.36644</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744466</v>
+        <v>0.743876</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20471</v>
+        <v>1.21405</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01309</v>
+        <v>1.01908</v>
       </c>
       <c r="E72" t="n">
-        <v>0.771702</v>
+        <v>0.770421</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34323</v>
+        <v>1.35048</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.730315</v>
+        <v>0.725112</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19652</v>
+        <v>1.19914</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00466</v>
+        <v>1.01009</v>
       </c>
       <c r="E73" t="n">
-        <v>0.752695</v>
+        <v>0.750712</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32944</v>
+        <v>1.3291</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.712638</v>
+        <v>0.7037</v>
       </c>
       <c r="C74" t="n">
-        <v>1.1925</v>
+        <v>1.19201</v>
       </c>
       <c r="D74" t="n">
-        <v>0.990823</v>
+        <v>0.9931720000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7348209999999999</v>
+        <v>0.733176</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31111</v>
+        <v>1.31017</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692535</v>
+        <v>0.697763</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18726</v>
+        <v>1.18421</v>
       </c>
       <c r="D75" t="n">
-        <v>0.985135</v>
+        <v>0.98775</v>
       </c>
       <c r="E75" t="n">
-        <v>0.717469</v>
+        <v>0.716842</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29574</v>
+        <v>1.29651</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.690912</v>
+        <v>0.6771470000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18038</v>
+        <v>1.18941</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979475</v>
+        <v>0.98559</v>
       </c>
       <c r="E76" t="n">
-        <v>0.671296</v>
+        <v>0.701155</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28393</v>
+        <v>1.28783</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679749</v>
+        <v>0.6732939999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18405</v>
+        <v>1.18341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.971542</v>
+        <v>0.976732</v>
       </c>
       <c r="E77" t="n">
-        <v>0.687662</v>
+        <v>0.659354</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27394</v>
+        <v>1.27516</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663251</v>
+        <v>0.668832</v>
       </c>
       <c r="C78" t="n">
-        <v>0.915733</v>
+        <v>1.19493</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44172</v>
+        <v>1.44558</v>
       </c>
       <c r="E78" t="n">
-        <v>0.648093</v>
+        <v>0.675393</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27133</v>
+        <v>1.27643</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659977</v>
+        <v>0.660721</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18123</v>
+        <v>1.2009</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40853</v>
+        <v>1.41612</v>
       </c>
       <c r="E79" t="n">
-        <v>0.640089</v>
+        <v>0.664701</v>
       </c>
       <c r="F79" t="n">
-        <v>1.262</v>
+        <v>1.27497</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.646414</v>
+        <v>0.635993</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18678</v>
+        <v>1.08807</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37663</v>
+        <v>1.3836</v>
       </c>
       <c r="E80" t="n">
-        <v>0.977612</v>
+        <v>0.980236</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94413</v>
+        <v>1.95189</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.902752</v>
+        <v>0.908149</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69256</v>
+        <v>1.69702</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34091</v>
+        <v>1.34236</v>
       </c>
       <c r="E81" t="n">
-        <v>0.944515</v>
+        <v>0.946224</v>
       </c>
       <c r="F81" t="n">
-        <v>1.92971</v>
+        <v>1.93241</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9017269999999999</v>
+        <v>0.87544</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70832</v>
+        <v>1.69852</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31956</v>
+        <v>1.32892</v>
       </c>
       <c r="E82" t="n">
-        <v>0.945915</v>
+        <v>0.929698</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91378</v>
+        <v>1.91537</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.888181</v>
+        <v>0.876026</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69766</v>
+        <v>1.71222</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29945</v>
+        <v>1.31295</v>
       </c>
       <c r="E83" t="n">
-        <v>0.910839</v>
+        <v>0.911191</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90201</v>
+        <v>1.91541</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882795</v>
+        <v>0.884337</v>
       </c>
       <c r="C84" t="n">
-        <v>1.70276</v>
+        <v>1.71876</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2862</v>
+        <v>1.30312</v>
       </c>
       <c r="E84" t="n">
-        <v>0.891394</v>
+        <v>0.908098</v>
       </c>
       <c r="F84" t="n">
-        <v>1.87741</v>
+        <v>1.8951</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.873467</v>
+        <v>0.852414</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70249</v>
+        <v>1.71054</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24737</v>
+        <v>1.26187</v>
       </c>
       <c r="E85" t="n">
-        <v>0.871479</v>
+        <v>0.873479</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87663</v>
+        <v>1.88131</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851044</v>
+        <v>0.845109</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71091</v>
+        <v>1.71692</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24128</v>
+        <v>1.25202</v>
       </c>
       <c r="E86" t="n">
-        <v>0.854048</v>
+        <v>0.855149</v>
       </c>
       <c r="F86" t="n">
-        <v>1.84882</v>
+        <v>1.86509</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.842668</v>
+        <v>0.837138</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70851</v>
+        <v>1.72037</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23604</v>
+        <v>1.24879</v>
       </c>
       <c r="E87" t="n">
-        <v>0.793293</v>
+        <v>0.836132</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86212</v>
+        <v>1.86207</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.83203</v>
+        <v>0.832562</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7154</v>
+        <v>1.72369</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23036</v>
+        <v>1.24313</v>
       </c>
       <c r="E88" t="n">
-        <v>0.815468</v>
+        <v>0.777484</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85231</v>
+        <v>1.85478</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809331</v>
+        <v>0.804654</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72687</v>
+        <v>1.73848</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23492</v>
+        <v>1.24448</v>
       </c>
       <c r="E89" t="n">
-        <v>0.798683</v>
+        <v>0.809978</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85601</v>
+        <v>1.85222</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794862</v>
+        <v>0.816136</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73738</v>
+        <v>1.73496</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23943</v>
+        <v>1.24465</v>
       </c>
       <c r="E90" t="n">
-        <v>0.780344</v>
+        <v>0.746583</v>
       </c>
       <c r="F90" t="n">
-        <v>1.85873</v>
+        <v>1.84297</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79195</v>
+        <v>0.7900239999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75186</v>
+        <v>1.7464</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24009</v>
+        <v>1.24374</v>
       </c>
       <c r="E91" t="n">
-        <v>0.730885</v>
+        <v>0.733316</v>
       </c>
       <c r="F91" t="n">
-        <v>1.87179</v>
+        <v>1.85287</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78806</v>
+        <v>0.785573</v>
       </c>
       <c r="C92" t="n">
-        <v>1.57397</v>
+        <v>1.53646</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59804</v>
+        <v>2.59546</v>
       </c>
       <c r="E92" t="n">
-        <v>0.751381</v>
+        <v>0.752981</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86149</v>
+        <v>1.87285</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.756065</v>
+        <v>0.7754760000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19126</v>
+        <v>1.78295</v>
       </c>
       <c r="D93" t="n">
-        <v>2.25703</v>
+        <v>2.37547</v>
       </c>
       <c r="E93" t="n">
-        <v>0.709817</v>
+        <v>0.750982</v>
       </c>
       <c r="F93" t="n">
-        <v>1.87588</v>
+        <v>1.86793</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7819739999999999</v>
+        <v>0.777681</v>
       </c>
       <c r="C94" t="n">
-        <v>1.82163</v>
+        <v>1.06297</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23865</v>
+        <v>2.36666</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06236</v>
+        <v>1.06275</v>
       </c>
       <c r="F94" t="n">
-        <v>2.94124</v>
+        <v>2.93982</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04597</v>
+        <v>1.01574</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50674</v>
+        <v>2.49227</v>
       </c>
       <c r="D95" t="n">
-        <v>2.35046</v>
+        <v>2.42056</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0252</v>
+        <v>1.0276</v>
       </c>
       <c r="F95" t="n">
-        <v>2.9196</v>
+        <v>2.91457</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02645</v>
+        <v>1.0184</v>
       </c>
       <c r="C96" t="n">
-        <v>2.50693</v>
+        <v>2.51356</v>
       </c>
       <c r="D96" t="n">
-        <v>2.47816</v>
+        <v>2.28573</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0375</v>
+        <v>1.03732</v>
       </c>
       <c r="F96" t="n">
-        <v>2.87694</v>
+        <v>2.88939</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02291</v>
+        <v>0.996476</v>
       </c>
       <c r="C97" t="n">
-        <v>2.49533</v>
+        <v>2.50641</v>
       </c>
       <c r="D97" t="n">
-        <v>2.33804</v>
+        <v>2.48414</v>
       </c>
       <c r="E97" t="n">
-        <v>1.01874</v>
+        <v>0.995715</v>
       </c>
       <c r="F97" t="n">
-        <v>2.84224</v>
+        <v>2.8473</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01467</v>
+        <v>1.01793</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48121</v>
+        <v>2.47775</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12482</v>
+        <v>1.98362</v>
       </c>
       <c r="E98" t="n">
-        <v>0.977468</v>
+        <v>1.00345</v>
       </c>
       <c r="F98" t="n">
-        <v>2.81805</v>
+        <v>2.79786</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9658949999999999</v>
+        <v>0.988236</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46789</v>
+        <v>2.46259</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74476</v>
+        <v>2.11886</v>
       </c>
       <c r="E99" t="n">
-        <v>0.961076</v>
+        <v>0.9856740000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>2.76768</v>
+        <v>2.7621</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.972756</v>
+        <v>0.98781</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44529</v>
+        <v>2.44108</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72652</v>
+        <v>1.72856</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9464669999999999</v>
+        <v>0.946115</v>
       </c>
       <c r="F100" t="n">
-        <v>2.74154</v>
+        <v>2.73678</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967247</v>
+        <v>0.967059</v>
       </c>
       <c r="C101" t="n">
-        <v>2.43288</v>
+        <v>2.42528</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71766</v>
+        <v>1.72305</v>
       </c>
       <c r="E101" t="n">
-        <v>0.888662</v>
+        <v>0.888296</v>
       </c>
       <c r="F101" t="n">
-        <v>2.70845</v>
+        <v>2.69432</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958162</v>
+        <v>0.962471</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4177</v>
+        <v>2.41355</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71562</v>
+        <v>1.71666</v>
       </c>
       <c r="E102" t="n">
-        <v>0.876199</v>
+        <v>0.916772</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6875</v>
+        <v>2.51975</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.925603</v>
+        <v>0.952759</v>
       </c>
       <c r="C103" t="n">
-        <v>2.39044</v>
+        <v>2.4119</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72266</v>
+        <v>1.72895</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9030280000000001</v>
+        <v>0.902443</v>
       </c>
       <c r="F103" t="n">
-        <v>1.64207</v>
+        <v>2.63054</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.899645</v>
+        <v>0.942523</v>
       </c>
       <c r="C104" t="n">
-        <v>2.06345</v>
+        <v>2.37782</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72749</v>
+        <v>1.72667</v>
       </c>
       <c r="E104" t="n">
-        <v>0.852386</v>
+        <v>0.889798</v>
       </c>
       <c r="F104" t="n">
-        <v>1.59879</v>
+        <v>2.62868</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.898475</v>
+        <v>0.940272</v>
       </c>
       <c r="C105" t="n">
-        <v>1.5552</v>
+        <v>2.39035</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72478</v>
+        <v>1.72358</v>
       </c>
       <c r="E105" t="n">
-        <v>0.843021</v>
+        <v>0.877328</v>
       </c>
       <c r="F105" t="n">
-        <v>1.56107</v>
+        <v>2.58471</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9007540000000001</v>
+        <v>0.930136</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37157</v>
+        <v>2.37789</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72959</v>
+        <v>1.72809</v>
       </c>
       <c r="E106" t="n">
-        <v>0.833892</v>
+        <v>0.8358100000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>1.53719</v>
+        <v>1.53017</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943306</v>
+        <v>0.904536</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35872</v>
+        <v>1.33426</v>
       </c>
       <c r="D107" t="n">
-        <v>3.52198</v>
+        <v>2.65311</v>
       </c>
       <c r="E107" t="n">
-        <v>0.858177</v>
+        <v>0.856726</v>
       </c>
       <c r="F107" t="n">
-        <v>1.50021</v>
+        <v>1.49839</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897498</v>
+        <v>0.9248420000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>2.37914</v>
+        <v>2.02248</v>
       </c>
       <c r="D108" t="n">
-        <v>3.33197</v>
+        <v>2.96642</v>
       </c>
       <c r="E108" t="n">
-        <v>1.15028</v>
+        <v>1.17339</v>
       </c>
       <c r="F108" t="n">
-        <v>3.78878</v>
+        <v>3.80137</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.909695</v>
+        <v>0.903313</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49619</v>
+        <v>1.31792</v>
       </c>
       <c r="D109" t="n">
-        <v>3.47584</v>
+        <v>3.31124</v>
       </c>
       <c r="E109" t="n">
-        <v>1.17423</v>
+        <v>1.13902</v>
       </c>
       <c r="F109" t="n">
-        <v>3.75683</v>
+        <v>3.74735</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17957</v>
+        <v>1.17273</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11847</v>
+        <v>3.11357</v>
       </c>
       <c r="D110" t="n">
-        <v>2.73031</v>
+        <v>2.55877</v>
       </c>
       <c r="E110" t="n">
-        <v>1.16019</v>
+        <v>1.15467</v>
       </c>
       <c r="F110" t="n">
-        <v>3.68574</v>
+        <v>3.69964</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1777</v>
+        <v>1.17803</v>
       </c>
       <c r="C111" t="n">
-        <v>3.0766</v>
+        <v>3.08277</v>
       </c>
       <c r="D111" t="n">
-        <v>2.8993</v>
+        <v>2.89997</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12037</v>
+        <v>1.11375</v>
       </c>
       <c r="F111" t="n">
-        <v>3.64655</v>
+        <v>3.63042</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17225</v>
+        <v>1.14943</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07165</v>
+        <v>3.05578</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52207</v>
+        <v>2.88635</v>
       </c>
       <c r="E112" t="n">
-        <v>1.13023</v>
+        <v>1.09983</v>
       </c>
       <c r="F112" t="n">
-        <v>3.58407</v>
+        <v>3.57037</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14524</v>
+        <v>1.13633</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03778</v>
+        <v>3.02882</v>
       </c>
       <c r="D113" t="n">
-        <v>2.29429</v>
+        <v>2.31134</v>
       </c>
       <c r="E113" t="n">
-        <v>1.09319</v>
+        <v>1.0868</v>
       </c>
       <c r="F113" t="n">
-        <v>3.52641</v>
+        <v>3.51874</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12364</v>
+        <v>1.12747</v>
       </c>
       <c r="C114" t="n">
-        <v>3.01141</v>
+        <v>3.003</v>
       </c>
       <c r="D114" t="n">
-        <v>2.47728</v>
+        <v>2.86502</v>
       </c>
       <c r="E114" t="n">
-        <v>1.10338</v>
+        <v>1.07473</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47611</v>
+        <v>3.47677</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12807</v>
+        <v>1.11557</v>
       </c>
       <c r="C115" t="n">
-        <v>3.00056</v>
+        <v>3.08448</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47817</v>
+        <v>2.45955</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06957</v>
+        <v>1.12269</v>
       </c>
       <c r="F115" t="n">
-        <v>3.42783</v>
+        <v>3.71822</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11637</v>
+        <v>1.17048</v>
       </c>
       <c r="C116" t="n">
-        <v>2.96175</v>
+        <v>3.20543</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46635</v>
+        <v>2.66723</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05955</v>
+        <v>1.11381</v>
       </c>
       <c r="F116" t="n">
-        <v>3.36508</v>
+        <v>3.68456</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10606</v>
+        <v>1.16501</v>
       </c>
       <c r="C117" t="n">
-        <v>2.94734</v>
+        <v>3.20354</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25639</v>
+        <v>2.42275</v>
       </c>
       <c r="E117" t="n">
-        <v>1.01194</v>
+        <v>1.06856</v>
       </c>
       <c r="F117" t="n">
-        <v>3.13665</v>
+        <v>3.41235</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09748</v>
+        <v>1.16314</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92198</v>
+        <v>3.17416</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25601</v>
+        <v>2.42346</v>
       </c>
       <c r="E118" t="n">
-        <v>1.04057</v>
+        <v>1.06305</v>
       </c>
       <c r="F118" t="n">
-        <v>3.29461</v>
+        <v>3.59186</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09279</v>
+        <v>1.15295</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91153</v>
+        <v>3.17045</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25158</v>
+        <v>2.4396</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9984769999999999</v>
+        <v>1.05651</v>
       </c>
       <c r="F119" t="n">
-        <v>3.25361</v>
+        <v>3.54224</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08284</v>
+        <v>1.13952</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90405</v>
+        <v>3.1466</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25159</v>
+        <v>2.42905</v>
       </c>
       <c r="E120" t="n">
-        <v>1.02447</v>
+        <v>1.07971</v>
       </c>
       <c r="F120" t="n">
-        <v>2.81385</v>
+        <v>3.50574</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09384</v>
+        <v>1.15366</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8854</v>
+        <v>3.13509</v>
       </c>
       <c r="D121" t="n">
-        <v>4.28566</v>
+        <v>4.67295</v>
       </c>
       <c r="E121" t="n">
-        <v>0.986803</v>
+        <v>1.07543</v>
       </c>
       <c r="F121" t="n">
-        <v>2.98845</v>
+        <v>3.48087</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.04463</v>
+        <v>1.16139</v>
       </c>
       <c r="C122" t="n">
-        <v>2.88915</v>
+        <v>3.12821</v>
       </c>
       <c r="D122" t="n">
-        <v>3.83575</v>
+        <v>4.17523</v>
       </c>
       <c r="E122" t="n">
-        <v>0.982499</v>
+        <v>1.04158</v>
       </c>
       <c r="F122" t="n">
-        <v>2.54162</v>
+        <v>3.43378</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08658</v>
+        <v>1.14281</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6632</v>
+        <v>1.76077</v>
       </c>
       <c r="D123" t="n">
-        <v>4.19002</v>
+        <v>4.12172</v>
       </c>
       <c r="E123" t="n">
-        <v>1.33</v>
+        <v>1.37449</v>
       </c>
       <c r="F123" t="n">
-        <v>4.46281</v>
+        <v>4.90734</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34986</v>
+        <v>1.39824</v>
       </c>
       <c r="C124" t="n">
-        <v>3.64295</v>
+        <v>3.97616</v>
       </c>
       <c r="D124" t="n">
-        <v>3.94945</v>
+        <v>3.86823</v>
       </c>
       <c r="E124" t="n">
-        <v>1.29233</v>
+        <v>1.40784</v>
       </c>
       <c r="F124" t="n">
-        <v>4.39732</v>
+        <v>4.8258</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33568</v>
+        <v>1.41172</v>
       </c>
       <c r="C125" t="n">
-        <v>3.61675</v>
+        <v>3.95211</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30026</v>
+        <v>3.13388</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28112</v>
+        <v>1.35809</v>
       </c>
       <c r="F125" t="n">
-        <v>4.33468</v>
+        <v>4.74755</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32098</v>
+        <v>1.3889</v>
       </c>
       <c r="C126" t="n">
-        <v>3.57909</v>
+        <v>3.90901</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0606</v>
+        <v>3.56961</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27317</v>
+        <v>1.37397</v>
       </c>
       <c r="F126" t="n">
-        <v>4.25192</v>
+        <v>4.66386</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31392</v>
+        <v>1.39507</v>
       </c>
       <c r="C127" t="n">
-        <v>3.54017</v>
+        <v>3.86793</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81846</v>
+        <v>3.77593</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26417</v>
+        <v>1.34354</v>
       </c>
       <c r="F127" t="n">
-        <v>4.18228</v>
+        <v>4.6065</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29634</v>
+        <v>1.38394</v>
       </c>
       <c r="C128" t="n">
-        <v>3.51571</v>
+        <v>3.84903</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80197</v>
+        <v>3.04285</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2565</v>
+        <v>1.35928</v>
       </c>
       <c r="F128" t="n">
-        <v>4.13447</v>
+        <v>4.53185</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27651</v>
+        <v>1.38271</v>
       </c>
       <c r="C129" t="n">
-        <v>3.49106</v>
+        <v>3.80569</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76079</v>
+        <v>3.00551</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24714</v>
+        <v>1.33167</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0634</v>
+        <v>4.47426</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.27859</v>
+        <v>1.36044</v>
       </c>
       <c r="C130" t="n">
-        <v>3.45324</v>
+        <v>3.78609</v>
       </c>
       <c r="D130" t="n">
-        <v>2.75182</v>
+        <v>2.99292</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24175</v>
+        <v>1.32677</v>
       </c>
       <c r="F130" t="n">
-        <v>4.01223</v>
+        <v>4.39939</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.26472</v>
+        <v>1.37441</v>
       </c>
       <c r="C131" t="n">
-        <v>3.42207</v>
+        <v>3.74875</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73814</v>
+        <v>2.97467</v>
       </c>
       <c r="E131" t="n">
-        <v>1.23529</v>
+        <v>1.32115</v>
       </c>
       <c r="F131" t="n">
-        <v>3.96145</v>
+        <v>3.86202</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.26537</v>
+        <v>1.37731</v>
       </c>
       <c r="C132" t="n">
-        <v>3.40555</v>
+        <v>3.72732</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72633</v>
+        <v>2.97447</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23045</v>
+        <v>1.3167</v>
       </c>
       <c r="F132" t="n">
-        <v>3.90638</v>
+        <v>4.30651</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27396</v>
+        <v>1.37465</v>
       </c>
       <c r="C133" t="n">
-        <v>3.39156</v>
+        <v>3.71432</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71328</v>
+        <v>2.96475</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22408</v>
+        <v>1.31358</v>
       </c>
       <c r="F133" t="n">
-        <v>3.41184</v>
+        <v>4.23395</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2481</v>
+        <v>1.3608</v>
       </c>
       <c r="C134" t="n">
-        <v>3.36343</v>
+        <v>3.70282</v>
       </c>
       <c r="D134" t="n">
-        <v>2.70865</v>
+        <v>2.95909</v>
       </c>
       <c r="E134" t="n">
-        <v>1.18832</v>
+        <v>1.30954</v>
       </c>
       <c r="F134" t="n">
-        <v>3.59762</v>
+        <v>4.20045</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.24989</v>
+        <v>1.37103</v>
       </c>
       <c r="C135" t="n">
-        <v>3.35742</v>
+        <v>3.67802</v>
       </c>
       <c r="D135" t="n">
-        <v>4.87888</v>
+        <v>5.36026</v>
       </c>
       <c r="E135" t="n">
-        <v>1.18642</v>
+        <v>1.30642</v>
       </c>
       <c r="F135" t="n">
-        <v>3.55809</v>
+        <v>3.41926</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.24888</v>
+        <v>1.3422</v>
       </c>
       <c r="C136" t="n">
-        <v>2.02843</v>
+        <v>3.66999</v>
       </c>
       <c r="D136" t="n">
-        <v>4.80572</v>
+        <v>4.55355</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21125</v>
+        <v>1.27379</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40685</v>
+        <v>3.85708</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27759</v>
+        <v>1.37703</v>
       </c>
       <c r="C137" t="n">
-        <v>2.00784</v>
+        <v>2.68521</v>
       </c>
       <c r="D137" t="n">
-        <v>4.53685</v>
+        <v>5.00236</v>
       </c>
       <c r="E137" t="n">
-        <v>1.52763</v>
+        <v>1.63007</v>
       </c>
       <c r="F137" t="n">
-        <v>5.12942</v>
+        <v>5.6619</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53292</v>
+        <v>1.6121</v>
       </c>
       <c r="C138" t="n">
-        <v>4.13841</v>
+        <v>4.53483</v>
       </c>
       <c r="D138" t="n">
-        <v>4.26489</v>
+        <v>4.44037</v>
       </c>
       <c r="E138" t="n">
-        <v>1.51766</v>
+        <v>1.59964</v>
       </c>
       <c r="F138" t="n">
-        <v>5.02497</v>
+        <v>5.54807</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.50768</v>
+        <v>1.62398</v>
       </c>
       <c r="C139" t="n">
-        <v>4.09777</v>
+        <v>4.51209</v>
       </c>
       <c r="D139" t="n">
-        <v>3.99516</v>
+        <v>4.14596</v>
       </c>
       <c r="E139" t="n">
-        <v>1.4862</v>
+        <v>1.59259</v>
       </c>
       <c r="F139" t="n">
-        <v>4.92544</v>
+        <v>5.44747</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50335</v>
+        <v>1.61952</v>
       </c>
       <c r="C140" t="n">
-        <v>4.037</v>
+        <v>4.45122</v>
       </c>
       <c r="D140" t="n">
-        <v>3.73107</v>
+        <v>4.35524</v>
       </c>
       <c r="E140" t="n">
-        <v>1.50449</v>
+        <v>1.58817</v>
       </c>
       <c r="F140" t="n">
-        <v>4.84162</v>
+        <v>5.35834</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5057</v>
+        <v>1.59042</v>
       </c>
       <c r="C141" t="n">
-        <v>4.00232</v>
+        <v>4.40993</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91429</v>
+        <v>4.05879</v>
       </c>
       <c r="E141" t="n">
-        <v>1.49866</v>
+        <v>1.58476</v>
       </c>
       <c r="F141" t="n">
-        <v>4.74545</v>
+        <v>5.2639</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48536</v>
+        <v>1.59265</v>
       </c>
       <c r="C142" t="n">
-        <v>3.94933</v>
+        <v>4.36113</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18822</v>
+        <v>3.49807</v>
       </c>
       <c r="E142" t="n">
-        <v>1.46805</v>
+        <v>1.58157</v>
       </c>
       <c r="F142" t="n">
-        <v>4.67149</v>
+        <v>5.16899</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49018</v>
+        <v>1.59832</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92362</v>
+        <v>4.32147</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15339</v>
+        <v>3.45977</v>
       </c>
       <c r="E143" t="n">
-        <v>1.46316</v>
+        <v>1.57948</v>
       </c>
       <c r="F143" t="n">
-        <v>4.58989</v>
+        <v>5.09254</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.580148</v>
+        <v>0.579265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.781469</v>
+        <v>0.77377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.845672</v>
+        <v>0.838624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564843</v>
+        <v>0.564442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813519</v>
+        <v>0.823063</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.562657</v>
+        <v>0.508938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.77203</v>
+        <v>0.76667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.836116</v>
+        <v>0.829423</v>
       </c>
       <c r="E3" t="n">
-        <v>0.551613</v>
+        <v>0.551502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793745</v>
+        <v>0.803795</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551689</v>
+        <v>0.499613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761869</v>
+        <v>0.7596619999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.828503</v>
+        <v>0.82231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.539299</v>
+        <v>0.538956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.778344</v>
+        <v>0.787519</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.490284</v>
+        <v>0.489746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.75313</v>
+        <v>0.750839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.821139</v>
+        <v>0.820874</v>
       </c>
       <c r="E5" t="n">
-        <v>0.527484</v>
+        <v>0.527544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.764402</v>
+        <v>0.7735649999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.484735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.745976</v>
+        <v>0.744017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.810815</v>
+        <v>0.813775</v>
       </c>
       <c r="E6" t="n">
-        <v>0.516923</v>
+        <v>0.516733</v>
       </c>
       <c r="F6" t="n">
-        <v>0.750425</v>
+        <v>0.760287</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.52751</v>
+        <v>0.481642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.741517</v>
+        <v>0.738598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.929322</v>
+        <v>0.930108</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5082410000000001</v>
+        <v>0.509001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.740497</v>
+        <v>0.749456</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.525291</v>
+        <v>0.47954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.739658</v>
+        <v>0.736798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.911402</v>
+        <v>0.911412</v>
       </c>
       <c r="E8" t="n">
-        <v>0.502976</v>
+        <v>0.502965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.733247</v>
+        <v>0.742648</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525294</v>
+        <v>0.48103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.740652</v>
+        <v>0.7385350000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.892401</v>
+        <v>0.892199</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760516</v>
+        <v>0.760937</v>
       </c>
       <c r="F9" t="n">
-        <v>1.00846</v>
+        <v>1.01386</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.671852</v>
+        <v>0.674158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899755</v>
+        <v>0.898077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.878197</v>
+        <v>0.876861</v>
       </c>
       <c r="E10" t="n">
-        <v>0.738727</v>
+        <v>0.737885</v>
       </c>
       <c r="F10" t="n">
-        <v>0.982111</v>
+        <v>0.988571</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653044</v>
+        <v>0.660037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.880262</v>
+        <v>0.882787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.862567</v>
+        <v>0.8637359999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.71646</v>
+        <v>0.716017</v>
       </c>
       <c r="F11" t="n">
-        <v>0.959351</v>
+        <v>0.964984</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634765</v>
+        <v>0.6404069999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8640409999999999</v>
+        <v>0.865527</v>
       </c>
       <c r="D12" t="n">
-        <v>0.847678</v>
+        <v>0.848067</v>
       </c>
       <c r="E12" t="n">
-        <v>0.695</v>
+        <v>0.695587</v>
       </c>
       <c r="F12" t="n">
-        <v>0.936772</v>
+        <v>0.9399650000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617541</v>
+        <v>0.622873</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848791</v>
+        <v>0.848539</v>
       </c>
       <c r="D13" t="n">
-        <v>0.834951</v>
+        <v>0.83324</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6754599999999999</v>
+        <v>0.676584</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9121089999999999</v>
+        <v>0.916844</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.608814</v>
+        <v>0.6052419999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830979</v>
+        <v>0.832393</v>
       </c>
       <c r="D14" t="n">
-        <v>0.820708</v>
+        <v>0.82079</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6571630000000001</v>
+        <v>0.657354</v>
       </c>
       <c r="F14" t="n">
-        <v>0.888993</v>
+        <v>0.893272</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5851189999999999</v>
+        <v>0.591992</v>
       </c>
       <c r="C15" t="n">
-        <v>0.816315</v>
+        <v>0.817636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.811704</v>
+        <v>0.812092</v>
       </c>
       <c r="E15" t="n">
-        <v>0.640491</v>
+        <v>0.639838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.867227</v>
+        <v>0.8721179999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.581083</v>
+        <v>0.5766790000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801323</v>
+        <v>0.803495</v>
       </c>
       <c r="D16" t="n">
-        <v>0.802085</v>
+        <v>0.8012010000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.622856</v>
+        <v>0.623698</v>
       </c>
       <c r="F16" t="n">
-        <v>0.85216</v>
+        <v>0.851515</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558566</v>
+        <v>0.563658</v>
       </c>
       <c r="C17" t="n">
-        <v>0.79074</v>
+        <v>0.791932</v>
       </c>
       <c r="D17" t="n">
-        <v>0.790121</v>
+        <v>0.792038</v>
       </c>
       <c r="E17" t="n">
-        <v>0.607541</v>
+        <v>0.608244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.859838</v>
+        <v>0.832447</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.555899</v>
+        <v>0.551172</v>
       </c>
       <c r="C18" t="n">
-        <v>0.781142</v>
+        <v>0.781626</v>
       </c>
       <c r="D18" t="n">
-        <v>0.782628</v>
+        <v>0.784452</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594214</v>
+        <v>0.593977</v>
       </c>
       <c r="F18" t="n">
-        <v>0.841348</v>
+        <v>0.814602</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538308</v>
+        <v>0.541639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.769432</v>
+        <v>0.772209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.773841</v>
+        <v>0.777408</v>
       </c>
       <c r="E19" t="n">
-        <v>0.580669</v>
+        <v>0.5816789999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.828413</v>
+        <v>0.797929</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.530454</v>
+        <v>0.5329199999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762037</v>
+        <v>0.762136</v>
       </c>
       <c r="D20" t="n">
-        <v>0.766556</v>
+        <v>0.768631</v>
       </c>
       <c r="E20" t="n">
-        <v>0.569164</v>
+        <v>0.570011</v>
       </c>
       <c r="F20" t="n">
-        <v>0.812666</v>
+        <v>0.783893</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.522517</v>
+        <v>0.525922</v>
       </c>
       <c r="C21" t="n">
-        <v>0.757508</v>
+        <v>0.756452</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9951719999999999</v>
+        <v>0.994479</v>
       </c>
       <c r="E21" t="n">
-        <v>0.559877</v>
+        <v>0.560911</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8094479999999999</v>
+        <v>0.810409</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.519184</v>
+        <v>0.521427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.756902</v>
+        <v>0.755741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.974826</v>
+        <v>0.975319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5537570000000001</v>
+        <v>0.554081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.804428</v>
+        <v>0.802185</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.518608</v>
+        <v>0.520343</v>
       </c>
       <c r="C23" t="n">
-        <v>0.752894</v>
+        <v>0.755227</v>
       </c>
       <c r="D23" t="n">
-        <v>0.95286</v>
+        <v>0.951927</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818895</v>
+        <v>0.818574</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08369</v>
+        <v>1.08872</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6824480000000001</v>
+        <v>0.684816</v>
       </c>
       <c r="C24" t="n">
-        <v>0.93646</v>
+        <v>0.936781</v>
       </c>
       <c r="D24" t="n">
-        <v>0.934125</v>
+        <v>0.93464</v>
       </c>
       <c r="E24" t="n">
-        <v>0.794201</v>
+        <v>0.79348</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05469</v>
+        <v>1.05899</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.667423</v>
+        <v>0.6653019999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.917708</v>
+        <v>0.9135529999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.919338</v>
+        <v>0.9179349999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769023</v>
+        <v>0.770058</v>
       </c>
       <c r="F25" t="n">
-        <v>1.02775</v>
+        <v>1.03225</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.64773</v>
+        <v>0.646855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.895649</v>
+        <v>0.895756</v>
       </c>
       <c r="D26" t="n">
-        <v>0.903641</v>
+        <v>0.904882</v>
       </c>
       <c r="E26" t="n">
-        <v>0.747175</v>
+        <v>0.747461</v>
       </c>
       <c r="F26" t="n">
-        <v>1.006</v>
+        <v>1.00744</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6621050000000001</v>
+        <v>0.661836</v>
       </c>
       <c r="C27" t="n">
-        <v>0.879239</v>
+        <v>0.878358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.888858</v>
+        <v>0.888106</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725261</v>
+        <v>0.725336</v>
       </c>
       <c r="F27" t="n">
-        <v>0.976772</v>
+        <v>0.983946</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.643524</v>
+        <v>0.643154</v>
       </c>
       <c r="C28" t="n">
-        <v>0.860703</v>
+        <v>0.861382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.877505</v>
+        <v>0.872882</v>
       </c>
       <c r="E28" t="n">
-        <v>0.703722</v>
+        <v>0.704265</v>
       </c>
       <c r="F28" t="n">
-        <v>0.956801</v>
+        <v>0.958036</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.628096</v>
+        <v>0.626599</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84635</v>
+        <v>0.8404160000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866926</v>
+        <v>0.867162</v>
       </c>
       <c r="E29" t="n">
-        <v>0.685181</v>
+        <v>0.68519</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9381969999999999</v>
+        <v>0.939805</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6089020000000001</v>
+        <v>0.610306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.849052</v>
+        <v>0.8454930000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.854555</v>
+        <v>0.856773</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666264</v>
+        <v>0.666458</v>
       </c>
       <c r="F30" t="n">
-        <v>0.913456</v>
+        <v>0.918163</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.567285</v>
+        <v>0.596069</v>
       </c>
       <c r="C31" t="n">
-        <v>0.836777</v>
+        <v>0.834647</v>
       </c>
       <c r="D31" t="n">
-        <v>0.844183</v>
+        <v>0.845786</v>
       </c>
       <c r="E31" t="n">
-        <v>0.64866</v>
+        <v>0.649193</v>
       </c>
       <c r="F31" t="n">
-        <v>0.893455</v>
+        <v>0.897076</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.58105</v>
+        <v>0.582699</v>
       </c>
       <c r="C32" t="n">
-        <v>0.827746</v>
+        <v>0.824307</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8373390000000001</v>
+        <v>0.837738</v>
       </c>
       <c r="E32" t="n">
-        <v>0.632982</v>
+        <v>0.632983</v>
       </c>
       <c r="F32" t="n">
-        <v>0.874241</v>
+        <v>0.875991</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570676</v>
+        <v>0.569966</v>
       </c>
       <c r="C33" t="n">
-        <v>0.818435</v>
+        <v>0.815192</v>
       </c>
       <c r="D33" t="n">
-        <v>0.827993</v>
+        <v>0.827532</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6175079999999999</v>
+        <v>0.618228</v>
       </c>
       <c r="F33" t="n">
-        <v>0.859233</v>
+        <v>0.858037</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558926</v>
+        <v>0.559715</v>
       </c>
       <c r="C34" t="n">
-        <v>0.782729</v>
+        <v>0.781657</v>
       </c>
       <c r="D34" t="n">
-        <v>0.819258</v>
+        <v>0.820197</v>
       </c>
       <c r="E34" t="n">
-        <v>0.605042</v>
+        <v>0.604723</v>
       </c>
       <c r="F34" t="n">
-        <v>0.838282</v>
+        <v>0.840589</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549458</v>
+        <v>0.55067</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778096</v>
+        <v>0.7810820000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0745</v>
+        <v>1.07503</v>
       </c>
       <c r="E35" t="n">
-        <v>0.593079</v>
+        <v>0.59291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.828445</v>
+        <v>0.824802</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.542736</v>
+        <v>0.526262</v>
       </c>
       <c r="C36" t="n">
-        <v>0.774597</v>
+        <v>0.774259</v>
       </c>
       <c r="D36" t="n">
-        <v>1.04653</v>
+        <v>1.05105</v>
       </c>
       <c r="E36" t="n">
-        <v>0.563913</v>
+        <v>0.564991</v>
       </c>
       <c r="F36" t="n">
-        <v>0.815991</v>
+        <v>0.815159</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.541372</v>
+        <v>0.523267</v>
       </c>
       <c r="C37" t="n">
-        <v>0.768135</v>
+        <v>0.771082</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02532</v>
+        <v>1.03043</v>
       </c>
       <c r="E37" t="n">
-        <v>0.83441</v>
+        <v>0.833907</v>
       </c>
       <c r="F37" t="n">
-        <v>1.3739</v>
+        <v>1.37727</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.733966</v>
+        <v>0.752108</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1863</v>
+        <v>1.1868</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00921</v>
+        <v>1.01071</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8087029999999999</v>
+        <v>0.8091930000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1.34352</v>
+        <v>1.3473</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.711925</v>
+        <v>0.731158</v>
       </c>
       <c r="C39" t="n">
-        <v>1.16474</v>
+        <v>1.16658</v>
       </c>
       <c r="D39" t="n">
-        <v>0.989515</v>
+        <v>0.994335</v>
       </c>
       <c r="E39" t="n">
-        <v>0.784776</v>
+        <v>0.784959</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31438</v>
+        <v>1.31768</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.691314</v>
+        <v>0.692699</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14385</v>
+        <v>1.14574</v>
       </c>
       <c r="D40" t="n">
-        <v>0.972844</v>
+        <v>0.976712</v>
       </c>
       <c r="E40" t="n">
-        <v>0.760809</v>
+        <v>0.761486</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28535</v>
+        <v>1.28707</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.691391</v>
+        <v>0.689427</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12812</v>
+        <v>1.12749</v>
       </c>
       <c r="D41" t="n">
-        <v>0.957389</v>
+        <v>0.958376</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7407859999999999</v>
+        <v>0.740105</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26067</v>
+        <v>1.26155</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.671565</v>
+        <v>0.654848</v>
       </c>
       <c r="C42" t="n">
-        <v>1.11122</v>
+        <v>1.10942</v>
       </c>
       <c r="D42" t="n">
-        <v>0.940572</v>
+        <v>0.940739</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719621</v>
+        <v>0.719712</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23401</v>
+        <v>1.23545</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.635217</v>
+        <v>0.637424</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09415</v>
+        <v>1.09325</v>
       </c>
       <c r="D43" t="n">
-        <v>0.928003</v>
+        <v>0.926527</v>
       </c>
       <c r="E43" t="n">
-        <v>0.712808</v>
+        <v>0.71283</v>
       </c>
       <c r="F43" t="n">
-        <v>1.20979</v>
+        <v>1.20993</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.623004</v>
+        <v>0.61925</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07889</v>
+        <v>1.07711</v>
       </c>
       <c r="D44" t="n">
-        <v>0.913867</v>
+        <v>0.912814</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681663</v>
+        <v>0.679787</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18665</v>
+        <v>1.18691</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.605356</v>
+        <v>0.60587</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06521</v>
+        <v>1.06452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9044410000000001</v>
+        <v>0.903784</v>
       </c>
       <c r="E45" t="n">
-        <v>0.664202</v>
+        <v>0.662589</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16559</v>
+        <v>1.16576</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.595291</v>
+        <v>0.59384</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05224</v>
+        <v>1.05041</v>
       </c>
       <c r="D46" t="n">
-        <v>0.893954</v>
+        <v>0.894218</v>
       </c>
       <c r="E46" t="n">
-        <v>0.647176</v>
+        <v>0.647263</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14561</v>
+        <v>1.14599</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.584244</v>
+        <v>0.582987</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04107</v>
+        <v>1.03917</v>
       </c>
       <c r="D47" t="n">
-        <v>0.887194</v>
+        <v>0.886818</v>
       </c>
       <c r="E47" t="n">
-        <v>0.632759</v>
+        <v>0.610613</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12683</v>
+        <v>1.1283</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.573198</v>
+        <v>0.571138</v>
       </c>
       <c r="C48" t="n">
-        <v>1.03071</v>
+        <v>1.03025</v>
       </c>
       <c r="D48" t="n">
-        <v>0.877687</v>
+        <v>0.8779400000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.598114</v>
+        <v>0.59826</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11034</v>
+        <v>1.11084</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5611</v>
+        <v>0.563705</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02266</v>
+        <v>1.02173</v>
       </c>
       <c r="D49" t="n">
-        <v>0.872513</v>
+        <v>0.871062</v>
       </c>
       <c r="E49" t="n">
-        <v>0.607033</v>
+        <v>0.606159</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09529</v>
+        <v>1.09595</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5550040000000001</v>
+        <v>0.555436</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01804</v>
+        <v>1.016</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11807</v>
+        <v>1.11728</v>
       </c>
       <c r="E50" t="n">
-        <v>0.596915</v>
+        <v>0.59658</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0837</v>
+        <v>1.08155</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.553019</v>
+        <v>0.551238</v>
       </c>
       <c r="C51" t="n">
-        <v>1.015</v>
+        <v>1.01272</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09399</v>
+        <v>1.0947</v>
       </c>
       <c r="E51" t="n">
-        <v>0.879352</v>
+        <v>0.876891</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4556</v>
+        <v>1.45487</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.532119</v>
+        <v>0.552867</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01642</v>
+        <v>1.01291</v>
       </c>
       <c r="D52" t="n">
-        <v>1.07397</v>
+        <v>1.07117</v>
       </c>
       <c r="E52" t="n">
-        <v>0.853397</v>
+        <v>0.851333</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42218</v>
+        <v>1.42065</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7612910000000001</v>
+        <v>0.756592</v>
       </c>
       <c r="C53" t="n">
-        <v>1.21597</v>
+        <v>1.21728</v>
       </c>
       <c r="D53" t="n">
-        <v>1.05035</v>
+        <v>1.04985</v>
       </c>
       <c r="E53" t="n">
-        <v>0.828837</v>
+        <v>0.8262930000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38747</v>
+        <v>1.38798</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7291</v>
+        <v>0.735208</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19664</v>
+        <v>1.19638</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03314</v>
+        <v>1.03137</v>
       </c>
       <c r="E54" t="n">
-        <v>0.804372</v>
+        <v>0.792777</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35874</v>
+        <v>1.35948</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.720415</v>
+        <v>0.715419</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17786</v>
+        <v>1.17607</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01499</v>
+        <v>1.01386</v>
       </c>
       <c r="E55" t="n">
-        <v>0.772195</v>
+        <v>0.7663450000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>1.33034</v>
+        <v>1.33278</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.693957</v>
+        <v>0.689692</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15772</v>
+        <v>1.15562</v>
       </c>
       <c r="D56" t="n">
-        <v>0.998139</v>
+        <v>0.99582</v>
       </c>
       <c r="E56" t="n">
-        <v>0.751142</v>
+        <v>0.747094</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30258</v>
+        <v>1.30359</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6745679999999999</v>
+        <v>0.67004</v>
       </c>
       <c r="C57" t="n">
-        <v>1.14132</v>
+        <v>1.14091</v>
       </c>
       <c r="D57" t="n">
-        <v>0.982474</v>
+        <v>0.985607</v>
       </c>
       <c r="E57" t="n">
-        <v>0.731333</v>
+        <v>0.728152</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27768</v>
+        <v>1.27645</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.656706</v>
+        <v>0.655218</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12602</v>
+        <v>1.12341</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969278</v>
+        <v>0.972263</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711898</v>
+        <v>0.7090689999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25272</v>
+        <v>1.25292</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.641365</v>
+        <v>0.639232</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11067</v>
+        <v>1.11045</v>
       </c>
       <c r="D59" t="n">
-        <v>0.950846</v>
+        <v>0.949884</v>
       </c>
       <c r="E59" t="n">
-        <v>0.695415</v>
+        <v>0.692094</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22959</v>
+        <v>1.22947</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630262</v>
+        <v>0.629498</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09878</v>
+        <v>1.09739</v>
       </c>
       <c r="D60" t="n">
-        <v>0.941017</v>
+        <v>0.939939</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6498429999999999</v>
+        <v>0.677115</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20616</v>
+        <v>1.20711</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614487</v>
+        <v>0.613505</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08657</v>
+        <v>1.08625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.93076</v>
+        <v>0.929115</v>
       </c>
       <c r="E61" t="n">
-        <v>0.635443</v>
+        <v>0.660002</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18719</v>
+        <v>1.18775</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.603787</v>
+        <v>0.605095</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07599</v>
+        <v>1.07453</v>
       </c>
       <c r="D62" t="n">
-        <v>0.921299</v>
+        <v>0.920107</v>
       </c>
       <c r="E62" t="n">
-        <v>0.623418</v>
+        <v>0.621179</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16751</v>
+        <v>1.17016</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5694360000000001</v>
+        <v>0.590714</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06674</v>
+        <v>1.06643</v>
       </c>
       <c r="D63" t="n">
-        <v>0.913589</v>
+        <v>0.912863</v>
       </c>
       <c r="E63" t="n">
-        <v>0.633713</v>
+        <v>0.633764</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15112</v>
+        <v>1.15172</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5855320000000001</v>
+        <v>0.584965</v>
       </c>
       <c r="C64" t="n">
-        <v>1.06062</v>
+        <v>1.05906</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19593</v>
+        <v>1.19255</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623492</v>
+        <v>0.600543</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13777</v>
+        <v>1.13745</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5806829999999999</v>
+        <v>0.558817</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05571</v>
+        <v>1.05516</v>
       </c>
       <c r="D65" t="n">
-        <v>1.16998</v>
+        <v>1.16457</v>
       </c>
       <c r="E65" t="n">
-        <v>0.616375</v>
+        <v>0.614846</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12616</v>
+        <v>1.12699</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.581551</v>
+        <v>0.577195</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05663</v>
+        <v>1.05587</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14055</v>
+        <v>1.13719</v>
       </c>
       <c r="E66" t="n">
-        <v>0.896657</v>
+        <v>0.913374</v>
       </c>
       <c r="F66" t="n">
-        <v>1.50077</v>
+        <v>1.50082</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.822177</v>
+        <v>0.83083</v>
       </c>
       <c r="C67" t="n">
-        <v>1.28091</v>
+        <v>1.28104</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11078</v>
+        <v>1.11144</v>
       </c>
       <c r="E67" t="n">
-        <v>0.875773</v>
+        <v>0.888979</v>
       </c>
       <c r="F67" t="n">
-        <v>1.4709</v>
+        <v>1.46774</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.813743</v>
+        <v>0.814005</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26203</v>
+        <v>1.26212</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08927</v>
+        <v>1.08796</v>
       </c>
       <c r="E68" t="n">
-        <v>0.85373</v>
+        <v>0.866032</v>
       </c>
       <c r="F68" t="n">
-        <v>1.44062</v>
+        <v>1.43519</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.785697</v>
+        <v>0.786983</v>
       </c>
       <c r="C69" t="n">
-        <v>1.2451</v>
+        <v>1.24361</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07062</v>
+        <v>1.06938</v>
       </c>
       <c r="E69" t="n">
-        <v>0.841683</v>
+        <v>0.834002</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41015</v>
+        <v>1.40476</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7719780000000001</v>
+        <v>0.769661</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23252</v>
+        <v>1.22879</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05891</v>
+        <v>1.05826</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81072</v>
+        <v>0.813584</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38804</v>
+        <v>1.39055</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.758849</v>
+        <v>0.763005</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22218</v>
+        <v>1.22267</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02881</v>
+        <v>1.02758</v>
       </c>
       <c r="E71" t="n">
-        <v>0.789636</v>
+        <v>0.790929</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36644</v>
+        <v>1.36293</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.743876</v>
+        <v>0.742509</v>
       </c>
       <c r="C72" t="n">
-        <v>1.21405</v>
+        <v>1.20591</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01908</v>
+        <v>1.01699</v>
       </c>
       <c r="E72" t="n">
-        <v>0.770421</v>
+        <v>0.771756</v>
       </c>
       <c r="F72" t="n">
-        <v>1.35048</v>
+        <v>1.34524</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.725112</v>
+        <v>0.72276</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19914</v>
+        <v>1.19434</v>
       </c>
       <c r="D73" t="n">
-        <v>1.01009</v>
+        <v>1.00929</v>
       </c>
       <c r="E73" t="n">
-        <v>0.750712</v>
+        <v>0.754007</v>
       </c>
       <c r="F73" t="n">
-        <v>1.3291</v>
+        <v>1.32732</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7037</v>
+        <v>0.721595</v>
       </c>
       <c r="C74" t="n">
-        <v>1.19201</v>
+        <v>1.18743</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9931720000000001</v>
+        <v>0.992455</v>
       </c>
       <c r="E74" t="n">
-        <v>0.733176</v>
+        <v>0.736284</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31017</v>
+        <v>1.3127</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.697763</v>
+        <v>0.696094</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18421</v>
+        <v>1.18965</v>
       </c>
       <c r="D75" t="n">
-        <v>0.98775</v>
+        <v>0.989367</v>
       </c>
       <c r="E75" t="n">
-        <v>0.716842</v>
+        <v>0.719612</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29651</v>
+        <v>1.30427</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6771470000000001</v>
+        <v>0.68689</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18941</v>
+        <v>1.1852</v>
       </c>
       <c r="D76" t="n">
-        <v>0.98559</v>
+        <v>0.984841</v>
       </c>
       <c r="E76" t="n">
-        <v>0.701155</v>
+        <v>0.702669</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28783</v>
+        <v>1.28525</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6732939999999999</v>
+        <v>0.68521</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18341</v>
+        <v>1.17757</v>
       </c>
       <c r="D77" t="n">
-        <v>0.976732</v>
+        <v>0.972952</v>
       </c>
       <c r="E77" t="n">
-        <v>0.659354</v>
+        <v>0.689194</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27516</v>
+        <v>1.26368</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.668832</v>
+        <v>0.666258</v>
       </c>
       <c r="C78" t="n">
-        <v>1.19493</v>
+        <v>1.18824</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44558</v>
+        <v>1.44894</v>
       </c>
       <c r="E78" t="n">
-        <v>0.675393</v>
+        <v>0.650675</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27643</v>
+        <v>1.28371</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.660721</v>
+        <v>0.663216</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2009</v>
+        <v>1.19497</v>
       </c>
       <c r="D79" t="n">
-        <v>1.41612</v>
+        <v>1.41765</v>
       </c>
       <c r="E79" t="n">
-        <v>0.664701</v>
+        <v>0.6404530000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>1.27497</v>
+        <v>1.26413</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.635993</v>
+        <v>0.629487</v>
       </c>
       <c r="C80" t="n">
-        <v>1.08807</v>
+        <v>1.20773</v>
       </c>
       <c r="D80" t="n">
-        <v>1.3836</v>
+        <v>1.38491</v>
       </c>
       <c r="E80" t="n">
-        <v>0.980236</v>
+        <v>0.952156</v>
       </c>
       <c r="F80" t="n">
-        <v>1.95189</v>
+        <v>1.93105</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.908149</v>
+        <v>0.886448</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69702</v>
+        <v>1.68801</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34236</v>
+        <v>1.33999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.946224</v>
+        <v>0.9358649999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1.93241</v>
+        <v>1.92223</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.87544</v>
+        <v>0.884354</v>
       </c>
       <c r="C82" t="n">
-        <v>1.69852</v>
+        <v>1.70186</v>
       </c>
       <c r="D82" t="n">
-        <v>1.32892</v>
+        <v>1.32409</v>
       </c>
       <c r="E82" t="n">
-        <v>0.929698</v>
+        <v>0.933853</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91537</v>
+        <v>1.91846</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876026</v>
+        <v>0.877062</v>
       </c>
       <c r="C83" t="n">
-        <v>1.71222</v>
+        <v>1.7164</v>
       </c>
       <c r="D83" t="n">
-        <v>1.31295</v>
+        <v>1.30993</v>
       </c>
       <c r="E83" t="n">
-        <v>0.911191</v>
+        <v>0.904188</v>
       </c>
       <c r="F83" t="n">
-        <v>1.91541</v>
+        <v>1.90333</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.884337</v>
+        <v>0.860592</v>
       </c>
       <c r="C84" t="n">
-        <v>1.71876</v>
+        <v>1.70977</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30312</v>
+        <v>1.29548</v>
       </c>
       <c r="E84" t="n">
-        <v>0.908098</v>
+        <v>0.899709</v>
       </c>
       <c r="F84" t="n">
-        <v>1.8951</v>
+        <v>1.87256</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.852414</v>
+        <v>0.852471</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71054</v>
+        <v>1.70697</v>
       </c>
       <c r="D85" t="n">
-        <v>1.26187</v>
+        <v>1.25408</v>
       </c>
       <c r="E85" t="n">
-        <v>0.873479</v>
+        <v>0.860074</v>
       </c>
       <c r="F85" t="n">
-        <v>1.88131</v>
+        <v>1.8645</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.845109</v>
+        <v>0.827609</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71692</v>
+        <v>1.71282</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25202</v>
+        <v>1.24731</v>
       </c>
       <c r="E86" t="n">
-        <v>0.855149</v>
+        <v>0.84414</v>
       </c>
       <c r="F86" t="n">
-        <v>1.86509</v>
+        <v>1.85557</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.837138</v>
+        <v>0.832405</v>
       </c>
       <c r="C87" t="n">
-        <v>1.72037</v>
+        <v>1.71098</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24879</v>
+        <v>1.24467</v>
       </c>
       <c r="E87" t="n">
-        <v>0.836132</v>
+        <v>0.8334510000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86207</v>
+        <v>1.85939</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.832562</v>
+        <v>0.819837</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72369</v>
+        <v>1.7185</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24313</v>
+        <v>1.241</v>
       </c>
       <c r="E88" t="n">
-        <v>0.777484</v>
+        <v>0.776278</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85478</v>
+        <v>1.85655</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.804654</v>
+        <v>0.809998</v>
       </c>
       <c r="C89" t="n">
-        <v>1.73848</v>
+        <v>1.73246</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24448</v>
+        <v>1.23997</v>
       </c>
       <c r="E89" t="n">
-        <v>0.809978</v>
+        <v>0.7973479999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85222</v>
+        <v>1.86185</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.816136</v>
+        <v>0.805572</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73496</v>
+        <v>1.74345</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24465</v>
+        <v>1.24071</v>
       </c>
       <c r="E90" t="n">
-        <v>0.746583</v>
+        <v>0.778637</v>
       </c>
       <c r="F90" t="n">
-        <v>1.84297</v>
+        <v>1.84696</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7900239999999999</v>
+        <v>0.791542</v>
       </c>
       <c r="C91" t="n">
-        <v>1.7464</v>
+        <v>1.74669</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24374</v>
+        <v>1.24071</v>
       </c>
       <c r="E91" t="n">
-        <v>0.733316</v>
+        <v>0.730412</v>
       </c>
       <c r="F91" t="n">
-        <v>1.85287</v>
+        <v>1.86621</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.785573</v>
+        <v>0.781311</v>
       </c>
       <c r="C92" t="n">
-        <v>1.53646</v>
+        <v>1.77026</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59546</v>
+        <v>2.59851</v>
       </c>
       <c r="E92" t="n">
-        <v>0.752981</v>
+        <v>0.719485</v>
       </c>
       <c r="F92" t="n">
-        <v>1.87285</v>
+        <v>1.86225</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7754760000000001</v>
+        <v>0.775939</v>
       </c>
       <c r="C93" t="n">
-        <v>1.78295</v>
+        <v>1.46716</v>
       </c>
       <c r="D93" t="n">
-        <v>2.37547</v>
+        <v>2.60923</v>
       </c>
       <c r="E93" t="n">
-        <v>0.750982</v>
+        <v>0.736894</v>
       </c>
       <c r="F93" t="n">
-        <v>1.86793</v>
+        <v>1.87572</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.777681</v>
+        <v>0.764108</v>
       </c>
       <c r="C94" t="n">
-        <v>1.06297</v>
+        <v>1.79821</v>
       </c>
       <c r="D94" t="n">
-        <v>2.36666</v>
+        <v>2.235</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06275</v>
+        <v>1.05165</v>
       </c>
       <c r="F94" t="n">
-        <v>2.93982</v>
+        <v>2.93877</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.01574</v>
+        <v>1.02079</v>
       </c>
       <c r="C95" t="n">
-        <v>2.49227</v>
+        <v>2.49897</v>
       </c>
       <c r="D95" t="n">
-        <v>2.42056</v>
+        <v>2.47285</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0276</v>
+        <v>1.01503</v>
       </c>
       <c r="F95" t="n">
-        <v>2.91457</v>
+        <v>2.92066</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0184</v>
+        <v>1.01924</v>
       </c>
       <c r="C96" t="n">
-        <v>2.51356</v>
+        <v>2.49695</v>
       </c>
       <c r="D96" t="n">
-        <v>2.28573</v>
+        <v>2.40546</v>
       </c>
       <c r="E96" t="n">
-        <v>1.03732</v>
+        <v>1.00237</v>
       </c>
       <c r="F96" t="n">
-        <v>2.88939</v>
+        <v>2.86878</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.996476</v>
+        <v>1.00126</v>
       </c>
       <c r="C97" t="n">
-        <v>2.50641</v>
+        <v>2.48541</v>
       </c>
       <c r="D97" t="n">
-        <v>2.48414</v>
+        <v>2.47658</v>
       </c>
       <c r="E97" t="n">
-        <v>0.995715</v>
+        <v>0.9854270000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>2.8473</v>
+        <v>2.831</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01793</v>
+        <v>1.00047</v>
       </c>
       <c r="C98" t="n">
-        <v>2.47775</v>
+        <v>2.4704</v>
       </c>
       <c r="D98" t="n">
-        <v>1.98362</v>
+        <v>2.05081</v>
       </c>
       <c r="E98" t="n">
-        <v>1.00345</v>
+        <v>0.991197</v>
       </c>
       <c r="F98" t="n">
-        <v>2.79786</v>
+        <v>2.80312</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.988236</v>
+        <v>0.99675</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46259</v>
+        <v>2.44614</v>
       </c>
       <c r="D99" t="n">
-        <v>2.11886</v>
+        <v>2.26115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9856740000000001</v>
+        <v>0.955247</v>
       </c>
       <c r="F99" t="n">
-        <v>2.7621</v>
+        <v>2.77125</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.98781</v>
+        <v>0.972951</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44108</v>
+        <v>2.43812</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72856</v>
+        <v>1.72385</v>
       </c>
       <c r="E100" t="n">
-        <v>0.946115</v>
+        <v>0.9366100000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>2.73678</v>
+        <v>2.72233</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967059</v>
+        <v>0.97766</v>
       </c>
       <c r="C101" t="n">
-        <v>2.42528</v>
+        <v>2.41474</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72305</v>
+        <v>1.71726</v>
       </c>
       <c r="E101" t="n">
-        <v>0.888296</v>
+        <v>0.9215719999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>2.69432</v>
+        <v>2.71188</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.962471</v>
+        <v>0.960822</v>
       </c>
       <c r="C102" t="n">
-        <v>2.41355</v>
+        <v>2.41075</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71666</v>
+        <v>1.71798</v>
       </c>
       <c r="E102" t="n">
-        <v>0.916772</v>
+        <v>0.870421</v>
       </c>
       <c r="F102" t="n">
-        <v>2.51975</v>
+        <v>1.6825</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.952759</v>
+        <v>0.911768</v>
       </c>
       <c r="C103" t="n">
-        <v>2.4119</v>
+        <v>2.38571</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72895</v>
+        <v>1.72002</v>
       </c>
       <c r="E103" t="n">
-        <v>0.902443</v>
+        <v>0.8943759999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>2.63054</v>
+        <v>1.64271</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.942523</v>
+        <v>0.922947</v>
       </c>
       <c r="C104" t="n">
-        <v>2.37782</v>
+        <v>2.37301</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72667</v>
+        <v>1.72321</v>
       </c>
       <c r="E104" t="n">
-        <v>0.889798</v>
+        <v>0.882657</v>
       </c>
       <c r="F104" t="n">
-        <v>2.62868</v>
+        <v>1.60104</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.940272</v>
+        <v>0.902882</v>
       </c>
       <c r="C105" t="n">
-        <v>2.39035</v>
+        <v>2.36761</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72358</v>
+        <v>1.71917</v>
       </c>
       <c r="E105" t="n">
-        <v>0.877328</v>
+        <v>0.871149</v>
       </c>
       <c r="F105" t="n">
-        <v>2.58471</v>
+        <v>2.59197</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.930136</v>
+        <v>0.943491</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37789</v>
+        <v>2.38099</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72809</v>
+        <v>1.72636</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8358100000000001</v>
+        <v>0.830184</v>
       </c>
       <c r="F106" t="n">
-        <v>1.53017</v>
+        <v>1.52524</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.904536</v>
+        <v>0.895058</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33426</v>
+        <v>1.68917</v>
       </c>
       <c r="D107" t="n">
-        <v>2.65311</v>
+        <v>3.51576</v>
       </c>
       <c r="E107" t="n">
-        <v>0.856726</v>
+        <v>0.852397</v>
       </c>
       <c r="F107" t="n">
-        <v>1.49839</v>
+        <v>1.49872</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9248420000000001</v>
+        <v>0.89518</v>
       </c>
       <c r="C108" t="n">
-        <v>2.02248</v>
+        <v>2.02363</v>
       </c>
       <c r="D108" t="n">
-        <v>2.96642</v>
+        <v>2.96046</v>
       </c>
       <c r="E108" t="n">
-        <v>1.17339</v>
+        <v>1.13873</v>
       </c>
       <c r="F108" t="n">
-        <v>3.80137</v>
+        <v>3.79791</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.903313</v>
+        <v>0.904632</v>
       </c>
       <c r="C109" t="n">
-        <v>1.31792</v>
+        <v>2.03616</v>
       </c>
       <c r="D109" t="n">
-        <v>3.31124</v>
+        <v>3.29231</v>
       </c>
       <c r="E109" t="n">
-        <v>1.13902</v>
+        <v>1.13307</v>
       </c>
       <c r="F109" t="n">
-        <v>3.74735</v>
+        <v>3.73447</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17273</v>
+        <v>1.17695</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11357</v>
+        <v>3.09971</v>
       </c>
       <c r="D110" t="n">
-        <v>2.55877</v>
+        <v>2.72907</v>
       </c>
       <c r="E110" t="n">
-        <v>1.15467</v>
+        <v>1.14649</v>
       </c>
       <c r="F110" t="n">
-        <v>3.69964</v>
+        <v>3.68563</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17803</v>
+        <v>1.14404</v>
       </c>
       <c r="C111" t="n">
-        <v>3.08277</v>
+        <v>3.08744</v>
       </c>
       <c r="D111" t="n">
-        <v>2.89997</v>
+        <v>2.89666</v>
       </c>
       <c r="E111" t="n">
-        <v>1.11375</v>
+        <v>1.10779</v>
       </c>
       <c r="F111" t="n">
-        <v>3.63042</v>
+        <v>3.63309</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14943</v>
+        <v>1.13896</v>
       </c>
       <c r="C112" t="n">
-        <v>3.05578</v>
+        <v>3.06146</v>
       </c>
       <c r="D112" t="n">
-        <v>2.88635</v>
+        <v>2.8905</v>
       </c>
       <c r="E112" t="n">
-        <v>1.09983</v>
+        <v>1.09447</v>
       </c>
       <c r="F112" t="n">
-        <v>3.57037</v>
+        <v>3.56909</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13633</v>
+        <v>1.13538</v>
       </c>
       <c r="C113" t="n">
-        <v>3.02882</v>
+        <v>3.03036</v>
       </c>
       <c r="D113" t="n">
-        <v>2.31134</v>
+        <v>2.86771</v>
       </c>
       <c r="E113" t="n">
-        <v>1.0868</v>
+        <v>1.08349</v>
       </c>
       <c r="F113" t="n">
-        <v>3.51874</v>
+        <v>3.51844</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12747</v>
+        <v>1.12358</v>
       </c>
       <c r="C114" t="n">
-        <v>3.003</v>
+        <v>3.00867</v>
       </c>
       <c r="D114" t="n">
-        <v>2.86502</v>
+        <v>2.29681</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07473</v>
+        <v>1.09241</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47677</v>
+        <v>3.4597</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11557</v>
+        <v>1.1111</v>
       </c>
       <c r="C115" t="n">
-        <v>3.08448</v>
+        <v>2.9843</v>
       </c>
       <c r="D115" t="n">
-        <v>2.45955</v>
+        <v>2.27506</v>
       </c>
       <c r="E115" t="n">
-        <v>1.12269</v>
+        <v>1.06282</v>
       </c>
       <c r="F115" t="n">
-        <v>3.71822</v>
+        <v>3.41096</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17048</v>
+        <v>1.11444</v>
       </c>
       <c r="C116" t="n">
-        <v>3.20543</v>
+        <v>2.96192</v>
       </c>
       <c r="D116" t="n">
-        <v>2.66723</v>
+        <v>2.27211</v>
       </c>
       <c r="E116" t="n">
-        <v>1.11381</v>
+        <v>1.05166</v>
       </c>
       <c r="F116" t="n">
-        <v>3.68456</v>
+        <v>3.36874</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16501</v>
+        <v>1.09943</v>
       </c>
       <c r="C117" t="n">
-        <v>3.20354</v>
+        <v>2.93696</v>
       </c>
       <c r="D117" t="n">
-        <v>2.42275</v>
+        <v>2.24611</v>
       </c>
       <c r="E117" t="n">
-        <v>1.06856</v>
+        <v>1.00825</v>
       </c>
       <c r="F117" t="n">
-        <v>3.41235</v>
+        <v>2.94152</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16314</v>
+        <v>1.07648</v>
       </c>
       <c r="C118" t="n">
-        <v>3.17416</v>
+        <v>2.93073</v>
       </c>
       <c r="D118" t="n">
-        <v>2.42346</v>
+        <v>2.24925</v>
       </c>
       <c r="E118" t="n">
-        <v>1.06305</v>
+        <v>1.03315</v>
       </c>
       <c r="F118" t="n">
-        <v>3.59186</v>
+        <v>2.88587</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15295</v>
+        <v>1.0597</v>
       </c>
       <c r="C119" t="n">
-        <v>3.17045</v>
+        <v>2.91261</v>
       </c>
       <c r="D119" t="n">
-        <v>2.4396</v>
+        <v>2.25464</v>
       </c>
       <c r="E119" t="n">
-        <v>1.05651</v>
+        <v>0.996788</v>
       </c>
       <c r="F119" t="n">
-        <v>3.54224</v>
+        <v>3.24274</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13952</v>
+        <v>1.05147</v>
       </c>
       <c r="C120" t="n">
-        <v>3.1466</v>
+        <v>2.10281</v>
       </c>
       <c r="D120" t="n">
-        <v>2.42905</v>
+        <v>2.25448</v>
       </c>
       <c r="E120" t="n">
-        <v>1.07971</v>
+        <v>0.989103</v>
       </c>
       <c r="F120" t="n">
-        <v>3.50574</v>
+        <v>3.22054</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15366</v>
+        <v>1.05822</v>
       </c>
       <c r="C121" t="n">
-        <v>3.13509</v>
+        <v>2.68023</v>
       </c>
       <c r="D121" t="n">
-        <v>4.67295</v>
+        <v>4.27121</v>
       </c>
       <c r="E121" t="n">
-        <v>1.07543</v>
+        <v>1.01178</v>
       </c>
       <c r="F121" t="n">
-        <v>3.48087</v>
+        <v>3.17619</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16139</v>
+        <v>1.08425</v>
       </c>
       <c r="C122" t="n">
-        <v>3.12821</v>
+        <v>1.65615</v>
       </c>
       <c r="D122" t="n">
-        <v>4.17523</v>
+        <v>3.21988</v>
       </c>
       <c r="E122" t="n">
-        <v>1.04158</v>
+        <v>0.97941</v>
       </c>
       <c r="F122" t="n">
-        <v>3.43378</v>
+        <v>2.9402</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.14281</v>
+        <v>1.094</v>
       </c>
       <c r="C123" t="n">
-        <v>1.76077</v>
+        <v>1.65062</v>
       </c>
       <c r="D123" t="n">
-        <v>4.12172</v>
+        <v>4.20073</v>
       </c>
       <c r="E123" t="n">
-        <v>1.37449</v>
+        <v>1.32178</v>
       </c>
       <c r="F123" t="n">
-        <v>4.90734</v>
+        <v>4.46643</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.39824</v>
+        <v>1.34538</v>
       </c>
       <c r="C124" t="n">
-        <v>3.97616</v>
+        <v>3.64446</v>
       </c>
       <c r="D124" t="n">
-        <v>3.86823</v>
+        <v>3.95258</v>
       </c>
       <c r="E124" t="n">
-        <v>1.40784</v>
+        <v>1.28593</v>
       </c>
       <c r="F124" t="n">
-        <v>4.8258</v>
+        <v>4.3958</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.41172</v>
+        <v>1.33001</v>
       </c>
       <c r="C125" t="n">
-        <v>3.95211</v>
+        <v>3.60962</v>
       </c>
       <c r="D125" t="n">
-        <v>3.13388</v>
+        <v>3.50839</v>
       </c>
       <c r="E125" t="n">
-        <v>1.35809</v>
+        <v>1.27772</v>
       </c>
       <c r="F125" t="n">
-        <v>4.74755</v>
+        <v>4.32272</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3889</v>
+        <v>1.30656</v>
       </c>
       <c r="C126" t="n">
-        <v>3.90901</v>
+        <v>3.57371</v>
       </c>
       <c r="D126" t="n">
-        <v>3.56961</v>
+        <v>3.4804</v>
       </c>
       <c r="E126" t="n">
-        <v>1.37397</v>
+        <v>1.26893</v>
       </c>
       <c r="F126" t="n">
-        <v>4.66386</v>
+        <v>4.25379</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39507</v>
+        <v>1.30853</v>
       </c>
       <c r="C127" t="n">
-        <v>3.86793</v>
+        <v>3.54558</v>
       </c>
       <c r="D127" t="n">
-        <v>3.77593</v>
+        <v>2.82877</v>
       </c>
       <c r="E127" t="n">
-        <v>1.34354</v>
+        <v>1.2619</v>
       </c>
       <c r="F127" t="n">
-        <v>4.6065</v>
+        <v>4.19404</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38394</v>
+        <v>1.3098</v>
       </c>
       <c r="C128" t="n">
-        <v>3.84903</v>
+        <v>3.51766</v>
       </c>
       <c r="D128" t="n">
-        <v>3.04285</v>
+        <v>3.01041</v>
       </c>
       <c r="E128" t="n">
-        <v>1.35928</v>
+        <v>1.25387</v>
       </c>
       <c r="F128" t="n">
-        <v>4.53185</v>
+        <v>4.12035</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38271</v>
+        <v>1.29756</v>
       </c>
       <c r="C129" t="n">
-        <v>3.80569</v>
+        <v>3.48755</v>
       </c>
       <c r="D129" t="n">
-        <v>3.00551</v>
+        <v>2.76123</v>
       </c>
       <c r="E129" t="n">
-        <v>1.33167</v>
+        <v>1.24597</v>
       </c>
       <c r="F129" t="n">
-        <v>4.47426</v>
+        <v>4.06261</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36044</v>
+        <v>1.2754</v>
       </c>
       <c r="C130" t="n">
-        <v>3.78609</v>
+        <v>3.46641</v>
       </c>
       <c r="D130" t="n">
-        <v>2.99292</v>
+        <v>2.74955</v>
       </c>
       <c r="E130" t="n">
-        <v>1.32677</v>
+        <v>1.25872</v>
       </c>
       <c r="F130" t="n">
-        <v>4.39939</v>
+        <v>4.00578</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.37441</v>
+        <v>1.26728</v>
       </c>
       <c r="C131" t="n">
-        <v>3.74875</v>
+        <v>3.42878</v>
       </c>
       <c r="D131" t="n">
-        <v>2.97467</v>
+        <v>2.73215</v>
       </c>
       <c r="E131" t="n">
-        <v>1.32115</v>
+        <v>1.23497</v>
       </c>
       <c r="F131" t="n">
-        <v>3.86202</v>
+        <v>3.95299</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37731</v>
+        <v>1.2666</v>
       </c>
       <c r="C132" t="n">
-        <v>3.72732</v>
+        <v>3.40834</v>
       </c>
       <c r="D132" t="n">
-        <v>2.97447</v>
+        <v>2.72946</v>
       </c>
       <c r="E132" t="n">
-        <v>1.3167</v>
+        <v>1.22949</v>
       </c>
       <c r="F132" t="n">
-        <v>4.30651</v>
+        <v>3.9082</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.37465</v>
+        <v>1.27587</v>
       </c>
       <c r="C133" t="n">
-        <v>3.71432</v>
+        <v>3.38564</v>
       </c>
       <c r="D133" t="n">
-        <v>2.96475</v>
+        <v>2.71685</v>
       </c>
       <c r="E133" t="n">
-        <v>1.31358</v>
+        <v>1.22372</v>
       </c>
       <c r="F133" t="n">
-        <v>4.23395</v>
+        <v>3.65304</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3608</v>
+        <v>1.2707</v>
       </c>
       <c r="C134" t="n">
-        <v>3.70282</v>
+        <v>2.05557</v>
       </c>
       <c r="D134" t="n">
-        <v>2.95909</v>
+        <v>2.71387</v>
       </c>
       <c r="E134" t="n">
-        <v>1.30954</v>
+        <v>1.21987</v>
       </c>
       <c r="F134" t="n">
-        <v>4.20045</v>
+        <v>3.153</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.37103</v>
+        <v>1.26342</v>
       </c>
       <c r="C135" t="n">
-        <v>3.67802</v>
+        <v>3.35446</v>
       </c>
       <c r="D135" t="n">
-        <v>5.36026</v>
+        <v>4.8832</v>
       </c>
       <c r="E135" t="n">
-        <v>1.30642</v>
+        <v>1.18902</v>
       </c>
       <c r="F135" t="n">
-        <v>3.41926</v>
+        <v>3.10644</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.3422</v>
+        <v>1.27051</v>
       </c>
       <c r="C136" t="n">
-        <v>3.66999</v>
+        <v>3.33997</v>
       </c>
       <c r="D136" t="n">
-        <v>4.55355</v>
+        <v>4.15233</v>
       </c>
       <c r="E136" t="n">
-        <v>1.27379</v>
+        <v>1.212</v>
       </c>
       <c r="F136" t="n">
-        <v>3.85708</v>
+        <v>3.72654</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.37703</v>
+        <v>1.27343</v>
       </c>
       <c r="C137" t="n">
-        <v>2.68521</v>
+        <v>3.11098</v>
       </c>
       <c r="D137" t="n">
-        <v>5.00236</v>
+        <v>4.53108</v>
       </c>
       <c r="E137" t="n">
-        <v>1.63007</v>
+        <v>1.49853</v>
       </c>
       <c r="F137" t="n">
-        <v>5.6619</v>
+        <v>5.10784</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.6121</v>
+        <v>1.51932</v>
       </c>
       <c r="C138" t="n">
-        <v>4.53483</v>
+        <v>4.13666</v>
       </c>
       <c r="D138" t="n">
-        <v>4.44037</v>
+        <v>4.26734</v>
       </c>
       <c r="E138" t="n">
-        <v>1.59964</v>
+        <v>1.5148</v>
       </c>
       <c r="F138" t="n">
-        <v>5.54807</v>
+        <v>5.01607</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.62398</v>
+        <v>1.49893</v>
       </c>
       <c r="C139" t="n">
-        <v>4.51209</v>
+        <v>4.09821</v>
       </c>
       <c r="D139" t="n">
-        <v>4.14596</v>
+        <v>3.9922</v>
       </c>
       <c r="E139" t="n">
-        <v>1.59259</v>
+        <v>1.50924</v>
       </c>
       <c r="F139" t="n">
-        <v>5.44747</v>
+        <v>4.92901</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.61952</v>
+        <v>1.50965</v>
       </c>
       <c r="C140" t="n">
-        <v>4.45122</v>
+        <v>4.04303</v>
       </c>
       <c r="D140" t="n">
-        <v>4.35524</v>
+        <v>3.95318</v>
       </c>
       <c r="E140" t="n">
-        <v>1.58817</v>
+        <v>1.47669</v>
       </c>
       <c r="F140" t="n">
-        <v>5.35834</v>
+        <v>4.84738</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.59042</v>
+        <v>1.4825</v>
       </c>
       <c r="C141" t="n">
-        <v>4.40993</v>
+        <v>4.00488</v>
       </c>
       <c r="D141" t="n">
-        <v>4.05879</v>
+        <v>3.68855</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58476</v>
+        <v>1.49482</v>
       </c>
       <c r="F141" t="n">
-        <v>5.2639</v>
+        <v>4.75282</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.59265</v>
+        <v>1.48794</v>
       </c>
       <c r="C142" t="n">
-        <v>4.36113</v>
+        <v>3.95544</v>
       </c>
       <c r="D142" t="n">
-        <v>3.49807</v>
+        <v>3.19516</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58157</v>
+        <v>1.46617</v>
       </c>
       <c r="F142" t="n">
-        <v>5.16899</v>
+        <v>4.67393</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.59832</v>
+        <v>1.47435</v>
       </c>
       <c r="C143" t="n">
-        <v>4.32147</v>
+        <v>3.91825</v>
       </c>
       <c r="D143" t="n">
-        <v>3.45977</v>
+        <v>3.15674</v>
       </c>
       <c r="E143" t="n">
-        <v>1.57948</v>
+        <v>1.46197</v>
       </c>
       <c r="F143" t="n">
-        <v>5.09254</v>
+        <v>4.60407</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578945</v>
+        <v>0.5808990000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.777955</v>
+        <v>0.774246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.839577</v>
+        <v>0.838522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564972</v>
+        <v>0.566115</v>
       </c>
       <c r="F2" t="n">
-        <v>0.810456</v>
+        <v>0.811535</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561191</v>
+        <v>0.560568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768906</v>
+        <v>0.770092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.831166</v>
+        <v>0.827613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552146</v>
+        <v>0.552477</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793724</v>
+        <v>0.792496</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551453</v>
+        <v>0.549193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761301</v>
+        <v>0.758738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.823762</v>
+        <v>0.819919</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538936</v>
+        <v>0.539814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7790589999999999</v>
+        <v>0.775572</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541463</v>
+        <v>0.540887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7505810000000001</v>
+        <v>0.7493840000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.867102</v>
+        <v>0.866343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.52728</v>
+        <v>0.528654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.762497</v>
+        <v>0.76213</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534957</v>
+        <v>0.532455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.742733</v>
+        <v>0.741569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.807443</v>
+        <v>0.808333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517355</v>
+        <v>0.559937</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75015</v>
+        <v>0.751275</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527718</v>
+        <v>0.482497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738226</v>
+        <v>0.737808</v>
       </c>
       <c r="D7" t="n">
-        <v>0.926841</v>
+        <v>0.91999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.509372</v>
+        <v>0.50968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.741707</v>
+        <v>0.740506</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523765</v>
+        <v>0.482114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.738002</v>
+        <v>0.735102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.905394</v>
+        <v>0.905841</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503012</v>
+        <v>0.504185</v>
       </c>
       <c r="F8" t="n">
-        <v>0.734347</v>
+        <v>0.7343150000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255609999999999</v>
+        <v>0.484286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737313</v>
+        <v>0.736755</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888393</v>
+        <v>0.8857429999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760336</v>
+        <v>0.760806</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01089</v>
+        <v>1.0119</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6762860000000001</v>
+        <v>0.677712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899665</v>
+        <v>0.8984259999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.873133</v>
+        <v>0.872042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737093</v>
+        <v>0.7377629999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985406</v>
+        <v>0.986482</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653654</v>
+        <v>0.6529430000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.880667</v>
+        <v>0.88031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858518</v>
+        <v>0.856927</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715889</v>
+        <v>0.715773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965355</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635395</v>
+        <v>0.633571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.863168</v>
+        <v>0.86547</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843932</v>
+        <v>0.8421729999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.695515</v>
+        <v>0.6958299999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.939678</v>
+        <v>0.940005</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619827</v>
+        <v>0.617092</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848094</v>
+        <v>0.84871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831947</v>
+        <v>0.828301</v>
       </c>
       <c r="E13" t="n">
-        <v>0.676133</v>
+        <v>0.676217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916334</v>
+        <v>0.91859</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600864</v>
+        <v>0.599013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.831952</v>
+        <v>0.831182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.81735</v>
+        <v>0.8148069999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.657255</v>
+        <v>0.6581900000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893344</v>
+        <v>0.893162</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.591224</v>
+        <v>0.58253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.816922</v>
+        <v>0.813532</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8068380000000001</v>
+        <v>0.8062049999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6400749999999999</v>
+        <v>0.639938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871509</v>
+        <v>0.871009</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569161</v>
+        <v>0.5779069999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801168</v>
+        <v>0.801164</v>
       </c>
       <c r="D16" t="n">
-        <v>0.797423</v>
+        <v>0.796368</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62368</v>
+        <v>0.623788</v>
       </c>
       <c r="F16" t="n">
-        <v>0.851644</v>
+        <v>0.850921</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560173</v>
+        <v>0.559702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7876</v>
+        <v>0.789602</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785624</v>
+        <v>0.785685</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608329</v>
+        <v>0.6088519999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8642069999999999</v>
+        <v>0.860463</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54938</v>
+        <v>0.547825</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780049</v>
+        <v>0.779836</v>
       </c>
       <c r="D18" t="n">
-        <v>0.779042</v>
+        <v>0.777975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594433</v>
+        <v>0.594615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.847065</v>
+        <v>0.84395</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538171</v>
+        <v>0.535851</v>
       </c>
       <c r="C19" t="n">
-        <v>0.768107</v>
+        <v>0.768944</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7701210000000001</v>
+        <v>0.770582</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581197</v>
+        <v>0.581616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.831359</v>
+        <v>0.828563</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529539</v>
+        <v>0.530315</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762468</v>
+        <v>0.761042</v>
       </c>
       <c r="D20" t="n">
-        <v>0.762538</v>
+        <v>0.761469</v>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>0.570234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.817972</v>
+        <v>0.8142509999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523358</v>
+        <v>0.524339</v>
       </c>
       <c r="C21" t="n">
-        <v>0.756655</v>
+        <v>0.755719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989892</v>
+        <v>0.9908439999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.560911</v>
+        <v>0.561204</v>
       </c>
       <c r="F21" t="n">
-        <v>0.811808</v>
+        <v>0.809635</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543504</v>
+        <v>0.5170360000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753754</v>
+        <v>0.752422</v>
       </c>
       <c r="D22" t="n">
-        <v>0.969093</v>
+        <v>0.969067</v>
       </c>
       <c r="E22" t="n">
-        <v>0.554107</v>
+        <v>0.553967</v>
       </c>
       <c r="F22" t="n">
-        <v>0.802963</v>
+        <v>0.801295</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517083</v>
+        <v>0.517276</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75027</v>
+        <v>0.751568</v>
       </c>
       <c r="D23" t="n">
-        <v>0.952606</v>
+        <v>0.949075</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818675</v>
+        <v>0.8182199999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08801</v>
+        <v>1.08753</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.681482</v>
+        <v>0.683856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.93862</v>
+        <v>0.937253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.933874</v>
+        <v>0.930662</v>
       </c>
       <c r="E24" t="n">
-        <v>0.792855</v>
+        <v>0.793741</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05914</v>
+        <v>1.05912</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.666611</v>
+        <v>0.661989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.916972</v>
+        <v>0.9157149999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9185219999999999</v>
+        <v>0.918408</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769389</v>
+        <v>0.7700900000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03112</v>
+        <v>1.03153</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6473179999999999</v>
+        <v>0.645996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896556</v>
+        <v>0.89719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899648</v>
+        <v>0.899641</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746775</v>
+        <v>0.7468590000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00949</v>
+        <v>1.00898</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.663507</v>
+        <v>0.6622749999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.878578</v>
+        <v>0.879051</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8847390000000001</v>
+        <v>0.8839129999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725227</v>
+        <v>0.725495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.983803</v>
+        <v>0.983171</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642266</v>
+        <v>0.641885</v>
       </c>
       <c r="C28" t="n">
-        <v>0.860191</v>
+        <v>0.859231</v>
       </c>
       <c r="D28" t="n">
-        <v>0.869023</v>
+        <v>0.870121</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.704285</v>
       </c>
       <c r="F28" t="n">
-        <v>0.96217</v>
+        <v>0.961571</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624883</v>
+        <v>0.624779</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84295</v>
+        <v>0.845155</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866395</v>
+        <v>0.8627899999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684581</v>
+        <v>0.684607</v>
       </c>
       <c r="F29" t="n">
-        <v>0.944242</v>
+        <v>0.941551</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60904</v>
+        <v>0.6104349999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847733</v>
+        <v>0.84718</v>
       </c>
       <c r="D30" t="n">
-        <v>0.853972</v>
+        <v>0.852789</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666131</v>
+        <v>0.66659</v>
       </c>
       <c r="F30" t="n">
-        <v>0.920611</v>
+        <v>0.918608</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595611</v>
+        <v>0.59511</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833983</v>
+        <v>0.834453</v>
       </c>
       <c r="D31" t="n">
-        <v>0.841808</v>
+        <v>0.8413580000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.648764</v>
+        <v>0.648957</v>
       </c>
       <c r="F31" t="n">
-        <v>0.899454</v>
+        <v>0.897894</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811269999999999</v>
+        <v>0.581126</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824192</v>
+        <v>0.822044</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8358950000000001</v>
+        <v>0.835259</v>
       </c>
       <c r="E32" t="n">
-        <v>0.632809</v>
+        <v>0.63275</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881498</v>
+        <v>0.878145</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570567</v>
+        <v>0.569312</v>
       </c>
       <c r="C33" t="n">
-        <v>0.814344</v>
+        <v>0.811911</v>
       </c>
       <c r="D33" t="n">
-        <v>0.827259</v>
+        <v>0.8266520000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.618401</v>
+        <v>0.618196</v>
       </c>
       <c r="F33" t="n">
-        <v>0.862242</v>
+        <v>0.860662</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56001</v>
+        <v>0.559346</v>
       </c>
       <c r="C34" t="n">
-        <v>0.780455</v>
+        <v>0.784168</v>
       </c>
       <c r="D34" t="n">
-        <v>0.816309</v>
+        <v>0.818475</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6050990000000001</v>
+        <v>0.604306</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8461610000000001</v>
+        <v>0.844669</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551972</v>
+        <v>0.5533169999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778699</v>
+        <v>0.782046</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06944</v>
+        <v>1.07445</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5730499999999999</v>
+        <v>0.573191</v>
       </c>
       <c r="F35" t="n">
-        <v>0.832548</v>
+        <v>0.830447</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543432</v>
+        <v>0.526671</v>
       </c>
       <c r="C36" t="n">
-        <v>0.771825</v>
+        <v>0.77673</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05229</v>
+        <v>1.05253</v>
       </c>
       <c r="E36" t="n">
-        <v>0.583402</v>
+        <v>0.56447</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821764</v>
+        <v>0.819889</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523994</v>
+        <v>0.542408</v>
       </c>
       <c r="C37" t="n">
-        <v>0.766075</v>
+        <v>0.769276</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02137</v>
+        <v>1.03008</v>
       </c>
       <c r="E37" t="n">
-        <v>0.833634</v>
+        <v>0.850639</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37803</v>
+        <v>1.37678</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736918</v>
+        <v>0.75403</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18611</v>
+        <v>1.18449</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00584</v>
+        <v>1.00965</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8088</v>
+        <v>0.825149</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3475</v>
+        <v>1.34589</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712777</v>
+        <v>0.7329059999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1655</v>
+        <v>1.16444</v>
       </c>
       <c r="D39" t="n">
-        <v>0.98872</v>
+        <v>0.987783</v>
       </c>
       <c r="E39" t="n">
-        <v>0.784267</v>
+        <v>0.7853059999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31647</v>
+        <v>1.31655</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710164</v>
+        <v>0.709396</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14561</v>
+        <v>1.14334</v>
       </c>
       <c r="D40" t="n">
-        <v>0.971569</v>
+        <v>0.970471</v>
       </c>
       <c r="E40" t="n">
-        <v>0.761387</v>
+        <v>0.776652</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28896</v>
+        <v>1.28849</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.67462</v>
+        <v>0.671897</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12844</v>
+        <v>1.12674</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9561539999999999</v>
+        <v>0.953884</v>
       </c>
       <c r="E41" t="n">
-        <v>0.740115</v>
+        <v>0.740416</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26112</v>
+        <v>1.2602</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653282</v>
+        <v>0.653592</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10987</v>
+        <v>1.10834</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939369</v>
+        <v>0.939994</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719585</v>
+        <v>0.691284</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23684</v>
+        <v>1.23545</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653292</v>
+        <v>0.638539</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0937</v>
+        <v>1.09266</v>
       </c>
       <c r="D43" t="n">
-        <v>0.925658</v>
+        <v>0.925226</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699701</v>
+        <v>0.699802</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21258</v>
+        <v>1.21242</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.619232</v>
+        <v>0.621493</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07876</v>
+        <v>1.07777</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912257</v>
+        <v>0.912391</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681382</v>
+        <v>0.680797</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18934</v>
+        <v>1.18781</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6216660000000001</v>
+        <v>0.606868</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06613</v>
+        <v>1.06247</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902527</v>
+        <v>0.902649</v>
       </c>
       <c r="E45" t="n">
-        <v>0.640358</v>
+        <v>0.663509</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16823</v>
+        <v>1.16858</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592971</v>
+        <v>0.592576</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05255</v>
+        <v>1.0499</v>
       </c>
       <c r="D46" t="n">
-        <v>0.890896</v>
+        <v>0.89206</v>
       </c>
       <c r="E46" t="n">
-        <v>0.647135</v>
+        <v>0.646557</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14824</v>
+        <v>1.14582</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.580769</v>
+        <v>0.579284</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04026</v>
+        <v>1.04056</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885104</v>
+        <v>0.884979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.63196</v>
+        <v>0.631504</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12904</v>
+        <v>1.12778</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572925</v>
+        <v>0.57222</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02949</v>
+        <v>1.02829</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8758320000000001</v>
+        <v>0.876714</v>
       </c>
       <c r="E48" t="n">
-        <v>0.618397</v>
+        <v>0.617436</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11215</v>
+        <v>1.11155</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575179</v>
+        <v>0.56086</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02301</v>
+        <v>1.02229</v>
       </c>
       <c r="D49" t="n">
-        <v>0.87074</v>
+        <v>0.870077</v>
       </c>
       <c r="E49" t="n">
-        <v>0.586457</v>
+        <v>0.605108</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09699</v>
+        <v>1.09531</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.556882</v>
+        <v>0.556872</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01767</v>
+        <v>1.01498</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11552</v>
+        <v>1.11633</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577457</v>
+        <v>0.594912</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08197</v>
+        <v>1.08227</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5517649999999999</v>
+        <v>0.531065</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01346</v>
+        <v>1.01276</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09269</v>
+        <v>1.093</v>
       </c>
       <c r="E51" t="n">
-        <v>0.863727</v>
+        <v>0.875584</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4549</v>
+        <v>1.4619</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551859</v>
+        <v>0.550528</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01523</v>
+        <v>1.01391</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0712</v>
+        <v>1.0701</v>
       </c>
       <c r="E52" t="n">
-        <v>0.838862</v>
+        <v>0.849827</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42159</v>
+        <v>1.43023</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7504189999999999</v>
+        <v>0.75493</v>
       </c>
       <c r="C53" t="n">
-        <v>1.2153</v>
+        <v>1.21432</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04855</v>
+        <v>1.04805</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8274550000000001</v>
+        <v>0.815824</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38829</v>
+        <v>1.39218</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735606</v>
+        <v>0.7265509999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19383</v>
+        <v>1.19395</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03278</v>
+        <v>1.02985</v>
       </c>
       <c r="E54" t="n">
-        <v>0.803524</v>
+        <v>0.7906530000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35994</v>
+        <v>1.36668</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.710759</v>
+        <v>0.704277</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17504</v>
+        <v>1.17331</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01246</v>
+        <v>1.01294</v>
       </c>
       <c r="E55" t="n">
-        <v>0.770278</v>
+        <v>0.767306</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32944</v>
+        <v>1.33691</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692178</v>
+        <v>0.684083</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15581</v>
+        <v>1.15472</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9968050000000001</v>
+        <v>0.994408</v>
       </c>
       <c r="E56" t="n">
-        <v>0.749043</v>
+        <v>0.74735</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30299</v>
+        <v>1.30908</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674092</v>
+        <v>0.670716</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1399</v>
+        <v>1.13778</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981193</v>
+        <v>0.979247</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7310140000000001</v>
+        <v>0.736574</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27815</v>
+        <v>1.27946</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664422</v>
+        <v>0.658938</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12269</v>
+        <v>1.12169</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969372</v>
+        <v>0.9663929999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711004</v>
+        <v>0.708992</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25073</v>
+        <v>1.25857</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64124</v>
+        <v>0.64242</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10858</v>
+        <v>1.108</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948706</v>
+        <v>0.94785</v>
       </c>
       <c r="E59" t="n">
-        <v>0.666104</v>
+        <v>0.663002</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22967</v>
+        <v>1.23395</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.627595</v>
+        <v>0.62576</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09491</v>
+        <v>1.09496</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93933</v>
+        <v>0.938164</v>
       </c>
       <c r="E60" t="n">
-        <v>0.675085</v>
+        <v>0.647377</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20621</v>
+        <v>1.21176</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614029</v>
+        <v>0.61925</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08407</v>
+        <v>1.0833</v>
       </c>
       <c r="D61" t="n">
-        <v>0.929284</v>
+        <v>0.92739</v>
       </c>
       <c r="E61" t="n">
-        <v>0.63654</v>
+        <v>0.634279</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18527</v>
+        <v>1.19049</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607531</v>
+        <v>0.579554</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07455</v>
+        <v>1.07209</v>
       </c>
       <c r="D62" t="n">
-        <v>0.919617</v>
+        <v>0.918211</v>
       </c>
       <c r="E62" t="n">
-        <v>0.645849</v>
+        <v>0.645039</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16768</v>
+        <v>1.17201</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600247</v>
+        <v>0.591649</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06484</v>
+        <v>1.0642</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9084370000000001</v>
+        <v>0.908659</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610885</v>
+        <v>0.610103</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15126</v>
+        <v>1.15604</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.586382</v>
+        <v>0.587471</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05884</v>
+        <v>1.06144</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19335</v>
+        <v>1.19861</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623261</v>
+        <v>0.623053</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13627</v>
+        <v>1.14124</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.581714</v>
+        <v>0.58552</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05516</v>
+        <v>1.0539</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17073</v>
+        <v>1.17151</v>
       </c>
       <c r="E65" t="n">
-        <v>0.615559</v>
+        <v>0.616444</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12607</v>
+        <v>1.13101</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580363</v>
+        <v>0.582817</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05505</v>
+        <v>1.05524</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13766</v>
+        <v>1.14388</v>
       </c>
       <c r="E66" t="n">
-        <v>0.909761</v>
+        <v>0.90885</v>
       </c>
       <c r="F66" t="n">
-        <v>1.50085</v>
+        <v>1.5254</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.828461</v>
+        <v>0.822562</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2815</v>
+        <v>1.29673</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10789</v>
+        <v>1.11618</v>
       </c>
       <c r="E67" t="n">
-        <v>0.874743</v>
+        <v>0.892429</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46805</v>
+        <v>1.48276</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.806863</v>
+        <v>0.81588</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26156</v>
+        <v>1.27263</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08707</v>
+        <v>1.09379</v>
       </c>
       <c r="E68" t="n">
-        <v>0.853703</v>
+        <v>0.869913</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43868</v>
+        <v>1.45159</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7880819999999999</v>
+        <v>0.803825</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24224</v>
+        <v>1.2532</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06951</v>
+        <v>1.07427</v>
       </c>
       <c r="E69" t="n">
-        <v>0.843563</v>
+        <v>0.848291</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41695</v>
+        <v>1.41388</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.776046</v>
+        <v>0.778768</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23481</v>
+        <v>1.23927</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05315</v>
+        <v>1.0602</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81177</v>
+        <v>0.825924</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38741</v>
+        <v>1.39416</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76677</v>
+        <v>0.766748</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22024</v>
+        <v>1.22544</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02362</v>
+        <v>1.02777</v>
       </c>
       <c r="E71" t="n">
-        <v>0.79226</v>
+        <v>0.8050890000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36539</v>
+        <v>1.37376</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744466</v>
+        <v>0.750941</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20471</v>
+        <v>1.22315</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01309</v>
+        <v>1.01956</v>
       </c>
       <c r="E72" t="n">
-        <v>0.771702</v>
+        <v>0.785336</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34323</v>
+        <v>1.36006</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.730315</v>
+        <v>0.745923</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19652</v>
+        <v>1.2062</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00466</v>
+        <v>1.00804</v>
       </c>
       <c r="E73" t="n">
-        <v>0.752695</v>
+        <v>0.76566</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32944</v>
+        <v>1.3343</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.712638</v>
+        <v>0.723637</v>
       </c>
       <c r="C74" t="n">
-        <v>1.1925</v>
+        <v>1.19837</v>
       </c>
       <c r="D74" t="n">
-        <v>0.990823</v>
+        <v>0.993095</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7348209999999999</v>
+        <v>0.747455</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31111</v>
+        <v>1.31624</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692535</v>
+        <v>0.716776</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18726</v>
+        <v>1.18997</v>
       </c>
       <c r="D75" t="n">
-        <v>0.985135</v>
+        <v>0.987919</v>
       </c>
       <c r="E75" t="n">
-        <v>0.717469</v>
+        <v>0.70017</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29574</v>
+        <v>1.30283</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.690912</v>
+        <v>0.702889</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18038</v>
+        <v>1.19038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979475</v>
+        <v>0.984073</v>
       </c>
       <c r="E76" t="n">
-        <v>0.671296</v>
+        <v>0.714387</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28393</v>
+        <v>1.29523</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679749</v>
+        <v>0.693483</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18405</v>
+        <v>1.2015</v>
       </c>
       <c r="D77" t="n">
-        <v>0.971542</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.687662</v>
+        <v>0.673145</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27394</v>
+        <v>1.29441</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663251</v>
+        <v>0.669141</v>
       </c>
       <c r="C78" t="n">
-        <v>0.915733</v>
+        <v>1.20354</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44172</v>
+        <v>1.48387</v>
       </c>
       <c r="E78" t="n">
-        <v>0.648093</v>
+        <v>0.661258</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27133</v>
+        <v>1.29941</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659977</v>
+        <v>0.670311</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18123</v>
+        <v>1.22171</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40853</v>
+        <v>1.45511</v>
       </c>
       <c r="E79" t="n">
-        <v>0.640089</v>
+        <v>0.653739</v>
       </c>
       <c r="F79" t="n">
-        <v>1.262</v>
+        <v>1.298</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.646414</v>
+        <v>0.6391019999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18678</v>
+        <v>1.23416</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37663</v>
+        <v>1.41795</v>
       </c>
       <c r="E80" t="n">
-        <v>0.977612</v>
+        <v>0.98769</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94413</v>
+        <v>2.01309</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.902752</v>
+        <v>0.928179</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69256</v>
+        <v>1.77066</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34091</v>
+        <v>1.37684</v>
       </c>
       <c r="E81" t="n">
-        <v>0.944515</v>
+        <v>0.987907</v>
       </c>
       <c r="F81" t="n">
-        <v>1.92971</v>
+        <v>2.0051</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9017269999999999</v>
+        <v>0.901825</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70832</v>
+        <v>1.7774</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31956</v>
+        <v>1.3588</v>
       </c>
       <c r="E82" t="n">
-        <v>0.945915</v>
+        <v>0.970975</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91378</v>
+        <v>2.00397</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.888181</v>
+        <v>0.928795</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69766</v>
+        <v>1.78907</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29945</v>
+        <v>1.33943</v>
       </c>
       <c r="E83" t="n">
-        <v>0.910839</v>
+        <v>0.939689</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90201</v>
+        <v>1.98916</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882795</v>
+        <v>0.905426</v>
       </c>
       <c r="C84" t="n">
-        <v>1.70276</v>
+        <v>1.79855</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2862</v>
+        <v>1.32913</v>
       </c>
       <c r="E84" t="n">
-        <v>0.891394</v>
+        <v>0.921937</v>
       </c>
       <c r="F84" t="n">
-        <v>1.87741</v>
+        <v>1.97425</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.873467</v>
+        <v>0.890489</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70249</v>
+        <v>1.78778</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24737</v>
+        <v>1.28519</v>
       </c>
       <c r="E85" t="n">
-        <v>0.871479</v>
+        <v>0.897922</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87663</v>
+        <v>1.95166</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851044</v>
+        <v>0.874355</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71091</v>
+        <v>1.78429</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24128</v>
+        <v>1.27704</v>
       </c>
       <c r="E86" t="n">
-        <v>0.854048</v>
+        <v>0.879482</v>
       </c>
       <c r="F86" t="n">
-        <v>1.84882</v>
+        <v>1.94737</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.842668</v>
+        <v>0.863043</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70851</v>
+        <v>1.79262</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23604</v>
+        <v>1.27137</v>
       </c>
       <c r="E87" t="n">
-        <v>0.793293</v>
+        <v>0.82201</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86212</v>
+        <v>1.93284</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.83203</v>
+        <v>0.8395089999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7154</v>
+        <v>1.79369</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23036</v>
+        <v>1.27013</v>
       </c>
       <c r="E88" t="n">
-        <v>0.815468</v>
+        <v>0.804038</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85231</v>
+        <v>1.93791</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809331</v>
+        <v>0.834889</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72687</v>
+        <v>1.81419</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23492</v>
+        <v>1.2727</v>
       </c>
       <c r="E89" t="n">
-        <v>0.798683</v>
+        <v>0.821303</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85601</v>
+        <v>1.93953</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794862</v>
+        <v>0.829048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73738</v>
+        <v>1.83924</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23943</v>
+        <v>1.28128</v>
       </c>
       <c r="E90" t="n">
-        <v>0.780344</v>
+        <v>0.80257</v>
       </c>
       <c r="F90" t="n">
-        <v>1.85873</v>
+        <v>1.9523</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79195</v>
+        <v>0.82252</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75186</v>
+        <v>1.85207</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24009</v>
+        <v>1.27927</v>
       </c>
       <c r="E91" t="n">
-        <v>0.730885</v>
+        <v>0.755848</v>
       </c>
       <c r="F91" t="n">
-        <v>1.87179</v>
+        <v>1.96552</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78806</v>
+        <v>0.801264</v>
       </c>
       <c r="C92" t="n">
-        <v>1.57397</v>
+        <v>1.7758</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59804</v>
+        <v>2.76975</v>
       </c>
       <c r="E92" t="n">
-        <v>0.751381</v>
+        <v>0.744169</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86149</v>
+        <v>1.96558</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.756065</v>
+        <v>0.795668</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19126</v>
+        <v>1.89236</v>
       </c>
       <c r="D93" t="n">
-        <v>2.25703</v>
+        <v>2.78583</v>
       </c>
       <c r="E93" t="n">
-        <v>0.709817</v>
+        <v>0.759813</v>
       </c>
       <c r="F93" t="n">
-        <v>1.87588</v>
+        <v>1.98714</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7819739999999999</v>
+        <v>0.767615</v>
       </c>
       <c r="C94" t="n">
-        <v>1.82163</v>
+        <v>1.91188</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23865</v>
+        <v>2.37539</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06236</v>
+        <v>1.09091</v>
       </c>
       <c r="F94" t="n">
-        <v>2.94124</v>
+        <v>3.16428</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04597</v>
+        <v>1.05483</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50674</v>
+        <v>2.67615</v>
       </c>
       <c r="D95" t="n">
-        <v>2.35046</v>
+        <v>2.37223</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0252</v>
+        <v>1.08223</v>
       </c>
       <c r="F95" t="n">
-        <v>2.9196</v>
+        <v>3.12787</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02645</v>
+        <v>1.06037</v>
       </c>
       <c r="C96" t="n">
-        <v>2.50693</v>
+        <v>2.6796</v>
       </c>
       <c r="D96" t="n">
-        <v>2.47816</v>
+        <v>2.57195</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0375</v>
+        <v>1.04324</v>
       </c>
       <c r="F96" t="n">
-        <v>2.87694</v>
+        <v>3.08748</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02291</v>
+        <v>1.05673</v>
       </c>
       <c r="C97" t="n">
-        <v>2.49533</v>
+        <v>2.68375</v>
       </c>
       <c r="D97" t="n">
-        <v>2.33804</v>
+        <v>2.71806</v>
       </c>
       <c r="E97" t="n">
-        <v>1.01874</v>
+        <v>1.05153</v>
       </c>
       <c r="F97" t="n">
-        <v>2.84224</v>
+        <v>3.04768</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01467</v>
+        <v>1.02058</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48121</v>
+        <v>2.66162</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12482</v>
+        <v>2.19111</v>
       </c>
       <c r="E98" t="n">
-        <v>0.977468</v>
+        <v>1.01136</v>
       </c>
       <c r="F98" t="n">
-        <v>2.81805</v>
+        <v>2.99569</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9658949999999999</v>
+        <v>1.01534</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46789</v>
+        <v>2.62975</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74476</v>
+        <v>1.85671</v>
       </c>
       <c r="E99" t="n">
-        <v>0.961076</v>
+        <v>0.995093</v>
       </c>
       <c r="F99" t="n">
-        <v>2.76768</v>
+        <v>2.97482</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.972756</v>
+        <v>1.00696</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44529</v>
+        <v>2.61883</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72652</v>
+        <v>2.00031</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9464669999999999</v>
+        <v>0.978812</v>
       </c>
       <c r="F100" t="n">
-        <v>2.74154</v>
+        <v>2.933</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967247</v>
+        <v>1.00152</v>
       </c>
       <c r="C101" t="n">
-        <v>2.43288</v>
+        <v>2.59313</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71766</v>
+        <v>1.83229</v>
       </c>
       <c r="E101" t="n">
-        <v>0.888662</v>
+        <v>0.964968</v>
       </c>
       <c r="F101" t="n">
-        <v>2.70845</v>
+        <v>2.88629</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958162</v>
+        <v>0.996214</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4177</v>
+        <v>2.60374</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71562</v>
+        <v>1.83164</v>
       </c>
       <c r="E102" t="n">
-        <v>0.876199</v>
+        <v>0.9137150000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6875</v>
+        <v>1.78581</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.925603</v>
+        <v>0.961161</v>
       </c>
       <c r="C103" t="n">
-        <v>2.39044</v>
+        <v>2.41363</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72266</v>
+        <v>1.82973</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9030280000000001</v>
+        <v>0.937431</v>
       </c>
       <c r="F103" t="n">
-        <v>1.64207</v>
+        <v>2.6691</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.899645</v>
+        <v>0.986669</v>
       </c>
       <c r="C104" t="n">
-        <v>2.06345</v>
+        <v>2.56931</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72749</v>
+        <v>1.83498</v>
       </c>
       <c r="E104" t="n">
-        <v>0.852386</v>
+        <v>0.924808</v>
       </c>
       <c r="F104" t="n">
-        <v>1.59879</v>
+        <v>2.80667</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.898475</v>
+        <v>0.97055</v>
       </c>
       <c r="C105" t="n">
-        <v>1.5552</v>
+        <v>2.54018</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72478</v>
+        <v>1.83054</v>
       </c>
       <c r="E105" t="n">
-        <v>0.843021</v>
+        <v>0.912815</v>
       </c>
       <c r="F105" t="n">
-        <v>1.56107</v>
+        <v>2.78992</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9007540000000001</v>
+        <v>0.980457</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37157</v>
+        <v>2.55194</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72959</v>
+        <v>1.83916</v>
       </c>
       <c r="E106" t="n">
-        <v>0.833892</v>
+        <v>0.870548</v>
       </c>
       <c r="F106" t="n">
-        <v>1.53719</v>
+        <v>2.58336</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943306</v>
+        <v>0.968704</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35872</v>
+        <v>1.79062</v>
       </c>
       <c r="D107" t="n">
-        <v>3.52198</v>
+        <v>3.79938</v>
       </c>
       <c r="E107" t="n">
-        <v>0.858177</v>
+        <v>0.866083</v>
       </c>
       <c r="F107" t="n">
-        <v>1.50021</v>
+        <v>1.58798</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897498</v>
+        <v>0.953841</v>
       </c>
       <c r="C108" t="n">
-        <v>2.37914</v>
+        <v>2.36404</v>
       </c>
       <c r="D108" t="n">
-        <v>3.33197</v>
+        <v>3.58685</v>
       </c>
       <c r="E108" t="n">
-        <v>1.15028</v>
+        <v>1.22037</v>
       </c>
       <c r="F108" t="n">
-        <v>3.78878</v>
+        <v>4.11539</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.909695</v>
+        <v>0.978849</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49619</v>
+        <v>1.36764</v>
       </c>
       <c r="D109" t="n">
-        <v>3.47584</v>
+        <v>3.17852</v>
       </c>
       <c r="E109" t="n">
-        <v>1.17423</v>
+        <v>1.21906</v>
       </c>
       <c r="F109" t="n">
-        <v>3.75683</v>
+        <v>4.10202</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17957</v>
+        <v>1.23758</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11847</v>
+        <v>3.37746</v>
       </c>
       <c r="D110" t="n">
-        <v>2.73031</v>
+        <v>3.15429</v>
       </c>
       <c r="E110" t="n">
-        <v>1.16019</v>
+        <v>1.18136</v>
       </c>
       <c r="F110" t="n">
-        <v>3.68574</v>
+        <v>4.00698</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1777</v>
+        <v>1.21988</v>
       </c>
       <c r="C111" t="n">
-        <v>3.0766</v>
+        <v>3.32883</v>
       </c>
       <c r="D111" t="n">
-        <v>2.8993</v>
+        <v>3.33263</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12037</v>
+        <v>1.16689</v>
       </c>
       <c r="F111" t="n">
-        <v>3.64655</v>
+        <v>3.96775</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17225</v>
+        <v>1.20414</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07165</v>
+        <v>3.31246</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52207</v>
+        <v>2.70921</v>
       </c>
       <c r="E112" t="n">
-        <v>1.13023</v>
+        <v>1.17843</v>
       </c>
       <c r="F112" t="n">
-        <v>3.58407</v>
+        <v>3.88515</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14524</v>
+        <v>1.17624</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03778</v>
+        <v>3.28251</v>
       </c>
       <c r="D113" t="n">
-        <v>2.29429</v>
+        <v>2.48456</v>
       </c>
       <c r="E113" t="n">
-        <v>1.09319</v>
+        <v>1.14402</v>
       </c>
       <c r="F113" t="n">
-        <v>3.52641</v>
+        <v>3.8288</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12364</v>
+        <v>1.17629</v>
       </c>
       <c r="C114" t="n">
-        <v>3.01141</v>
+        <v>3.26364</v>
       </c>
       <c r="D114" t="n">
-        <v>2.47728</v>
+        <v>2.68123</v>
       </c>
       <c r="E114" t="n">
-        <v>1.10338</v>
+        <v>1.13184</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47611</v>
+        <v>3.77947</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12807</v>
+        <v>1.17164</v>
       </c>
       <c r="C115" t="n">
-        <v>3.00056</v>
+        <v>3.22494</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47817</v>
+        <v>2.4487</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06957</v>
+        <v>1.12198</v>
       </c>
       <c r="F115" t="n">
-        <v>3.42783</v>
+        <v>3.7394</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11637</v>
+        <v>1.15652</v>
       </c>
       <c r="C116" t="n">
-        <v>2.96175</v>
+        <v>3.22659</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46635</v>
+        <v>2.43698</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05955</v>
+        <v>1.11317</v>
       </c>
       <c r="F116" t="n">
-        <v>3.36508</v>
+        <v>3.69278</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10606</v>
+        <v>1.15373</v>
       </c>
       <c r="C117" t="n">
-        <v>2.94734</v>
+        <v>3.20437</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25639</v>
+        <v>2.42979</v>
       </c>
       <c r="E117" t="n">
-        <v>1.01194</v>
+        <v>1.10343</v>
       </c>
       <c r="F117" t="n">
-        <v>3.13665</v>
+        <v>2.98595</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09748</v>
+        <v>1.16313</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92198</v>
+        <v>3.18773</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25601</v>
+        <v>2.42556</v>
       </c>
       <c r="E118" t="n">
-        <v>1.04057</v>
+        <v>1.09463</v>
       </c>
       <c r="F118" t="n">
-        <v>3.29461</v>
+        <v>3.37791</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09279</v>
+        <v>1.14883</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91153</v>
+        <v>3.1757</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25158</v>
+        <v>2.43063</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9984769999999999</v>
+        <v>1.0874</v>
       </c>
       <c r="F119" t="n">
-        <v>3.25361</v>
+        <v>3.55314</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08284</v>
+        <v>1.15103</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90405</v>
+        <v>3.16513</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25159</v>
+        <v>2.43122</v>
       </c>
       <c r="E120" t="n">
-        <v>1.02447</v>
+        <v>1.0503</v>
       </c>
       <c r="F120" t="n">
-        <v>2.81385</v>
+        <v>3.49385</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09384</v>
+        <v>1.14548</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8854</v>
+        <v>3.13774</v>
       </c>
       <c r="D121" t="n">
-        <v>4.28566</v>
+        <v>4.67468</v>
       </c>
       <c r="E121" t="n">
-        <v>0.986803</v>
+        <v>1.07553</v>
       </c>
       <c r="F121" t="n">
-        <v>2.98845</v>
+        <v>3.26733</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.04463</v>
+        <v>1.13661</v>
       </c>
       <c r="C122" t="n">
-        <v>2.88915</v>
+        <v>2.90266</v>
       </c>
       <c r="D122" t="n">
-        <v>3.83575</v>
+        <v>4.62247</v>
       </c>
       <c r="E122" t="n">
-        <v>0.982499</v>
+        <v>1.068</v>
       </c>
       <c r="F122" t="n">
-        <v>2.54162</v>
+        <v>3.44841</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08658</v>
+        <v>1.17174</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6632</v>
+        <v>2.2262</v>
       </c>
       <c r="D123" t="n">
-        <v>4.19002</v>
+        <v>4.58825</v>
       </c>
       <c r="E123" t="n">
-        <v>1.33</v>
+        <v>1.37598</v>
       </c>
       <c r="F123" t="n">
-        <v>4.46281</v>
+        <v>4.91486</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34986</v>
+        <v>1.39716</v>
       </c>
       <c r="C124" t="n">
-        <v>3.64295</v>
+        <v>3.98333</v>
       </c>
       <c r="D124" t="n">
-        <v>3.94945</v>
+        <v>4.10637</v>
       </c>
       <c r="E124" t="n">
-        <v>1.29233</v>
+        <v>1.39038</v>
       </c>
       <c r="F124" t="n">
-        <v>4.39732</v>
+        <v>4.83881</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33568</v>
+        <v>1.4141</v>
       </c>
       <c r="C125" t="n">
-        <v>3.61675</v>
+        <v>3.93799</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30026</v>
+        <v>3.59926</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28112</v>
+        <v>1.35777</v>
       </c>
       <c r="F125" t="n">
-        <v>4.33468</v>
+        <v>4.75754</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32098</v>
+        <v>1.38593</v>
       </c>
       <c r="C126" t="n">
-        <v>3.57909</v>
+        <v>3.91152</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0606</v>
+        <v>3.57483</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27317</v>
+        <v>1.37285</v>
       </c>
       <c r="F126" t="n">
-        <v>4.25192</v>
+        <v>4.69319</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31392</v>
+        <v>1.39139</v>
       </c>
       <c r="C127" t="n">
-        <v>3.54017</v>
+        <v>3.88795</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81846</v>
+        <v>3.07602</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26417</v>
+        <v>1.36584</v>
       </c>
       <c r="F127" t="n">
-        <v>4.18228</v>
+        <v>4.59919</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29634</v>
+        <v>1.38317</v>
       </c>
       <c r="C128" t="n">
-        <v>3.51571</v>
+        <v>3.84299</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80197</v>
+        <v>3.03793</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2565</v>
+        <v>1.33794</v>
       </c>
       <c r="F128" t="n">
-        <v>4.13447</v>
+        <v>4.53231</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27651</v>
+        <v>1.37992</v>
       </c>
       <c r="C129" t="n">
-        <v>3.49106</v>
+        <v>3.80616</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76079</v>
+        <v>3.00672</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24714</v>
+        <v>1.333</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0634</v>
+        <v>4.46272</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.27859</v>
+        <v>1.36954</v>
       </c>
       <c r="C130" t="n">
-        <v>3.45324</v>
+        <v>3.78564</v>
       </c>
       <c r="D130" t="n">
-        <v>2.75182</v>
+        <v>2.99434</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24175</v>
+        <v>1.32592</v>
       </c>
       <c r="F130" t="n">
-        <v>4.01223</v>
+        <v>4.41055</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.26472</v>
+        <v>1.3791</v>
       </c>
       <c r="C131" t="n">
-        <v>3.42207</v>
+        <v>3.76477</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73814</v>
+        <v>2.98525</v>
       </c>
       <c r="E131" t="n">
-        <v>1.23529</v>
+        <v>1.32192</v>
       </c>
       <c r="F131" t="n">
-        <v>3.96145</v>
+        <v>4.36227</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.26537</v>
+        <v>1.36806</v>
       </c>
       <c r="C132" t="n">
-        <v>3.40555</v>
+        <v>3.74657</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72633</v>
+        <v>2.97948</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23045</v>
+        <v>1.31785</v>
       </c>
       <c r="F132" t="n">
-        <v>3.90638</v>
+        <v>3.80689</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27396</v>
+        <v>1.34749</v>
       </c>
       <c r="C133" t="n">
-        <v>3.39156</v>
+        <v>3.71564</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71328</v>
+        <v>2.95858</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22408</v>
+        <v>1.28134</v>
       </c>
       <c r="F133" t="n">
-        <v>3.41184</v>
+        <v>3.76307</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2481</v>
+        <v>1.35513</v>
       </c>
       <c r="C134" t="n">
-        <v>3.36343</v>
+        <v>2.72458</v>
       </c>
       <c r="D134" t="n">
-        <v>2.70865</v>
+        <v>2.96224</v>
       </c>
       <c r="E134" t="n">
-        <v>1.18832</v>
+        <v>1.30939</v>
       </c>
       <c r="F134" t="n">
-        <v>3.59762</v>
+        <v>3.96089</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.24989</v>
+        <v>1.35414</v>
       </c>
       <c r="C135" t="n">
-        <v>3.35742</v>
+        <v>3.69104</v>
       </c>
       <c r="D135" t="n">
-        <v>4.87888</v>
+        <v>5.38539</v>
       </c>
       <c r="E135" t="n">
-        <v>1.18642</v>
+        <v>1.30606</v>
       </c>
       <c r="F135" t="n">
-        <v>3.55809</v>
+        <v>4.14051</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.24888</v>
+        <v>1.36496</v>
       </c>
       <c r="C136" t="n">
-        <v>2.02843</v>
+        <v>3.66097</v>
       </c>
       <c r="D136" t="n">
-        <v>4.80572</v>
+        <v>4.55727</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21125</v>
+        <v>1.27376</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40685</v>
+        <v>3.36917</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27759</v>
+        <v>1.36501</v>
       </c>
       <c r="C137" t="n">
-        <v>2.00784</v>
+        <v>2.18002</v>
       </c>
       <c r="D137" t="n">
-        <v>4.53685</v>
+        <v>4.50336</v>
       </c>
       <c r="E137" t="n">
-        <v>1.52763</v>
+        <v>1.6284</v>
       </c>
       <c r="F137" t="n">
-        <v>5.12942</v>
+        <v>5.63771</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53292</v>
+        <v>1.6354</v>
       </c>
       <c r="C138" t="n">
-        <v>4.13841</v>
+        <v>4.53915</v>
       </c>
       <c r="D138" t="n">
-        <v>4.26489</v>
+        <v>4.70651</v>
       </c>
       <c r="E138" t="n">
-        <v>1.51766</v>
+        <v>1.59701</v>
       </c>
       <c r="F138" t="n">
-        <v>5.02497</v>
+        <v>5.55213</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.50768</v>
+        <v>1.62191</v>
       </c>
       <c r="C139" t="n">
-        <v>4.09777</v>
+        <v>4.50023</v>
       </c>
       <c r="D139" t="n">
-        <v>3.99516</v>
+        <v>4.39769</v>
       </c>
       <c r="E139" t="n">
-        <v>1.4862</v>
+        <v>1.61763</v>
       </c>
       <c r="F139" t="n">
-        <v>4.92544</v>
+        <v>5.45706</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50335</v>
+        <v>1.62267</v>
       </c>
       <c r="C140" t="n">
-        <v>4.037</v>
+        <v>4.46074</v>
       </c>
       <c r="D140" t="n">
-        <v>3.73107</v>
+        <v>3.85283</v>
       </c>
       <c r="E140" t="n">
-        <v>1.50449</v>
+        <v>1.58706</v>
       </c>
       <c r="F140" t="n">
-        <v>4.84162</v>
+        <v>5.34761</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5057</v>
+        <v>1.60665</v>
       </c>
       <c r="C141" t="n">
-        <v>4.00232</v>
+        <v>4.39642</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91429</v>
+        <v>3.55476</v>
       </c>
       <c r="E141" t="n">
-        <v>1.49866</v>
+        <v>1.58502</v>
       </c>
       <c r="F141" t="n">
-        <v>4.74545</v>
+        <v>5.25356</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48536</v>
+        <v>1.60683</v>
       </c>
       <c r="C142" t="n">
-        <v>3.94933</v>
+        <v>4.35394</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18822</v>
+        <v>3.51167</v>
       </c>
       <c r="E142" t="n">
-        <v>1.46805</v>
+        <v>1.58178</v>
       </c>
       <c r="F142" t="n">
-        <v>4.67149</v>
+        <v>5.16208</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49018</v>
+        <v>1.58224</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92362</v>
+        <v>4.30202</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15339</v>
+        <v>3.47235</v>
       </c>
       <c r="E143" t="n">
-        <v>1.46316</v>
+        <v>1.57924</v>
       </c>
       <c r="F143" t="n">
-        <v>4.58989</v>
+        <v>5.07135</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5808990000000001</v>
+        <v>0.57848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.774246</v>
+        <v>0.773693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.838522</v>
+        <v>0.838615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.566115</v>
+        <v>0.565627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.811535</v>
+        <v>0.810538</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560568</v>
+        <v>0.559937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.770092</v>
+        <v>0.7703179999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827613</v>
+        <v>0.8304009999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552477</v>
+        <v>0.551764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.792496</v>
+        <v>0.793015</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.549193</v>
+        <v>0.54821</v>
       </c>
       <c r="C4" t="n">
-        <v>0.758738</v>
+        <v>0.759138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.819919</v>
+        <v>0.821747</v>
       </c>
       <c r="E4" t="n">
-        <v>0.539814</v>
+        <v>0.538944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.775572</v>
+        <v>0.777493</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540887</v>
+        <v>0.53879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7493840000000001</v>
+        <v>0.751039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.866343</v>
+        <v>0.8669559999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.528654</v>
+        <v>0.527398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.76213</v>
+        <v>0.763314</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532455</v>
+        <v>0.529904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.741569</v>
+        <v>0.743023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.808333</v>
+        <v>0.806867</v>
       </c>
       <c r="E6" t="n">
-        <v>0.559937</v>
+        <v>0.516358</v>
       </c>
       <c r="F6" t="n">
-        <v>0.751275</v>
+        <v>0.750246</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.482497</v>
+        <v>0.52556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.737808</v>
+        <v>0.736679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91999</v>
+        <v>0.921322</v>
       </c>
       <c r="E7" t="n">
-        <v>0.50968</v>
+        <v>0.5084340000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.740506</v>
+        <v>0.740286</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.482114</v>
+        <v>0.521779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.735102</v>
+        <v>0.734789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.905841</v>
+        <v>0.903871</v>
       </c>
       <c r="E8" t="n">
-        <v>0.504185</v>
+        <v>0.503067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7343150000000001</v>
+        <v>0.733603</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.484286</v>
+        <v>0.522054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.736755</v>
+        <v>0.735291</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8857429999999999</v>
+        <v>0.885602</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760806</v>
+        <v>0.760392</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0119</v>
+        <v>1.01185</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.677712</v>
+        <v>0.675373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8984259999999999</v>
+        <v>0.894782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.872042</v>
+        <v>0.870468</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7377629999999999</v>
+        <v>0.737721</v>
       </c>
       <c r="F10" t="n">
-        <v>0.986482</v>
+        <v>0.982948</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6529430000000001</v>
+        <v>0.65168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.88031</v>
+        <v>0.877073</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856927</v>
+        <v>0.855235</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715773</v>
+        <v>0.716262</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9625</v>
+        <v>0.963186</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.633571</v>
+        <v>0.635758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86547</v>
+        <v>0.860896</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8421729999999999</v>
+        <v>0.840538</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6958299999999999</v>
+        <v>0.695482</v>
       </c>
       <c r="F12" t="n">
-        <v>0.940005</v>
+        <v>0.935056</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617092</v>
+        <v>0.6210020000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.84871</v>
+        <v>0.844749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.828301</v>
+        <v>0.827709</v>
       </c>
       <c r="E13" t="n">
-        <v>0.676217</v>
+        <v>0.67436</v>
       </c>
       <c r="F13" t="n">
-        <v>0.91859</v>
+        <v>0.911596</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599013</v>
+        <v>0.59917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.831182</v>
+        <v>0.826846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8148069999999999</v>
+        <v>0.815539</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6581900000000001</v>
+        <v>0.6577190000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893162</v>
+        <v>0.891636</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.58253</v>
+        <v>0.586821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.813532</v>
+        <v>0.8110039999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8062049999999999</v>
+        <v>0.805254</v>
       </c>
       <c r="E15" t="n">
-        <v>0.639938</v>
+        <v>0.640089</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871009</v>
+        <v>0.868032</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5779069999999999</v>
+        <v>0.573425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801164</v>
+        <v>0.798087</v>
       </c>
       <c r="D16" t="n">
-        <v>0.796368</v>
+        <v>0.7950120000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.623788</v>
+        <v>0.622223</v>
       </c>
       <c r="F16" t="n">
-        <v>0.850921</v>
+        <v>0.8473000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.559702</v>
+        <v>0.5559229999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.789602</v>
+        <v>0.7853290000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785685</v>
+        <v>0.7819700000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6088519999999999</v>
+        <v>0.608287</v>
       </c>
       <c r="F17" t="n">
-        <v>0.860463</v>
+        <v>0.860284</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.547825</v>
+        <v>0.545072</v>
       </c>
       <c r="C18" t="n">
-        <v>0.779836</v>
+        <v>0.777955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.777975</v>
+        <v>0.77678</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594615</v>
+        <v>0.594047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.84395</v>
+        <v>0.844672</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535851</v>
+        <v>0.537262</v>
       </c>
       <c r="C19" t="n">
-        <v>0.768944</v>
+        <v>0.766047</v>
       </c>
       <c r="D19" t="n">
-        <v>0.770582</v>
+        <v>0.770103</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581616</v>
+        <v>0.5814820000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.828563</v>
+        <v>0.825867</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.530315</v>
+        <v>0.525663</v>
       </c>
       <c r="C20" t="n">
-        <v>0.761042</v>
+        <v>0.75946</v>
       </c>
       <c r="D20" t="n">
-        <v>0.761469</v>
+        <v>0.764571</v>
       </c>
       <c r="E20" t="n">
-        <v>0.570234</v>
+        <v>0.568747</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8142509999999999</v>
+        <v>0.812505</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.524339</v>
+        <v>0.522064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.755719</v>
+        <v>0.751062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9908439999999999</v>
+        <v>0.989316</v>
       </c>
       <c r="E21" t="n">
-        <v>0.561204</v>
+        <v>0.560841</v>
       </c>
       <c r="F21" t="n">
-        <v>0.809635</v>
+        <v>0.807822</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5170360000000001</v>
+        <v>0.518953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.752422</v>
+        <v>0.749743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.969067</v>
+        <v>0.966107</v>
       </c>
       <c r="E22" t="n">
-        <v>0.553967</v>
+        <v>0.554064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.801295</v>
+        <v>0.799539</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517276</v>
+        <v>0.513995</v>
       </c>
       <c r="C23" t="n">
-        <v>0.751568</v>
+        <v>0.751031</v>
       </c>
       <c r="D23" t="n">
-        <v>0.949075</v>
+        <v>0.946118</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8182199999999999</v>
+        <v>0.817788</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08753</v>
+        <v>1.08607</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.683856</v>
+        <v>0.683301</v>
       </c>
       <c r="C24" t="n">
-        <v>0.937253</v>
+        <v>0.931593</v>
       </c>
       <c r="D24" t="n">
-        <v>0.930662</v>
+        <v>0.92722</v>
       </c>
       <c r="E24" t="n">
-        <v>0.793741</v>
+        <v>0.793308</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05912</v>
+        <v>1.05476</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.661989</v>
+        <v>0.661614</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9157149999999999</v>
+        <v>0.91454</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918408</v>
+        <v>0.912998</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7700900000000001</v>
+        <v>0.76988</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03153</v>
+        <v>1.03299</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.645996</v>
+        <v>0.6440129999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.89719</v>
+        <v>0.892497</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899641</v>
+        <v>0.8971519999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7468590000000001</v>
+        <v>0.746931</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00898</v>
+        <v>1.00596</v>
       </c>
     </row>
     <row r="27">
@@ -5584,16 +5584,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6622749999999999</v>
+        <v>0.6315269999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.879051</v>
+        <v>0.874358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8839129999999999</v>
+        <v>0.88166</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725495</v>
+        <v>0.725399</v>
       </c>
       <c r="F27" t="n">
         <v>0.983171</v>
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641885</v>
+        <v>0.642555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.859231</v>
+        <v>0.858356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.870121</v>
+        <v>0.868982</v>
       </c>
       <c r="E28" t="n">
-        <v>0.704285</v>
+        <v>0.704148</v>
       </c>
       <c r="F28" t="n">
-        <v>0.961571</v>
+        <v>0.957237</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624779</v>
+        <v>0.624637</v>
       </c>
       <c r="C29" t="n">
-        <v>0.845155</v>
+        <v>0.841413</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8627899999999999</v>
+        <v>0.8616819999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684607</v>
+        <v>0.684513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.941551</v>
+        <v>0.93737</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6104349999999999</v>
+        <v>0.612978</v>
       </c>
       <c r="C30" t="n">
-        <v>0.84718</v>
+        <v>0.842158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.852789</v>
+        <v>0.849559</v>
       </c>
       <c r="E30" t="n">
-        <v>0.66659</v>
+        <v>0.665265</v>
       </c>
       <c r="F30" t="n">
-        <v>0.918608</v>
+        <v>0.917637</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.59511</v>
+        <v>0.597449</v>
       </c>
       <c r="C31" t="n">
-        <v>0.834453</v>
+        <v>0.831738</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8413580000000001</v>
+        <v>0.838181</v>
       </c>
       <c r="E31" t="n">
-        <v>0.648957</v>
+        <v>0.648904</v>
       </c>
       <c r="F31" t="n">
-        <v>0.897894</v>
+        <v>0.894292</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581126</v>
+        <v>0.58396</v>
       </c>
       <c r="C32" t="n">
-        <v>0.822044</v>
+        <v>0.822696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.835259</v>
+        <v>0.831623</v>
       </c>
       <c r="E32" t="n">
-        <v>0.63275</v>
+        <v>0.609659</v>
       </c>
       <c r="F32" t="n">
-        <v>0.878145</v>
+        <v>0.875654</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569312</v>
+        <v>0.570107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.811911</v>
+        <v>0.809801</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8266520000000001</v>
+        <v>0.822264</v>
       </c>
       <c r="E33" t="n">
-        <v>0.618196</v>
+        <v>0.618151</v>
       </c>
       <c r="F33" t="n">
-        <v>0.860662</v>
+        <v>0.85794</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.559346</v>
+        <v>0.558949</v>
       </c>
       <c r="C34" t="n">
-        <v>0.784168</v>
+        <v>0.780517</v>
       </c>
       <c r="D34" t="n">
-        <v>0.818475</v>
+        <v>0.813704</v>
       </c>
       <c r="E34" t="n">
-        <v>0.604306</v>
+        <v>0.583586</v>
       </c>
       <c r="F34" t="n">
-        <v>0.844669</v>
+        <v>0.842442</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5533169999999999</v>
+        <v>0.550699</v>
       </c>
       <c r="C35" t="n">
-        <v>0.782046</v>
+        <v>0.780006</v>
       </c>
       <c r="D35" t="n">
-        <v>1.07445</v>
+        <v>1.07197</v>
       </c>
       <c r="E35" t="n">
-        <v>0.573191</v>
+        <v>0.592814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.830447</v>
+        <v>0.82729</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.526671</v>
+        <v>0.525879</v>
       </c>
       <c r="C36" t="n">
-        <v>0.77673</v>
+        <v>0.774179</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05253</v>
+        <v>1.04733</v>
       </c>
       <c r="E36" t="n">
-        <v>0.56447</v>
+        <v>0.564551</v>
       </c>
       <c r="F36" t="n">
-        <v>0.819889</v>
+        <v>0.817053</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.542408</v>
+        <v>0.520494</v>
       </c>
       <c r="C37" t="n">
-        <v>0.769276</v>
+        <v>0.76502</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03008</v>
+        <v>1.02661</v>
       </c>
       <c r="E37" t="n">
-        <v>0.850639</v>
+        <v>0.849615</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37678</v>
+        <v>1.37736</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.75403</v>
+        <v>0.7542410000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18449</v>
+        <v>1.18509</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00965</v>
+        <v>1.00719</v>
       </c>
       <c r="E38" t="n">
-        <v>0.825149</v>
+        <v>0.808059</v>
       </c>
       <c r="F38" t="n">
-        <v>1.34589</v>
+        <v>1.34586</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7329059999999999</v>
+        <v>0.729286</v>
       </c>
       <c r="C39" t="n">
-        <v>1.16444</v>
+        <v>1.16384</v>
       </c>
       <c r="D39" t="n">
-        <v>0.987783</v>
+        <v>0.9859019999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7853059999999999</v>
+        <v>0.783757</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31655</v>
+        <v>1.31548</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.709396</v>
+        <v>0.690562</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14334</v>
+        <v>1.14279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.970471</v>
+        <v>0.969975</v>
       </c>
       <c r="E40" t="n">
-        <v>0.776652</v>
+        <v>0.761113</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28849</v>
+        <v>1.28758</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.671897</v>
+        <v>0.689777</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12674</v>
+        <v>1.12642</v>
       </c>
       <c r="D41" t="n">
-        <v>0.953884</v>
+        <v>0.952655</v>
       </c>
       <c r="E41" t="n">
-        <v>0.740416</v>
+        <v>0.739798</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2602</v>
+        <v>1.26281</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653592</v>
+        <v>0.654239</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10834</v>
+        <v>1.10912</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939994</v>
+        <v>0.935554</v>
       </c>
       <c r="E42" t="n">
-        <v>0.691284</v>
+        <v>0.719312</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23545</v>
+        <v>1.23656</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.638539</v>
+        <v>0.636677</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09266</v>
+        <v>1.09158</v>
       </c>
       <c r="D43" t="n">
-        <v>0.925226</v>
+        <v>0.9217030000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699802</v>
+        <v>0.698718</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21242</v>
+        <v>1.2107</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.621493</v>
+        <v>0.619828</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07777</v>
+        <v>1.07645</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912391</v>
+        <v>0.908395</v>
       </c>
       <c r="E44" t="n">
-        <v>0.680797</v>
+        <v>0.680747</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18781</v>
+        <v>1.18832</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.606868</v>
+        <v>0.608069</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06247</v>
+        <v>1.06478</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902649</v>
+        <v>0.89991</v>
       </c>
       <c r="E45" t="n">
-        <v>0.663509</v>
+        <v>0.6626</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16858</v>
+        <v>1.16681</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592576</v>
+        <v>0.592727</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0499</v>
+        <v>1.05066</v>
       </c>
       <c r="D46" t="n">
-        <v>0.89206</v>
+        <v>0.888991</v>
       </c>
       <c r="E46" t="n">
-        <v>0.646557</v>
+        <v>0.646126</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14582</v>
+        <v>1.14621</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.579284</v>
+        <v>0.581585</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04056</v>
+        <v>1.03934</v>
       </c>
       <c r="D47" t="n">
-        <v>0.884979</v>
+        <v>0.881626</v>
       </c>
       <c r="E47" t="n">
-        <v>0.631504</v>
+        <v>0.630896</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12778</v>
+        <v>1.1287</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.57222</v>
+        <v>0.570831</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02829</v>
+        <v>1.02892</v>
       </c>
       <c r="D48" t="n">
-        <v>0.876714</v>
+        <v>0.874508</v>
       </c>
       <c r="E48" t="n">
-        <v>0.617436</v>
+        <v>0.617283</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11155</v>
+        <v>1.11178</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.56086</v>
+        <v>0.563581</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02229</v>
+        <v>1.02214</v>
       </c>
       <c r="D49" t="n">
-        <v>0.870077</v>
+        <v>0.8669829999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.605108</v>
+        <v>0.604955</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09531</v>
+        <v>1.09446</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.556872</v>
+        <v>0.556175</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01498</v>
+        <v>1.0149</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11633</v>
+        <v>1.11222</v>
       </c>
       <c r="E50" t="n">
-        <v>0.594912</v>
+        <v>0.59517</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08227</v>
+        <v>1.08222</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.531065</v>
+        <v>0.560828</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01276</v>
+        <v>1.01128</v>
       </c>
       <c r="D51" t="n">
-        <v>1.093</v>
+        <v>1.09011</v>
       </c>
       <c r="E51" t="n">
-        <v>0.875584</v>
+        <v>0.862995</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4619</v>
+        <v>1.45399</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.550528</v>
+        <v>0.552467</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01391</v>
+        <v>1.01255</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0701</v>
+        <v>1.06852</v>
       </c>
       <c r="E52" t="n">
-        <v>0.849827</v>
+        <v>0.850403</v>
       </c>
       <c r="F52" t="n">
-        <v>1.43023</v>
+        <v>1.42085</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.75493</v>
+        <v>0.75734</v>
       </c>
       <c r="C53" t="n">
-        <v>1.21432</v>
+        <v>1.21377</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04805</v>
+        <v>1.04424</v>
       </c>
       <c r="E53" t="n">
-        <v>0.815824</v>
+        <v>0.826716</v>
       </c>
       <c r="F53" t="n">
-        <v>1.39218</v>
+        <v>1.38596</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7265509999999999</v>
+        <v>0.7263230000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19395</v>
+        <v>1.19323</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02985</v>
+        <v>1.02903</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7906530000000001</v>
+        <v>0.802758</v>
       </c>
       <c r="F54" t="n">
-        <v>1.36668</v>
+        <v>1.3593</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.704277</v>
+        <v>0.707049</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17331</v>
+        <v>1.17326</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01294</v>
+        <v>1.01129</v>
       </c>
       <c r="E55" t="n">
-        <v>0.767306</v>
+        <v>0.76917</v>
       </c>
       <c r="F55" t="n">
-        <v>1.33691</v>
+        <v>1.32996</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.684083</v>
+        <v>0.6892470000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15472</v>
+        <v>1.15483</v>
       </c>
       <c r="D56" t="n">
-        <v>0.994408</v>
+        <v>0.993956</v>
       </c>
       <c r="E56" t="n">
-        <v>0.74735</v>
+        <v>0.747671</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30908</v>
+        <v>1.30207</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.670716</v>
+        <v>0.671835</v>
       </c>
       <c r="C57" t="n">
-        <v>1.13778</v>
+        <v>1.13754</v>
       </c>
       <c r="D57" t="n">
-        <v>0.979247</v>
+        <v>0.9778520000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.736574</v>
+        <v>0.737605</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27946</v>
+        <v>1.27576</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.658938</v>
+        <v>0.660625</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12169</v>
+        <v>1.12317</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9663929999999999</v>
+        <v>0.965219</v>
       </c>
       <c r="E58" t="n">
-        <v>0.708992</v>
+        <v>0.7100610000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25857</v>
+        <v>1.25064</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64242</v>
+        <v>0.647644</v>
       </c>
       <c r="C59" t="n">
-        <v>1.108</v>
+        <v>1.10837</v>
       </c>
       <c r="D59" t="n">
-        <v>0.94785</v>
+        <v>0.946033</v>
       </c>
       <c r="E59" t="n">
-        <v>0.663002</v>
+        <v>0.662199</v>
       </c>
       <c r="F59" t="n">
-        <v>1.23395</v>
+        <v>1.22883</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.62576</v>
+        <v>0.627827</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09496</v>
+        <v>1.09369</v>
       </c>
       <c r="D60" t="n">
-        <v>0.938164</v>
+        <v>0.936833</v>
       </c>
       <c r="E60" t="n">
-        <v>0.647377</v>
+        <v>0.646065</v>
       </c>
       <c r="F60" t="n">
-        <v>1.21176</v>
+        <v>1.20687</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.61925</v>
+        <v>0.61198</v>
       </c>
       <c r="C61" t="n">
-        <v>1.0833</v>
+        <v>1.0834</v>
       </c>
       <c r="D61" t="n">
-        <v>0.92739</v>
+        <v>0.92643</v>
       </c>
       <c r="E61" t="n">
-        <v>0.634279</v>
+        <v>0.660364</v>
       </c>
       <c r="F61" t="n">
-        <v>1.19049</v>
+        <v>1.18465</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.579554</v>
+        <v>0.604453</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07209</v>
+        <v>1.07269</v>
       </c>
       <c r="D62" t="n">
-        <v>0.918211</v>
+        <v>0.91686</v>
       </c>
       <c r="E62" t="n">
-        <v>0.645039</v>
+        <v>0.647313</v>
       </c>
       <c r="F62" t="n">
-        <v>1.17201</v>
+        <v>1.16922</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.591649</v>
+        <v>0.595217</v>
       </c>
       <c r="C63" t="n">
-        <v>1.0642</v>
+        <v>1.06464</v>
       </c>
       <c r="D63" t="n">
-        <v>0.908659</v>
+        <v>0.908698</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610103</v>
+        <v>0.612344</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15604</v>
+        <v>1.15172</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.587471</v>
+        <v>0.59193</v>
       </c>
       <c r="C64" t="n">
-        <v>1.06144</v>
+        <v>1.05929</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19861</v>
+        <v>1.19169</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623053</v>
+        <v>0.62454</v>
       </c>
       <c r="F64" t="n">
-        <v>1.14124</v>
+        <v>1.13852</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.58552</v>
+        <v>0.556335</v>
       </c>
       <c r="C65" t="n">
-        <v>1.0539</v>
+        <v>1.05406</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17151</v>
+        <v>1.16607</v>
       </c>
       <c r="E65" t="n">
-        <v>0.616444</v>
+        <v>0.6162609999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>1.13101</v>
+        <v>1.12572</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.582817</v>
+        <v>0.56105</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05524</v>
+        <v>1.05301</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14388</v>
+        <v>1.13659</v>
       </c>
       <c r="E66" t="n">
-        <v>0.90885</v>
+        <v>0.913592</v>
       </c>
       <c r="F66" t="n">
-        <v>1.5254</v>
+        <v>1.50478</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.822562</v>
+        <v>0.809075</v>
       </c>
       <c r="C67" t="n">
-        <v>1.29673</v>
+        <v>1.28038</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11618</v>
+        <v>1.10932</v>
       </c>
       <c r="E67" t="n">
-        <v>0.892429</v>
+        <v>0.876431</v>
       </c>
       <c r="F67" t="n">
-        <v>1.48276</v>
+        <v>1.47305</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.81588</v>
+        <v>0.807595</v>
       </c>
       <c r="C68" t="n">
-        <v>1.27263</v>
+        <v>1.26514</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09379</v>
+        <v>1.08865</v>
       </c>
       <c r="E68" t="n">
-        <v>0.869913</v>
+        <v>0.85461</v>
       </c>
       <c r="F68" t="n">
-        <v>1.45159</v>
+        <v>1.43909</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.803825</v>
+        <v>0.791903</v>
       </c>
       <c r="C69" t="n">
-        <v>1.2532</v>
+        <v>1.24666</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07427</v>
+        <v>1.07176</v>
       </c>
       <c r="E69" t="n">
-        <v>0.848291</v>
+        <v>0.832166</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41388</v>
+        <v>1.41969</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.778768</v>
+        <v>0.766527</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23927</v>
+        <v>1.23592</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0602</v>
+        <v>1.0567</v>
       </c>
       <c r="E70" t="n">
-        <v>0.825924</v>
+        <v>0.811881</v>
       </c>
       <c r="F70" t="n">
-        <v>1.39416</v>
+        <v>1.38767</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.766748</v>
+        <v>0.758314</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22544</v>
+        <v>1.21694</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02777</v>
+        <v>1.02466</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8050890000000001</v>
+        <v>0.790632</v>
       </c>
       <c r="F71" t="n">
-        <v>1.37376</v>
+        <v>1.36457</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.750941</v>
+        <v>0.737849</v>
       </c>
       <c r="C72" t="n">
-        <v>1.22315</v>
+        <v>1.20806</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01956</v>
+        <v>1.01597</v>
       </c>
       <c r="E72" t="n">
-        <v>0.785336</v>
+        <v>0.771022</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36006</v>
+        <v>1.35028</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.745923</v>
+        <v>0.732662</v>
       </c>
       <c r="C73" t="n">
-        <v>1.2062</v>
+        <v>1.20029</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00804</v>
+        <v>1.01009</v>
       </c>
       <c r="E73" t="n">
-        <v>0.76566</v>
+        <v>0.752261</v>
       </c>
       <c r="F73" t="n">
-        <v>1.3343</v>
+        <v>1.33258</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.723637</v>
+        <v>0.714246</v>
       </c>
       <c r="C74" t="n">
-        <v>1.19837</v>
+        <v>1.19783</v>
       </c>
       <c r="D74" t="n">
-        <v>0.993095</v>
+        <v>0.994464</v>
       </c>
       <c r="E74" t="n">
-        <v>0.747455</v>
+        <v>0.735939</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31624</v>
+        <v>1.31191</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.716776</v>
+        <v>0.7032</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18997</v>
+        <v>1.18529</v>
       </c>
       <c r="D75" t="n">
-        <v>0.987919</v>
+        <v>0.989177</v>
       </c>
       <c r="E75" t="n">
-        <v>0.70017</v>
+        <v>0.687874</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30283</v>
+        <v>1.30002</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.702889</v>
+        <v>0.690619</v>
       </c>
       <c r="C76" t="n">
-        <v>1.19038</v>
+        <v>1.18737</v>
       </c>
       <c r="D76" t="n">
-        <v>0.984073</v>
+        <v>0.9859869999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.714387</v>
+        <v>0.702093</v>
       </c>
       <c r="F76" t="n">
-        <v>1.29523</v>
+        <v>1.29494</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.693483</v>
+        <v>0.6810659999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>1.2015</v>
+        <v>1.17824</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9772999999999999</v>
+        <v>0.9754350000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.673145</v>
+        <v>0.660013</v>
       </c>
       <c r="F77" t="n">
-        <v>1.29441</v>
+        <v>1.28439</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.669141</v>
+        <v>0.656635</v>
       </c>
       <c r="C78" t="n">
-        <v>1.20354</v>
+        <v>1.19794</v>
       </c>
       <c r="D78" t="n">
-        <v>1.48387</v>
+        <v>1.44417</v>
       </c>
       <c r="E78" t="n">
-        <v>0.661258</v>
+        <v>0.648199</v>
       </c>
       <c r="F78" t="n">
-        <v>1.29941</v>
+        <v>1.27858</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.670311</v>
+        <v>0.662343</v>
       </c>
       <c r="C79" t="n">
-        <v>1.22171</v>
+        <v>1.20232</v>
       </c>
       <c r="D79" t="n">
-        <v>1.45511</v>
+        <v>1.41929</v>
       </c>
       <c r="E79" t="n">
-        <v>0.653739</v>
+        <v>0.638599</v>
       </c>
       <c r="F79" t="n">
-        <v>1.298</v>
+        <v>1.27932</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6391019999999999</v>
+        <v>0.627815</v>
       </c>
       <c r="C80" t="n">
-        <v>1.23416</v>
+        <v>1.22119</v>
       </c>
       <c r="D80" t="n">
-        <v>1.41795</v>
+        <v>1.39046</v>
       </c>
       <c r="E80" t="n">
-        <v>0.98769</v>
+        <v>0.979333</v>
       </c>
       <c r="F80" t="n">
-        <v>2.01309</v>
+        <v>1.95423</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.928179</v>
+        <v>0.914867</v>
       </c>
       <c r="C81" t="n">
-        <v>1.77066</v>
+        <v>1.71022</v>
       </c>
       <c r="D81" t="n">
-        <v>1.37684</v>
+        <v>1.34867</v>
       </c>
       <c r="E81" t="n">
-        <v>0.987907</v>
+        <v>0.944794</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0051</v>
+        <v>1.93899</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.901825</v>
+        <v>0.899235</v>
       </c>
       <c r="C82" t="n">
-        <v>1.7774</v>
+        <v>1.71125</v>
       </c>
       <c r="D82" t="n">
-        <v>1.3588</v>
+        <v>1.32736</v>
       </c>
       <c r="E82" t="n">
-        <v>0.970975</v>
+        <v>0.9278149999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>2.00397</v>
+        <v>1.92752</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.928795</v>
+        <v>0.884987</v>
       </c>
       <c r="C83" t="n">
-        <v>1.78907</v>
+        <v>1.71089</v>
       </c>
       <c r="D83" t="n">
-        <v>1.33943</v>
+        <v>1.30878</v>
       </c>
       <c r="E83" t="n">
-        <v>0.939689</v>
+        <v>0.928199</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98916</v>
+        <v>1.90477</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.905426</v>
+        <v>0.881768</v>
       </c>
       <c r="C84" t="n">
-        <v>1.79855</v>
+        <v>1.70723</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32913</v>
+        <v>1.29338</v>
       </c>
       <c r="E84" t="n">
-        <v>0.921937</v>
+        <v>0.908857</v>
       </c>
       <c r="F84" t="n">
-        <v>1.97425</v>
+        <v>1.89896</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.890489</v>
+        <v>0.8730869999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.78778</v>
+        <v>1.71847</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28519</v>
+        <v>1.25662</v>
       </c>
       <c r="E85" t="n">
-        <v>0.897922</v>
+        <v>0.872533</v>
       </c>
       <c r="F85" t="n">
-        <v>1.95166</v>
+        <v>1.87574</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.874355</v>
+        <v>0.853705</v>
       </c>
       <c r="C86" t="n">
-        <v>1.78429</v>
+        <v>1.71669</v>
       </c>
       <c r="D86" t="n">
-        <v>1.27704</v>
+        <v>1.25166</v>
       </c>
       <c r="E86" t="n">
-        <v>0.879482</v>
+        <v>0.85425</v>
       </c>
       <c r="F86" t="n">
-        <v>1.94737</v>
+        <v>1.87814</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.863043</v>
+        <v>0.839942</v>
       </c>
       <c r="C87" t="n">
-        <v>1.79262</v>
+        <v>1.72033</v>
       </c>
       <c r="D87" t="n">
-        <v>1.27137</v>
+        <v>1.24696</v>
       </c>
       <c r="E87" t="n">
-        <v>0.82201</v>
+        <v>0.835086</v>
       </c>
       <c r="F87" t="n">
-        <v>1.93284</v>
+        <v>1.86805</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8395089999999999</v>
+        <v>0.821744</v>
       </c>
       <c r="C88" t="n">
-        <v>1.79369</v>
+        <v>1.72909</v>
       </c>
       <c r="D88" t="n">
-        <v>1.27013</v>
+        <v>1.24085</v>
       </c>
       <c r="E88" t="n">
-        <v>0.804038</v>
+        <v>0.77818</v>
       </c>
       <c r="F88" t="n">
-        <v>1.93791</v>
+        <v>1.86549</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.834889</v>
+        <v>0.819902</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81419</v>
+        <v>1.74251</v>
       </c>
       <c r="D89" t="n">
-        <v>1.2727</v>
+        <v>1.24002</v>
       </c>
       <c r="E89" t="n">
-        <v>0.821303</v>
+        <v>0.798606</v>
       </c>
       <c r="F89" t="n">
-        <v>1.93953</v>
+        <v>1.86988</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829048</v>
+        <v>0.800354</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83924</v>
+        <v>1.75467</v>
       </c>
       <c r="D90" t="n">
-        <v>1.28128</v>
+        <v>1.24715</v>
       </c>
       <c r="E90" t="n">
-        <v>0.80257</v>
+        <v>0.7787539999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1.9523</v>
+        <v>1.86383</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.82252</v>
+        <v>0.789619</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85207</v>
+        <v>1.75557</v>
       </c>
       <c r="D91" t="n">
-        <v>1.27927</v>
+        <v>1.2426</v>
       </c>
       <c r="E91" t="n">
-        <v>0.755848</v>
+        <v>0.7630940000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1.96552</v>
+        <v>1.85823</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.801264</v>
+        <v>0.790453</v>
       </c>
       <c r="C92" t="n">
-        <v>1.7758</v>
+        <v>1.77758</v>
       </c>
       <c r="D92" t="n">
-        <v>2.76975</v>
+        <v>2.61904</v>
       </c>
       <c r="E92" t="n">
-        <v>0.744169</v>
+        <v>0.7189680000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>1.96558</v>
+        <v>1.86345</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.795668</v>
+        <v>0.766004</v>
       </c>
       <c r="C93" t="n">
-        <v>1.89236</v>
+        <v>1.3522</v>
       </c>
       <c r="D93" t="n">
-        <v>2.78583</v>
+        <v>2.43383</v>
       </c>
       <c r="E93" t="n">
-        <v>0.759813</v>
+        <v>0.741179</v>
       </c>
       <c r="F93" t="n">
-        <v>1.98714</v>
+        <v>1.86763</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.767615</v>
+        <v>0.772944</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91188</v>
+        <v>1.80537</v>
       </c>
       <c r="D94" t="n">
-        <v>2.37539</v>
+        <v>2.2458</v>
       </c>
       <c r="E94" t="n">
-        <v>1.09091</v>
+        <v>1.03142</v>
       </c>
       <c r="F94" t="n">
-        <v>3.16428</v>
+        <v>2.93817</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05483</v>
+        <v>1.01901</v>
       </c>
       <c r="C95" t="n">
-        <v>2.67615</v>
+        <v>2.49787</v>
       </c>
       <c r="D95" t="n">
-        <v>2.37223</v>
+        <v>2.42452</v>
       </c>
       <c r="E95" t="n">
-        <v>1.08223</v>
+        <v>1.04801</v>
       </c>
       <c r="F95" t="n">
-        <v>3.12787</v>
+        <v>2.92342</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06037</v>
+        <v>1.0252</v>
       </c>
       <c r="C96" t="n">
-        <v>2.6796</v>
+        <v>2.51254</v>
       </c>
       <c r="D96" t="n">
-        <v>2.57195</v>
+        <v>2.35199</v>
       </c>
       <c r="E96" t="n">
-        <v>1.04324</v>
+        <v>1.03184</v>
       </c>
       <c r="F96" t="n">
-        <v>3.08748</v>
+        <v>2.89527</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05673</v>
+        <v>1.0115</v>
       </c>
       <c r="C97" t="n">
-        <v>2.68375</v>
+        <v>2.49316</v>
       </c>
       <c r="D97" t="n">
-        <v>2.71806</v>
+        <v>2.34877</v>
       </c>
       <c r="E97" t="n">
-        <v>1.05153</v>
+        <v>1.01605</v>
       </c>
       <c r="F97" t="n">
-        <v>3.04768</v>
+        <v>2.86024</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02058</v>
+        <v>0.996008</v>
       </c>
       <c r="C98" t="n">
-        <v>2.66162</v>
+        <v>2.48806</v>
       </c>
       <c r="D98" t="n">
-        <v>2.19111</v>
+        <v>2.06159</v>
       </c>
       <c r="E98" t="n">
-        <v>1.01136</v>
+        <v>0.971013</v>
       </c>
       <c r="F98" t="n">
-        <v>2.99569</v>
+        <v>2.81207</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01534</v>
+        <v>0.991598</v>
       </c>
       <c r="C99" t="n">
-        <v>2.62975</v>
+        <v>2.47387</v>
       </c>
       <c r="D99" t="n">
-        <v>1.85671</v>
+        <v>1.83137</v>
       </c>
       <c r="E99" t="n">
-        <v>0.995093</v>
+        <v>0.954753</v>
       </c>
       <c r="F99" t="n">
-        <v>2.97482</v>
+        <v>2.76764</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.00696</v>
+        <v>0.964472</v>
       </c>
       <c r="C100" t="n">
-        <v>2.61883</v>
+        <v>2.43466</v>
       </c>
       <c r="D100" t="n">
-        <v>2.00031</v>
+        <v>1.73492</v>
       </c>
       <c r="E100" t="n">
-        <v>0.978812</v>
+        <v>0.939102</v>
       </c>
       <c r="F100" t="n">
-        <v>2.933</v>
+        <v>2.73206</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.00152</v>
+        <v>0.958247</v>
       </c>
       <c r="C101" t="n">
-        <v>2.59313</v>
+        <v>2.43454</v>
       </c>
       <c r="D101" t="n">
-        <v>1.83229</v>
+        <v>1.72278</v>
       </c>
       <c r="E101" t="n">
-        <v>0.964968</v>
+        <v>0.925876</v>
       </c>
       <c r="F101" t="n">
-        <v>2.88629</v>
+        <v>2.7126</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.996214</v>
+        <v>0.950372</v>
       </c>
       <c r="C102" t="n">
-        <v>2.60374</v>
+        <v>2.41757</v>
       </c>
       <c r="D102" t="n">
-        <v>1.83164</v>
+        <v>1.72452</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9137150000000001</v>
+        <v>0.910296</v>
       </c>
       <c r="F102" t="n">
-        <v>1.78581</v>
+        <v>1.6845</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.961161</v>
+        <v>0.913821</v>
       </c>
       <c r="C103" t="n">
-        <v>2.41363</v>
+        <v>2.40651</v>
       </c>
       <c r="D103" t="n">
-        <v>1.82973</v>
+        <v>1.71941</v>
       </c>
       <c r="E103" t="n">
-        <v>0.937431</v>
+        <v>0.897312</v>
       </c>
       <c r="F103" t="n">
-        <v>2.6691</v>
+        <v>1.64084</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.986669</v>
+        <v>0.902216</v>
       </c>
       <c r="C104" t="n">
-        <v>2.56931</v>
+        <v>2.38537</v>
       </c>
       <c r="D104" t="n">
-        <v>1.83498</v>
+        <v>1.72808</v>
       </c>
       <c r="E104" t="n">
-        <v>0.924808</v>
+        <v>0.885163</v>
       </c>
       <c r="F104" t="n">
-        <v>2.80667</v>
+        <v>1.60352</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.97055</v>
+        <v>0.9026690000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>2.54018</v>
+        <v>2.38205</v>
       </c>
       <c r="D105" t="n">
-        <v>1.83054</v>
+        <v>1.72465</v>
       </c>
       <c r="E105" t="n">
-        <v>0.912815</v>
+        <v>0.871703</v>
       </c>
       <c r="F105" t="n">
-        <v>2.78992</v>
+        <v>2.08649</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.980457</v>
+        <v>0.923159</v>
       </c>
       <c r="C106" t="n">
-        <v>2.55194</v>
+        <v>2.38317</v>
       </c>
       <c r="D106" t="n">
-        <v>1.83916</v>
+        <v>1.72947</v>
       </c>
       <c r="E106" t="n">
-        <v>0.870548</v>
+        <v>0.8603769999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>2.58336</v>
+        <v>1.53155</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.968704</v>
+        <v>0.935145</v>
       </c>
       <c r="C107" t="n">
-        <v>1.79062</v>
+        <v>2.37402</v>
       </c>
       <c r="D107" t="n">
-        <v>3.79938</v>
+        <v>3.5318</v>
       </c>
       <c r="E107" t="n">
-        <v>0.866083</v>
+        <v>0.824716</v>
       </c>
       <c r="F107" t="n">
-        <v>1.58798</v>
+        <v>1.5012</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.953841</v>
+        <v>0.891504</v>
       </c>
       <c r="C108" t="n">
-        <v>2.36404</v>
+        <v>2.36718</v>
       </c>
       <c r="D108" t="n">
-        <v>3.58685</v>
+        <v>3.14274</v>
       </c>
       <c r="E108" t="n">
-        <v>1.22037</v>
+        <v>1.13964</v>
       </c>
       <c r="F108" t="n">
-        <v>4.11539</v>
+        <v>3.78954</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.978849</v>
+        <v>0.924629</v>
       </c>
       <c r="C109" t="n">
-        <v>1.36764</v>
+        <v>1.50357</v>
       </c>
       <c r="D109" t="n">
-        <v>3.17852</v>
+        <v>3.30184</v>
       </c>
       <c r="E109" t="n">
-        <v>1.21906</v>
+        <v>1.13575</v>
       </c>
       <c r="F109" t="n">
-        <v>4.10202</v>
+        <v>3.75904</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23758</v>
+        <v>1.17708</v>
       </c>
       <c r="C110" t="n">
-        <v>3.37746</v>
+        <v>3.11813</v>
       </c>
       <c r="D110" t="n">
-        <v>3.15429</v>
+        <v>2.91733</v>
       </c>
       <c r="E110" t="n">
-        <v>1.18136</v>
+        <v>1.14719</v>
       </c>
       <c r="F110" t="n">
-        <v>4.00698</v>
+        <v>3.70452</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.21988</v>
+        <v>1.17323</v>
       </c>
       <c r="C111" t="n">
-        <v>3.32883</v>
+        <v>3.10274</v>
       </c>
       <c r="D111" t="n">
-        <v>3.33263</v>
+        <v>3.08995</v>
       </c>
       <c r="E111" t="n">
-        <v>1.16689</v>
+        <v>1.10883</v>
       </c>
       <c r="F111" t="n">
-        <v>3.96775</v>
+        <v>3.65268</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.20414</v>
+        <v>1.16786</v>
       </c>
       <c r="C112" t="n">
-        <v>3.31246</v>
+        <v>3.05109</v>
       </c>
       <c r="D112" t="n">
-        <v>2.70921</v>
+        <v>2.51647</v>
       </c>
       <c r="E112" t="n">
-        <v>1.17843</v>
+        <v>1.09708</v>
       </c>
       <c r="F112" t="n">
-        <v>3.88515</v>
+        <v>3.59463</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17624</v>
+        <v>1.15355</v>
       </c>
       <c r="C113" t="n">
-        <v>3.28251</v>
+        <v>3.04156</v>
       </c>
       <c r="D113" t="n">
-        <v>2.48456</v>
+        <v>2.31354</v>
       </c>
       <c r="E113" t="n">
-        <v>1.14402</v>
+        <v>1.0854</v>
       </c>
       <c r="F113" t="n">
-        <v>3.8288</v>
+        <v>3.52408</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17629</v>
+        <v>1.13617</v>
       </c>
       <c r="C114" t="n">
-        <v>3.26364</v>
+        <v>3.01842</v>
       </c>
       <c r="D114" t="n">
-        <v>2.68123</v>
+        <v>3.06014</v>
       </c>
       <c r="E114" t="n">
-        <v>1.13184</v>
+        <v>1.07369</v>
       </c>
       <c r="F114" t="n">
-        <v>3.77947</v>
+        <v>3.47337</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17164</v>
+        <v>1.11385</v>
       </c>
       <c r="C115" t="n">
-        <v>3.22494</v>
+        <v>2.98254</v>
       </c>
       <c r="D115" t="n">
-        <v>2.4487</v>
+        <v>2.29303</v>
       </c>
       <c r="E115" t="n">
-        <v>1.12198</v>
+        <v>1.06203</v>
       </c>
       <c r="F115" t="n">
-        <v>3.7394</v>
+        <v>3.43223</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15652</v>
+        <v>1.09958</v>
       </c>
       <c r="C116" t="n">
-        <v>3.22659</v>
+        <v>2.96764</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43698</v>
+        <v>2.27341</v>
       </c>
       <c r="E116" t="n">
-        <v>1.11317</v>
+        <v>1.05298</v>
       </c>
       <c r="F116" t="n">
-        <v>3.69278</v>
+        <v>3.3844</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15373</v>
+        <v>1.10398</v>
       </c>
       <c r="C117" t="n">
-        <v>3.20437</v>
+        <v>2.94688</v>
       </c>
       <c r="D117" t="n">
-        <v>2.42979</v>
+        <v>2.2563</v>
       </c>
       <c r="E117" t="n">
-        <v>1.10343</v>
+        <v>1.04241</v>
       </c>
       <c r="F117" t="n">
-        <v>2.98595</v>
+        <v>3.3495</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16313</v>
+        <v>1.0856</v>
       </c>
       <c r="C118" t="n">
-        <v>3.18773</v>
+        <v>2.93764</v>
       </c>
       <c r="D118" t="n">
-        <v>2.42556</v>
+        <v>2.26051</v>
       </c>
       <c r="E118" t="n">
-        <v>1.09463</v>
+        <v>1.03467</v>
       </c>
       <c r="F118" t="n">
-        <v>3.37791</v>
+        <v>3.30244</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14883</v>
+        <v>1.08098</v>
       </c>
       <c r="C119" t="n">
-        <v>3.1757</v>
+        <v>2.92179</v>
       </c>
       <c r="D119" t="n">
-        <v>2.43063</v>
+        <v>2.25534</v>
       </c>
       <c r="E119" t="n">
-        <v>1.0874</v>
+        <v>0.9945079999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>3.55314</v>
+        <v>3.05403</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15103</v>
+        <v>1.08409</v>
       </c>
       <c r="C120" t="n">
-        <v>3.16513</v>
+        <v>2.89336</v>
       </c>
       <c r="D120" t="n">
-        <v>2.43122</v>
+        <v>2.25397</v>
       </c>
       <c r="E120" t="n">
-        <v>1.0503</v>
+        <v>1.01875</v>
       </c>
       <c r="F120" t="n">
-        <v>3.49385</v>
+        <v>3.20865</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.14548</v>
+        <v>1.07732</v>
       </c>
       <c r="C121" t="n">
-        <v>3.13774</v>
+        <v>2.88028</v>
       </c>
       <c r="D121" t="n">
-        <v>4.67468</v>
+        <v>4.28251</v>
       </c>
       <c r="E121" t="n">
-        <v>1.07553</v>
+        <v>0.984432</v>
       </c>
       <c r="F121" t="n">
-        <v>3.26733</v>
+        <v>2.99258</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13661</v>
+        <v>1.08648</v>
       </c>
       <c r="C122" t="n">
-        <v>2.90266</v>
+        <v>2.8865</v>
       </c>
       <c r="D122" t="n">
-        <v>4.62247</v>
+        <v>3.84093</v>
       </c>
       <c r="E122" t="n">
-        <v>1.068</v>
+        <v>0.978203</v>
       </c>
       <c r="F122" t="n">
-        <v>3.44841</v>
+        <v>2.94658</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17174</v>
+        <v>1.09037</v>
       </c>
       <c r="C123" t="n">
-        <v>2.2262</v>
+        <v>1.65478</v>
       </c>
       <c r="D123" t="n">
-        <v>4.58825</v>
+        <v>3.99834</v>
       </c>
       <c r="E123" t="n">
-        <v>1.37598</v>
+        <v>1.3221</v>
       </c>
       <c r="F123" t="n">
-        <v>4.91486</v>
+        <v>4.48292</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.39716</v>
+        <v>1.3497</v>
       </c>
       <c r="C124" t="n">
-        <v>3.98333</v>
+        <v>3.65217</v>
       </c>
       <c r="D124" t="n">
-        <v>4.10637</v>
+        <v>3.54665</v>
       </c>
       <c r="E124" t="n">
-        <v>1.39038</v>
+        <v>1.28508</v>
       </c>
       <c r="F124" t="n">
-        <v>4.83881</v>
+        <v>4.40236</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.4141</v>
+        <v>1.32138</v>
       </c>
       <c r="C125" t="n">
-        <v>3.93799</v>
+        <v>3.61848</v>
       </c>
       <c r="D125" t="n">
-        <v>3.59926</v>
+        <v>3.31113</v>
       </c>
       <c r="E125" t="n">
-        <v>1.35777</v>
+        <v>1.30013</v>
       </c>
       <c r="F125" t="n">
-        <v>4.75754</v>
+        <v>4.33947</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38593</v>
+        <v>1.28741</v>
       </c>
       <c r="C126" t="n">
-        <v>3.91152</v>
+        <v>3.58344</v>
       </c>
       <c r="D126" t="n">
-        <v>3.57483</v>
+        <v>3.48966</v>
       </c>
       <c r="E126" t="n">
-        <v>1.37285</v>
+        <v>1.29135</v>
       </c>
       <c r="F126" t="n">
-        <v>4.69319</v>
+        <v>4.2708</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.39139</v>
+        <v>1.30179</v>
       </c>
       <c r="C127" t="n">
-        <v>3.88795</v>
+        <v>3.55291</v>
       </c>
       <c r="D127" t="n">
-        <v>3.07602</v>
+        <v>3.25393</v>
       </c>
       <c r="E127" t="n">
-        <v>1.36584</v>
+        <v>1.2632</v>
       </c>
       <c r="F127" t="n">
-        <v>4.59919</v>
+        <v>4.19135</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38317</v>
+        <v>1.29705</v>
       </c>
       <c r="C128" t="n">
-        <v>3.84299</v>
+        <v>3.51713</v>
       </c>
       <c r="D128" t="n">
-        <v>3.03793</v>
+        <v>2.79674</v>
       </c>
       <c r="E128" t="n">
-        <v>1.33794</v>
+        <v>1.25529</v>
       </c>
       <c r="F128" t="n">
-        <v>4.53231</v>
+        <v>4.14019</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.37992</v>
+        <v>1.28711</v>
       </c>
       <c r="C129" t="n">
-        <v>3.80616</v>
+        <v>3.48671</v>
       </c>
       <c r="D129" t="n">
-        <v>3.00672</v>
+        <v>2.76816</v>
       </c>
       <c r="E129" t="n">
-        <v>1.333</v>
+        <v>1.24891</v>
       </c>
       <c r="F129" t="n">
-        <v>4.46272</v>
+        <v>4.07884</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36954</v>
+        <v>1.27575</v>
       </c>
       <c r="C130" t="n">
-        <v>3.78564</v>
+        <v>3.46286</v>
       </c>
       <c r="D130" t="n">
-        <v>2.99434</v>
+        <v>2.75423</v>
       </c>
       <c r="E130" t="n">
-        <v>1.32592</v>
+        <v>1.20468</v>
       </c>
       <c r="F130" t="n">
-        <v>4.41055</v>
+        <v>3.79471</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3791</v>
+        <v>1.27243</v>
       </c>
       <c r="C131" t="n">
-        <v>3.76477</v>
+        <v>3.43866</v>
       </c>
       <c r="D131" t="n">
-        <v>2.98525</v>
+        <v>2.74185</v>
       </c>
       <c r="E131" t="n">
-        <v>1.32192</v>
+        <v>1.23507</v>
       </c>
       <c r="F131" t="n">
-        <v>4.36227</v>
+        <v>3.95726</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.36806</v>
+        <v>1.28133</v>
       </c>
       <c r="C132" t="n">
-        <v>3.74657</v>
+        <v>3.40992</v>
       </c>
       <c r="D132" t="n">
-        <v>2.97948</v>
+        <v>2.73165</v>
       </c>
       <c r="E132" t="n">
-        <v>1.31785</v>
+        <v>1.19745</v>
       </c>
       <c r="F132" t="n">
-        <v>3.80689</v>
+        <v>3.90485</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.34749</v>
+        <v>1.26746</v>
       </c>
       <c r="C133" t="n">
-        <v>3.71564</v>
+        <v>3.3905</v>
       </c>
       <c r="D133" t="n">
-        <v>2.95858</v>
+        <v>2.71484</v>
       </c>
       <c r="E133" t="n">
-        <v>1.28134</v>
+        <v>1.19328</v>
       </c>
       <c r="F133" t="n">
-        <v>3.76307</v>
+        <v>3.20553</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35513</v>
+        <v>1.27816</v>
       </c>
       <c r="C134" t="n">
-        <v>2.72458</v>
+        <v>3.37687</v>
       </c>
       <c r="D134" t="n">
-        <v>2.96224</v>
+        <v>2.71776</v>
       </c>
       <c r="E134" t="n">
-        <v>1.30939</v>
+        <v>1.19236</v>
       </c>
       <c r="F134" t="n">
-        <v>3.96089</v>
+        <v>3.81325</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.35414</v>
+        <v>1.27601</v>
       </c>
       <c r="C135" t="n">
-        <v>3.69104</v>
+        <v>3.35835</v>
       </c>
       <c r="D135" t="n">
-        <v>5.38539</v>
+        <v>4.89305</v>
       </c>
       <c r="E135" t="n">
-        <v>1.30606</v>
+        <v>1.18741</v>
       </c>
       <c r="F135" t="n">
-        <v>4.14051</v>
+        <v>3.55738</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.36496</v>
+        <v>1.27213</v>
       </c>
       <c r="C136" t="n">
-        <v>3.66097</v>
+        <v>3.35366</v>
       </c>
       <c r="D136" t="n">
-        <v>4.55727</v>
+        <v>4.16735</v>
       </c>
       <c r="E136" t="n">
-        <v>1.27376</v>
+        <v>1.1839</v>
       </c>
       <c r="F136" t="n">
-        <v>3.36917</v>
+        <v>2.8605</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36501</v>
+        <v>1.27344</v>
       </c>
       <c r="C137" t="n">
-        <v>2.18002</v>
+        <v>2.45897</v>
       </c>
       <c r="D137" t="n">
-        <v>4.50336</v>
+        <v>4.7771</v>
       </c>
       <c r="E137" t="n">
-        <v>1.6284</v>
+        <v>1.52061</v>
       </c>
       <c r="F137" t="n">
-        <v>5.63771</v>
+        <v>5.11959</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.6354</v>
+        <v>1.52497</v>
       </c>
       <c r="C138" t="n">
-        <v>4.53915</v>
+        <v>4.15177</v>
       </c>
       <c r="D138" t="n">
-        <v>4.70651</v>
+        <v>4.27762</v>
       </c>
       <c r="E138" t="n">
-        <v>1.59701</v>
+        <v>1.51487</v>
       </c>
       <c r="F138" t="n">
-        <v>5.55213</v>
+        <v>5.03537</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.62191</v>
+        <v>1.51563</v>
       </c>
       <c r="C139" t="n">
-        <v>4.50023</v>
+        <v>4.10173</v>
       </c>
       <c r="D139" t="n">
-        <v>4.39769</v>
+        <v>3.78201</v>
       </c>
       <c r="E139" t="n">
-        <v>1.61763</v>
+        <v>1.50909</v>
       </c>
       <c r="F139" t="n">
-        <v>5.45706</v>
+        <v>4.9397</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62267</v>
+        <v>1.51246</v>
       </c>
       <c r="C140" t="n">
-        <v>4.46074</v>
+        <v>4.0465</v>
       </c>
       <c r="D140" t="n">
-        <v>3.85283</v>
+        <v>3.96347</v>
       </c>
       <c r="E140" t="n">
-        <v>1.58706</v>
+        <v>1.50138</v>
       </c>
       <c r="F140" t="n">
-        <v>5.34761</v>
+        <v>4.84793</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60665</v>
+        <v>1.51006</v>
       </c>
       <c r="C141" t="n">
-        <v>4.39642</v>
+        <v>4.00692</v>
       </c>
       <c r="D141" t="n">
-        <v>3.55476</v>
+        <v>3.24364</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58502</v>
+        <v>1.47187</v>
       </c>
       <c r="F141" t="n">
-        <v>5.25356</v>
+        <v>4.77401</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.60683</v>
+        <v>1.47758</v>
       </c>
       <c r="C142" t="n">
-        <v>4.35394</v>
+        <v>3.96358</v>
       </c>
       <c r="D142" t="n">
-        <v>3.51167</v>
+        <v>3.20215</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58178</v>
+        <v>1.4637</v>
       </c>
       <c r="F142" t="n">
-        <v>5.16208</v>
+        <v>4.68893</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.58224</v>
+        <v>1.49167</v>
       </c>
       <c r="C143" t="n">
-        <v>4.30202</v>
+        <v>3.93363</v>
       </c>
       <c r="D143" t="n">
-        <v>3.47235</v>
+        <v>3.16323</v>
       </c>
       <c r="E143" t="n">
-        <v>1.57924</v>
+        <v>1.46046</v>
       </c>
       <c r="F143" t="n">
-        <v>5.07135</v>
+        <v>4.6114</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578945</v>
+        <v>0.579138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.777955</v>
+        <v>0.776316</v>
       </c>
       <c r="D2" t="n">
-        <v>0.839577</v>
+        <v>0.841882</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564972</v>
+        <v>0.5654090000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.810456</v>
+        <v>0.809656</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561191</v>
+        <v>0.562136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768906</v>
+        <v>0.769896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.831166</v>
+        <v>0.833925</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552146</v>
+        <v>0.550756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793724</v>
+        <v>0.792233</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551453</v>
+        <v>0.550181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761301</v>
+        <v>0.760564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.823762</v>
+        <v>0.823898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538936</v>
+        <v>0.5389080000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7790589999999999</v>
+        <v>0.777035</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541463</v>
+        <v>0.541542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7505810000000001</v>
+        <v>0.751887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.867102</v>
+        <v>0.872437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.52728</v>
+        <v>0.526854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.762497</v>
+        <v>0.762246</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534957</v>
+        <v>0.534452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.742733</v>
+        <v>0.7442879999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.807443</v>
+        <v>0.811121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517355</v>
+        <v>0.516848</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75015</v>
+        <v>0.749848</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527718</v>
+        <v>0.5271670000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738226</v>
+        <v>0.741076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.926841</v>
+        <v>0.927467</v>
       </c>
       <c r="E7" t="n">
-        <v>0.509372</v>
+        <v>0.508249</v>
       </c>
       <c r="F7" t="n">
-        <v>0.741707</v>
+        <v>0.739649</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523765</v>
+        <v>0.526213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.738002</v>
+        <v>0.738882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.905394</v>
+        <v>0.907098</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503012</v>
+        <v>0.503314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.734347</v>
+        <v>0.733002</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255609999999999</v>
+        <v>0.525784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737313</v>
+        <v>0.738909</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888393</v>
+        <v>0.891611</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760336</v>
+        <v>0.761593</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01089</v>
+        <v>1.00851</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6762860000000001</v>
+        <v>0.672978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899665</v>
+        <v>0.896967</v>
       </c>
       <c r="D10" t="n">
-        <v>0.873133</v>
+        <v>0.874858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737093</v>
+        <v>0.7377010000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985406</v>
+        <v>0.97894</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653654</v>
+        <v>0.653369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.880667</v>
+        <v>0.877403</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858518</v>
+        <v>0.862044</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715889</v>
+        <v>0.716449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965355</v>
+        <v>0.956385</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635395</v>
+        <v>0.638016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.863168</v>
+        <v>0.8607860000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843932</v>
+        <v>0.845019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.695515</v>
+        <v>0.695566</v>
       </c>
       <c r="F12" t="n">
-        <v>0.939678</v>
+        <v>0.937696</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619827</v>
+        <v>0.6159520000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848094</v>
+        <v>0.844816</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831947</v>
+        <v>0.832138</v>
       </c>
       <c r="E13" t="n">
-        <v>0.676133</v>
+        <v>0.67523</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916334</v>
+        <v>0.913878</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600864</v>
+        <v>0.601264</v>
       </c>
       <c r="C14" t="n">
-        <v>0.831952</v>
+        <v>0.828446</v>
       </c>
       <c r="D14" t="n">
-        <v>0.81735</v>
+        <v>0.818298</v>
       </c>
       <c r="E14" t="n">
-        <v>0.657255</v>
+        <v>0.658457</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893344</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.591224</v>
+        <v>0.60524</v>
       </c>
       <c r="C15" t="n">
-        <v>0.816922</v>
+        <v>0.815609</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8068380000000001</v>
+        <v>0.807611</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6400749999999999</v>
+        <v>0.640886</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871509</v>
+        <v>0.869105</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569161</v>
+        <v>0.569061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801168</v>
+        <v>0.799064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.797423</v>
+        <v>0.7987610000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62368</v>
+        <v>0.624097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.851644</v>
+        <v>0.84992</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560173</v>
+        <v>0.563678</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7876</v>
+        <v>0.7862170000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785624</v>
+        <v>0.789102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608329</v>
+        <v>0.6087</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8642069999999999</v>
+        <v>0.858867</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54938</v>
+        <v>0.546967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780049</v>
+        <v>0.778658</v>
       </c>
       <c r="D18" t="n">
-        <v>0.779042</v>
+        <v>0.781147</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594433</v>
+        <v>0.594451</v>
       </c>
       <c r="F18" t="n">
-        <v>0.847065</v>
+        <v>0.84517</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538171</v>
+        <v>0.542914</v>
       </c>
       <c r="C19" t="n">
-        <v>0.768107</v>
+        <v>0.767783</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7701210000000001</v>
+        <v>0.775419</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581197</v>
+        <v>0.580987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.831359</v>
+        <v>0.8275400000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529539</v>
+        <v>0.529358</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762468</v>
+        <v>0.761015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.762538</v>
+        <v>0.76766</v>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>0.570537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.817972</v>
+        <v>0.814429</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523358</v>
+        <v>0.521994</v>
       </c>
       <c r="C21" t="n">
-        <v>0.756655</v>
+        <v>0.755514</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989892</v>
+        <v>0.9924809999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.560911</v>
+        <v>0.561416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.811808</v>
+        <v>0.810164</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543504</v>
+        <v>0.518034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753754</v>
+        <v>0.752044</v>
       </c>
       <c r="D22" t="n">
-        <v>0.969093</v>
+        <v>0.9711070000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.554107</v>
+        <v>0.554548</v>
       </c>
       <c r="F22" t="n">
-        <v>0.802963</v>
+        <v>0.801217</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517083</v>
+        <v>0.517956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75027</v>
+        <v>0.752075</v>
       </c>
       <c r="D23" t="n">
-        <v>0.952606</v>
+        <v>0.953249</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818675</v>
+        <v>0.818912</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08801</v>
+        <v>1.0835</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.681482</v>
+        <v>0.684735</v>
       </c>
       <c r="C24" t="n">
-        <v>0.93862</v>
+        <v>0.936298</v>
       </c>
       <c r="D24" t="n">
-        <v>0.933874</v>
+        <v>0.933137</v>
       </c>
       <c r="E24" t="n">
-        <v>0.792855</v>
+        <v>0.793918</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05914</v>
+        <v>1.05369</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.666611</v>
+        <v>0.666922</v>
       </c>
       <c r="C25" t="n">
-        <v>0.916972</v>
+        <v>0.916896</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9185219999999999</v>
+        <v>0.916501</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769389</v>
+        <v>0.770305</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03112</v>
+        <v>1.03002</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6473179999999999</v>
+        <v>0.643402</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896556</v>
+        <v>0.894001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899648</v>
+        <v>0.898705</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746775</v>
+        <v>0.747048</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00949</v>
+        <v>1.00334</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.663507</v>
+        <v>0.6275500000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.878578</v>
+        <v>0.876165</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8847390000000001</v>
+        <v>0.886262</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725227</v>
+        <v>0.724607</v>
       </c>
       <c r="F27" t="n">
-        <v>0.983803</v>
+        <v>0.981286</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642266</v>
+        <v>0.610246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.860191</v>
+        <v>0.85998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.869023</v>
+        <v>0.871302</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.704917</v>
       </c>
       <c r="F28" t="n">
-        <v>0.96217</v>
+        <v>0.958039</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624883</v>
+        <v>0.625655</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84295</v>
+        <v>0.844041</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866395</v>
+        <v>0.86555</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684581</v>
+        <v>0.683979</v>
       </c>
       <c r="F29" t="n">
-        <v>0.944242</v>
+        <v>0.940089</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60904</v>
+        <v>0.578157</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847733</v>
+        <v>0.845916</v>
       </c>
       <c r="D30" t="n">
-        <v>0.853972</v>
+        <v>0.855643</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666131</v>
+        <v>0.641871</v>
       </c>
       <c r="F30" t="n">
-        <v>0.920611</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595611</v>
+        <v>0.594819</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833983</v>
+        <v>0.834447</v>
       </c>
       <c r="D31" t="n">
-        <v>0.841808</v>
+        <v>0.843844</v>
       </c>
       <c r="E31" t="n">
-        <v>0.648764</v>
+        <v>0.649558</v>
       </c>
       <c r="F31" t="n">
-        <v>0.899454</v>
+        <v>0.893498</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811269999999999</v>
+        <v>0.582175</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824192</v>
+        <v>0.8233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8358950000000001</v>
+        <v>0.837045</v>
       </c>
       <c r="E32" t="n">
-        <v>0.632809</v>
+        <v>0.633292</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881498</v>
+        <v>0.8735540000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570567</v>
+        <v>0.546729</v>
       </c>
       <c r="C33" t="n">
-        <v>0.814344</v>
+        <v>0.812539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.827259</v>
+        <v>0.827004</v>
       </c>
       <c r="E33" t="n">
-        <v>0.618401</v>
+        <v>0.617441</v>
       </c>
       <c r="F33" t="n">
-        <v>0.862242</v>
+        <v>0.856396</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56001</v>
+        <v>0.560374</v>
       </c>
       <c r="C34" t="n">
-        <v>0.780455</v>
+        <v>0.781822</v>
       </c>
       <c r="D34" t="n">
-        <v>0.816309</v>
+        <v>0.818281</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6050990000000001</v>
+        <v>0.6050179999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8461610000000001</v>
+        <v>0.8412849999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551972</v>
+        <v>0.550393</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778699</v>
+        <v>0.777415</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06944</v>
+        <v>1.07128</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5730499999999999</v>
+        <v>0.573211</v>
       </c>
       <c r="F35" t="n">
-        <v>0.832548</v>
+        <v>0.82581</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543432</v>
+        <v>0.544445</v>
       </c>
       <c r="C36" t="n">
-        <v>0.771825</v>
+        <v>0.771477</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05229</v>
+        <v>1.0438</v>
       </c>
       <c r="E36" t="n">
-        <v>0.583402</v>
+        <v>0.564914</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821764</v>
+        <v>0.81545</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523994</v>
+        <v>0.542471</v>
       </c>
       <c r="C37" t="n">
-        <v>0.766075</v>
+        <v>0.76851</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02137</v>
+        <v>1.03146</v>
       </c>
       <c r="E37" t="n">
-        <v>0.833634</v>
+        <v>0.851537</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37803</v>
+        <v>1.37568</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736918</v>
+        <v>0.730457</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18611</v>
+        <v>1.18543</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00584</v>
+        <v>1.01104</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8088</v>
+        <v>0.809327</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3475</v>
+        <v>1.3451</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712777</v>
+        <v>0.710651</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1655</v>
+        <v>1.16434</v>
       </c>
       <c r="D39" t="n">
-        <v>0.98872</v>
+        <v>0.987012</v>
       </c>
       <c r="E39" t="n">
-        <v>0.784267</v>
+        <v>0.784054</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31647</v>
+        <v>1.31523</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710164</v>
+        <v>0.690999</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14561</v>
+        <v>1.14332</v>
       </c>
       <c r="D40" t="n">
-        <v>0.971569</v>
+        <v>0.971179</v>
       </c>
       <c r="E40" t="n">
-        <v>0.761387</v>
+        <v>0.762238</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28896</v>
+        <v>1.28594</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.67462</v>
+        <v>0.689851</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12844</v>
+        <v>1.12686</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9561539999999999</v>
+        <v>0.957794</v>
       </c>
       <c r="E41" t="n">
-        <v>0.740115</v>
+        <v>0.739092</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26112</v>
+        <v>1.25845</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653282</v>
+        <v>0.652929</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10987</v>
+        <v>1.1089</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939369</v>
+        <v>0.938503</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719585</v>
+        <v>0.717885</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23684</v>
+        <v>1.23348</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653292</v>
+        <v>0.652993</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0937</v>
+        <v>1.09267</v>
       </c>
       <c r="D43" t="n">
-        <v>0.925658</v>
+        <v>0.924823</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699701</v>
+        <v>0.700273</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21258</v>
+        <v>1.20949</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.619232</v>
+        <v>0.620146</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07876</v>
+        <v>1.07771</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912257</v>
+        <v>0.912336</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681382</v>
+        <v>0.680364</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18934</v>
+        <v>1.18677</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6216660000000001</v>
+        <v>0.60778</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06613</v>
+        <v>1.06419</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902527</v>
+        <v>0.903138</v>
       </c>
       <c r="E45" t="n">
-        <v>0.640358</v>
+        <v>0.663743</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16823</v>
+        <v>1.16576</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592971</v>
+        <v>0.591997</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05255</v>
+        <v>1.05053</v>
       </c>
       <c r="D46" t="n">
-        <v>0.890896</v>
+        <v>0.893422</v>
       </c>
       <c r="E46" t="n">
-        <v>0.647135</v>
+        <v>0.645361</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14824</v>
+        <v>1.14581</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.580769</v>
+        <v>0.592762</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04026</v>
+        <v>1.04014</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885104</v>
+        <v>0.885617</v>
       </c>
       <c r="E47" t="n">
-        <v>0.63196</v>
+        <v>0.629821</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12904</v>
+        <v>1.12658</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572925</v>
+        <v>0.571165</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02949</v>
+        <v>1.02856</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8758320000000001</v>
+        <v>0.878248</v>
       </c>
       <c r="E48" t="n">
-        <v>0.618397</v>
+        <v>0.616394</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11215</v>
+        <v>1.11001</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575179</v>
+        <v>0.561276</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02301</v>
+        <v>1.02335</v>
       </c>
       <c r="D49" t="n">
-        <v>0.87074</v>
+        <v>0.871129</v>
       </c>
       <c r="E49" t="n">
-        <v>0.586457</v>
+        <v>0.605569</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09699</v>
+        <v>1.09448</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.556882</v>
+        <v>0.554071</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01767</v>
+        <v>1.01576</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11552</v>
+        <v>1.11624</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577457</v>
+        <v>0.596686</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08197</v>
+        <v>1.08073</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5517649999999999</v>
+        <v>0.5515949999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01346</v>
+        <v>1.01381</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09269</v>
+        <v>1.09248</v>
       </c>
       <c r="E51" t="n">
-        <v>0.863727</v>
+        <v>0.876548</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4549</v>
+        <v>1.45353</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551859</v>
+        <v>0.550215</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01523</v>
+        <v>1.01395</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0712</v>
+        <v>1.07222</v>
       </c>
       <c r="E52" t="n">
-        <v>0.838862</v>
+        <v>0.851523</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42159</v>
+        <v>1.42148</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7504189999999999</v>
+        <v>0.758435</v>
       </c>
       <c r="C53" t="n">
-        <v>1.2153</v>
+        <v>1.21467</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04855</v>
+        <v>1.04882</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8274550000000001</v>
+        <v>0.815411</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38829</v>
+        <v>1.38707</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735606</v>
+        <v>0.7390099999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19383</v>
+        <v>1.19722</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03278</v>
+        <v>1.03221</v>
       </c>
       <c r="E54" t="n">
-        <v>0.803524</v>
+        <v>0.802759</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35994</v>
+        <v>1.36013</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.710759</v>
+        <v>0.710373</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17504</v>
+        <v>1.17559</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01246</v>
+        <v>1.01266</v>
       </c>
       <c r="E55" t="n">
-        <v>0.770278</v>
+        <v>0.769266</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32944</v>
+        <v>1.33107</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692178</v>
+        <v>0.690045</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15581</v>
+        <v>1.15503</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9968050000000001</v>
+        <v>0.997563</v>
       </c>
       <c r="E56" t="n">
-        <v>0.749043</v>
+        <v>0.746826</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30299</v>
+        <v>1.30195</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674092</v>
+        <v>0.667615</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1399</v>
+        <v>1.14015</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981193</v>
+        <v>0.981181</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7310140000000001</v>
+        <v>0.728321</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27815</v>
+        <v>1.27742</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664422</v>
+        <v>0.662006</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12269</v>
+        <v>1.12653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969372</v>
+        <v>0.966248</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711004</v>
+        <v>0.708685</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25073</v>
+        <v>1.25246</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64124</v>
+        <v>0.638614</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10858</v>
+        <v>1.10793</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948706</v>
+        <v>0.950272</v>
       </c>
       <c r="E59" t="n">
-        <v>0.666104</v>
+        <v>0.663592</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22967</v>
+        <v>1.23026</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.627595</v>
+        <v>0.62988</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09491</v>
+        <v>1.09749</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93933</v>
+        <v>0.940078</v>
       </c>
       <c r="E60" t="n">
-        <v>0.675085</v>
+        <v>0.675206</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20621</v>
+        <v>1.20673</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614029</v>
+        <v>0.6159480000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08407</v>
+        <v>1.08539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.929284</v>
+        <v>0.929118</v>
       </c>
       <c r="E61" t="n">
-        <v>0.63654</v>
+        <v>0.634294</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18527</v>
+        <v>1.18668</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607531</v>
+        <v>0.603653</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07455</v>
+        <v>1.07466</v>
       </c>
       <c r="D62" t="n">
-        <v>0.919617</v>
+        <v>0.920549</v>
       </c>
       <c r="E62" t="n">
-        <v>0.645849</v>
+        <v>0.622184</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16768</v>
+        <v>1.168</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600247</v>
+        <v>0.59405</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06484</v>
+        <v>1.06725</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9084370000000001</v>
+        <v>0.913044</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610885</v>
+        <v>0.633921</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15126</v>
+        <v>1.1523</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.586382</v>
+        <v>0.587151</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05884</v>
+        <v>1.05999</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19335</v>
+        <v>1.19484</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623261</v>
+        <v>0.62384</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13627</v>
+        <v>1.13804</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.581714</v>
+        <v>0.5822580000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05516</v>
+        <v>1.05606</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17073</v>
+        <v>1.16755</v>
       </c>
       <c r="E65" t="n">
-        <v>0.615559</v>
+        <v>0.616196</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12607</v>
+        <v>1.12573</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580363</v>
+        <v>0.579342</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05505</v>
+        <v>1.05514</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13766</v>
+        <v>1.13859</v>
       </c>
       <c r="E66" t="n">
-        <v>0.909761</v>
+        <v>0.910199</v>
       </c>
       <c r="F66" t="n">
-        <v>1.50085</v>
+        <v>1.49873</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.828461</v>
+        <v>0.831448</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2815</v>
+        <v>1.28068</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10789</v>
+        <v>1.11188</v>
       </c>
       <c r="E67" t="n">
-        <v>0.874743</v>
+        <v>0.891697</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46805</v>
+        <v>1.46738</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.806863</v>
+        <v>0.808979</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26156</v>
+        <v>1.26092</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08707</v>
+        <v>1.08838</v>
       </c>
       <c r="E68" t="n">
-        <v>0.853703</v>
+        <v>0.854426</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43868</v>
+        <v>1.43341</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7880819999999999</v>
+        <v>0.7816650000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24224</v>
+        <v>1.24214</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06951</v>
+        <v>1.07071</v>
       </c>
       <c r="E69" t="n">
-        <v>0.843563</v>
+        <v>0.842364</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41695</v>
+        <v>1.40551</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.776046</v>
+        <v>0.766683</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23481</v>
+        <v>1.23114</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05315</v>
+        <v>1.05823</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81177</v>
+        <v>0.820646</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38741</v>
+        <v>1.38572</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76677</v>
+        <v>0.760507</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22024</v>
+        <v>1.21656</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02362</v>
+        <v>1.02662</v>
       </c>
       <c r="E71" t="n">
-        <v>0.79226</v>
+        <v>0.791266</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36539</v>
+        <v>1.36371</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744466</v>
+        <v>0.746482</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20471</v>
+        <v>1.20685</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01309</v>
+        <v>1.01835</v>
       </c>
       <c r="E72" t="n">
-        <v>0.771702</v>
+        <v>0.769065</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34323</v>
+        <v>1.34445</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.730315</v>
+        <v>0.728809</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19652</v>
+        <v>1.19033</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00466</v>
+        <v>1.00757</v>
       </c>
       <c r="E73" t="n">
-        <v>0.752695</v>
+        <v>0.751024</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32944</v>
+        <v>1.322</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.712638</v>
+        <v>0.716673</v>
       </c>
       <c r="C74" t="n">
-        <v>1.1925</v>
+        <v>1.18719</v>
       </c>
       <c r="D74" t="n">
-        <v>0.990823</v>
+        <v>0.9916700000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7348209999999999</v>
+        <v>0.70096</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31111</v>
+        <v>1.30705</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692535</v>
+        <v>0.7018529999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18726</v>
+        <v>1.18088</v>
       </c>
       <c r="D75" t="n">
-        <v>0.985135</v>
+        <v>0.986888</v>
       </c>
       <c r="E75" t="n">
-        <v>0.717469</v>
+        <v>0.686243</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29574</v>
+        <v>1.30046</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.690912</v>
+        <v>0.688219</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18038</v>
+        <v>1.18672</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979475</v>
+        <v>0.986216</v>
       </c>
       <c r="E76" t="n">
-        <v>0.671296</v>
+        <v>0.7019919999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28393</v>
+        <v>1.28544</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679749</v>
+        <v>0.678914</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18405</v>
+        <v>1.18208</v>
       </c>
       <c r="D77" t="n">
-        <v>0.971542</v>
+        <v>0.973344</v>
       </c>
       <c r="E77" t="n">
-        <v>0.687662</v>
+        <v>0.687061</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27394</v>
+        <v>1.27114</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663251</v>
+        <v>0.662724</v>
       </c>
       <c r="C78" t="n">
-        <v>0.915733</v>
+        <v>1.18049</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44172</v>
+        <v>1.44253</v>
       </c>
       <c r="E78" t="n">
-        <v>0.648093</v>
+        <v>0.6749849999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27133</v>
+        <v>1.26664</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659977</v>
+        <v>0.624829</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18123</v>
+        <v>1.19652</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40853</v>
+        <v>1.41241</v>
       </c>
       <c r="E79" t="n">
-        <v>0.640089</v>
+        <v>0.66464</v>
       </c>
       <c r="F79" t="n">
-        <v>1.262</v>
+        <v>1.27121</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.646414</v>
+        <v>0.645933</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18678</v>
+        <v>1.20806</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37663</v>
+        <v>1.38916</v>
       </c>
       <c r="E80" t="n">
-        <v>0.977612</v>
+        <v>0.959696</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94413</v>
+        <v>1.95976</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.902752</v>
+        <v>0.904133</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69256</v>
+        <v>1.70484</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34091</v>
+        <v>1.35164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.944515</v>
+        <v>0.9623429999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1.92971</v>
+        <v>1.9397</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9017269999999999</v>
+        <v>0.896968</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70832</v>
+        <v>1.70926</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31956</v>
+        <v>1.32632</v>
       </c>
       <c r="E82" t="n">
-        <v>0.945915</v>
+        <v>0.928058</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91378</v>
+        <v>1.93455</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.888181</v>
+        <v>0.886425</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69766</v>
+        <v>1.71467</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29945</v>
+        <v>1.31299</v>
       </c>
       <c r="E83" t="n">
-        <v>0.910839</v>
+        <v>0.927106</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90201</v>
+        <v>1.90091</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882795</v>
+        <v>0.876824</v>
       </c>
       <c r="C84" t="n">
-        <v>1.70276</v>
+        <v>1.71908</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2862</v>
+        <v>1.3006</v>
       </c>
       <c r="E84" t="n">
-        <v>0.891394</v>
+        <v>0.907334</v>
       </c>
       <c r="F84" t="n">
-        <v>1.87741</v>
+        <v>1.89371</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.873467</v>
+        <v>0.866588</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70249</v>
+        <v>1.7103</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24737</v>
+        <v>1.25541</v>
       </c>
       <c r="E85" t="n">
-        <v>0.871479</v>
+        <v>0.8729749999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87663</v>
+        <v>1.86752</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851044</v>
+        <v>0.844996</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71091</v>
+        <v>1.71249</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24128</v>
+        <v>1.24801</v>
       </c>
       <c r="E86" t="n">
-        <v>0.854048</v>
+        <v>0.853765</v>
       </c>
       <c r="F86" t="n">
-        <v>1.84882</v>
+        <v>1.86737</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.842668</v>
+        <v>0.846915</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70851</v>
+        <v>1.71154</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23604</v>
+        <v>1.24363</v>
       </c>
       <c r="E87" t="n">
-        <v>0.793293</v>
+        <v>0.83445</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86212</v>
+        <v>1.85971</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.83203</v>
+        <v>0.8203549999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7154</v>
+        <v>1.71964</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23036</v>
+        <v>1.23849</v>
       </c>
       <c r="E88" t="n">
-        <v>0.815468</v>
+        <v>0.828321</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85231</v>
+        <v>1.85422</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809331</v>
+        <v>0.823157</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72687</v>
+        <v>1.72834</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23492</v>
+        <v>1.23522</v>
       </c>
       <c r="E89" t="n">
-        <v>0.798683</v>
+        <v>0.798295</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85601</v>
+        <v>1.85036</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794862</v>
+        <v>0.805013</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73738</v>
+        <v>1.74135</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23943</v>
+        <v>1.24605</v>
       </c>
       <c r="E90" t="n">
-        <v>0.780344</v>
+        <v>0.7455349999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1.85873</v>
+        <v>1.86309</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79195</v>
+        <v>0.8024790000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75186</v>
+        <v>1.76106</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24009</v>
+        <v>1.23934</v>
       </c>
       <c r="E91" t="n">
-        <v>0.730885</v>
+        <v>0.731383</v>
       </c>
       <c r="F91" t="n">
-        <v>1.87179</v>
+        <v>1.8591</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78806</v>
+        <v>0.784489</v>
       </c>
       <c r="C92" t="n">
-        <v>1.57397</v>
+        <v>1.77023</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59804</v>
+        <v>2.59868</v>
       </c>
       <c r="E92" t="n">
-        <v>0.751381</v>
+        <v>0.751305</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86149</v>
+        <v>1.84857</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.756065</v>
+        <v>0.777528</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19126</v>
+        <v>1.76901</v>
       </c>
       <c r="D93" t="n">
-        <v>2.25703</v>
+        <v>2.42303</v>
       </c>
       <c r="E93" t="n">
-        <v>0.709817</v>
+        <v>0.739977</v>
       </c>
       <c r="F93" t="n">
-        <v>1.87588</v>
+        <v>1.87196</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7819739999999999</v>
+        <v>0.778433</v>
       </c>
       <c r="C94" t="n">
-        <v>1.82163</v>
+        <v>1.80617</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23865</v>
+        <v>2.48804</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06236</v>
+        <v>1.06152</v>
       </c>
       <c r="F94" t="n">
-        <v>2.94124</v>
+        <v>2.94211</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04597</v>
+        <v>1.01553</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50674</v>
+        <v>2.48634</v>
       </c>
       <c r="D95" t="n">
-        <v>2.35046</v>
+        <v>2.41119</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0252</v>
+        <v>1.02574</v>
       </c>
       <c r="F95" t="n">
-        <v>2.9196</v>
+        <v>2.9128</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02645</v>
+        <v>1.01353</v>
       </c>
       <c r="C96" t="n">
-        <v>2.50693</v>
+        <v>2.5029</v>
       </c>
       <c r="D96" t="n">
-        <v>2.47816</v>
+        <v>2.33859</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0375</v>
+        <v>1.0117</v>
       </c>
       <c r="F96" t="n">
-        <v>2.87694</v>
+        <v>2.87983</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02291</v>
+        <v>1.02102</v>
       </c>
       <c r="C97" t="n">
-        <v>2.49533</v>
+        <v>2.50072</v>
       </c>
       <c r="D97" t="n">
-        <v>2.33804</v>
+        <v>2.40955</v>
       </c>
       <c r="E97" t="n">
-        <v>1.01874</v>
+        <v>0.995645</v>
       </c>
       <c r="F97" t="n">
-        <v>2.84224</v>
+        <v>2.84124</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01467</v>
+        <v>1.00762</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48121</v>
+        <v>2.46611</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12482</v>
+        <v>1.90658</v>
       </c>
       <c r="E98" t="n">
-        <v>0.977468</v>
+        <v>0.978311</v>
       </c>
       <c r="F98" t="n">
-        <v>2.81805</v>
+        <v>2.80674</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9658949999999999</v>
+        <v>0.988032</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46789</v>
+        <v>2.45838</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74476</v>
+        <v>2.1938</v>
       </c>
       <c r="E99" t="n">
-        <v>0.961076</v>
+        <v>0.9632039999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>2.76768</v>
+        <v>2.76527</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.972756</v>
+        <v>0.97461</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44529</v>
+        <v>2.42916</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72652</v>
+        <v>1.72762</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9464669999999999</v>
+        <v>0.948022</v>
       </c>
       <c r="F100" t="n">
-        <v>2.74154</v>
+        <v>2.73726</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967247</v>
+        <v>0.965509</v>
       </c>
       <c r="C101" t="n">
-        <v>2.43288</v>
+        <v>2.43109</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71766</v>
+        <v>1.7299</v>
       </c>
       <c r="E101" t="n">
-        <v>0.888662</v>
+        <v>0.932314</v>
       </c>
       <c r="F101" t="n">
-        <v>2.70845</v>
+        <v>2.70053</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958162</v>
+        <v>0.962984</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4177</v>
+        <v>2.41276</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71562</v>
+        <v>1.72036</v>
       </c>
       <c r="E102" t="n">
-        <v>0.876199</v>
+        <v>0.916687</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6875</v>
+        <v>2.6806</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.925603</v>
+        <v>0.948268</v>
       </c>
       <c r="C103" t="n">
-        <v>2.39044</v>
+        <v>2.40961</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72266</v>
+        <v>1.7198</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9030280000000001</v>
+        <v>0.8651219999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>1.64207</v>
+        <v>2.65978</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.899645</v>
+        <v>0.941753</v>
       </c>
       <c r="C104" t="n">
-        <v>2.06345</v>
+        <v>2.39142</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72749</v>
+        <v>1.72443</v>
       </c>
       <c r="E104" t="n">
-        <v>0.852386</v>
+        <v>0.891066</v>
       </c>
       <c r="F104" t="n">
-        <v>1.59879</v>
+        <v>2.61568</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.898475</v>
+        <v>0.937744</v>
       </c>
       <c r="C105" t="n">
-        <v>1.5552</v>
+        <v>2.38602</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72478</v>
+        <v>1.90831</v>
       </c>
       <c r="E105" t="n">
-        <v>0.843021</v>
+        <v>0.87971</v>
       </c>
       <c r="F105" t="n">
-        <v>1.56107</v>
+        <v>2.08025</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9007540000000001</v>
+        <v>0.939379</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37157</v>
+        <v>2.37037</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72959</v>
+        <v>1.72924</v>
       </c>
       <c r="E106" t="n">
-        <v>0.833892</v>
+        <v>0.836302</v>
       </c>
       <c r="F106" t="n">
-        <v>1.53719</v>
+        <v>2.22541</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943306</v>
+        <v>0.921559</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35872</v>
+        <v>1.33958</v>
       </c>
       <c r="D107" t="n">
-        <v>3.52198</v>
+        <v>3.51752</v>
       </c>
       <c r="E107" t="n">
-        <v>0.858177</v>
+        <v>0.8284820000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>1.50021</v>
+        <v>1.50071</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897498</v>
+        <v>0.906355</v>
       </c>
       <c r="C108" t="n">
-        <v>2.37914</v>
+        <v>2.38448</v>
       </c>
       <c r="D108" t="n">
-        <v>3.33197</v>
+        <v>2.96644</v>
       </c>
       <c r="E108" t="n">
-        <v>1.15028</v>
+        <v>1.1811</v>
       </c>
       <c r="F108" t="n">
-        <v>3.78878</v>
+        <v>3.80282</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.909695</v>
+        <v>0.933864</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49619</v>
+        <v>2.38615</v>
       </c>
       <c r="D109" t="n">
-        <v>3.47584</v>
+        <v>3.29527</v>
       </c>
       <c r="E109" t="n">
-        <v>1.17423</v>
+        <v>1.14642</v>
       </c>
       <c r="F109" t="n">
-        <v>3.75683</v>
+        <v>3.74394</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17957</v>
+        <v>1.17034</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11847</v>
+        <v>3.11194</v>
       </c>
       <c r="D110" t="n">
-        <v>2.73031</v>
+        <v>2.91577</v>
       </c>
       <c r="E110" t="n">
-        <v>1.16019</v>
+        <v>1.16157</v>
       </c>
       <c r="F110" t="n">
-        <v>3.68574</v>
+        <v>3.68516</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1777</v>
+        <v>1.15249</v>
       </c>
       <c r="C111" t="n">
-        <v>3.0766</v>
+        <v>3.08428</v>
       </c>
       <c r="D111" t="n">
-        <v>2.8993</v>
+        <v>2.71899</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12037</v>
+        <v>1.11845</v>
       </c>
       <c r="F111" t="n">
-        <v>3.64655</v>
+        <v>3.63425</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17225</v>
+        <v>1.16433</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07165</v>
+        <v>3.05418</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52207</v>
+        <v>2.51473</v>
       </c>
       <c r="E112" t="n">
-        <v>1.13023</v>
+        <v>1.12995</v>
       </c>
       <c r="F112" t="n">
-        <v>3.58407</v>
+        <v>3.57279</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14524</v>
+        <v>1.12805</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03778</v>
+        <v>3.02613</v>
       </c>
       <c r="D113" t="n">
-        <v>2.29429</v>
+        <v>2.68325</v>
       </c>
       <c r="E113" t="n">
-        <v>1.09319</v>
+        <v>1.09238</v>
       </c>
       <c r="F113" t="n">
-        <v>3.52641</v>
+        <v>3.5234</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12364</v>
+        <v>1.14231</v>
       </c>
       <c r="C114" t="n">
-        <v>3.01141</v>
+        <v>3.01723</v>
       </c>
       <c r="D114" t="n">
-        <v>2.47728</v>
+        <v>2.28602</v>
       </c>
       <c r="E114" t="n">
-        <v>1.10338</v>
+        <v>1.07934</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47611</v>
+        <v>3.46879</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12807</v>
+        <v>1.12527</v>
       </c>
       <c r="C115" t="n">
-        <v>3.00056</v>
+        <v>2.99462</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47817</v>
+        <v>2.47951</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06957</v>
+        <v>1.06925</v>
       </c>
       <c r="F115" t="n">
-        <v>3.42783</v>
+        <v>3.41786</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11637</v>
+        <v>1.10898</v>
       </c>
       <c r="C116" t="n">
-        <v>2.96175</v>
+        <v>2.96857</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46635</v>
+        <v>2.45978</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05955</v>
+        <v>1.05806</v>
       </c>
       <c r="F116" t="n">
-        <v>3.36508</v>
+        <v>3.37579</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10606</v>
+        <v>1.09769</v>
       </c>
       <c r="C117" t="n">
-        <v>2.94734</v>
+        <v>2.955</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25639</v>
+        <v>2.25788</v>
       </c>
       <c r="E117" t="n">
-        <v>1.01194</v>
+        <v>1.01221</v>
       </c>
       <c r="F117" t="n">
-        <v>3.13665</v>
+        <v>3.32639</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09748</v>
+        <v>1.09133</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92198</v>
+        <v>2.92495</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25601</v>
+        <v>2.24892</v>
       </c>
       <c r="E118" t="n">
-        <v>1.04057</v>
+        <v>1.03871</v>
       </c>
       <c r="F118" t="n">
-        <v>3.29461</v>
+        <v>3.30166</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09279</v>
+        <v>1.08997</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91153</v>
+        <v>2.91974</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25158</v>
+        <v>2.25169</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9984769999999999</v>
+        <v>1.03139</v>
       </c>
       <c r="F119" t="n">
-        <v>3.25361</v>
+        <v>3.26584</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08284</v>
+        <v>1.10556</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90405</v>
+        <v>2.90899</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25159</v>
+        <v>2.25317</v>
       </c>
       <c r="E120" t="n">
-        <v>1.02447</v>
+        <v>0.990993</v>
       </c>
       <c r="F120" t="n">
-        <v>2.81385</v>
+        <v>3.21473</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09384</v>
+        <v>1.08612</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8854</v>
+        <v>2.87735</v>
       </c>
       <c r="D121" t="n">
-        <v>4.28566</v>
+        <v>4.27638</v>
       </c>
       <c r="E121" t="n">
-        <v>0.986803</v>
+        <v>1.01658</v>
       </c>
       <c r="F121" t="n">
-        <v>2.98845</v>
+        <v>3.18595</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.04463</v>
+        <v>1.08223</v>
       </c>
       <c r="C122" t="n">
-        <v>2.88915</v>
+        <v>2.88516</v>
       </c>
       <c r="D122" t="n">
-        <v>3.83575</v>
+        <v>4.25482</v>
       </c>
       <c r="E122" t="n">
-        <v>0.982499</v>
+        <v>0.982371</v>
       </c>
       <c r="F122" t="n">
-        <v>2.54162</v>
+        <v>3.14391</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08658</v>
+        <v>1.06319</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6632</v>
+        <v>1.64443</v>
       </c>
       <c r="D123" t="n">
-        <v>4.19002</v>
+        <v>3.58929</v>
       </c>
       <c r="E123" t="n">
-        <v>1.33</v>
+        <v>1.32746</v>
       </c>
       <c r="F123" t="n">
-        <v>4.46281</v>
+        <v>4.47141</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34986</v>
+        <v>1.35419</v>
       </c>
       <c r="C124" t="n">
-        <v>3.64295</v>
+        <v>3.65254</v>
       </c>
       <c r="D124" t="n">
-        <v>3.94945</v>
+        <v>3.53645</v>
       </c>
       <c r="E124" t="n">
-        <v>1.29233</v>
+        <v>1.28909</v>
       </c>
       <c r="F124" t="n">
-        <v>4.39732</v>
+        <v>4.39997</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33568</v>
+        <v>1.32224</v>
       </c>
       <c r="C125" t="n">
-        <v>3.61675</v>
+        <v>3.61775</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30026</v>
+        <v>3.1015</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28112</v>
+        <v>1.28018</v>
       </c>
       <c r="F125" t="n">
-        <v>4.33468</v>
+        <v>4.3302</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32098</v>
+        <v>1.30867</v>
       </c>
       <c r="C126" t="n">
-        <v>3.57909</v>
+        <v>3.58125</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0606</v>
+        <v>3.06946</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27317</v>
+        <v>1.27134</v>
       </c>
       <c r="F126" t="n">
-        <v>4.25192</v>
+        <v>4.25792</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31392</v>
+        <v>1.32411</v>
       </c>
       <c r="C127" t="n">
-        <v>3.54017</v>
+        <v>3.5553</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81846</v>
+        <v>3.03703</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26417</v>
+        <v>1.26418</v>
       </c>
       <c r="F127" t="n">
-        <v>4.18228</v>
+        <v>4.1899</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29634</v>
+        <v>1.29231</v>
       </c>
       <c r="C128" t="n">
-        <v>3.51571</v>
+        <v>3.51186</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80197</v>
+        <v>2.78679</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2565</v>
+        <v>1.25532</v>
       </c>
       <c r="F128" t="n">
-        <v>4.13447</v>
+        <v>4.12282</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27651</v>
+        <v>1.28903</v>
       </c>
       <c r="C129" t="n">
-        <v>3.49106</v>
+        <v>3.48402</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76079</v>
+        <v>2.76381</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24714</v>
+        <v>1.20947</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0634</v>
+        <v>4.06949</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.27859</v>
+        <v>1.2844</v>
       </c>
       <c r="C130" t="n">
-        <v>3.45324</v>
+        <v>3.46772</v>
       </c>
       <c r="D130" t="n">
-        <v>2.75182</v>
+        <v>2.96859</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24175</v>
+        <v>1.24162</v>
       </c>
       <c r="F130" t="n">
-        <v>4.01223</v>
+        <v>4.00172</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.26472</v>
+        <v>1.27891</v>
       </c>
       <c r="C131" t="n">
-        <v>3.42207</v>
+        <v>3.43378</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73814</v>
+        <v>2.74271</v>
       </c>
       <c r="E131" t="n">
-        <v>1.23529</v>
+        <v>1.23654</v>
       </c>
       <c r="F131" t="n">
-        <v>3.96145</v>
+        <v>3.95768</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.26537</v>
+        <v>1.27336</v>
       </c>
       <c r="C132" t="n">
-        <v>3.40555</v>
+        <v>3.40696</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72633</v>
+        <v>2.72598</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23045</v>
+        <v>1.23046</v>
       </c>
       <c r="F132" t="n">
-        <v>3.90638</v>
+        <v>3.69566</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27396</v>
+        <v>1.26241</v>
       </c>
       <c r="C133" t="n">
-        <v>3.39156</v>
+        <v>3.39459</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71328</v>
+        <v>2.71234</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22408</v>
+        <v>1.1937</v>
       </c>
       <c r="F133" t="n">
-        <v>3.41184</v>
+        <v>3.86527</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2481</v>
+        <v>1.26577</v>
       </c>
       <c r="C134" t="n">
-        <v>3.36343</v>
+        <v>3.3735</v>
       </c>
       <c r="D134" t="n">
-        <v>2.70865</v>
+        <v>2.71314</v>
       </c>
       <c r="E134" t="n">
-        <v>1.18832</v>
+        <v>1.21975</v>
       </c>
       <c r="F134" t="n">
-        <v>3.59762</v>
+        <v>3.61053</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.24989</v>
+        <v>1.26978</v>
       </c>
       <c r="C135" t="n">
-        <v>3.35742</v>
+        <v>3.35624</v>
       </c>
       <c r="D135" t="n">
-        <v>4.87888</v>
+        <v>4.88097</v>
       </c>
       <c r="E135" t="n">
-        <v>1.18642</v>
+        <v>1.2166</v>
       </c>
       <c r="F135" t="n">
-        <v>3.55809</v>
+        <v>3.76356</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.24888</v>
+        <v>1.27273</v>
       </c>
       <c r="C136" t="n">
-        <v>2.02843</v>
+        <v>3.34852</v>
       </c>
       <c r="D136" t="n">
-        <v>4.80572</v>
+        <v>4.37285</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21125</v>
+        <v>1.18403</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40685</v>
+        <v>3.72245</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27759</v>
+        <v>1.25685</v>
       </c>
       <c r="C137" t="n">
-        <v>2.00784</v>
+        <v>2.00937</v>
       </c>
       <c r="D137" t="n">
-        <v>4.53685</v>
+        <v>3.6603</v>
       </c>
       <c r="E137" t="n">
-        <v>1.52763</v>
+        <v>1.52518</v>
       </c>
       <c r="F137" t="n">
-        <v>5.12942</v>
+        <v>5.10608</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53292</v>
+        <v>1.51098</v>
       </c>
       <c r="C138" t="n">
-        <v>4.13841</v>
+        <v>4.13954</v>
       </c>
       <c r="D138" t="n">
-        <v>4.26489</v>
+        <v>4.48843</v>
       </c>
       <c r="E138" t="n">
-        <v>1.51766</v>
+        <v>1.49336</v>
       </c>
       <c r="F138" t="n">
-        <v>5.02497</v>
+        <v>5.02203</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.50768</v>
+        <v>1.51289</v>
       </c>
       <c r="C139" t="n">
-        <v>4.09777</v>
+        <v>4.08968</v>
       </c>
       <c r="D139" t="n">
-        <v>3.99516</v>
+        <v>4.2189</v>
       </c>
       <c r="E139" t="n">
-        <v>1.4862</v>
+        <v>1.48596</v>
       </c>
       <c r="F139" t="n">
-        <v>4.92544</v>
+        <v>4.92813</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50335</v>
+        <v>1.5178</v>
       </c>
       <c r="C140" t="n">
-        <v>4.037</v>
+        <v>4.04917</v>
       </c>
       <c r="D140" t="n">
-        <v>3.73107</v>
+        <v>3.72583</v>
       </c>
       <c r="E140" t="n">
-        <v>1.50449</v>
+        <v>1.47996</v>
       </c>
       <c r="F140" t="n">
-        <v>4.84162</v>
+        <v>4.84719</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5057</v>
+        <v>1.49384</v>
       </c>
       <c r="C141" t="n">
-        <v>4.00232</v>
+        <v>3.99808</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91429</v>
+        <v>3.24308</v>
       </c>
       <c r="E141" t="n">
-        <v>1.49866</v>
+        <v>1.47361</v>
       </c>
       <c r="F141" t="n">
-        <v>4.74545</v>
+        <v>4.76173</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48536</v>
+        <v>1.49247</v>
       </c>
       <c r="C142" t="n">
-        <v>3.94933</v>
+        <v>3.96689</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18822</v>
+        <v>3.4255</v>
       </c>
       <c r="E142" t="n">
-        <v>1.46805</v>
+        <v>1.46745</v>
       </c>
       <c r="F142" t="n">
-        <v>4.67149</v>
+        <v>4.67155</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49018</v>
+        <v>1.48672</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92362</v>
+        <v>3.92739</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15339</v>
+        <v>3.15774</v>
       </c>
       <c r="E143" t="n">
-        <v>1.46316</v>
+        <v>1.42615</v>
       </c>
       <c r="F143" t="n">
-        <v>4.58989</v>
+        <v>4.59262</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578945</v>
+        <v>0.577772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.777955</v>
+        <v>0.781778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.839577</v>
+        <v>0.840242</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564972</v>
+        <v>0.618016</v>
       </c>
       <c r="F2" t="n">
-        <v>0.810456</v>
+        <v>0.80261</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561191</v>
+        <v>0.5603089999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768906</v>
+        <v>0.775298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.831166</v>
+        <v>0.8296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552146</v>
+        <v>0.551763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793724</v>
+        <v>0.78534</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551453</v>
+        <v>0.552135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761301</v>
+        <v>0.765666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.823762</v>
+        <v>0.822039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538936</v>
+        <v>0.539326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7790589999999999</v>
+        <v>0.769638</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541463</v>
+        <v>0.541061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7505810000000001</v>
+        <v>0.75592</v>
       </c>
       <c r="D5" t="n">
-        <v>0.867102</v>
+        <v>0.813648</v>
       </c>
       <c r="E5" t="n">
-        <v>0.52728</v>
+        <v>0.526935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.762497</v>
+        <v>0.759194</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534957</v>
+        <v>0.529829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.742733</v>
+        <v>0.749737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.807443</v>
+        <v>0.867295</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517355</v>
+        <v>0.516327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75015</v>
+        <v>0.744655</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527718</v>
+        <v>0.527429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738226</v>
+        <v>0.745624</v>
       </c>
       <c r="D7" t="n">
-        <v>0.926841</v>
+        <v>0.92967</v>
       </c>
       <c r="E7" t="n">
-        <v>0.509372</v>
+        <v>0.506884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.741707</v>
+        <v>0.733527</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523765</v>
+        <v>0.523176</v>
       </c>
       <c r="C8" t="n">
-        <v>0.738002</v>
+        <v>0.743379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.905394</v>
+        <v>0.908379</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503012</v>
+        <v>0.502429</v>
       </c>
       <c r="F8" t="n">
-        <v>0.734347</v>
+        <v>0.725515</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255609999999999</v>
+        <v>0.522391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737313</v>
+        <v>0.746683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888393</v>
+        <v>0.890386</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760336</v>
+        <v>0.770903</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01089</v>
+        <v>1.01053</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6762860000000001</v>
+        <v>0.670207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899665</v>
+        <v>0.90679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.873133</v>
+        <v>0.874236</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737093</v>
+        <v>0.747416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985406</v>
+        <v>0.9846819999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653654</v>
+        <v>0.652316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.880667</v>
+        <v>0.8887350000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858518</v>
+        <v>0.859849</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715889</v>
+        <v>0.725338</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965355</v>
+        <v>0.960403</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635395</v>
+        <v>0.630184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.863168</v>
+        <v>0.874506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843932</v>
+        <v>0.844166</v>
       </c>
       <c r="E12" t="n">
-        <v>0.695515</v>
+        <v>0.704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.939678</v>
+        <v>0.9364980000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619827</v>
+        <v>0.611154</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848094</v>
+        <v>0.8536280000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831947</v>
+        <v>0.830013</v>
       </c>
       <c r="E13" t="n">
-        <v>0.676133</v>
+        <v>0.684128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916334</v>
+        <v>0.914093</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600864</v>
+        <v>0.599849</v>
       </c>
       <c r="C14" t="n">
-        <v>0.831952</v>
+        <v>0.840836</v>
       </c>
       <c r="D14" t="n">
-        <v>0.81735</v>
+        <v>0.817825</v>
       </c>
       <c r="E14" t="n">
-        <v>0.657255</v>
+        <v>0.664445</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893344</v>
+        <v>0.890919</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.591224</v>
+        <v>0.58412</v>
       </c>
       <c r="C15" t="n">
-        <v>0.816922</v>
+        <v>0.823588</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8068380000000001</v>
+        <v>0.809817</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6400749999999999</v>
+        <v>0.646261</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871509</v>
+        <v>0.86868</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569161</v>
+        <v>0.571788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801168</v>
+        <v>0.805959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.797423</v>
+        <v>0.796419</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62368</v>
+        <v>0.62887</v>
       </c>
       <c r="F16" t="n">
-        <v>0.851644</v>
+        <v>0.848982</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560173</v>
+        <v>0.584519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7876</v>
+        <v>0.794005</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785624</v>
+        <v>0.785541</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608329</v>
+        <v>0.613199</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8642069999999999</v>
+        <v>0.858219</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54938</v>
+        <v>0.548292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780049</v>
+        <v>0.788981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.779042</v>
+        <v>0.777357</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594433</v>
+        <v>0.598337</v>
       </c>
       <c r="F18" t="n">
-        <v>0.847065</v>
+        <v>0.840274</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538171</v>
+        <v>0.534739</v>
       </c>
       <c r="C19" t="n">
-        <v>0.768107</v>
+        <v>0.774362</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7701210000000001</v>
+        <v>0.771221</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581197</v>
+        <v>0.5851769999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.831359</v>
+        <v>0.8251039999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529539</v>
+        <v>0.525329</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762468</v>
+        <v>0.770207</v>
       </c>
       <c r="D20" t="n">
-        <v>0.762538</v>
+        <v>0.761274</v>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>0.572457</v>
       </c>
       <c r="F20" t="n">
-        <v>0.817972</v>
+        <v>0.811306</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523358</v>
+        <v>0.5195920000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.756655</v>
+        <v>0.764159</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989892</v>
+        <v>0.989219</v>
       </c>
       <c r="E21" t="n">
-        <v>0.560911</v>
+        <v>0.563478</v>
       </c>
       <c r="F21" t="n">
-        <v>0.811808</v>
+        <v>0.807162</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543504</v>
+        <v>0.51414</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753754</v>
+        <v>0.76005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.969093</v>
+        <v>0.968345</v>
       </c>
       <c r="E22" t="n">
-        <v>0.554107</v>
+        <v>0.555913</v>
       </c>
       <c r="F22" t="n">
-        <v>0.802963</v>
+        <v>0.798056</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517083</v>
+        <v>0.5187929999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75027</v>
+        <v>0.76008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.952606</v>
+        <v>0.952077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818675</v>
+        <v>0.831945</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08801</v>
+        <v>1.08468</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.681482</v>
+        <v>0.684043</v>
       </c>
       <c r="C24" t="n">
-        <v>0.93862</v>
+        <v>0.9452430000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.933874</v>
+        <v>0.9296140000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.792855</v>
+        <v>0.80645</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05914</v>
+        <v>1.05827</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.666611</v>
+        <v>0.6612170000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.916972</v>
+        <v>0.923332</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9185219999999999</v>
+        <v>0.9162</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769389</v>
+        <v>0.781367</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03112</v>
+        <v>1.02843</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6473179999999999</v>
+        <v>0.64355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896556</v>
+        <v>0.903532</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899648</v>
+        <v>0.898643</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746775</v>
+        <v>0.758222</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00949</v>
+        <v>1.0085</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.663507</v>
+        <v>0.657509</v>
       </c>
       <c r="C27" t="n">
-        <v>0.878578</v>
+        <v>0.887128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8847390000000001</v>
+        <v>0.8843569999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725227</v>
+        <v>0.735498</v>
       </c>
       <c r="F27" t="n">
-        <v>0.983803</v>
+        <v>0.984445</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642266</v>
+        <v>0.639103</v>
       </c>
       <c r="C28" t="n">
-        <v>0.860191</v>
+        <v>0.867038</v>
       </c>
       <c r="D28" t="n">
-        <v>0.869023</v>
+        <v>0.8730250000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.713844</v>
       </c>
       <c r="F28" t="n">
-        <v>0.96217</v>
+        <v>0.95977</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624883</v>
+        <v>0.6253609999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84295</v>
+        <v>0.851278</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866395</v>
+        <v>0.863206</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684581</v>
+        <v>0.693594</v>
       </c>
       <c r="F29" t="n">
-        <v>0.944242</v>
+        <v>0.938337</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60904</v>
+        <v>0.584865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847733</v>
+        <v>0.853286</v>
       </c>
       <c r="D30" t="n">
-        <v>0.853972</v>
+        <v>0.85343</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666131</v>
+        <v>0.674312</v>
       </c>
       <c r="F30" t="n">
-        <v>0.920611</v>
+        <v>0.91557</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595611</v>
+        <v>0.592736</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833983</v>
+        <v>0.841118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.841808</v>
+        <v>0.839796</v>
       </c>
       <c r="E31" t="n">
-        <v>0.648764</v>
+        <v>0.656554</v>
       </c>
       <c r="F31" t="n">
-        <v>0.899454</v>
+        <v>0.895364</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811269999999999</v>
+        <v>0.580287</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824192</v>
+        <v>0.828134</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8358950000000001</v>
+        <v>0.833129</v>
       </c>
       <c r="E32" t="n">
-        <v>0.632809</v>
+        <v>0.617243</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881498</v>
+        <v>0.87607</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570567</v>
+        <v>0.56707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.814344</v>
+        <v>0.81871</v>
       </c>
       <c r="D33" t="n">
-        <v>0.827259</v>
+        <v>0.826359</v>
       </c>
       <c r="E33" t="n">
-        <v>0.618401</v>
+        <v>0.602876</v>
       </c>
       <c r="F33" t="n">
-        <v>0.862242</v>
+        <v>0.856663</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56001</v>
+        <v>0.537525</v>
       </c>
       <c r="C34" t="n">
-        <v>0.780455</v>
+        <v>0.790044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.816309</v>
+        <v>0.81662</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6050990000000001</v>
+        <v>0.589873</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8461610000000001</v>
+        <v>0.841083</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551972</v>
+        <v>0.549468</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778699</v>
+        <v>0.784407</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06944</v>
+        <v>1.07424</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5730499999999999</v>
+        <v>0.598619</v>
       </c>
       <c r="F35" t="n">
-        <v>0.832548</v>
+        <v>0.8255400000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543432</v>
+        <v>0.542292</v>
       </c>
       <c r="C36" t="n">
-        <v>0.771825</v>
+        <v>0.778815</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05229</v>
+        <v>1.05343</v>
       </c>
       <c r="E36" t="n">
-        <v>0.583402</v>
+        <v>0.568865</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821764</v>
+        <v>0.814432</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523994</v>
+        <v>0.541533</v>
       </c>
       <c r="C37" t="n">
-        <v>0.766075</v>
+        <v>0.776841</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02137</v>
+        <v>1.03391</v>
       </c>
       <c r="E37" t="n">
-        <v>0.833634</v>
+        <v>0.849562</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37803</v>
+        <v>1.37548</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736918</v>
+        <v>0.731136</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18611</v>
+        <v>1.1952</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00584</v>
+        <v>1.01406</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8088</v>
+        <v>0.824788</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3475</v>
+        <v>1.34498</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712777</v>
+        <v>0.729908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1655</v>
+        <v>1.17278</v>
       </c>
       <c r="D39" t="n">
-        <v>0.98872</v>
+        <v>0.988222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.784267</v>
+        <v>0.798949</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31647</v>
+        <v>1.31513</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710164</v>
+        <v>0.692095</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14561</v>
+        <v>1.15177</v>
       </c>
       <c r="D40" t="n">
-        <v>0.971569</v>
+        <v>0.972828</v>
       </c>
       <c r="E40" t="n">
-        <v>0.761387</v>
+        <v>0.744837</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28896</v>
+        <v>1.28661</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.67462</v>
+        <v>0.686473</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12844</v>
+        <v>1.135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9561539999999999</v>
+        <v>0.9564589999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.740115</v>
+        <v>0.7526350000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26112</v>
+        <v>1.25915</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653282</v>
+        <v>0.6688809999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10987</v>
+        <v>1.11678</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939369</v>
+        <v>0.937853</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719585</v>
+        <v>0.731249</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23684</v>
+        <v>1.23513</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653292</v>
+        <v>0.635924</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0937</v>
+        <v>1.10069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.925658</v>
+        <v>0.926785</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699701</v>
+        <v>0.710889</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21258</v>
+        <v>1.20936</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.619232</v>
+        <v>0.620829</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07876</v>
+        <v>1.08529</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912257</v>
+        <v>0.912687</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681382</v>
+        <v>0.690707</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18934</v>
+        <v>1.18796</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6216660000000001</v>
+        <v>0.607524</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06613</v>
+        <v>1.07201</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902527</v>
+        <v>0.904764</v>
       </c>
       <c r="E45" t="n">
-        <v>0.640358</v>
+        <v>0.673343</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16823</v>
+        <v>1.16697</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592971</v>
+        <v>0.593114</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05255</v>
+        <v>1.058</v>
       </c>
       <c r="D46" t="n">
-        <v>0.890896</v>
+        <v>0.891808</v>
       </c>
       <c r="E46" t="n">
-        <v>0.647135</v>
+        <v>0.656188</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14824</v>
+        <v>1.14568</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.580769</v>
+        <v>0.57941</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04026</v>
+        <v>1.04797</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885104</v>
+        <v>0.887218</v>
       </c>
       <c r="E47" t="n">
-        <v>0.63196</v>
+        <v>0.640277</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12904</v>
+        <v>1.12863</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572925</v>
+        <v>0.570663</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02949</v>
+        <v>1.0368</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8758320000000001</v>
+        <v>0.8815770000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.618397</v>
+        <v>0.605495</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11215</v>
+        <v>1.1109</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575179</v>
+        <v>0.559644</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02301</v>
+        <v>1.02924</v>
       </c>
       <c r="D49" t="n">
-        <v>0.87074</v>
+        <v>0.872124</v>
       </c>
       <c r="E49" t="n">
-        <v>0.586457</v>
+        <v>0.5935</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09699</v>
+        <v>1.09456</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.556882</v>
+        <v>0.554067</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01767</v>
+        <v>1.02329</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11552</v>
+        <v>1.11568</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577457</v>
+        <v>0.60248</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08197</v>
+        <v>1.08126</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5517649999999999</v>
+        <v>0.549888</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01346</v>
+        <v>1.0208</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09269</v>
+        <v>1.0943</v>
       </c>
       <c r="E51" t="n">
-        <v>0.863727</v>
+        <v>0.895268</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4549</v>
+        <v>1.45321</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551859</v>
+        <v>0.533628</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01523</v>
+        <v>1.02283</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0712</v>
+        <v>1.07163</v>
       </c>
       <c r="E52" t="n">
-        <v>0.838862</v>
+        <v>0.857588</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42159</v>
+        <v>1.42067</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7504189999999999</v>
+        <v>0.757406</v>
       </c>
       <c r="C53" t="n">
-        <v>1.2153</v>
+        <v>1.22401</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04855</v>
+        <v>1.05016</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8274550000000001</v>
+        <v>0.842578</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38829</v>
+        <v>1.38661</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735606</v>
+        <v>0.735301</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19383</v>
+        <v>1.2016</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03278</v>
+        <v>1.03307</v>
       </c>
       <c r="E54" t="n">
-        <v>0.803524</v>
+        <v>0.806456</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35994</v>
+        <v>1.35777</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.710759</v>
+        <v>0.701334</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17504</v>
+        <v>1.18148</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01246</v>
+        <v>1.01311</v>
       </c>
       <c r="E55" t="n">
-        <v>0.770278</v>
+        <v>0.7846070000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32944</v>
+        <v>1.32892</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692178</v>
+        <v>0.688515</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15581</v>
+        <v>1.1634</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9968050000000001</v>
+        <v>0.995848</v>
       </c>
       <c r="E56" t="n">
-        <v>0.749043</v>
+        <v>0.761061</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30299</v>
+        <v>1.30005</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674092</v>
+        <v>0.668468</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1399</v>
+        <v>1.14556</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981193</v>
+        <v>0.981035</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7310140000000001</v>
+        <v>0.740912</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27815</v>
+        <v>1.27574</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664422</v>
+        <v>0.6560279999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12269</v>
+        <v>1.13033</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969372</v>
+        <v>0.968174</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711004</v>
+        <v>0.722225</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25073</v>
+        <v>1.24993</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64124</v>
+        <v>0.640199</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10858</v>
+        <v>1.11488</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948706</v>
+        <v>0.949712</v>
       </c>
       <c r="E59" t="n">
-        <v>0.666104</v>
+        <v>0.673841</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22967</v>
+        <v>1.22626</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.627595</v>
+        <v>0.627583</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09491</v>
+        <v>1.10185</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93933</v>
+        <v>0.939895</v>
       </c>
       <c r="E60" t="n">
-        <v>0.675085</v>
+        <v>0.685963</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20621</v>
+        <v>1.20539</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614029</v>
+        <v>0.6128749999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08407</v>
+        <v>1.08943</v>
       </c>
       <c r="D61" t="n">
-        <v>0.929284</v>
+        <v>0.92976</v>
       </c>
       <c r="E61" t="n">
-        <v>0.63654</v>
+        <v>0.643771</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18527</v>
+        <v>1.18359</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607531</v>
+        <v>0.599151</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07455</v>
+        <v>1.08004</v>
       </c>
       <c r="D62" t="n">
-        <v>0.919617</v>
+        <v>0.91805</v>
       </c>
       <c r="E62" t="n">
-        <v>0.645849</v>
+        <v>0.630054</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16768</v>
+        <v>1.16618</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600247</v>
+        <v>0.5925240000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06484</v>
+        <v>1.07161</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9084370000000001</v>
+        <v>0.909941</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610885</v>
+        <v>0.642473</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15126</v>
+        <v>1.14851</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.586382</v>
+        <v>0.56119</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05884</v>
+        <v>1.06443</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19335</v>
+        <v>1.19501</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623261</v>
+        <v>0.631897</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13627</v>
+        <v>1.13383</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.581714</v>
+        <v>0.556632</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05516</v>
+        <v>1.06083</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17073</v>
+        <v>1.16616</v>
       </c>
       <c r="E65" t="n">
-        <v>0.615559</v>
+        <v>0.623364</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12607</v>
+        <v>1.12327</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580363</v>
+        <v>0.578983</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05505</v>
+        <v>1.06185</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13766</v>
+        <v>1.13788</v>
       </c>
       <c r="E66" t="n">
-        <v>0.909761</v>
+        <v>0.93463</v>
       </c>
       <c r="F66" t="n">
-        <v>1.50085</v>
+        <v>1.49809</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.828461</v>
+        <v>0.828642</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2815</v>
+        <v>1.29114</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10789</v>
+        <v>1.10764</v>
       </c>
       <c r="E67" t="n">
-        <v>0.874743</v>
+        <v>0.8954530000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46805</v>
+        <v>1.46612</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.806863</v>
+        <v>0.805439</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26156</v>
+        <v>1.26773</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08707</v>
+        <v>1.0891</v>
       </c>
       <c r="E68" t="n">
-        <v>0.853703</v>
+        <v>0.872576</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43868</v>
+        <v>1.43787</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7880819999999999</v>
+        <v>0.791312</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24224</v>
+        <v>1.25281</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06951</v>
+        <v>1.06935</v>
       </c>
       <c r="E69" t="n">
-        <v>0.843563</v>
+        <v>0.850877</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41695</v>
+        <v>1.40704</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.776046</v>
+        <v>0.766499</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23481</v>
+        <v>1.23935</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05315</v>
+        <v>1.05803</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81177</v>
+        <v>0.828618</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38741</v>
+        <v>1.38513</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76677</v>
+        <v>0.743868</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22024</v>
+        <v>1.22995</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02362</v>
+        <v>1.02619</v>
       </c>
       <c r="E71" t="n">
-        <v>0.79226</v>
+        <v>0.80816</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36539</v>
+        <v>1.3624</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744466</v>
+        <v>0.743727</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20471</v>
+        <v>1.21524</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01309</v>
+        <v>1.01575</v>
       </c>
       <c r="E72" t="n">
-        <v>0.771702</v>
+        <v>0.78796</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34323</v>
+        <v>1.34317</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.730315</v>
+        <v>0.722602</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19652</v>
+        <v>1.2005</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00466</v>
+        <v>1.00556</v>
       </c>
       <c r="E73" t="n">
-        <v>0.752695</v>
+        <v>0.767045</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32944</v>
+        <v>1.31978</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.712638</v>
+        <v>0.72119</v>
       </c>
       <c r="C74" t="n">
-        <v>1.1925</v>
+        <v>1.19059</v>
       </c>
       <c r="D74" t="n">
-        <v>0.990823</v>
+        <v>0.98982</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7348209999999999</v>
+        <v>0.748719</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31111</v>
+        <v>1.30452</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692535</v>
+        <v>0.703261</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18726</v>
+        <v>1.19208</v>
       </c>
       <c r="D75" t="n">
-        <v>0.985135</v>
+        <v>0.987457</v>
       </c>
       <c r="E75" t="n">
-        <v>0.717469</v>
+        <v>0.6988490000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29574</v>
+        <v>1.29647</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.690912</v>
+        <v>0.692176</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18038</v>
+        <v>1.19359</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979475</v>
+        <v>0.984559</v>
       </c>
       <c r="E76" t="n">
-        <v>0.671296</v>
+        <v>0.711757</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28393</v>
+        <v>1.28712</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679749</v>
+        <v>0.673844</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18405</v>
+        <v>1.19249</v>
       </c>
       <c r="D77" t="n">
-        <v>0.971542</v>
+        <v>0.97371</v>
       </c>
       <c r="E77" t="n">
-        <v>0.687662</v>
+        <v>0.669462</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27394</v>
+        <v>1.2737</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663251</v>
+        <v>0.667163</v>
       </c>
       <c r="C78" t="n">
-        <v>0.915733</v>
+        <v>1.19472</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44172</v>
+        <v>1.44253</v>
       </c>
       <c r="E78" t="n">
-        <v>0.648093</v>
+        <v>0.6843900000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27133</v>
+        <v>1.26681</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659977</v>
+        <v>0.642497</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18123</v>
+        <v>1.19447</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40853</v>
+        <v>1.41301</v>
       </c>
       <c r="E79" t="n">
-        <v>0.640089</v>
+        <v>0.647889</v>
       </c>
       <c r="F79" t="n">
-        <v>1.262</v>
+        <v>1.2605</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.646414</v>
+        <v>0.6379899999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18678</v>
+        <v>1.21761</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37663</v>
+        <v>1.385</v>
       </c>
       <c r="E80" t="n">
-        <v>0.977612</v>
+        <v>0.9990790000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94413</v>
+        <v>1.94517</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.902752</v>
+        <v>0.8915920000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69256</v>
+        <v>1.71428</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34091</v>
+        <v>1.34543</v>
       </c>
       <c r="E81" t="n">
-        <v>0.944515</v>
+        <v>0.96394</v>
       </c>
       <c r="F81" t="n">
-        <v>1.92971</v>
+        <v>1.93649</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9017269999999999</v>
+        <v>0.90304</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70832</v>
+        <v>1.71704</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31956</v>
+        <v>1.32466</v>
       </c>
       <c r="E82" t="n">
-        <v>0.945915</v>
+        <v>0.9470730000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91378</v>
+        <v>1.92402</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.888181</v>
+        <v>0.894597</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69766</v>
+        <v>1.72597</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29945</v>
+        <v>1.30775</v>
       </c>
       <c r="E83" t="n">
-        <v>0.910839</v>
+        <v>0.946333</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90201</v>
+        <v>1.90527</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882795</v>
+        <v>0.882452</v>
       </c>
       <c r="C84" t="n">
-        <v>1.70276</v>
+        <v>1.70961</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2862</v>
+        <v>1.29193</v>
       </c>
       <c r="E84" t="n">
-        <v>0.891394</v>
+        <v>0.925384</v>
       </c>
       <c r="F84" t="n">
-        <v>1.87741</v>
+        <v>1.88383</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.873467</v>
+        <v>0.8644539999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70249</v>
+        <v>1.72182</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24737</v>
+        <v>1.25574</v>
       </c>
       <c r="E85" t="n">
-        <v>0.871479</v>
+        <v>0.88946</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87663</v>
+        <v>1.87298</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851044</v>
+        <v>0.858726</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71091</v>
+        <v>1.72132</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24128</v>
+        <v>1.24941</v>
       </c>
       <c r="E86" t="n">
-        <v>0.854048</v>
+        <v>0.825114</v>
       </c>
       <c r="F86" t="n">
-        <v>1.84882</v>
+        <v>1.85839</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.842668</v>
+        <v>0.840432</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70851</v>
+        <v>1.71501</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23604</v>
+        <v>1.24242</v>
       </c>
       <c r="E87" t="n">
-        <v>0.793293</v>
+        <v>0.848628</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86212</v>
+        <v>1.85681</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.83203</v>
+        <v>0.840338</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7154</v>
+        <v>1.73493</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23036</v>
+        <v>1.24156</v>
       </c>
       <c r="E88" t="n">
-        <v>0.815468</v>
+        <v>0.830337</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85231</v>
+        <v>1.85835</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809331</v>
+        <v>0.819347</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72687</v>
+        <v>1.7332</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23492</v>
+        <v>1.24024</v>
       </c>
       <c r="E89" t="n">
-        <v>0.798683</v>
+        <v>0.8104479999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85601</v>
+        <v>1.85694</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794862</v>
+        <v>0.814255</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73738</v>
+        <v>1.74151</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23943</v>
+        <v>1.24737</v>
       </c>
       <c r="E90" t="n">
-        <v>0.780344</v>
+        <v>0.7934909999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1.85873</v>
+        <v>1.86148</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79195</v>
+        <v>0.798227</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75186</v>
+        <v>1.754</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24009</v>
+        <v>1.2414</v>
       </c>
       <c r="E91" t="n">
-        <v>0.730885</v>
+        <v>0.743285</v>
       </c>
       <c r="F91" t="n">
-        <v>1.87179</v>
+        <v>1.85365</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78806</v>
+        <v>0.784942</v>
       </c>
       <c r="C92" t="n">
-        <v>1.57397</v>
+        <v>1.13726</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59804</v>
+        <v>2.59951</v>
       </c>
       <c r="E92" t="n">
-        <v>0.751381</v>
+        <v>0.762361</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86149</v>
+        <v>1.86797</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.756065</v>
+        <v>0.7808</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19126</v>
+        <v>1.8001</v>
       </c>
       <c r="D93" t="n">
-        <v>2.25703</v>
+        <v>2.38003</v>
       </c>
       <c r="E93" t="n">
-        <v>0.709817</v>
+        <v>0.75169</v>
       </c>
       <c r="F93" t="n">
-        <v>1.87588</v>
+        <v>1.87153</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7819739999999999</v>
+        <v>0.7709859999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>1.82163</v>
+        <v>1.80479</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23865</v>
+        <v>2.23943</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06236</v>
+        <v>1.08375</v>
       </c>
       <c r="F94" t="n">
-        <v>2.94124</v>
+        <v>2.92702</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04597</v>
+        <v>1.03595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50674</v>
+        <v>2.50494</v>
       </c>
       <c r="D95" t="n">
-        <v>2.35046</v>
+        <v>2.41754</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0252</v>
+        <v>1.07353</v>
       </c>
       <c r="F95" t="n">
-        <v>2.9196</v>
+        <v>2.91987</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02645</v>
+        <v>1.03597</v>
       </c>
       <c r="C96" t="n">
-        <v>2.50693</v>
+        <v>2.52176</v>
       </c>
       <c r="D96" t="n">
-        <v>2.47816</v>
+        <v>2.28743</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0375</v>
+        <v>1.05748</v>
       </c>
       <c r="F96" t="n">
-        <v>2.87694</v>
+        <v>2.8673</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02291</v>
+        <v>1.02192</v>
       </c>
       <c r="C97" t="n">
-        <v>2.49533</v>
+        <v>2.4875</v>
       </c>
       <c r="D97" t="n">
-        <v>2.33804</v>
+        <v>2.34108</v>
       </c>
       <c r="E97" t="n">
-        <v>1.01874</v>
+        <v>1.0384</v>
       </c>
       <c r="F97" t="n">
-        <v>2.84224</v>
+        <v>2.82523</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01467</v>
+        <v>1.0152</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48121</v>
+        <v>2.47876</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12482</v>
+        <v>2.19381</v>
       </c>
       <c r="E98" t="n">
-        <v>0.977468</v>
+        <v>1.02087</v>
       </c>
       <c r="F98" t="n">
-        <v>2.81805</v>
+        <v>2.79704</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9658949999999999</v>
+        <v>1.01042</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46789</v>
+        <v>2.47976</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74476</v>
+        <v>1.97238</v>
       </c>
       <c r="E99" t="n">
-        <v>0.961076</v>
+        <v>0.978973</v>
       </c>
       <c r="F99" t="n">
-        <v>2.76768</v>
+        <v>2.76029</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.972756</v>
+        <v>0.971254</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44529</v>
+        <v>2.46049</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72652</v>
+        <v>1.72563</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9464669999999999</v>
+        <v>0.917621</v>
       </c>
       <c r="F100" t="n">
-        <v>2.74154</v>
+        <v>2.71528</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967247</v>
+        <v>0.970684</v>
       </c>
       <c r="C101" t="n">
-        <v>2.43288</v>
+        <v>2.44292</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71766</v>
+        <v>1.72324</v>
       </c>
       <c r="E101" t="n">
-        <v>0.888662</v>
+        <v>0.944464</v>
       </c>
       <c r="F101" t="n">
-        <v>2.70845</v>
+        <v>2.70985</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958162</v>
+        <v>0.9520690000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4177</v>
+        <v>2.42928</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71562</v>
+        <v>1.72353</v>
       </c>
       <c r="E102" t="n">
-        <v>0.876199</v>
+        <v>0.929691</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6875</v>
+        <v>2.65353</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.925603</v>
+        <v>0.939323</v>
       </c>
       <c r="C103" t="n">
-        <v>2.39044</v>
+        <v>2.40251</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72266</v>
+        <v>1.72422</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9030280000000001</v>
+        <v>0.935225</v>
       </c>
       <c r="F103" t="n">
-        <v>1.64207</v>
+        <v>2.6297</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.899645</v>
+        <v>0.934497</v>
       </c>
       <c r="C104" t="n">
-        <v>2.06345</v>
+        <v>2.38994</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72749</v>
+        <v>1.73226</v>
       </c>
       <c r="E104" t="n">
-        <v>0.852386</v>
+        <v>0.868474</v>
       </c>
       <c r="F104" t="n">
-        <v>1.59879</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.898475</v>
+        <v>0.902948</v>
       </c>
       <c r="C105" t="n">
-        <v>1.5552</v>
+        <v>1.37304</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72478</v>
+        <v>1.72395</v>
       </c>
       <c r="E105" t="n">
-        <v>0.843021</v>
+        <v>0.891468</v>
       </c>
       <c r="F105" t="n">
-        <v>1.56107</v>
+        <v>1.55164</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9007540000000001</v>
+        <v>0.90446</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37157</v>
+        <v>1.35701</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72959</v>
+        <v>1.73186</v>
       </c>
       <c r="E106" t="n">
-        <v>0.833892</v>
+        <v>0.846703</v>
       </c>
       <c r="F106" t="n">
-        <v>1.53719</v>
+        <v>1.51849</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943306</v>
+        <v>0.904125</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35872</v>
+        <v>1.33354</v>
       </c>
       <c r="D107" t="n">
-        <v>3.52198</v>
+        <v>3.00085</v>
       </c>
       <c r="E107" t="n">
-        <v>0.858177</v>
+        <v>0.840172</v>
       </c>
       <c r="F107" t="n">
-        <v>1.50021</v>
+        <v>1.48862</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897498</v>
+        <v>0.8932909999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>2.37914</v>
+        <v>1.32026</v>
       </c>
       <c r="D108" t="n">
-        <v>3.33197</v>
+        <v>2.98002</v>
       </c>
       <c r="E108" t="n">
-        <v>1.15028</v>
+        <v>1.20006</v>
       </c>
       <c r="F108" t="n">
-        <v>3.78878</v>
+        <v>3.81284</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.909695</v>
+        <v>0.906446</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49619</v>
+        <v>2.19431</v>
       </c>
       <c r="D109" t="n">
-        <v>3.47584</v>
+        <v>3.46219</v>
       </c>
       <c r="E109" t="n">
-        <v>1.17423</v>
+        <v>1.16257</v>
       </c>
       <c r="F109" t="n">
-        <v>3.75683</v>
+        <v>3.72643</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17957</v>
+        <v>1.17005</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11847</v>
+        <v>3.10683</v>
       </c>
       <c r="D110" t="n">
-        <v>2.73031</v>
+        <v>2.74066</v>
       </c>
       <c r="E110" t="n">
-        <v>1.16019</v>
+        <v>1.14645</v>
       </c>
       <c r="F110" t="n">
-        <v>3.68574</v>
+        <v>3.69255</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1777</v>
+        <v>1.14888</v>
       </c>
       <c r="C111" t="n">
-        <v>3.0766</v>
+        <v>3.07745</v>
       </c>
       <c r="D111" t="n">
-        <v>2.8993</v>
+        <v>2.71666</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12037</v>
+        <v>1.1317</v>
       </c>
       <c r="F111" t="n">
-        <v>3.64655</v>
+        <v>3.62618</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17225</v>
+        <v>1.16157</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07165</v>
+        <v>3.05138</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52207</v>
+        <v>2.70056</v>
       </c>
       <c r="E112" t="n">
-        <v>1.13023</v>
+        <v>1.11839</v>
       </c>
       <c r="F112" t="n">
-        <v>3.58407</v>
+        <v>3.56892</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14524</v>
+        <v>1.11906</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03778</v>
+        <v>3.03903</v>
       </c>
       <c r="D113" t="n">
-        <v>2.29429</v>
+        <v>2.68538</v>
       </c>
       <c r="E113" t="n">
-        <v>1.09319</v>
+        <v>1.10575</v>
       </c>
       <c r="F113" t="n">
-        <v>3.52641</v>
+        <v>3.52813</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12364</v>
+        <v>1.13621</v>
       </c>
       <c r="C114" t="n">
-        <v>3.01141</v>
+        <v>3.00596</v>
       </c>
       <c r="D114" t="n">
-        <v>2.47728</v>
+        <v>2.2972</v>
       </c>
       <c r="E114" t="n">
-        <v>1.10338</v>
+        <v>1.1156</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47611</v>
+        <v>3.47589</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12807</v>
+        <v>1.11987</v>
       </c>
       <c r="C115" t="n">
-        <v>3.00056</v>
+        <v>2.99113</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47817</v>
+        <v>2.67709</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06957</v>
+        <v>1.08169</v>
       </c>
       <c r="F115" t="n">
-        <v>3.42783</v>
+        <v>3.41824</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11637</v>
+        <v>1.09494</v>
       </c>
       <c r="C116" t="n">
-        <v>2.96175</v>
+        <v>2.97629</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46635</v>
+        <v>2.47564</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05955</v>
+        <v>1.07137</v>
       </c>
       <c r="F116" t="n">
-        <v>3.36508</v>
+        <v>3.37254</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10606</v>
+        <v>1.09734</v>
       </c>
       <c r="C117" t="n">
-        <v>2.94734</v>
+        <v>2.95431</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25639</v>
+        <v>2.24944</v>
       </c>
       <c r="E117" t="n">
-        <v>1.01194</v>
+        <v>1.06065</v>
       </c>
       <c r="F117" t="n">
-        <v>3.13665</v>
+        <v>3.32134</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09748</v>
+        <v>1.09721</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92198</v>
+        <v>2.91901</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25601</v>
+        <v>2.25499</v>
       </c>
       <c r="E118" t="n">
-        <v>1.04057</v>
+        <v>1.01772</v>
       </c>
       <c r="F118" t="n">
-        <v>3.29461</v>
+        <v>3.27982</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09279</v>
+        <v>1.09005</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91153</v>
+        <v>2.9102</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25158</v>
+        <v>2.25842</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9984769999999999</v>
+        <v>1.04312</v>
       </c>
       <c r="F119" t="n">
-        <v>3.25361</v>
+        <v>3.04857</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08284</v>
+        <v>1.0833</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90405</v>
+        <v>2.91226</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25159</v>
+        <v>2.26104</v>
       </c>
       <c r="E120" t="n">
-        <v>1.02447</v>
+        <v>1.03574</v>
       </c>
       <c r="F120" t="n">
-        <v>2.81385</v>
+        <v>3.01404</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09384</v>
+        <v>1.06327</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8854</v>
+        <v>2.08368</v>
       </c>
       <c r="D121" t="n">
-        <v>4.28566</v>
+        <v>4.28713</v>
       </c>
       <c r="E121" t="n">
-        <v>0.986803</v>
+        <v>1.00241</v>
       </c>
       <c r="F121" t="n">
-        <v>2.98845</v>
+        <v>2.97602</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.04463</v>
+        <v>1.08235</v>
       </c>
       <c r="C122" t="n">
-        <v>2.88915</v>
+        <v>2.88411</v>
       </c>
       <c r="D122" t="n">
-        <v>3.83575</v>
+        <v>3.83048</v>
       </c>
       <c r="E122" t="n">
-        <v>0.982499</v>
+        <v>0.998588</v>
       </c>
       <c r="F122" t="n">
-        <v>2.54162</v>
+        <v>3.15039</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08658</v>
+        <v>1.0805</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6632</v>
+        <v>1.65691</v>
       </c>
       <c r="D123" t="n">
-        <v>4.19002</v>
+        <v>4.20378</v>
       </c>
       <c r="E123" t="n">
-        <v>1.33</v>
+        <v>1.32625</v>
       </c>
       <c r="F123" t="n">
-        <v>4.46281</v>
+        <v>4.45549</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34986</v>
+        <v>1.34501</v>
       </c>
       <c r="C124" t="n">
-        <v>3.64295</v>
+        <v>3.6589</v>
       </c>
       <c r="D124" t="n">
-        <v>3.94945</v>
+        <v>3.55742</v>
       </c>
       <c r="E124" t="n">
-        <v>1.29233</v>
+        <v>1.3153</v>
       </c>
       <c r="F124" t="n">
-        <v>4.39732</v>
+        <v>4.38668</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33568</v>
+        <v>1.32698</v>
       </c>
       <c r="C125" t="n">
-        <v>3.61675</v>
+        <v>3.61597</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30026</v>
+        <v>3.52424</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28112</v>
+        <v>1.30397</v>
       </c>
       <c r="F125" t="n">
-        <v>4.33468</v>
+        <v>4.32394</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32098</v>
+        <v>1.32972</v>
       </c>
       <c r="C126" t="n">
-        <v>3.57909</v>
+        <v>3.58682</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0606</v>
+        <v>3.28023</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27317</v>
+        <v>1.29388</v>
       </c>
       <c r="F126" t="n">
-        <v>4.25192</v>
+        <v>4.25207</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31392</v>
+        <v>1.2864</v>
       </c>
       <c r="C127" t="n">
-        <v>3.54017</v>
+        <v>3.54666</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81846</v>
+        <v>2.82583</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26417</v>
+        <v>1.30847</v>
       </c>
       <c r="F127" t="n">
-        <v>4.18228</v>
+        <v>4.18609</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29634</v>
+        <v>1.31026</v>
       </c>
       <c r="C128" t="n">
-        <v>3.51571</v>
+        <v>3.51559</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80197</v>
+        <v>3.00256</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2565</v>
+        <v>1.27656</v>
       </c>
       <c r="F128" t="n">
-        <v>4.13447</v>
+        <v>4.12545</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27651</v>
+        <v>1.28153</v>
       </c>
       <c r="C129" t="n">
-        <v>3.49106</v>
+        <v>3.48777</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76079</v>
+        <v>2.77097</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24714</v>
+        <v>1.26961</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0634</v>
+        <v>4.06823</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.27859</v>
+        <v>1.27045</v>
       </c>
       <c r="C130" t="n">
-        <v>3.45324</v>
+        <v>3.46955</v>
       </c>
       <c r="D130" t="n">
-        <v>2.75182</v>
+        <v>2.74756</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24175</v>
+        <v>1.26302</v>
       </c>
       <c r="F130" t="n">
-        <v>4.01223</v>
+        <v>4.01024</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.26472</v>
+        <v>1.27708</v>
       </c>
       <c r="C131" t="n">
-        <v>3.42207</v>
+        <v>3.44103</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73814</v>
+        <v>2.73653</v>
       </c>
       <c r="E131" t="n">
-        <v>1.23529</v>
+        <v>1.25521</v>
       </c>
       <c r="F131" t="n">
-        <v>3.96145</v>
+        <v>3.7315</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.26537</v>
+        <v>1.27749</v>
       </c>
       <c r="C132" t="n">
-        <v>3.40555</v>
+        <v>3.4191</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72633</v>
+        <v>2.73006</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23045</v>
+        <v>1.21884</v>
       </c>
       <c r="F132" t="n">
-        <v>3.90638</v>
+        <v>3.46913</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27396</v>
+        <v>1.27137</v>
       </c>
       <c r="C133" t="n">
-        <v>3.39156</v>
+        <v>3.38874</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71328</v>
+        <v>2.71741</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22408</v>
+        <v>1.21432</v>
       </c>
       <c r="F133" t="n">
-        <v>3.41184</v>
+        <v>3.85948</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2481</v>
+        <v>1.26938</v>
       </c>
       <c r="C134" t="n">
-        <v>3.36343</v>
+        <v>3.38312</v>
       </c>
       <c r="D134" t="n">
-        <v>2.70865</v>
+        <v>2.71776</v>
       </c>
       <c r="E134" t="n">
-        <v>1.18832</v>
+        <v>1.24142</v>
       </c>
       <c r="F134" t="n">
-        <v>3.59762</v>
+        <v>3.81314</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.24989</v>
+        <v>1.26621</v>
       </c>
       <c r="C135" t="n">
-        <v>3.35742</v>
+        <v>3.36567</v>
       </c>
       <c r="D135" t="n">
-        <v>4.87888</v>
+        <v>4.88447</v>
       </c>
       <c r="E135" t="n">
-        <v>1.18642</v>
+        <v>1.23657</v>
       </c>
       <c r="F135" t="n">
-        <v>3.55809</v>
+        <v>3.76555</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.24888</v>
+        <v>1.27254</v>
       </c>
       <c r="C136" t="n">
-        <v>2.02843</v>
+        <v>3.35416</v>
       </c>
       <c r="D136" t="n">
-        <v>4.80572</v>
+        <v>4.16647</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21125</v>
+        <v>1.23364</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40685</v>
+        <v>3.73596</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27759</v>
+        <v>1.27346</v>
       </c>
       <c r="C137" t="n">
-        <v>2.00784</v>
+        <v>2.01522</v>
       </c>
       <c r="D137" t="n">
-        <v>4.53685</v>
+        <v>4.32943</v>
       </c>
       <c r="E137" t="n">
-        <v>1.52763</v>
+        <v>1.5312</v>
       </c>
       <c r="F137" t="n">
-        <v>5.12942</v>
+        <v>5.1109</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53292</v>
+        <v>1.52914</v>
       </c>
       <c r="C138" t="n">
-        <v>4.13841</v>
+        <v>4.14891</v>
       </c>
       <c r="D138" t="n">
-        <v>4.26489</v>
+        <v>4.48986</v>
       </c>
       <c r="E138" t="n">
-        <v>1.51766</v>
+        <v>1.54939</v>
       </c>
       <c r="F138" t="n">
-        <v>5.02497</v>
+        <v>5.01627</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.50768</v>
+        <v>1.49765</v>
       </c>
       <c r="C139" t="n">
-        <v>4.09777</v>
+        <v>4.09303</v>
       </c>
       <c r="D139" t="n">
-        <v>3.99516</v>
+        <v>4.00097</v>
       </c>
       <c r="E139" t="n">
-        <v>1.4862</v>
+        <v>1.516</v>
       </c>
       <c r="F139" t="n">
-        <v>4.92544</v>
+        <v>4.92759</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50335</v>
+        <v>1.51509</v>
       </c>
       <c r="C140" t="n">
-        <v>4.037</v>
+        <v>4.05146</v>
       </c>
       <c r="D140" t="n">
-        <v>3.73107</v>
+        <v>4.19011</v>
       </c>
       <c r="E140" t="n">
-        <v>1.50449</v>
+        <v>1.50731</v>
       </c>
       <c r="F140" t="n">
-        <v>4.84162</v>
+        <v>4.84516</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5057</v>
+        <v>1.50481</v>
       </c>
       <c r="C141" t="n">
-        <v>4.00232</v>
+        <v>4.01206</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91429</v>
+        <v>3.24538</v>
       </c>
       <c r="E141" t="n">
-        <v>1.49866</v>
+        <v>1.50108</v>
       </c>
       <c r="F141" t="n">
-        <v>4.74545</v>
+        <v>4.75836</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48536</v>
+        <v>1.47669</v>
       </c>
       <c r="C142" t="n">
-        <v>3.94933</v>
+        <v>3.95778</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18822</v>
+        <v>3.19934</v>
       </c>
       <c r="E142" t="n">
-        <v>1.46805</v>
+        <v>1.45635</v>
       </c>
       <c r="F142" t="n">
-        <v>4.67149</v>
+        <v>4.66343</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49018</v>
+        <v>1.49723</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92362</v>
+        <v>3.91372</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15339</v>
+        <v>3.15821</v>
       </c>
       <c r="E143" t="n">
-        <v>1.46316</v>
+        <v>1.49045</v>
       </c>
       <c r="F143" t="n">
-        <v>4.58989</v>
+        <v>4.58376</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577772</v>
+        <v>0.579793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.781778</v>
+        <v>0.768865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.840242</v>
+        <v>0.838827</v>
       </c>
       <c r="E2" t="n">
-        <v>0.618016</v>
+        <v>0.562065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.80261</v>
+        <v>0.813466</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5603089999999999</v>
+        <v>0.564978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.775298</v>
+        <v>0.768195</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8296</v>
+        <v>0.828968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.551763</v>
+        <v>0.548866</v>
       </c>
       <c r="F3" t="n">
-        <v>0.78534</v>
+        <v>0.795818</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552135</v>
+        <v>0.5534520000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.765666</v>
+        <v>0.757012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.822039</v>
+        <v>0.820329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.539326</v>
+        <v>0.535656</v>
       </c>
       <c r="F4" t="n">
-        <v>0.769638</v>
+        <v>0.778982</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541061</v>
+        <v>0.542048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.75592</v>
+        <v>0.746541</v>
       </c>
       <c r="D5" t="n">
-        <v>0.813648</v>
+        <v>0.812204</v>
       </c>
       <c r="E5" t="n">
-        <v>0.526935</v>
+        <v>0.524103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.759194</v>
+        <v>0.764632</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.529829</v>
+        <v>0.5363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.749737</v>
+        <v>0.741086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.867295</v>
+        <v>0.808003</v>
       </c>
       <c r="E6" t="n">
-        <v>0.516327</v>
+        <v>0.512978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.744655</v>
+        <v>0.753894</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527429</v>
+        <v>0.523514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.745624</v>
+        <v>0.736745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.92967</v>
+        <v>0.920728</v>
       </c>
       <c r="E7" t="n">
-        <v>0.506884</v>
+        <v>0.511588</v>
       </c>
       <c r="F7" t="n">
-        <v>0.733527</v>
+        <v>0.7424539999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523176</v>
+        <v>0.484024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.743379</v>
+        <v>0.733936</v>
       </c>
       <c r="D8" t="n">
-        <v>0.908379</v>
+        <v>0.902041</v>
       </c>
       <c r="E8" t="n">
-        <v>0.502429</v>
+        <v>0.498987</v>
       </c>
       <c r="F8" t="n">
-        <v>0.725515</v>
+        <v>0.735251</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.522391</v>
+        <v>0.528094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.746683</v>
+        <v>0.735618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.890386</v>
+        <v>0.883022</v>
       </c>
       <c r="E9" t="n">
-        <v>0.770903</v>
+        <v>0.764686</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01053</v>
+        <v>1.01736</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.670207</v>
+        <v>0.670858</v>
       </c>
       <c r="C10" t="n">
-        <v>0.90679</v>
+        <v>0.898172</v>
       </c>
       <c r="D10" t="n">
-        <v>0.874236</v>
+        <v>0.871329</v>
       </c>
       <c r="E10" t="n">
-        <v>0.747416</v>
+        <v>0.742511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9846819999999999</v>
+        <v>0.990932</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.652316</v>
+        <v>0.654154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8887350000000001</v>
+        <v>0.883126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.859849</v>
+        <v>0.858969</v>
       </c>
       <c r="E11" t="n">
-        <v>0.725338</v>
+        <v>0.719283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.960403</v>
+        <v>0.9683310000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630184</v>
+        <v>0.638153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.874506</v>
+        <v>0.865137</v>
       </c>
       <c r="D12" t="n">
-        <v>0.844166</v>
+        <v>0.842354</v>
       </c>
       <c r="E12" t="n">
-        <v>0.704</v>
+        <v>0.698608</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9364980000000001</v>
+        <v>0.946008</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.611154</v>
+        <v>0.617305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8536280000000001</v>
+        <v>0.8481649999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.830013</v>
+        <v>0.829902</v>
       </c>
       <c r="E13" t="n">
-        <v>0.684128</v>
+        <v>0.67818</v>
       </c>
       <c r="F13" t="n">
-        <v>0.914093</v>
+        <v>0.920993</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599849</v>
+        <v>0.603065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.840836</v>
+        <v>0.830601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.817825</v>
+        <v>0.818935</v>
       </c>
       <c r="E14" t="n">
-        <v>0.664445</v>
+        <v>0.659714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.890919</v>
+        <v>0.896543</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.58412</v>
+        <v>0.590688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.823588</v>
+        <v>0.813347</v>
       </c>
       <c r="D15" t="n">
-        <v>0.809817</v>
+        <v>0.807015</v>
       </c>
       <c r="E15" t="n">
-        <v>0.646261</v>
+        <v>0.641455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.86868</v>
+        <v>0.876677</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.571788</v>
+        <v>0.576148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.805959</v>
+        <v>0.7997840000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.796419</v>
+        <v>0.800982</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62887</v>
+        <v>0.624936</v>
       </c>
       <c r="F16" t="n">
-        <v>0.848982</v>
+        <v>0.856434</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.584519</v>
+        <v>0.558803</v>
       </c>
       <c r="C17" t="n">
-        <v>0.794005</v>
+        <v>0.786106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785541</v>
+        <v>0.788026</v>
       </c>
       <c r="E17" t="n">
-        <v>0.613199</v>
+        <v>0.608892</v>
       </c>
       <c r="F17" t="n">
-        <v>0.858219</v>
+        <v>0.867853</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.548292</v>
+        <v>0.548266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.788981</v>
+        <v>0.780053</v>
       </c>
       <c r="D18" t="n">
-        <v>0.777357</v>
+        <v>0.780688</v>
       </c>
       <c r="E18" t="n">
-        <v>0.598337</v>
+        <v>0.594672</v>
       </c>
       <c r="F18" t="n">
-        <v>0.840274</v>
+        <v>0.850584</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.534739</v>
+        <v>0.539504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.774362</v>
+        <v>0.767463</v>
       </c>
       <c r="D19" t="n">
-        <v>0.771221</v>
+        <v>0.7718970000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5851769999999999</v>
+        <v>0.581206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8251039999999999</v>
+        <v>0.833055</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.525329</v>
+        <v>0.527936</v>
       </c>
       <c r="C20" t="n">
-        <v>0.770207</v>
+        <v>0.7618200000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.761274</v>
+        <v>0.763246</v>
       </c>
       <c r="E20" t="n">
-        <v>0.572457</v>
+        <v>0.570074</v>
       </c>
       <c r="F20" t="n">
-        <v>0.811306</v>
+        <v>0.821567</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5195920000000001</v>
+        <v>0.522653</v>
       </c>
       <c r="C21" t="n">
-        <v>0.764159</v>
+        <v>0.756332</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989219</v>
+        <v>0.994581</v>
       </c>
       <c r="E21" t="n">
-        <v>0.563478</v>
+        <v>0.560524</v>
       </c>
       <c r="F21" t="n">
-        <v>0.807162</v>
+        <v>0.814959</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51414</v>
+        <v>0.518006</v>
       </c>
       <c r="C22" t="n">
-        <v>0.76005</v>
+        <v>0.7499130000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.968345</v>
+        <v>0.973251</v>
       </c>
       <c r="E22" t="n">
-        <v>0.555913</v>
+        <v>0.553442</v>
       </c>
       <c r="F22" t="n">
-        <v>0.798056</v>
+        <v>0.806223</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5187929999999999</v>
+        <v>0.515891</v>
       </c>
       <c r="C23" t="n">
-        <v>0.76008</v>
+        <v>0.750628</v>
       </c>
       <c r="D23" t="n">
-        <v>0.952077</v>
+        <v>0.950689</v>
       </c>
       <c r="E23" t="n">
-        <v>0.831945</v>
+        <v>0.82606</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08468</v>
+        <v>1.09494</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.684043</v>
+        <v>0.685268</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9452430000000001</v>
+        <v>0.936189</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9296140000000001</v>
+        <v>0.932168</v>
       </c>
       <c r="E24" t="n">
-        <v>0.80645</v>
+        <v>0.801</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05827</v>
+        <v>1.06217</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6612170000000001</v>
+        <v>0.664094</v>
       </c>
       <c r="C25" t="n">
-        <v>0.923332</v>
+        <v>0.915752</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9162</v>
+        <v>0.917812</v>
       </c>
       <c r="E25" t="n">
-        <v>0.781367</v>
+        <v>0.7765</v>
       </c>
       <c r="F25" t="n">
-        <v>1.02843</v>
+        <v>1.0353</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.64355</v>
+        <v>0.646665</v>
       </c>
       <c r="C26" t="n">
-        <v>0.903532</v>
+        <v>0.895734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.898643</v>
+        <v>0.901936</v>
       </c>
       <c r="E26" t="n">
-        <v>0.758222</v>
+        <v>0.75304</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0085</v>
+        <v>1.01526</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657509</v>
+        <v>0.62935</v>
       </c>
       <c r="C27" t="n">
-        <v>0.887128</v>
+        <v>0.8771640000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8843569999999999</v>
+        <v>0.885582</v>
       </c>
       <c r="E27" t="n">
-        <v>0.735498</v>
+        <v>0.730797</v>
       </c>
       <c r="F27" t="n">
-        <v>0.984445</v>
+        <v>0.988981</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639103</v>
+        <v>0.644297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.867038</v>
+        <v>0.859942</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8730250000000001</v>
+        <v>0.87281</v>
       </c>
       <c r="E28" t="n">
-        <v>0.713844</v>
+        <v>0.709305</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95977</v>
+        <v>0.966021</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6253609999999999</v>
+        <v>0.625234</v>
       </c>
       <c r="C29" t="n">
-        <v>0.851278</v>
+        <v>0.842579</v>
       </c>
       <c r="D29" t="n">
-        <v>0.863206</v>
+        <v>0.863804</v>
       </c>
       <c r="E29" t="n">
-        <v>0.693594</v>
+        <v>0.689095</v>
       </c>
       <c r="F29" t="n">
-        <v>0.938337</v>
+        <v>0.946329</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.584865</v>
+        <v>0.610742</v>
       </c>
       <c r="C30" t="n">
-        <v>0.853286</v>
+        <v>0.845692</v>
       </c>
       <c r="D30" t="n">
-        <v>0.85343</v>
+        <v>0.85311</v>
       </c>
       <c r="E30" t="n">
-        <v>0.674312</v>
+        <v>0.669662</v>
       </c>
       <c r="F30" t="n">
-        <v>0.91557</v>
+        <v>0.923447</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592736</v>
+        <v>0.594862</v>
       </c>
       <c r="C31" t="n">
-        <v>0.841118</v>
+        <v>0.832825</v>
       </c>
       <c r="D31" t="n">
-        <v>0.839796</v>
+        <v>0.8423119999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.656554</v>
+        <v>0.65254</v>
       </c>
       <c r="F31" t="n">
-        <v>0.895364</v>
+        <v>0.902601</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580287</v>
+        <v>0.583755</v>
       </c>
       <c r="C32" t="n">
-        <v>0.828134</v>
+        <v>0.8219919999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.833129</v>
+        <v>0.834256</v>
       </c>
       <c r="E32" t="n">
-        <v>0.617243</v>
+        <v>0.636242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.87607</v>
+        <v>0.881891</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.56707</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81871</v>
+        <v>0.81071</v>
       </c>
       <c r="D33" t="n">
-        <v>0.826359</v>
+        <v>0.82504</v>
       </c>
       <c r="E33" t="n">
-        <v>0.602876</v>
+        <v>0.620549</v>
       </c>
       <c r="F33" t="n">
-        <v>0.856663</v>
+        <v>0.864747</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.537525</v>
+        <v>0.560469</v>
       </c>
       <c r="C34" t="n">
-        <v>0.790044</v>
+        <v>0.782044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.81662</v>
+        <v>0.817713</v>
       </c>
       <c r="E34" t="n">
-        <v>0.589873</v>
+        <v>0.606499</v>
       </c>
       <c r="F34" t="n">
-        <v>0.841083</v>
+        <v>0.84722</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549468</v>
+        <v>0.552789</v>
       </c>
       <c r="C35" t="n">
-        <v>0.784407</v>
+        <v>0.775939</v>
       </c>
       <c r="D35" t="n">
-        <v>1.07424</v>
+        <v>1.07109</v>
       </c>
       <c r="E35" t="n">
-        <v>0.598619</v>
+        <v>0.574441</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8255400000000001</v>
+        <v>0.835243</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.542292</v>
+        <v>0.526749</v>
       </c>
       <c r="C36" t="n">
-        <v>0.778815</v>
+        <v>0.769718</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05343</v>
+        <v>1.04182</v>
       </c>
       <c r="E36" t="n">
-        <v>0.568865</v>
+        <v>0.565929</v>
       </c>
       <c r="F36" t="n">
-        <v>0.814432</v>
+        <v>0.821171</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.541533</v>
+        <v>0.524624</v>
       </c>
       <c r="C37" t="n">
-        <v>0.776841</v>
+        <v>0.767304</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03391</v>
+        <v>1.03533</v>
       </c>
       <c r="E37" t="n">
-        <v>0.849562</v>
+        <v>0.8432460000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37548</v>
+        <v>1.38149</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.731136</v>
+        <v>0.753294</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1952</v>
+        <v>1.18592</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01406</v>
+        <v>1.01357</v>
       </c>
       <c r="E38" t="n">
-        <v>0.824788</v>
+        <v>0.818275</v>
       </c>
       <c r="F38" t="n">
-        <v>1.34498</v>
+        <v>1.35128</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.729908</v>
+        <v>0.715557</v>
       </c>
       <c r="C39" t="n">
-        <v>1.17278</v>
+        <v>1.1649</v>
       </c>
       <c r="D39" t="n">
-        <v>0.988222</v>
+        <v>0.988449</v>
       </c>
       <c r="E39" t="n">
-        <v>0.798949</v>
+        <v>0.7938730000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31513</v>
+        <v>1.32241</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.692095</v>
+        <v>0.7112540000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.15177</v>
+        <v>1.14576</v>
       </c>
       <c r="D40" t="n">
-        <v>0.972828</v>
+        <v>0.970341</v>
       </c>
       <c r="E40" t="n">
-        <v>0.744837</v>
+        <v>0.769996</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28661</v>
+        <v>1.29292</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686473</v>
+        <v>0.691504</v>
       </c>
       <c r="C41" t="n">
-        <v>1.135</v>
+        <v>1.12839</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9564589999999999</v>
+        <v>0.954032</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7526350000000001</v>
+        <v>0.7478</v>
       </c>
       <c r="F41" t="n">
-        <v>1.25915</v>
+        <v>1.26532</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6688809999999999</v>
+        <v>0.655165</v>
       </c>
       <c r="C42" t="n">
-        <v>1.11678</v>
+        <v>1.11127</v>
       </c>
       <c r="D42" t="n">
-        <v>0.937853</v>
+        <v>0.9373629999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.731249</v>
+        <v>0.725862</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23513</v>
+        <v>1.24161</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.635924</v>
+        <v>0.642133</v>
       </c>
       <c r="C43" t="n">
-        <v>1.10069</v>
+        <v>1.09455</v>
       </c>
       <c r="D43" t="n">
-        <v>0.926785</v>
+        <v>0.923849</v>
       </c>
       <c r="E43" t="n">
-        <v>0.710889</v>
+        <v>0.705484</v>
       </c>
       <c r="F43" t="n">
-        <v>1.20936</v>
+        <v>1.21602</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.620829</v>
+        <v>0.636877</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08529</v>
+        <v>1.07905</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912687</v>
+        <v>0.91074</v>
       </c>
       <c r="E44" t="n">
-        <v>0.690707</v>
+        <v>0.686999</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18796</v>
+        <v>1.1923</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.607524</v>
+        <v>0.607901</v>
       </c>
       <c r="C45" t="n">
-        <v>1.07201</v>
+        <v>1.06574</v>
       </c>
       <c r="D45" t="n">
-        <v>0.904764</v>
+        <v>0.902383</v>
       </c>
       <c r="E45" t="n">
-        <v>0.673343</v>
+        <v>0.668149</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16697</v>
+        <v>1.17224</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.593114</v>
+        <v>0.594712</v>
       </c>
       <c r="C46" t="n">
-        <v>1.058</v>
+        <v>1.05159</v>
       </c>
       <c r="D46" t="n">
-        <v>0.891808</v>
+        <v>0.891425</v>
       </c>
       <c r="E46" t="n">
-        <v>0.656188</v>
+        <v>0.652259</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14568</v>
+        <v>1.15218</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.57941</v>
+        <v>0.580878</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04797</v>
+        <v>1.0433</v>
       </c>
       <c r="D47" t="n">
-        <v>0.887218</v>
+        <v>0.885703</v>
       </c>
       <c r="E47" t="n">
-        <v>0.640277</v>
+        <v>0.614359</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12863</v>
+        <v>1.13214</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.570663</v>
+        <v>0.571591</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0368</v>
+        <v>1.0309</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8815770000000001</v>
+        <v>0.876016</v>
       </c>
       <c r="E48" t="n">
-        <v>0.605495</v>
+        <v>0.622441</v>
       </c>
       <c r="F48" t="n">
-        <v>1.1109</v>
+        <v>1.11698</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.559644</v>
+        <v>0.564559</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02924</v>
+        <v>1.02514</v>
       </c>
       <c r="D49" t="n">
-        <v>0.872124</v>
+        <v>0.86934</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5935</v>
+        <v>0.6079020000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09456</v>
+        <v>1.10176</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.554067</v>
+        <v>0.5555909999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>1.02329</v>
+        <v>1.01751</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11568</v>
+        <v>1.11386</v>
       </c>
       <c r="E50" t="n">
-        <v>0.60248</v>
+        <v>0.581046</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08126</v>
+        <v>1.08863</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.549888</v>
+        <v>0.55286</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0208</v>
+        <v>1.01471</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0943</v>
+        <v>1.08984</v>
       </c>
       <c r="E51" t="n">
-        <v>0.895268</v>
+        <v>0.887449</v>
       </c>
       <c r="F51" t="n">
-        <v>1.45321</v>
+        <v>1.46185</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.533628</v>
+        <v>0.55169</v>
       </c>
       <c r="C52" t="n">
-        <v>1.02283</v>
+        <v>1.01627</v>
       </c>
       <c r="D52" t="n">
-        <v>1.07163</v>
+        <v>1.06776</v>
       </c>
       <c r="E52" t="n">
-        <v>0.857588</v>
+        <v>0.848361</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42067</v>
+        <v>1.42586</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757406</v>
+        <v>0.758724</v>
       </c>
       <c r="C53" t="n">
-        <v>1.22401</v>
+        <v>1.21311</v>
       </c>
       <c r="D53" t="n">
-        <v>1.05016</v>
+        <v>1.04608</v>
       </c>
       <c r="E53" t="n">
-        <v>0.842578</v>
+        <v>0.824013</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38661</v>
+        <v>1.39416</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735301</v>
+        <v>0.735448</v>
       </c>
       <c r="C54" t="n">
-        <v>1.2016</v>
+        <v>1.19175</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03307</v>
+        <v>1.02925</v>
       </c>
       <c r="E54" t="n">
-        <v>0.806456</v>
+        <v>0.811855</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35777</v>
+        <v>1.36897</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.701334</v>
+        <v>0.708724</v>
       </c>
       <c r="C55" t="n">
-        <v>1.18148</v>
+        <v>1.17235</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01311</v>
+        <v>1.01064</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7846070000000001</v>
+        <v>0.778906</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32892</v>
+        <v>1.33419</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.688515</v>
+        <v>0.6930730000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>1.1634</v>
+        <v>1.15471</v>
       </c>
       <c r="D56" t="n">
-        <v>0.995848</v>
+        <v>0.992837</v>
       </c>
       <c r="E56" t="n">
-        <v>0.761061</v>
+        <v>0.758585</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30005</v>
+        <v>1.31342</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.668468</v>
+        <v>0.679751</v>
       </c>
       <c r="C57" t="n">
-        <v>1.14556</v>
+        <v>1.1378</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981035</v>
+        <v>0.977251</v>
       </c>
       <c r="E57" t="n">
-        <v>0.740912</v>
+        <v>0.734889</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27574</v>
+        <v>1.28788</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6560279999999999</v>
+        <v>0.654942</v>
       </c>
       <c r="C58" t="n">
-        <v>1.13033</v>
+        <v>1.12317</v>
       </c>
       <c r="D58" t="n">
-        <v>0.968174</v>
+        <v>0.95986</v>
       </c>
       <c r="E58" t="n">
-        <v>0.722225</v>
+        <v>0.717252</v>
       </c>
       <c r="F58" t="n">
-        <v>1.24993</v>
+        <v>1.26148</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.640199</v>
+        <v>0.63952</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11488</v>
+        <v>1.10754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.949712</v>
+        <v>0.946476</v>
       </c>
       <c r="E59" t="n">
-        <v>0.673841</v>
+        <v>0.669661</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22626</v>
+        <v>1.23862</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.627583</v>
+        <v>0.623924</v>
       </c>
       <c r="C60" t="n">
-        <v>1.10185</v>
+        <v>1.09437</v>
       </c>
       <c r="D60" t="n">
-        <v>0.939895</v>
+        <v>0.935895</v>
       </c>
       <c r="E60" t="n">
-        <v>0.685963</v>
+        <v>0.681161</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20539</v>
+        <v>1.21468</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6128749999999999</v>
+        <v>0.614783</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08943</v>
+        <v>1.08221</v>
       </c>
       <c r="D61" t="n">
-        <v>0.92976</v>
+        <v>0.925526</v>
       </c>
       <c r="E61" t="n">
-        <v>0.643771</v>
+        <v>0.639174</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18359</v>
+        <v>1.18937</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.599151</v>
+        <v>0.604792</v>
       </c>
       <c r="C62" t="n">
-        <v>1.08004</v>
+        <v>1.07253</v>
       </c>
       <c r="D62" t="n">
-        <v>0.91805</v>
+        <v>0.917894</v>
       </c>
       <c r="E62" t="n">
-        <v>0.630054</v>
+        <v>0.625532</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16618</v>
+        <v>1.17546</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5925240000000001</v>
+        <v>0.597038</v>
       </c>
       <c r="C63" t="n">
-        <v>1.07161</v>
+        <v>1.06322</v>
       </c>
       <c r="D63" t="n">
-        <v>0.909941</v>
+        <v>0.908303</v>
       </c>
       <c r="E63" t="n">
-        <v>0.642473</v>
+        <v>0.638523</v>
       </c>
       <c r="F63" t="n">
-        <v>1.14851</v>
+        <v>1.15721</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.56119</v>
+        <v>0.58749</v>
       </c>
       <c r="C64" t="n">
-        <v>1.06443</v>
+        <v>1.05548</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19501</v>
+        <v>1.19805</v>
       </c>
       <c r="E64" t="n">
-        <v>0.631897</v>
+        <v>0.627037</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13383</v>
+        <v>1.14308</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.556632</v>
+        <v>0.581686</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06083</v>
+        <v>1.05433</v>
       </c>
       <c r="D65" t="n">
-        <v>1.16616</v>
+        <v>1.17367</v>
       </c>
       <c r="E65" t="n">
-        <v>0.623364</v>
+        <v>0.620649</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12327</v>
+        <v>1.13277</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.578983</v>
+        <v>0.556333</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06185</v>
+        <v>1.02376</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13788</v>
+        <v>1.14079</v>
       </c>
       <c r="E66" t="n">
-        <v>0.93463</v>
+        <v>0.9361930000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1.49809</v>
+        <v>1.51241</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.828642</v>
+        <v>0.844916</v>
       </c>
       <c r="C67" t="n">
-        <v>1.29114</v>
+        <v>1.28382</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10764</v>
+        <v>1.10871</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8954530000000001</v>
+        <v>0.9030049999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46612</v>
+        <v>1.47488</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.805439</v>
+        <v>0.818428</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26773</v>
+        <v>1.26076</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0891</v>
+        <v>1.08696</v>
       </c>
       <c r="E68" t="n">
-        <v>0.872576</v>
+        <v>0.881138</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43787</v>
+        <v>1.44704</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.791312</v>
+        <v>0.792798</v>
       </c>
       <c r="C69" t="n">
-        <v>1.25281</v>
+        <v>1.25434</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06935</v>
+        <v>1.07266</v>
       </c>
       <c r="E69" t="n">
-        <v>0.850877</v>
+        <v>0.863507</v>
       </c>
       <c r="F69" t="n">
-        <v>1.40704</v>
+        <v>1.42396</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.766499</v>
+        <v>0.785324</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23935</v>
+        <v>1.23817</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05803</v>
+        <v>1.05894</v>
       </c>
       <c r="E70" t="n">
-        <v>0.828618</v>
+        <v>0.836391</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38513</v>
+        <v>1.39466</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.743868</v>
+        <v>0.763915</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22995</v>
+        <v>1.2221</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02619</v>
+        <v>1.02442</v>
       </c>
       <c r="E71" t="n">
-        <v>0.80816</v>
+        <v>0.815222</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3624</v>
+        <v>1.3749</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.743727</v>
+        <v>0.761871</v>
       </c>
       <c r="C72" t="n">
-        <v>1.21524</v>
+        <v>1.21184</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01575</v>
+        <v>1.01327</v>
       </c>
       <c r="E72" t="n">
-        <v>0.78796</v>
+        <v>0.794413</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34317</v>
+        <v>1.34989</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.722602</v>
+        <v>0.731896</v>
       </c>
       <c r="C73" t="n">
-        <v>1.2005</v>
+        <v>1.20627</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00556</v>
+        <v>1.00643</v>
       </c>
       <c r="E73" t="n">
-        <v>0.767045</v>
+        <v>0.77328</v>
       </c>
       <c r="F73" t="n">
-        <v>1.31978</v>
+        <v>1.33071</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.72119</v>
+        <v>0.716856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.19059</v>
+        <v>1.19328</v>
       </c>
       <c r="D74" t="n">
-        <v>0.98982</v>
+        <v>0.994332</v>
       </c>
       <c r="E74" t="n">
-        <v>0.748719</v>
+        <v>0.754198</v>
       </c>
       <c r="F74" t="n">
-        <v>1.30452</v>
+        <v>1.31605</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.703261</v>
+        <v>0.700685</v>
       </c>
       <c r="C75" t="n">
-        <v>1.19208</v>
+        <v>1.19095</v>
       </c>
       <c r="D75" t="n">
-        <v>0.987457</v>
+        <v>0.993666</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6988490000000001</v>
+        <v>0.737184</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29647</v>
+        <v>1.30727</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.692176</v>
+        <v>0.692889</v>
       </c>
       <c r="C76" t="n">
-        <v>1.19359</v>
+        <v>1.19208</v>
       </c>
       <c r="D76" t="n">
-        <v>0.984559</v>
+        <v>0.990129</v>
       </c>
       <c r="E76" t="n">
-        <v>0.711757</v>
+        <v>0.720932</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28712</v>
+        <v>1.29516</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.673844</v>
+        <v>0.679115</v>
       </c>
       <c r="C77" t="n">
-        <v>1.19249</v>
+        <v>1.19434</v>
       </c>
       <c r="D77" t="n">
-        <v>0.97371</v>
+        <v>0.981639</v>
       </c>
       <c r="E77" t="n">
-        <v>0.669462</v>
+        <v>0.677928</v>
       </c>
       <c r="F77" t="n">
-        <v>1.2737</v>
+        <v>1.29148</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.667163</v>
+        <v>0.6825020000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>1.19472</v>
+        <v>1.20582</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44253</v>
+        <v>1.49149</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6843900000000001</v>
+        <v>0.667822</v>
       </c>
       <c r="F78" t="n">
-        <v>1.26681</v>
+        <v>1.29509</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.642497</v>
+        <v>0.671054</v>
       </c>
       <c r="C79" t="n">
-        <v>1.19447</v>
+        <v>1.21153</v>
       </c>
       <c r="D79" t="n">
-        <v>1.41301</v>
+        <v>1.45336</v>
       </c>
       <c r="E79" t="n">
-        <v>0.647889</v>
+        <v>0.659116</v>
       </c>
       <c r="F79" t="n">
-        <v>1.2605</v>
+        <v>1.2837</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6379899999999999</v>
+        <v>0.659954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21761</v>
+        <v>1.22249</v>
       </c>
       <c r="D80" t="n">
-        <v>1.385</v>
+        <v>1.4339</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9990790000000001</v>
+        <v>1.01346</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94517</v>
+        <v>2.00482</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8915920000000001</v>
+        <v>0.926518</v>
       </c>
       <c r="C81" t="n">
-        <v>1.71428</v>
+        <v>1.76526</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34543</v>
+        <v>1.39622</v>
       </c>
       <c r="E81" t="n">
-        <v>0.96394</v>
+        <v>0.999509</v>
       </c>
       <c r="F81" t="n">
-        <v>1.93649</v>
+        <v>2.00318</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.90304</v>
+        <v>0.919855</v>
       </c>
       <c r="C82" t="n">
-        <v>1.71704</v>
+        <v>1.78451</v>
       </c>
       <c r="D82" t="n">
-        <v>1.32466</v>
+        <v>1.37635</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9470730000000001</v>
+        <v>0.981761</v>
       </c>
       <c r="F82" t="n">
-        <v>1.92402</v>
+        <v>1.99312</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.894597</v>
+        <v>0.917048</v>
       </c>
       <c r="C83" t="n">
-        <v>1.72597</v>
+        <v>1.79228</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30775</v>
+        <v>1.35489</v>
       </c>
       <c r="E83" t="n">
-        <v>0.946333</v>
+        <v>0.949522</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90527</v>
+        <v>1.97548</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882452</v>
+        <v>0.90122</v>
       </c>
       <c r="C84" t="n">
-        <v>1.70961</v>
+        <v>1.77964</v>
       </c>
       <c r="D84" t="n">
-        <v>1.29193</v>
+        <v>1.34053</v>
       </c>
       <c r="E84" t="n">
-        <v>0.925384</v>
+        <v>0.930488</v>
       </c>
       <c r="F84" t="n">
-        <v>1.88383</v>
+        <v>1.95223</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8644539999999999</v>
+        <v>0.901517</v>
       </c>
       <c r="C85" t="n">
-        <v>1.72182</v>
+        <v>1.798</v>
       </c>
       <c r="D85" t="n">
-        <v>1.25574</v>
+        <v>1.30617</v>
       </c>
       <c r="E85" t="n">
-        <v>0.88946</v>
+        <v>0.9088310000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87298</v>
+        <v>1.95361</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.858726</v>
+        <v>0.881847</v>
       </c>
       <c r="C86" t="n">
-        <v>1.72132</v>
+        <v>1.77899</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24941</v>
+        <v>1.29376</v>
       </c>
       <c r="E86" t="n">
-        <v>0.825114</v>
+        <v>0.888491</v>
       </c>
       <c r="F86" t="n">
-        <v>1.85839</v>
+        <v>1.93373</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.840432</v>
+        <v>0.871037</v>
       </c>
       <c r="C87" t="n">
-        <v>1.71501</v>
+        <v>1.79523</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24242</v>
+        <v>1.29694</v>
       </c>
       <c r="E87" t="n">
-        <v>0.848628</v>
+        <v>0.869336</v>
       </c>
       <c r="F87" t="n">
-        <v>1.85681</v>
+        <v>1.93657</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.840338</v>
+        <v>0.866471</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73493</v>
+        <v>1.80535</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24156</v>
+        <v>1.29484</v>
       </c>
       <c r="E88" t="n">
-        <v>0.830337</v>
+        <v>0.849807</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85835</v>
+        <v>1.94058</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819347</v>
+        <v>0.8476</v>
       </c>
       <c r="C89" t="n">
-        <v>1.7332</v>
+        <v>1.81814</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24024</v>
+        <v>1.293</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8104479999999999</v>
+        <v>0.830774</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85694</v>
+        <v>1.93309</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.814255</v>
+        <v>0.841186</v>
       </c>
       <c r="C90" t="n">
-        <v>1.74151</v>
+        <v>1.83654</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24737</v>
+        <v>1.30124</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7934909999999999</v>
+        <v>0.777287</v>
       </c>
       <c r="F90" t="n">
-        <v>1.86148</v>
+        <v>1.95976</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.798227</v>
+        <v>0.828865</v>
       </c>
       <c r="C91" t="n">
-        <v>1.754</v>
+        <v>1.79837</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2414</v>
+        <v>1.30219</v>
       </c>
       <c r="E91" t="n">
-        <v>0.743285</v>
+        <v>0.762142</v>
       </c>
       <c r="F91" t="n">
-        <v>1.85365</v>
+        <v>1.96445</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.784942</v>
+        <v>0.815358</v>
       </c>
       <c r="C92" t="n">
-        <v>1.13726</v>
+        <v>1.84793</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59951</v>
+        <v>2.78989</v>
       </c>
       <c r="E92" t="n">
-        <v>0.762361</v>
+        <v>0.748336</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86797</v>
+        <v>1.94974</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7808</v>
+        <v>0.802144</v>
       </c>
       <c r="C93" t="n">
-        <v>1.8001</v>
+        <v>1.87597</v>
       </c>
       <c r="D93" t="n">
-        <v>2.38003</v>
+        <v>2.68738</v>
       </c>
       <c r="E93" t="n">
-        <v>0.75169</v>
+        <v>0.768231</v>
       </c>
       <c r="F93" t="n">
-        <v>1.87153</v>
+        <v>1.97484</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7709859999999999</v>
+        <v>0.8019230000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>1.80479</v>
+        <v>1.90028</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23943</v>
+        <v>2.40774</v>
       </c>
       <c r="E94" t="n">
-        <v>1.08375</v>
+        <v>1.10823</v>
       </c>
       <c r="F94" t="n">
-        <v>2.92702</v>
+        <v>3.16568</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03595</v>
+        <v>1.0516</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50494</v>
+        <v>2.66897</v>
       </c>
       <c r="D95" t="n">
-        <v>2.41754</v>
+        <v>2.52861</v>
       </c>
       <c r="E95" t="n">
-        <v>1.07353</v>
+        <v>1.09986</v>
       </c>
       <c r="F95" t="n">
-        <v>2.91987</v>
+        <v>3.11539</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03597</v>
+        <v>1.06642</v>
       </c>
       <c r="C96" t="n">
-        <v>2.52176</v>
+        <v>2.67014</v>
       </c>
       <c r="D96" t="n">
-        <v>2.28743</v>
+        <v>2.59414</v>
       </c>
       <c r="E96" t="n">
-        <v>1.05748</v>
+        <v>1.08557</v>
       </c>
       <c r="F96" t="n">
-        <v>2.8673</v>
+        <v>3.0837</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02192</v>
+        <v>1.04399</v>
       </c>
       <c r="C97" t="n">
-        <v>2.4875</v>
+        <v>2.66598</v>
       </c>
       <c r="D97" t="n">
-        <v>2.34108</v>
+        <v>2.5247</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0384</v>
+        <v>1.04551</v>
       </c>
       <c r="F97" t="n">
-        <v>2.82523</v>
+        <v>3.05252</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0152</v>
+        <v>1.03805</v>
       </c>
       <c r="C98" t="n">
-        <v>2.47876</v>
+        <v>2.65386</v>
       </c>
       <c r="D98" t="n">
-        <v>2.19381</v>
+        <v>2.21027</v>
       </c>
       <c r="E98" t="n">
-        <v>1.02087</v>
+        <v>1.02802</v>
       </c>
       <c r="F98" t="n">
-        <v>2.79704</v>
+        <v>3.01631</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01042</v>
+        <v>1.02416</v>
       </c>
       <c r="C99" t="n">
-        <v>2.47976</v>
+        <v>2.62709</v>
       </c>
       <c r="D99" t="n">
-        <v>1.97238</v>
+        <v>2.36959</v>
       </c>
       <c r="E99" t="n">
-        <v>0.978973</v>
+        <v>1.01135</v>
       </c>
       <c r="F99" t="n">
-        <v>2.76029</v>
+        <v>2.97907</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.971254</v>
+        <v>1.02063</v>
       </c>
       <c r="C100" t="n">
-        <v>2.46049</v>
+        <v>2.61988</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72563</v>
+        <v>1.85099</v>
       </c>
       <c r="E100" t="n">
-        <v>0.917621</v>
+        <v>0.995823</v>
       </c>
       <c r="F100" t="n">
-        <v>2.71528</v>
+        <v>2.95008</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.970684</v>
+        <v>1.01443</v>
       </c>
       <c r="C101" t="n">
-        <v>2.44292</v>
+        <v>2.61894</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72324</v>
+        <v>1.84553</v>
       </c>
       <c r="E101" t="n">
-        <v>0.944464</v>
+        <v>0.979598</v>
       </c>
       <c r="F101" t="n">
-        <v>2.70985</v>
+        <v>2.89137</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9520690000000001</v>
+        <v>1.01547</v>
       </c>
       <c r="C102" t="n">
-        <v>2.42928</v>
+        <v>2.57911</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72353</v>
+        <v>1.84432</v>
       </c>
       <c r="E102" t="n">
-        <v>0.929691</v>
+        <v>0.964824</v>
       </c>
       <c r="F102" t="n">
-        <v>2.65353</v>
+        <v>1.77878</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.939323</v>
+        <v>0.990641</v>
       </c>
       <c r="C103" t="n">
-        <v>2.40251</v>
+        <v>2.58049</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72422</v>
+        <v>1.84384</v>
       </c>
       <c r="E103" t="n">
-        <v>0.935225</v>
+        <v>0.950501</v>
       </c>
       <c r="F103" t="n">
-        <v>2.6297</v>
+        <v>1.72876</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.934497</v>
+        <v>0.949227</v>
       </c>
       <c r="C104" t="n">
-        <v>2.38994</v>
+        <v>1.46746</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73226</v>
+        <v>1.8483</v>
       </c>
       <c r="E104" t="n">
-        <v>0.868474</v>
+        <v>0.937694</v>
       </c>
       <c r="F104" t="n">
-        <v>1.591</v>
+        <v>2.82619</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.902948</v>
+        <v>0.994866</v>
       </c>
       <c r="C105" t="n">
-        <v>1.37304</v>
+        <v>2.56899</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72395</v>
+        <v>1.85492</v>
       </c>
       <c r="E105" t="n">
-        <v>0.891468</v>
+        <v>0.92559</v>
       </c>
       <c r="F105" t="n">
-        <v>1.55164</v>
+        <v>2.59523</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90446</v>
+        <v>0.987079</v>
       </c>
       <c r="C106" t="n">
-        <v>1.35701</v>
+        <v>2.54326</v>
       </c>
       <c r="D106" t="n">
-        <v>1.73186</v>
+        <v>1.86553</v>
       </c>
       <c r="E106" t="n">
-        <v>0.846703</v>
+        <v>0.881912</v>
       </c>
       <c r="F106" t="n">
-        <v>1.51849</v>
+        <v>1.60721</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.904125</v>
+        <v>0.946537</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33354</v>
+        <v>1.97155</v>
       </c>
       <c r="D107" t="n">
-        <v>3.00085</v>
+        <v>3.83346</v>
       </c>
       <c r="E107" t="n">
-        <v>0.840172</v>
+        <v>0.87358</v>
       </c>
       <c r="F107" t="n">
-        <v>1.48862</v>
+        <v>2.71866</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8932909999999999</v>
+        <v>0.989402</v>
       </c>
       <c r="C108" t="n">
-        <v>1.32026</v>
+        <v>1.9754</v>
       </c>
       <c r="D108" t="n">
-        <v>2.98002</v>
+        <v>3.24482</v>
       </c>
       <c r="E108" t="n">
-        <v>1.20006</v>
+        <v>1.2143</v>
       </c>
       <c r="F108" t="n">
-        <v>3.81284</v>
+        <v>4.12364</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.906446</v>
+        <v>0.983535</v>
       </c>
       <c r="C109" t="n">
-        <v>2.19431</v>
+        <v>1.36358</v>
       </c>
       <c r="D109" t="n">
-        <v>3.46219</v>
+        <v>3.01128</v>
       </c>
       <c r="E109" t="n">
-        <v>1.16257</v>
+        <v>1.21026</v>
       </c>
       <c r="F109" t="n">
-        <v>3.72643</v>
+        <v>4.07545</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17005</v>
+        <v>1.25665</v>
       </c>
       <c r="C110" t="n">
-        <v>3.10683</v>
+        <v>3.36964</v>
       </c>
       <c r="D110" t="n">
-        <v>2.74066</v>
+        <v>2.98059</v>
       </c>
       <c r="E110" t="n">
-        <v>1.14645</v>
+        <v>1.19847</v>
       </c>
       <c r="F110" t="n">
-        <v>3.69255</v>
+        <v>4.01817</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.14888</v>
+        <v>1.23022</v>
       </c>
       <c r="C111" t="n">
-        <v>3.07745</v>
+        <v>3.34202</v>
       </c>
       <c r="D111" t="n">
-        <v>2.71666</v>
+        <v>2.55336</v>
       </c>
       <c r="E111" t="n">
-        <v>1.1317</v>
+        <v>1.18246</v>
       </c>
       <c r="F111" t="n">
-        <v>3.62618</v>
+        <v>3.95744</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16157</v>
+        <v>1.22245</v>
       </c>
       <c r="C112" t="n">
-        <v>3.05138</v>
+        <v>3.32133</v>
       </c>
       <c r="D112" t="n">
-        <v>2.70056</v>
+        <v>3.15115</v>
       </c>
       <c r="E112" t="n">
-        <v>1.11839</v>
+        <v>1.17174</v>
       </c>
       <c r="F112" t="n">
-        <v>3.56892</v>
+        <v>3.88135</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.11906</v>
+        <v>1.20242</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03903</v>
+        <v>3.28296</v>
       </c>
       <c r="D113" t="n">
-        <v>2.68538</v>
+        <v>2.93237</v>
       </c>
       <c r="E113" t="n">
-        <v>1.10575</v>
+        <v>1.15975</v>
       </c>
       <c r="F113" t="n">
-        <v>3.52813</v>
+        <v>3.83908</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13621</v>
+        <v>1.18719</v>
       </c>
       <c r="C114" t="n">
-        <v>3.00596</v>
+        <v>3.26167</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2972</v>
+        <v>2.91918</v>
       </c>
       <c r="E114" t="n">
-        <v>1.1156</v>
+        <v>1.14722</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47589</v>
+        <v>3.77277</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11987</v>
+        <v>1.18831</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99113</v>
+        <v>3.22833</v>
       </c>
       <c r="D115" t="n">
-        <v>2.67709</v>
+        <v>2.47816</v>
       </c>
       <c r="E115" t="n">
-        <v>1.08169</v>
+        <v>1.13651</v>
       </c>
       <c r="F115" t="n">
-        <v>3.41824</v>
+        <v>3.73913</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.09494</v>
+        <v>1.18417</v>
       </c>
       <c r="C116" t="n">
-        <v>2.97629</v>
+        <v>3.21337</v>
       </c>
       <c r="D116" t="n">
-        <v>2.47564</v>
+        <v>2.69891</v>
       </c>
       <c r="E116" t="n">
-        <v>1.07137</v>
+        <v>1.12671</v>
       </c>
       <c r="F116" t="n">
-        <v>3.37254</v>
+        <v>3.66784</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.09734</v>
+        <v>1.16674</v>
       </c>
       <c r="C117" t="n">
-        <v>2.95431</v>
+        <v>3.1902</v>
       </c>
       <c r="D117" t="n">
-        <v>2.24944</v>
+        <v>2.4552</v>
       </c>
       <c r="E117" t="n">
-        <v>1.06065</v>
+        <v>1.11589</v>
       </c>
       <c r="F117" t="n">
-        <v>3.32134</v>
+        <v>3.62575</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09721</v>
+        <v>1.16774</v>
       </c>
       <c r="C118" t="n">
-        <v>2.91901</v>
+        <v>3.17113</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25499</v>
+        <v>2.44955</v>
       </c>
       <c r="E118" t="n">
-        <v>1.01772</v>
+        <v>1.10711</v>
       </c>
       <c r="F118" t="n">
-        <v>3.27982</v>
+        <v>3.3717</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09005</v>
+        <v>1.14661</v>
       </c>
       <c r="C119" t="n">
-        <v>2.9102</v>
+        <v>3.16189</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25842</v>
+        <v>2.45474</v>
       </c>
       <c r="E119" t="n">
-        <v>1.04312</v>
+        <v>1.06809</v>
       </c>
       <c r="F119" t="n">
-        <v>3.04857</v>
+        <v>3.54366</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.0833</v>
+        <v>1.16027</v>
       </c>
       <c r="C120" t="n">
-        <v>2.91226</v>
+        <v>1.80204</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26104</v>
+        <v>2.46145</v>
       </c>
       <c r="E120" t="n">
-        <v>1.03574</v>
+        <v>1.09321</v>
       </c>
       <c r="F120" t="n">
-        <v>3.01404</v>
+        <v>3.27865</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06327</v>
+        <v>1.14143</v>
       </c>
       <c r="C121" t="n">
-        <v>2.08368</v>
+        <v>3.14422</v>
       </c>
       <c r="D121" t="n">
-        <v>4.28713</v>
+        <v>4.70983</v>
       </c>
       <c r="E121" t="n">
-        <v>1.00241</v>
+        <v>1.05777</v>
       </c>
       <c r="F121" t="n">
-        <v>2.97602</v>
+        <v>3.25505</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.08235</v>
+        <v>1.14918</v>
       </c>
       <c r="C122" t="n">
-        <v>2.88411</v>
+        <v>1.76688</v>
       </c>
       <c r="D122" t="n">
-        <v>3.83048</v>
+        <v>3.97809</v>
       </c>
       <c r="E122" t="n">
-        <v>0.998588</v>
+        <v>1.05588</v>
       </c>
       <c r="F122" t="n">
-        <v>3.15039</v>
+        <v>3.44103</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0805</v>
+        <v>1.16622</v>
       </c>
       <c r="C123" t="n">
-        <v>1.65691</v>
+        <v>3.1355</v>
       </c>
       <c r="D123" t="n">
-        <v>4.20378</v>
+        <v>4.41027</v>
       </c>
       <c r="E123" t="n">
-        <v>1.32625</v>
+        <v>1.39239</v>
       </c>
       <c r="F123" t="n">
-        <v>4.45549</v>
+        <v>4.91212</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34501</v>
+        <v>1.41105</v>
       </c>
       <c r="C124" t="n">
-        <v>3.6589</v>
+        <v>3.96841</v>
       </c>
       <c r="D124" t="n">
-        <v>3.55742</v>
+        <v>3.43604</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3153</v>
+        <v>1.40873</v>
       </c>
       <c r="F124" t="n">
-        <v>4.38668</v>
+        <v>4.82393</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.32698</v>
+        <v>1.42131</v>
       </c>
       <c r="C125" t="n">
-        <v>3.61597</v>
+        <v>3.93721</v>
       </c>
       <c r="D125" t="n">
-        <v>3.52424</v>
+        <v>3.63781</v>
       </c>
       <c r="E125" t="n">
-        <v>1.30397</v>
+        <v>1.37588</v>
       </c>
       <c r="F125" t="n">
-        <v>4.32394</v>
+        <v>4.74966</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32972</v>
+        <v>1.39583</v>
       </c>
       <c r="C126" t="n">
-        <v>3.58682</v>
+        <v>3.89367</v>
       </c>
       <c r="D126" t="n">
-        <v>3.28023</v>
+        <v>3.13538</v>
       </c>
       <c r="E126" t="n">
-        <v>1.29388</v>
+        <v>1.36773</v>
       </c>
       <c r="F126" t="n">
-        <v>4.25207</v>
+        <v>4.68497</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.2864</v>
+        <v>1.37889</v>
       </c>
       <c r="C127" t="n">
-        <v>3.54666</v>
+        <v>3.87244</v>
       </c>
       <c r="D127" t="n">
-        <v>2.82583</v>
+        <v>3.10731</v>
       </c>
       <c r="E127" t="n">
-        <v>1.30847</v>
+        <v>1.36045</v>
       </c>
       <c r="F127" t="n">
-        <v>4.18609</v>
+        <v>4.59753</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31026</v>
+        <v>1.38268</v>
       </c>
       <c r="C128" t="n">
-        <v>3.51559</v>
+        <v>3.84552</v>
       </c>
       <c r="D128" t="n">
-        <v>3.00256</v>
+        <v>3.06829</v>
       </c>
       <c r="E128" t="n">
-        <v>1.27656</v>
+        <v>1.35244</v>
       </c>
       <c r="F128" t="n">
-        <v>4.12545</v>
+        <v>4.52687</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28153</v>
+        <v>1.39228</v>
       </c>
       <c r="C129" t="n">
-        <v>3.48777</v>
+        <v>3.81282</v>
       </c>
       <c r="D129" t="n">
-        <v>2.77097</v>
+        <v>3.04386</v>
       </c>
       <c r="E129" t="n">
-        <v>1.26961</v>
+        <v>1.34528</v>
       </c>
       <c r="F129" t="n">
-        <v>4.06823</v>
+        <v>4.46636</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.27045</v>
+        <v>1.37588</v>
       </c>
       <c r="C130" t="n">
-        <v>3.46955</v>
+        <v>3.7804</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74756</v>
+        <v>3.02484</v>
       </c>
       <c r="E130" t="n">
-        <v>1.26302</v>
+        <v>1.34069</v>
       </c>
       <c r="F130" t="n">
-        <v>4.01024</v>
+        <v>4.40825</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.27708</v>
+        <v>1.37682</v>
       </c>
       <c r="C131" t="n">
-        <v>3.44103</v>
+        <v>3.76521</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73653</v>
+        <v>3.01072</v>
       </c>
       <c r="E131" t="n">
-        <v>1.25521</v>
+        <v>1.3353</v>
       </c>
       <c r="F131" t="n">
-        <v>3.7315</v>
+        <v>4.11333</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.27749</v>
+        <v>1.37061</v>
       </c>
       <c r="C132" t="n">
-        <v>3.4191</v>
+        <v>3.74185</v>
       </c>
       <c r="D132" t="n">
-        <v>2.73006</v>
+        <v>3.00289</v>
       </c>
       <c r="E132" t="n">
-        <v>1.21884</v>
+        <v>1.32966</v>
       </c>
       <c r="F132" t="n">
-        <v>3.46913</v>
+        <v>4.2846</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27137</v>
+        <v>1.36054</v>
       </c>
       <c r="C133" t="n">
-        <v>3.38874</v>
+        <v>3.70151</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71741</v>
+        <v>2.99583</v>
       </c>
       <c r="E133" t="n">
-        <v>1.21432</v>
+        <v>1.29453</v>
       </c>
       <c r="F133" t="n">
-        <v>3.85948</v>
+        <v>4.2423</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.26938</v>
+        <v>1.36155</v>
       </c>
       <c r="C134" t="n">
-        <v>3.38312</v>
+        <v>3.69025</v>
       </c>
       <c r="D134" t="n">
-        <v>2.71776</v>
+        <v>2.99091</v>
       </c>
       <c r="E134" t="n">
-        <v>1.24142</v>
+        <v>1.29173</v>
       </c>
       <c r="F134" t="n">
-        <v>3.81314</v>
+        <v>3.45902</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.26621</v>
+        <v>1.37059</v>
       </c>
       <c r="C135" t="n">
-        <v>3.36567</v>
+        <v>2.20211</v>
       </c>
       <c r="D135" t="n">
-        <v>4.88447</v>
+        <v>5.41105</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23657</v>
+        <v>1.29065</v>
       </c>
       <c r="F135" t="n">
-        <v>3.76555</v>
+        <v>3.65004</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.27254</v>
+        <v>1.37185</v>
       </c>
       <c r="C136" t="n">
-        <v>3.35416</v>
+        <v>3.66175</v>
       </c>
       <c r="D136" t="n">
-        <v>4.16647</v>
+        <v>4.59132</v>
       </c>
       <c r="E136" t="n">
-        <v>1.23364</v>
+        <v>1.31858</v>
       </c>
       <c r="F136" t="n">
-        <v>3.73596</v>
+        <v>4.11598</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27346</v>
+        <v>1.36363</v>
       </c>
       <c r="C137" t="n">
-        <v>2.01522</v>
+        <v>3.6429</v>
       </c>
       <c r="D137" t="n">
-        <v>4.32943</v>
+        <v>4.78067</v>
       </c>
       <c r="E137" t="n">
-        <v>1.5312</v>
+        <v>1.65183</v>
       </c>
       <c r="F137" t="n">
-        <v>5.1109</v>
+        <v>5.66924</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52914</v>
+        <v>1.60677</v>
       </c>
       <c r="C138" t="n">
-        <v>4.14891</v>
+        <v>4.53708</v>
       </c>
       <c r="D138" t="n">
-        <v>4.48986</v>
+        <v>4.47545</v>
       </c>
       <c r="E138" t="n">
-        <v>1.54939</v>
+        <v>1.62068</v>
       </c>
       <c r="F138" t="n">
-        <v>5.01627</v>
+        <v>5.5369</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.49765</v>
+        <v>1.61569</v>
       </c>
       <c r="C139" t="n">
-        <v>4.09303</v>
+        <v>4.49243</v>
       </c>
       <c r="D139" t="n">
-        <v>4.00097</v>
+        <v>4.67108</v>
       </c>
       <c r="E139" t="n">
-        <v>1.516</v>
+        <v>1.61448</v>
       </c>
       <c r="F139" t="n">
-        <v>4.92759</v>
+        <v>5.45209</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51509</v>
+        <v>1.60112</v>
       </c>
       <c r="C140" t="n">
-        <v>4.05146</v>
+        <v>4.43644</v>
       </c>
       <c r="D140" t="n">
-        <v>4.19011</v>
+        <v>4.37255</v>
       </c>
       <c r="E140" t="n">
-        <v>1.50731</v>
+        <v>1.6094</v>
       </c>
       <c r="F140" t="n">
-        <v>4.84516</v>
+        <v>5.34322</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.50481</v>
+        <v>1.59443</v>
       </c>
       <c r="C141" t="n">
-        <v>4.01206</v>
+        <v>4.3848</v>
       </c>
       <c r="D141" t="n">
-        <v>3.24538</v>
+        <v>3.57857</v>
       </c>
       <c r="E141" t="n">
-        <v>1.50108</v>
+        <v>1.60439</v>
       </c>
       <c r="F141" t="n">
-        <v>4.75836</v>
+        <v>5.24924</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.47669</v>
+        <v>1.61667</v>
       </c>
       <c r="C142" t="n">
-        <v>3.95778</v>
+        <v>4.34553</v>
       </c>
       <c r="D142" t="n">
-        <v>3.19934</v>
+        <v>3.5265</v>
       </c>
       <c r="E142" t="n">
-        <v>1.45635</v>
+        <v>1.59948</v>
       </c>
       <c r="F142" t="n">
-        <v>4.66343</v>
+        <v>5.15984</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49723</v>
+        <v>1.59987</v>
       </c>
       <c r="C143" t="n">
-        <v>3.91372</v>
+        <v>4.30289</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15821</v>
+        <v>3.49083</v>
       </c>
       <c r="E143" t="n">
-        <v>1.49045</v>
+        <v>1.55348</v>
       </c>
       <c r="F143" t="n">
-        <v>4.58376</v>
+        <v>4.82308</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.579793</v>
+        <v>0.577338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.768865</v>
+        <v>0.821361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.838827</v>
+        <v>0.841652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.562065</v>
+        <v>0.566096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813466</v>
+        <v>0.8087760000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564978</v>
+        <v>0.5652199999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768195</v>
+        <v>0.8104980000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828968</v>
+        <v>0.8319299999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.548866</v>
+        <v>0.551913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.795818</v>
+        <v>0.788216</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5534520000000001</v>
+        <v>0.553204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.757012</v>
+        <v>0.801745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.820329</v>
+        <v>0.822667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.535656</v>
+        <v>0.538839</v>
       </c>
       <c r="F4" t="n">
-        <v>0.778982</v>
+        <v>0.77415</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542048</v>
+        <v>0.540225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.746541</v>
+        <v>0.792365</v>
       </c>
       <c r="D5" t="n">
-        <v>0.812204</v>
+        <v>0.814152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.524103</v>
+        <v>0.526016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.764632</v>
+        <v>0.758999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5363</v>
+        <v>0.534745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.741086</v>
+        <v>0.784695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.808003</v>
+        <v>0.843554</v>
       </c>
       <c r="E6" t="n">
-        <v>0.512978</v>
+        <v>0.5153219999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.753894</v>
+        <v>0.745476</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.523514</v>
+        <v>0.52834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.736745</v>
+        <v>0.780267</v>
       </c>
       <c r="D7" t="n">
-        <v>0.920728</v>
+        <v>0.925519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.511588</v>
+        <v>0.506656</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7424539999999999</v>
+        <v>0.734589</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.484024</v>
+        <v>0.527358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.733936</v>
+        <v>0.778308</v>
       </c>
       <c r="D8" t="n">
-        <v>0.902041</v>
+        <v>0.90511</v>
       </c>
       <c r="E8" t="n">
-        <v>0.498987</v>
+        <v>0.501847</v>
       </c>
       <c r="F8" t="n">
-        <v>0.735251</v>
+        <v>0.727652</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.528094</v>
+        <v>0.482068</v>
       </c>
       <c r="C9" t="n">
-        <v>0.735618</v>
+        <v>0.780208</v>
       </c>
       <c r="D9" t="n">
-        <v>0.883022</v>
+        <v>0.888473</v>
       </c>
       <c r="E9" t="n">
-        <v>0.764686</v>
+        <v>0.771347</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01736</v>
+        <v>1.00509</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.670858</v>
+        <v>0.674821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.898172</v>
+        <v>0.9365520000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.871329</v>
+        <v>0.8734459999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.742511</v>
+        <v>0.7476080000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.990932</v>
+        <v>0.979909</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.654154</v>
+        <v>0.650657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.883126</v>
+        <v>0.917087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858969</v>
+        <v>0.857212</v>
       </c>
       <c r="E11" t="n">
-        <v>0.719283</v>
+        <v>0.725959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9683310000000001</v>
+        <v>0.95683</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.638153</v>
+        <v>0.63326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.865137</v>
+        <v>0.901034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.842354</v>
+        <v>0.842002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.698608</v>
+        <v>0.704103</v>
       </c>
       <c r="F12" t="n">
-        <v>0.946008</v>
+        <v>0.937515</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617305</v>
+        <v>0.619074</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8481649999999999</v>
+        <v>0.884311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.829902</v>
+        <v>0.826143</v>
       </c>
       <c r="E13" t="n">
-        <v>0.67818</v>
+        <v>0.68269</v>
       </c>
       <c r="F13" t="n">
-        <v>0.920993</v>
+        <v>0.910527</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.603065</v>
+        <v>0.601657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830601</v>
+        <v>0.868104</v>
       </c>
       <c r="D14" t="n">
-        <v>0.818935</v>
+        <v>0.8158840000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.659714</v>
+        <v>0.664475</v>
       </c>
       <c r="F14" t="n">
-        <v>0.896543</v>
+        <v>0.892224</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.590688</v>
+        <v>0.585336</v>
       </c>
       <c r="C15" t="n">
-        <v>0.813347</v>
+        <v>0.853409</v>
       </c>
       <c r="D15" t="n">
-        <v>0.807015</v>
+        <v>0.80722</v>
       </c>
       <c r="E15" t="n">
-        <v>0.641455</v>
+        <v>0.646769</v>
       </c>
       <c r="F15" t="n">
-        <v>0.876677</v>
+        <v>0.866545</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.576148</v>
+        <v>0.56995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7997840000000001</v>
+        <v>0.839368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.800982</v>
+        <v>0.795292</v>
       </c>
       <c r="E16" t="n">
-        <v>0.624936</v>
+        <v>0.628741</v>
       </c>
       <c r="F16" t="n">
-        <v>0.856434</v>
+        <v>0.847628</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558803</v>
+        <v>0.558234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.786106</v>
+        <v>0.828485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.788026</v>
+        <v>0.785208</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608892</v>
+        <v>0.6128710000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.867853</v>
+        <v>0.860838</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.548266</v>
+        <v>0.546234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780053</v>
+        <v>0.818014</v>
       </c>
       <c r="D18" t="n">
-        <v>0.780688</v>
+        <v>0.778383</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594672</v>
+        <v>0.597098</v>
       </c>
       <c r="F18" t="n">
-        <v>0.850584</v>
+        <v>0.842484</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.539504</v>
+        <v>0.537677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.767463</v>
+        <v>0.80659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7718970000000001</v>
+        <v>0.771702</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581206</v>
+        <v>0.58436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.833055</v>
+        <v>0.82763</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.527936</v>
+        <v>0.528021</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7618200000000001</v>
+        <v>0.802551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.763246</v>
+        <v>0.764212</v>
       </c>
       <c r="E20" t="n">
-        <v>0.570074</v>
+        <v>0.572403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.821567</v>
+        <v>0.815119</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.522653</v>
+        <v>0.521277</v>
       </c>
       <c r="C21" t="n">
-        <v>0.756332</v>
+        <v>0.80455</v>
       </c>
       <c r="D21" t="n">
-        <v>0.994581</v>
+        <v>0.993659</v>
       </c>
       <c r="E21" t="n">
-        <v>0.560524</v>
+        <v>0.563211</v>
       </c>
       <c r="F21" t="n">
-        <v>0.814959</v>
+        <v>0.810028</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.518006</v>
+        <v>0.518754</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7499130000000001</v>
+        <v>0.792686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.973251</v>
+        <v>0.971809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.553442</v>
+        <v>0.55453</v>
       </c>
       <c r="F22" t="n">
-        <v>0.806223</v>
+        <v>0.800748</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.515891</v>
+        <v>0.517119</v>
       </c>
       <c r="C23" t="n">
-        <v>0.750628</v>
+        <v>0.791037</v>
       </c>
       <c r="D23" t="n">
-        <v>0.950689</v>
+        <v>0.946137</v>
       </c>
       <c r="E23" t="n">
-        <v>0.82606</v>
+        <v>0.836232</v>
       </c>
       <c r="F23" t="n">
-        <v>1.09494</v>
+        <v>1.08725</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.685268</v>
+        <v>0.684755</v>
       </c>
       <c r="C24" t="n">
-        <v>0.936189</v>
+        <v>0.974955</v>
       </c>
       <c r="D24" t="n">
-        <v>0.932168</v>
+        <v>0.930979</v>
       </c>
       <c r="E24" t="n">
-        <v>0.801</v>
+        <v>0.809311</v>
       </c>
       <c r="F24" t="n">
-        <v>1.06217</v>
+        <v>1.05402</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.664094</v>
+        <v>0.664147</v>
       </c>
       <c r="C25" t="n">
-        <v>0.915752</v>
+        <v>0.953555</v>
       </c>
       <c r="D25" t="n">
-        <v>0.917812</v>
+        <v>0.91867</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7765</v>
+        <v>0.785544</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0353</v>
+        <v>1.02936</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.646665</v>
+        <v>0.646745</v>
       </c>
       <c r="C26" t="n">
-        <v>0.895734</v>
+        <v>0.933975</v>
       </c>
       <c r="D26" t="n">
-        <v>0.901936</v>
+        <v>0.9029199999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.75304</v>
+        <v>0.763056</v>
       </c>
       <c r="F26" t="n">
-        <v>1.01526</v>
+        <v>1.0101</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.62935</v>
+        <v>0.665083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8771640000000001</v>
+        <v>0.915083</v>
       </c>
       <c r="D27" t="n">
-        <v>0.885582</v>
+        <v>0.888031</v>
       </c>
       <c r="E27" t="n">
-        <v>0.730797</v>
+        <v>0.738753</v>
       </c>
       <c r="F27" t="n">
-        <v>0.988981</v>
+        <v>0.980718</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.644297</v>
+        <v>0.612612</v>
       </c>
       <c r="C28" t="n">
-        <v>0.859942</v>
+        <v>0.89529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.87281</v>
+        <v>0.873874</v>
       </c>
       <c r="E28" t="n">
-        <v>0.709305</v>
+        <v>0.715829</v>
       </c>
       <c r="F28" t="n">
-        <v>0.966021</v>
+        <v>0.963022</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.625234</v>
+        <v>0.63096</v>
       </c>
       <c r="C29" t="n">
-        <v>0.842579</v>
+        <v>0.881745</v>
       </c>
       <c r="D29" t="n">
-        <v>0.863804</v>
+        <v>0.864484</v>
       </c>
       <c r="E29" t="n">
-        <v>0.689095</v>
+        <v>0.695851</v>
       </c>
       <c r="F29" t="n">
-        <v>0.946329</v>
+        <v>0.94086</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.610742</v>
+        <v>0.586097</v>
       </c>
       <c r="C30" t="n">
-        <v>0.845692</v>
+        <v>0.885645</v>
       </c>
       <c r="D30" t="n">
-        <v>0.85311</v>
+        <v>0.852747</v>
       </c>
       <c r="E30" t="n">
-        <v>0.669662</v>
+        <v>0.678366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.923447</v>
+        <v>0.917442</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594862</v>
+        <v>0.602645</v>
       </c>
       <c r="C31" t="n">
-        <v>0.832825</v>
+        <v>0.8726660000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8423119999999999</v>
+        <v>0.842283</v>
       </c>
       <c r="E31" t="n">
-        <v>0.65254</v>
+        <v>0.660659</v>
       </c>
       <c r="F31" t="n">
-        <v>0.902601</v>
+        <v>0.900014</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.583755</v>
+        <v>0.584317</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8219919999999999</v>
+        <v>0.861829</v>
       </c>
       <c r="D32" t="n">
-        <v>0.834256</v>
+        <v>0.83765</v>
       </c>
       <c r="E32" t="n">
-        <v>0.636242</v>
+        <v>0.641021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881891</v>
+        <v>0.877548</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.574466</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81071</v>
+        <v>0.851871</v>
       </c>
       <c r="D33" t="n">
-        <v>0.82504</v>
+        <v>0.82482</v>
       </c>
       <c r="E33" t="n">
-        <v>0.620549</v>
+        <v>0.627139</v>
       </c>
       <c r="F33" t="n">
-        <v>0.864747</v>
+        <v>0.8601799999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.560469</v>
+        <v>0.566746</v>
       </c>
       <c r="C34" t="n">
-        <v>0.782044</v>
+        <v>0.816985</v>
       </c>
       <c r="D34" t="n">
-        <v>0.817713</v>
+        <v>0.818568</v>
       </c>
       <c r="E34" t="n">
-        <v>0.606499</v>
+        <v>0.614711</v>
       </c>
       <c r="F34" t="n">
-        <v>0.84722</v>
+        <v>0.8426940000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.552789</v>
+        <v>0.556115</v>
       </c>
       <c r="C35" t="n">
-        <v>0.775939</v>
+        <v>0.813431</v>
       </c>
       <c r="D35" t="n">
-        <v>1.07109</v>
+        <v>1.07127</v>
       </c>
       <c r="E35" t="n">
-        <v>0.574441</v>
+        <v>0.577835</v>
       </c>
       <c r="F35" t="n">
-        <v>0.835243</v>
+        <v>0.830005</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.526749</v>
+        <v>0.525875</v>
       </c>
       <c r="C36" t="n">
-        <v>0.769718</v>
+        <v>0.807552</v>
       </c>
       <c r="D36" t="n">
-        <v>1.04182</v>
+        <v>1.04117</v>
       </c>
       <c r="E36" t="n">
-        <v>0.565929</v>
+        <v>0.568682</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821171</v>
+        <v>0.8136949999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.524624</v>
+        <v>0.5221209999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.767304</v>
+        <v>0.8041239999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03533</v>
+        <v>1.02165</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8432460000000001</v>
+        <v>0.880338</v>
       </c>
       <c r="F37" t="n">
-        <v>1.38149</v>
+        <v>1.38046</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.753294</v>
+        <v>0.767563</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18592</v>
+        <v>1.22375</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01357</v>
+        <v>1.00564</v>
       </c>
       <c r="E38" t="n">
-        <v>0.818275</v>
+        <v>0.85434</v>
       </c>
       <c r="F38" t="n">
-        <v>1.35128</v>
+        <v>1.34827</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.715557</v>
+        <v>0.742124</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1649</v>
+        <v>1.20189</v>
       </c>
       <c r="D39" t="n">
-        <v>0.988449</v>
+        <v>0.9889019999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7938730000000001</v>
+        <v>0.838856</v>
       </c>
       <c r="F39" t="n">
-        <v>1.32241</v>
+        <v>1.31893</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.720398</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14576</v>
+        <v>1.17981</v>
       </c>
       <c r="D40" t="n">
-        <v>0.970341</v>
+        <v>0.97201</v>
       </c>
       <c r="E40" t="n">
-        <v>0.769996</v>
+        <v>0.800892</v>
       </c>
       <c r="F40" t="n">
-        <v>1.29292</v>
+        <v>1.28908</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.691504</v>
+        <v>0.701632</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12839</v>
+        <v>1.16314</v>
       </c>
       <c r="D41" t="n">
-        <v>0.954032</v>
+        <v>0.955657</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7478</v>
+        <v>0.779047</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26532</v>
+        <v>1.26396</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.655165</v>
+        <v>0.694611</v>
       </c>
       <c r="C42" t="n">
-        <v>1.11127</v>
+        <v>1.14458</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9373629999999999</v>
+        <v>0.938416</v>
       </c>
       <c r="E42" t="n">
-        <v>0.725862</v>
+        <v>0.753594</v>
       </c>
       <c r="F42" t="n">
-        <v>1.24161</v>
+        <v>1.23704</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.642133</v>
+        <v>0.6638269999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09455</v>
+        <v>1.12754</v>
       </c>
       <c r="D43" t="n">
-        <v>0.923849</v>
+        <v>0.926602</v>
       </c>
       <c r="E43" t="n">
-        <v>0.705484</v>
+        <v>0.729892</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21602</v>
+        <v>1.21355</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.636877</v>
+        <v>0.644454</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07905</v>
+        <v>1.1112</v>
       </c>
       <c r="D44" t="n">
-        <v>0.91074</v>
+        <v>0.913341</v>
       </c>
       <c r="E44" t="n">
-        <v>0.686999</v>
+        <v>0.7131110000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1923</v>
+        <v>1.18879</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.607901</v>
+        <v>0.632258</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06574</v>
+        <v>1.09911</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902383</v>
+        <v>0.903956</v>
       </c>
       <c r="E45" t="n">
-        <v>0.668149</v>
+        <v>0.692515</v>
       </c>
       <c r="F45" t="n">
-        <v>1.17224</v>
+        <v>1.16878</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.594712</v>
+        <v>0.628342</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05159</v>
+        <v>1.08466</v>
       </c>
       <c r="D46" t="n">
-        <v>0.891425</v>
+        <v>0.892826</v>
       </c>
       <c r="E46" t="n">
-        <v>0.652259</v>
+        <v>0.640449</v>
       </c>
       <c r="F46" t="n">
-        <v>1.15218</v>
+        <v>1.14696</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.580878</v>
+        <v>0.604245</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0433</v>
+        <v>1.07318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885703</v>
+        <v>0.883848</v>
       </c>
       <c r="E47" t="n">
-        <v>0.614359</v>
+        <v>0.658478</v>
       </c>
       <c r="F47" t="n">
-        <v>1.13214</v>
+        <v>1.13046</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.571591</v>
+        <v>0.593938</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0309</v>
+        <v>1.0631</v>
       </c>
       <c r="D48" t="n">
-        <v>0.876016</v>
+        <v>0.875713</v>
       </c>
       <c r="E48" t="n">
-        <v>0.622441</v>
+        <v>0.609526</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11698</v>
+        <v>1.11321</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.564559</v>
+        <v>0.581297</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02514</v>
+        <v>1.05556</v>
       </c>
       <c r="D49" t="n">
-        <v>0.86934</v>
+        <v>0.871742</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6079020000000001</v>
+        <v>0.625663</v>
       </c>
       <c r="F49" t="n">
-        <v>1.10176</v>
+        <v>1.09567</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5555909999999999</v>
+        <v>0.5852850000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01751</v>
+        <v>1.04982</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11386</v>
+        <v>1.11756</v>
       </c>
       <c r="E50" t="n">
-        <v>0.581046</v>
+        <v>0.608958</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08863</v>
+        <v>1.0832</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.55286</v>
+        <v>0.56584</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01471</v>
+        <v>1.04679</v>
       </c>
       <c r="D51" t="n">
-        <v>1.08984</v>
+        <v>1.09426</v>
       </c>
       <c r="E51" t="n">
-        <v>0.887449</v>
+        <v>0.916988</v>
       </c>
       <c r="F51" t="n">
-        <v>1.46185</v>
+        <v>1.4622</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.55169</v>
+        <v>0.540952</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01627</v>
+        <v>1.0471</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06776</v>
+        <v>1.07186</v>
       </c>
       <c r="E52" t="n">
-        <v>0.848361</v>
+        <v>0.901663</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42586</v>
+        <v>1.42744</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.758724</v>
+        <v>0.778527</v>
       </c>
       <c r="C53" t="n">
-        <v>1.21311</v>
+        <v>1.25047</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04608</v>
+        <v>1.05149</v>
       </c>
       <c r="E53" t="n">
-        <v>0.824013</v>
+        <v>0.8617669999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1.39416</v>
+        <v>1.39368</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735448</v>
+        <v>0.7680439999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19175</v>
+        <v>1.22877</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02925</v>
+        <v>1.03319</v>
       </c>
       <c r="E54" t="n">
-        <v>0.811855</v>
+        <v>0.848873</v>
       </c>
       <c r="F54" t="n">
-        <v>1.36897</v>
+        <v>1.36359</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.708724</v>
+        <v>0.749824</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17235</v>
+        <v>1.20683</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01064</v>
+        <v>1.01331</v>
       </c>
       <c r="E55" t="n">
-        <v>0.778906</v>
+        <v>0.813728</v>
       </c>
       <c r="F55" t="n">
-        <v>1.33419</v>
+        <v>1.33566</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6930730000000001</v>
+        <v>0.7177559999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15471</v>
+        <v>1.18943</v>
       </c>
       <c r="D56" t="n">
-        <v>0.992837</v>
+        <v>0.997542</v>
       </c>
       <c r="E56" t="n">
-        <v>0.758585</v>
+        <v>0.790172</v>
       </c>
       <c r="F56" t="n">
-        <v>1.31342</v>
+        <v>1.30557</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.679751</v>
+        <v>0.711612</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1378</v>
+        <v>1.17123</v>
       </c>
       <c r="D57" t="n">
-        <v>0.977251</v>
+        <v>0.980979</v>
       </c>
       <c r="E57" t="n">
-        <v>0.734889</v>
+        <v>0.7695650000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1.28788</v>
+        <v>1.28063</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.654942</v>
+        <v>0.694137</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12317</v>
+        <v>1.15453</v>
       </c>
       <c r="D58" t="n">
-        <v>0.95986</v>
+        <v>0.96861</v>
       </c>
       <c r="E58" t="n">
-        <v>0.717252</v>
+        <v>0.747622</v>
       </c>
       <c r="F58" t="n">
-        <v>1.26148</v>
+        <v>1.25534</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.63952</v>
+        <v>0.669598</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10754</v>
+        <v>1.13983</v>
       </c>
       <c r="D59" t="n">
-        <v>0.946476</v>
+        <v>0.948632</v>
       </c>
       <c r="E59" t="n">
-        <v>0.669661</v>
+        <v>0.727142</v>
       </c>
       <c r="F59" t="n">
-        <v>1.23862</v>
+        <v>1.23387</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.623924</v>
+        <v>0.645693</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09437</v>
+        <v>1.12517</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935895</v>
+        <v>0.93748</v>
       </c>
       <c r="E60" t="n">
-        <v>0.681161</v>
+        <v>0.704521</v>
       </c>
       <c r="F60" t="n">
-        <v>1.21468</v>
+        <v>1.20945</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614783</v>
+        <v>0.6277199999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08221</v>
+        <v>1.11131</v>
       </c>
       <c r="D61" t="n">
-        <v>0.925526</v>
+        <v>0.927335</v>
       </c>
       <c r="E61" t="n">
-        <v>0.639174</v>
+        <v>0.672085</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18937</v>
+        <v>1.18913</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.604792</v>
+        <v>0.6090179999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07253</v>
+        <v>1.10001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.917894</v>
+        <v>0.9197920000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.625532</v>
+        <v>0.634757</v>
       </c>
       <c r="F62" t="n">
-        <v>1.17546</v>
+        <v>1.1693</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.597038</v>
+        <v>0.5930569999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06322</v>
+        <v>1.09205</v>
       </c>
       <c r="D63" t="n">
-        <v>0.908303</v>
+        <v>0.9108849999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.638523</v>
+        <v>0.6346619999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15721</v>
+        <v>1.15295</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.58749</v>
+        <v>0.610513</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05548</v>
+        <v>1.08544</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19805</v>
+        <v>1.21204</v>
       </c>
       <c r="E64" t="n">
-        <v>0.627037</v>
+        <v>0.65234</v>
       </c>
       <c r="F64" t="n">
-        <v>1.14308</v>
+        <v>1.14091</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.581686</v>
+        <v>0.606537</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05433</v>
+        <v>1.08282</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17367</v>
+        <v>1.18266</v>
       </c>
       <c r="E65" t="n">
-        <v>0.620649</v>
+        <v>0.640185</v>
       </c>
       <c r="F65" t="n">
-        <v>1.13277</v>
+        <v>1.12779</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.556333</v>
+        <v>0.603895</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02376</v>
+        <v>1.08295</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14079</v>
+        <v>1.15007</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9361930000000001</v>
+        <v>0.9327800000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1.51241</v>
+        <v>1.51351</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.844916</v>
+        <v>0.817711</v>
       </c>
       <c r="C67" t="n">
-        <v>1.28382</v>
+        <v>1.3153</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10871</v>
+        <v>1.11484</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9030049999999999</v>
+        <v>0.916968</v>
       </c>
       <c r="F67" t="n">
-        <v>1.47488</v>
+        <v>1.47984</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.818428</v>
+        <v>0.804364</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26076</v>
+        <v>1.29707</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08696</v>
+        <v>1.0921</v>
       </c>
       <c r="E68" t="n">
-        <v>0.881138</v>
+        <v>0.890263</v>
       </c>
       <c r="F68" t="n">
-        <v>1.44704</v>
+        <v>1.44507</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.792798</v>
+        <v>0.796785</v>
       </c>
       <c r="C69" t="n">
-        <v>1.25434</v>
+        <v>1.27474</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07266</v>
+        <v>1.07382</v>
       </c>
       <c r="E69" t="n">
-        <v>0.863507</v>
+        <v>0.851352</v>
       </c>
       <c r="F69" t="n">
-        <v>1.42396</v>
+        <v>1.41789</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.785324</v>
+        <v>0.781918</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23817</v>
+        <v>1.26106</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05894</v>
+        <v>1.06124</v>
       </c>
       <c r="E70" t="n">
-        <v>0.836391</v>
+        <v>0.846589</v>
       </c>
       <c r="F70" t="n">
-        <v>1.39466</v>
+        <v>1.3891</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.763915</v>
+        <v>0.766728</v>
       </c>
       <c r="C71" t="n">
-        <v>1.2221</v>
+        <v>1.24183</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02442</v>
+        <v>1.02222</v>
       </c>
       <c r="E71" t="n">
-        <v>0.815222</v>
+        <v>0.801406</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3749</v>
+        <v>1.3635</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.761871</v>
+        <v>0.73656</v>
       </c>
       <c r="C72" t="n">
-        <v>1.21184</v>
+        <v>1.22916</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01327</v>
+        <v>1.01396</v>
       </c>
       <c r="E72" t="n">
-        <v>0.794413</v>
+        <v>0.780759</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34989</v>
+        <v>1.34089</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.731896</v>
+        <v>0.727722</v>
       </c>
       <c r="C73" t="n">
-        <v>1.20627</v>
+        <v>1.22154</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00643</v>
+        <v>1.00583</v>
       </c>
       <c r="E73" t="n">
-        <v>0.77328</v>
+        <v>0.765736</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33071</v>
+        <v>1.33079</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.716856</v>
+        <v>0.720178</v>
       </c>
       <c r="C74" t="n">
-        <v>1.19328</v>
+        <v>1.21216</v>
       </c>
       <c r="D74" t="n">
-        <v>0.994332</v>
+        <v>0.991549</v>
       </c>
       <c r="E74" t="n">
-        <v>0.754198</v>
+        <v>0.7146709999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31605</v>
+        <v>1.30886</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.700685</v>
+        <v>0.707929</v>
       </c>
       <c r="C75" t="n">
-        <v>1.19095</v>
+        <v>1.21081</v>
       </c>
       <c r="D75" t="n">
-        <v>0.993666</v>
+        <v>0.985278</v>
       </c>
       <c r="E75" t="n">
-        <v>0.737184</v>
+        <v>0.726845</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30727</v>
+        <v>1.30179</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.692889</v>
+        <v>0.687965</v>
       </c>
       <c r="C76" t="n">
-        <v>1.19208</v>
+        <v>1.20705</v>
       </c>
       <c r="D76" t="n">
-        <v>0.990129</v>
+        <v>0.981553</v>
       </c>
       <c r="E76" t="n">
-        <v>0.720932</v>
+        <v>0.711611</v>
       </c>
       <c r="F76" t="n">
-        <v>1.29516</v>
+        <v>1.2863</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679115</v>
+        <v>0.667706</v>
       </c>
       <c r="C77" t="n">
-        <v>1.19434</v>
+        <v>1.20499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.981639</v>
+        <v>0.973413</v>
       </c>
       <c r="E77" t="n">
-        <v>0.677928</v>
+        <v>0.668329</v>
       </c>
       <c r="F77" t="n">
-        <v>1.29148</v>
+        <v>1.28047</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6825020000000001</v>
+        <v>0.657358</v>
       </c>
       <c r="C78" t="n">
-        <v>1.20582</v>
+        <v>1.21542</v>
       </c>
       <c r="D78" t="n">
-        <v>1.49149</v>
+        <v>1.44599</v>
       </c>
       <c r="E78" t="n">
-        <v>0.667822</v>
+        <v>0.657239</v>
       </c>
       <c r="F78" t="n">
-        <v>1.29509</v>
+        <v>1.27546</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.671054</v>
+        <v>0.657168</v>
       </c>
       <c r="C79" t="n">
-        <v>1.21153</v>
+        <v>0.99213</v>
       </c>
       <c r="D79" t="n">
-        <v>1.45336</v>
+        <v>1.41413</v>
       </c>
       <c r="E79" t="n">
-        <v>0.659116</v>
+        <v>0.672468</v>
       </c>
       <c r="F79" t="n">
-        <v>1.2837</v>
+        <v>1.27803</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.659954</v>
+        <v>0.6572440000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.22249</v>
+        <v>1.21309</v>
       </c>
       <c r="D80" t="n">
-        <v>1.4339</v>
+        <v>1.38976</v>
       </c>
       <c r="E80" t="n">
-        <v>1.01346</v>
+        <v>0.99444</v>
       </c>
       <c r="F80" t="n">
-        <v>2.00482</v>
+        <v>1.94817</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.926518</v>
+        <v>0.906948</v>
       </c>
       <c r="C81" t="n">
-        <v>1.76526</v>
+        <v>1.71385</v>
       </c>
       <c r="D81" t="n">
-        <v>1.39622</v>
+        <v>1.34384</v>
       </c>
       <c r="E81" t="n">
-        <v>0.999509</v>
+        <v>0.956526</v>
       </c>
       <c r="F81" t="n">
-        <v>2.00318</v>
+        <v>1.93367</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.919855</v>
+        <v>0.886398</v>
       </c>
       <c r="C82" t="n">
-        <v>1.78451</v>
+        <v>1.72298</v>
       </c>
       <c r="D82" t="n">
-        <v>1.37635</v>
+        <v>1.32303</v>
       </c>
       <c r="E82" t="n">
-        <v>0.981761</v>
+        <v>0.957663</v>
       </c>
       <c r="F82" t="n">
-        <v>1.99312</v>
+        <v>1.91537</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.917048</v>
+        <v>0.889286</v>
       </c>
       <c r="C83" t="n">
-        <v>1.79228</v>
+        <v>1.72018</v>
       </c>
       <c r="D83" t="n">
-        <v>1.35489</v>
+        <v>1.30665</v>
       </c>
       <c r="E83" t="n">
-        <v>0.949522</v>
+        <v>0.9380039999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>1.97548</v>
+        <v>1.90093</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.90122</v>
+        <v>0.882524</v>
       </c>
       <c r="C84" t="n">
-        <v>1.77964</v>
+        <v>1.72557</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34053</v>
+        <v>1.29309</v>
       </c>
       <c r="E84" t="n">
-        <v>0.930488</v>
+        <v>0.918162</v>
       </c>
       <c r="F84" t="n">
-        <v>1.95223</v>
+        <v>1.88517</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.901517</v>
+        <v>0.859724</v>
       </c>
       <c r="C85" t="n">
-        <v>1.798</v>
+        <v>1.72556</v>
       </c>
       <c r="D85" t="n">
-        <v>1.30617</v>
+        <v>1.25601</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9088310000000001</v>
+        <v>0.878704</v>
       </c>
       <c r="F85" t="n">
-        <v>1.95361</v>
+        <v>1.87171</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.881847</v>
+        <v>0.843681</v>
       </c>
       <c r="C86" t="n">
-        <v>1.77899</v>
+        <v>1.73058</v>
       </c>
       <c r="D86" t="n">
-        <v>1.29376</v>
+        <v>1.2514</v>
       </c>
       <c r="E86" t="n">
-        <v>0.888491</v>
+        <v>0.856113</v>
       </c>
       <c r="F86" t="n">
-        <v>1.93373</v>
+        <v>1.86394</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.871037</v>
+        <v>0.836001</v>
       </c>
       <c r="C87" t="n">
-        <v>1.79523</v>
+        <v>1.73328</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29694</v>
+        <v>1.24213</v>
       </c>
       <c r="E87" t="n">
-        <v>0.869336</v>
+        <v>0.837143</v>
       </c>
       <c r="F87" t="n">
-        <v>1.93657</v>
+        <v>1.86283</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.866471</v>
+        <v>0.815594</v>
       </c>
       <c r="C88" t="n">
-        <v>1.80535</v>
+        <v>1.73655</v>
       </c>
       <c r="D88" t="n">
-        <v>1.29484</v>
+        <v>1.23536</v>
       </c>
       <c r="E88" t="n">
-        <v>0.849807</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>1.94058</v>
+        <v>1.85461</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8476</v>
+        <v>0.817182</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81814</v>
+        <v>1.7568</v>
       </c>
       <c r="D89" t="n">
-        <v>1.293</v>
+        <v>1.23475</v>
       </c>
       <c r="E89" t="n">
-        <v>0.830774</v>
+        <v>0.766505</v>
       </c>
       <c r="F89" t="n">
-        <v>1.93309</v>
+        <v>1.85185</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.841186</v>
+        <v>0.78546</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83654</v>
+        <v>1.77033</v>
       </c>
       <c r="D90" t="n">
-        <v>1.30124</v>
+        <v>1.2398</v>
       </c>
       <c r="E90" t="n">
-        <v>0.777287</v>
+        <v>0.750145</v>
       </c>
       <c r="F90" t="n">
-        <v>1.95976</v>
+        <v>1.84825</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.828865</v>
+        <v>0.760815</v>
       </c>
       <c r="C91" t="n">
-        <v>1.79837</v>
+        <v>1.77743</v>
       </c>
       <c r="D91" t="n">
-        <v>1.30219</v>
+        <v>1.2398</v>
       </c>
       <c r="E91" t="n">
-        <v>0.762142</v>
+        <v>0.7350410000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1.96445</v>
+        <v>1.84695</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.815358</v>
+        <v>0.787432</v>
       </c>
       <c r="C92" t="n">
-        <v>1.84793</v>
+        <v>1.78932</v>
       </c>
       <c r="D92" t="n">
-        <v>2.78989</v>
+        <v>2.60686</v>
       </c>
       <c r="E92" t="n">
-        <v>0.748336</v>
+        <v>0.755912</v>
       </c>
       <c r="F92" t="n">
-        <v>1.94974</v>
+        <v>1.8551</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.802144</v>
+        <v>0.777211</v>
       </c>
       <c r="C93" t="n">
-        <v>1.87597</v>
+        <v>1.79122</v>
       </c>
       <c r="D93" t="n">
-        <v>2.68738</v>
+        <v>2.42922</v>
       </c>
       <c r="E93" t="n">
-        <v>0.768231</v>
+        <v>0.743781</v>
       </c>
       <c r="F93" t="n">
-        <v>1.97484</v>
+        <v>1.8751</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8019230000000001</v>
+        <v>0.765755</v>
       </c>
       <c r="C94" t="n">
-        <v>1.90028</v>
+        <v>1.36549</v>
       </c>
       <c r="D94" t="n">
-        <v>2.40774</v>
+        <v>2.24223</v>
       </c>
       <c r="E94" t="n">
-        <v>1.10823</v>
+        <v>1.0406</v>
       </c>
       <c r="F94" t="n">
-        <v>3.16568</v>
+        <v>2.93216</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0516</v>
+        <v>1.02697</v>
       </c>
       <c r="C95" t="n">
-        <v>2.66897</v>
+        <v>2.50739</v>
       </c>
       <c r="D95" t="n">
-        <v>2.52861</v>
+        <v>2.35278</v>
       </c>
       <c r="E95" t="n">
-        <v>1.09986</v>
+        <v>1.05755</v>
       </c>
       <c r="F95" t="n">
-        <v>3.11539</v>
+        <v>2.91143</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06642</v>
+        <v>1.01252</v>
       </c>
       <c r="C96" t="n">
-        <v>2.67014</v>
+        <v>2.51462</v>
       </c>
       <c r="D96" t="n">
-        <v>2.59414</v>
+        <v>2.48121</v>
       </c>
       <c r="E96" t="n">
-        <v>1.08557</v>
+        <v>1.04528</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0837</v>
+        <v>2.87528</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04399</v>
+        <v>0.994551</v>
       </c>
       <c r="C97" t="n">
-        <v>2.66598</v>
+        <v>2.5003</v>
       </c>
       <c r="D97" t="n">
-        <v>2.5247</v>
+        <v>2.48186</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04551</v>
+        <v>1.02912</v>
       </c>
       <c r="F97" t="n">
-        <v>3.05252</v>
+        <v>2.82432</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03805</v>
+        <v>0.9728869999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>2.65386</v>
+        <v>2.4883</v>
       </c>
       <c r="D98" t="n">
-        <v>2.21027</v>
+        <v>2.0541</v>
       </c>
       <c r="E98" t="n">
-        <v>1.02802</v>
+        <v>0.984212</v>
       </c>
       <c r="F98" t="n">
-        <v>3.01631</v>
+        <v>2.79516</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02416</v>
+        <v>0.966243</v>
       </c>
       <c r="C99" t="n">
-        <v>2.62709</v>
+        <v>2.47399</v>
       </c>
       <c r="D99" t="n">
-        <v>2.36959</v>
+        <v>1.89799</v>
       </c>
       <c r="E99" t="n">
-        <v>1.01135</v>
+        <v>0.968135</v>
       </c>
       <c r="F99" t="n">
-        <v>2.97907</v>
+        <v>2.75887</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02063</v>
+        <v>0.974891</v>
       </c>
       <c r="C100" t="n">
-        <v>2.61988</v>
+        <v>2.4584</v>
       </c>
       <c r="D100" t="n">
-        <v>1.85099</v>
+        <v>1.72727</v>
       </c>
       <c r="E100" t="n">
-        <v>0.995823</v>
+        <v>0.950257</v>
       </c>
       <c r="F100" t="n">
-        <v>2.95008</v>
+        <v>2.72661</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01443</v>
+        <v>0.968823</v>
       </c>
       <c r="C101" t="n">
-        <v>2.61894</v>
+        <v>2.43674</v>
       </c>
       <c r="D101" t="n">
-        <v>1.84553</v>
+        <v>1.7219</v>
       </c>
       <c r="E101" t="n">
-        <v>0.979598</v>
+        <v>0.936963</v>
       </c>
       <c r="F101" t="n">
-        <v>2.89137</v>
+        <v>2.69834</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.01547</v>
+        <v>0.954726</v>
       </c>
       <c r="C102" t="n">
-        <v>2.57911</v>
+        <v>2.43262</v>
       </c>
       <c r="D102" t="n">
-        <v>1.84432</v>
+        <v>1.71314</v>
       </c>
       <c r="E102" t="n">
-        <v>0.964824</v>
+        <v>0.92183</v>
       </c>
       <c r="F102" t="n">
-        <v>1.77878</v>
+        <v>2.67102</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.990641</v>
+        <v>0.949621</v>
       </c>
       <c r="C103" t="n">
-        <v>2.58049</v>
+        <v>2.41525</v>
       </c>
       <c r="D103" t="n">
-        <v>1.84384</v>
+        <v>1.72435</v>
       </c>
       <c r="E103" t="n">
-        <v>0.950501</v>
+        <v>0.8735309999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>1.72876</v>
+        <v>2.47264</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.949227</v>
+        <v>0.9337029999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>1.46746</v>
+        <v>2.4037</v>
       </c>
       <c r="D104" t="n">
-        <v>1.8483</v>
+        <v>1.72471</v>
       </c>
       <c r="E104" t="n">
-        <v>0.937694</v>
+        <v>0.895434</v>
       </c>
       <c r="F104" t="n">
-        <v>2.82619</v>
+        <v>1.76926</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.994866</v>
+        <v>0.945146</v>
       </c>
       <c r="C105" t="n">
-        <v>2.56899</v>
+        <v>2.38989</v>
       </c>
       <c r="D105" t="n">
-        <v>1.85492</v>
+        <v>1.72464</v>
       </c>
       <c r="E105" t="n">
-        <v>0.92559</v>
+        <v>0.88207</v>
       </c>
       <c r="F105" t="n">
-        <v>2.59523</v>
+        <v>1.55732</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.987079</v>
+        <v>0.901776</v>
       </c>
       <c r="C106" t="n">
-        <v>2.54326</v>
+        <v>1.88221</v>
       </c>
       <c r="D106" t="n">
-        <v>1.86553</v>
+        <v>1.72731</v>
       </c>
       <c r="E106" t="n">
-        <v>0.881912</v>
+        <v>0.842187</v>
       </c>
       <c r="F106" t="n">
-        <v>1.60721</v>
+        <v>1.52252</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.946537</v>
+        <v>0.919888</v>
       </c>
       <c r="C107" t="n">
-        <v>1.97155</v>
+        <v>2.37071</v>
       </c>
       <c r="D107" t="n">
-        <v>3.83346</v>
+        <v>3.51793</v>
       </c>
       <c r="E107" t="n">
-        <v>0.87358</v>
+        <v>0.864017</v>
       </c>
       <c r="F107" t="n">
-        <v>2.71866</v>
+        <v>1.4881</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.989402</v>
+        <v>0.914043</v>
       </c>
       <c r="C108" t="n">
-        <v>1.9754</v>
+        <v>2.04493</v>
       </c>
       <c r="D108" t="n">
-        <v>3.24482</v>
+        <v>2.978</v>
       </c>
       <c r="E108" t="n">
-        <v>1.2143</v>
+        <v>1.18832</v>
       </c>
       <c r="F108" t="n">
-        <v>4.12364</v>
+        <v>3.79618</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.983535</v>
+        <v>0.912459</v>
       </c>
       <c r="C109" t="n">
-        <v>1.36358</v>
+        <v>1.32116</v>
       </c>
       <c r="D109" t="n">
-        <v>3.01128</v>
+        <v>2.94054</v>
       </c>
       <c r="E109" t="n">
-        <v>1.21026</v>
+        <v>1.15746</v>
       </c>
       <c r="F109" t="n">
-        <v>4.07545</v>
+        <v>3.73479</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25665</v>
+        <v>1.16902</v>
       </c>
       <c r="C110" t="n">
-        <v>3.36964</v>
+        <v>3.12489</v>
       </c>
       <c r="D110" t="n">
-        <v>2.98059</v>
+        <v>2.55078</v>
       </c>
       <c r="E110" t="n">
-        <v>1.19847</v>
+        <v>1.16812</v>
       </c>
       <c r="F110" t="n">
-        <v>4.01817</v>
+        <v>3.68912</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23022</v>
+        <v>1.16227</v>
       </c>
       <c r="C111" t="n">
-        <v>3.34202</v>
+        <v>3.09811</v>
       </c>
       <c r="D111" t="n">
-        <v>2.55336</v>
+        <v>2.71896</v>
       </c>
       <c r="E111" t="n">
-        <v>1.18246</v>
+        <v>1.12839</v>
       </c>
       <c r="F111" t="n">
-        <v>3.95744</v>
+        <v>3.62876</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22245</v>
+        <v>1.15234</v>
       </c>
       <c r="C112" t="n">
-        <v>3.32133</v>
+        <v>3.07268</v>
       </c>
       <c r="D112" t="n">
-        <v>3.15115</v>
+        <v>2.70272</v>
       </c>
       <c r="E112" t="n">
-        <v>1.17174</v>
+        <v>1.11429</v>
       </c>
       <c r="F112" t="n">
-        <v>3.88135</v>
+        <v>3.57645</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.20242</v>
+        <v>1.14342</v>
       </c>
       <c r="C113" t="n">
-        <v>3.28296</v>
+        <v>3.05517</v>
       </c>
       <c r="D113" t="n">
-        <v>2.93237</v>
+        <v>2.50116</v>
       </c>
       <c r="E113" t="n">
-        <v>1.15975</v>
+        <v>1.10268</v>
       </c>
       <c r="F113" t="n">
-        <v>3.83908</v>
+        <v>3.52396</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.18719</v>
+        <v>1.12224</v>
       </c>
       <c r="C114" t="n">
-        <v>3.26167</v>
+        <v>3.01755</v>
       </c>
       <c r="D114" t="n">
-        <v>2.91918</v>
+        <v>2.28871</v>
       </c>
       <c r="E114" t="n">
-        <v>1.14722</v>
+        <v>1.09068</v>
       </c>
       <c r="F114" t="n">
-        <v>3.77277</v>
+        <v>3.4688</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18831</v>
+        <v>1.1154</v>
       </c>
       <c r="C115" t="n">
-        <v>3.22833</v>
+        <v>2.99436</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47816</v>
+        <v>2.27095</v>
       </c>
       <c r="E115" t="n">
-        <v>1.13651</v>
+        <v>1.0796</v>
       </c>
       <c r="F115" t="n">
-        <v>3.73913</v>
+        <v>3.41875</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.18417</v>
+        <v>1.10869</v>
       </c>
       <c r="C116" t="n">
-        <v>3.21337</v>
+        <v>2.96787</v>
       </c>
       <c r="D116" t="n">
-        <v>2.69891</v>
+        <v>2.46617</v>
       </c>
       <c r="E116" t="n">
-        <v>1.12671</v>
+        <v>1.06769</v>
       </c>
       <c r="F116" t="n">
-        <v>3.66784</v>
+        <v>3.37697</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16674</v>
+        <v>1.08953</v>
       </c>
       <c r="C117" t="n">
-        <v>3.1902</v>
+        <v>2.95806</v>
       </c>
       <c r="D117" t="n">
-        <v>2.4552</v>
+        <v>2.25497</v>
       </c>
       <c r="E117" t="n">
-        <v>1.11589</v>
+        <v>1.02362</v>
       </c>
       <c r="F117" t="n">
-        <v>3.62575</v>
+        <v>3.13199</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16774</v>
+        <v>1.08506</v>
       </c>
       <c r="C118" t="n">
-        <v>3.17113</v>
+        <v>2.94148</v>
       </c>
       <c r="D118" t="n">
-        <v>2.44955</v>
+        <v>2.25386</v>
       </c>
       <c r="E118" t="n">
-        <v>1.10711</v>
+        <v>1.04795</v>
       </c>
       <c r="F118" t="n">
-        <v>3.3717</v>
+        <v>3.08549</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14661</v>
+        <v>1.08377</v>
       </c>
       <c r="C119" t="n">
-        <v>3.16189</v>
+        <v>2.9122</v>
       </c>
       <c r="D119" t="n">
-        <v>2.45474</v>
+        <v>2.25286</v>
       </c>
       <c r="E119" t="n">
-        <v>1.06809</v>
+        <v>1.04104</v>
       </c>
       <c r="F119" t="n">
-        <v>3.54366</v>
+        <v>3.25247</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16027</v>
+        <v>1.067</v>
       </c>
       <c r="C120" t="n">
-        <v>1.80204</v>
+        <v>2.89277</v>
       </c>
       <c r="D120" t="n">
-        <v>2.46145</v>
+        <v>2.25477</v>
       </c>
       <c r="E120" t="n">
-        <v>1.09321</v>
+        <v>1.03288</v>
       </c>
       <c r="F120" t="n">
-        <v>3.27865</v>
+        <v>2.80764</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.14143</v>
+        <v>1.06293</v>
       </c>
       <c r="C121" t="n">
-        <v>3.14422</v>
+        <v>1.66268</v>
       </c>
       <c r="D121" t="n">
-        <v>4.70983</v>
+        <v>4.28648</v>
       </c>
       <c r="E121" t="n">
-        <v>1.05777</v>
+        <v>0.999013</v>
       </c>
       <c r="F121" t="n">
-        <v>3.25505</v>
+        <v>2.97745</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.14918</v>
+        <v>1.07934</v>
       </c>
       <c r="C122" t="n">
-        <v>1.76688</v>
+        <v>2.89799</v>
       </c>
       <c r="D122" t="n">
-        <v>3.97809</v>
+        <v>4.25863</v>
       </c>
       <c r="E122" t="n">
-        <v>1.05588</v>
+        <v>1.02335</v>
       </c>
       <c r="F122" t="n">
-        <v>3.44103</v>
+        <v>3.1386</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16622</v>
+        <v>1.08998</v>
       </c>
       <c r="C123" t="n">
-        <v>3.1355</v>
+        <v>2.884</v>
       </c>
       <c r="D123" t="n">
-        <v>4.41027</v>
+        <v>4.01079</v>
       </c>
       <c r="E123" t="n">
-        <v>1.39239</v>
+        <v>1.32204</v>
       </c>
       <c r="F123" t="n">
-        <v>4.91212</v>
+        <v>4.46874</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.41105</v>
+        <v>1.32528</v>
       </c>
       <c r="C124" t="n">
-        <v>3.96841</v>
+        <v>3.65609</v>
       </c>
       <c r="D124" t="n">
-        <v>3.43604</v>
+        <v>3.95988</v>
       </c>
       <c r="E124" t="n">
-        <v>1.40873</v>
+        <v>1.33582</v>
       </c>
       <c r="F124" t="n">
-        <v>4.82393</v>
+        <v>4.39299</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42131</v>
+        <v>1.31526</v>
       </c>
       <c r="C125" t="n">
-        <v>3.93721</v>
+        <v>3.62138</v>
       </c>
       <c r="D125" t="n">
-        <v>3.63781</v>
+        <v>3.51541</v>
       </c>
       <c r="E125" t="n">
-        <v>1.37588</v>
+        <v>1.30139</v>
       </c>
       <c r="F125" t="n">
-        <v>4.74966</v>
+        <v>4.32192</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.39583</v>
+        <v>1.29539</v>
       </c>
       <c r="C126" t="n">
-        <v>3.89367</v>
+        <v>3.58664</v>
       </c>
       <c r="D126" t="n">
-        <v>3.13538</v>
+        <v>3.27978</v>
       </c>
       <c r="E126" t="n">
-        <v>1.36773</v>
+        <v>1.31471</v>
       </c>
       <c r="F126" t="n">
-        <v>4.68497</v>
+        <v>4.24423</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.37889</v>
+        <v>1.31999</v>
       </c>
       <c r="C127" t="n">
-        <v>3.87244</v>
+        <v>3.53887</v>
       </c>
       <c r="D127" t="n">
-        <v>3.10731</v>
+        <v>2.82709</v>
       </c>
       <c r="E127" t="n">
-        <v>1.36045</v>
+        <v>1.28377</v>
       </c>
       <c r="F127" t="n">
-        <v>4.59753</v>
+        <v>4.18682</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38268</v>
+        <v>1.2969</v>
       </c>
       <c r="C128" t="n">
-        <v>3.84552</v>
+        <v>3.52548</v>
       </c>
       <c r="D128" t="n">
-        <v>3.06829</v>
+        <v>3.22913</v>
       </c>
       <c r="E128" t="n">
-        <v>1.35244</v>
+        <v>1.27538</v>
       </c>
       <c r="F128" t="n">
-        <v>4.52687</v>
+        <v>4.12664</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.39228</v>
+        <v>1.28728</v>
       </c>
       <c r="C129" t="n">
-        <v>3.81282</v>
+        <v>3.48973</v>
       </c>
       <c r="D129" t="n">
-        <v>3.04386</v>
+        <v>2.76458</v>
       </c>
       <c r="E129" t="n">
-        <v>1.34528</v>
+        <v>1.26674</v>
       </c>
       <c r="F129" t="n">
-        <v>4.46636</v>
+        <v>4.07479</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.37588</v>
+        <v>1.28406</v>
       </c>
       <c r="C130" t="n">
-        <v>3.7804</v>
+        <v>3.45865</v>
       </c>
       <c r="D130" t="n">
-        <v>3.02484</v>
+        <v>2.7532</v>
       </c>
       <c r="E130" t="n">
-        <v>1.34069</v>
+        <v>1.26029</v>
       </c>
       <c r="F130" t="n">
-        <v>4.40825</v>
+        <v>4.00104</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.37682</v>
+        <v>1.28235</v>
       </c>
       <c r="C131" t="n">
-        <v>3.76521</v>
+        <v>3.44734</v>
       </c>
       <c r="D131" t="n">
-        <v>3.01072</v>
+        <v>2.742</v>
       </c>
       <c r="E131" t="n">
-        <v>1.3353</v>
+        <v>1.25327</v>
       </c>
       <c r="F131" t="n">
-        <v>4.11333</v>
+        <v>3.95421</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37061</v>
+        <v>1.26232</v>
       </c>
       <c r="C132" t="n">
-        <v>3.74185</v>
+        <v>3.42265</v>
       </c>
       <c r="D132" t="n">
-        <v>3.00289</v>
+        <v>2.73223</v>
       </c>
       <c r="E132" t="n">
-        <v>1.32966</v>
+        <v>1.24757</v>
       </c>
       <c r="F132" t="n">
-        <v>4.2846</v>
+        <v>3.68985</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.36054</v>
+        <v>1.26539</v>
       </c>
       <c r="C133" t="n">
-        <v>3.70151</v>
+        <v>3.3994</v>
       </c>
       <c r="D133" t="n">
-        <v>2.99583</v>
+        <v>2.71593</v>
       </c>
       <c r="E133" t="n">
-        <v>1.29453</v>
+        <v>1.24305</v>
       </c>
       <c r="F133" t="n">
-        <v>4.2423</v>
+        <v>3.8521</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.36155</v>
+        <v>1.24855</v>
       </c>
       <c r="C134" t="n">
-        <v>3.69025</v>
+        <v>3.37933</v>
       </c>
       <c r="D134" t="n">
-        <v>2.99091</v>
+        <v>2.71269</v>
       </c>
       <c r="E134" t="n">
-        <v>1.29173</v>
+        <v>1.20892</v>
       </c>
       <c r="F134" t="n">
-        <v>3.45902</v>
+        <v>3.60059</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.37059</v>
+        <v>1.2709</v>
       </c>
       <c r="C135" t="n">
-        <v>2.20211</v>
+        <v>3.37058</v>
       </c>
       <c r="D135" t="n">
-        <v>5.41105</v>
+        <v>4.88943</v>
       </c>
       <c r="E135" t="n">
-        <v>1.29065</v>
+        <v>1.23587</v>
       </c>
       <c r="F135" t="n">
-        <v>3.65004</v>
+        <v>3.77025</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.37185</v>
+        <v>1.27767</v>
       </c>
       <c r="C136" t="n">
-        <v>3.66175</v>
+        <v>3.3549</v>
       </c>
       <c r="D136" t="n">
-        <v>4.59132</v>
+        <v>4.15929</v>
       </c>
       <c r="E136" t="n">
-        <v>1.31858</v>
+        <v>1.23119</v>
       </c>
       <c r="F136" t="n">
-        <v>4.11598</v>
+        <v>3.72672</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36363</v>
+        <v>1.2587</v>
       </c>
       <c r="C137" t="n">
-        <v>3.6429</v>
+        <v>3.33879</v>
       </c>
       <c r="D137" t="n">
-        <v>4.78067</v>
+        <v>4.32588</v>
       </c>
       <c r="E137" t="n">
-        <v>1.65183</v>
+        <v>1.56807</v>
       </c>
       <c r="F137" t="n">
-        <v>5.66924</v>
+        <v>5.12306</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.60677</v>
+        <v>1.52548</v>
       </c>
       <c r="C138" t="n">
-        <v>4.53708</v>
+        <v>4.14411</v>
       </c>
       <c r="D138" t="n">
-        <v>4.47545</v>
+        <v>4.50142</v>
       </c>
       <c r="E138" t="n">
-        <v>1.62068</v>
+        <v>1.54504</v>
       </c>
       <c r="F138" t="n">
-        <v>5.5369</v>
+        <v>5.03002</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.61569</v>
+        <v>1.51214</v>
       </c>
       <c r="C139" t="n">
-        <v>4.49243</v>
+        <v>4.08562</v>
       </c>
       <c r="D139" t="n">
-        <v>4.67108</v>
+        <v>4.00011</v>
       </c>
       <c r="E139" t="n">
-        <v>1.61448</v>
+        <v>1.54949</v>
       </c>
       <c r="F139" t="n">
-        <v>5.45209</v>
+        <v>4.93882</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.60112</v>
+        <v>1.50968</v>
       </c>
       <c r="C140" t="n">
-        <v>4.43644</v>
+        <v>4.03765</v>
       </c>
       <c r="D140" t="n">
-        <v>4.37255</v>
+        <v>3.73461</v>
       </c>
       <c r="E140" t="n">
-        <v>1.6094</v>
+        <v>1.50631</v>
       </c>
       <c r="F140" t="n">
-        <v>5.34322</v>
+        <v>4.843</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.59443</v>
+        <v>1.50773</v>
       </c>
       <c r="C141" t="n">
-        <v>4.3848</v>
+        <v>4.005</v>
       </c>
       <c r="D141" t="n">
-        <v>3.57857</v>
+        <v>3.24344</v>
       </c>
       <c r="E141" t="n">
-        <v>1.60439</v>
+        <v>1.49811</v>
       </c>
       <c r="F141" t="n">
-        <v>5.24924</v>
+        <v>4.75638</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.61667</v>
+        <v>1.47715</v>
       </c>
       <c r="C142" t="n">
-        <v>4.34553</v>
+        <v>3.97108</v>
       </c>
       <c r="D142" t="n">
-        <v>3.5265</v>
+        <v>3.19389</v>
       </c>
       <c r="E142" t="n">
-        <v>1.59948</v>
+        <v>1.45132</v>
       </c>
       <c r="F142" t="n">
-        <v>5.15984</v>
+        <v>4.68148</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.59987</v>
+        <v>1.48568</v>
       </c>
       <c r="C143" t="n">
-        <v>4.30289</v>
+        <v>3.92474</v>
       </c>
       <c r="D143" t="n">
-        <v>3.49083</v>
+        <v>3.16097</v>
       </c>
       <c r="E143" t="n">
-        <v>1.55348</v>
+        <v>1.48608</v>
       </c>
       <c r="F143" t="n">
-        <v>4.82308</v>
+        <v>4.37889</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578945</v>
+        <v>0.638445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.777955</v>
+        <v>0.791817</v>
       </c>
       <c r="D2" t="n">
-        <v>0.839577</v>
+        <v>0.8772180000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.564972</v>
+        <v>0.539895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.810456</v>
+        <v>0.847697</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561191</v>
+        <v>0.622582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768906</v>
+        <v>0.78812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.831166</v>
+        <v>0.869399</v>
       </c>
       <c r="E3" t="n">
-        <v>0.552146</v>
+        <v>0.527178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.793724</v>
+        <v>0.831114</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551453</v>
+        <v>0.6087089999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761301</v>
+        <v>0.772804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.823762</v>
+        <v>0.862117</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538936</v>
+        <v>0.51484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7790589999999999</v>
+        <v>0.814678</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541463</v>
+        <v>0.597349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7505810000000001</v>
+        <v>0.765821</v>
       </c>
       <c r="D5" t="n">
-        <v>0.867102</v>
+        <v>0.852923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.52728</v>
+        <v>0.503114</v>
       </c>
       <c r="F5" t="n">
-        <v>0.762497</v>
+        <v>0.800447</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534957</v>
+        <v>0.589165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.742733</v>
+        <v>0.75545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.807443</v>
+        <v>0.845696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.517355</v>
+        <v>0.49289</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75015</v>
+        <v>0.785942</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527718</v>
+        <v>0.581728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738226</v>
+        <v>0.750016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.926841</v>
+        <v>0.951942</v>
       </c>
       <c r="E7" t="n">
-        <v>0.509372</v>
+        <v>0.484433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.741707</v>
+        <v>0.776423</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523765</v>
+        <v>0.578474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.738002</v>
+        <v>0.746533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.905394</v>
+        <v>0.934075</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503012</v>
+        <v>0.479885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.734347</v>
+        <v>0.769824</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255609999999999</v>
+        <v>0.520119</v>
       </c>
       <c r="C9" t="n">
-        <v>0.737313</v>
+        <v>0.746683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888393</v>
+        <v>0.915189</v>
       </c>
       <c r="E9" t="n">
-        <v>0.760336</v>
+        <v>0.754758</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01089</v>
+        <v>1.05279</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6762860000000001</v>
+        <v>0.7298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.899665</v>
+        <v>0.956998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.873133</v>
+        <v>0.896647</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737093</v>
+        <v>0.731102</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985406</v>
+        <v>1.02935</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653654</v>
+        <v>0.713209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.880667</v>
+        <v>0.934879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858518</v>
+        <v>0.884765</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715889</v>
+        <v>0.7084780000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965355</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635395</v>
+        <v>0.693957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.863168</v>
+        <v>0.917071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843932</v>
+        <v>0.869793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.695515</v>
+        <v>0.687854</v>
       </c>
       <c r="F12" t="n">
-        <v>0.939678</v>
+        <v>0.978411</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619827</v>
+        <v>0.6716800000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848094</v>
+        <v>0.901344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831947</v>
+        <v>0.859171</v>
       </c>
       <c r="E13" t="n">
-        <v>0.676133</v>
+        <v>0.667571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916334</v>
+        <v>0.955982</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600864</v>
+        <v>0.653848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.831952</v>
+        <v>0.884919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.81735</v>
+        <v>0.841077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.657255</v>
+        <v>0.648537</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893344</v>
+        <v>0.933528</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.591224</v>
+        <v>0.640809</v>
       </c>
       <c r="C15" t="n">
-        <v>0.816922</v>
+        <v>0.826888</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8068380000000001</v>
+        <v>0.829438</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6400749999999999</v>
+        <v>0.6303840000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.871509</v>
+        <v>0.9117420000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569161</v>
+        <v>0.624937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.801168</v>
+        <v>0.816703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.797423</v>
+        <v>0.820662</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62368</v>
+        <v>0.613322</v>
       </c>
       <c r="F16" t="n">
-        <v>0.851644</v>
+        <v>0.890188</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560173</v>
+        <v>0.611713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7876</v>
+        <v>0.804785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785624</v>
+        <v>0.811496</v>
       </c>
       <c r="E17" t="n">
-        <v>0.608329</v>
+        <v>0.597871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8642069999999999</v>
+        <v>0.903984</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54938</v>
+        <v>0.597676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.780049</v>
+        <v>0.79464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.779042</v>
+        <v>0.804539</v>
       </c>
       <c r="E18" t="n">
-        <v>0.594433</v>
+        <v>0.583318</v>
       </c>
       <c r="F18" t="n">
-        <v>0.847065</v>
+        <v>0.885821</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.538171</v>
+        <v>0.586556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.768107</v>
+        <v>0.783114</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7701210000000001</v>
+        <v>0.794806</v>
       </c>
       <c r="E19" t="n">
-        <v>0.581197</v>
+        <v>0.570507</v>
       </c>
       <c r="F19" t="n">
-        <v>0.831359</v>
+        <v>0.870296</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.529539</v>
+        <v>0.574362</v>
       </c>
       <c r="C20" t="n">
-        <v>0.762468</v>
+        <v>0.7749819999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.762538</v>
+        <v>0.78868</v>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>0.558328</v>
       </c>
       <c r="F20" t="n">
-        <v>0.817972</v>
+        <v>0.861326</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523358</v>
+        <v>0.568864</v>
       </c>
       <c r="C21" t="n">
-        <v>0.756655</v>
+        <v>0.771268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989892</v>
+        <v>1.01596</v>
       </c>
       <c r="E21" t="n">
-        <v>0.560911</v>
+        <v>0.548373</v>
       </c>
       <c r="F21" t="n">
-        <v>0.811808</v>
+        <v>0.855437</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543504</v>
+        <v>0.565486</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753754</v>
+        <v>0.768875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.969093</v>
+        <v>0.9946</v>
       </c>
       <c r="E22" t="n">
-        <v>0.554107</v>
+        <v>0.541347</v>
       </c>
       <c r="F22" t="n">
-        <v>0.802963</v>
+        <v>0.848729</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517083</v>
+        <v>0.561582</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75027</v>
+        <v>0.768811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.952606</v>
+        <v>0.975079</v>
       </c>
       <c r="E23" t="n">
-        <v>0.818675</v>
+        <v>0.821794</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08801</v>
+        <v>1.13036</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.681482</v>
+        <v>0.74218</v>
       </c>
       <c r="C24" t="n">
-        <v>0.93862</v>
+        <v>0.955624</v>
       </c>
       <c r="D24" t="n">
-        <v>0.933874</v>
+        <v>0.95596</v>
       </c>
       <c r="E24" t="n">
-        <v>0.792855</v>
+        <v>0.797621</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05914</v>
+        <v>1.10044</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.666611</v>
+        <v>0.720512</v>
       </c>
       <c r="C25" t="n">
-        <v>0.916972</v>
+        <v>0.936646</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9185219999999999</v>
+        <v>0.937155</v>
       </c>
       <c r="E25" t="n">
-        <v>0.769389</v>
+        <v>0.772698</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03112</v>
+        <v>1.0727</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6473179999999999</v>
+        <v>0.703079</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896556</v>
+        <v>0.916741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.899648</v>
+        <v>0.922156</v>
       </c>
       <c r="E26" t="n">
-        <v>0.746775</v>
+        <v>0.748934</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00949</v>
+        <v>1.05185</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.663507</v>
+        <v>0.722178</v>
       </c>
       <c r="C27" t="n">
-        <v>0.878578</v>
+        <v>0.899253</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8847390000000001</v>
+        <v>0.90981</v>
       </c>
       <c r="E27" t="n">
-        <v>0.725227</v>
+        <v>0.726147</v>
       </c>
       <c r="F27" t="n">
-        <v>0.983803</v>
+        <v>1.03139</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642266</v>
+        <v>0.701247</v>
       </c>
       <c r="C28" t="n">
-        <v>0.860191</v>
+        <v>0.881629</v>
       </c>
       <c r="D28" t="n">
-        <v>0.869023</v>
+        <v>0.897692</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7040999999999999</v>
+        <v>0.704811</v>
       </c>
       <c r="F28" t="n">
-        <v>0.96217</v>
+        <v>1.00303</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624883</v>
+        <v>0.648486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84295</v>
+        <v>0.865313</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866395</v>
+        <v>0.8832449999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684581</v>
+        <v>0.684794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.944242</v>
+        <v>0.983022</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60904</v>
+        <v>0.665582</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847733</v>
+        <v>0.843387</v>
       </c>
       <c r="D30" t="n">
-        <v>0.853972</v>
+        <v>0.873273</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666131</v>
+        <v>0.632161</v>
       </c>
       <c r="F30" t="n">
-        <v>0.920611</v>
+        <v>0.958704</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595611</v>
+        <v>0.650069</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833983</v>
+        <v>0.833894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.841808</v>
+        <v>0.863052</v>
       </c>
       <c r="E31" t="n">
-        <v>0.648764</v>
+        <v>0.646963</v>
       </c>
       <c r="F31" t="n">
-        <v>0.899454</v>
+        <v>0.939273</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5811269999999999</v>
+        <v>0.63486</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824192</v>
+        <v>0.821549</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8358950000000001</v>
+        <v>0.854572</v>
       </c>
       <c r="E32" t="n">
-        <v>0.632809</v>
+        <v>0.630012</v>
       </c>
       <c r="F32" t="n">
-        <v>0.881498</v>
+        <v>0.918137</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570567</v>
+        <v>0.623341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.814344</v>
+        <v>0.810792</v>
       </c>
       <c r="D33" t="n">
-        <v>0.827259</v>
+        <v>0.84624</v>
       </c>
       <c r="E33" t="n">
-        <v>0.618401</v>
+        <v>0.614761</v>
       </c>
       <c r="F33" t="n">
-        <v>0.862242</v>
+        <v>0.901863</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.56001</v>
+        <v>0.614211</v>
       </c>
       <c r="C34" t="n">
-        <v>0.780455</v>
+        <v>0.802994</v>
       </c>
       <c r="D34" t="n">
-        <v>0.816309</v>
+        <v>0.839714</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6050990000000001</v>
+        <v>0.600366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8461610000000001</v>
+        <v>0.885714</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551972</v>
+        <v>0.60201</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778699</v>
+        <v>0.7929580000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06944</v>
+        <v>1.08995</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5730499999999999</v>
+        <v>0.58813</v>
       </c>
       <c r="F35" t="n">
-        <v>0.832548</v>
+        <v>0.8707819999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543432</v>
+        <v>0.570036</v>
       </c>
       <c r="C36" t="n">
-        <v>0.771825</v>
+        <v>0.784637</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05229</v>
+        <v>1.06108</v>
       </c>
       <c r="E36" t="n">
-        <v>0.583402</v>
+        <v>0.55359</v>
       </c>
       <c r="F36" t="n">
-        <v>0.821764</v>
+        <v>0.859254</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523994</v>
+        <v>0.567844</v>
       </c>
       <c r="C37" t="n">
-        <v>0.766075</v>
+        <v>0.7834100000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02137</v>
+        <v>1.05746</v>
       </c>
       <c r="E37" t="n">
-        <v>0.833634</v>
+        <v>0.840771</v>
       </c>
       <c r="F37" t="n">
-        <v>1.37803</v>
+        <v>1.45826</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736918</v>
+        <v>0.826802</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18611</v>
+        <v>1.23147</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00584</v>
+        <v>1.03943</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8088</v>
+        <v>0.8354200000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3475</v>
+        <v>1.42586</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712777</v>
+        <v>0.801042</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1655</v>
+        <v>1.21093</v>
       </c>
       <c r="D39" t="n">
-        <v>0.98872</v>
+        <v>1.0063</v>
       </c>
       <c r="E39" t="n">
-        <v>0.784267</v>
+        <v>0.790211</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31647</v>
+        <v>1.39492</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710164</v>
+        <v>0.753762</v>
       </c>
       <c r="C40" t="n">
-        <v>1.14561</v>
+        <v>1.19419</v>
       </c>
       <c r="D40" t="n">
-        <v>0.971569</v>
+        <v>0.991908</v>
       </c>
       <c r="E40" t="n">
-        <v>0.761387</v>
+        <v>0.7658470000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28896</v>
+        <v>1.3656</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.67462</v>
+        <v>0.733577</v>
       </c>
       <c r="C41" t="n">
-        <v>1.12844</v>
+        <v>1.17477</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9561539999999999</v>
+        <v>0.977019</v>
       </c>
       <c r="E41" t="n">
-        <v>0.740115</v>
+        <v>0.743217</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26112</v>
+        <v>1.33747</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653282</v>
+        <v>0.735779</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10987</v>
+        <v>1.15724</v>
       </c>
       <c r="D42" t="n">
-        <v>0.939369</v>
+        <v>0.957856</v>
       </c>
       <c r="E42" t="n">
-        <v>0.719585</v>
+        <v>0.721778</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23684</v>
+        <v>1.31149</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653292</v>
+        <v>0.696235</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0937</v>
+        <v>1.14027</v>
       </c>
       <c r="D43" t="n">
-        <v>0.925658</v>
+        <v>0.944675</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699701</v>
+        <v>0.702101</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21258</v>
+        <v>1.28639</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.619232</v>
+        <v>0.697431</v>
       </c>
       <c r="C44" t="n">
-        <v>1.07876</v>
+        <v>1.12489</v>
       </c>
       <c r="D44" t="n">
-        <v>0.912257</v>
+        <v>0.932818</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681382</v>
+        <v>0.682044</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18934</v>
+        <v>1.26247</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6216660000000001</v>
+        <v>0.664814</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06613</v>
+        <v>1.11341</v>
       </c>
       <c r="D45" t="n">
-        <v>0.902527</v>
+        <v>0.92291</v>
       </c>
       <c r="E45" t="n">
-        <v>0.640358</v>
+        <v>0.664669</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16823</v>
+        <v>1.24008</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.592971</v>
+        <v>0.648554</v>
       </c>
       <c r="C46" t="n">
-        <v>1.05255</v>
+        <v>1.10007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.890896</v>
+        <v>0.911741</v>
       </c>
       <c r="E46" t="n">
-        <v>0.647135</v>
+        <v>0.617318</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14824</v>
+        <v>1.21959</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.580769</v>
+        <v>0.6366889999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04026</v>
+        <v>1.08845</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885104</v>
+        <v>0.905928</v>
       </c>
       <c r="E47" t="n">
-        <v>0.63196</v>
+        <v>0.630506</v>
       </c>
       <c r="F47" t="n">
-        <v>1.12904</v>
+        <v>1.19967</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.572925</v>
+        <v>0.624098</v>
       </c>
       <c r="C48" t="n">
-        <v>1.02949</v>
+        <v>1.07939</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8758320000000001</v>
+        <v>0.899179</v>
       </c>
       <c r="E48" t="n">
-        <v>0.618397</v>
+        <v>0.61711</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11215</v>
+        <v>1.18258</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.575179</v>
+        <v>0.613101</v>
       </c>
       <c r="C49" t="n">
-        <v>1.02301</v>
+        <v>0.810987</v>
       </c>
       <c r="D49" t="n">
-        <v>0.87074</v>
+        <v>0.890577</v>
       </c>
       <c r="E49" t="n">
-        <v>0.586457</v>
+        <v>0.604068</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09699</v>
+        <v>1.16597</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.556882</v>
+        <v>0.607086</v>
       </c>
       <c r="C50" t="n">
-        <v>1.01767</v>
+        <v>1.06639</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11552</v>
+        <v>1.1379</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577457</v>
+        <v>0.568875</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08197</v>
+        <v>1.1524</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5517649999999999</v>
+        <v>0.603916</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01346</v>
+        <v>1.06278</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09269</v>
+        <v>1.11237</v>
       </c>
       <c r="E51" t="n">
-        <v>0.863727</v>
+        <v>0.8900709999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4549</v>
+        <v>1.53926</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551859</v>
+        <v>0.579508</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01523</v>
+        <v>1.06428</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0712</v>
+        <v>1.09033</v>
       </c>
       <c r="E52" t="n">
-        <v>0.838862</v>
+        <v>0.84291</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42159</v>
+        <v>1.50552</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7504189999999999</v>
+        <v>0.824238</v>
       </c>
       <c r="C53" t="n">
-        <v>1.2153</v>
+        <v>1.26372</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04855</v>
+        <v>1.07089</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8274550000000001</v>
+        <v>0.818924</v>
       </c>
       <c r="F53" t="n">
-        <v>1.38829</v>
+        <v>1.47004</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735606</v>
+        <v>0.800642</v>
       </c>
       <c r="C54" t="n">
-        <v>1.19383</v>
+        <v>1.24272</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03278</v>
+        <v>1.05268</v>
       </c>
       <c r="E54" t="n">
-        <v>0.803524</v>
+        <v>0.811671</v>
       </c>
       <c r="F54" t="n">
-        <v>1.35994</v>
+        <v>1.44057</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.710759</v>
+        <v>0.761611</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17504</v>
+        <v>1.22478</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01246</v>
+        <v>1.0347</v>
       </c>
       <c r="E55" t="n">
-        <v>0.770278</v>
+        <v>0.770674</v>
       </c>
       <c r="F55" t="n">
-        <v>1.32944</v>
+        <v>1.41064</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692178</v>
+        <v>0.741842</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15581</v>
+        <v>1.20612</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9968050000000001</v>
+        <v>1.01732</v>
       </c>
       <c r="E56" t="n">
-        <v>0.749043</v>
+        <v>0.750731</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30299</v>
+        <v>1.3814</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.674092</v>
+        <v>0.720313</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1399</v>
+        <v>1.18837</v>
       </c>
       <c r="D57" t="n">
-        <v>0.981193</v>
+        <v>1.00295</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7310140000000001</v>
+        <v>0.7285239999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27815</v>
+        <v>1.35481</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664422</v>
+        <v>0.703708</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12269</v>
+        <v>1.17327</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969372</v>
+        <v>0.992252</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711004</v>
+        <v>0.711601</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25073</v>
+        <v>1.32931</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64124</v>
+        <v>0.690204</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10858</v>
+        <v>1.15899</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948706</v>
+        <v>0.977203</v>
       </c>
       <c r="E59" t="n">
-        <v>0.666104</v>
+        <v>0.693751</v>
       </c>
       <c r="F59" t="n">
-        <v>1.22967</v>
+        <v>1.30644</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.627595</v>
+        <v>0.674973</v>
       </c>
       <c r="C60" t="n">
-        <v>1.09491</v>
+        <v>1.14458</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93933</v>
+        <v>0.960494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.675085</v>
+        <v>0.64335</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20621</v>
+        <v>1.28264</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.614029</v>
+        <v>0.661365</v>
       </c>
       <c r="C61" t="n">
-        <v>1.08407</v>
+        <v>1.134</v>
       </c>
       <c r="D61" t="n">
-        <v>0.929284</v>
+        <v>0.951651</v>
       </c>
       <c r="E61" t="n">
-        <v>0.63654</v>
+        <v>0.660234</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18527</v>
+        <v>1.26048</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607531</v>
+        <v>0.6615529999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07455</v>
+        <v>1.12296</v>
       </c>
       <c r="D62" t="n">
-        <v>0.919617</v>
+        <v>0.940605</v>
       </c>
       <c r="E62" t="n">
-        <v>0.645849</v>
+        <v>0.6163110000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>1.16768</v>
+        <v>1.24194</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600247</v>
+        <v>0.638717</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06484</v>
+        <v>1.11404</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9084370000000001</v>
+        <v>0.931388</v>
       </c>
       <c r="E63" t="n">
-        <v>0.610885</v>
+        <v>0.632397</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15126</v>
+        <v>1.22375</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.586382</v>
+        <v>0.6308280000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05884</v>
+        <v>1.10797</v>
       </c>
       <c r="D64" t="n">
-        <v>1.19335</v>
+        <v>1.22215</v>
       </c>
       <c r="E64" t="n">
-        <v>0.623261</v>
+        <v>0.621795</v>
       </c>
       <c r="F64" t="n">
-        <v>1.13627</v>
+        <v>1.2094</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.581714</v>
+        <v>0.599075</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05516</v>
+        <v>1.10475</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17073</v>
+        <v>1.19681</v>
       </c>
       <c r="E65" t="n">
-        <v>0.615559</v>
+        <v>0.613264</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12607</v>
+        <v>1.19752</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.580363</v>
+        <v>0.623108</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05505</v>
+        <v>1.10343</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13766</v>
+        <v>1.16416</v>
       </c>
       <c r="E66" t="n">
-        <v>0.909761</v>
+        <v>0.910447</v>
       </c>
       <c r="F66" t="n">
-        <v>1.50085</v>
+        <v>1.58327</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.828461</v>
+        <v>0.875783</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2815</v>
+        <v>1.3275</v>
       </c>
       <c r="D67" t="n">
-        <v>1.10789</v>
+        <v>1.13111</v>
       </c>
       <c r="E67" t="n">
-        <v>0.874743</v>
+        <v>0.869667</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46805</v>
+        <v>1.54552</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.806863</v>
+        <v>0.86011</v>
       </c>
       <c r="C68" t="n">
-        <v>1.26156</v>
+        <v>1.30949</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08707</v>
+        <v>1.11151</v>
       </c>
       <c r="E68" t="n">
-        <v>0.853703</v>
+        <v>0.848514</v>
       </c>
       <c r="F68" t="n">
-        <v>1.43868</v>
+        <v>1.51494</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7880819999999999</v>
+        <v>0.839183</v>
       </c>
       <c r="C69" t="n">
-        <v>1.24224</v>
+        <v>1.28609</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06951</v>
+        <v>1.09283</v>
       </c>
       <c r="E69" t="n">
-        <v>0.843563</v>
+        <v>0.824836</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41695</v>
+        <v>1.48287</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.776046</v>
+        <v>0.820728</v>
       </c>
       <c r="C70" t="n">
-        <v>1.23481</v>
+        <v>1.27834</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05315</v>
+        <v>1.08366</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81177</v>
+        <v>0.806528</v>
       </c>
       <c r="F70" t="n">
-        <v>1.38741</v>
+        <v>1.46506</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76677</v>
+        <v>0.803737</v>
       </c>
       <c r="C71" t="n">
-        <v>1.22024</v>
+        <v>1.26365</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02362</v>
+        <v>1.04529</v>
       </c>
       <c r="E71" t="n">
-        <v>0.79226</v>
+        <v>0.783919</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36539</v>
+        <v>1.43909</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.744466</v>
+        <v>0.791591</v>
       </c>
       <c r="C72" t="n">
-        <v>1.20471</v>
+        <v>1.25272</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01309</v>
+        <v>1.03797</v>
       </c>
       <c r="E72" t="n">
-        <v>0.771702</v>
+        <v>0.767201</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34323</v>
+        <v>1.41734</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.730315</v>
+        <v>0.774741</v>
       </c>
       <c r="C73" t="n">
-        <v>1.19652</v>
+        <v>1.24216</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00466</v>
+        <v>1.02991</v>
       </c>
       <c r="E73" t="n">
-        <v>0.752695</v>
+        <v>0.749546</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32944</v>
+        <v>1.3962</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.712638</v>
+        <v>0.764585</v>
       </c>
       <c r="C74" t="n">
-        <v>1.1925</v>
+        <v>1.23235</v>
       </c>
       <c r="D74" t="n">
-        <v>0.990823</v>
+        <v>1.01228</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7348209999999999</v>
+        <v>0.6913049999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31111</v>
+        <v>1.38974</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692535</v>
+        <v>0.744652</v>
       </c>
       <c r="C75" t="n">
-        <v>1.18726</v>
+        <v>1.23626</v>
       </c>
       <c r="D75" t="n">
-        <v>0.985135</v>
+        <v>1.01067</v>
       </c>
       <c r="E75" t="n">
-        <v>0.717469</v>
+        <v>0.710293</v>
       </c>
       <c r="F75" t="n">
-        <v>1.29574</v>
+        <v>1.37043</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.690912</v>
+        <v>0.683697</v>
       </c>
       <c r="C76" t="n">
-        <v>1.18038</v>
+        <v>1.23407</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979475</v>
+        <v>1.00594</v>
       </c>
       <c r="E76" t="n">
-        <v>0.671296</v>
+        <v>0.697403</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28393</v>
+        <v>1.35848</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.679749</v>
+        <v>0.71911</v>
       </c>
       <c r="C77" t="n">
-        <v>1.18405</v>
+        <v>1.23242</v>
       </c>
       <c r="D77" t="n">
-        <v>0.971542</v>
+        <v>0.998024</v>
       </c>
       <c r="E77" t="n">
-        <v>0.687662</v>
+        <v>0.682812</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27394</v>
+        <v>1.35385</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663251</v>
+        <v>0.688335</v>
       </c>
       <c r="C78" t="n">
-        <v>0.915733</v>
+        <v>0.8810750000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44172</v>
+        <v>1.4672</v>
       </c>
       <c r="E78" t="n">
-        <v>0.648093</v>
+        <v>0.669866</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27133</v>
+        <v>1.34116</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659977</v>
+        <v>0.695814</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18123</v>
+        <v>0.882622</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40853</v>
+        <v>1.43145</v>
       </c>
       <c r="E79" t="n">
-        <v>0.640089</v>
+        <v>0.658739</v>
       </c>
       <c r="F79" t="n">
-        <v>1.262</v>
+        <v>1.33668</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.646414</v>
+        <v>0.6828419999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.18678</v>
+        <v>0.886721</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37663</v>
+        <v>1.40488</v>
       </c>
       <c r="E80" t="n">
-        <v>0.977612</v>
+        <v>0.968597</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94413</v>
+        <v>2.01827</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.902752</v>
+        <v>0.969303</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69256</v>
+        <v>1.72804</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34091</v>
+        <v>1.35938</v>
       </c>
       <c r="E81" t="n">
-        <v>0.944515</v>
+        <v>0.955429</v>
       </c>
       <c r="F81" t="n">
-        <v>1.92971</v>
+        <v>2.01008</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9017269999999999</v>
+        <v>0.9425789999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70832</v>
+        <v>1.75657</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31956</v>
+        <v>1.34683</v>
       </c>
       <c r="E82" t="n">
-        <v>0.945915</v>
+        <v>0.951796</v>
       </c>
       <c r="F82" t="n">
-        <v>1.91378</v>
+        <v>1.98354</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.888181</v>
+        <v>0.947788</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69766</v>
+        <v>1.75675</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29945</v>
+        <v>1.33074</v>
       </c>
       <c r="E83" t="n">
-        <v>0.910839</v>
+        <v>0.9164870000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1.90201</v>
+        <v>1.98302</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882795</v>
+        <v>0.942151</v>
       </c>
       <c r="C84" t="n">
-        <v>1.70276</v>
+        <v>1.76366</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2862</v>
+        <v>1.31547</v>
       </c>
       <c r="E84" t="n">
-        <v>0.891394</v>
+        <v>0.897722</v>
       </c>
       <c r="F84" t="n">
-        <v>1.87741</v>
+        <v>1.96487</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.873467</v>
+        <v>0.935322</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70249</v>
+        <v>1.76444</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24737</v>
+        <v>1.28717</v>
       </c>
       <c r="E85" t="n">
-        <v>0.871479</v>
+        <v>0.8732</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87663</v>
+        <v>1.96951</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851044</v>
+        <v>0.9164909999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71091</v>
+        <v>1.76679</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24128</v>
+        <v>1.27245</v>
       </c>
       <c r="E86" t="n">
-        <v>0.854048</v>
+        <v>0.856716</v>
       </c>
       <c r="F86" t="n">
-        <v>1.84882</v>
+        <v>1.96598</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.842668</v>
+        <v>0.917064</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70851</v>
+        <v>1.79214</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23604</v>
+        <v>1.27514</v>
       </c>
       <c r="E87" t="n">
-        <v>0.793293</v>
+        <v>0.832144</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86212</v>
+        <v>1.9662</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.83203</v>
+        <v>0.903292</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7154</v>
+        <v>1.80325</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23036</v>
+        <v>1.26957</v>
       </c>
       <c r="E88" t="n">
-        <v>0.815468</v>
+        <v>0.815896</v>
       </c>
       <c r="F88" t="n">
-        <v>1.85231</v>
+        <v>1.91667</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809331</v>
+        <v>0.886692</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72687</v>
+        <v>1.81718</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23492</v>
+        <v>1.27321</v>
       </c>
       <c r="E89" t="n">
-        <v>0.798683</v>
+        <v>0.794861</v>
       </c>
       <c r="F89" t="n">
-        <v>1.85601</v>
+        <v>1.96347</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794862</v>
+        <v>0.875708</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73738</v>
+        <v>1.81792</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23943</v>
+        <v>1.27622</v>
       </c>
       <c r="E90" t="n">
-        <v>0.780344</v>
+        <v>0.779383</v>
       </c>
       <c r="F90" t="n">
-        <v>1.85873</v>
+        <v>1.97362</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79195</v>
+        <v>0.838902</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75186</v>
+        <v>1.8604</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24009</v>
+        <v>1.27847</v>
       </c>
       <c r="E91" t="n">
-        <v>0.730885</v>
+        <v>0.727223</v>
       </c>
       <c r="F91" t="n">
-        <v>1.87179</v>
+        <v>1.96449</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78806</v>
+        <v>0.8619790000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>1.57397</v>
+        <v>1.86957</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59804</v>
+        <v>2.75115</v>
       </c>
       <c r="E92" t="n">
-        <v>0.751381</v>
+        <v>0.749155</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86149</v>
+        <v>1.99239</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.756065</v>
+        <v>0.818954</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19126</v>
+        <v>1.9012</v>
       </c>
       <c r="D93" t="n">
-        <v>2.25703</v>
+        <v>2.34588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.709817</v>
+        <v>0.705671</v>
       </c>
       <c r="F93" t="n">
-        <v>1.87588</v>
+        <v>2.00826</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7819739999999999</v>
+        <v>0.847929</v>
       </c>
       <c r="C94" t="n">
-        <v>1.82163</v>
+        <v>1.92406</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23865</v>
+        <v>2.34241</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06236</v>
+        <v>1.0807</v>
       </c>
       <c r="F94" t="n">
-        <v>2.94124</v>
+        <v>3.11828</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04597</v>
+        <v>1.1135</v>
       </c>
       <c r="C95" t="n">
-        <v>2.50674</v>
+        <v>2.62322</v>
       </c>
       <c r="D95" t="n">
-        <v>2.35046</v>
+        <v>2.47166</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0252</v>
+        <v>1.06428</v>
       </c>
       <c r="F95" t="n">
-        <v>2.9196</v>
+        <v>3.06739</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02645</v>
+        <v>1.10918</v>
       </c>
       <c r="C96" t="n">
-        <v>2.50693</v>
+        <v>2.62016</v>
       </c>
       <c r="D96" t="n">
-        <v>2.47816</v>
+        <v>2.54425</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0375</v>
+        <v>1.01535</v>
       </c>
       <c r="F96" t="n">
-        <v>2.87694</v>
+        <v>3.03748</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02291</v>
+        <v>1.1202</v>
       </c>
       <c r="C97" t="n">
-        <v>2.49533</v>
+        <v>2.61425</v>
       </c>
       <c r="D97" t="n">
-        <v>2.33804</v>
+        <v>2.53917</v>
       </c>
       <c r="E97" t="n">
-        <v>1.01874</v>
+        <v>1.02772</v>
       </c>
       <c r="F97" t="n">
-        <v>2.84224</v>
+        <v>3.0106</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01467</v>
+        <v>1.10585</v>
       </c>
       <c r="C98" t="n">
-        <v>2.48121</v>
+        <v>2.60596</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12482</v>
+        <v>2.29406</v>
       </c>
       <c r="E98" t="n">
-        <v>0.977468</v>
+        <v>1.00723</v>
       </c>
       <c r="F98" t="n">
-        <v>2.81805</v>
+        <v>2.9539</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9658949999999999</v>
+        <v>1.10001</v>
       </c>
       <c r="C99" t="n">
-        <v>2.46789</v>
+        <v>2.57671</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74476</v>
+        <v>1.97323</v>
       </c>
       <c r="E99" t="n">
-        <v>0.961076</v>
+        <v>0.965849</v>
       </c>
       <c r="F99" t="n">
-        <v>2.76768</v>
+        <v>2.94296</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.972756</v>
+        <v>1.08747</v>
       </c>
       <c r="C100" t="n">
-        <v>2.44529</v>
+        <v>2.57759</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72652</v>
+        <v>1.78764</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9464669999999999</v>
+        <v>0.897834</v>
       </c>
       <c r="F100" t="n">
-        <v>2.74154</v>
+        <v>2.90105</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967247</v>
+        <v>1.07348</v>
       </c>
       <c r="C101" t="n">
-        <v>2.43288</v>
+        <v>2.54731</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71766</v>
+        <v>1.7822</v>
       </c>
       <c r="E101" t="n">
-        <v>0.888662</v>
+        <v>0.9357799999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>2.70845</v>
+        <v>2.87218</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.958162</v>
+        <v>1.10672</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4177</v>
+        <v>2.5543</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71562</v>
+        <v>1.78145</v>
       </c>
       <c r="E102" t="n">
-        <v>0.876199</v>
+        <v>0.918806</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6875</v>
+        <v>2.83508</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.925603</v>
+        <v>1.07911</v>
       </c>
       <c r="C103" t="n">
-        <v>2.39044</v>
+        <v>2.51275</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72266</v>
+        <v>1.78031</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9030280000000001</v>
+        <v>0.903401</v>
       </c>
       <c r="F103" t="n">
-        <v>1.64207</v>
+        <v>1.69583</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.899645</v>
+        <v>1.03727</v>
       </c>
       <c r="C104" t="n">
-        <v>2.06345</v>
+        <v>1.42234</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72749</v>
+        <v>1.78408</v>
       </c>
       <c r="E104" t="n">
-        <v>0.852386</v>
+        <v>0.890618</v>
       </c>
       <c r="F104" t="n">
-        <v>1.59879</v>
+        <v>2.79791</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.898475</v>
+        <v>1.07958</v>
       </c>
       <c r="C105" t="n">
-        <v>1.5552</v>
+        <v>2.51762</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72478</v>
+        <v>1.7827</v>
       </c>
       <c r="E105" t="n">
-        <v>0.843021</v>
+        <v>0.878096</v>
       </c>
       <c r="F105" t="n">
-        <v>1.56107</v>
+        <v>1.61434</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9007540000000001</v>
+        <v>1.02538</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37157</v>
+        <v>1.95268</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72959</v>
+        <v>1.79194</v>
       </c>
       <c r="E106" t="n">
-        <v>0.833892</v>
+        <v>0.8268450000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>1.53719</v>
+        <v>1.57523</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943306</v>
+        <v>1.0448</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35872</v>
+        <v>1.35191</v>
       </c>
       <c r="D107" t="n">
-        <v>3.52198</v>
+        <v>3.12294</v>
       </c>
       <c r="E107" t="n">
-        <v>0.858177</v>
+        <v>0.85956</v>
       </c>
       <c r="F107" t="n">
-        <v>1.50021</v>
+        <v>2.69902</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897498</v>
+        <v>1.07885</v>
       </c>
       <c r="C108" t="n">
-        <v>2.37914</v>
+        <v>2.51944</v>
       </c>
       <c r="D108" t="n">
-        <v>3.33197</v>
+        <v>3.08927</v>
       </c>
       <c r="E108" t="n">
-        <v>1.15028</v>
+        <v>1.14637</v>
       </c>
       <c r="F108" t="n">
-        <v>3.78878</v>
+        <v>4.00538</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.909695</v>
+        <v>1.07506</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49619</v>
+        <v>2.52525</v>
       </c>
       <c r="D109" t="n">
-        <v>3.47584</v>
+        <v>3.47266</v>
       </c>
       <c r="E109" t="n">
-        <v>1.17423</v>
+        <v>1.14614</v>
       </c>
       <c r="F109" t="n">
-        <v>3.75683</v>
+        <v>3.93383</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.17957</v>
+        <v>1.32462</v>
       </c>
       <c r="C110" t="n">
-        <v>3.11847</v>
+        <v>3.25765</v>
       </c>
       <c r="D110" t="n">
-        <v>2.73031</v>
+        <v>2.63989</v>
       </c>
       <c r="E110" t="n">
-        <v>1.16019</v>
+        <v>1.13241</v>
       </c>
       <c r="F110" t="n">
-        <v>3.68574</v>
+        <v>3.88136</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1777</v>
+        <v>1.33596</v>
       </c>
       <c r="C111" t="n">
-        <v>3.0766</v>
+        <v>3.22049</v>
       </c>
       <c r="D111" t="n">
-        <v>2.8993</v>
+        <v>2.81544</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12037</v>
+        <v>1.11557</v>
       </c>
       <c r="F111" t="n">
-        <v>3.64655</v>
+        <v>3.81994</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17225</v>
+        <v>1.30896</v>
       </c>
       <c r="C112" t="n">
-        <v>3.07165</v>
+        <v>3.21212</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52207</v>
+        <v>2.60455</v>
       </c>
       <c r="E112" t="n">
-        <v>1.13023</v>
+        <v>1.10783</v>
       </c>
       <c r="F112" t="n">
-        <v>3.58407</v>
+        <v>3.76286</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14524</v>
+        <v>1.30951</v>
       </c>
       <c r="C113" t="n">
-        <v>3.03778</v>
+        <v>3.17882</v>
       </c>
       <c r="D113" t="n">
-        <v>2.29429</v>
+        <v>2.37624</v>
       </c>
       <c r="E113" t="n">
-        <v>1.09319</v>
+        <v>1.11491</v>
       </c>
       <c r="F113" t="n">
-        <v>3.52641</v>
+        <v>3.71364</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12364</v>
+        <v>1.31394</v>
       </c>
       <c r="C114" t="n">
-        <v>3.01141</v>
+        <v>3.16285</v>
       </c>
       <c r="D114" t="n">
-        <v>2.47728</v>
+        <v>2.35979</v>
       </c>
       <c r="E114" t="n">
-        <v>1.10338</v>
+        <v>1.08205</v>
       </c>
       <c r="F114" t="n">
-        <v>3.47611</v>
+        <v>3.69159</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12807</v>
+        <v>1.31812</v>
       </c>
       <c r="C115" t="n">
-        <v>3.00056</v>
+        <v>3.15134</v>
       </c>
       <c r="D115" t="n">
-        <v>2.47817</v>
+        <v>2.34785</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06957</v>
+        <v>1.06652</v>
       </c>
       <c r="F115" t="n">
-        <v>3.42783</v>
+        <v>3.62544</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11637</v>
+        <v>1.30806</v>
       </c>
       <c r="C116" t="n">
-        <v>2.96175</v>
+        <v>3.13311</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46635</v>
+        <v>2.33785</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05955</v>
+        <v>1.05852</v>
       </c>
       <c r="F116" t="n">
-        <v>3.36508</v>
+        <v>3.57248</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10606</v>
+        <v>1.28893</v>
       </c>
       <c r="C117" t="n">
-        <v>2.94734</v>
+        <v>3.09097</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25639</v>
+        <v>2.31657</v>
       </c>
       <c r="E117" t="n">
-        <v>1.01194</v>
+        <v>1.04465</v>
       </c>
       <c r="F117" t="n">
-        <v>3.13665</v>
+        <v>3.53541</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.09748</v>
+        <v>1.30177</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92198</v>
+        <v>3.09862</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25601</v>
+        <v>2.32375</v>
       </c>
       <c r="E118" t="n">
-        <v>1.04057</v>
+        <v>1.04076</v>
       </c>
       <c r="F118" t="n">
-        <v>3.29461</v>
+        <v>3.27496</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09279</v>
+        <v>1.30345</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91153</v>
+        <v>3.08951</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25158</v>
+        <v>2.32403</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9984769999999999</v>
+        <v>0.993245</v>
       </c>
       <c r="F119" t="n">
-        <v>3.25361</v>
+        <v>3.46664</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08284</v>
+        <v>1.30187</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90405</v>
+        <v>2.62183</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25159</v>
+        <v>2.33185</v>
       </c>
       <c r="E120" t="n">
-        <v>1.02447</v>
+        <v>1.0093</v>
       </c>
       <c r="F120" t="n">
-        <v>2.81385</v>
+        <v>3.43809</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09384</v>
+        <v>1.29781</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8854</v>
+        <v>3.05524</v>
       </c>
       <c r="D121" t="n">
-        <v>4.28566</v>
+        <v>4.50887</v>
       </c>
       <c r="E121" t="n">
-        <v>0.986803</v>
+        <v>1.0131</v>
       </c>
       <c r="F121" t="n">
-        <v>2.98845</v>
+        <v>3.17316</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.04463</v>
+        <v>1.3159</v>
       </c>
       <c r="C122" t="n">
-        <v>2.88915</v>
+        <v>3.04935</v>
       </c>
       <c r="D122" t="n">
-        <v>3.83575</v>
+        <v>4.46323</v>
       </c>
       <c r="E122" t="n">
-        <v>0.982499</v>
+        <v>0.975742</v>
       </c>
       <c r="F122" t="n">
-        <v>2.54162</v>
+        <v>3.36431</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08658</v>
+        <v>1.3218</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6632</v>
+        <v>3.06166</v>
       </c>
       <c r="D123" t="n">
-        <v>4.19002</v>
+        <v>4.44654</v>
       </c>
       <c r="E123" t="n">
-        <v>1.33</v>
+        <v>1.30459</v>
       </c>
       <c r="F123" t="n">
-        <v>4.46281</v>
+        <v>4.71706</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34986</v>
+        <v>1.55636</v>
       </c>
       <c r="C124" t="n">
-        <v>3.64295</v>
+        <v>3.81811</v>
       </c>
       <c r="D124" t="n">
-        <v>3.94945</v>
+        <v>3.47828</v>
       </c>
       <c r="E124" t="n">
-        <v>1.29233</v>
+        <v>1.31483</v>
       </c>
       <c r="F124" t="n">
-        <v>4.39732</v>
+        <v>4.64321</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33568</v>
+        <v>1.57083</v>
       </c>
       <c r="C125" t="n">
-        <v>3.61675</v>
+        <v>3.81093</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30026</v>
+        <v>3.67004</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28112</v>
+        <v>1.28501</v>
       </c>
       <c r="F125" t="n">
-        <v>4.33468</v>
+        <v>4.56799</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32098</v>
+        <v>1.57301</v>
       </c>
       <c r="C126" t="n">
-        <v>3.57909</v>
+        <v>3.77955</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0606</v>
+        <v>3.40958</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27317</v>
+        <v>1.27865</v>
       </c>
       <c r="F126" t="n">
-        <v>4.25192</v>
+        <v>4.4996</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31392</v>
+        <v>1.54302</v>
       </c>
       <c r="C127" t="n">
-        <v>3.54017</v>
+        <v>3.73282</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81846</v>
+        <v>3.62806</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26417</v>
+        <v>1.26929</v>
       </c>
       <c r="F127" t="n">
-        <v>4.18228</v>
+        <v>4.43854</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29634</v>
+        <v>1.55239</v>
       </c>
       <c r="C128" t="n">
-        <v>3.51571</v>
+        <v>3.72053</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80197</v>
+        <v>3.3617</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2565</v>
+        <v>1.2605</v>
       </c>
       <c r="F128" t="n">
-        <v>4.13447</v>
+        <v>4.35851</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27651</v>
+        <v>1.54192</v>
       </c>
       <c r="C129" t="n">
-        <v>3.49106</v>
+        <v>3.68788</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76079</v>
+        <v>2.84444</v>
       </c>
       <c r="E129" t="n">
-        <v>1.24714</v>
+        <v>1.21161</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0634</v>
+        <v>4.0709</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.27859</v>
+        <v>1.52853</v>
       </c>
       <c r="C130" t="n">
-        <v>3.45324</v>
+        <v>3.65808</v>
       </c>
       <c r="D130" t="n">
-        <v>2.75182</v>
+        <v>2.83872</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24175</v>
+        <v>1.27438</v>
       </c>
       <c r="F130" t="n">
-        <v>4.01223</v>
+        <v>4.2466</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.26472</v>
+        <v>1.5117</v>
       </c>
       <c r="C131" t="n">
-        <v>3.42207</v>
+        <v>3.62792</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73814</v>
+        <v>2.82219</v>
       </c>
       <c r="E131" t="n">
-        <v>1.23529</v>
+        <v>1.23942</v>
       </c>
       <c r="F131" t="n">
-        <v>3.96145</v>
+        <v>3.93804</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.26537</v>
+        <v>1.5136</v>
       </c>
       <c r="C132" t="n">
-        <v>3.40555</v>
+        <v>3.60011</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72633</v>
+        <v>2.81797</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23045</v>
+        <v>1.23785</v>
       </c>
       <c r="F132" t="n">
-        <v>3.90638</v>
+        <v>4.14769</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.27396</v>
+        <v>1.4903</v>
       </c>
       <c r="C133" t="n">
-        <v>3.39156</v>
+        <v>3.60818</v>
       </c>
       <c r="D133" t="n">
-        <v>2.71328</v>
+        <v>2.80945</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22408</v>
+        <v>1.22007</v>
       </c>
       <c r="F133" t="n">
-        <v>3.41184</v>
+        <v>3.85092</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2481</v>
+        <v>1.51607</v>
       </c>
       <c r="C134" t="n">
-        <v>3.36343</v>
+        <v>3.56925</v>
       </c>
       <c r="D134" t="n">
-        <v>2.70865</v>
+        <v>2.80643</v>
       </c>
       <c r="E134" t="n">
-        <v>1.18832</v>
+        <v>1.21901</v>
       </c>
       <c r="F134" t="n">
-        <v>3.59762</v>
+        <v>3.06673</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.24989</v>
+        <v>1.50147</v>
       </c>
       <c r="C135" t="n">
-        <v>3.35742</v>
+        <v>2.57731</v>
       </c>
       <c r="D135" t="n">
-        <v>4.87888</v>
+        <v>5.15985</v>
       </c>
       <c r="E135" t="n">
-        <v>1.18642</v>
+        <v>1.19794</v>
       </c>
       <c r="F135" t="n">
-        <v>3.55809</v>
+        <v>4.00757</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.24888</v>
+        <v>1.47902</v>
       </c>
       <c r="C136" t="n">
-        <v>2.02843</v>
+        <v>3.55164</v>
       </c>
       <c r="D136" t="n">
-        <v>4.80572</v>
+        <v>4.34873</v>
       </c>
       <c r="E136" t="n">
-        <v>1.21125</v>
+        <v>1.18871</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40685</v>
+        <v>3.71967</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27759</v>
+        <v>1.51718</v>
       </c>
       <c r="C137" t="n">
-        <v>2.00784</v>
+        <v>3.54433</v>
       </c>
       <c r="D137" t="n">
-        <v>4.53685</v>
+        <v>4.79824</v>
       </c>
       <c r="E137" t="n">
-        <v>1.52763</v>
+        <v>1.51466</v>
       </c>
       <c r="F137" t="n">
-        <v>5.12942</v>
+        <v>5.40296</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53292</v>
+        <v>1.78026</v>
       </c>
       <c r="C138" t="n">
-        <v>4.13841</v>
+        <v>4.34698</v>
       </c>
       <c r="D138" t="n">
-        <v>4.26489</v>
+        <v>4.47888</v>
       </c>
       <c r="E138" t="n">
-        <v>1.51766</v>
+        <v>1.53642</v>
       </c>
       <c r="F138" t="n">
-        <v>5.02497</v>
+        <v>5.29373</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.50768</v>
+        <v>1.75836</v>
       </c>
       <c r="C139" t="n">
-        <v>4.09777</v>
+        <v>4.29698</v>
       </c>
       <c r="D139" t="n">
-        <v>3.99516</v>
+        <v>3.67979</v>
       </c>
       <c r="E139" t="n">
-        <v>1.4862</v>
+        <v>1.50075</v>
       </c>
       <c r="F139" t="n">
-        <v>4.92544</v>
+        <v>5.20162</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50335</v>
+        <v>1.75564</v>
       </c>
       <c r="C140" t="n">
-        <v>4.037</v>
+        <v>4.25383</v>
       </c>
       <c r="D140" t="n">
-        <v>3.73107</v>
+        <v>4.14899</v>
       </c>
       <c r="E140" t="n">
-        <v>1.50449</v>
+        <v>1.49035</v>
       </c>
       <c r="F140" t="n">
-        <v>4.84162</v>
+        <v>5.12094</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5057</v>
+        <v>1.74085</v>
       </c>
       <c r="C141" t="n">
-        <v>4.00232</v>
+        <v>4.20551</v>
       </c>
       <c r="D141" t="n">
-        <v>3.91429</v>
+        <v>3.3459</v>
       </c>
       <c r="E141" t="n">
-        <v>1.49866</v>
+        <v>1.48704</v>
       </c>
       <c r="F141" t="n">
-        <v>4.74545</v>
+        <v>5.02912</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48536</v>
+        <v>1.71641</v>
       </c>
       <c r="C142" t="n">
-        <v>3.94933</v>
+        <v>4.17712</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18822</v>
+        <v>3.29796</v>
       </c>
       <c r="E142" t="n">
-        <v>1.46805</v>
+        <v>1.48227</v>
       </c>
       <c r="F142" t="n">
-        <v>4.67149</v>
+        <v>4.9499</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49018</v>
+        <v>1.71668</v>
       </c>
       <c r="C143" t="n">
-        <v>3.92362</v>
+        <v>4.13719</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15339</v>
+        <v>3.26212</v>
       </c>
       <c r="E143" t="n">
-        <v>1.46316</v>
+        <v>1.4786</v>
       </c>
       <c r="F143" t="n">
-        <v>4.58989</v>
+        <v>4.87312</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.638445</v>
+        <v>0.637924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.791817</v>
+        <v>0.7995679999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8772180000000001</v>
+        <v>0.867335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.539895</v>
+        <v>0.539768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.847697</v>
+        <v>0.850922</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.622582</v>
+        <v>0.62496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.78812</v>
+        <v>0.790142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.869399</v>
+        <v>0.860019</v>
       </c>
       <c r="E3" t="n">
-        <v>0.527178</v>
+        <v>0.526357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.831114</v>
+        <v>0.832866</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6087089999999999</v>
+        <v>0.611155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.772804</v>
+        <v>0.775823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.862117</v>
+        <v>0.850934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.51484</v>
+        <v>0.5150979999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.814678</v>
+        <v>0.816142</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.597349</v>
+        <v>0.598558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.765821</v>
+        <v>0.768259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.852923</v>
+        <v>0.8453000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.503114</v>
+        <v>0.50335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.800447</v>
+        <v>0.8010699999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.589165</v>
+        <v>0.587172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75545</v>
+        <v>0.761119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.845696</v>
+        <v>0.905102</v>
       </c>
       <c r="E6" t="n">
-        <v>0.49289</v>
+        <v>0.492716</v>
       </c>
       <c r="F6" t="n">
-        <v>0.785942</v>
+        <v>0.788061</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.581728</v>
+        <v>0.582447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.750016</v>
+        <v>0.75589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.951942</v>
+        <v>0.938392</v>
       </c>
       <c r="E7" t="n">
-        <v>0.484433</v>
+        <v>0.485137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.776423</v>
+        <v>0.777959</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.578474</v>
+        <v>0.5778720000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.746533</v>
+        <v>0.7529090000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.934075</v>
+        <v>0.921034</v>
       </c>
       <c r="E8" t="n">
-        <v>0.479885</v>
+        <v>0.480058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.769824</v>
+        <v>0.771268</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.520119</v>
+        <v>0.576532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.746683</v>
+        <v>0.75418</v>
       </c>
       <c r="D9" t="n">
-        <v>0.915189</v>
+        <v>0.90585</v>
       </c>
       <c r="E9" t="n">
-        <v>0.754758</v>
+        <v>0.754715</v>
       </c>
       <c r="F9" t="n">
-        <v>1.05279</v>
+        <v>1.0599</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7298</v>
+        <v>0.735557</v>
       </c>
       <c r="C10" t="n">
-        <v>0.956998</v>
+        <v>0.965755</v>
       </c>
       <c r="D10" t="n">
-        <v>0.896647</v>
+        <v>0.890045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.731102</v>
+        <v>0.731631</v>
       </c>
       <c r="F10" t="n">
-        <v>1.02935</v>
+        <v>1.02923</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.713209</v>
+        <v>0.710495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.934879</v>
+        <v>0.944954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.884765</v>
+        <v>0.874849</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7084780000000001</v>
+        <v>0.708557</v>
       </c>
       <c r="F11" t="n">
-        <v>1.005</v>
+        <v>1.00343</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.693957</v>
+        <v>0.69395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.917071</v>
+        <v>0.925871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.869793</v>
+        <v>0.860741</v>
       </c>
       <c r="E12" t="n">
-        <v>0.687854</v>
+        <v>0.688154</v>
       </c>
       <c r="F12" t="n">
-        <v>0.978411</v>
+        <v>0.984918</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6716800000000001</v>
+        <v>0.679118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.901344</v>
+        <v>0.906234</v>
       </c>
       <c r="D13" t="n">
-        <v>0.859171</v>
+        <v>0.845306</v>
       </c>
       <c r="E13" t="n">
-        <v>0.667571</v>
+        <v>0.666019</v>
       </c>
       <c r="F13" t="n">
-        <v>0.955982</v>
+        <v>0.954404</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.653848</v>
+        <v>0.656369</v>
       </c>
       <c r="C14" t="n">
-        <v>0.884919</v>
+        <v>0.890476</v>
       </c>
       <c r="D14" t="n">
-        <v>0.841077</v>
+        <v>0.833386</v>
       </c>
       <c r="E14" t="n">
-        <v>0.648537</v>
+        <v>0.648871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.933528</v>
+        <v>0.935781</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.640809</v>
+        <v>0.64486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.826888</v>
+        <v>0.8334819999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.829438</v>
+        <v>0.821681</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6303840000000001</v>
+        <v>0.629449</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9117420000000001</v>
+        <v>0.908554</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.624937</v>
+        <v>0.6250289999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.816703</v>
+        <v>0.820993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.820662</v>
+        <v>0.81054</v>
       </c>
       <c r="E16" t="n">
-        <v>0.613322</v>
+        <v>0.612475</v>
       </c>
       <c r="F16" t="n">
-        <v>0.890188</v>
+        <v>0.887912</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.611713</v>
+        <v>0.6103730000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.804785</v>
+        <v>0.807186</v>
       </c>
       <c r="D17" t="n">
-        <v>0.811496</v>
+        <v>0.800706</v>
       </c>
       <c r="E17" t="n">
-        <v>0.597871</v>
+        <v>0.596146</v>
       </c>
       <c r="F17" t="n">
-        <v>0.903984</v>
+        <v>0.901818</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.597676</v>
+        <v>0.596839</v>
       </c>
       <c r="C18" t="n">
-        <v>0.79464</v>
+        <v>0.797431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.804539</v>
+        <v>0.7956839999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.583318</v>
+        <v>0.58212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.885821</v>
+        <v>0.8847660000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.586556</v>
+        <v>0.5893389999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.783114</v>
+        <v>0.787299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.794806</v>
+        <v>0.786667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.570507</v>
+        <v>0.56908</v>
       </c>
       <c r="F19" t="n">
-        <v>0.870296</v>
+        <v>0.869796</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.574362</v>
+        <v>0.57694</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7749819999999999</v>
+        <v>0.778498</v>
       </c>
       <c r="D20" t="n">
-        <v>0.78868</v>
+        <v>0.780556</v>
       </c>
       <c r="E20" t="n">
-        <v>0.558328</v>
+        <v>0.557033</v>
       </c>
       <c r="F20" t="n">
-        <v>0.861326</v>
+        <v>0.855417</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.568864</v>
+        <v>0.569584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.771268</v>
+        <v>0.776767</v>
       </c>
       <c r="D21" t="n">
-        <v>1.01596</v>
+        <v>1.00778</v>
       </c>
       <c r="E21" t="n">
-        <v>0.548373</v>
+        <v>0.548421</v>
       </c>
       <c r="F21" t="n">
-        <v>0.855437</v>
+        <v>0.858215</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.565486</v>
+        <v>0.564549</v>
       </c>
       <c r="C22" t="n">
-        <v>0.768875</v>
+        <v>0.773845</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9946</v>
+        <v>0.984192</v>
       </c>
       <c r="E22" t="n">
-        <v>0.541347</v>
+        <v>0.53935</v>
       </c>
       <c r="F22" t="n">
-        <v>0.848729</v>
+        <v>0.846799</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.561582</v>
+        <v>0.559557</v>
       </c>
       <c r="C23" t="n">
-        <v>0.768811</v>
+        <v>0.774027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.975079</v>
+        <v>0.971452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.821794</v>
+        <v>0.82252</v>
       </c>
       <c r="F23" t="n">
-        <v>1.13036</v>
+        <v>1.13356</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.74218</v>
+        <v>0.741607</v>
       </c>
       <c r="C24" t="n">
-        <v>0.955624</v>
+        <v>0.958828</v>
       </c>
       <c r="D24" t="n">
-        <v>0.95596</v>
+        <v>0.948009</v>
       </c>
       <c r="E24" t="n">
-        <v>0.797621</v>
+        <v>0.79586</v>
       </c>
       <c r="F24" t="n">
-        <v>1.10044</v>
+        <v>1.10013</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.720512</v>
+        <v>0.719434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.936646</v>
+        <v>0.938541</v>
       </c>
       <c r="D25" t="n">
-        <v>0.937155</v>
+        <v>0.933428</v>
       </c>
       <c r="E25" t="n">
-        <v>0.772698</v>
+        <v>0.769965</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0727</v>
+        <v>1.07173</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.703079</v>
+        <v>0.700643</v>
       </c>
       <c r="C26" t="n">
-        <v>0.916741</v>
+        <v>0.903502</v>
       </c>
       <c r="D26" t="n">
-        <v>0.922156</v>
+        <v>0.917114</v>
       </c>
       <c r="E26" t="n">
-        <v>0.748934</v>
+        <v>0.7461140000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>1.05185</v>
+        <v>1.05049</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.722178</v>
+        <v>0.720776</v>
       </c>
       <c r="C27" t="n">
-        <v>0.899253</v>
+        <v>0.900975</v>
       </c>
       <c r="D27" t="n">
-        <v>0.90981</v>
+        <v>0.901722</v>
       </c>
       <c r="E27" t="n">
-        <v>0.726147</v>
+        <v>0.722672</v>
       </c>
       <c r="F27" t="n">
-        <v>1.03139</v>
+        <v>1.02566</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.701247</v>
+        <v>0.664446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.881629</v>
+        <v>0.884646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.897692</v>
+        <v>0.8904069999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.704811</v>
+        <v>0.703802</v>
       </c>
       <c r="F28" t="n">
-        <v>1.00303</v>
+        <v>1.00475</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.648486</v>
+        <v>0.684543</v>
       </c>
       <c r="C29" t="n">
-        <v>0.865313</v>
+        <v>0.872993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8832449999999999</v>
+        <v>0.879428</v>
       </c>
       <c r="E29" t="n">
-        <v>0.684794</v>
+        <v>0.680656</v>
       </c>
       <c r="F29" t="n">
-        <v>0.983022</v>
+        <v>0.983495</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.665582</v>
+        <v>0.665327</v>
       </c>
       <c r="C30" t="n">
-        <v>0.843387</v>
+        <v>0.8547940000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.873273</v>
+        <v>0.868579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.632161</v>
+        <v>0.661996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.958704</v>
+        <v>0.96031</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.650069</v>
+        <v>0.649662</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833894</v>
+        <v>0.835744</v>
       </c>
       <c r="D31" t="n">
-        <v>0.863052</v>
+        <v>0.858004</v>
       </c>
       <c r="E31" t="n">
-        <v>0.646963</v>
+        <v>0.644624</v>
       </c>
       <c r="F31" t="n">
-        <v>0.939273</v>
+        <v>0.93914</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.63486</v>
+        <v>0.636274</v>
       </c>
       <c r="C32" t="n">
-        <v>0.821549</v>
+        <v>0.824729</v>
       </c>
       <c r="D32" t="n">
-        <v>0.854572</v>
+        <v>0.850625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.630012</v>
+        <v>0.626483</v>
       </c>
       <c r="F32" t="n">
-        <v>0.918137</v>
+        <v>0.919346</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.623341</v>
+        <v>0.620098</v>
       </c>
       <c r="C33" t="n">
-        <v>0.810792</v>
+        <v>0.811057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.84624</v>
+        <v>0.841062</v>
       </c>
       <c r="E33" t="n">
-        <v>0.614761</v>
+        <v>0.612202</v>
       </c>
       <c r="F33" t="n">
-        <v>0.901863</v>
+        <v>0.901529</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.614211</v>
+        <v>0.584233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802994</v>
+        <v>0.801194</v>
       </c>
       <c r="D34" t="n">
-        <v>0.839714</v>
+        <v>0.833481</v>
       </c>
       <c r="E34" t="n">
-        <v>0.600366</v>
+        <v>0.570896</v>
       </c>
       <c r="F34" t="n">
-        <v>0.885714</v>
+        <v>0.885006</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.60201</v>
+        <v>0.605118</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7929580000000001</v>
+        <v>0.796041</v>
       </c>
       <c r="D35" t="n">
-        <v>1.08995</v>
+        <v>1.08396</v>
       </c>
       <c r="E35" t="n">
-        <v>0.58813</v>
+        <v>0.559362</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8707819999999999</v>
+        <v>0.870515</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.570036</v>
+        <v>0.5949410000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.784637</v>
+        <v>0.788539</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06108</v>
+        <v>1.05509</v>
       </c>
       <c r="E36" t="n">
-        <v>0.55359</v>
+        <v>0.550982</v>
       </c>
       <c r="F36" t="n">
-        <v>0.859254</v>
+        <v>0.859094</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.567844</v>
+        <v>0.566987</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7834100000000001</v>
+        <v>0.787589</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05746</v>
+        <v>1.0352</v>
       </c>
       <c r="E37" t="n">
-        <v>0.840771</v>
+        <v>0.839626</v>
       </c>
       <c r="F37" t="n">
-        <v>1.45826</v>
+        <v>1.45697</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.826802</v>
+        <v>0.797996</v>
       </c>
       <c r="C38" t="n">
-        <v>1.23147</v>
+        <v>1.23613</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03943</v>
+        <v>1.02709</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8354200000000001</v>
+        <v>0.813025</v>
       </c>
       <c r="F38" t="n">
-        <v>1.42586</v>
+        <v>1.42548</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.801042</v>
+        <v>0.7759740000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>1.21093</v>
+        <v>1.21608</v>
       </c>
       <c r="D39" t="n">
-        <v>1.0063</v>
+        <v>1.00102</v>
       </c>
       <c r="E39" t="n">
-        <v>0.790211</v>
+        <v>0.789835</v>
       </c>
       <c r="F39" t="n">
-        <v>1.39492</v>
+        <v>1.39448</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.753762</v>
+        <v>0.776712</v>
       </c>
       <c r="C40" t="n">
-        <v>1.19419</v>
+        <v>1.19751</v>
       </c>
       <c r="D40" t="n">
-        <v>0.991908</v>
+        <v>0.98516</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7658470000000001</v>
+        <v>0.762742</v>
       </c>
       <c r="F40" t="n">
-        <v>1.3656</v>
+        <v>1.36571</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.733577</v>
+        <v>0.755972</v>
       </c>
       <c r="C41" t="n">
-        <v>1.17477</v>
+        <v>1.17823</v>
       </c>
       <c r="D41" t="n">
-        <v>0.977019</v>
+        <v>0.969072</v>
       </c>
       <c r="E41" t="n">
-        <v>0.743217</v>
+        <v>0.7416779999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1.33747</v>
+        <v>1.33756</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.735779</v>
+        <v>0.735109</v>
       </c>
       <c r="C42" t="n">
-        <v>1.15724</v>
+        <v>1.16071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.957856</v>
+        <v>0.9520110000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.721778</v>
+        <v>0.721379</v>
       </c>
       <c r="F42" t="n">
-        <v>1.31149</v>
+        <v>1.31125</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.696235</v>
+        <v>0.715614</v>
       </c>
       <c r="C43" t="n">
-        <v>1.14027</v>
+        <v>1.14264</v>
       </c>
       <c r="D43" t="n">
-        <v>0.944675</v>
+        <v>0.939736</v>
       </c>
       <c r="E43" t="n">
-        <v>0.702101</v>
+        <v>0.700705</v>
       </c>
       <c r="F43" t="n">
-        <v>1.28639</v>
+        <v>1.28541</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.697431</v>
+        <v>0.680013</v>
       </c>
       <c r="C44" t="n">
-        <v>1.12489</v>
+        <v>1.1296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.932818</v>
+        <v>0.929284</v>
       </c>
       <c r="E44" t="n">
-        <v>0.682044</v>
+        <v>0.682162</v>
       </c>
       <c r="F44" t="n">
-        <v>1.26247</v>
+        <v>1.26272</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.664814</v>
+        <v>0.661211</v>
       </c>
       <c r="C45" t="n">
-        <v>1.11341</v>
+        <v>1.11486</v>
       </c>
       <c r="D45" t="n">
-        <v>0.92291</v>
+        <v>0.916899</v>
       </c>
       <c r="E45" t="n">
-        <v>0.664669</v>
+        <v>0.631817</v>
       </c>
       <c r="F45" t="n">
-        <v>1.24008</v>
+        <v>1.23994</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.648554</v>
+        <v>0.648167</v>
       </c>
       <c r="C46" t="n">
-        <v>1.10007</v>
+        <v>1.10353</v>
       </c>
       <c r="D46" t="n">
-        <v>0.911741</v>
+        <v>0.910043</v>
       </c>
       <c r="E46" t="n">
-        <v>0.617318</v>
+        <v>0.646752</v>
       </c>
       <c r="F46" t="n">
-        <v>1.21959</v>
+        <v>1.21999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6366889999999999</v>
+        <v>0.635501</v>
       </c>
       <c r="C47" t="n">
-        <v>1.08845</v>
+        <v>1.0913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.905928</v>
+        <v>0.908906</v>
       </c>
       <c r="E47" t="n">
-        <v>0.630506</v>
+        <v>0.626862</v>
       </c>
       <c r="F47" t="n">
-        <v>1.19967</v>
+        <v>1.19935</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.624098</v>
+        <v>0.621757</v>
       </c>
       <c r="C48" t="n">
-        <v>1.07939</v>
+        <v>1.08333</v>
       </c>
       <c r="D48" t="n">
-        <v>0.899179</v>
+        <v>0.89945</v>
       </c>
       <c r="E48" t="n">
-        <v>0.61711</v>
+        <v>0.612856</v>
       </c>
       <c r="F48" t="n">
-        <v>1.18258</v>
+        <v>1.18185</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.613101</v>
+        <v>0.6128209999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.810987</v>
+        <v>1.07421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.890577</v>
+        <v>0.886884</v>
       </c>
       <c r="E49" t="n">
-        <v>0.604068</v>
+        <v>0.574039</v>
       </c>
       <c r="F49" t="n">
-        <v>1.16597</v>
+        <v>1.16474</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.607086</v>
+        <v>0.605498</v>
       </c>
       <c r="C50" t="n">
-        <v>1.06639</v>
+        <v>1.06886</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1379</v>
+        <v>1.13449</v>
       </c>
       <c r="E50" t="n">
-        <v>0.568875</v>
+        <v>0.568422</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1524</v>
+        <v>1.15242</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.603916</v>
+        <v>0.601661</v>
       </c>
       <c r="C51" t="n">
-        <v>1.06278</v>
+        <v>1.06811</v>
       </c>
       <c r="D51" t="n">
-        <v>1.11237</v>
+        <v>1.1106</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8900709999999999</v>
+        <v>0.866598</v>
       </c>
       <c r="F51" t="n">
-        <v>1.53926</v>
+        <v>1.53807</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.579508</v>
+        <v>0.599724</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06428</v>
+        <v>1.06731</v>
       </c>
       <c r="D52" t="n">
-        <v>1.09033</v>
+        <v>1.0853</v>
       </c>
       <c r="E52" t="n">
-        <v>0.84291</v>
+        <v>0.841264</v>
       </c>
       <c r="F52" t="n">
-        <v>1.50552</v>
+        <v>1.50444</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.824238</v>
+        <v>0.822499</v>
       </c>
       <c r="C53" t="n">
-        <v>1.26372</v>
+        <v>1.26701</v>
       </c>
       <c r="D53" t="n">
-        <v>1.07089</v>
+        <v>1.06909</v>
       </c>
       <c r="E53" t="n">
-        <v>0.818924</v>
+        <v>0.815877</v>
       </c>
       <c r="F53" t="n">
-        <v>1.47004</v>
+        <v>1.46836</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.800642</v>
+        <v>0.782107</v>
       </c>
       <c r="C54" t="n">
-        <v>1.24272</v>
+        <v>1.24705</v>
       </c>
       <c r="D54" t="n">
-        <v>1.05268</v>
+        <v>1.0499</v>
       </c>
       <c r="E54" t="n">
-        <v>0.811671</v>
+        <v>0.792266</v>
       </c>
       <c r="F54" t="n">
-        <v>1.44057</v>
+        <v>1.44009</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.761611</v>
+        <v>0.763143</v>
       </c>
       <c r="C55" t="n">
-        <v>1.22478</v>
+        <v>1.228</v>
       </c>
       <c r="D55" t="n">
-        <v>1.0347</v>
+        <v>1.0314</v>
       </c>
       <c r="E55" t="n">
-        <v>0.770674</v>
+        <v>0.772028</v>
       </c>
       <c r="F55" t="n">
-        <v>1.41064</v>
+        <v>1.40947</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.741842</v>
+        <v>0.742954</v>
       </c>
       <c r="C56" t="n">
-        <v>1.20612</v>
+        <v>1.2092</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01732</v>
+        <v>1.0156</v>
       </c>
       <c r="E56" t="n">
-        <v>0.750731</v>
+        <v>0.750424</v>
       </c>
       <c r="F56" t="n">
-        <v>1.3814</v>
+        <v>1.38084</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.720313</v>
+        <v>0.723756</v>
       </c>
       <c r="C57" t="n">
-        <v>1.18837</v>
+        <v>1.19051</v>
       </c>
       <c r="D57" t="n">
-        <v>1.00295</v>
+        <v>1.00235</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7285239999999999</v>
+        <v>0.729277</v>
       </c>
       <c r="F57" t="n">
-        <v>1.35481</v>
+        <v>1.3543</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.703708</v>
+        <v>0.706113</v>
       </c>
       <c r="C58" t="n">
-        <v>1.17327</v>
+        <v>1.17529</v>
       </c>
       <c r="D58" t="n">
-        <v>0.992252</v>
+        <v>0.988602</v>
       </c>
       <c r="E58" t="n">
-        <v>0.711601</v>
+        <v>0.708822</v>
       </c>
       <c r="F58" t="n">
-        <v>1.32931</v>
+        <v>1.32862</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.690204</v>
+        <v>0.687092</v>
       </c>
       <c r="C59" t="n">
-        <v>1.15899</v>
+        <v>1.16049</v>
       </c>
       <c r="D59" t="n">
-        <v>0.977203</v>
+        <v>0.966243</v>
       </c>
       <c r="E59" t="n">
-        <v>0.693751</v>
+        <v>0.657475</v>
       </c>
       <c r="F59" t="n">
-        <v>1.30644</v>
+        <v>1.30826</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.674973</v>
+        <v>0.675539</v>
       </c>
       <c r="C60" t="n">
-        <v>1.14458</v>
+        <v>1.14747</v>
       </c>
       <c r="D60" t="n">
-        <v>0.960494</v>
+        <v>0.953734</v>
       </c>
       <c r="E60" t="n">
-        <v>0.64335</v>
+        <v>0.642432</v>
       </c>
       <c r="F60" t="n">
-        <v>1.28264</v>
+        <v>1.2802</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.661365</v>
+        <v>0.660679</v>
       </c>
       <c r="C61" t="n">
-        <v>1.134</v>
+        <v>1.13739</v>
       </c>
       <c r="D61" t="n">
-        <v>0.951651</v>
+        <v>0.944083</v>
       </c>
       <c r="E61" t="n">
-        <v>0.660234</v>
+        <v>0.628166</v>
       </c>
       <c r="F61" t="n">
-        <v>1.26048</v>
+        <v>1.25994</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6615529999999999</v>
+        <v>0.6484760000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>1.12296</v>
+        <v>1.1263</v>
       </c>
       <c r="D62" t="n">
-        <v>0.940605</v>
+        <v>0.9356370000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6163110000000001</v>
+        <v>0.613181</v>
       </c>
       <c r="F62" t="n">
-        <v>1.24194</v>
+        <v>1.24176</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.638717</v>
+        <v>0.6391559999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.11404</v>
+        <v>1.1174</v>
       </c>
       <c r="D63" t="n">
-        <v>0.931388</v>
+        <v>0.926976</v>
       </c>
       <c r="E63" t="n">
-        <v>0.632397</v>
+        <v>0.629526</v>
       </c>
       <c r="F63" t="n">
-        <v>1.22375</v>
+        <v>1.22348</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6308280000000001</v>
+        <v>0.60327</v>
       </c>
       <c r="C64" t="n">
-        <v>1.10797</v>
+        <v>1.11091</v>
       </c>
       <c r="D64" t="n">
-        <v>1.22215</v>
+        <v>1.2139</v>
       </c>
       <c r="E64" t="n">
-        <v>0.621795</v>
+        <v>0.619598</v>
       </c>
       <c r="F64" t="n">
-        <v>1.2094</v>
+        <v>1.2096</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.599075</v>
+        <v>0.627267</v>
       </c>
       <c r="C65" t="n">
-        <v>1.10475</v>
+        <v>1.10928</v>
       </c>
       <c r="D65" t="n">
-        <v>1.19681</v>
+        <v>1.18612</v>
       </c>
       <c r="E65" t="n">
-        <v>0.613264</v>
+        <v>0.611023</v>
       </c>
       <c r="F65" t="n">
-        <v>1.19752</v>
+        <v>1.19645</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.623108</v>
+        <v>0.624095</v>
       </c>
       <c r="C66" t="n">
-        <v>1.10343</v>
+        <v>1.10978</v>
       </c>
       <c r="D66" t="n">
-        <v>1.16416</v>
+        <v>1.15691</v>
       </c>
       <c r="E66" t="n">
-        <v>0.910447</v>
+        <v>0.914778</v>
       </c>
       <c r="F66" t="n">
-        <v>1.58327</v>
+        <v>1.57868</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.875783</v>
+        <v>0.890941</v>
       </c>
       <c r="C67" t="n">
-        <v>1.3275</v>
+        <v>1.33077</v>
       </c>
       <c r="D67" t="n">
-        <v>1.13111</v>
+        <v>1.12346</v>
       </c>
       <c r="E67" t="n">
-        <v>0.869667</v>
+        <v>0.876878</v>
       </c>
       <c r="F67" t="n">
-        <v>1.54552</v>
+        <v>1.54817</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.86011</v>
+        <v>0.870536</v>
       </c>
       <c r="C68" t="n">
-        <v>1.30949</v>
+        <v>1.31751</v>
       </c>
       <c r="D68" t="n">
-        <v>1.11151</v>
+        <v>1.10822</v>
       </c>
       <c r="E68" t="n">
-        <v>0.848514</v>
+        <v>0.855626</v>
       </c>
       <c r="F68" t="n">
-        <v>1.51494</v>
+        <v>1.51774</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.839183</v>
+        <v>0.836846</v>
       </c>
       <c r="C69" t="n">
-        <v>1.28609</v>
+        <v>1.29386</v>
       </c>
       <c r="D69" t="n">
-        <v>1.09283</v>
+        <v>1.08856</v>
       </c>
       <c r="E69" t="n">
-        <v>0.824836</v>
+        <v>0.830372</v>
       </c>
       <c r="F69" t="n">
-        <v>1.48287</v>
+        <v>1.4843</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.820728</v>
+        <v>0.819831</v>
       </c>
       <c r="C70" t="n">
-        <v>1.27834</v>
+        <v>1.27635</v>
       </c>
       <c r="D70" t="n">
-        <v>1.08366</v>
+        <v>1.07626</v>
       </c>
       <c r="E70" t="n">
-        <v>0.806528</v>
+        <v>0.805586</v>
       </c>
       <c r="F70" t="n">
-        <v>1.46506</v>
+        <v>1.46019</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.803737</v>
+        <v>0.797382</v>
       </c>
       <c r="C71" t="n">
-        <v>1.26365</v>
+        <v>1.26628</v>
       </c>
       <c r="D71" t="n">
-        <v>1.04529</v>
+        <v>1.04069</v>
       </c>
       <c r="E71" t="n">
-        <v>0.783919</v>
+        <v>0.785144</v>
       </c>
       <c r="F71" t="n">
-        <v>1.43909</v>
+        <v>1.43688</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.791591</v>
+        <v>0.789225</v>
       </c>
       <c r="C72" t="n">
-        <v>1.25272</v>
+        <v>1.25358</v>
       </c>
       <c r="D72" t="n">
-        <v>1.03797</v>
+        <v>1.03204</v>
       </c>
       <c r="E72" t="n">
-        <v>0.767201</v>
+        <v>0.767299</v>
       </c>
       <c r="F72" t="n">
-        <v>1.41734</v>
+        <v>1.41687</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.774741</v>
+        <v>0.775169</v>
       </c>
       <c r="C73" t="n">
-        <v>1.24216</v>
+        <v>1.24211</v>
       </c>
       <c r="D73" t="n">
-        <v>1.02991</v>
+        <v>1.02273</v>
       </c>
       <c r="E73" t="n">
-        <v>0.749546</v>
+        <v>0.747131</v>
       </c>
       <c r="F73" t="n">
-        <v>1.3962</v>
+        <v>1.39792</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.764585</v>
+        <v>0.758445</v>
       </c>
       <c r="C74" t="n">
-        <v>1.23235</v>
+        <v>1.2396</v>
       </c>
       <c r="D74" t="n">
-        <v>1.01228</v>
+        <v>1.00885</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6913049999999999</v>
+        <v>0.695725</v>
       </c>
       <c r="F74" t="n">
-        <v>1.38974</v>
+        <v>1.38541</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.744652</v>
+        <v>0.738032</v>
       </c>
       <c r="C75" t="n">
-        <v>1.23626</v>
+        <v>1.23719</v>
       </c>
       <c r="D75" t="n">
-        <v>1.01067</v>
+        <v>1.00501</v>
       </c>
       <c r="E75" t="n">
-        <v>0.710293</v>
+        <v>0.71187</v>
       </c>
       <c r="F75" t="n">
-        <v>1.37043</v>
+        <v>1.37369</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.683697</v>
+        <v>0.7252110000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>1.23407</v>
+        <v>1.22892</v>
       </c>
       <c r="D76" t="n">
-        <v>1.00594</v>
+        <v>1.00216</v>
       </c>
       <c r="E76" t="n">
-        <v>0.697403</v>
+        <v>0.6946909999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1.35848</v>
+        <v>1.35513</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.71911</v>
+        <v>0.709854</v>
       </c>
       <c r="C77" t="n">
-        <v>1.23242</v>
+        <v>1.23055</v>
       </c>
       <c r="D77" t="n">
-        <v>0.998024</v>
+        <v>0.992517</v>
       </c>
       <c r="E77" t="n">
-        <v>0.682812</v>
+        <v>0.676588</v>
       </c>
       <c r="F77" t="n">
-        <v>1.35385</v>
+        <v>1.34737</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.688335</v>
+        <v>0.708972</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8810750000000001</v>
+        <v>1.246</v>
       </c>
       <c r="D78" t="n">
-        <v>1.4672</v>
+        <v>1.46214</v>
       </c>
       <c r="E78" t="n">
-        <v>0.669866</v>
+        <v>0.665924</v>
       </c>
       <c r="F78" t="n">
-        <v>1.34116</v>
+        <v>1.34534</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.695814</v>
+        <v>0.703888</v>
       </c>
       <c r="C79" t="n">
-        <v>0.882622</v>
+        <v>1.24765</v>
       </c>
       <c r="D79" t="n">
-        <v>1.43145</v>
+        <v>1.43423</v>
       </c>
       <c r="E79" t="n">
-        <v>0.658739</v>
+        <v>0.65532</v>
       </c>
       <c r="F79" t="n">
-        <v>1.33668</v>
+        <v>1.34201</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6828419999999999</v>
+        <v>0.675897</v>
       </c>
       <c r="C80" t="n">
-        <v>0.886721</v>
+        <v>1.2752</v>
       </c>
       <c r="D80" t="n">
-        <v>1.40488</v>
+        <v>1.40411</v>
       </c>
       <c r="E80" t="n">
-        <v>0.968597</v>
+        <v>0.986781</v>
       </c>
       <c r="F80" t="n">
-        <v>2.01827</v>
+        <v>2.03843</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.969303</v>
+        <v>0.960273</v>
       </c>
       <c r="C81" t="n">
-        <v>1.72804</v>
+        <v>1.7565</v>
       </c>
       <c r="D81" t="n">
-        <v>1.35938</v>
+        <v>1.36609</v>
       </c>
       <c r="E81" t="n">
-        <v>0.955429</v>
+        <v>0.971859</v>
       </c>
       <c r="F81" t="n">
-        <v>2.01008</v>
+        <v>2.03867</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9425789999999999</v>
+        <v>0.956593</v>
       </c>
       <c r="C82" t="n">
-        <v>1.75657</v>
+        <v>1.78186</v>
       </c>
       <c r="D82" t="n">
-        <v>1.34683</v>
+        <v>1.35323</v>
       </c>
       <c r="E82" t="n">
-        <v>0.951796</v>
+        <v>0.950547</v>
       </c>
       <c r="F82" t="n">
-        <v>1.98354</v>
+        <v>2.02623</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.947788</v>
+        <v>0.946193</v>
       </c>
       <c r="C83" t="n">
-        <v>1.75675</v>
+        <v>1.78157</v>
       </c>
       <c r="D83" t="n">
-        <v>1.33074</v>
+        <v>1.33239</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9164870000000001</v>
+        <v>0.912855</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98302</v>
+        <v>1.99577</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.942151</v>
+        <v>0.926135</v>
       </c>
       <c r="C84" t="n">
-        <v>1.76366</v>
+        <v>1.78611</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31547</v>
+        <v>1.32318</v>
       </c>
       <c r="E84" t="n">
-        <v>0.897722</v>
+        <v>0.892493</v>
       </c>
       <c r="F84" t="n">
-        <v>1.96487</v>
+        <v>1.99336</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.935322</v>
+        <v>0.916387</v>
       </c>
       <c r="C85" t="n">
-        <v>1.76444</v>
+        <v>1.78936</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28717</v>
+        <v>1.28937</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8732</v>
+        <v>0.876459</v>
       </c>
       <c r="F85" t="n">
-        <v>1.96951</v>
+        <v>1.97999</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9164909999999999</v>
+        <v>0.931746</v>
       </c>
       <c r="C86" t="n">
-        <v>1.76679</v>
+        <v>1.80494</v>
       </c>
       <c r="D86" t="n">
-        <v>1.27245</v>
+        <v>1.29053</v>
       </c>
       <c r="E86" t="n">
-        <v>0.856716</v>
+        <v>0.848181</v>
       </c>
       <c r="F86" t="n">
-        <v>1.96598</v>
+        <v>1.98414</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.917064</v>
+        <v>0.904239</v>
       </c>
       <c r="C87" t="n">
-        <v>1.79214</v>
+        <v>1.80116</v>
       </c>
       <c r="D87" t="n">
-        <v>1.27514</v>
+        <v>1.27388</v>
       </c>
       <c r="E87" t="n">
-        <v>0.832144</v>
+        <v>0.83406</v>
       </c>
       <c r="F87" t="n">
-        <v>1.9662</v>
+        <v>1.9814</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.903292</v>
+        <v>0.892363</v>
       </c>
       <c r="C88" t="n">
-        <v>1.80325</v>
+        <v>1.81516</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26957</v>
+        <v>1.27259</v>
       </c>
       <c r="E88" t="n">
-        <v>0.815896</v>
+        <v>0.772438</v>
       </c>
       <c r="F88" t="n">
-        <v>1.91667</v>
+        <v>1.97977</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.886692</v>
+        <v>0.891301</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81718</v>
+        <v>1.84146</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27321</v>
+        <v>1.27261</v>
       </c>
       <c r="E89" t="n">
-        <v>0.794861</v>
+        <v>0.759181</v>
       </c>
       <c r="F89" t="n">
-        <v>1.96347</v>
+        <v>1.98715</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.875708</v>
+        <v>0.880128</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81792</v>
+        <v>1.83332</v>
       </c>
       <c r="D90" t="n">
-        <v>1.27622</v>
+        <v>1.27456</v>
       </c>
       <c r="E90" t="n">
-        <v>0.779383</v>
+        <v>0.741056</v>
       </c>
       <c r="F90" t="n">
-        <v>1.97362</v>
+        <v>1.97957</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.838902</v>
+        <v>0.873722</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8604</v>
+        <v>1.87008</v>
       </c>
       <c r="D91" t="n">
-        <v>1.27847</v>
+        <v>1.27849</v>
       </c>
       <c r="E91" t="n">
-        <v>0.727223</v>
+        <v>0.72856</v>
       </c>
       <c r="F91" t="n">
-        <v>1.96449</v>
+        <v>1.99734</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8619790000000001</v>
+        <v>0.861388</v>
       </c>
       <c r="C92" t="n">
-        <v>1.86957</v>
+        <v>1.86504</v>
       </c>
       <c r="D92" t="n">
-        <v>2.75115</v>
+        <v>2.73577</v>
       </c>
       <c r="E92" t="n">
-        <v>0.749155</v>
+        <v>0.746847</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99239</v>
+        <v>1.99478</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.818954</v>
+        <v>0.822666</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9012</v>
+        <v>1.8954</v>
       </c>
       <c r="D93" t="n">
-        <v>2.34588</v>
+        <v>2.34503</v>
       </c>
       <c r="E93" t="n">
-        <v>0.705671</v>
+        <v>0.706823</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00826</v>
+        <v>1.99538</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.847929</v>
+        <v>0.807365</v>
       </c>
       <c r="C94" t="n">
-        <v>1.92406</v>
+        <v>1.91317</v>
       </c>
       <c r="D94" t="n">
-        <v>2.34241</v>
+        <v>2.41134</v>
       </c>
       <c r="E94" t="n">
-        <v>1.0807</v>
+        <v>1.03869</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11828</v>
+        <v>3.09183</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1135</v>
+        <v>1.09859</v>
       </c>
       <c r="C95" t="n">
-        <v>2.62322</v>
+        <v>2.61648</v>
       </c>
       <c r="D95" t="n">
-        <v>2.47166</v>
+        <v>2.39144</v>
       </c>
       <c r="E95" t="n">
-        <v>1.06428</v>
+        <v>1.03113</v>
       </c>
       <c r="F95" t="n">
-        <v>3.06739</v>
+        <v>3.07068</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.10918</v>
+        <v>1.12658</v>
       </c>
       <c r="C96" t="n">
-        <v>2.62016</v>
+        <v>2.64071</v>
       </c>
       <c r="D96" t="n">
-        <v>2.54425</v>
+        <v>2.53641</v>
       </c>
       <c r="E96" t="n">
-        <v>1.01535</v>
+        <v>1.04648</v>
       </c>
       <c r="F96" t="n">
-        <v>3.03748</v>
+        <v>3.03548</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1202</v>
+        <v>1.112</v>
       </c>
       <c r="C97" t="n">
-        <v>2.61425</v>
+        <v>2.61194</v>
       </c>
       <c r="D97" t="n">
-        <v>2.53917</v>
+        <v>2.53194</v>
       </c>
       <c r="E97" t="n">
-        <v>1.02772</v>
+        <v>1.02442</v>
       </c>
       <c r="F97" t="n">
-        <v>3.0106</v>
+        <v>3.02197</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.10585</v>
+        <v>1.10898</v>
       </c>
       <c r="C98" t="n">
-        <v>2.60596</v>
+        <v>2.60569</v>
       </c>
       <c r="D98" t="n">
-        <v>2.29406</v>
+        <v>2.13403</v>
       </c>
       <c r="E98" t="n">
-        <v>1.00723</v>
+        <v>0.981325</v>
       </c>
       <c r="F98" t="n">
-        <v>2.9539</v>
+        <v>2.98475</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10001</v>
+        <v>1.09114</v>
       </c>
       <c r="C99" t="n">
-        <v>2.57671</v>
+        <v>2.58536</v>
       </c>
       <c r="D99" t="n">
-        <v>1.97323</v>
+        <v>2.30297</v>
       </c>
       <c r="E99" t="n">
-        <v>0.965849</v>
+        <v>0.96238</v>
       </c>
       <c r="F99" t="n">
-        <v>2.94296</v>
+        <v>2.94705</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.08747</v>
+        <v>1.10714</v>
       </c>
       <c r="C100" t="n">
-        <v>2.57759</v>
+        <v>2.57654</v>
       </c>
       <c r="D100" t="n">
-        <v>1.78764</v>
+        <v>1.78318</v>
       </c>
       <c r="E100" t="n">
-        <v>0.897834</v>
+        <v>0.946632</v>
       </c>
       <c r="F100" t="n">
-        <v>2.90105</v>
+        <v>2.89889</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07348</v>
+        <v>1.09969</v>
       </c>
       <c r="C101" t="n">
-        <v>2.54731</v>
+        <v>2.56167</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7822</v>
+        <v>1.95171</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9357799999999999</v>
+        <v>0.931288</v>
       </c>
       <c r="F101" t="n">
-        <v>2.87218</v>
+        <v>2.84393</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10672</v>
+        <v>1.08472</v>
       </c>
       <c r="C102" t="n">
-        <v>2.5543</v>
+        <v>2.54315</v>
       </c>
       <c r="D102" t="n">
-        <v>1.78145</v>
+        <v>1.77166</v>
       </c>
       <c r="E102" t="n">
-        <v>0.918806</v>
+        <v>0.915539</v>
       </c>
       <c r="F102" t="n">
-        <v>2.83508</v>
+        <v>2.83034</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07911</v>
+        <v>1.08011</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51275</v>
+        <v>2.53107</v>
       </c>
       <c r="D103" t="n">
-        <v>1.78031</v>
+        <v>1.77651</v>
       </c>
       <c r="E103" t="n">
-        <v>0.903401</v>
+        <v>0.898626</v>
       </c>
       <c r="F103" t="n">
-        <v>1.69583</v>
+        <v>2.79739</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.03727</v>
+        <v>1.07704</v>
       </c>
       <c r="C104" t="n">
-        <v>1.42234</v>
+        <v>2.53521</v>
       </c>
       <c r="D104" t="n">
-        <v>1.78408</v>
+        <v>1.77832</v>
       </c>
       <c r="E104" t="n">
-        <v>0.890618</v>
+        <v>0.89045</v>
       </c>
       <c r="F104" t="n">
-        <v>2.79791</v>
+        <v>2.59527</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07958</v>
+        <v>1.0852</v>
       </c>
       <c r="C105" t="n">
-        <v>2.51762</v>
+        <v>2.51086</v>
       </c>
       <c r="D105" t="n">
-        <v>1.7827</v>
+        <v>1.77973</v>
       </c>
       <c r="E105" t="n">
-        <v>0.878096</v>
+        <v>0.838448</v>
       </c>
       <c r="F105" t="n">
-        <v>1.61434</v>
+        <v>1.61448</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.02538</v>
+        <v>1.04343</v>
       </c>
       <c r="C106" t="n">
-        <v>1.95268</v>
+        <v>1.37944</v>
       </c>
       <c r="D106" t="n">
-        <v>1.79194</v>
+        <v>1.78912</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8268450000000001</v>
+        <v>0.830002</v>
       </c>
       <c r="F106" t="n">
-        <v>1.57523</v>
+        <v>1.5784</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0448</v>
+        <v>1.04077</v>
       </c>
       <c r="C107" t="n">
-        <v>1.35191</v>
+        <v>1.74487</v>
       </c>
       <c r="D107" t="n">
-        <v>3.12294</v>
+        <v>3.69065</v>
       </c>
       <c r="E107" t="n">
-        <v>0.85956</v>
+        <v>0.822289</v>
       </c>
       <c r="F107" t="n">
-        <v>2.69902</v>
+        <v>1.54538</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07885</v>
+        <v>1.03913</v>
       </c>
       <c r="C108" t="n">
-        <v>2.51944</v>
+        <v>1.34429</v>
       </c>
       <c r="D108" t="n">
-        <v>3.08927</v>
+        <v>3.08622</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14637</v>
+        <v>1.18721</v>
       </c>
       <c r="F108" t="n">
-        <v>4.00538</v>
+        <v>4.01137</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.07506</v>
+        <v>1.07061</v>
       </c>
       <c r="C109" t="n">
-        <v>2.52525</v>
+        <v>1.33955</v>
       </c>
       <c r="D109" t="n">
-        <v>3.47266</v>
+        <v>3.06275</v>
       </c>
       <c r="E109" t="n">
-        <v>1.14614</v>
+        <v>1.14243</v>
       </c>
       <c r="F109" t="n">
-        <v>3.93383</v>
+        <v>3.94462</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32462</v>
+        <v>1.34763</v>
       </c>
       <c r="C110" t="n">
-        <v>3.25765</v>
+        <v>3.26528</v>
       </c>
       <c r="D110" t="n">
-        <v>2.63989</v>
+        <v>2.6374</v>
       </c>
       <c r="E110" t="n">
-        <v>1.13241</v>
+        <v>1.12817</v>
       </c>
       <c r="F110" t="n">
-        <v>3.88136</v>
+        <v>3.88682</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.33596</v>
+        <v>1.35132</v>
       </c>
       <c r="C111" t="n">
-        <v>3.22049</v>
+        <v>3.22992</v>
       </c>
       <c r="D111" t="n">
-        <v>2.81544</v>
+        <v>2.61595</v>
       </c>
       <c r="E111" t="n">
-        <v>1.11557</v>
+        <v>1.11656</v>
       </c>
       <c r="F111" t="n">
-        <v>3.81994</v>
+        <v>3.83436</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30896</v>
+        <v>1.31948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.21212</v>
+        <v>3.22184</v>
       </c>
       <c r="D112" t="n">
-        <v>2.60455</v>
+        <v>2.80145</v>
       </c>
       <c r="E112" t="n">
-        <v>1.10783</v>
+        <v>1.10078</v>
       </c>
       <c r="F112" t="n">
-        <v>3.76286</v>
+        <v>3.75198</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.30951</v>
+        <v>1.32541</v>
       </c>
       <c r="C113" t="n">
-        <v>3.17882</v>
+        <v>3.19464</v>
       </c>
       <c r="D113" t="n">
-        <v>2.37624</v>
+        <v>2.99934</v>
       </c>
       <c r="E113" t="n">
-        <v>1.11491</v>
+        <v>1.09047</v>
       </c>
       <c r="F113" t="n">
-        <v>3.71364</v>
+        <v>3.70941</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.31394</v>
+        <v>1.32299</v>
       </c>
       <c r="C114" t="n">
-        <v>3.16285</v>
+        <v>3.16749</v>
       </c>
       <c r="D114" t="n">
-        <v>2.35979</v>
+        <v>2.78577</v>
       </c>
       <c r="E114" t="n">
-        <v>1.08205</v>
+        <v>1.08224</v>
       </c>
       <c r="F114" t="n">
-        <v>3.69159</v>
+        <v>3.66921</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31812</v>
+        <v>1.32338</v>
       </c>
       <c r="C115" t="n">
-        <v>3.15134</v>
+        <v>3.14295</v>
       </c>
       <c r="D115" t="n">
-        <v>2.34785</v>
+        <v>2.77216</v>
       </c>
       <c r="E115" t="n">
-        <v>1.06652</v>
+        <v>1.09027</v>
       </c>
       <c r="F115" t="n">
-        <v>3.62544</v>
+        <v>3.63938</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30806</v>
+        <v>1.31324</v>
       </c>
       <c r="C116" t="n">
-        <v>3.13311</v>
+        <v>3.13847</v>
       </c>
       <c r="D116" t="n">
-        <v>2.33785</v>
+        <v>2.3379</v>
       </c>
       <c r="E116" t="n">
-        <v>1.05852</v>
+        <v>1.04977</v>
       </c>
       <c r="F116" t="n">
-        <v>3.57248</v>
+        <v>3.55765</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28893</v>
+        <v>1.29561</v>
       </c>
       <c r="C117" t="n">
-        <v>3.09097</v>
+        <v>3.10109</v>
       </c>
       <c r="D117" t="n">
-        <v>2.31657</v>
+        <v>2.32834</v>
       </c>
       <c r="E117" t="n">
-        <v>1.04465</v>
+        <v>1.00247</v>
       </c>
       <c r="F117" t="n">
-        <v>3.53541</v>
+        <v>3.32388</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30177</v>
+        <v>1.31221</v>
       </c>
       <c r="C118" t="n">
-        <v>3.09862</v>
+        <v>3.09872</v>
       </c>
       <c r="D118" t="n">
-        <v>2.32375</v>
+        <v>2.3221</v>
       </c>
       <c r="E118" t="n">
-        <v>1.04076</v>
+        <v>1.03795</v>
       </c>
       <c r="F118" t="n">
-        <v>3.27496</v>
+        <v>2.82783</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.30345</v>
+        <v>1.29848</v>
       </c>
       <c r="C119" t="n">
-        <v>3.08951</v>
+        <v>3.09899</v>
       </c>
       <c r="D119" t="n">
-        <v>2.32403</v>
+        <v>2.32897</v>
       </c>
       <c r="E119" t="n">
-        <v>0.993245</v>
+        <v>0.993376</v>
       </c>
       <c r="F119" t="n">
-        <v>3.46664</v>
+        <v>3.44276</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.30187</v>
+        <v>1.30572</v>
       </c>
       <c r="C120" t="n">
-        <v>2.62183</v>
+        <v>3.07658</v>
       </c>
       <c r="D120" t="n">
-        <v>2.33185</v>
+        <v>2.32818</v>
       </c>
       <c r="E120" t="n">
-        <v>1.0093</v>
+        <v>0.988136</v>
       </c>
       <c r="F120" t="n">
-        <v>3.43809</v>
+        <v>3.41905</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29781</v>
+        <v>1.31005</v>
       </c>
       <c r="C121" t="n">
-        <v>3.05524</v>
+        <v>3.07576</v>
       </c>
       <c r="D121" t="n">
-        <v>4.50887</v>
+        <v>4.5159</v>
       </c>
       <c r="E121" t="n">
-        <v>1.0131</v>
+        <v>0.979224</v>
       </c>
       <c r="F121" t="n">
-        <v>3.17316</v>
+        <v>3.14511</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.3159</v>
+        <v>1.30071</v>
       </c>
       <c r="C122" t="n">
-        <v>3.04935</v>
+        <v>3.05444</v>
       </c>
       <c r="D122" t="n">
-        <v>4.46323</v>
+        <v>4.45326</v>
       </c>
       <c r="E122" t="n">
-        <v>0.975742</v>
+        <v>0.9770219999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>3.36431</v>
+        <v>3.13091</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.3218</v>
+        <v>1.2948</v>
       </c>
       <c r="C123" t="n">
-        <v>3.06166</v>
+        <v>1.68067</v>
       </c>
       <c r="D123" t="n">
-        <v>4.44654</v>
+        <v>3.9722</v>
       </c>
       <c r="E123" t="n">
-        <v>1.30459</v>
+        <v>1.30639</v>
       </c>
       <c r="F123" t="n">
-        <v>4.71706</v>
+        <v>4.69568</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.55636</v>
+        <v>1.55571</v>
       </c>
       <c r="C124" t="n">
-        <v>3.81811</v>
+        <v>3.83372</v>
       </c>
       <c r="D124" t="n">
-        <v>3.47828</v>
+        <v>4.3823</v>
       </c>
       <c r="E124" t="n">
-        <v>1.31483</v>
+        <v>1.29576</v>
       </c>
       <c r="F124" t="n">
-        <v>4.64321</v>
+        <v>4.63266</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.57083</v>
+        <v>1.57731</v>
       </c>
       <c r="C125" t="n">
-        <v>3.81093</v>
+        <v>3.80157</v>
       </c>
       <c r="D125" t="n">
-        <v>3.67004</v>
+        <v>3.90482</v>
       </c>
       <c r="E125" t="n">
-        <v>1.28501</v>
+        <v>1.28591</v>
       </c>
       <c r="F125" t="n">
-        <v>4.56799</v>
+        <v>4.5654</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.57301</v>
+        <v>1.56997</v>
       </c>
       <c r="C126" t="n">
-        <v>3.77955</v>
+        <v>3.76751</v>
       </c>
       <c r="D126" t="n">
-        <v>3.40958</v>
+        <v>3.63653</v>
       </c>
       <c r="E126" t="n">
-        <v>1.27865</v>
+        <v>1.27565</v>
       </c>
       <c r="F126" t="n">
-        <v>4.4996</v>
+        <v>4.47676</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.54302</v>
+        <v>1.55814</v>
       </c>
       <c r="C127" t="n">
-        <v>3.73282</v>
+        <v>3.72922</v>
       </c>
       <c r="D127" t="n">
-        <v>3.62806</v>
+        <v>2.89905</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26929</v>
+        <v>1.26039</v>
       </c>
       <c r="F127" t="n">
-        <v>4.43854</v>
+        <v>4.40908</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.55239</v>
+        <v>1.54819</v>
       </c>
       <c r="C128" t="n">
-        <v>3.72053</v>
+        <v>3.69839</v>
       </c>
       <c r="D128" t="n">
-        <v>3.3617</v>
+        <v>2.87458</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2605</v>
+        <v>1.26242</v>
       </c>
       <c r="F128" t="n">
-        <v>4.35851</v>
+        <v>4.35808</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.54192</v>
+        <v>1.55182</v>
       </c>
       <c r="C129" t="n">
-        <v>3.68788</v>
+        <v>3.67012</v>
       </c>
       <c r="D129" t="n">
-        <v>2.84444</v>
+        <v>2.8534</v>
       </c>
       <c r="E129" t="n">
-        <v>1.21161</v>
+        <v>1.25332</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0709</v>
+        <v>4.061</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.52853</v>
+        <v>1.52247</v>
       </c>
       <c r="C130" t="n">
-        <v>3.65808</v>
+        <v>3.64859</v>
       </c>
       <c r="D130" t="n">
-        <v>2.83872</v>
+        <v>2.83337</v>
       </c>
       <c r="E130" t="n">
-        <v>1.27438</v>
+        <v>1.24514</v>
       </c>
       <c r="F130" t="n">
-        <v>4.2466</v>
+        <v>4.25467</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.5117</v>
+        <v>1.51467</v>
       </c>
       <c r="C131" t="n">
-        <v>3.62792</v>
+        <v>3.64519</v>
       </c>
       <c r="D131" t="n">
-        <v>2.82219</v>
+        <v>2.82641</v>
       </c>
       <c r="E131" t="n">
-        <v>1.23942</v>
+        <v>1.22927</v>
       </c>
       <c r="F131" t="n">
-        <v>3.93804</v>
+        <v>4.18412</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.5136</v>
+        <v>1.50771</v>
       </c>
       <c r="C132" t="n">
-        <v>3.60011</v>
+        <v>3.60632</v>
       </c>
       <c r="D132" t="n">
-        <v>2.81797</v>
+        <v>2.79949</v>
       </c>
       <c r="E132" t="n">
-        <v>1.23785</v>
+        <v>1.23606</v>
       </c>
       <c r="F132" t="n">
-        <v>4.14769</v>
+        <v>3.89255</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.4903</v>
+        <v>1.50593</v>
       </c>
       <c r="C133" t="n">
-        <v>3.60818</v>
+        <v>3.58149</v>
       </c>
       <c r="D133" t="n">
-        <v>2.80945</v>
+        <v>2.79922</v>
       </c>
       <c r="E133" t="n">
-        <v>1.22007</v>
+        <v>1.21656</v>
       </c>
       <c r="F133" t="n">
-        <v>3.85092</v>
+        <v>3.84186</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.51607</v>
+        <v>1.50214</v>
       </c>
       <c r="C134" t="n">
-        <v>3.56925</v>
+        <v>3.56623</v>
       </c>
       <c r="D134" t="n">
-        <v>2.80643</v>
+        <v>2.79564</v>
       </c>
       <c r="E134" t="n">
-        <v>1.21901</v>
+        <v>1.22433</v>
       </c>
       <c r="F134" t="n">
-        <v>3.06673</v>
+        <v>4.04773</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.50147</v>
+        <v>1.51494</v>
       </c>
       <c r="C135" t="n">
-        <v>2.57731</v>
+        <v>3.56084</v>
       </c>
       <c r="D135" t="n">
-        <v>5.15985</v>
+        <v>5.13899</v>
       </c>
       <c r="E135" t="n">
-        <v>1.19794</v>
+        <v>1.22172</v>
       </c>
       <c r="F135" t="n">
-        <v>4.00757</v>
+        <v>4.00735</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.47902</v>
+        <v>1.50284</v>
       </c>
       <c r="C136" t="n">
-        <v>3.55164</v>
+        <v>3.55236</v>
       </c>
       <c r="D136" t="n">
-        <v>4.34873</v>
+        <v>4.57814</v>
       </c>
       <c r="E136" t="n">
-        <v>1.18871</v>
+        <v>1.1808</v>
       </c>
       <c r="F136" t="n">
-        <v>3.71967</v>
+        <v>2.97188</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.51718</v>
+        <v>1.49741</v>
       </c>
       <c r="C137" t="n">
-        <v>3.54433</v>
+        <v>2.05291</v>
       </c>
       <c r="D137" t="n">
-        <v>4.79824</v>
+        <v>4.27687</v>
       </c>
       <c r="E137" t="n">
-        <v>1.51466</v>
+        <v>1.50166</v>
       </c>
       <c r="F137" t="n">
-        <v>5.40296</v>
+        <v>5.38298</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.78026</v>
+        <v>1.76598</v>
       </c>
       <c r="C138" t="n">
-        <v>4.34698</v>
+        <v>4.34681</v>
       </c>
       <c r="D138" t="n">
-        <v>4.47888</v>
+        <v>4.22654</v>
       </c>
       <c r="E138" t="n">
-        <v>1.53642</v>
+        <v>1.50293</v>
       </c>
       <c r="F138" t="n">
-        <v>5.29373</v>
+        <v>5.27898</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.75836</v>
+        <v>1.73515</v>
       </c>
       <c r="C139" t="n">
-        <v>4.29698</v>
+        <v>4.29992</v>
       </c>
       <c r="D139" t="n">
-        <v>3.67979</v>
+        <v>3.92815</v>
       </c>
       <c r="E139" t="n">
-        <v>1.50075</v>
+        <v>1.49923</v>
       </c>
       <c r="F139" t="n">
-        <v>5.20162</v>
+        <v>5.19622</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.75564</v>
+        <v>1.72463</v>
       </c>
       <c r="C140" t="n">
-        <v>4.25383</v>
+        <v>4.2467</v>
       </c>
       <c r="D140" t="n">
-        <v>4.14899</v>
+        <v>4.13995</v>
       </c>
       <c r="E140" t="n">
-        <v>1.49035</v>
+        <v>1.48625</v>
       </c>
       <c r="F140" t="n">
-        <v>5.12094</v>
+        <v>5.0976</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.74085</v>
+        <v>1.71938</v>
       </c>
       <c r="C141" t="n">
-        <v>4.20551</v>
+        <v>4.21364</v>
       </c>
       <c r="D141" t="n">
-        <v>3.3459</v>
+        <v>3.3471</v>
       </c>
       <c r="E141" t="n">
-        <v>1.48704</v>
+        <v>1.48782</v>
       </c>
       <c r="F141" t="n">
-        <v>5.02912</v>
+        <v>5.02776</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.71641</v>
+        <v>1.73229</v>
       </c>
       <c r="C142" t="n">
-        <v>4.17712</v>
+        <v>4.17381</v>
       </c>
       <c r="D142" t="n">
-        <v>3.29796</v>
+        <v>3.29429</v>
       </c>
       <c r="E142" t="n">
-        <v>1.48227</v>
+        <v>1.47997</v>
       </c>
       <c r="F142" t="n">
-        <v>4.9499</v>
+        <v>4.93309</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.71668</v>
+        <v>1.72734</v>
       </c>
       <c r="C143" t="n">
-        <v>4.13719</v>
+        <v>4.13549</v>
       </c>
       <c r="D143" t="n">
-        <v>3.26212</v>
+        <v>3.26221</v>
       </c>
       <c r="E143" t="n">
-        <v>1.4786</v>
+        <v>1.46945</v>
       </c>
       <c r="F143" t="n">
-        <v>4.87312</v>
+        <v>4.86516</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577338</v>
+        <v>0.637698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.821361</v>
+        <v>0.802554</v>
       </c>
       <c r="D2" t="n">
-        <v>0.841652</v>
+        <v>0.866198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.566096</v>
+        <v>0.554234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8087760000000001</v>
+        <v>0.84334</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5652199999999999</v>
+        <v>0.617364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8104980000000001</v>
+        <v>0.7932979999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8319299999999999</v>
+        <v>0.858393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.551913</v>
+        <v>0.540234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.788216</v>
+        <v>0.823519</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.553204</v>
+        <v>0.604321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.801745</v>
+        <v>0.781811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.822667</v>
+        <v>0.848394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538839</v>
+        <v>0.526578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.77415</v>
+        <v>0.807551</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540225</v>
+        <v>0.5935049999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.792365</v>
+        <v>0.772882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.814152</v>
+        <v>0.898302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.526016</v>
+        <v>0.513884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.758999</v>
+        <v>0.792423</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534745</v>
+        <v>0.583591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.784695</v>
+        <v>0.763906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.843554</v>
+        <v>0.834611</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5153219999999999</v>
+        <v>0.5024459999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.745476</v>
+        <v>0.780525</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.52834</v>
+        <v>0.577927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.780267</v>
+        <v>0.758929</v>
       </c>
       <c r="D7" t="n">
-        <v>0.925519</v>
+        <v>0.935881</v>
       </c>
       <c r="E7" t="n">
-        <v>0.506656</v>
+        <v>0.492165</v>
       </c>
       <c r="F7" t="n">
-        <v>0.734589</v>
+        <v>0.768293</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.527358</v>
+        <v>0.5732080000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.778308</v>
+        <v>0.75591</v>
       </c>
       <c r="D8" t="n">
-        <v>0.90511</v>
+        <v>0.918234</v>
       </c>
       <c r="E8" t="n">
-        <v>0.501847</v>
+        <v>0.484469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.727652</v>
+        <v>0.761606</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.482068</v>
+        <v>0.573661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.780208</v>
+        <v>0.757567</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888473</v>
+        <v>0.900674</v>
       </c>
       <c r="E9" t="n">
-        <v>0.771347</v>
+        <v>0.768476</v>
       </c>
       <c r="F9" t="n">
-        <v>1.00509</v>
+        <v>1.04444</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.674821</v>
+        <v>0.73566</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9365520000000001</v>
+        <v>0.970767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8734459999999999</v>
+        <v>0.885718</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7476080000000001</v>
+        <v>0.744847</v>
       </c>
       <c r="F10" t="n">
-        <v>0.979909</v>
+        <v>1.01735</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.650657</v>
+        <v>0.711966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.917087</v>
+        <v>0.949298</v>
       </c>
       <c r="D11" t="n">
-        <v>0.857212</v>
+        <v>0.872223</v>
       </c>
       <c r="E11" t="n">
-        <v>0.725959</v>
+        <v>0.722824</v>
       </c>
       <c r="F11" t="n">
-        <v>0.95683</v>
+        <v>0.997297</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.63326</v>
+        <v>0.687572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.901034</v>
+        <v>0.9298999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.842002</v>
+        <v>0.857073</v>
       </c>
       <c r="E12" t="n">
-        <v>0.704103</v>
+        <v>0.7005479999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.937515</v>
+        <v>0.970078</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619074</v>
+        <v>0.673907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.884311</v>
+        <v>0.9122479999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.826143</v>
+        <v>0.842901</v>
       </c>
       <c r="E13" t="n">
-        <v>0.68269</v>
+        <v>0.680235</v>
       </c>
       <c r="F13" t="n">
-        <v>0.910527</v>
+        <v>0.94552</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.601657</v>
+        <v>0.655643</v>
       </c>
       <c r="C14" t="n">
-        <v>0.868104</v>
+        <v>0.895563</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8158840000000001</v>
+        <v>0.832373</v>
       </c>
       <c r="E14" t="n">
-        <v>0.664475</v>
+        <v>0.660509</v>
       </c>
       <c r="F14" t="n">
-        <v>0.892224</v>
+        <v>0.921322</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.585336</v>
+        <v>0.63952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.853409</v>
+        <v>0.835461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.80722</v>
+        <v>0.82302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.646769</v>
+        <v>0.641856</v>
       </c>
       <c r="F15" t="n">
-        <v>0.866545</v>
+        <v>0.9006690000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.56995</v>
+        <v>0.624204</v>
       </c>
       <c r="C16" t="n">
-        <v>0.839368</v>
+        <v>0.823658</v>
       </c>
       <c r="D16" t="n">
-        <v>0.795292</v>
+        <v>0.81287</v>
       </c>
       <c r="E16" t="n">
-        <v>0.628741</v>
+        <v>0.625086</v>
       </c>
       <c r="F16" t="n">
-        <v>0.847628</v>
+        <v>0.8800750000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558234</v>
+        <v>0.608818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.828485</v>
+        <v>0.810678</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785208</v>
+        <v>0.8024829999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6128710000000001</v>
+        <v>0.608881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.860838</v>
+        <v>0.895364</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.546234</v>
+        <v>0.595712</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818014</v>
+        <v>0.800116</v>
       </c>
       <c r="D18" t="n">
-        <v>0.778383</v>
+        <v>0.796048</v>
       </c>
       <c r="E18" t="n">
-        <v>0.597098</v>
+        <v>0.594102</v>
       </c>
       <c r="F18" t="n">
-        <v>0.842484</v>
+        <v>0.885983</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.537677</v>
+        <v>0.585125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.80659</v>
+        <v>0.788496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.771702</v>
+        <v>0.787853</v>
       </c>
       <c r="E19" t="n">
-        <v>0.58436</v>
+        <v>0.581241</v>
       </c>
       <c r="F19" t="n">
-        <v>0.82763</v>
+        <v>0.8655659999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.528021</v>
+        <v>0.5757640000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.802551</v>
+        <v>0.782199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.764212</v>
+        <v>0.782475</v>
       </c>
       <c r="E20" t="n">
-        <v>0.572403</v>
+        <v>0.569469</v>
       </c>
       <c r="F20" t="n">
-        <v>0.815119</v>
+        <v>0.856347</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.521277</v>
+        <v>0.567391</v>
       </c>
       <c r="C21" t="n">
-        <v>0.80455</v>
+        <v>0.775765</v>
       </c>
       <c r="D21" t="n">
-        <v>0.993659</v>
+        <v>1.0122</v>
       </c>
       <c r="E21" t="n">
-        <v>0.563211</v>
+        <v>0.559891</v>
       </c>
       <c r="F21" t="n">
-        <v>0.810028</v>
+        <v>0.850225</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.518754</v>
+        <v>0.596625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.792686</v>
+        <v>0.779209</v>
       </c>
       <c r="D22" t="n">
-        <v>0.971809</v>
+        <v>0.989676</v>
       </c>
       <c r="E22" t="n">
-        <v>0.55453</v>
+        <v>0.552339</v>
       </c>
       <c r="F22" t="n">
-        <v>0.800748</v>
+        <v>0.842338</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517119</v>
+        <v>0.561603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.791037</v>
+        <v>0.777404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.946137</v>
+        <v>0.969718</v>
       </c>
       <c r="E23" t="n">
-        <v>0.836232</v>
+        <v>0.844981</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08725</v>
+        <v>1.12019</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.684755</v>
+        <v>0.744188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.974955</v>
+        <v>0.959019</v>
       </c>
       <c r="D24" t="n">
-        <v>0.930979</v>
+        <v>0.949622</v>
       </c>
       <c r="E24" t="n">
-        <v>0.809311</v>
+        <v>0.8181079999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05402</v>
+        <v>1.09185</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.664147</v>
+        <v>0.723944</v>
       </c>
       <c r="C25" t="n">
-        <v>0.953555</v>
+        <v>0.936473</v>
       </c>
       <c r="D25" t="n">
-        <v>0.91867</v>
+        <v>0.932487</v>
       </c>
       <c r="E25" t="n">
-        <v>0.785544</v>
+        <v>0.79215</v>
       </c>
       <c r="F25" t="n">
-        <v>1.02936</v>
+        <v>1.06444</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.646745</v>
+        <v>0.703507</v>
       </c>
       <c r="C26" t="n">
-        <v>0.933975</v>
+        <v>0.916971</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9029199999999999</v>
+        <v>0.917615</v>
       </c>
       <c r="E26" t="n">
-        <v>0.763056</v>
+        <v>0.76734</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0101</v>
+        <v>1.04522</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.665083</v>
+        <v>0.722882</v>
       </c>
       <c r="C27" t="n">
-        <v>0.915083</v>
+        <v>0.902407</v>
       </c>
       <c r="D27" t="n">
-        <v>0.888031</v>
+        <v>0.901643</v>
       </c>
       <c r="E27" t="n">
-        <v>0.738753</v>
+        <v>0.744628</v>
       </c>
       <c r="F27" t="n">
-        <v>0.980718</v>
+        <v>1.02002</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.612612</v>
+        <v>0.702199</v>
       </c>
       <c r="C28" t="n">
-        <v>0.89529</v>
+        <v>0.88162</v>
       </c>
       <c r="D28" t="n">
-        <v>0.873874</v>
+        <v>0.892848</v>
       </c>
       <c r="E28" t="n">
-        <v>0.715829</v>
+        <v>0.7227980000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.963022</v>
+        <v>0.9959440000000001</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.63096</v>
+        <v>0.683339</v>
       </c>
       <c r="C29" t="n">
-        <v>0.881745</v>
+        <v>0.868184</v>
       </c>
       <c r="D29" t="n">
-        <v>0.864484</v>
+        <v>0.878227</v>
       </c>
       <c r="E29" t="n">
-        <v>0.695851</v>
+        <v>0.702206</v>
       </c>
       <c r="F29" t="n">
-        <v>0.94086</v>
+        <v>0.973929</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.586097</v>
+        <v>0.6670970000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.885645</v>
+        <v>0.859928</v>
       </c>
       <c r="D30" t="n">
-        <v>0.852747</v>
+        <v>0.86813</v>
       </c>
       <c r="E30" t="n">
-        <v>0.678366</v>
+        <v>0.682044</v>
       </c>
       <c r="F30" t="n">
-        <v>0.917442</v>
+        <v>0.954951</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.602645</v>
+        <v>0.6494760000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8726660000000001</v>
+        <v>0.839913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.842283</v>
+        <v>0.857795</v>
       </c>
       <c r="E31" t="n">
-        <v>0.660659</v>
+        <v>0.6636030000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.900014</v>
+        <v>0.93083</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.584317</v>
+        <v>0.637225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.861829</v>
+        <v>0.821549</v>
       </c>
       <c r="D32" t="n">
-        <v>0.83765</v>
+        <v>0.850332</v>
       </c>
       <c r="E32" t="n">
-        <v>0.641021</v>
+        <v>0.645994</v>
       </c>
       <c r="F32" t="n">
-        <v>0.877548</v>
+        <v>0.910954</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.574466</v>
+        <v>0.624026</v>
       </c>
       <c r="C33" t="n">
-        <v>0.851871</v>
+        <v>0.823095</v>
       </c>
       <c r="D33" t="n">
-        <v>0.82482</v>
+        <v>0.842958</v>
       </c>
       <c r="E33" t="n">
-        <v>0.627139</v>
+        <v>0.630637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8601799999999999</v>
+        <v>0.893551</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.566746</v>
+        <v>0.613951</v>
       </c>
       <c r="C34" t="n">
-        <v>0.816985</v>
+        <v>0.800584</v>
       </c>
       <c r="D34" t="n">
-        <v>0.818568</v>
+        <v>0.836995</v>
       </c>
       <c r="E34" t="n">
-        <v>0.614711</v>
+        <v>0.615635</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8426940000000001</v>
+        <v>0.877286</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.556115</v>
+        <v>0.603695</v>
       </c>
       <c r="C35" t="n">
-        <v>0.813431</v>
+        <v>0.7977300000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.07127</v>
+        <v>1.08595</v>
       </c>
       <c r="E35" t="n">
-        <v>0.577835</v>
+        <v>0.577332</v>
       </c>
       <c r="F35" t="n">
-        <v>0.830005</v>
+        <v>0.861938</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.525875</v>
+        <v>0.568608</v>
       </c>
       <c r="C36" t="n">
-        <v>0.807552</v>
+        <v>0.792287</v>
       </c>
       <c r="D36" t="n">
-        <v>1.04117</v>
+        <v>1.057</v>
       </c>
       <c r="E36" t="n">
-        <v>0.568682</v>
+        <v>0.567976</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8136949999999999</v>
+        <v>0.85004</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5221209999999999</v>
+        <v>0.592861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8041239999999999</v>
+        <v>0.791368</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02165</v>
+        <v>1.03563</v>
       </c>
       <c r="E37" t="n">
-        <v>0.880338</v>
+        <v>0.864233</v>
       </c>
       <c r="F37" t="n">
-        <v>1.38046</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.767563</v>
+        <v>0.796553</v>
       </c>
       <c r="C38" t="n">
-        <v>1.22375</v>
+        <v>1.23767</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00564</v>
+        <v>1.02723</v>
       </c>
       <c r="E38" t="n">
-        <v>0.85434</v>
+        <v>0.837624</v>
       </c>
       <c r="F38" t="n">
-        <v>1.34827</v>
+        <v>1.41698</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.742124</v>
+        <v>0.801152</v>
       </c>
       <c r="C39" t="n">
-        <v>1.20189</v>
+        <v>1.21759</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9889019999999999</v>
+        <v>1.00379</v>
       </c>
       <c r="E39" t="n">
-        <v>0.838856</v>
+        <v>0.81223</v>
       </c>
       <c r="F39" t="n">
-        <v>1.31893</v>
+        <v>1.38635</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.720398</v>
+        <v>0.778073</v>
       </c>
       <c r="C40" t="n">
-        <v>1.17981</v>
+        <v>1.20082</v>
       </c>
       <c r="D40" t="n">
-        <v>0.97201</v>
+        <v>0.989648</v>
       </c>
       <c r="E40" t="n">
-        <v>0.800892</v>
+        <v>0.787057</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28908</v>
+        <v>1.35631</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.701632</v>
+        <v>0.732957</v>
       </c>
       <c r="C41" t="n">
-        <v>1.16314</v>
+        <v>1.18137</v>
       </c>
       <c r="D41" t="n">
-        <v>0.955657</v>
+        <v>0.971803</v>
       </c>
       <c r="E41" t="n">
-        <v>0.779047</v>
+        <v>0.763622</v>
       </c>
       <c r="F41" t="n">
-        <v>1.26396</v>
+        <v>1.32952</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.694611</v>
+        <v>0.735784</v>
       </c>
       <c r="C42" t="n">
-        <v>1.14458</v>
+        <v>1.16336</v>
       </c>
       <c r="D42" t="n">
-        <v>0.938416</v>
+        <v>0.953548</v>
       </c>
       <c r="E42" t="n">
-        <v>0.753594</v>
+        <v>0.740672</v>
       </c>
       <c r="F42" t="n">
-        <v>1.23704</v>
+        <v>1.30354</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6638269999999999</v>
+        <v>0.6941850000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.12754</v>
+        <v>1.14596</v>
       </c>
       <c r="D43" t="n">
-        <v>0.926602</v>
+        <v>0.941549</v>
       </c>
       <c r="E43" t="n">
-        <v>0.729892</v>
+        <v>0.719894</v>
       </c>
       <c r="F43" t="n">
-        <v>1.21355</v>
+        <v>1.27848</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.644454</v>
+        <v>0.678549</v>
       </c>
       <c r="C44" t="n">
-        <v>1.1112</v>
+        <v>1.13098</v>
       </c>
       <c r="D44" t="n">
-        <v>0.913341</v>
+        <v>0.928028</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7131110000000001</v>
+        <v>0.70003</v>
       </c>
       <c r="F44" t="n">
-        <v>1.18879</v>
+        <v>1.25414</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.632258</v>
+        <v>0.663686</v>
       </c>
       <c r="C45" t="n">
-        <v>1.09911</v>
+        <v>1.11849</v>
       </c>
       <c r="D45" t="n">
-        <v>0.903956</v>
+        <v>0.918333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.692515</v>
+        <v>0.68133</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16878</v>
+        <v>1.23233</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.628342</v>
+        <v>0.649864</v>
       </c>
       <c r="C46" t="n">
-        <v>1.08466</v>
+        <v>1.10418</v>
       </c>
       <c r="D46" t="n">
-        <v>0.892826</v>
+        <v>0.90779</v>
       </c>
       <c r="E46" t="n">
-        <v>0.640449</v>
+        <v>0.664115</v>
       </c>
       <c r="F46" t="n">
-        <v>1.14696</v>
+        <v>1.21165</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.604245</v>
+        <v>0.635045</v>
       </c>
       <c r="C47" t="n">
-        <v>1.07318</v>
+        <v>1.09464</v>
       </c>
       <c r="D47" t="n">
-        <v>0.883848</v>
+        <v>0.899572</v>
       </c>
       <c r="E47" t="n">
-        <v>0.658478</v>
+        <v>0.647575</v>
       </c>
       <c r="F47" t="n">
-        <v>1.13046</v>
+        <v>1.19244</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.593938</v>
+        <v>0.624413</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0631</v>
+        <v>1.0855</v>
       </c>
       <c r="D48" t="n">
-        <v>0.875713</v>
+        <v>0.898017</v>
       </c>
       <c r="E48" t="n">
-        <v>0.609526</v>
+        <v>0.632721</v>
       </c>
       <c r="F48" t="n">
-        <v>1.11321</v>
+        <v>1.17506</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.581297</v>
+        <v>0.615698</v>
       </c>
       <c r="C49" t="n">
-        <v>1.05556</v>
+        <v>1.07754</v>
       </c>
       <c r="D49" t="n">
-        <v>0.871742</v>
+        <v>0.886495</v>
       </c>
       <c r="E49" t="n">
-        <v>0.625663</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09567</v>
+        <v>1.15891</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5852850000000001</v>
+        <v>0.606677</v>
       </c>
       <c r="C50" t="n">
-        <v>1.04982</v>
+        <v>1.07414</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11756</v>
+        <v>1.13318</v>
       </c>
       <c r="E50" t="n">
-        <v>0.608958</v>
+        <v>0.608331</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0832</v>
+        <v>1.14584</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.56584</v>
+        <v>0.604917</v>
       </c>
       <c r="C51" t="n">
-        <v>1.04679</v>
+        <v>1.0707</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09426</v>
+        <v>1.11375</v>
       </c>
       <c r="E51" t="n">
-        <v>0.916988</v>
+        <v>0.911312</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4622</v>
+        <v>1.53181</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.540952</v>
+        <v>0.580886</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0471</v>
+        <v>1.07238</v>
       </c>
       <c r="D52" t="n">
-        <v>1.07186</v>
+        <v>1.08796</v>
       </c>
       <c r="E52" t="n">
-        <v>0.901663</v>
+        <v>0.864128</v>
       </c>
       <c r="F52" t="n">
-        <v>1.42744</v>
+        <v>1.49598</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.778527</v>
+        <v>0.821511</v>
       </c>
       <c r="C53" t="n">
-        <v>1.25047</v>
+        <v>1.27141</v>
       </c>
       <c r="D53" t="n">
-        <v>1.05149</v>
+        <v>1.06901</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8617669999999999</v>
+        <v>0.838581</v>
       </c>
       <c r="F53" t="n">
-        <v>1.39368</v>
+        <v>1.4629</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7680439999999999</v>
+        <v>0.776372</v>
       </c>
       <c r="C54" t="n">
-        <v>1.22877</v>
+        <v>1.25029</v>
       </c>
       <c r="D54" t="n">
-        <v>1.03319</v>
+        <v>1.04804</v>
       </c>
       <c r="E54" t="n">
-        <v>0.848873</v>
+        <v>0.812954</v>
       </c>
       <c r="F54" t="n">
-        <v>1.36359</v>
+        <v>1.43424</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.749824</v>
+        <v>0.777104</v>
       </c>
       <c r="C55" t="n">
-        <v>1.20683</v>
+        <v>1.23257</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01331</v>
+        <v>1.03083</v>
       </c>
       <c r="E55" t="n">
-        <v>0.813728</v>
+        <v>0.790263</v>
       </c>
       <c r="F55" t="n">
-        <v>1.33566</v>
+        <v>1.40522</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7177559999999999</v>
+        <v>0.738601</v>
       </c>
       <c r="C56" t="n">
-        <v>1.18943</v>
+        <v>1.21337</v>
       </c>
       <c r="D56" t="n">
-        <v>0.997542</v>
+        <v>1.01192</v>
       </c>
       <c r="E56" t="n">
-        <v>0.790172</v>
+        <v>0.767415</v>
       </c>
       <c r="F56" t="n">
-        <v>1.30557</v>
+        <v>1.37442</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.711612</v>
+        <v>0.721433</v>
       </c>
       <c r="C57" t="n">
-        <v>1.17123</v>
+        <v>1.19615</v>
       </c>
       <c r="D57" t="n">
-        <v>0.980979</v>
+        <v>0.9987200000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7695650000000001</v>
+        <v>0.7461989999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>1.28063</v>
+        <v>1.34994</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.694137</v>
+        <v>0.702197</v>
       </c>
       <c r="C58" t="n">
-        <v>1.15453</v>
+        <v>1.1796</v>
       </c>
       <c r="D58" t="n">
-        <v>0.96861</v>
+        <v>0.991347</v>
       </c>
       <c r="E58" t="n">
-        <v>0.747622</v>
+        <v>0.727169</v>
       </c>
       <c r="F58" t="n">
-        <v>1.25534</v>
+        <v>1.32439</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.669598</v>
+        <v>0.687311</v>
       </c>
       <c r="C59" t="n">
-        <v>1.13983</v>
+        <v>1.16462</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948632</v>
+        <v>0.968105</v>
       </c>
       <c r="E59" t="n">
-        <v>0.727142</v>
+        <v>0.709483</v>
       </c>
       <c r="F59" t="n">
-        <v>1.23387</v>
+        <v>1.30014</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.645693</v>
+        <v>0.6728730000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.12517</v>
+        <v>1.1526</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93748</v>
+        <v>0.954809</v>
       </c>
       <c r="E60" t="n">
-        <v>0.704521</v>
+        <v>0.660277</v>
       </c>
       <c r="F60" t="n">
-        <v>1.20945</v>
+        <v>1.27682</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6277199999999999</v>
+        <v>0.662836</v>
       </c>
       <c r="C61" t="n">
-        <v>1.11131</v>
+        <v>1.14068</v>
       </c>
       <c r="D61" t="n">
-        <v>0.927335</v>
+        <v>0.944954</v>
       </c>
       <c r="E61" t="n">
-        <v>0.672085</v>
+        <v>0.644321</v>
       </c>
       <c r="F61" t="n">
-        <v>1.18913</v>
+        <v>1.25684</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6090179999999999</v>
+        <v>0.660978</v>
       </c>
       <c r="C62" t="n">
-        <v>1.10001</v>
+        <v>1.12982</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9197920000000001</v>
+        <v>0.935806</v>
       </c>
       <c r="E62" t="n">
-        <v>0.634757</v>
+        <v>0.658822</v>
       </c>
       <c r="F62" t="n">
-        <v>1.1693</v>
+        <v>1.23571</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5930569999999999</v>
+        <v>0.637673</v>
       </c>
       <c r="C63" t="n">
-        <v>1.09205</v>
+        <v>1.12058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9108849999999999</v>
+        <v>0.925796</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6346619999999999</v>
+        <v>0.646096</v>
       </c>
       <c r="F63" t="n">
-        <v>1.15295</v>
+        <v>1.21905</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.610513</v>
+        <v>0.631661</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08544</v>
+        <v>1.1145</v>
       </c>
       <c r="D64" t="n">
-        <v>1.21204</v>
+        <v>1.21156</v>
       </c>
       <c r="E64" t="n">
-        <v>0.65234</v>
+        <v>0.635074</v>
       </c>
       <c r="F64" t="n">
-        <v>1.14091</v>
+        <v>1.2037</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.606537</v>
+        <v>0.625854</v>
       </c>
       <c r="C65" t="n">
-        <v>1.08282</v>
+        <v>1.08648</v>
       </c>
       <c r="D65" t="n">
-        <v>1.18266</v>
+        <v>1.18949</v>
       </c>
       <c r="E65" t="n">
-        <v>0.640185</v>
+        <v>0.625281</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12779</v>
+        <v>1.19275</v>
      